--- a/the_real_thing/FMBN_5/Excel_text_files_v5/Abstracts.xlsx
+++ b/the_real_thing/FMBN_5/Excel_text_files_v5/Abstracts.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenioparente/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/Il mio Drive/FMBN/FMBNv5/FMBN5_260324/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenioparente/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN5_0_1_040924/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F55D1A-BC8B-C243-A474-420657630ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9987AADC-4DCF-DD4C-9B88-B8B79615D075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="520" windowWidth="28040" windowHeight="17440" xr2:uid="{EC83DC76-DA63-8B42-8906-4BAF203BC638}"/>
+    <workbookView xWindow="13580" yWindow="7900" windowWidth="26040" windowHeight="14940" xr2:uid="{BF964EF4-E532-4340-86F2-91B17A2C867A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$234</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="528">
   <si>
     <t>study</t>
   </si>
@@ -52,1389 +49,1389 @@
     <t>https://doi.org/10.1016/j.ijfoodmicro.2015.09.002</t>
   </si>
   <si>
+    <t>The microbiota of high-moisture Mozzarella cheese made from cow's milk and produced with different acidification methods was evaluated at the end of refrigerated storage by pyrosequencing of the 16S rRNA gene. The cheeses were clearly separated on the basis of the acidification methods. Cheeses produced with the addition of starters were dominated by Streptococcus thermophilus, but a variety of lactic acid bacteria and spoilage microorganisms appeared at low levels (0.01–1%). Cheeses produced by direct addition of citric acid were dominated by a diverse microbiota, including both lactic acid bacteria and psychrotrophic γ-proteobacteria. For five brands the acidification system was not declared on the label: the microbiota was dominated by thermophilic lactic acid bacteria (S. thermophilus, Lactobacillus delbrueckii, Lactobacillus helveticus) but a variety of other subdominant lactic acid bacteria, psychrotrophs and Enterobacteriaceae were present, with a diversity comparable or higher to cheeses produced by direct acid addition. This led to the conclusion that undefined starters were used for acidification. Both ordination methods and network analysis were used for the representation of beta-diversity: matrix cluster analysis, principal coordinate analysis and OTU networks uncovered different aspects of the microbial community structure. For three cheese brands both biological replicates (cheeses from different lots) and technical replicates (replicate cheeses from the same lot) were analyzed. Repeatability was acceptable for OTUs appearing at frequencies &gt; 1%, but was low otherwise. A linear mixed model showed that the starter system was responsible for most differences related to dairies, while difference due to psychrotrophic contaminants was more related to lot-to-lot variability.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2015.10.014</t>
   </si>
   <si>
+    <t>Model undefined thermophilic starter cultures were produced from raw milk of nine pasta-filata cheesemaking plants using a selective procedure based on pasteurization and incubation at high temperature with the objective of studying the microbial community dynamics and the variability in performances under repeated (7–13) reproduction cycles with backslopping. The traditional culture-dependent approach, based on random isolation and molecular characterization of isolates was coupled to the determination of pH and the evaluation of the ability to produce acid and fermentation metabolites. Moreover, a culture-independent approach based on amplicon-targeted next-generation sequencing was employed. The microbial diversity was evaluated by 16S rRNA gene sequencing (V1–V3 regions), while the microdiversity of Streptococcus thermophilus populations was explored by using novel approach based on sequencing of partial amplicons of the phosphoserine phosphatase gene (serB). In addition, the occurrence of bacteriophages was evaluated by qPCR and by multiplex PCR. Although it was relatively easy to select for a community dominated by thermophilic lactic acid bacteria (LAB) within a single reproduction cycle, final pH, LAB populations and acid production activity fluctuated over reproduction cycles. Both culture-dependent and -independent methods showed that the cultures were dominated by either S. thermophilus or Lactobacillus delbrueckii subsp. lactis or by both species. Nevertheless, subdominant mesophilic species, including lactococci and spoilage organisms, persisted at low levels. A limited number of serB sequence types (ST) were present in S. thermophilus populations. L. delbrueckii and Lactococcus lactis bacteriophages were below the detection limit of the method used and high titres of cos type S. thermophilus bacteriophages were detected in only two cases. In one case a high titre of bacteriophages was concurrent with a S. thermophilus biotype shift in the culture. This study largely confirms previous data on the composition of undefined thermophilic starters used for the production of traditional cheeses in Italy but it is the first one to systematically address the dynamics of the cultures under a repeated reproduction regime with backslopping.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0089680</t>
   </si>
   <si>
+    <t>Mozzarella (M), Grana Padano (GP) and Parmigiano Reggiano (PR) are three of the most important traditional Italian cheeses. In the three cheese manufactures the initial fermentation is carried out by adding natural whey cultures (NWCs) according to a back-slopping procedure. In this study, NWCs and the corresponding curds from M, GP and PR manufactures were analyzed by culture-independent pyrosequencing of the amplified V1–V3 regions of the 16S rRNA gene, in order to provide insights into the microbiota involved in the curd acidification. Moreover, culture-independent high-throughput sequencing of lacS gene amplicons was carried out to evaluate the biodiversity occurring within the S. thermophilus species. Beta diversity analysis showed a species-based differentiation between GP-PR and M manufactures indicating differences between the preparations. Nevertheless, all the samples shared a naturally-selected core microbiome, that is involved in the curd acidification. Type-level variability within S. thermophilus species was also found and twenty-eight lacS gene sequence types were identified. Although lacS gene did not prove variable enough within S. thermophilus species to be used for quantitative biotype monitoring, the possibility of using non rRNA targets for quantitative biotype identification in food was highlighted.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.02218-12</t>
   </si>
   <si>
+    <t>Intermediates of production of two batches of traditional mozzarella cheese were analyzed by culture-independent pyrosequencing. The quantitative distribution of taxa within the samples suggested that thermophilic lactic acid bacteria from the natural starter were mainly responsible for the fermentation, while microorganisms found in raw milk did not develop during fermentation.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0069371</t>
   </si>
   <si>
+    <t>Kefir is a fermented milk-based beverage to which a number of health-promoting properties have been attributed. The microbes responsible for the fermentation of milk to produce kefir consist of a complex association of bacteria and yeasts, bound within a polysaccharide matrix, known as the kefir grain. The consistency of this microbial population, and that present in the resultant beverage, has been the subject of a number of previous, almost exclusively culture-based, studies which have indicated differences depending on geographical location and culture conditions. However, culture-based identification studies are limited by virtue of only detecting species with the ability to grow on the specific medium used and thus culture-independent, molecular-based techniques offer the potential for a more comprehensive analysis of such communities. Here we describe a detailed investigation of the microbial population, both bacterial and fungal, of kefir, using high-throughput sequencing to analyse 25 kefir milks and associated grains sourced from 8 geographically distinct regions. This is the first occasion that this technology has been employed to investigate the fungal component of these populations or to reveal the microbial composition of such an extensive number of kefir grains or milks. As a result several genera and species not previously identified in kefir were revealed. Our analysis shows that the bacterial populations in kefir are dominated by 2 phyla, the Firmicutes and the Proteobacteria. It was also established that the fungal populations of kefir were dominated by the genera Kazachstania, Kluyveromyces and Naumovozyma, but that a variable sub-dominant population also exists.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.00757-14</t>
   </si>
   <si>
+    <t>Pyrosequencing of the 16S rRNA gene, community-level physiological profiles determined by the use of Biolog EcoPlates, and proteolysis analyses were used to characterize Canestrato Pugliese Protected Designation of Origin (PDO) cheese. The number of presumptive mesophilic lactococci in raw ewes' milk was higher than that of presumptive mesophilic lactobacilli. The numbers of these microbial groups increased during ripening, showing temporal and numerical differences. Urea-PAGE showed limited primary proteolysis, whereas the analysis of the pH 4.6-soluble fraction of the cheese revealed that secondary proteolysis increased mainly from 45 to 75 days of ripening. This agreed with the concentration of free amino acids. Raw ewes' milk was contaminated by several bacterial phyla: Proteobacteria (68%; mainly Pseudomonas), Firmicutes (30%; mainly Carnobacterium and Lactococcus), Bacteroidetes (0.05%), and Actinobacteria (0.02%). Almost the same microbial composition persisted in the curd after molding. From day 1 of ripening onwards, the phylum Firmicutes dominated. Lactococcus dominated throughout ripening, and most of the Lactobacillus species appeared only at 7 or 15 days. At 90 days, Lactococcus (87.2%), Lactobacillus (4.8%; mainly Lactobacillus plantarum and Lactobacillus sakei), and Leuconostoc (3.9%) dominated. The relative utilization of carbon sources by the bacterial community reflected the succession. This study identified strategic phases that characterized the manufacture and ripening of Canestrato Pugliese cheese and established a causal relationship between mesophilic lactobacilli and proteolysis.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.02097-14</t>
   </si>
   <si>
+    <t>Pyrosequencing of the 16S rRNA targeting RNA, community-level physiological profiles made with Biolog EcoPlates, proteolysis, and volatile component (VOC) analyses were mainly used to characterize the manufacture and ripening of the pasta filata cheese Caciocavallo Pugliese. Plate counts revealed that cheese manufacture affected the microbial ecology. The results agreed with those from culture-independent approaches. As shown by urea-PAGE, reverse-phase high pressure liquid chromatography (RP-HPLC), and free-amino-acid (FAA) analyses, the extent of secondary proteolysis mainly increased after 30 to 45 days of ripening. VOCs and volatile free fatty acids (VFFA) were identified by a purge-and-trap method (PT) and solid-phase microextraction (SPME) coupled with gas chromatography-mass spectrometry (GC-MS), respectively. Except for aldehydes, the levels of most of VOCs and VFFA mainly increased from 30 to 45 days onwards. As shown through pyrosequencing analysis, raw cows' milk was contaminated by Firmicutes (53%), Proteobacteria (39%), Bacteroidetes (7.8%), Actinobacteria (0.06%), and Fusobacteria (0.03%), with heterogeneity at the genus level. The primary starter Streptococcus thermophilus dominated the curd population. Other genera occurred at low incidence or sporadically. The microbial dynamics reflected on the overall physiological diversity. At 30 days, a microbial succession was clearly highlighted. The relative abundance of Streptococcus sp. and especially St. thermophilus decreased, while that of Lactobacillus casei, Lactobacillus sp., and especially Lactobacillus paracasei increased consistently. Despite the lower relative abundance compared to St. thermophilus, mesophilic lactobacilli were the only organisms positively correlated with the concentration of FAAs, area of hydrophilic peptide peaks, and several VOCs (e.g., alcohols, ketones, esters and all furans). This study showed that a core microbiota was naturally selected during middle ripening, which seemed to be the main factor responsible for cheese ripening.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2014.05.021</t>
   </si>
   <si>
+    <t>Fontina Protected Denomination of Origin (PDO) cheese is a full-fat semi-cooked cheese traditionally made in Northwest Italy (Aosta Valley) and manufactured from raw cow's milk. The management of cattle farms in Aosta Valley calls for seasonal migration to high pastures during the summer and the concentration of calving during the autumn and the beginning of the winter. Based on cattle physiology and given to calving seasonality, three cow lactation phases i.e. post-partum, oestrus and early gestation, can be identified and an effect could be hypothesized on average milk composition and on cheese quality. The aim of the present paper was to investigate the bacterial dynamics during Fontina PDO cheese manufacturing and ripening, in relation to the different lactation stages, in order to evaluate a possible correlation between microbiota and phase of lactation. For this purpose, microbial RNA analysis was carried out by RT-PCR coupled with DGGE and high-throughput sequencing. A good performance of the starter cultures was highlighted throughout Fontina PDO manufacturing and ripening; in fact, the starter prevailed against the autochthonous microbiota. Thus, the microbial activity, which was supposed to affect the final quality of Fontina PDO cheese, appeared to be strictly associated to the presence of the starter, which did not show any difference in its performance according to the different stages of cow lactation. Therefore, the results of this research highlighted a negligible correlation between the microbiota of raw milk and the organoleptic quality and typicity of Fontina cheese in relation to lactation seasonality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.00999-16</t>
   </si>
   <si>
+    <t>The microbial ecology of cheese involves a rich and complex interaction between starter lactic acid bacteria and nonstarter lactic acid bacteria (NSLAB), mainly originating from raw milk and/or from the environment, that can contribute to the final characteristics of cheese. The aim of the present research was the exploration of the active microbiota by RNA-based approaches during the manufacturing and ripening of a Grana-like cheese. Reverse transcriptase PCR (RT-PCR)-denaturing gradient gel electrophoresis (DGGE) and RNA-based high-throughput sequencing were applied to profile microbial populations, while the enumeration of active bacteria was carried out by using quantitative PCR (qPCR). Three different cheese productions (named D, E, and F) collected in the same month from the same dairy plant were analyzed. The application of the qPCR protocol revealed the presence of 7 log CFU/ml of bacterial load in raw milk, while, during ripening, active bacterial populations ranged from &lt;4 to 8 log CFU/ml. The natural whey starters used in the three productions showed the same microbiota composition, characterized by the presence of Lactobacillus helveticus and Lactobacillus delbrueckii. Nevertheless, beta-diversity analysis of the 16S rRNA sequencing data and RT-PCR-DGGE showed a clear clustering of the samples according to the three productions, probably driven by the different milks used. Milk samples were found to be characterized by the presence of several contaminants, such as Propionibacterium acnes, Acidovorax, Acinetobacter, Pseudomonas, and NSLAB. The core genera of the starter tended to limit the development of the spoilage bacteria only in two of the three batches. This study underlines the influence of different factors that can affect the final microbiota composition of the artisanal cheese. batches. This study underlines the influence of different factors that can affect the final microbiota composition of the artisanal cheese. IMPORTANCE This study highlights the importance of the quality of the raw milk in the production of a hard cheese. Independent from the use of a starter culture, raw milk with low microbiological quality can negatively affect the populations of lactic acid bacteria and, as a consequence, impact the quality of the final product due to metabolic processes associated with spoilage bacteria.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/srep21871</t>
   </si>
   <si>
+    <t>Traditional cheeses harbour complex microbial consortia that play an important role in shaping typical sensorial properties. However, the microbial metabolism is considered difficult to control. Microbial community succession and the related gene expression were analysed during ripening of a traditional Italian cheese, identifying parameters that could be modified to accelerate ripening. Afterwards, we modulated ripening conditions and observed consistent changes in microbial community structure and function. We provide concrete evidence of the essential contribution of non-starter lactic acid bacteria in ripening-related activities. An increase in the ripening temperature promoted the expression of genes related to proteolysis, lipolysis and amino acid/lipid catabolism and significantly increases the cheese maturation rate. Moreover, temperature-promoted microbial metabolisms were consistent with the metabolomic profiles of proteins and volatile organic compounds in the cheese. The results clearly indicate how processing-driven microbiome responses can be modulated in order to optimize production efficiency and product quality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0070222</t>
   </si>
   <si>
+    <t>Microbial growth on meat to unacceptable levels contributes significantly to change meat structure, color and flavor and to cause meat spoilage. The types of microorganisms initially present in meat depend on several factors and multiple sources of contamination can be identified. The aims of this study were to evaluate the microbial diversity in beefsteaks before and after aerobic storage at 4°C and to investigate the sources of microbial contamination by examining the microbiota of carcasses wherefrom the steaks originated and of the processing environment where the beef was handled. Carcass, environmental (processing plant) and meat samples were analyzed by culture-independent high-throughput sequencing of 16S rRNA gene amplicons. The microbiota of carcass swabs was very complex, including more than 600 operational taxonomic units (OTUs) belonging to 15 different phyla. A significant association was found between beef microbiota and specific beef cuts (P&lt;0.01) indicating that different cuts of the same carcass can influence the microbial contamination of beef. Despite the initially high complexity of the carcass microbiota, the steaks after aerobic storage at 4°C showed a dramatic decrease in microbial complexity. Pseudomonas sp. and Brochothrix thermosphacta were the main contaminants, and Acinetobacter, Psychrobacter and Enterobacteriaceae were also found. Comparing the relative abundance of OTUs in the different samples it was shown that abundant OTUs in beefsteaks after storage occurred in the corresponding carcass. However, the abundance of these same OTUs clearly increased in environmental samples taken in the processing plant suggesting that spoilage-associated microbial species originate from carcasses, they are carried to the processing environment where the meat is handled and there they become a resident microbiota. Such microbiota is then further spread on meat when it is handled and it represents the starting microbial association wherefrom the most efficiently growing microbial species take over during storage and can cause spoilage.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2015.01.016</t>
   </si>
   <si>
+    <t>In Italy, fermented sausages (called “salami”) are consumed in large quantities. Salami samples from a local meat factory in the area of Torino were analyzed at 0, 3, 7, 30 and 45 days of ripening. Swab samples from the production environment were also collected at the beginning of the experiment. The diversity of metabolically active microbiota occurring during the natural fermentation of salami was evaluated by using RT-PCR-DGGE coupled with RNA-based pyrosequencing of the 16S rRNA gene. A culture-dependent approach was also applied to identify and characterize isolated Staphylococcaceae and LAB populations. Staphylococcus succinus, Staphylococcus xylosus and Lactobacillus sakei were the species most frequently isolated during the maturation time. Rep-PCR analysis showed that S. succinus and S. xylosus isolated from swabs and salami samples clustered together, suggesting possible contamination during the production process. RT-PCR-DGGE and rRNA-based pyrosequencing showed that the metabolically active populations were dominated by S. succinus, Lb. sakei and Leuconostoc carnosum. In this specific case study, only a few species belonging to Staphylococcaceae, Lactobacillaceae and Leuconostocaceae may be metabolically active and contribute to determine the final characteristics of the products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.03093-15</t>
   </si>
   <si>
+    <t>Beef burgers were stored at 4°C in a vacuum in nisin-activated antimicrobial packaging. Microbial ecology analyses were performed on samples collected between days 0 and 21 of storage to discover the population diversity. Two batches were analyzed using RNA-based denaturing gradient gel electrophoresis (DGGE) and pyrosequencing. The active packaging retarded the growth of the total viable bacteria and lactic acid bacteria. Culture-independent analysis by pyrosequencing of RNA extracted directly from meat showed that Photobacterium phosphoreum, Lactococcus piscium, Lactobacillus sakei, and Leuconostoc carnosum were the major operational taxonomic units (OTUs) shared between control and treated samples. Beta diversity analysis of the 16S rRNA sequence data and RNA-DGGE showed a clear separation between two batches based on the microbiota. Control samples from batch B showed a significant high abundance of some taxa sensitive to nisin, such as Kocuria rhizophila, Staphylococcus xylosus, Leuconostoc carnosum, and Carnobacterium divergens, compared to control samples from batch A. However, only from batch B was it possible to find a significant difference between controls and treated samples during storage due to the active packaging. Predicted metagenomes confirmed differences between the two batches and indicated that the use of nisin-based antimicrobial packaging can determine a reduction in the abundance of specific metabolic pathways related to spoilage. The present study aimed to assess the viable bacterial communities in beef burgers stored in nisin-based antimicrobial packaging, and it highlights the efficacy of this strategy to prolong beef burger shelf life.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0069074</t>
   </si>
   <si>
+    <t>Limited information is available on the impact of the NaOH treatment on table olive fermentations, and for this reason a polyphasic approach has been adopted here to investigate its effect on the fermentation dynamics and bacterial biodiversity. The microbial counts of the main groups involved in the transformation have not shown any differences, apart from a more prompt start of the fermentation when the olives were subjected to the NaOH treatment. The data produced by culture-independent analyses highlighted that the fermentation of table olives not treated with NaOH is the result of the coexistence of two different ecosystems: the surface of the olives and the brines. A sodium hydroxide treatment not only eliminates this difference, but also affects the bacterial ecology of the olives to a great extent. As proved by high-throughput sequencing, the fermentation of the olives not treated with NaOH was characterized by the presence of halophilic bacteria, which were substituted by Lactobacillus at the later stages of the fermentation, while enterobacteria were dominant when the olives were treated with sodium hydroxide. Higher biodiversity was found for Lactobacillus plantarum isolated during untreated fermentation. Different biotypes were found on the olive surface and in the brines. When the debittering process was carried out, a decrease in the number of L. plantarum biotypes were observed and those originating from the surface of the olive did not differentiate from the ones present in the brines.</t>
+  </si>
+  <si>
     <t>https://doi.org/unpublished data</t>
   </si>
   <si>
     <t>https://doi.org/10.1128/AEM.04161-14</t>
   </si>
   <si>
+    <t>Triticum turgidum subsp. durum was grown according to four farming systems: conventional (CONV), organic with cow manure (OMAN) or green manure (OLEG), and without inputs (NOINPUT). Some chemical and technological characteristics differed between CONV and organic flours. As shown by two-dimensional electrophoresis (2-DE) analysis, OMAN and OLEG flours showed the highest number of gliadins, and OMAN flour also had the highest number of high-molecular-mass glutenins. Type I sourdoughs were prepared at the laboratory level through a back-slopping procedure, and the bacterial ecology during sourdough preparation was described by 16S rRNA gene pyrosequencing. Before fermentation, the dough made with CONV flour showed the highest bacterial diversity. Flours were variously contaminated by genera belonging to the Proteobacteria, Firmicutes, and Actinobacteria. Mature sourdoughs were completely and stably dominated by lactic acid bacteria. The diversity of Firmicutes was the highest for mature sourdoughs made with organic and, especially, NOINPUT flours. Beta diversity analysis based on the weighted UniFrac distance showed differences between doughs and sourdoughs. Those made with CONV flour were separated from the other with organic flours. Lactic acid bacterium microbiota structure was qualitatively confirmed through the culturing method. As shown by PCR-denaturing gradient gel electrophoresis (DGGE) analysis, yeasts belonging to the genera Saccharomyces, Candida, Kazachstania, and Rhodotorula occurred in all sourdoughs. Levels of bound phenolic acids and phytase and antioxidant activities differed depending on the farming system. Mature sourdoughs were used for bread making. Technological characteristics were superior in the breads made with organic sourdoughs. The farming system is another determinant affecting the sourdough microbiota. The organic cultivation of durum wheat was reflected along the flour-sourdough fermentation-bread axis.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.02955-13</t>
   </si>
   <si>
+    <t>The bacterial ecology during rye and wheat sourdough preparation was described by 16S rRNA gene pyrosequencing. Viable plate counts of presumptive lactic acid bacteria, the ratio between lactic acid bacteria and yeasts, the rate of acidification, a permutation analysis based on biochemical and microbial features, the number of operational taxonomic units (OTUs), and diversity indices all together demonstrated the maturity of the sourdoughs during 5 to 7 days of propagation. Flours were mainly contaminated by metabolically active genera (Acinetobacter, Pantoea, Pseudomonas, Comamonas, Enterobacter, Erwinia, and Sphingomonas) belonging to the phylum Proteobacteria or Bacteroidetes (genus Chryseobacterium). Their relative abundances varied with the flour. Soon after 1 day of propagation, this population was almost completely inhibited except for the Enterobacteriaceae. Although members of the phylum Firmicutes were present at very low or intermediate relative abundances in the flours, they became dominant soon after 1 day of propagation. Lactic acid bacteria were almost exclusively representative of the Firmicutes by this time. Weissella spp. were already dominant in rye flour and stably persisted, though they were later flanked by the Lactobacillus sakei group. There was a succession of species during 10 days of propagation of wheat sourdoughs. The fluctuation between dominating and subdominating populations of L. sakei group, Leuconostoc spp., Weissella spp., and Lactococcus lactis was demonstrated. Other subdominant species such as Lactobacillus plantarum were detectable throughout propagation. As shown by PCR-denaturing gradient gel electrophoresis (PCR-DGGE) analysis, Saccharomyces cerevisiae dominated throughout the sourdough propagation. Notwithstanding variations due to environmental and technology determinants, the results of this study represent a clear example of how the microbial ecology evolves during sourdough preparation.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.02294-15</t>
   </si>
   <si>
+    <t>Microbial contamination in food processing plants can play a fundamental role in food quality and safety. In this study, the microbiota in a dairy plant was studied by both 16S rRNA- and 26S rRNA-based culture-independent high-throughput amplicon sequencing. Environmental samples from surfaces and tools were studied along with the different types of cheese produced in the same plant. The microbiota of environmental swabs was very complex, including more than 200 operational taxonomic units with extremely variable relative abundances (0.01 to 99%) depending on the species and sample. A core microbiota shared by 70% of the samples indicated a coexistence of lactic acid bacteria with a remarkable level of Streptococcus thermophilus and possible spoilage-associated bacteria, including Pseudomonas, Acinetobacter, and Psychrobacter, with a relative abundance above 50%. The most abundant yeasts were Kluyveromyces marxianus, Yamadazyma triangularis, Trichosporon faecale, and Debaryomyces hansenii. Beta-diversity analyses showed a clear separation of environmental and cheese samples based on both yeast and bacterial community structure. In addition, predicted metagenomes also indicated differential distribution of metabolic pathways between the two categories of samples. Cooccurrence and coexclusion pattern analyses indicated that the occurrence of potential spoilers was excluded by lactic acid bacteria. In addition, their persistence in the environment can be helpful to counter the development of potential spoilers that may contaminate the cheeses, with possible negative effects on their microbiological quality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.03941-14</t>
   </si>
   <si>
+    <t>Mesophilic and psychrotrophic organism viable counts, as well as high-throughput 16S rRNA gene-based pyrosequencing, were performed with the aim of elucidating the origin of psychrotrophic lactic acid bacteria (LAB) in a ready-to-eat (RTE) meal manufacturing plant. The microbial counts of the products at the end of the shelf life were greatly underestimated when mesophilic incubation was implemented due to overlooked, psychrotrophic members of the LAB. Pseudomonas spp., Enterobacteriaceae, Streptococcaceae, and Lactobacillus spp. constituted the most widespread operational taxonomic units (OTUs), whereas Leuconostoc gelidum was detected as a minor member of the indigenous microbiota of the food ingredients and microbial community of the processing environment, albeit it colonized samples at almost every sampling point on the premises. However, L. gelidum became the most predominant microbe at the end of the shelf life. The ability of L. gelidum to outgrow notorious, spoilage-related taxa like Pseudomonas, Brochothrix, and Lactobacillus underpins its high growth dynamics and severe spoilage character under refrigeration temperatures. The use of predicted metagenomes was useful for observation of putative gene repertoires in the samples analyzed in this study. The end products grouped in clusters characterized by gene profiles related to carbohydrate depletion presumably associated with a fast energy yield, a finding which is consistent with the fastidious nature of highly competitive LAB that dominated at the end of the shelf life. The present study showcases the detrimental impact of contamination with psychrotrophic LAB on the shelf life of packaged and cold-stored foodstuffs and the long-term quality implications for production batches once resident microbiota are established in the processing environment.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2014.10.018</t>
   </si>
   <si>
+    <t>Microbial contamination in foodservice environments plays a fundamental role in food quality and safety. In such environments the composition of the microbiota is influenced by the characteristics of the specific surfaces and by food handling and processing and a resident microbiota may be present in each site. In this study, the bacterial biogeographical patterns in a hospital cooking center was studied by 16S rRNA-based culture-independent high-throughput amplicon sequencing in order to provide a comprehensive mapping of the surfaces and tools that come in contact with foods during preparation. Across all area, surface swab-samples from work surfaces of different zones were taken: food pre-processing rooms (dedicated to fish, vegetables, and red and white meat), storage room and kitchen. The microbiota of environmental swabs was very complex, including more than 500 operational taxonomic units (OTUs) with extremely variable relative abundances (0.02–99%) depending on the species. A core microbiota was found that was common to more than 70% of the samples analyzed and that included microbial species that were common across all areas such as Acinetobacter, Chryseobacterium, Moraxellaceae, and Alicyclobacillus, although their abundances were below 10% of the microbiota. Some surfaces were contaminated by high levels of either Pseudomonas, Psychrobacter, Paracoccus, or Kocuria. However, beta diversity analysis showed that, based on the composition of the microbiota, the environmental samples grouped according to the sampling time but not according to the specific area of sampling except for the case of samples from the vegetable pre-processing room that showed a higher level of similarity. The cleaning procedures can have a very strong impact on the spatial distribution of the microbial communities, as the use of the same cleaning tools can be even a possible vector of bacterial diffusion. Most of the microbial taxa found are not those commonly found in food as spoilers or hazardous bacteria, which indicates that food and storage conditions can be very selective in the growth of possible contaminants.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.00793-16</t>
   </si>
   <si>
+    <t>Microbial contamination in food processing plants can play a fundamental role in food quality and safety. The aims of this study were to learn more about the possible influence of the meat processing environment on initial fresh meat contamination and to investigate the differences between small-scale retail distribution (SD) and large-scale retail distribution (LD) facilities. Samples were collected from butcheries (n = 20), including LD (n = 10) and SD (n = 10) facilities, over two sampling campaigns. Samples included fresh beef and pork cuts and swab samples from the knife, the chopping board, and the butcher's hand. The microbiota of both meat samples and environmental swabs were very complex, including more than 800 operational taxonomic units (OTUs) collapsed at the species level. The 16S rRNA sequencing analysis showed that core microbiota were shared by 80% of the samples and included Pseudomonas spp., Streptococcus spp., Brochothrix spp., Psychrobacter spp., and Acinetobacter spp. Hierarchical clustering of the samples based on the microbiota showed a certain separation between meat and environmental samples, with higher levels of Proteobacteria in meat. In particular, levels of Pseudomonas and several Enterobacteriaceae members were significantly higher in meat samples, while Brochothrix, Staphylococcus, lactic acid bacteria, and Psychrobacter prevailed in environmental swab samples. Consistent clustering was also observed when metabolic activities were considered by predictive metagenomic analysis of the samples. An increase in carbohydrate metabolism was predicted for the environmental swabs and was consistently linked to Firmicutes, while increases in pathways related to amino acid and lipid metabolism were predicted for the meat samples and were positively correlated with Proteobacteria. Our results highlighted the importance of the processing environment in contributing to the initial microbial levels of meat and clearly showed that the type of retail facility (LD or SD) did not apparently affect the contamination. IMPORTANCE The study provides an in-depth description of the microbiota of meat and meat processing environments. It highlights the importance of the environment as a contamination source of spoilage bacteria, and it shows that the size of the retail facility does not affect the level and type of contamination.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2015.10.008</t>
   </si>
   <si>
+    <t>This study was aimed at establishing the relationships between house, rind and core microbiotas of cheese varieties manufactured at the same industrial dairy plant. Caciotta and Caciocavallo Pugliese cheeses were chosen as model systems. Mesophilic lactobacilli, cocci and, especially, thermophilic cocci were the most abundant cultivable bacteria found on equipment, which were located in the production area. According to cell counts, catabolic profiles of microbial communities deriving from equipment, and cheese core and rind differed. As shown by 16S rRNA targeted metagenomics, Streptococcus thermophilus dominated the communities from knife surface, brine tank, curds and core cheeses as well as it was the main colonizing bacterium from drain table, rinds and ripening room of Caciocavallo Pugliese cheeses. Compared to S. thermophilus, the other starters used (Lactococcus lactis, Lactobacillus delbrueckii subsp. lactis and Lactobacillus helveticus) showed low relative abundance in cheeses and/or colonization capability. A set of other genera/species, which varied depending on the equipment surfaces and cheese making, contributed to the formation of a rather heterogeneous house microbiota. Representatives from such communities had (e.g., Lactobacillus casei, Lactobacillus plantarum group) or not (e.g., Actinobacteria) the capacity to colonize cheeses, which depended on the variety (Caciocavallo Pugliese or Caciotta cheese) and layer (rind or core). Other genera/species were mainly associated to the rind and ripening room of Caciotta (Staphylococcus species and Brochothrix spp.) or Caciocavallo Pugliese (Chromohalobacter and Sphingomonas) cheeses.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2015.07.004</t>
   </si>
   <si>
+    <t>The environment of hard cheese encourages bacterial synergies and competitions along the ripening process, which might lead in defects such as clostridial blowing. In this study, Denaturing Gradient Gel Electrophoresis (DGGE), a quantitative Clostridium tyrobutyricum PCR and next-generation Illumina-based sequencing of 16S rRNA gene were applied to study 83 Grana Padano spoiled samples. The aim was to investigate the community of clostridia involved in spoilage, the ecological relationships with the other members of the cheese microbiota, and the effect of lysozyme. Three main genera were dominant in the analysed cheeses, Lactobacillus, Streptococcus and Clostridium, and the assignment at the species level was of 94.3% of 4,477,326 high quality sequences. C. tyrobutyricum and C. butyricum were the most prevalent clostridia. Hierarchical clustering based on the abundance of bacterial genera, revealed three main clusters: one characterized by the highest proportion of Clostridium, a second where Lactobacillus was predominant and the last, dominated by Streptococcus thermophilus. Ecological relationships among species were found: cheeses characterized by an high abundance of S. thermophilus and L. rhamnosus were spoiled by C. tyrobutyricum while, when L. delbrueckii was the most abundant Lactobacillus, C. butyricum was the dominant spoiling species. Lysozyme also shaped the bacterial community, reducing C. tyrobutyricum in favour of C. butyricum. Moreover, this preservative increased the proportion of L. delbrueckii and obligate heterofermentative lactobacilli and lowered L. helveticus and non-starter species, such as L. rhamnosus and L. casei.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2015.04.047</t>
   </si>
   <si>
+    <t>Natural casings derived from different intestine portions have been used for centuries in the production of fresh and dry-fermented sausages. Here we analysed by means of culture-dependent methods and Illumina high-throughput sequencing of 16S rRNA amplicons the bacterial ecology of hog, cow and ovine casings at different stages of their preparation for sausages production. Several strains of Staphylococcus, Lactobacillus, Bifidobacterium, Vagococcus and Clostridium were counted, isolated and characterised at phylogenetic level. High-throughput sequencing analyses revealed a high bacterial diversity, which differed strongly between casings of different animal species. The technological processes involved in the preparation for casing had also a strong impact on the casings bacterial ecology, with a significant reduction of undesired microorganisms, and an increase in the proportion of lactobacilli and staphylococci. Natural casings were demonstrated to be complex ecological environments, whose role as microbiological inoculants in the production of sausages should not be underestimated.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.04054-14</t>
   </si>
   <si>
+    <t>We sought to determine if the time, within a production day, that a cheese is manufactured has an influence on the microbial community present within that cheese. To facilitate this, 16S rRNA amplicon sequencing was used to elucidate the microbial community dynamics of brine-salted continental-type cheese in cheeses produced early and late in the production day. Differences in the microbial composition of the core and rind of the cheese were also investigated. Throughout ripening, it was apparent that cheeses produced late in the day had a more diverse microbial population than their early equivalents. Spatial variation between the cheese core and rind was also noted in that cheese rinds were initially found to have a more diverse microbial population but thereafter the opposite was the case. Interestingly, the genera Thermus, Pseudoalteromonas, and Bifidobacterium, not routinely associated with a continental-type cheese produced from pasteurized milk, were detected. The significance, if any, of the presence of these genera will require further attention. Ultimately, the use of high-throughput sequencing has facilitated a novel and detailed analysis of the temporal and spatial distribution of microbes in this complex cheese system and established that the period during a production cycle at which a cheese is manufactured can influence its microbial composition.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2015.06.002</t>
   </si>
   <si>
+    <t>This study aimed to utilize an “omics” approach to evaluate the ability of selected lactobacilli and yeasts to improve the fermentation process of Bella di Cerignola table olives. Four types of fermentations were performed at the pilot-plant scale: un-started fermented olives used as a control (Ctrl); olives started with a commercial Lactobacillus plantarum strain (S); commercial L. plantarum strain and autochthonous yeast Wickeramomyces anomalus DiSSPA73 (SY); and L. plantarum, W. anomalus DiSSPA73, autochthonous L. plantarum DiSSPA1A7 and Lactobacillus pentosus DiSSPA7 (SYL). Compared to Ctrl, S, SY, SYL showed a higher acidification (P &lt; 0.05) of the brine, which reached a pH value of 4.49 after one day of fermentation. The microbiota of unfermented olives and brine after one day of fermentation was primarily composed of Enterobacteria that belonged to Hafnia alvei and Methylobacterium. However, L. plantarum and L. pentosus dominated the total and metabolically active microbiota of the Ctrl brines and olives at the end of the fermentation. The use of lactobacilli and W. anomalus DiSSPA73 as a starter culture markedly affected the microbiota of the brines after one day of fermentation. The number of species (OTU) and the results of an alpha diversity analysis indicated that the microbial diversity of the brines was markedly simplified by the S, SY and, in particular, SYL fermentations. According to the lowest biodiversity, S, SY and SYL samples showed the lowest abundance of Proteobacteria, including Enterobacteriacea, Lactococcus lactis, Propionibacterium acidipropionici and Clostridium. The lactobacilli and W. anomalus DiSSPA73 used in this study markedly affected the amounts of free amino acids, phenolic and volatile organic compounds. Both a texture profile analysis and a sensory evaluation showed the highest appreciation for all of the started table olives. As shown through microbiological, biochemical, and sensory analyses, an accelerated fermentation of Bella di Cerignola table olives was achieved using the selected lactobacilli and yeast strains.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2015.06.009</t>
   </si>
   <si>
+    <t>This study aimed at understanding the extent of contamination by lactic acid bacteria (LAB) and yeasts from the house microbiotas during sourdough back-slopping. Besides sourdoughs, wall, air, storage box, dough mixer and flour of four bakeries were analyzed. Based on plate counts, LAB and yeasts dominated the house microbiota. Based on high throughput sequencing of the 16S rRNA genes, flour harbored the highest number of Firmicutes, but only few of them adapted to storage box, dough mixer and sourdough. Lactobacillus sanfranciscensis showed the highest abundance in dough mixer and sourdoughs. Lactobacillus plantarum persisted only in storage box, dough mixer and sourdough of two bakeries. Weissella cibaria also showed higher adaptability in sourdough than in bakery equipment, suggesting that flour is the main origin of this species. Based on 18S rRNA data, Saccharomyces cerevisiae was the dominant yeast in house and sourdough microbiotas, excepted one bakery dominated by Kazachstania exigua. The results of this study suggest that the dominant species of sourdough LAB and yeasts dominated also the house microbiota.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/ijerph120810171</t>
   </si>
   <si>
+    <t>Fresh herbs such as basil constitute an important food commodity worldwide. Basil provides considerable culinary and health benefits, but has also been implicated in foodborne illnesses. The naturally occurring bacterial community on basil leaves is currently unknown, so the epiphytic bacterial community was investigated using the culture-independent techniques denaturing gradient gel electrophoresis (DGGE) and next-generation sequencing (NGS). Sample preparation had a major influence on the results from DGGE and NGS: Novosphingobium was the dominant genus for three different basil batches obtained by maceration of basil leaves, while washing of the leaves yielded lower numbers but more variable dominant bacterial genera including Klebsiella, Pantoea, Flavobacterium, Sphingobacterium and Pseudomonas. During storage of basil, bacterial growth and shifts in the bacterial community were observed with DGGE and NGS. Spoilage was not associated with specific bacterial groups and presumably caused by physiological tissue deterioration and visual defects, rather than by bacterial growth.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.02228-15</t>
   </si>
   <si>
+    <t>Refrigerated food processing facilities are specific man-made niches likely to harbor cold-tolerant bacteria. To characterize this type of microbiota and study the link between processing plant and product microbiomes, we followed and compared microbiota associated with the raw materials and processing stages of a vacuum-packaged, cooked sausage product affected by a prolonged quality fluctuation with occasional spoilage manifestations during shelf life. A total of 195 samples were subjected to culturing and amplicon sequence analyses. Abundant mesophilic psychrotrophs were detected within the microbiomes throughout the different compartments of the production plant environment. However, each of the main genera of food safety and quality interest, e.g., Leuconostoc, Brochothrix, and Yersinia, had their own characteristic patterns of contamination. Bacteria from the genus Leuconostoc, commonly causing spoilage of cold-stored, modified-atmosphere-packaged foods, were detected in high abundance (up to &gt;98%) in the sausages studied. The same operational taxonomic units (OTUs) were, however, detected in lower abundances in raw meat and emulsion (average relative abundance of 2% ± 5%), as well as on the processing plant surfaces (&lt;4%). A completely different abundance profile was found for OTUs phylogenetically close to the species Yersinia pseudotuberculosis. These OTUs were detected in high abundance (up to 28%) on the processing plant surfaces but to a lesser extent (&lt;1%) in raw meat, sausage emulsion, and sausages. The fact that Yersinia-like OTUs were found on the surfaces of a high-hygiene packaging compartment raises food safety concerns related to their resilient existence on surfaces.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0059310</t>
   </si>
   <si>
+    <t>Fresh fruits and vegetables can harbor large and diverse populations of bacteria. However, most of the work on produce-associated bacteria has focused on a relatively small number of pathogenic bacteria and, as a result, we know far less about the overall diversity and composition of those bacterial communities found on produce and how the structure of these communities varies across produce types. Moreover, we lack a comprehensive view of the potential effects of differing farming practices on the bacterial communities to which consumers are exposed. We addressed these knowledge gaps by assessing bacterial community structure on conventional and organic analogs of eleven store-bought produce types using a culture-independent approach, 16 S rRNA gene pyrosequencing. Our results demonstrated that the fruits and vegetables harbored diverse bacterial communities, and the communities on each produce type were significantly distinct from one another. However, certain produce types (i.e., sprouts, spinach, lettuce, tomatoes, peppers, and strawberries) tended to share more similar communities as they all had high relative abundances of taxa belonging to the family Enterobacteriaceae when compared to the other produce types (i.e., apples, peaches, grapes, and mushrooms) which were dominated by taxa belonging to the Actinobacteria, Bacteroidetes, Firmicutes, and Proteobacteria phyla. Although potentially driven by factors other than farming practice, we also observed significant differences in community composition between conventional and organic analogs within produce types. These differences were often attributable to distinctions in the relative abundances of Enterobacteriaceae taxa, which were generally less abundant in organically-grown produce. Taken together, our results suggest that humans are exposed to substantially different bacteria depending on the types of fresh produce they consume with differences between conventionally and organically farmed varieties contributing to this variation.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/ismej.2014.202</t>
   </si>
   <si>
+    <t>The microbial spoilage of meat and seafood products with short shelf lives is responsible for a significant amount of food waste. Food spoilage is a very heterogeneous process, involving the growth of various, poorly characterized bacterial communities. In this study, we conducted 16S ribosomal RNA gene pyrosequencing on 160 samples of fresh and spoiled foods to comparatively explore the bacterial communities associated with four meat products and four seafood products that are among the most consumed food items in Europe. We show that fresh products are contaminated in part by a microbiota similar to that found on the skin and in the gut of animals. However, this animal-derived microbiota was less prevalent and less abundant than a core microbiota, psychrotrophic in nature, mainly originated from the environment (water reservoirs). We clearly show that this core community found on meat and seafood products is the main reservoir of spoilage bacteria. We also show that storage conditions exert strong selective pressure on the initial microbiota: alpha diversity in fresh samples was 189±58 operational taxonomic units (OTUs) but dropped to 27±12 OTUs in spoiled samples. The OTU assemblage associated with spoilage was shaped by low storage temperatures, packaging and the nutritional value of the food matrix itself. These factors presumably act in tandem without any hierarchical pattern. Most notably, we were also able to identify putative new clades of dominant, previously undescribed bacteria occurring on spoiled seafood, a finding that emphasizes the importance of using culture-independent methods when studying food microbiota.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.00918-12</t>
   </si>
   <si>
+    <t>Here, high-throughput sequencing was employed to reveal the highly diverse bacterial populations present in 62 Irish artisanal cheeses and, in some cases, associated cheese rinds. Using this approach, we revealed the presence of several genera not previously associated with cheese, including Faecalibacterium, Prevotella, and Helcococcus and, for the first time, detected the presence of Arthrobacter and Brachybacterium in goats' milk cheese. Our analysis confirmed many previously observed patterns, such as the dominance of typical cheese bacteria, the fact that the microbiota of raw and pasteurized milk cheeses differ, and that the level of cheese maturation has a significant influence on Lactobacillus populations. It was also noted that cheeses containing adjunct ingredients had lower proportions of Lactococcus species. It is thus apparent that high-throughput sequencing-based investigations can provide valuable insights into the microbial populations of artisanal foods.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/mSystems.00023-16</t>
   </si>
   <si>
+    <t>A DNA sequencing-based strategy was applied to study the microbiology of Continental-type cheeses with a pink discoloration defect. The basis for this phenomenon has remained elusive, despite decades of research. The bacterial composition of cheese containing the defect was compared to that of control cheese using 16S rRNA gene and shotgun metagenomic sequencing as well as quantitative PCR (qPCR). Throughout, it was apparent that Thermus, a carotenoid-producing genus, was present at higher levels in defect-associated cheeses than in control cheeses. Prompted by this finding and data confirming the pink discoloration to be associated with the presence of a carotenoid, a culture-based approach was employed, and Thermus thermophilus was successfully cultured from defect-containing cheeses. The link between Thermus and the pinking phenomenon was then established through the cheese defect equivalent of Koch’s postulates when the defect was recreated by the reintroduction of a T. thermophilus isolate to a test cheese during the manufacturing process. IMPORTANCE Pink discoloration in cheese is a defect affecting many cheeses throughout the world, leading to significant financial loss for the dairy industry. Despite decades of research, the cause of this defect has remained elusive. The advent of high-throughput, next-generation sequencing has revolutionized the field of food microbiology and, with respect to this study, provided a means of testing a possible microbial basis for this defect. In this study, a combined 16S rRNA, whole-genome sequencing, and quantitative PCR approach was taken. This resulted in the identification of Thermus, a carotenoid-producing thermophile, in defect-associated cheeses and the recreation of the problem in cheeses to which Thermus was added. This finding has the potential to lead to new strategies to eliminate this defect, and our method represents an approach that can be employed to investigate the role of microbes in other food defects of unknown origin.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2015.12.009</t>
   </si>
   <si>
+    <t>Dairy products are perishable and have to be preserved from spoilage during the food chain to achieve the desired shelf-life. Ricotta is a typical Italian soft dairy food produced by heat coagulation of whey proteins and is considered to be a light and healthy product. The shelf-life of Ricotta could be extended, as required by the international food trade market; however, heat resistant microflora causes spoilage and poses issues regarding the safety of the product. Next-generation sequencing (NGS) applied to the Ricotta samples defined the composition of the microbial community in-depth during the shelf-life. The analysis demonstrated the predominance of spore-forming bacteria throughout the shelf-life, mostly belonging to Bacillus, Paenibacillus and Clostridium genera. A strain involved in spoilage and causing a pink discolouration of Ricotta was isolated and characterised as Bacillus mycoides/weihenstephanensis. This is the first report of a food discolouration caused by a toxigenic strain belonging to the Bacillus cereus group that resulted the predominant strain in the community of the defective ricotta. These results suggest that the processing of raw materials to eliminate spores and residual microflora could be essential for improving the quality and the safety of the product and to extend the shelf-life of industrial Ricotta.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2016.01272</t>
   </si>
   <si>
+    <t>In the past, milk whey was only a by-product of cheese production, but currently, it has a high commercial value for use in the food industries. However, the regulation of whey management (i.e., storage and hygienic properties) has not been updated, and as a consequence, its microbiological quality is very challenging for food safety. The Next Generation Sequencing (NGS) technique was applied to several whey samples used for Ricotta production to evaluate the microbial community composition in depth using both RNA and DNA as templates for NGS library construction. Whey samples demonstrating a high microbial and aerobic spore load contained mostly Firmicutes; although variable, some samples contained a relevant amount of Gammaproteobacteria. Several lots of whey acquired as raw material for Ricotta production presented defective organoleptic properties. To define the volatile compounds in normal and defective whey samples, a headspace gas chromatography/mass spectrometry (GC/MS) analysis was conducted. The statistical analysis demonstrated that different microbial communities resulted from DNA or cDNA library sequencing, and distinguishable microbiota composed the communities contained in the organoleptic-defective whey samples.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.01494-17</t>
   </si>
   <si>
+    <t>This study was aimed at improving the functional attributes and shelf life of burrata cheese by using protective lactobacilli (Lactobacillus plantarum LPAL and Lactobacillus rhamnosus LRB), fructooligosaccharides, and inulin. Six burrata cheeses were made using (i) the traditional protocol (control), (ii) the addition of 0.5% fructooligosaccharides and inulin (DF cheese), (iii) protective lactobacilli in milk alone (PL cheese), (iv) protective lactobacilli in milk and governing liquid (2PL cheese), (v) protective lactobacilli in milk and dietary fibers (DF_PL cheese), and (vi) protective lactobacilli in milk and governing liquid and dietary fibers (DF_2PL cheese). As expected, DF, DF_PL, and DF_2PL cheeses showed 1.5% of total fibers. Burrata cheeses produced by adding protective lactobacilli only in milk (PL and DF_PL cheeses) showed the lowest acidification during cheese making and storage. Lactic and acetic acids and ethanol were found at the lowest concentrations in these samples. Analyses of cultivable microbiota and the microbiome showed that protective lactobacilli reduced the house microbiota components (e.g., Streptococcus thermophilus, Lactococcus lactis, and Leuconostoc lactis) during cheese making and storage. Protective lactobacilli slowed the growth of staphylococci, coliforms, and Pseudomonas spp., especially in early storage. According to the different microbiome assemblies, burrata samples differed in peptide profiles and the levels of free amino acids. As shown by a sensory analysis, the addition of protective lactobacilli in milk improved the flavor and increased the shelf life of burrata cheese. In comparison to cheeses made using protective cultures only in milk, the shelf lives of those containing cultures also in the governing liquid were not further prolonged and they received lower acceptability scores by the panelists. IMPORTANCE This study provides more in-depth knowledge of the microbiome of burrata cheese and the set-up for a novel biotechnology using prebiotic dietary fibers and protective probiotic Lactobacillus plantarum LPAL and Lactobacillus rhamnosus LRB in milk. The biotechnology proposed in this study should be considered a useful tool to improve the functional value of burrata cheese. The use of protective lactobacilli in milk enhanced the flavor formation and shelf life of burrata cheese.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2017.05.019</t>
   </si>
   <si>
+    <t>Low temperature is used to control the growth of bacteria in milk, both pre- and post-pasteurization. As the duration of refrigerated storage extends, psychrotrophs dominate the milk microbiota, that can produce heat stable lipases which negatively impact the organoleptic qualities of milk. Here we examine the influence that refrigeration temperature (2 °C, 4 °C and 6 °C) and storage duration (96 h) have on the microbiota composition (16S profiling) of raw bulk tank milk (BTM). To reflect a proposed change to current farming practices, raw milk was blended after each milking (8 milkings) and stored for five consecutive days in each temperature-specific tank. Here 16S rRNA-based microbiota compositional analysis was performed after milk was collected on day 1 and again after the final addition of milk at day 5. In addition to assessing the impact of the duration and temperature of storage, the influence of lactation stage, i.e. mid- versus late-lactation, on the microbiota of the blended BTM was also examined. Overall, both temperature and length of storage had surprisingly little influence on the raw milk microbiota, other than an increase in proportions of Gammaproteobacteria in the blended milk samples collected after pooling on day 5, and in samples stored at 6 °C. However, lactation stage had a considerable influence on microbiota composition, with milk from mid-lactation containing higher proportions of Bacteroides, Faecalibacterium, Campylobacter and Rhodanobacter, and late-lactation milk containing higher proportions of Actinobacteria. Overall, the study demonstrates that current temperature and storage duration practises impact the microbiota of raw milk, but these impacts are modest relative to the more considerable differences between mid and late-lactation milk.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2017.11.004</t>
   </si>
   <si>
+    <t>Bovine milk contains a complex microbial community that affects the quality and safety of the product. Detailed knowledge of this microbiota is, therefore, of importance for the dairy industry. In this study, the bacterial composition of consumption milk was assessed during different stages in the production line and throughout the storage in cartons by using culturing techniques and 16S rRNA marker gene sequencing. Monthly samples from two dairies were analyzed to capture the seasonal variations in the milk microbiota. Although there was a core microbiota present in milk samples from both dairies, the composition of the bacterial communities were significantly influenced by sampling month, processing stage and storage temperature. Overall, a higher abundance of operational taxonomic units (OTUs) within the order Bacillales was detected in samples of raw and pasteurized milk from the spring and summer months, while Pseudomonadales and Lactobacillales OTUs were predominant in the winter months. OTUs belonging to the order Lactobacillales, Pseudomonadales, Clostridiales and Bacillales were significantly more abundant in milk samples taken immediately after pasteurization compared to raw milk samples. During storage of milk in cartons at 4 °C, the bacterial composition remained stable throughout the product shelf life, while storage at 8 °C significantly increased the abundance of OTUs belonging to the genus Bacillus and the plate count levels of presumptive Bacillus cereus. The knowledge obtained in this work will be useful to the dairy industry during their quality assurance work and risk assessment practices.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/s41598-017-18447-y</t>
   </si>
   <si>
+    <t>The objectives of this study were to explore bacterial community assembly from cow teat skin to raw milk cheeses and to evaluate the role of farming systems on this assembly using 16S rRNA gene high-throughput sequencing. The two grazing systems studied (extensive vs. semi-extensive) had a greater effect on the microbiota of cow teat skin than on that of raw milks and cheeses. On teat skin, the relative abundance of several taxa at different taxonomic levels (Coriobacteriia, Bifidobacteriales, Corynebacteriales, Lachnospiraceae, Atopobium, and Clostridium) varied depending on the grazing system and the period (early or late summer). In cheese, the abundance of sub-dominant lactic acid bacteria (LAB) varied depending on the grazing system. Overall, 85% of OTUs detected in raw milks and 27% of OTUs detected in ripened cheeses were also found on cow teat skin. Several shared OTUs were assigned to taxa known to be involved in the development of cheese sensory characteristics, such as Micrococcales, Staphylococcaceae, and LAB. Our results highlight the key role of cow teat skin as a reservoir of microbial diversity for raw milk, and for the first time, that cow teat skin serves as a potential source of microorganisms found in raw-milk cheeses.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2017.02119</t>
   </si>
   <si>
+    <t>This study explored the bacterial diversity of brines used for cheesemaking in Italy, as well as their physicochemical characteristics. In this context, 19 brines used to salt soft, semi-hard, and hard Italian cheeses were collected in 14 commercial cheese plants and analyzed using a culture-independent amplicon sequencing approach in order to describe their bacterial microbiota. Large NaCl concentration variations were observed among the selected brines, with hard cheese brines exhibiting the highest values. Acidity values showed a great variability too, probably in relation to the brine use prior to sampling. Despite their high salt content, brine microbial loads ranged from 2.11 to 6.51 log CFU/mL for the total mesophilic count. Microbial community profiling assessed by 16S rRNA gene sequencing showed that these ecosystems were dominated by Firmicutes and Proteobacteria, followed by Actinobacteria and Bacteroidetes. Cheese type and brine salinity seem to be the main parameters accountable for brine microbial diversity. On the contrary, brine pH, acidity and protein concentration, correlated to cheese brine age, did not have any selective effect on the microbiota composition. Nine major genera were present in all analyzed brines, indicating that they might compose the core microbiome of cheese brines. Staphylococcus aureus was occasionally detected in brines using selective culture media. Interestingly, bacterial genera associated with a functional and technological use were frequently detected. Indeed Bifidobacteriaceae, which might be valuable probiotic candidates, and specific microbial genera such as Tetragenococcus, Corynebacterium and non-pathogenic Staphylococcus, which can contribute to sensorial properties of ripened cheeses, were widespread within brines.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2016.09.026</t>
   </si>
   <si>
+    <t>Surface-ripened cheeses host complex microbial communities responsible for the transformation of milk into cheese as well as the development of important properties in terms of texture, color and sensory perception. In this study, we used high-throughput amplicon sequencing to decipher the bacterial and fungal diversity of 60 cheeses belonging to 12 popular French cheese varieties. Using this approach, 76 bacterial and 44 fungal phylotypes were identified. Major differences were observed between rind and core samples and also according to cheese varieties and manufacturing processes. Occurrence analysis revealed the presence of widespread taxa as well as operational taxonomic units (OTUs) specific to one or several cheese varieties. Finally, we observed patterns specific to the cheese production facility, supporting the importance of indigenous microorganisms for the microbial assemblage of cheese microbiota.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/mSystems.00052-16</t>
   </si>
   <si>
+    <t>Kefir is a putatively health-promoting dairy beverage that is produced when a kefir grain, consisting of a consortium of microorganisms, is added to milk to initiate a natural fermentation. Here, a detailed analysis was carried out to determine how the microbial population, gene content, and flavor of three kefirs from distinct geographic locations change over the course of 24-h fermentations. Metagenomic sequencing revealed that Lactobacillus kefiranofaciens was the dominant bacterial species in kefir during early stages of fermentations but that Leuconostoc mesenteroides became more prevalent in later stages. This pattern is consistent with an observation that genes involved in aromatic amino acid biosynthesis were absent from L. kefiranofaciens but were present in L. mesenteroides. Additionally, these shifts in the microbial community structure, and associated pathways, corresponded to changes in the levels of volatile compounds. Specifically, Acetobacter spp. correlated with acetic acid; Lactobacillus spp. correlated with carboxylic acids, esters and ketones; Leuconostoc spp. correlated with acetic acid and 2,3-butanedione; and Saccharomyces spp. correlated with esters. The correlation data suggest a causal relationship between microbial taxa and flavor that is supported by observations that addition of L. kefiranofaciens NCFB 2797 increased the levels of esters and ketones whereas addition of L. mesenteroides 213M0 increased the levels of acetic acid and 2,3-butanedione. Finally, we detected genes associated with probiotic functionalities in the kefir microbiome. Our results illustrate the dynamic nature of kefir fermentations and microbial succession patterns therein and can be applied to optimize the fermentation processes, flavors, and health-related attributes of this and other fermented foods. IMPORTANCE Traditional fermented foods represent relatively low-complexity microbial environments that can be used as model microbial communities to understand how microbes interact in natural environments. Our results illustrate the dynamic nature of kefir fermentations and microbial succession patterns therein. In the process, the link between individual species, and associated pathways, with flavor compounds is revealed and several genes that could be responsible for the purported gut health-associated benefits of consuming kefir are identified. Ultimately, in addition to providing an important fundamental insight into microbial interactions, this information can be applied to optimize the fermentation processes, flavors, and health-related attributes of this and other fermented foods.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2016.10.018</t>
   </si>
   <si>
+    <t>Red-brown pigmentation can occasionally form in smeared-ripened cheese such as Fontina during the ripening process. This reaction is due to over-development of the typical microbiota present on the rind. Previous studies have demonstrated the relationship between red-brown pigmentation and the traditional utilization of wooden shelves during cheese ripening. The first part of the paper focuses on the characterisation of yeast and bacterial microbiota: plate counts and 454-pyrosequencing were performed in spoiled (n = 6) and non-spoiled cheeses (n = 6) and on the wooden shelves used during ripening. The second part shows different systems tested for cleaning the wooden shelves and avoiding the development of the red-brown defect in cheese: washing with hot water and ozone treatment. Actinobacteria, dominated on the wooden shelves, suggesting to be responsible for the red-brown pigmentation; they were also found in traces in the defected cheese samples. Galactomyces and Debaryomyces were the main species characterizing the yeast population, with Debaryomyces being the most dominant species on the shelves used during ripening of the red-brown defective cheese. Hot water treatment reduced the microbial contamination of shelves, whereas only the ozone treatment ensured complete elimination of both yeast and bacteria, resulting in the cheese rind not having the red-brown defect.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2016.11.016</t>
   </si>
   <si>
+    <t>Traditional Caciocavallo of Castelfranco is a semi-hard “pasta-filata” cheese produced from raw cows' milk in Campania region. The aim of the present research is mainly focused on the study, by 16S rRNA gene pyrosequencing and viable counts, of the dynamics of bacterial communities during manufacture and ripening of traditional Caciocavallo cheese. Moreover, the possible correlation between cheese microbiota and cows' feeding based on silage or hay was also evaluated. In general, except for enterococci, the technological process significantly affected all the microbial groups. According to 16S rRNA, raw cows' milk was dominated by Streptococcus thermophilus, L. lactis and Pseudomonas sp. in hay cheese production, whereas Lactococcus lactis and Acinetobacter sp. dominated silage production. Differences in the taxonomic structure of the milk's microbiota within diet groups were not related to silage and hay cows' feeding. Moreover, S. thermophilus was the unique species that dominate from raw milks to fermented intermediates and cheese in both hay and silage cheese productions. Feeding and ripening time influenced significantly sensory characteristics of the cheeses.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1186/s12866-018-1323-4</t>
   </si>
   <si>
+    <t>Background: The microbiome of cheese is diverse, even within a variety. The metagenomics of cheese is dependent on a vast array of biotic and abiotic factors. Biotic factors include the population of microbiota and their resulting cellular metabolism. Abiotic factors, including the pH, water activity, fat, salt, and moisture content of the cheese matrix, as well as environmental conditions (temperature, humidity, and location of aging), influence the biotic factors. This study assessed the metagenomics of commercial Gouda cheese prepared using pasteurized or unpasteurized cow milk or pasteurized goat milk via 16S rDNA sequencing. Results: Results were analyzed and compared based on milk pasteurization and source, spatial variability (core, outer, and under the rind), and length of aging (2–4 up to 12–18 months). The dominant organisms in the Gouda cheeses, based on percentage of sequence reads identified at the family or genus levels, were Bacillaceae, Lactococcus, Lactobacillus, Streptococcus, and Staphylococcus. More genus- or family-level (e.g. Bacillaceae) identifications were observed in the Gouda cheeses prepared with unpasteurized cow milk (120) compared with those prepared with pasteurized cow milk (92). When assessing influence of spatial variability on the metagenomics of the cheese, more pronounced differences in bacterial genera were observed in the samples taken under the rind; Brachybacterium, Pseudoalteromonas, Yersinia, Klebsiella, and Weissella were only detected in these samples. Lastly, the aging length of the cheese greatly influenced the number of organisms observed. Twenty-seven additional genus-level identifications were observed in Gouda cheese aged for 12–18 months compared with cheese only aged 2–4 months. Conclusions: Collectively, the results of this study are important in determining the typical microbiota associated with Gouda cheese and how the microbiome plays a role in safety and quality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3168/jds.2017-14083</t>
   </si>
   <si>
+    <t>Microbial contamination of bovine raw milk often occurs at the farm. To acquire a deeper knowledge of the microbiota of farm tank milk, we studied milk from 45 farms situated in 2 geographical areas in Norway. Each farm was visited on 3 different occasions, with at least 2 wk between visits. We combined both bacterial cell counts and a sequence variant inference method of amplicon-based high-throughput sequencing to achieve a high-resolution overview of the microbiota in each sample. Compositional variation of the farm milk microbiota was shown in relation to the 2 areas, between the farms and between the sampling times. Despite the near constant level of bacteria enumerated in milk from each individual farm, the dominant microbiota differed significantly between the samplings. The predominant microbiota was dominated by spoilage genera, such as Pseudomonas and Bacillus, as well as the dairy fermentation genus Lactococcus and mastitis-causing organisms (Streptococcus). Analysis of the identified sequence variants within these genera showed that the populations of Pseudomonas and Lactococcus in milk had similar composition between the farms, but that Bacillus and, in particular, Streptococcus populations changed between collection days from the same farm and between farms and geographical areas. Furthermore, the levels and composition of Bacillus and Paenibacillus were different between the 2 geographical areas. The results presented here provide new insight into the farm milk microbiota and show that this microbiota is a dynamic community highly subject to variation.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0205054</t>
   </si>
   <si>
+    <t>Dry and early lactation periods represent the most critical phases for udder health in cattle, especially in highly productive breeds, such as the Holstein Friesian (HF). On the other hand, some autochthonous cattle breeds, such as the Rendena (REN), have a lower prevalence of mastitis and other transition-related diseases. In this study, milk microbiota of 6 HF and 3 REN cows, all raised on the same farm under the same conditions, was compared. A special focus was placed on the transition period to define bacterial groups’ prevalence with a plausible effect on mammary gland health. Four time points (dry-off, 1 d, 7–10 d and 30 d after calving) were considered. Through 16S rRNA sequencing, we characterized the microbiota composition for 117 out of the 144 milk samples initially collected, keeping only the healthy quarters, in order to focus on physiological microbiome changes and avoid shifts due to suspected diseases. Microbial populations were very different in the two breeds along all the time points, with REN milk showing a significantly lower microbial biodiversity. The taxonomic profiles of both cosmopolitan and local breeds were dominated by Firmicutes, mostly represented by the Streptococcus genus, although in very different proportions (HF 27.5%, REN 68.6%). Large differences in HF and REN cows were, also, evident from the metabolic predictive analysis from microbiome data. Finally, only HF milk displayed significant changes in the microbial composition along the transition period, while REN maintained a more stable microbiota. In conclusion, in addition to the influence on the final characteristics of dairy products obtained from milk of the two breeds, differences in the milk microbiome might, also, have an impact on their mammary gland health.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2018.12.007</t>
   </si>
   <si>
+    <t>The microbiota of different types of Italian high-moisture Mozzarella cheese produced using cow or buffalo milk, acidified with natural or selected cultures, and sampled at the dairy or at the mass market, was evaluated using a Next Generation Sequencing approach, in order to identify possible drivers of the bacterial diversity. Cow Mozzarella and buffalo Mozzarella acidified with commercial cultures were dominated by Streptococcus thermophilus, while buffalo samples acidified with natural whey cultures showed similar prevalence of L. delbrueckii subsp. bulgaricus, L. helveticus and S. thermophilus. Moreover, several species of non-starter lactic acid bacteria were frequently detected. The diversity in cow Mozzarella microbiota was much higher than that of water buffalo samples. Cluster analysis clearly separated cow's cheeses from buffalo's ones, the former having a higher prevalence of psychrophilic taxa, and the latter of Lactobacillus and Streptococcus. A higher prevalence of psychrophilic species and potential spoilers was observed in samples collected at the mass retail, suggesting that longer exposures to cooling temperatures and longer production-to-consumption times could significantly affect microbiota diversity. Our results could help in detecting some kind of thermal abuse during the production or storage of mozzarella cheese.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2018.12.014</t>
   </si>
   <si>
+    <t>Brazilian artisanal cheeses are characterized by the use of raw milk and in some cases, natural starter cultures, known as “pingo”, as well as following simple and traditional manufacturing technology. In this study, a large-scale screening of the microbial ecology of 11 different types of artisanal cheeses produced in five geographical areas of Brazil was performed. Besides, the specific origin-related microbial signatures were identified. Clear geography- and technology-based differences in the microbiota were observed. Lactic acid bacteria dominated in all cheeses although Enterobacteriaceae and Staphylococcus also occurred in North, Northeast and Central cheeses. Differences in the lactic acid bacteria patterns were also highlighted: Streptococcus, Leuconostoc, Lactococcus and Lactobacillus were differently combined in terms of relative abundance according to product type and region of production. This study provides a comprehensive, unprecedented microbiological mapping of Brazilian cheeses, highlighting the impact of geographical origin and mode of production on microbial diversity. The results obtained will help to plan an evaluation of microbial contamination sources that will need to be studied for the improvement of cheese quality and safety.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2017.09.009</t>
   </si>
   <si>
+    <t>“Chorizo de Léon” is a high-value Spanish dry fermented sausage traditionally manufactured without the use of starter cultures, owing to the activity of a house-specific autochthonous microbiota that naturally contaminates the meat from the environment, the equipment and the raw materials. Lactic acid bacteria (particularly Lactobacillus) and coagulase-negative cocci (mainly Staphylococcus) have been reported as the most important bacterial groups regarding the organoleptic and safety properties of the dry fermented sausages. In this study, samples from raw minced meat to final products were taken from five different producers and the microbial diversity was investigated by high-throughput sequencing of 16S rRNA gene amplicons. The diverse microbial composition observed during the first stages of “Chorizo de Léon” evolved during ripening to a microbiota mainly composed by Lactobacillus in the final product. Oligotyping performed on 16S rRNA gene sequences of Lactobacillus and Staphylococcus populations revealed sub-genus level diversity within the different manufacturers, likely responsible of the characteristic organoleptic properties of the products from different companies.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.00983-17</t>
   </si>
   <si>
+    <t>Valle d'Aosta Lard d'Arnad is a protected designation of origin (PDO) product produced from fat of the shoulder and back of heavy pigs. Its manufacturing process can be very diverse, especially regarding the maturation temperature and the NaCl concentration used for the brine; thereby, the main goal of this study was to investigate the impact of those parameters on the microbiota developed during curing and ripening. Three farms producing Lard d'Arnad were selected. Two plants, reflecting the industrial process characterized either by low maturation temperature (plant A [10% NaCl, 2°C]) or by using a low NaCl concentration (plant B [2.5% NaCl, 4°C]), were selected, while the third was characterized by an artisanal process (plant C [30% NaCl, 8°C]). Lard samples were obtained at time 0 and after 7, 15, 30, 60, and 90 days of maturation. From each plant, 3 independent lots were analyzed. The diversity of live microbiota was evaluated by using classical plate counts and amplicon target sequencing of small subunit (SSU) rRNA. The main taxa identified by sequencing were Acinetobacter johnsonii, Psychrobacter, Staphylococcus equorum, Staphylococcus sciuri, Pseudomonas fragi, Brochothrix, Halomonas, and Vibrio, and differences in their relative abundances distinguished samples from the individual plants. The composition of the microbiota was more similar among plants A and B, and it was characterized by the higher presence of taxa recognized as undesired bacteria in food-processing environments. Oligotype analysis of Halomonas and Acinetobacter revealed the presence of several characteristic oligotypes associated with A and B samples. IMPORTANCE Changes in the food production process can drastically affect the microbial community structure, with a possible impact on the final characteristics of the products. The industrial processes of Lard d'Arnad production are characterized by a reduction in the salt concentration in the brines to address a consumer demand for less salty products; this can negatively affect the dynamics and development of the live microbiota and, as a consequence, can negatively impact the quality of the final product due to the higher abundance of spoilage bacteria. This study is an overview of the live microbiota that develop during lard manufacturing, and it highlights the importance of the use of traditional process to produce PDO from a spoilage perspective.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2012.04.016</t>
   </si>
   <si>
+    <t>Most raw poultry sold in Finland at the retail level is mixed with marinades containing oil, sugar, spices and acetic acid and packaged under modified atmosphere. Premature spoilage of marinated poultry preparations has been observed and associated with high levels of Leuconostoc spp. in meat. In this study we investigated whether marination of broiler fillet strips increased the proportion of Leuconostoc spp. in the microbial communities. To obtain a comprehensive view of the microbiota, we sequenced total DNA and 16S rRNA gene amplicons from the microbial communities. The lactic acid bacterial communities were characterized also by identification of colonies. The results showed that marinade increased the proportions of the spoilage-associated Leuconostoc gasicomitatum in the communities as well as the proportions of Leuconostoc gelidum and Lactobacillus spp. The proportions of Carnobacterium, Vagococcus, Brochothrix thrermosphacta, Clostridium, Enterobacteriaceae and Vibrio were diminished in marinated meat. Analysis of 16S rRNA gene amplicons resulted in 312 and 284 operational taxonomical units (dissimilarity 0.03) in unmarinated and marinated meat, respectively, indicating that the meat communities were more diverse than hitherto shown. Metagenomic analysis revealed a number of bacterial taxa that have not been associated with late shelf-life meat before, including Vagococcus and Vibrio that belonged to the predominating part of the microbial community in unmarinated meat. According to the functional analysis of the metagenomes, the communities in both marinated and unmarinated poultry were characterized by high proportions (15.6% or 17.9%) of genes involved in carbohydrate metabolism.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.00323-16</t>
   </si>
   <si>
+    <t>Raw sausages are perishable foodstuffs; reducing their salt content raises questions about a possible increased spoilage of these products. In this study, we evaluated the influence of salt reduction (from 2.0% to 1.5% [wt/wt]), in combination with two types of packaging (modified atmosphere [50% mix of CO2-N2] and vacuum packaging), on the onset of spoilage and on the diversity of spoilage-associated bacteria. After 21 days of storage at 8°C, spoilage was easily observed, characterized by noticeable graying of the products and the production of gas and off-odors defined as rancid, sulfurous, or sour. At least one of these types of spoilage occurred in each sample, and the global spoilage intensity was more pronounced in samples stored under modified atmosphere than under vacuum packaging and in samples with the lower salt content. Metagenetic 16S rRNA pyrosequencing revealed that vacuum-packaged samples contained a higher total bacterial richness (n = 69 operational taxonomic units [OTUs]) than samples under the other packaging condition (n = 46 OTUs). The core community was composed of 6 OTUs (Lactobacillus sakei, Lactococcus piscium, Carnobacterium divergens, Carnobacterium maltaromaticum, Serratia proteamaculans, and Brochothrix thermosphacta), whereas 13 OTUs taxonomically assigned to the Enterobacteriaceae, Enterococcaceae, and Leuconostocaceae families comprised a less-abundant subpopulation. This subdominant community was significantly more abundant when 2.0% salt and vacuum packaging were used, and this correlated with a lower degree of spoilage. Our results demonstrate that salt reduction, particularly when it is combined with CO2-enriched packaging, promotes faster spoilage of raw sausages by lowering the overall bacterial diversity (both richness and evenness). IMPORTANCE Our study takes place in the context of raw meat product manufacturing and is linked to a requirement for salt reduction. Health guidelines are calling for a reduction in dietary salt intake. However, salt has been used for a very long time as a hurdle technology, and salt reduction in meat products raises the question of spoilage and waste of food. The study was conceived to assess the role of sodium chloride reduction in meat products, both at the level of spoilage development and at the level of bacterial diversity, using 16S rRNA amplicon sequencing and raw pork sausage as a meat model.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2017.10.012</t>
   </si>
   <si>
+    <t>The microbial contamination that occurs during the slaughtering process and during handling of the meat results in a shortening of the shelf-life of meat. In this study, which has had the aim of extending the shelf life of beefsteaks, pilot-scale treatments were carried out with aqueous ozone (AO) and electrolyzed water (EW) before vacuum packaging (VP). The development of the potentially active microbiota and the associated volatilome were followed over 15 days of storage under refrigerated conditions (4 °C), in order to define the potential long-term effects of the treatments and storage condition on microbiota. The targeted RNA-based amplicon sequencing identified Pseudomonas fragi as the most frequent species before and after the treatments with AO and EW, as well as in the untreated control. The tested treatments did not reduce the overall presence of this species, but they affected the intra-species distribution of its oligotypes, albeit slightly. With the progression of the refrigerated storage and the reduction of the oxygen availability, Lactobacillus sakei, Leuconostoc gasicomitatum and Lactococcus piscium became the dominant, potentially active, beef microbiota, as confirmed by microbiological data. When the OTU abundances and volatilome were coupled, a significant association was observed between the organic acids, esters and aldehydes and these lactic acid bacteria species.In spite of the limited effectiveness of the treatments over the short and long term, this study has provided a detailed view of beef spoilage using RNA as the sequencing target, strengthening and confirming the current knowledge based on DNA-amplicon sequencing.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2017.11.003</t>
   </si>
   <si>
+    <t>Lactobacillus curvatus 54M16 produced bacteriocins sak X, sak Tα, sak Tβ and sak P. The aim of this study was to investigate the anti-listerial activity of the bacteriocins-producing strain against Listeria monocytogenes in vitro co-culture experiments and during the manufacture of fermented sausages. In MRS broth, Lb. curvatus 54M16 was able to inhibit L. monocytogenes to undetectable levels after 48 h at 20 °C or 5 days at 15 °C. Anti-listerial activity was lower during the production of fermented sausages with pathogen inoculation at levels of approximately 4 Log CFU g−1. However, total inhibition of L. monocytogenes native to the raw ingredients was achieved over the course of the fermentation. Moreover, 16S rRNA-based analysis revealed the ability of Lb. curvatus 54M16 to dominate and affect the bacterial ecosystem, whereas spoilage-associated bacterial genera, such as Brochothrix, Psychrobacter, Pseudomonas and some Enterobacteriaceae, were found until the end of ripening in sausages without Lb. curvatus 54M16. The use of the bacteriocins-producing Lb. curvatus 54M16 in fermented sausages could be an important contribution to product safety, provided that eco-physiological factors and other preservation methods are maintained at levels required for the inhibition of pathogens in controlled conditions.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2018.04.032</t>
   </si>
   <si>
+    <t>The present study promotes the valorization of Fabriano-like fermented sausages, which are central-Italy salami with an origin that dates to the early 17th century, for the possible future selection of autochthonous starter cultures to be used with respect to local traditions. To the best of the authors' knowledge, this study represents the first attempt to define the microbial dynamics in Fabriano-like fermented sausage and the effect of nitrates/nitrites and starter cultures on its natural bacterial biota. Culture and RNA-based techniques (RT-PCR-DGGE and Illumina sequencing) were used to assess the microbial ecology of model Fabriano-like fermented sausages together with the impact of starter cultures and different nitrate and nitrite concentrations. The meat batter was used to produce two batches of fermented sausages that were prepared as follows: i) without commercial starters or ii) with the use of starter cultures composed of Pediococcus pentosaceus and Staphylococcus xylosus. Each batch was further divided into three different batches with the addition of 0/0 mg kg−1 nitrate/nitrite, 75/60 mg kg−1 nitrate/nitrite and 150/125 mg kg−1 nitrate/nitrite to the first, second and third batch, respectively. The samples, which were produced in triplicate, were analyzed on the day of production and after 7, 21, and 42 days of ripening. Enterobacteriaceae counts were always higher in model Fabriano-like sausages produced without the use of starter cultures at all of the sampling times irrespective of the tested nitrate/nitrite concentrations. Lactobacilli counts were positively influenced by the starters, although this influence was not evident over time; moreover, the effect of nitrates and nitrites on the counts of lactobacilli differed over time. As a general trend, coagulase-negative cocci counts were apparently not influenced by the tested nitrate/nitrite concentrations. Regarding the effect of nitrates/nitrites on the microbial diversity revealed by RT-PCR-DGGE, the higher the concentration, the lower the presence of some genera/species such as Pseudomonas spp., Serratia liquefaciens and Staphylococcus spp. However, Illumina sequencing detected Pseudomonas spp. as a minority species after 7, 21 and 42 days of ripening irrespective of the nitrate/nitrite concentration. The presence of Staphylococcus species was highlighted by both RT-PCR-DGGE and Illumina sequencing at all of the stages of ripening, although its presence was massively detected in fermented sausages produced without the use of nitrates/nitrites at the end of ripening. Overall, the data collected clearly highlighted the dominance of Lactobacillus sakei in all of the fermented sausages during ripening (from day 7 to day 42) and irrespective of the nitrate/nitrite concentration and added starter cultures. Moreover, Pediococcus spp. was principally detected in model Fabriano-like fermented sausage with added starter cultures irrespective of the nitrate/nitrite concentration.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2018.09.017</t>
   </si>
   <si>
+    <t>Fourteen lots of cooked ham in modified atmosphere packaging (CH) were analyzed within a few days from packaging (S) and at the end of the shelf-life (E), after storage at 7 °C to simulate thermal abuse. Five more lots, rejected from the market because spoiled (R), were included in the study. Quality of the products was generally compromised during the shelf life, with only 4 lots remaining unaltered. Analysis of 16S rRNA gene amplicons resulted in 801 OTUs. S samples presented a higher diversity than E and R ones. At the beginning of the shelf life, Proteobacteria and Firmicutes dominated the microbiota, with Acinetobacter, Brochothrix, Carnobacterium, Lactobacillus, Prevotella, Pseudomonas, Psychrobacter, Weissella, Vibrio rumoiensis occurring frequently and/or abundantly. E and R samples were dominated by Firmicutes mostly ascribed to Lactobacillales. It is noteworthy the appearance of abundant Leuconostoc, negligible in S samples, in some E and R samples, while in other LAB were outnumbered by V. rumoiensis or Brochothrix thermosphacta. The microbiota of spoiled and R samples could not be clustered on the basis of specific defects (discoloration, presence of slime, sourness, and swollen packages) or supplemented additives. LAB population of S samples, averaging 2.9 log10(cfu/g), increased to 7.7 log10(cfu/g) in the E and R samples. Dominant cultivable LAB belonged to the species Lactobacillus sakei and Leuconostoc carnosum. The same biotypes ascribed to different species where often found in the corresponding S and R samples, and sometime in different batches provided from the same producer, suggesting a recurrent contamination from the plant of production. Consistently with growth of LAB, initial pH (6.26) dropped to 5.74 in E samples. Volatiles organic compound (VOCs) analysis revealed that ethanol was the major metabolite produced during the shelf life. The profile of volatile compounds got enriched with other molecules (e.g. 2-butanone, ethyl acetate, acetic acid, acetoin, butanoic acid, ethyl ester, butanoic acid, and 2,3-butanediol) mainly ascribed to microbial metabolism.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.meatsci.2018.09.001</t>
   </si>
   <si>
+    <t>Spanish-type chorizo is a fermented meat product that is highly appreciated by consumers. The physicochemical properties (pH, water activity (aw), total acidity (TA), and malonaldehyde content) were evaluated in the initial meat batter and at different ripening stages. Bacterial diversity and dynamics were also examined using high-throughput sequencing. A decrease in pH and aw was observed during ripening, while the TA and malonaldehyde contents increased significantly. This data correlated with the changes in lactic acid bacteria and enterobacteria populations. Total bacterial diversity in the initial samples was represented by Proteobacteria (44%) and Firmicutes (55%) phyla, where Pseudomonas (23%), Streptococcus (21%), Acinetobacter (14%), Bacillus (13%), and Brochothrix (11%) were the most abundant genera. In contrast, Firmicutes reached the highest frequency (~89%), with Lactobacillus and Streptococcus being the most represented at the end of ripening. Lactobacillus sakei, Pediococcus acidilactici, and Weissella thailandensis were identified by 16S rRNA gene analysis and were considered potentially responsible for the stability, microbiological safety, and sensory characteristics of this product.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2019.04.003</t>
   </si>
   <si>
+    <t>It is well established, that certain bacteria within the Brochothrix, Carnobacterium, Lactobacillus, Lactococcus, and Leuconostoc genera have an important role in the spoilage of chill stored poultry meat packaged in modified atmosphere. However, little is known about the role of microorganisms that are difficult to culture and the microbiota during poultry spoilage. We combined traditional cultivation and culture-independent 16S rRNA amplicon sequencing to investigate the microbiota encompassing putative bacteria of whole broiler meat, packaged in modified atmosphere, during and exceeding shelf-life. Samples were taken from 6 flocks during independent slaughter days. Additional samples were analysed from the production line. There was a significant difference in the microbial community structure of 80%O2/20%CO2 retail packaged broiler meat during different times of shelf-life, mainly due to an increase of species within the Brochothrix, Carnobacterium, Vagococcus, and Janthinobacterium genera. These genera were already detected four to eight days after slaughter. However, no significant difference between flocks with respect to the microbiota encompassing putative spoilage bacteria was observed when examined in retail packaged broilers, slaughtered at the same abattoir on different days. Our study also showed that lactic acid bacteria within the Vagococcus genus can constitute a dominating part of the later shelf-life microbiota in fresh whole broiler meat packaged in 80%O2/20%CO2 modified atmosphere. A single operational taxonomic unit (OTU) assigned as Janthinobacterium lividum, an occasional spoiler of meat products, was identified as a major part of the microbiota in late shelf life broiler meat and swab samples in the cooling facility at the slaughter house production line. The combination of traditional cultivation and culture-independent methods provided a great insight into the microbiota of broiler meat during shelf-life and identified a potential point of contamination in the production line for cold tolerant Janthinobacterium.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2018.11.039</t>
   </si>
   <si>
+    <t>The aim of this study was to investigate the shelf-life and microbial community dynamics of super-chilled vacuum-packaged beef striploins imported from Australia to China after approximately five weeks of shipping time and an additional 15 weeks of storage at −1 °C ± 0.5 °C. Data analysis using a mixed model (REML) with time as the fixed effect and portion as a random effect, showed that the only beef quality trait that changed during storage was total volatile basic nitrogen (TVBN; P &lt; .05), which reached the threshold of 15 mg/100 g between 15 and 20 weeks (including 5 weeks of transport). The total viable count (TVC) accounted for 78% of the variance in TVBN, when storage time was included in the model. Sensory scores decreased as storage time extended (P &lt; .05), but were still acceptable at 20 weeks. After 9 weeks, Carnobacterium spp. and Lactobacillus spp. dominated alternately and then Lactobacillus became the most prevalent bacteria. An operational taxominc unit based hierarchical cluster analysis using the unweighted pair-group method with arithmetic means was performed and it was shown that the bacterial communities tended to be consistent as storage time extended. Overall indications are that beef which is safe can be imported into China from Australia and aged for extended periods.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2019.01.008</t>
   </si>
   <si>
+    <t>Thawed hake (Merluccius capensis and M. paradoxus) and plaice (Pleuronectes platessa) fillets were used as a model to evaluate the effect of storage temperature (0 or 10 °C) and biological variability (fish species, lot to lot) on bacterial growth kinetics and microbial successions. Both culture dependent methods (plate counts on non-selective and selective media) and culture independent methods (qPCR and 16S rRNA gene metabarcoding) were used. Bacterial counts exceeded 107 cfu/g within 2–3 days at 10 °C and 7–8 days at 0 °C. Plate counts on three media (Plate Count Agar +0.5% NaCl, Iron Agar Lyngby and Pseudomonas Selective medium) and 16S rRNA gene counts estimated by qPCR were highly correlated. Growth was modelled using the D-model and specific growth rate ranged between 0.97 and 1.24 d−1 and 3.54 and 5.90 d−1 at 0 and 10 °C, respectively. The initial composition of the microbiota showed lot-to-lot variation, but significant differences between the two fish species were detected. Alpha diversity significantly decreased during storage. When bacterial counts exceeded 107 cfu/g, the microbiota was dominated by members of the genera Pseudomonas, Psychrobacter, Acinetobacter, Serratia, Flavobacterium, Acinetobacter, Carnobacterium, Brochothrix and Vagococcus. However, Photobacterium and Shewanella, two genera frequently associated with fish spoilage, were either absent or minor components of the microbiota. As expected, storage temperature significantly affected the abundance of several species. The inference of microbial association networks with three different approaches (an ensemble approach using the CoNet app, Sparse Correlations for Compositional data, and SParse InversE Covariance Estimation for Ecological Association Inference) allowed the detection of both a core microbiota, which was present throughout storage, and a number of taxa, which became dominant at the end of spoilage and were characterized by a disproportionate amount of negative interactions.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/s41598-017-11552-y</t>
   </si>
   <si>
+    <t>Traceability of seafood has become crucial with market globalization and consumer’s awareness. The present study used PCR-DGGE and 454 pyrosequencing to assess if bacterial communities fingerprint associated to seabass (Dicentrarchus labrax) skin mucus can be used to discriminate the geographic origin of fishes cultured in three semi-intensive fish farms. PCR-DGGE and pyrosequencing results were congruent and suggested that this molecular approach has the potential to trace fish farms with a spatial resolution &lt;500 m. Pyrosequencing results provided a detailed insight into the bacterial community composition of seabass skin mucus and revealed the existence of a core of bacterial communities within family Pseudomonadaceae and Rhodobacteraceae. This approach also allowed to recognized key OTUs that are potentially relevant to discriminate the geographic origin of the fish being surveyed. Overall, the present study increased our knowledge on farmed seabass microbiome and demonstrated that specific and unique bacterial taxa can act as natural signatures that allow us to trace fish to its respective geographic origin. Our study provides valuable clues that should be more investigated in future studies as a way to fulfill current traceability needs in the global trade of seafood.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2018.12.021</t>
   </si>
   <si>
+    <t>Microbial (colony counts, 16S rRNA gene amplification), chemical (pH, 1H NMR spectroscopy) and sensory changes in raw Atlantic Salmon (Salmo salar) and tuna (Thunnus albacares) fillets stored under vacuum at 3 °C were evaluated over a period of 12 days. Both species of fish are globally important and among the ten most consumed fishes in the world. Although the sensory analyses showed a decrease in the quality of both fish species, only the salmon fillets were considered spoiled at the end of the storage period. In salmon, trimethylamine was the main spoilage product and bacterial colony counts reached an average of 7.3 log10 cfu/g. The concentration of glucose decreased and the concentration of organic acids increased during storage revealing glucose fermentation. Photobacterium was the dominating genus in the salmon studied. In the tuna studied, the bacterial colony counts reached only an average of 4.6 log10 cfu/g. The dominating bacteria in tuna were Pseudomonas spp. Glucose levels did not decrease, suggesting that amino acids and lactate most likely acted as carbon sources for bacteria in tuna. In conclusion, the study revealed that salmon was clearly a more perishable fish than tuna.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodcont.2018.09.016</t>
   </si>
   <si>
+    <t>In this study, the microbiota of liquid eggs (raw materials) produced by different suppliers and final products (chilled pasteurized liquid whole eggs and chilled pasteurized liquid egg yolk) (n = 211, pooled in 21 samples) was studied by a 16S rRNA-based amplicon sequencing. The raw material samples were collected from five different egg suppliers (A, B, C, E, and F), whereas the sixth type of raw material was whole shell eggs broken at the egg processing factory. The suppliers were located at different distances (∼100 Km to ∼1500 Km) from the liquid egg processing facility, being subjected to varying practices after egg breaking (pasteurization and addition of hydrogen peroxide), followed by chilled transportation. The results showed that final products presented lower diversity indexes than raw materials suggesting that processing and storage act towards shaping their microbiota. Besides, the transportation distance seemed to influence the microbiota of liquid egg. Proteobacteria and Firmicutes dominated the sequences of 16S rRNA in raw materials and final product samples, while the abundance of classes was found to vary considerably among samples and composite samples. Lactobacillales and Pseudomonadales were the most abundant order in almost all raw material samples, whereas Enterobacteriales was abundant in few raw material samples. The principal genera linked to final products were Pseudomonas, Carnobacterium and less frequently Clostridium. The study highlights that the practices employed by suppliers and transportation distances are key in modulating the microbiota of raw materials and further liquid processed egg products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1186/s40168-016-0193-y</t>
   </si>
   <si>
+    <t>Background Fresh sprouted seeds have been associated with a number of large outbreaks caused by Salmonella and Shiga toxin-producing E. coli. However, the high number of commensal bacteria found on sprouted seeds hampers the detection of these pathogens. Knowledge about the composition of the sprout microbiome is limited. In this study, the microbiome of mungo bean sprouts and the impact of buffered peptone water (BPW) and Enterobacteriaceae enrichment broth (EE-broth)-based enrichment protocols on this microbiome were investigated. Results Assessments based on aerobic mesophilic colony counts showed similar increases in mungo bean sprout background flora levels independent of the enrichment protocol used. 16S rRNA sequencing revealed a mungo bean sprout microbiome dominated by Proteobacteria and Bacteroidetes. EE-broth enrichment of such samples preserved and increased Proteobacteriadominance while reducing Bacteroidetes and Firmicutes relative abundances. BPW enrichment, however, increased Firmicutes relative abundance while decreasing Proteobacteria and Bacteroidetes levels. Both enrichments also lead to various genus level changes within the Protobacteria and Firmicutes phyla. Conclusions New insights into the microbiome associated with mungo bean sprout and how it is influenced through BPW and EE-broth-based enrichment strategies used for detecting Gram-negative pathogens were generated. BPW enrichment leads to Firmicutes and Proteobacteriadominance, whereas EE-broth enrichment preserves Proteobacteria dominance in the mungo bean sprout samples. By increasing the relative abundance of Firmicutes, BPW also increases the abundance of Gram-positive organisms including some that might inhibit recovery of Gram-negative pathogens. The use of EE-broth, although preserving and increasing the dominance of Proteobacteria, can also hamper the detection of lowly abundant Gram-negative target pathogens due to outgrowth of such organisms by the highly abundant non-target Proteobacteria genera comprising the mungo bean sprout associated background flora.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2018.08.003</t>
   </si>
   <si>
+    <t>Limited documentation of the cucumber fermentation microbiome has impeded the understanding of the role of microbes on the quality of finished products. We characterized the microbiome of fresh and fermented cucumber samples using culture dependent and independent techniques, with an emphasis on the non-lactic acid bacteria (non-LAB) population. Insubstantial microbiome variations were observed among fresh cucumber types with Rhizobium (31.04%), Pseudomonas (14.08%), Pantoea (9.25%), Stenotrophomonas (6.83%), and Acinetobacter (6.5%) prevailing. The relative abundance of LAB remained below 0.4% and 4.0% on fresh cucumbers and day 3 of the fermentations brined with 6% sodium chloride, respectively. Fermentation cover brine samples collected on day 1 harbored Pseudomonas, Pantoea, Stenotrophomonas, Acinetobacter, Comamonas, Wautersiella, Microbacterium, Flavobacterium, Ochrobactrum and the Enterobacteriaceae, Citrobacter, Enterobacter and Kluyvera. Plate counts for presumptive Klebsiella and Pseudomonas from fermentation cover brine samples reached 2.80 ± 0.36 and 2.78 ± 0.83 log of CFU/mL, respectively, in 30% and 60% of the nine tanks scrutinized with selective media. Both genera were found in cover brine samples with pH values at 4.04 ± 0.15. We aim at elucidating whether the low relative abundance of non-LAB in commercial cucumber fermentations, in particular Pseudomonas and Enterobacteriaceae, impacts the quality of fermented cucumbers.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2013.04.015</t>
   </si>
   <si>
+    <t>Thermophilic lactic acid bacteria (LAB) species, such as Streptococcus thermophilus, Lactobacillus delbrueckii and Lactobacillus helveticus, enjoy worldwide economic importance as dairy starters. To assess the diversity of thermophilic bacteria in milk, milk samples were enriched in thermophilic organisms through a stepwise procedure which included pasteurization of milk at 63 °C for 30 min (PM samples) and pasteurization followed by incubation at 42 °C for 24 h (IPM samples). The microbial composition of these samples was analyzed by culture-dependent (at 42 °C) and culture-independent (PCR-DGGE and pyrosequencing of 16S rRNA gene amplicons) microbial techniques. The results were then compared to those obtained for their corresponding starting raw milk counterparts (RM samples). Twenty different species were scored by culturing among 352 isolates purified from the counting plates and identified by molecular methods. Mesophilic LAB species (Lactococcus lactis, Lactococcus garvieae) were dominant (87% of the isolates) among the RM samples. However, S. thermophilus and Lb. delbrueckii were found to be the dominant recoverable organisms in both PM and IPM samples. The DGGE profiles of RM and PM samples were found to be very similar; the most prominent bands belonging to Lactococcus, Leuconostoc and Streptococcus species. In contrast, just three DGGE bands were obtained for IPM samples, two of which were assigned to S. thermophilus. The pyrosequencing results scored 95 operational taxonomic units (OTUs) at 3% sequence divergence in an RM sample, while only 13 were encountered in two IPM samples. This technique identified Leuconostoc citreum as the dominant microorganism in the RM sample, while S. thermophilus constituted more than 98% of the reads in the IPM samples. The procedure followed in this study allowed to estimate the bacterial diversity in milk and afford a suitable strategy for the isolation of new thermophilic LAB strains, among which adequate starters might be selected.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.micres.2017.09.004</t>
   </si>
   <si>
+    <t>The microbial assemblies on the surface of plants correlate with specific climatic features, suggesting a direct link between environmental conditions and microbial inhabitation patterns. At the same time however, microbial communities demonstrate distinct profiles depending on the plant species and region of origin. In this study, we report Next Generation Sequencing-based metagenomic analysis of microbial communities associated with apple and blackcurrant fruits harvested from Lithuania and the Czech Republic. Differences in the taxonomic composition of eukaryotic and prokaryotic microorganisms were observed between plant types. Our results revealed limited geographic differentiation between the bacterial and fungal communities associated with apples. In contrast, blackcurrant berries harvested from different regions demonstrated high diversity in both bacterial and fungal microbiota structures. Among fungal and bacterial microorganisms, we identified both potentially beneficial (Cryptococcus, Hanseniaspora, Massilia, Rhodotorula, Sphingomonas) and phytopathogenic microorganisms (Cladosporium, Pantoea, Phoma, Pseudomonas, Septoria, Taphrina) indicating their important roles in ecological and evolutionary processes.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.03837-13</t>
   </si>
   <si>
+    <t>The microbial composition of artisan and industrial animal rennet pastes was studied by using both culture-dependent and -independent approaches. Pyrosequencing targeting the 16S rRNA gene allowed to identify 361 operational taxonomic units (OTUs) to the genus/species level. Among lactic acid bacteria (LAB), Streptococcus thermophilus and some lactobacilli, mainly Lactobacillus crispatus and Lactobacillus reuteri, were the most abundant species, with differences among the samples. Twelve groups of microorganisms were targeted by viable plate counts revealing a dominance of mesophilic cocci. All rennets were able to acidify ultrahigh-temperature-processed (UHT) milk as shown by pH and total titratable acidity (TTA). Presumptive LAB isolated at the highest dilutions of acidified milks were phenotypically characterized, grouped, differentiated at the strain level by randomly amplified polymorphic DNA (RAPD)-PCR analysis, and subjected to 16S rRNA gene sequencing. Only 18 strains were clearly identified at the species level, as Enterococcus casseliflavus, Enterococcus faecium, Enterococcus faecalis, Enterococcus lactis, Lactobacillus delbrueckii, and Streptococcus thermophilus, while the other strains, all belonging to the genus Enterococcus, could not be allotted into any previously described species. The phylogenetic analysis showed that these strains might represent different unknown species. All strains were evaluated for their dairy technological performances. All isolates produced diacetyl, and 10 of them produced a rapid pH drop in milk, but only 3 isolates were also autolytic. This work showed that animal rennet pastes can be sources of LAB, mainly enterococci, that might contribute to the microbial diversity associated with dairy productions.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.03470-14</t>
   </si>
   <si>
+    <t>The phyllosphere is colonized by a wide variety of bacteria and fungi; it harbors epiphytes, as well as plant-pathogenic bacteria and even human pathogens. However, little is known about how the bacterial community composition on leafy greens develops over time. The bacterial community of the leafy-green phyllosphere obtained from two plantings of rocket salad (Diplotaxis tenuifolia) and three plantings of lettuce (Lactuca sativa) at two farms in Norway were profiled by an Illumina MiSeq-based approach. We found that the bacterial richness of the L. sativa samples was significantly greater shortly (3 weeks) after planting than at harvest (5 to 7 weeks after planting) for plantings 1 and 3 at both farms. For the second planting, the bacterial diversity remained consistent at the two sites. This suggests that the effect on bacterial colonization of leaves, at least in part must, be seasonally driven rather than driven solely by leaf maturity. The distribution of phyllosphere communities varied between D. tenuifolia and L. sativa at harvest. The variability between these species at the same location suggests that the leaf-dwelling bacteria are not only passive inhabitants but interact with the host, which shapes niches favoring the growth of particular taxa. This work contributes to our understanding of host plant-specific microbial community structures and shows how these communities change throughout plant development.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1186/1471-2180-13-274</t>
   </si>
   <si>
+    <t>Background Plants harbor a diverse bacterial community, both as epiphytes on the plant surface and as endophytes within plant tissue. While some plant-associated bacteria act as plant pathogens or promote plant growth, others may be human pathogens. The aim of the current study was to determine the bacterial community composition of organic and conventionally grown leafy salad vegetables at the point of consumption using both culture-dependent and culture-independent methods. Results Total culturable bacteria on salad vegetables ranged from 8.0 × 103 to 5.5 × 108 CFU g-1. The number of culturable endophytic bacteria from surface sterilized plants was significantly lower, ranging from 2.2 × 103 to 5.8 × 105 CFU g-1. Cultured isolates belonged to six major bacterial phyla, and included representatives of Pseudomonas, Pantoea, Chryseobacterium, and Flavobacterium. Eleven different phyla and subphyla were identified by culture-independent pyrosequencing, with Gammaproteobacteria, Betaproteobacteria, and Bacteroidetes being the most dominant lineages. Other bacterial lineages identified (e.g. Firmicutes, Alphaproteobacteria, Acidobacteria, and Actinobacteria) typically represented less than 1% of sequences obtained. At the genus level, sequences classified as Pseudomonas were identified in all samples and this was often the most prevalent genus. Ralstonia sequences made up a greater portion of the community in surface sterilized than non-surface sterilized samples, indicating that it was largely endophytic, while Acinetobacter sequences appeared to be primarily associated with the leaf surface. Analysis of molecular variance indicated there were no significant differences in bacterial community composition between organic versus conventionally grown, or surface-sterilized versus non-sterilized leaf vegetables. While culture-independent pyrosequencing identified significantly more bacterial taxa, the dominant taxa from pyrosequence data were also detected by traditional culture-dependent methods. Conclusions The use of pyrosequencing allowed for the identification of low abundance bacteria in leaf salad vegetables not detected by culture-dependent methods. The presence of a range of bacterial populations as endophytes presents an interesting phenomenon as these microorganisms cannot be removed by washing and are thus ingested during salad consumption.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2018.12.022</t>
   </si>
   <si>
+    <t>The effect of air packaging (AP), vacuum packaging (VP) and modified atmosphere packaging (MAP, 75% CO2/25% N2) on the composition of the microbial community of lightly salted grass carp (Ctenopharyngodon idellus) fillets stored at 4 °C was studied. Physicochemical characteristics (total volatile basic nitrogen (TVB-N) value, pH value and biogenic amines (BA)) were also monitored. Based on sensory evaluation, the shelf life of fillets under AP, VP, and MAP was 8, 16 and 24 days, respectively. High-throughput sequencing showed that Acinetobacter and Pseudomonas dominated the microflora of fresh grass carp. At the sensory rejection time, Pseudomonas and Psychrobacter dominated the AP products. Lactococcus became the predominant genus of both VP and MAP fillets, and there was no obvious difference in the composition of the dominant microbiota between these two treatments at the end of the shelf life.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2011.10.011</t>
   </si>
   <si>
+    <t>Kimchi, a food made of fermented vegetables, is densely populated by indigenous microorganisms that originate from the raw ingredients under normal conditions. Most microbiological studies on kimchi have been on the most popular dish, baechu-kimchi (Chinese cabbage kimchi). Therefore, relatively little is known about the various other kinds of kimchi (depending on the region, season, main ingredient, starter culture inoculation and recipe). In this study, we collected 100 samples periodically during the fermentation of ten representative kinds of kimchi (including starter-inoculated kimchi) that were stored in the refrigerator (4 °C) during the 30−35 days fermentation period. The multiplex barcoded pyrosequencing of a hypervariable V1−V3 region of the 16S ribosomal RNA (rRNA) gene tagged with sample-specific barcodes for multiplex identifiers was employed for bacterial community profiling. We found that bacterial communities differed between starter-inoculated and non-inoculated kimchi at the early stages of fermentation, but overall there were no significant differences in the late phases. Also, the diversity and richness of bacterial communities varied depending on the various types of kimchi, and these differences could largely be explained by the major ingredients and the manufacture processes of each types of kimchi. This study provides the comprehensive understanding of the factors influencing the biodiversity of the kimchi ecosystem.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.04.002</t>
   </si>
   <si>
+    <t>The various stages of the cheese-making process harbor distinct bacterial communities which may influence the sensory characteristics of artisanal cheeses. The objective of this study was to investigate the microbiota from dairy farm to final cheeses along an artisanal cheese-making continuum. Environmental and food samples were collected from 21 sites, including the dairy farm, milk, cheese plant, and finished cheeses. The microbiota of these samples were analyzed using 16S rRNA amplicon sequencing, with sequences grouped into operational taxonomic units (OTUs) by phylotype at the genus level. Alpha diversity decreased from dairy farm to finished cheese. Firmicutes was the dominant phylum, ranging from 31% to 92% between the dairy farm and finished cheeses, respectively, with Proteobacteria, Actinobacteria, and Bacteroides also present (25%, 11%, and 9% overall relative abundance, respectively). Of the 37 core OTUs (&gt;5 reads in &gt;80% of site replicates) observed in cheese, 32 were shared with the dairy farm. Starter-related genera (i.e., Lactococcus, Lactobacillus, Streptococcus, and Leuconostoc) represented between 69% and 98% relative abundance in final cheeses depending on style, with the remainder likely acquired from various environmental sources on the farm and during the cheese-making process.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.04.006</t>
   </si>
   <si>
+    <t>The processing environment of broiler processing plants is a potential major source of bacterial contamination of broiler carcasses. This study investigated the effect of processing water and processing time on the microbial diversity of yellow-feathered broiler carcasses at select stages of slaughter during one commercial processing day using a high-throughput sequencing technique targeting the V3single bondV4 region of the 16S RNA gene. Our results demonstrated that Firmicutes and Proteobacteria were the dominant bacterial phyla of broiler carcasses and processing water in the chiller tank, whereas the processing water in the scalder tank contained a high abundance of Firmicutes and Deinococcus-Thermus. At the genus level, Escherichia-Shigella and Streptococcus were present on broiler carcasses with high abundances after defeathering, but their abundance decreased after washing and chilling. The bacterial community structure was revealed to become more complex at later stages of processing, as indicated by the consistent increase in microbial alpha diversity metrics (Chao 1, Shannoneven and Shannon) throughout the processing stages (p &lt; 0.05). Significantly separate clustering of bacterial communities between scalder tank water and carcasses was revealed by PCoA analysis, indicating the limited effect of scalding water on the bacterial communities of broiler carcasses.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2018.11.006</t>
   </si>
   <si>
+    <t>Strategies to mitigate antibiotic-resistant bacteria (ARB), including human pathogens, on raw vegetables are needed to reduce incidence of resistant infections. The objective of this research was to determine the effectiveness of standard post-harvest interventions, sanitizer washing and cold storage, to reduce ARB, including antibiotic resistant strains of the human pathogen E. coli O15:H7 and a common spoilage bacterium Pseudomonas, on raw carrots. To provide a background inoculum representing potential pre-harvest carryover of ARB, carrots were dip-inoculated in dairy cow manure compost slurry and further inoculated with known ARB. Inoculated carrots were washed with one of three treatments: sodium hypochlorite (50 ppm free chlorine), peroxyacetic acid (40 ppm peroxyacetic acid; 11.2% hydrogen peroxide), tap water (no sanitizer), or no washing (control). Washed carrots were air dried, packaged and stored at 10 °C for 7d or 2 °C for up to 60 d. Enumeration was performed using total heterotrophic plate counts (HPC), HPCs on antibiotic-containing media (“ARBs”), E. coli O157:H7, and Pseudomonas sp. immediately after washing (0 d) and after 7 d of storage. In addition to the cultured bacteria, changes to the surficial carrot microbiota were profiled by sequencing bacterial 16S rRNA gene amplicons to determine the effect of sanitizer wash, storage temperature, and time of storage (0, 1, 7, 14 and 60 d). Storage temperature, addition of a sanitizer during wash, and duration of storage significantly affected the bacterial microbiota (Wilcoxon, p &lt; 0.05). Inclusion of either sanitizer in the wash water significantly reduced the log CFU/g of E. coli O157:H7 and Pseudomonas sp., as well as HPCs enumerated on cefotaxime- (10 μg/ml), sulfamethoxazole- (100 μg/ml), or tetracycline (3 μg/ml) supplemented media compared to the unwashed control (ANOVA, p &lt; 0.05). However, no significant reductions to bacteria resistant to vancomycin or clindamycin occurred after washing and storage. Members of the Proteobactetria, Firmicutes, Actinobacteria, Planctomycetes, and Acidobacteria comprised the bacterial carrot microbiota. The diversity of the carrot microbiota was significantly affected by the temperature of storage and by extended storage (60 d), when spoilage began to occur. There were no significant differences to the relative abundance of bacterial groups associated with the type of sanitizer used for washing. Results of this study indicate that inclusion of a sanitizer in wash water, followed by storage at 2 °C, might be an effective strategy to prevent re-growth of pathogenic E. coli O157:H7 and reduce levels of bacteria resistant to certain antibiotics on carrots.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1186/s12866-015-0497-2</t>
   </si>
   <si>
+    <t>Background Salmonella enterica is a common cause of foodborne gastroenteritis in the United States and is associated with outbreaks in fresh produce such as cilantro. Salmonella culture-based detection methods are complex and time consuming, and improvments to increase detection sensitivity will benefit consumers. In this study, we used 16S rRNA sequencing to determine the microbiome of cilantro. We also investigated changes to the microbial community prior to and after a 24-hour nonselective pre-enrichment culture step commonly used by laboratory analysts to resuscitate microorganisms in foods suspected of contamination with pathogens. Cilantro samples were processed for Salmonella detection according to the method in the United States Food and Drug Administration Bacteriological Analytical Manual. Genomic DNA was extracted from culture supernatants prior to and after a 24-hour nonselective pre-enrichment step and 454 pyrosequencing was performed on 16S rRNA amplicon libraries. A database of Enterobacteriaceae 16S rRNA sequences was created, and used to screen the libraries for Salmonella, as some samples were known to be culture positive. Additionally, culture positive cilantro samples were examined for the presence of Salmonella using shotgun metagenomics on the Illumina MiSeq. Results Time zero uncultured samples had an abundance of Proteobacteria while the 24-hour enriched samples were composed mostly of Gram-positive Firmicutes. Shotgun metagenomic sequencing of Salmonella culture positive cilantro samples revealed variable degrees of Salmonella contamination among the sequenced samples. Conclusions Our cilantro study demonstrates the use of high-throughput sequencing to reveal the microbiome of cilantro, and how the microbiome changes during the culture-based protocols employed by food safety laboratories to detect foodborne pathogens. Finding that culturing the cilantro shifts the microbiome to a predominance of Firmicutes suggests that changing our culture-based methods will improve detection sensitivity for foodborne enteric pathogens.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/pathogens8010037</t>
   </si>
   <si>
+    <t>Ready-to-eat (RTE) leafy salad vegetables are considered foods that can be consumed immediately at the point of sale without further treatment. The aim of the study was to investigate the bacterial community composition of RTE salads at the point of consumption and the changes in bacterial diversity and composition associated with different household washing treatments. The bacterial microbiomes of rocket and spinach leaves were examined by means of 16S rRNA gene high-throughput sequencing. Overall, 886 Operational Taxonomic Units (OTUs) were detected in the salads’ leaves. Proteobacteria was the most diverse high-level taxonomic group followed by Bacteroidetes and Firmicutes. Although they were processed at the same production facilities, rocket showed different bacterial community composition than spinach salads, mainly attributed to the different contributions of Proteobacteria and Bacteroidetes to the total OTU number. The tested household decontamination treatments proved inefficient in changing the bacterial community composition in both RTE salads. Furthermore, storage duration of the salads at refrigeration temperatures affected the microbiome, by decreasing the bacterial richness and promoting the dominance of psychrotropic bacteria. Finally, both salads were found to be a reservoir of opportunistic human pathogens, while washing methods usually applied at home proved to be inefficient in their removal.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.01164-18</t>
   </si>
   <si>
+    <t>Forastero hybrid cocoa bean fermentations have been carried out in a box (B) and in a heap (H), with or without the inoculation of Saccharomyces cerevisiae and Torulaspora delbrueckii as starter cultures. The bacteria, yeasts, and microbial metabolites (volatile and nonvolatile organic compounds) were monitored during fermentation to assess the connection between microbiota and the release of metabolites during this process. The presence of starter cultures was detected, by means of culture-dependent analysis, during the first 2 days of both fermentations. However, no statistical difference was observed in any of the physicochemical or microbiological analyses. Plate counts revealed the dominance of yeasts at the beginning of both fermentations, and these were followed by acetic acid bacteria (AAB) and lactic acid bacteria (LAB). Hanseniaspora opuntiae, S. cerevisiae, Pichia pijperi, Acetobacter pasteurianus, and Lactobacillus fermentum were the most abundant operational taxonomic units (OTUs) during both fermentation processes (B and H), although different relative abundances were observed. Only the diversity of the fungal species indicated a higher level of complexity in the B fermentations than in the H fermentations (P &lt; 0.05), as well as a statistically significant difference between the initially inoculated starter cultures (P &lt; 0.01). However, the microbial metabolite analysis indicated different distributions of the volatile and nonvolatile compounds between the two procedures, that is, B and H (P &lt; 0.05), rather than between the inoculated and noninoculated fermentations. The box fermentations showed faster carbohydrate metabolism and greater production of organic acid compounds, which boosted the formation of alcohols and esters, than did the heap fermentations. Overall, the microbial dynamics and associations between the bacteria, yeasts, and metabolites were found to depend on the type of fermentation. IMPORTANCE In spite of the limited effectiveness of the considered inoculated starter strains, this study provides new information on the microbial development of box and heap cocoa fermentations, under inoculated and noninoculated conditions, as we coupled yeast/bacterial amplicon-based sequencing data with microbial metabolite detection. The information so far available suggests that microbial communities have played an important role in the evolution of aroma compounds. Understanding the pathways that microorganisms follow during the formation of aromas could be used to improve the fermentation processes and to enhance chocolate quality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2017.03.019</t>
   </si>
   <si>
+    <t>Liqvan (or Lighvan) is a traditional Iranian cheese from the East Azerbaijan province of Iran, which is made of raw ewe's milk without the addition of a starter. The grazing pastures, environmental conditions and the ancient regional production methods allocate a distinctive microbial ecology to this type of cheese, and these factors are consequently associated with the quality of the product. In this study, the microbiota of the milk, curd and cheese has been investigated using culture independent approaches. Denaturing gradient gel electrophoresis (DGGE) of the bacteria, 16S rRNA based high-throughput sequencing and enumeration of the live bacterial community by means of quantitative PCR (qPCR) have been used for this purpose. The results showed that the main bacterial population in the milk belonged to both microbial contaminants and lactic acid bacteria (LAB). However, both of these populations were totally replaced by LAB during ripening. The present survey contributes by describing the microbiota of this ancient cheese in more detail during fermentation and ripening.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/s41598-018-20862-8</t>
   </si>
   <si>
+    <t>Milk microbiota has a great influence on the safety and quality of dairy products. However, few studies have investigated the variations of bacterial composition in raw milk. In this study, raw milk samples were collected in 12 successive months, and their bacterial compositions were determined by 16 S rRNA gene sequencing. The highest diversity of bacterial composition was detected in June, while the lowest was in December. Firmicutes, Proteobacteria and Actinobacteria were the most abundant phyla and exhibited a counter-balanced relationship. Pseudomonas, Lactococcus and Acinetobacter were the most prevalent genera (&gt;1%), and a tiny core microbiota (Acinetobacter and Pseudomonas) was observed. Temperature and humidity were the determining factors for most variation in bacterial compositions at both the phylum and genus levels. Higher abundances of Pseudomonas, Propionibacterium and Flavobacterium were correlated with low temperature. Furthermore, Pseudomonas/Propionibacterium and Lactobacillus/Bifidobacterium were two pairs of genera that had synergistic effects. Associations between the microbiota and milk quality parameters were analyzed. The abundances of Propionibacterium and Pseudoalteromonas were negatively correlated to total bacterial count, which meant that they helped to maintain milk quality, while a series of environmental microorganisms contributed to the spoilage of raw milk.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.idairyj.2019.104539</t>
   </si>
   <si>
+    <t>Bovine mastitis, an inflammation of the udder, is associated with increases in milk somatic cell count usually resulting from bacterial infection. We analysed 50 mastitic milk samples via cultivation, 16S rRNA sequencing and a combination of the two (culturomics) to define the complete microbial content of the milk. Most samples contained over 10,000 cfu mL−1 total bacterial counts including isolates that were haemolysin positive (n = 36). Among colonies isolated from blood agar plates, Streptococcus uberis was dominant (11/50) followed by Streptococcus dysgalactiae (6/50), Pseudomonas (6/50), Enterococcus faecalis (6/50), Escherichia coli (6/50), Staphylococcus argenteus (4/50), Bacillus (4/50) and Staphylococcus aureus (2/50). 16S rRNA profiling revealed that amplicons were dominated by Rhodococcus, Staphylococcus, Streptococcus and Pseudomonas. A higher inter-sample diversity was noted in the 16S rRNA readouts, which was not always reflected in the plating results. The combination of the two methods highlights the polymicrobial complexity of bovine mastitis.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2019.05.032</t>
+  </si>
+  <si>
+    <t>Chicken meat is one of the most widely consumed meats worldwide. The microbiota on the whole body of chicken is a potential source of foodborne pathogens that can be transmitted to humans during the preparation of raw meat. However, to date, there have been no studies comparing the microbiota of packaged chicken products and those of raw chicken carcasses from butcher shops, although such information could be useful for identifying sources of contamination in cases of food poisoning. We addressed this in the present study by analyzing the microbiota of 80 chicken meat samples collected from various butcher shops and processing plants in South Korea with the Illumina MiSeq system based on the 16S rRNA gene sequence. The bacterial amounts in chicken samples were estimated by quantitative real-time PCR. Although different microbial members were present in unpackaged meat from butcher shops as compared to those in packaged products from commercial sources, seasonal differences (sample obtained in January vs. July) in microbiota were more significant even in the packaged products from the same company. We also investigated the influence of contaminated foodborne pathogen on the indigenous microbiota (64 chicken samples) by artificially inoculated with Salmonella enterica serotype Virchow on chicken carcasses under various conditions, and carrying out 16S rRNA gene and whole metagenome sequencing. The amount of contaminated Salmonella in chicken meat samples was the highest and lowest in samples stored at 27 °C and 4 °C after washing, respectively. Additionally, the relative abundance of virulence genes was detected lower in samples stored at 4 °C after washing in both butcher shop and commercial samples. These results could be useful for reducing the risk of foodborne illness caused by cross-contamination during the preparation of chicken meat.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.03.027</t>
   </si>
   <si>
+    <t>Hákarl is produced by curing of the Greenland shark (Somniosus microcephalus) flesh, which before fermentation is toxic due to the high content of trimethylamine (TMA) or trimethylamine N-oxide (TMAO). Despite its long history of consumption, little knowledge is available on the microbial consortia involved in the fermentation of this fish. In the present study, a polyphasic approach based on both culturing and DNA-based techniques was adopted to gain insight into the microbial species present in ready-to-eat hákarl. To this aim, samples of ready-to-eat hákarl were subjected to viable counting on different selective growth media. The DNA directly extracted from the samples was further subjected to Polymerase Chain Reaction-Denaturing Gradient Gel Electrophoresis (PCR-DGGE) and 16S amplicon-based sequencing. Moreover, the presence of Shiga toxin-producing Escherichia coli (STEC) and Pseudomonas aeruginosa was assessed via qualitative real-time PCR assays. pH values measured in the analyzed samples ranged from between 8.07 ± 0.06 and 8.76 ± 0.00. Viable counts revealed the presence of total mesophilic aerobes, lactic acid bacteria and Pseudomonadaceae. Regarding bacteria, PCR-DGGE analysis highlighted the dominance of close relatives of Tissierella creatinophila. For amplicon sequencing, the main operational taxonomic units (OTUs) shared among the data set were Tissierella, Pseudomonas, Oceanobacillus, Abyssivirga and Lactococcus. The presence of Pseudomonas in the analyzed samples supports the hypothesis of a possible role of this microorganism on the detoxification of shark meat from TMAO or TMA during fermentation. Several minor OTUs (&lt;1%) were also detected, including Alkalibacterium, Staphylococcus, Proteiniclasticum, Acinetobacter, Erysipelothrix, Anaerobacillus, Ochrobactrum, Listeria and Photobacterium. Analysis of the yeast and filamentous fungi community composition by PCR-DGGE revealed the presence of close relatives of Candida tropicalis, Candida glabrata, Candida parapsilosis, Candida zeylanoides, Saccharomyces cerevisiae, Debaryomyces, Torulaspora, Yamadazyma, Sporobolomyces, Alternaria, Cladosporium tenuissimum, Moristroma quercinum and Phoma/Epicoccum, and some of these species probably play key roles in the development of the sensory qualities of the end product. Finally, qualitative real-time PCR assays revealed the absence of STEC and Pseudomonas aeruginosa in all of the analyzed samples.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1186/s40168-019-0726-2</t>
   </si>
   <si>
+    <t>Background Multistate foodborne disease outbreaks and recalls of apples and apple products contaminated with Listeria monocytogenes demonstrate the need for improved pathogen control in the apple supply chain. Apple processing facilities have been identified in the past as potential sources of persisting L. monocytogenes contamination. In this study, we sought to understand the composition of microbiota in built apple and other tree fruit processing environments and its association with the occurrence of the foodborne pathogen L. monocytogenes. Results Analysis of 117 samples collected from three apple and other tree fruit packing facilities (F1, F2, and F3) showed that facility F2 had a significantly higher L. monocytogenes occurrence compared to F1 and F3 (p &lt; 0.01). The microbiota in facility F2 was distinct compared to facilities F1 and F3 as supported by the mean Shannon index for bacterial and fungal alpha diversities that was significantly lower in F2, compared to F1 and F3 (p &lt; 0.01). Microbiota in F2 was uniquely predominated by bacterial family Pseudomonadaceae and fungal family Dipodascaceae. Conclusions The composition and diversity of microbiota and mycobiota present in the investigated built food processing environments may be indicative of persistent contamination with L. monocytogenes. These findings support the need for further investigation of the role of the microbial communities in the persistence of L. monocytogenes to support the optimization of L. monocytogenes control strategies in the apple supply chain.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.jbiosc.2019.02.006</t>
   </si>
   <si>
+    <t>Wheat sourdough is a common traditional fermented food that is produced worldwide. However, product quality of spontaneous sourdough is not easy to control because it depends on natural fermentation and backslopping, about which little is known, notably after ten backslopping steps. To this end, we tracked the spontaneous fermentation of three sourdoughs made from wheat flours during 32 backslopping steps for 60 days. At 24 time points, the microbial community was analyzed by both culture-dependent and culture-independent methods and its chemical constituents were assessed. Dynamic changes were observed in the microbial community, which showed a common succession pattern among the three sourdoughs at the bacterial family level and differences at the species level. The bacterial communities evolved through three phases that were driven by different groups of lactic acid bacteria (LAB) species. The dynamism among the metabolites also differed, depending on the species composition of the LAB and yeast communities. In one sourdough, the growth of Saccharomyces cerevisiae was detected along with a concentration of increased ethanol, while in the other two sourdoughs, Wickerhamomyces anomalus was detected without ethanol production. Regarding the LAB communities, two sourdoughs were eventually co-dominated by Lactobacillus plantarum and L. brevis, while the other sourdough was eventually dominated solely by the heterolactic fermentative bacterium Lactobacillus fermentum, and ethanol was produced at the same level as lactic acid. Further research is needed to determine the bacterial and yeast species involved in the fermentation of sourdough, to help improve the design and quality control of the final product.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.00270-19</t>
   </si>
   <si>
+    <t>We set out to identify the viable and total bacterial content in milk as it passes through a large-scale, dairy product manufacturing plant for pasteurization, concentration, separation, blending, and storage prior to cheese manufacture. A total of 142 milk samples were collected from up to 10 pieces of equipment for a period spanning 21 h on two collection dates in the spring and late summer of 2014. Bacterial composition in the milk was determined by 16S rRNA marker gene, high-throughput DNA sequencing. Milk samples from the late summer were paired such that half were treated with propidium monoazide (PMA) to enrich for viable cells prior to quantification by PCR and identification by DNA sequence analysis. Streptococcus had the highest median relative abundance across all sampling sites within the facility on both sampling dates. The proportions of Anoxybacillus, Thermus, Lactococcus, Lactobacillus, Micrococcaceae, and Pseudomonas were also elevated in some samples. Viable cells detected by PMA treatment showed that Turicibacter was enriched after high-temperature short-time pasteurization, whereas proportions of Staphylococcus were significantly reduced. Using clean-in-place (CIP) times as a reference point, Bacillus, Pseudomonas, and Anoxybacillus were found in high relative proportions in several recently cleaned silos (&lt;19 h since CIP). At later times (&gt;19 h after CIP), 10 of 11 silos containing elevated viable cell numbers were enriched in Acinetobacter and/or Lactococcus. These results show the tremendous point-to-point and sample-dependent variations in bacterial composition in milk during processing. IMPORTANCE Milk undergoes sustained contact with the built environment during processing into finished dairy products. This contact has the potential to influence the introduction, viability, and growth of microorganisms within the milk. Currently, the population dynamics of bacteria in milk undergoing processing are not well understood. Therefore, we measured for total and viable bacterial composition and cell numbers in milk over time and at different processing points in a cheese manufacturing facility in California. Our results provide new perspectives on the dramatic variations in microbial populations in milk during processing even over short amounts of time. Although some of the changes in the milk microbiota were predictable (e.g., reduced viable cell numbers after pasteurization), other findings could not be easily foreseen based on knowledge of bacteria contained in raw milk or when the equipment was last cleaned. This information is important for predicting and controlling microbial spoilage contaminants in dairy products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3168/jds.2019-16403</t>
   </si>
   <si>
+    <t>Mastitis is a highly prevalent condition that has a great impact on milk production and animal welfare, and often requires substantial management efforts. For this reason, it is generally considered an important threat to the dairy industry. Many microbial, host, and environmental factors can protect against, predispose to, or influence the development of mastitis. The objective of this work was to characterize the milk microbiota of Manchega ewes, and to compare samples from animals with and without a history of mastitis. We analyzed milk samples from 36 ewes belonging to 2 different farms (18 ewes from each farm) using culture-dependent and culture-independent techniques. We also analyzed several immune compounds to investigate associations of mastitis with 3 main variables: farm; history of mastitis or no mastitis; and parity number. Both culture-dependent and culture-independent techniques showed that ewe milk harbored a site-specific complex microbiota and microbiome. Staphylococcus epidermidis was the main species driving the difference between farm A (where it was the dominant species) and B (where it was not). In contrast, samples from farm B were characterized by the presence of a wide spectrum of other coagulase-negative staphylococci. Some of these species have already been associated with subclinical intramammary infections in ruminants. Of the 10 immune compounds assayed in this study, 3 were related to a history of mastitis [IL-8, IFN-γ, and IFN-gamma-induced protein 10 (IP-10)]. Increases in IL-8 concentrations in milk seemed to be a feature of subclinical mastitis in sheep, and in this study, this immune factor was detected only in samples from ewes with some episodes of mastitis and from the group with the highest somatic cell count. We also observed a positive correlation between the samples with the highest somatic cell count and IFN-γ and IP-10 levels. Our results suggest that these 3 compounds could be used as biomarkers for the negative selection of mastitis-prone animals, particularly when somatic cell count is very high.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0184710</t>
   </si>
   <si>
+    <t>The aim of this study was to define the microbiota of water buffalo milk during sub-clinical and clinical mastitis, as compared to healthy status, by using high-throughput sequencing of the 16S rRNA gene. A total of 137 quarter samples were included in the experimental design: 27 samples derived from healthy, culture negative quarters, with a Somatic Cell Count (SCC) of less than 200,000 cells/ml; 27 samples from quarters with clinical mastitis; 83 samples were collected from quarters with subclinical mastitis, with a SCC number greater of 200,000 cells/ml and/or culture positive for udder pathogens, without clinical signs of mastitis. Bacterial DNA was purified and the 16S rRNA genes were individually amplified and sequenced. Significant differences were found in milk samples from healthy quarters and those with sub-clinical and clinical mastitis. The microbiota diversity of milk from healthy quarters was richer as compared to samples with sub-clinical mastitis, whose microbiota diversity was in turn richer as compared to those from clinical mastitis. The core microbiota of water buffalo milk, defined as the asset of microorganisms shared by all healthy milk samples, includes 15 genera, namely Micrococcus, Propionibacterium, 5-7N15, Solibacillus, Staphylococcus, Aerococcus, Facklamia, Trichococcus, Turicibacter, 02d06, SMB53, Clostridium, Acinetobacter, Psychrobacter and Pseudomonas. Only two genera (Acinetobacter and Pseudomonas) were present in all the samples from sub-clinical mastitis, and no genus was shared across all in clinical mastitis milk samples. The presence of mastitis was found to be related to the change in the relative abundance of genera, such as Psychrobacter, whose relative abundance decreased from 16.26% in the milk samples from healthy quarters to 3.2% in clinical mastitis. Other genera, such as SMB53 and Solibacillus, were decreased as well. Discriminant analysis presents the evidence that the microbial community of healthy and clinical mastitis could be discriminated on the background of their microbiota profiles.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/foods8100489</t>
   </si>
   <si>
+    <t>The aim of this study was to characterize the spoilage microbiota of hake fillets stored under modified atmospheres (MAP) (50% CO2/50% N2) at different temperatures using high-throughput 16S rRNA gene sequencing and to compare the results with those obtained using traditional microbiology techniques. The results obtained indicate that, as expected, higher storage temperatures lead to shorter shelf-lives (the time of sensory rejection by panelists). Thus, the shelf-life decreased from six days to two days for Batch A when the storage temperature increased from 1 to 7 °C, and from five to two days—when the same increase in storage temperature was compared—for Batch B. In all cases, the trimethylamine (TMA) levels measured at the time of sensory rejection of hake fillets exceeded the recommended threshold of 5 mg/100 g. Photobacterium and Psychrobacter were the most abundant genera at the time of spoilage in all but one of the samples analyzed: Thus, Photobacterium represented between 19% and 46%, and Psychrobacter between 27% and 38% of the total microbiota. They were followed by Moritella, Carnobacterium, Shewanella, and Vibrio, whose relative order varied depending on the sample/batch analyzed. These results highlight the relevance of Photobacterium as a spoiler of hake stored in atmospheres rich in CO2. Further research will be required to elucidate if other microorganisms, such as Psychrobacter, Moritella, or Carnobacterium, also contribute to spoilage of hake when stored under MAP.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2017.08.018</t>
   </si>
   <si>
+    <t>Despite the continuing development of new insect-derived food products, microbial research on edible insects and insect-based foods is still very limited. The goal of this study was to increase the knowledge on the microbial quality of edible insects by comparing the bacterial community composition of mealworms (Tenebrio molitor) and crickets (Acheta domesticus and Gryllodes sigillatus) from several production cycles and rearing companies. Remarkable differences in the bacterial community composition were found between different mealworm rearing companies and mealworm production cycles from the same company. In comparison with mealworms, the bacterial community composition of the investigated crickets was more similar among different companies, and was highly similar between both cricket species investigated. Mealworm communities were dominated by Spiroplasma and Erwinia species, while crickets were abundantly colonised by (Para)bacteroides species. With respect to food safety, only a few operational taxonomic units could be associated with potential human pathogens such as Cronobacter or spoilage bacteria such as Pseudomonas. In summary, our results implicate that at least for cricket rearing, production cycles of constant and good quality in terms of bacterial composition can be obtained by different rearing companies. For mealworms however, more variation in terms of microbial quality occurs between companies.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/AEM.00255-18</t>
   </si>
   <si>
+    <t>In this study, the microbiota during industrial rearing, processing, and storage of the edible tropical house cricket, Gryllodes sigillatus, was investigated. To this end, we analyzed samples from the cricket feed, obtained before feeding as well as from the cages, and from the crickets during rearing, after harvest, and after processing into frozen, oven-dried, and smoked and oven-dried (smoked/dried) end products. Although the feed contained lower microbial numbers than the crickets, both were dominated by the same species-level operational taxonomic units, as determined by Illumina MiSeq sequencing. They corresponded, among others, to members of Porphyromonadaceae, Fusobacterium, Parabacteroides, and Erwinia. The harvested crickets contained high microbial numbers, but none of the investigated food pathogens Salmonella spp., Listeria monocytogenes, Bacillus cereus, or coagulase-positive staphylococci. However, some possible mycotoxin-producing fungi were isolated from the crickets. A postharvest heat treatment, shortly boiling the crickets, reduced microbial numbers, but an endospore load of 2.4 log CFU/g remained. After processing, an increase in microbial counts was observed for the dried and smoked/dried crickets. Additionally, in the smoked/dried crickets, a high abundance of a Bacillussp. was observed. Considering the possible occurrence of food-pathogenic species from this genus, it is advised to apply a heat treatment which is sufficient to eliminate spores. Nevertheless, the microbial numbers remained constant over a 6-month storage period, whether frozen (frozen end product) or at ambient temperature (oven-dried and smoked/dried end products). IMPORTANCE The need for sustainable protein sources has led to the emergence of a new food sector, producing and processing edible insects into foods. However, insight into the microbial quality of this new food and into the microbial dynamics during rearing, processing, and storage of edible insects is still limited. Samples monitored for their microbiota were obtained in this study from an industrial rearing and processing cycle. The results lead first to the identification of process steps which are critical for microbial food safety. Second, they can be used in the construction of a Hazard Analysis and Critical Control Points (HACCP) plan and of a Novel Food dossier, which is required in Europe for edible insects. Finally, they confirm the shelf-life period which was determined by the rearer.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2017.09.012</t>
   </si>
   <si>
+    <t>In this study, the microbial dynamics during an industrial production cyle of lesser mealworms (Alphitobius diaperinus), sold for human consumption, were characterised. The microbial numbers as well as the microbial diversity were generally higher for the substrate, existing of remaining feed, faeces and exuviae, than for the larvae. Most of the species-level operational taxonomic units, identified using Illumina MiSeq sequencing, that were present in the feed were also detected in the larvae and vice versa. However, bacterial diversity decreased in the larvae during rearing. These results suggested that the feed is an important determinant of the insect bacterial community, but that some bacterial species show a competitive advantage inside the insect gut and become dominant. A blanching treatment of the larvae after harvest reduced most microbial counts, but the number of aerobic endospores remained at 4.0 log cfu/g. Whereas food pathogens Salmonella spp., Listeria monocytogenes, Bacillus cereus or coagulase-positive staphylococci were not detected in our study, fungal isolates corresponding to the genera Aspergillus and Fusarium were recovered. Therefore, it cannot be excluded that mycotoxins were present. The results of this study contribute to a better understanding of the microbial dynamics and food safety aspects during the production of edible insects.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.103261</t>
   </si>
   <si>
+    <t>Sprouts are considered a healthy ready-to-eat food and has gained popularity in recent years. The objective of the present study was to determine the dynamics of sprouts' microbiome during cold storage to the end of their shelf-life at home. The microbiological quality of fresh alfalfa (Medicago sativa) and mung bean (Vigna radiata) sprouts from two commercial brands was tested and the number of APC ranges from 5.0 to 8.7 log CFU/g in alfalfa and 6.7 to 9.3 log CFU/g in mung bean sprouts. In the case of alfalfa, but not mung beans, there were differences in the mean numbers of APC between the two brands. The number of coliform bacteria ranges from 4.3 to 7.7 log CFU/g in alfalfa and 4.1 to 8.1 log CFU/g in mung bean sprouts. Four independent batches of sprouts were used for DNA preparation and were sampled immediately after purchase and once a week during subsequent storage in refrigerator until the end of their shelf-life. Microbial population of the sprouts was determined using next generation sequencing of 16S rRNA amplicons. Alfalfa sprouts were dominated by Pseudomonas throughout the storage time with relative abundance of &gt;60% at 3 weeks. Fresh mung bean sprouts were dominated by both Pseudomonas and Pantoea, but Pantoea became the dominant taxa after 2 weeks of storage, with &gt;46% of relative abundance. The bacterial communities associated with sprouts were largely dependent on the sprout type, and less dependent on the brand. The species richness and diversity declined during storage and the development of spoilage. Among the 160 genera identified on sprouts, 23 were reported to contain known spoilage-associated species and 30 genera comprise potential human pathogenic species. This study provides new insight into the microbiome dynamics of alfalfa and mung bean sprouts during cold storage.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/s41598-019-50190-4</t>
   </si>
   <si>
+    <t>Fermented foods play a major role in the diet of people in Africa, where a wide variety of raw materials are fermented. Understanding the microbial populations of these products would help in the design of specific starter cultures to produce standardized and safer foods. In this study, the bacterial diversity of African fermented foods produced from several raw materials (cereals, milk, cassava, honey, palm sap, and locust beans) under different conditions (household, small commercial producers or laboratory) in 8 African countries was analysed by 16S rRNA gene amplicon sequencing during the Workshop “Analysis of the Microbiomes of Naturally Fermented Foods Training Course”. Results show that lactobacilli were less abundant in fermentations performed under laboratory conditions compared to artisanal or commercial fermentations. Excluding the samples produced under laboratory conditions, lactobacilli is one of the dominant groups in all the remaining samples. Genera within the order Lactobacillales dominated dairy, cereal and cassava fermentations. Genera within the order Lactobacillales, and genera Zymomonas and Bacillus were predominant in alcoholic beverages, whereas Bacillus and Lactobacillus were the dominant genera in the locust bean sample. The genus Zymomonas was reported for the first time in dairy, cereal, cassava and locust bean fermentations.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.103251</t>
   </si>
   <si>
+    <t>Truffle fungi, luxurious food items with captivating aromas, are highly valued in the culinary world. However, truffles are perishable and their aroma undergoes deep changes upon storage. Additionally, truffle aroma might be partially derived from microbes. Hence, we investigated here the influence of storage on two factors, namely the volatile profile and bacterial community composition in the black truffle Tuber aestivum. The possible linkage among those factors was further explored. Our results demonstrate important changes in the volatile profiles of truffles over nine days of storage at room temperature. In the same time frame, dominant bacterial classes characteristic of fresh truffles (α-Proteobacteria, β-Proteobacteria, and Sphingobacteria classes) were gradually replaced by food spoilage bacteria (γ-Proteobacteria and Bacilli classes). Freshness and spoilage volatile markers (i.e. dimethyl sulfide (DMS), butan-2-one, 2- and, 2- and 3-methylbutan-1-ol, and 2-phenylethan-1-ol) were identified. Lastly, network analysis showed correlations between those markers and specific bacterial classes typical of fresh and spoiled truffles. Overall, our results demonstrate the profound effect of storage on the aroma and bacterial community composition of truffles and highlight how the gradual replacement of the commensal microbiome by spoilage microbes mirrors shifts in aroma profile and the possible loss of fresh truffle flavor.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2018.11.033</t>
   </si>
   <si>
+    <t>Natural (N) as well as starter inoculated (S, inoculated with Saccharomyces cerevisiae M3–5; CZS, Candida zemplinina T13, Zygosaccharomyces bailii NS113 and Saccharomyces cerevisiae M3–5) fermentations of Falanghina must from dehydrated grape were monitored. Culture dependent analyses and amplicon-based high-throughput sequencing targeting 18S rRNA and 16S rRNA genes were used to monitor the fungal and bacterial communities (8 sampling points during 65 days). The resulting wines were subject to both sensory evaluation and volatile organic compounds analysis. Fungal community of un-inoculated musts (N) at beginning of the fermentation was mainly represented by Aureobasidium, Cladosporium, Sclerotinia, while Candida, Debaryomyces, Hanseniaspora, Metschnikowia, Pichia, Saccharomyces and Zygosaccharomyces showed a very low occurrence. The dominance of Hanseniaspora vineae and/or Hanseniaspora uvarum was clear up to 29th days of fermentation. S. cerevisiae occurred in all the phases but become dominant only at the end of the process. The odour profiles as evaluate by Quantitative Descriptive Analysis (QDA) highlighted a significant impact of the fungal populations on the olfactory profiles of the wines. Raisins, dried fruits, Sherry and liqueur were stronger in both S and CZS, while N was mostly discriminated by solvent/chemical and floral features. Outcomes underpin the impact of microbiota on the chemical and odour traits of Falanghina passito wines.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2019.00531</t>
   </si>
   <si>
+    <t>Palm wine is obtained by fermentation of palm tree sap. In the Pacific coast of Mexico, palm wine is called Tuba and it is consumed as a traditional fermented beverage. Tuba has empirical applications such as an auxiliary in gastrointestinal diseases and a good source of nutrients. In the present study, a next-generation sequencing of the V3–V4 regions of the 16S rRNA gene was employed to analyze bacterial diversity and population dynamics during the fermentation process of Tuba, both in laboratory controlled conditions and in commercial samples from local vendors. Taxonomic identification showed that Fructobacillus was the main genus in all the samples, following by Leuconostoc, Gluconacetobacter, Sphingomonas, and Vibrio. Alpha diversity analysis demonstrated variability between all the samples. Beta diversity clustered the bacterial population according to the collection origin of the sample. Metabolic functional profile inference showed that the members of the bacterial communities may present the vitamin, antibiotic and antioxidant biosynthesis genes. Additionally, we further investigated the correlation between the predominant genera and some composition parameters of this beverage. This study provides the basis of the bacterial community composition and functionality of the fermented beverage.</t>
+  </si>
+  <si>
     <t>https://doi.org/110.3390/microorganisms7090371</t>
   </si>
   <si>
+    <t>This study revealed for the first time the dynamic changes of the bacterial community during the fermentation of traditional Chinese fish sauce (TCFS) using high-throughput sequencing. In the early phase of TCFS fermentation, Shewanella (approximately 90%) within Proteobacteria was the dominant bacteria. Then, Halanaerobium (3%–86%) within Firmicutes rapidly replaced Shewanella as the dominant genus until the 12th month. Lactococcus (3.31%) and Bacillus (45.56%) belonging to Firmicutes were detected abundantly in the 3rd and 9th months after fermentation, respectively. In the late phase (12–15 months), Tetragenococcus within Firmicutes replaced Halanaerobium as the most dominant bacteria (29.54%). Many other genera including Pseudomonas, Psychrobacter, Tissierella, Carnobacterium and Gallicola were abundantly present in the 15th month after fermentation. Furthermore, the relationships between the bacterial community and major functional substances of TCFS, including amino nitrogen (AAN), free amino acids (FAAs), total soluble nitrogen (TSN), and trimethylamine (TMA), were investigated by partial least squares regression (PLSR). Tetragenococcus was positively correlated with the formation of TMA, while Halanaerobium showed the opposite result, suggesting that Tetragenococcus might be a good starter for TCFS fermentation. These results contribute to our knowledge about bacterial participation in the process of TCFS fermentation and will help improve the quality of fermented seafood.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2018.04.012</t>
   </si>
   <si>
+    <t>Sataw-Dong is a fermented stink bean in brine, made with Parkia speciosa subjected to spontaneous fermentation. This study aimed to investigate the impact of Lactobacillus plantarum KJ03 as a starter culture during Sataw-Dong fermentation and to determine its effect on the volatilome profile. Two fermentations were performed: spontaneous and inoculated with starter. The surface of the beans and the brines were separately analyzed throughout fermentation period for 15 days. Inoculated samples clearly showed a significantly higher acidification of the brine, reaching a pH of 3.98 within 5 days of fermentation. The microbiota was investigated through 16S amplicon based sequencing and revealed the dominance of Lactobacillus plantarum and Lactobacillus sanfranciscensis throughout the fermentation in both brine and bean samples. The starter used clearly influenced volatile organic compounds (VOCs) profiles. Inoculated samples showed the lowest abundance of Brevundimonas, Corynebacterium, Enterobacteriaceae, Methylobacterium and Klebsiella, compared to the spontaneous fermentation. Correlation between OTUs and VOCs revealed that acids, aldehydes, and alcohols exhibited a positive correlation with L. plantarum and L. sanfranciscencis. Overall aldehydes were mostly produced at the beginning, while acids, alcohols, and ketones at the middle until the end of the fermentation. Sataw-Dong produced with the starter significantly perceived a positive response in the overall acceptance. As shown through microbiological changes, acidification, VOCs and sensory analysis, the successful and accelerated Sataw-Dong fermentation was achieved when using a functional starter strain.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.04.013</t>
   </si>
   <si>
+    <t>Spoilage bacteria seriously influence meat quality. In this study, the bacterial community, sensory scores, pH, and total volatile basic nitrogen (TVB-N) in refrigerated (4 °C) pork, the most commonly consumed meat in China, were investigated. In a high-throughput sequencing analysis of the V3–V4 region of the 16S rDNA gene, 259 bacterial genera were belonging to 21 phyla were identified. With the passage of time, the bacterial community diversity decreased. After 5 days, Pseudomonas, Acinetobacter and Photobacterium were dominant in refrigerated pork, especially Photobacterium, which rarely associated with meat spoilage. Our results suggest that these taxa contribute to refrigerated pork spoilage. During storage, pH and TVB-N showed similar trends. Additionally, total viable counts (TVC) increased steadily and sensory score decreased. On day 5, TVC, pH, TVB-N and sensory scores changed dramatically, and sensory scores indicating that the shelf life of refrigerated pork was less than 5 days. The predicted metabolic pathways, based o the data of 16S rDNA, indicated an abundant carbohydrate metabolism and amino metabolism in refrigerated pork. This study provides insight into the determinants of shelf life. Furthermore, it provides insight into the process involved in refrigerated pork spoilage.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2019.108286</t>
   </si>
   <si>
+    <t>This study was designed to explore the temperature effects on bacterial communities and metabolites, as well as their relationships during the fermentation of sour meat, a traditional fermented meat product in the ethnic minority regions of China. Results showed that reduction of pH and increase of lactic acid and free amino acid contents occurred (p &lt; 0.05) as the fermentation temperature and time increased, and the tendency was more apparent at higher temperature. During the fermentation, Lactobacillus gradually replaced other genera, and higher the temperature, more rapid was the process. Both the number and amount of volatile organic compounds increased at higher temperatures. Hexanal, benzaldehyde, nonanal, (E,E)-2,4-decadienal, 1-octen-3-ol and octanal were identified as the key volatile organic compounds produced by Lactobacillus in sour meat as main contributors to odor as confirmed by variable importance in the projection analysis. Redundancy analysis and Pearson correlation showed positive correlation between Lactobacillus and desired product characteristics, such as higher content of lactic acid, free amino acids, volatile organic compounds, and lower pH and water activity values, which may represent a better quality and longer shelf life after fermentation at higher temperature. Therefore fermentation at 20 °C and 25 °C are proposed as optimum temperatures for sour meat production.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1111/lam.13212</t>
   </si>
   <si>
+    <t>Fermented chopped pepper is a widely used ingredient in traditional Chinese cuisine. To improve the quality and solve safety problems during production, it is essential to fully understand the bacterial diversity present during the fermentation process. In this study, the dynamics and diversity of the bacterial community present during the fermentation of chopped pepper were analysed by high‐throughput sequencing. There was a higher level of bacterial diversity at the beginning of fermentation, and Proteobacteria were found to be the dominant group at this stage. However, after 3 days, Proteobacteria decreased in abundance and Firmicutes became the dominant group present in the samples. Interestingly, the relative abundance of Weissella increased during the first 3 days of fermentation and then gradually decreased over the rest of the fermentation process, suggesting that Weissella may play an important role during the initial stage of fermentation. Lactobacillus was found to constitute the majority of bacteria during the fermentation period. This study demonstrates that high‐throughput sequencing is a useful tool to evaluate bacterial diversity and monitor microbial quality in fermented chopped pepper. The results obtained in this study advance the current understanding of the bacterial communities present in chopped pepper and provide a theoretical basis for improving the quality of chopped pepper fermentation. Significance and Impact of the Study Fermented chopped pepper is an important ingredient in traditional Chinese foods. As of yet, the bacterial community dynamics that take place during the fermentation of chopped pepper have not been described. In this study, we used high‐throughput sequencing to investigate the bacterial community, deepening our understanding of the microbial mechanisms underlying the fermentation of traditional chopped pepper.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.103305</t>
   </si>
   <si>
+    <t>The practices of preparing traditional foods in the Arctic are rapidly disappearing. Traditional foods of the Arctic represent a rarity among food studies in that they are meat-sourced and prepared in non-industrial settings. These foods, generally consumed without any heating step prior to consumption, harbor an insofar undescribed microbiome. The food-associated microbiomes have implications not only with respect to disease risk, but might also positively influence host health by transferring a yet unknown diversity of live microbes to the human gastrointestinal tract. Here we report the first study of the microbial composition of traditionally dried fish prepared according to Greenlandic traditions and their industrial counterparts. We show that dried capelin prepared according to traditional methods have microbiomes clearly different from industrially prepared capelin, which also have more homogenous microbiomes than traditionally prepared capelin. Interestingly, the locally preferred type of traditionally dried capelin, described to be tastier than other traditionally dried capelin, contains bacteria that potentially confer distinct taste. Finally, we show that dried cod have comparably more homogenous microbiomes when compared to capelin and that in general, the environment of drying is a major determinant of the microbial composition of these indigenous food products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2017.07.011</t>
   </si>
   <si>
+    <t>“Suero Costeño” (SC) is a traditional soured cream elaborated from raw milk in the Northern-Caribbean coast of Colombia. The natural microbiota that characterizes this popular Colombian fermented milk is unknown, although several culturing studies have previously been attempted. In this work, the microbiota associated with SC from three manufacturers in two regions, “Planeta Rica” (Córdoba) and “Caucasia” (Antioquia), was analysed by means of culturing methods in combination with high-throughput sequencing and DGGE analysis of 16S rRNA gene amplicons. The bacterial ecosystem of SC samples was revealed to be composed of lactic acid bacteria belonging to the Streptococcaceae and Lactobacillaceae families; the proportions and genera varying among manufacturers and region of elaboration. Members of the Lactobacillus acidophilus group, Lactocococcus lactis, Streptococcus infantarius and Streptococcus salivarius characterized this artisanal product. In comparison with culturing, the use of molecular in deep culture-independent techniques provides a more realistic picture of the overall bacterial communities residing in SC. Besides the descriptive purpose, these approaches will facilitate a rational strategy to follow (culture media and growing conditions) for the isolation of indigenous strains that allow standardization in the manufacture of SC.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0153213</t>
   </si>
   <si>
+    <t>Italian PDO (Protected Designation of Origin) Fiore Sardo (FS), Pecorino Siciliano (PS) and Pecorino Toscano (PT) ewes’ milk cheeses were chosen as hard cheese model systems to investigate the spatial distribution of the metabolically active microbiota and the related effects on proteolysis and synthesis of volatile components (VOC). Cheese slices were divided in nine sub-blocks, each one separately subjected to analysis and compared to whole cheese slice (control). Gradients for moisture, and concentrations of salt, fat and protein distinguished sub-blocks, while the cell density of the main microbial groups did not differ. Secondary proteolysis differed between sub-blocks of each cheese, especially when the number and area of hydrophilic and hydrophobic peptide peaks were assessed. The concentration of free amino acids (FAA) agreed with these data. As determined through Purge and Trap (PT) coupled with Gas Chromatography-Mass Spectrometry (PT-GC/MS), and regardless of the cheese variety, the profile with the lowest level of VOC was restricted to the region identified by the letter E defined as core. As shown through pyrosequencing of the 16S rRNA targeting RNA, the spatial distribution of the metabolically active microbiota agreed with the VOC distribution. Differences were highlighted between core and the rest of the cheese. Top and bottom under rind sub-blocks of all three cheeses harbored the widest biodiversity.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2020.103453</t>
   </si>
   <si>
+    <t>In this work, the amplicon sequencing of the 16 S rRNA gene was employed to investigate the bacterial diversity in ingredients, processing environment, and ripened cheeses collected from three farms producing Serra da Canastra artisanal cheese. The data obtained indicated a remarkable variability in the bacteria consortia of the milk, whey, and environmental samples collected in farms 1, 2, and 3, despite their location in the same city. On the other hand, the starter culture and final product (ripened cheese) presented more constant and similar microbiota no matter the farm. The findings suggest that Streptococcus and Lactococcus have competitive advantages throughout Serra da Canastra cheese-making/ripening, which is crucial for their high relative abundance in the final products. An exploratory assessment based on sequencing data available in the literature showed that the Serra da Canastra cheeses sequences clustered with specific cheese varieties that are also made from raw milk but ripened for very different periods. The findings of this study highlight that despite the variability of milk and whey microbiota among the three farms, the starter culture (“pingo”) has strong relevance in shaping the microbiota of the final product.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2017.07.002</t>
   </si>
   <si>
+    <t>Long ripened cheeses, such as Grana Padano (GP), a Protected Designation of Origin (PDO) Italian cheese, harbor a viable microbiota mainly composed of non-starter lactic acid bacteria (NSLAB), which contribute to the final characteristics of cheese. The NSLAB species Lactobacillus rhamnosus, Lb. casei and Lb. paracasei are frequently found in GP, and form a closely related taxonomic group (Lb. casei group), making it difficult to distinguish the three species through 16S rRNA sequencing. SpxB, a metabolic gene coding for pyruvate oxidase in Lb. casei group, was recently used to distinguish the species within this bacterial group, both in pure cultures and in cheese, where it could provide an alternative energy source through the conversion of pyruvate to acetate. The aim of this work was to study the evolution of the metabolically active microbiota during different stages of GP ripening, targeting 16S rRNA to describe the whole microbiota composition, and spxB gene to monitor the biodiversity within the Lb. casei group. Furthermore, activation of pyruvate oxidase pathway was measured directly in cheese by reverse transcription real time PCR (RT–qPCR). The results showed that Lb. casei group dominates throughout the ripening and high-throughput sequencing of spxB allowed to identify four clusters inside the Lb. casei group. The dynamics of the sequence types forming the clusters were followed during ripening. Pyruvate oxidase pathway was expressed in cheese, showing a decreasing trend over ripening time. This work highlights how the composition of the microbiota in the early manufacturing stages influences the microbial dynamics throughout ripening, and how targeting of a metabolic gene can provide an insight into the activity of strains relevant for dairy products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2018.02218</t>
   </si>
   <si>
+    <t>A variety of foods fermented with lactic acid bacteria serve as dietary staples in many African communities; yet, their bacterial profiles are poorly characterized. The integration of health-promoting probiotics into naturally fermented milk products could make a profound impact on human health. Here, we characterize the bacterial community composition of a naturally fermented milk product (lait caillé) from northern Senegal, prepared in wooden bowls (lahals) with a bacterial biofilm to steer the fermentation process. We incorporated a probiotic starter culture containing the most documented probiotic strain Lactobacillus rhamnosus GG (generic strain name yoba 2012) into the local fermentation process. Bar-coded 16S rRNA amplicon sequencing of lait caillé samples indicated that the bacterial community of lait caillé has high species richness with over 100 bacterial genera; however, few have high abundance. In contrast to the diverse bacterial compositions of other characterized naturally fermented milk products, the composition of lait caillé predominantly consists of the lactic acid bacteria Streptococcus and Lactobacillus, resembling the bacterial composition in regular yogurt. The bacterial community composition of lait caillé varies geographically based on the presence of some genera, including Lactoccoccus, Enterococcus, Bifidobacterium, and Bacillus, but this trend is not consistent within production communities. The diversity of bacterial communities is much higher in the lahal biofilm than in the naturally fermented milk products, which is in turn greater than in commercial yogurts. Addition of a starter culture with L. rhamnosus yoba 2012 to milk in lahals led to substantial growth of this probiotic bacterium during the fermentation process. Two independent quantitative PCR-analyses specific for L. rhamnosus yoba 2012 indicated a 20- to 60-fold increase in the total number of probiotic bacteria in the first batch after inoculation. A similar increase of the probiotic was observed in a variation of lait caillé prepared with carbohydrate-rich millet granules (thiakry) added prior to fermentation. This study shows the feasibility of integrating health-promoting probiotic strains into naturally fermented foods produced in regions with a high prevalence of malnutrition.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/aem.02165-19</t>
   </si>
   <si>
+    <t>This study aimed at establishing the effects of attenuated starters and surface bacteria on various features of caciotta cheese. The cheese undergoes a ripening period during which the house microbiota contaminates the surface. Conventional cheese (the control cheese [CC]) is made using only primary starters. Primary starters and attenuated (i.e., unable to grow and synthesize lactic acid) Lactococcus lactis (Lc. lactis) subsp. lactis were used to produce caciotta cheese without (ATT cheese) or with an inoculum of surface bacteria: (i) Leuconostoc lactis (Le. lactis) (LL cheese), (ii) Vibrio casei (VC cheese), (iii) Staphylococcus equorum (SE cheese), (iv) Brochothrix thermosphacta (BX cheese), and (v) a mixture of all four (MIX cheese). Attenuated Lc. lactis increased microbial diversity during cheese ripening. At the core, attenuated starter mainly increased indigenous lactococci and Lactobacillus delbrueckii group bacteria. At the surface, the main effect was on Macrococcus caseolyticus. Autochthonous Le. lactis strains took advantage of the attenuated starter, becoming dominant. Adjunct Le. lactis positively affected Lactobacillus sakei group bacteria on the LL cheese surface. Adjunct V. casei, S. equorum, and B. thermosphacta did not become dominant. Surfaces of VC, SE, and BX cheeses mainly harbored Staphylococcus succinus. Peptidase activities were higher in cheeses made with attenuated starter than in CC, which had the lowest concentration of free amino acids. Based on the enzymatic activities of adjunct Le. lactis, LL and MIX cheeses exhibited the highest glutamate dehydrogenase, cystathionine-γ-lyase, and esterase activities. As shown by multivariate statistical analyses, LL and MIX cheeses showed the highest similarity for microbiological and biochemical features. LL and MIX cheeses received the highest scores for overall sensory acceptability. IMPORTANCE This study provides in-depth knowledge of the effects of attenuated starters and surface bacterial strains on the microbiota and related metabolic activities during cheese ripening. The use of attenuated Lc. lactis strongly impacted the microbiota assembly of caciotta cheese. This led to improved biochemical and sensory features compared to conventional cheese. Among surface bacterial strains, Le. lactis played a key role in the metabolic activities involved in cheese ripening. This resulted in an improvement of the sensory quality of caciotta cheese. The use of attenuated lactic acid bacteria and the surface adjunct Le. lactis could be a useful biotechnology to improve the flavor formation of caciotta cheese.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2019.00093</t>
   </si>
   <si>
+    <t>The cheese-derived strains Streptococcus thermophilus 84C isolated from Nostrano cheese, and Lactobacillus brevis DSM 32386 isolated from Traditional Mountain Malga cheese have been previously reported as γ-aminobutyric acid (GABA)-producers in vitro. In the present study, the ability of these strains to produce GABA was studied in experimental raw milk cheeses, with the aim to investigate the effect of the culture and the ripening time on the GABA concentration. The cultures used consisted on S. thermophilus 84C alone (84C) or in combination with L. brevis DSM 32386 (84C-DSM). The control culture was a commercial S. thermophilus strain, which was tested alone (CTRL) or in combination with the L. brevis DSM 32386 (CTRL-DSM). The pH evolution, microbiological counts, MiSeq Illumina and UHPLC-HQOMS analysis on milk and cheese samples were performed after 2, 9, and 20 days ripening. During the whole ripening, the pH was always under 5.5 in all batches. The concentration of GABA increased during ripening, with the highest content in 84C after 9 days ripening (84 ± 37 mg/kg), in 84C-DSM and CTRL-DSM after 20 days ripening (91 ± 28 and 88 ± 24 mg/kg, respectively). The data obtained support the hypothesis that S. thermophilus 84C and L. brevis DSM 32386 could be exploited as functional cultures, improving the in situ bio-synthesis of GABA during cheese ripening.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.103390</t>
   </si>
   <si>
+    <t>Carcass chilling is a critical step in broiler processing. Understanding the effect of chilling on the bacterial communities of broilers is important, as these communities may be largely responsible for the spoilage process. This study examined the effect of chilling systems (air chilling [AC] and water chilling [WC]) and subsequent aerobic storage on the microbiota of yellow-feathered broiler carcasses using a high-throughput sequencing technique targeting the V3–V4 region of the 16S RNA gene. Evidence of the clear differences in the microbiota structures between AC and WC carcasses was illustrated by principle coordinates and heat map clustered analyses. The distinctions between the AC and WC carcass bacterial communities were more pronounced during the later storage stages. The major genera on the spoiled AC carcasses were Pseudomonas, Psychrobacter and Shewanella, whereas the major genera on the spoiled WC carcasses were Psychrobacter, Pseudomonas and Carnobacterium. These data suggest that the chilling method has a marked effect on the microbiota composition of yellow-feathered broilers along the entire storage period. The chilling method was also of great importance for surface color. However, there was no significant difference in the sensorial shelf-life of chicken when comparing the chilling methods.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2020.103417</t>
   </si>
   <si>
+    <t>Nitrite is widely used in meat products as a multifunctional additive, combining flavour and colour properties with antioxidant and antimicrobial effects. However, nitrite may form reaction products (i.e., nitrosamine) that are potentially carcinogenic to humans. The meat industry, in response to consumers’ demands for nitrite-free products, is seeking natural alternatives to nitrite, such as plant-based extracts. Three types of dry-fermented sausages were manufactured: NIT, containing 30 ppm of sodium nitrite; GSE, containing grape seed extract and olive pomace hydroxytyrosol; and CHE, containing chestnut extract and olive pomace hydroxytyrosol. Next-generation sequencing (NGS) was used to analyse microbial consortia, which were correlated with physical and chemical parameters. The prokaryotic community composition was similar among treatments, with a high relative abundance of Staphylococcus xylosus and Lactobacillus sakei, collectively accounting for 87% of the total community. However, significant differences were observed in both operational taxonomic unit (OTU) presence/absence and relative abundance. Ten genera varied in abundance between treatments. The increase in Lactobacillaceae in CHE may explain the reduced pH levels detected in these samples. In conclusion, NGS analysis showed that the prokaryotic community composition was similar in GSE and NIT, while CHE varied in both the composition and relative abundance of different taxa.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.103385</t>
   </si>
   <si>
+    <t>The present work was carried out to evaluate the microbiological and physicochemical composition of salamis produced with the meat of beef, horse, wild boar and pork. Salami productions occurred under controlled laboratory conditions to exclude butchery environmental contaminations, without the addition of nitrate and nitrite. All trials were monitored during the ripening (13 °C and 90% relative humidity) extended until 45 d. The evolution of physicochemical parameters showed that beef and pork salamis were characterized by a higher content of branched chain fatty acids (FA) and rumenic acid than horse and wild boar salamis, whereas the last two productions showed higher values of secondary lipid oxidation. Plate counts showed that lactic acid bacteria (LAB), yeasts and coagulase-negative staphylococci (CNS) populations dominated the microbial community of all productions with Lactobacillus and Staphylococcus as most frequently isolated bacteria. The microbial diversity evaluated by MiSeq Illumina showed the presence of members of Gammaproteobacteria phylum, Moraxellaceae family, Acinetobacter, Pseudomonas, Carnobacterium and Enterococcus in all salamis. This study showed the natural evolution of indigenous fermented meat starter cultures and confirmed a higher suitability of horse and beef meat for nitrate/nitrite free salami production due to their hygienic quality at 30 d.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3168/jds.2019-17455</t>
   </si>
   <si>
+    <t>Understanding the microbial community of cheese is important in the dairy industry, as the microbiota contributes to the safety, quality, and physicochemical and sensory properties of cheese. In this study, the microbial compositions of different cheeses (Cheddar, provolone, and Swiss cheese) and cheese locations (core, rind, and mixed) collected from the Arbuthnot Dairy Center at Oregon State University were analyzed using 16S rRNA gene amplicon sequencing with the Illumina MiSeq platform (Illumina, San Diego, CA). A total of 225 operational taxonomic units were identified from the 4,675,187 sequencing reads generated. Streptococcus was observed to be the most abundant organism in provolone (72 to 85%) and Swiss (60 to 67%), whereas Lactococcus spp. were found to dominate Cheddar cheese (27 to 76%). Species richness varied significantly by cheese. According to alpha diversity analysis, porter-soaked Cheddar cheese exhibited the highest microbial richness, whereas smoked provolone cheese showed the lowest. Rind regions of each cheese changed color through smoking and soaking for the beverage process. In addition, the microbial diversity of the rind region was higher than the core region because smoking and soaking processes directly contacted the rind region of each cheese. The microbial communities of the samples clustered by cheese, indicated that, within a given type of cheese, microbial compositions were very similar. Moreover, 34 operational taxonomic units were identified as biomarkers for different types of cheese through the linear discriminant analysis effect size method. Last, both carbohydrate and AA metabolites comprised more than 40% of the total functional annotated genes from 9 varieties of cheese samples. This study provides insight into the microbial composition of different types of cheese, as well as various locations within a cheese, which is applicable to its safety and sensory quality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2019.03012</t>
   </si>
   <si>
+    <t>Panxian ham, a traditional Chinese dry-cured ham, is protected by national geographical indication. Similar to other fermented foods, the microbial population of dry-cured ham is pivotal to taste and flavor formation. This study aimed to establish the relationship between microorganisms and metabolites during the spontaneous fermentation of Panxian ham. Multivariate analysis based on metabolomics data revealed that continuous metabolic changes occurred during the entire fermentation process, with the most significant changes occurring in the initial stage of ripening. Thirty-one significantly different metabolites (SDMs) were identified as discriminant factor, and pathway analysis suggested that these metabolites were involved in 30 pathways, including alanine, aspartate, and glutamate metabolism; glycine, serine, and threonine metabolism; and arginine and proline metabolism. Microbial community analysis using the Illumina MiSeq platform indicated that the bacterial community was more complex than the fungal community, and their succession regulation differed during processing. At the genus level, 11 bacteria and five fungi were identified as core microbes, of which Staphylococcus was the dominant bacteria and Debaryomyces and Aspergillus were the dominant fungi. Further, statistical redundancy analysis (RDA) indicated that Staphylococcus, Debaryomyces, and Chromohalobacter promoted the production of amino and fatty acids; Cobetia and Aspergillus were associated with sugar metabolism, and Kushneria, Penicillium, and Yamadazyma were closely related with organic acids. These findings provide fundamental knowledge regarding the metabolically active microorganisms in Panxian ham, helping industrial processors to develop effective strategies for standardizing quality parameters.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1111/jam.14597</t>
   </si>
   <si>
+    <t>Aims Differences in the bacterial population of cucumber fermentations brined with no salt, 100 mmol l−1 (1·1%) calcium chloride (CaCl2) or 1·03 mol l−1 (6%) sodium chloride (NaCl) were studied. Methods and Results Changes in the microbiology and chemistry of commercial and laboratory scale cucumber fermentations occurring as a function of time were monitored using colony counts and metagenetic analysis, and a pH probe and high‐performance liquid chromatography analysis respectively. Dissolved oxygen and carbon dioxide content were monitored in commercial fermentations. Fermentations brined with calcium chloride (CaCl2) or no salt sustained faster microbial growth and reduction in pH than those brined with 1·03 mol l−1 NaCl. Leuconostoc, Lactococcus and Weissella dominated in fermentations brined with no salt or 100 mmol l−1 CaCl2 on day 1 as compared to Weissella and enterobacteria in fermentations containing 1·03 mol l−1 NaCl. Lactobacilli dominated all fermentations by the third day, regardless of salt type, and was followed, in relative abundance by Pediococcus, Leuconostoc, Lactococcus and Weissella. From 84 to 96% of the population was composed of Lactobacillus by day 7 of the fermentations, except in the no salt fermentations in which a mixed population of LAB remained. The population of LAB found in commercial cucumber fermentations brined with 100 mmol l−1 CaCl2 (n = 18) or 1·03 mol l−1 NaCl (n = 9) mimicked that of laboratory fermentations. A declining population of aerobes was detected in commercial fermentations brined with CaCl2 on day 1. Conclusion A reduced NaCl content in cucumber fermentation enhances microbial diversity. Significance and Impact of the Study This study fills a knowledge gap and aids in the design of improved reduced NaCl cucumber fermentations.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1002/mbo3.1009</t>
   </si>
   <si>
+    <t>Sourdough fermentation is a traditional process that is used to improve bread quality. A spontaneous sourdough ecosystem consists of a mixture of flour and water that is fermented by endogenous lactic acid bacteria (LAB) and yeasts. The aim of this study was to identify bacterial diversity during backslopping of spontaneous sourdoughs prepared from wheat, spelt, or rye wholemeal flour. Culture-dependent analyses showed that the number of LAB (109 CFU/ml) was higher by three orders of magnitude than the number of yeasts (106 CFU/ml), irrespective of the flour type. These results were complemented by next-generation sequencing of the 16S rDNA V3 and V4 variable regions. The dominant phylum in all sourdough samples was Firmicutes, which was represented exclusively by the Lactobacillales order. The two remaining and less abundant phyla were Proteobacteria and Bacteroidetes. The culture-independent approach allowed us to detect changes in microbial ecology during the 72-hr fermentation period. Weissella sp. was the most abundant genus after 24 hr of fermentation of the rye sourdough, but as the process progressed, its abundance decreased in favor of the Lactobacillus genus similarly as in wheat and spelt sourdoughs. The Lactobacillus genus was dominant in all sourdoughs after 72 hr, which was consistent with our results obtained using culture-dependent analyses. This work was carried out to determine the microbial biodiversity of sourdoughs that are made from wheat, spelt, and rye wholemeal flour and can be used as a source of strains for specific starter cultures to produce functional bread.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2019.02502</t>
   </si>
   <si>
+    <t>Postharvest food decay is one major issue for today’s food loss along the supply chain. Hot water treatment (HWT), a sustainable method to reduce pathogen-induced postharvest fruit decay, has been proven to be effective on a variety of crops. However, the microbiome response to HWT is still unknown, and the role of postharvest microbiota for fruit quality is largely unexplored. To study both, we applied a combined approach of metabarcoding analysis and real time qPCR for microbiome tracking. Overall, HWT was highly effective in reducing rot symptoms on apples under commercial conditions, and induced only slight changes to the fungal microbiota, and insignificantly affected the bacterial community. Pathogen infection, however, significantly decreased the bacterial and fungal diversity, and especially rare taxa were almost eradicated in diseased apples. Here, about 90% of the total fungal community was composed by co-occurring storage pathogens Neofabraea alba and Penicillium expansum. Additionally, the prokaryote to eukaryote ratio, almost balanced in apples before storage, was shifted to 0.6% bacteria and 99.4% fungi in diseased apples, albeit the total bacterial abundance was stable across all samples. Healthy stored apples shared 18 bacterial and 4 fungal taxa that were not found in diseased apples; therefore, defining a health-related postharvest microbiome. In addition, applying a combined approach of HWT and a biological control consortium consisting of Pantoea vagans 14E4, Bacillus amyloliquefaciens 14C9 and Pseudomonas paralactis 6F3, were proven to be efficient in reducing both postharvest pathogens. Our results provide first insights into the microbiome response to HWT, and suggest a combined treatment with biological control agents.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1371/journal.pone.0226965</t>
   </si>
   <si>
+    <t>Douchi is a type of traditional Chinese flavoring food that has been used for thousands of years and is produced by multispecies solid-state fermentation. However, the correlation between the flavor, the microbiota, and the functional core microbiota in Aspergillus-type douchi fermentation remains unclear. In this study, Illumina MiSeq sequencing and chromatography were used to investigate the bacterial community and flavor components in Aspergillus-type douchi fermentation. The dominant phyla were Firmicutes, Proteobacteria, and Actinobacteria, and the dominant genera were Weissella, Bacillus, Anaerosalibacter, Lactobacillus, Staphylococcus, and Enterococcus. A total of 58 flavor components were detected during fermentation, including two alcohols, 14 esters, five pyrazines, three alkanes, four aldehydes, three phenols, six acids, and five other compounds. Bidirectional orthogonal partial least square modeling showed that Corynebacterium_1, Lactococcus, Atopostipes, Peptostreptococcus, norank_o__AKYG1722, Truepera, Gulosibacter, norank_f__Actinomycetaceae, and unclassified_f__Rhodobacteraceae are the functional core microbiota responsible for the formation of the flavor components during douchi fermentation. This is the first study to investigate the functional core microbiota in douchi fermentation using Illumina MiSeq sequencing and chromatographic techniques. Our findings extend our understanding of the relationships between flavor, the microbiota, and the functional core microbiota during Aspergillus-type douchi fermentation.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2020.103503</t>
   </si>
   <si>
+    <t>In this study, the microbiota of ready-to-eat surströmming from three Swedish producers were studied using a combined approach. The pH values of the samples ranged between 6.67 ± 0.01 and 6.98 ± 0.01, whereas their aw values were between 0.911 ± 0.001 and 0.940 ± 0.001. The acetic acid concentration was between 0.289 ± 0.009 g/100 g and 0.556 ± 0.036 g/100 g. Very low concentrations of lactic acid were measured. Viable counting revealed the presence of mesophilic aerobes, mesophilic lactobacilli and lactococci as well as halophilic lactobacilli and lactococci, coagulase-negative staphylococci, halophilic aerobes and anaerobes. Negligible counts for Enterobacteriaceae, Pseudomonadaceae and total eumycetes were observed, whereas no sulfite-reducing anaerobes were detected. Listeria monocytogenes and Salmonella spp. were absent in all samples. Multiplex real-time PCR revealed the absence of the bont/A, bont/B, bont/E, bont/F, and 4gyrB (CP) genes, which encode botulinic toxins, in all the samples analyzed. Metagenomic sequencing revealed the presence of a core microbiota dominated by Halanaerobium praevalens, Alkalibacterium gilvum, Carnobacterium spp., Tetragenococcus halophilus, Clostridiisalibacter spp. and Porphyromonadaceae. Psychrobacter celer, Ruminococcaceae, Marinilactibacillus psychrotolerans, Streptococcus infantis and Salinivibrio costicola were detected as minor OTUs. GC-MS analysis of volatile components revealed the massive presence of trimethylamine and sulphur compounds. Moreover, 1,2,4-trithiolane, phenols, ketones, aldehydes, alcohols, esters and long chain aliphatic hydrocarbons were also detected. The data obtained allowed pro-technological bacteria, which are well-adapted to saline environments, to be discovered for the first time. Further analyses are needed to better clarify the extent of the contribution of either the microbiota or autolytic enzymes of the fish flesh in the aroma definition.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2019.103405</t>
   </si>
   <si>
+    <t>Sensory, chemical and microbial changes for Atlantic cod (Gadus morhua L.) filets from capture-based-aquaculture in Greenland were studied. The objective was to determine shelf-life and indices of spoilage for iced or superchilled fillets when stored in air, or modified atmosphere packed (MAP; 40% CO2 and 60% N2). MAP iced storage extended the sensory shelf-life from 15 days to 21 days compared to storage in air. With superchilling at −1.7 °C sensory shelf-life was above 32 days, and no formation of total volatile nitrogen (TVN) was observed irrespective of storage in air or MAP. pH of ≥7.0, TVN (≥35 mg-N/100 g) and trimethylamine (≥20 mg-N TMA/100 g) were promising indices of spoilage. Aerobic viable counts were less valuable indices of spoilage as the dominating microbiota of cod in air (Pseudomonas spp., Photobacterium spp., Shewanella spp., Acinetobacter spp.) changed to Photobacterium spp. in MAP cod. Spoilage activity determined as the yield factor for TVN formation was 6–200 folds higher for Photobacterium spp. compared to Shewanella spp. and Pseudomonas spp. Photobacterium carnosum was responsible for TVN formation in iced cod irrespective of storage in air or MAP, and it was identified at the specific spoilage organism that limited iced product shelf-life.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3168/jds.2019-17359</t>
   </si>
   <si>
+    <t>The identification of milk microbial communities in ruminants is relevant for understanding the association between milk microbiota and health status. The most common approach for studying the microbiota is amplifying and sequencing specific hypervariable regions of the 16S rRNA gene using massive sequencing techniques. However, the taxonomic resolution is limited to family and, in some cases, genus level. We aimed to improve taxonomic classification of the water buffalo milk microbiota by amplifying and sequencing the full-length 16S rRNA gene (1,500 bp) using Nanopore sequencing (single-molecule sequencing). When comparing with short-read results, we improved the taxonomic classification, reaching species level. We identified the main microbial agents of subclinical mastitis at the species level that were in accordance with the microbiological culture results. These results confirm the potential of single-molecule sequencing for in-depth analysis of microbial populations in dairy animals.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/mSystems.00226-20</t>
   </si>
   <si>
+    <t>Microorganisms from the environment can enter the dairy supply chain at multiple stages, including production, milk collection, and processing, with potential implications for quality and safety. The ability to track these microorganisms can be greatly enhanced by the use of high-throughput DNA sequencing (HTS). Here HTS, both 16S rRNA gene amplicon and shotgun metagenomic sequencing were applied to investigate the microbiomes of fresh mid- and late-lactation milk collected from farm bulk tanks, collection tankers, milk silos, skimmed milk silos, a cream silo, and powder samples to investigate the microbial changes throughout a skim milk powder manufacturing process. 16S rRNA gene analysis established that the microbiota of raw milks from farm bulk tanks and in collection tankers were very diverse but that psychrotrophic genera associated with spoilage, Pseudomonas and Acinetobacter, were present in all samples. Upon storage within the whole-milk silo at the processing facility, the species Pseudomonas fluorescens and Acinetobacter baumannii became dominant. The skimmed milk powder generated during the mid-lactation period had a microbial composition that was very different from that of raw milk; specifically, two thermophilic genera, Thermus and Geobacillus, were enriched. In contrast, the microbiota of skimmed milk powder generated from late-lactation milk more closely resembled that of the raw milk and was dominated by spoilage-associated psychrotrophic bacteria. This study demonstrates that the dairy microbiota can differ significantly across different sampling days. More specifically, HTS can be used to trace microbial species from raw milks through processing to final powdered products. IMPORTANCE Microorganisms can enter and persist in dairy at several stages of the processing chain. Detection of microorganisms within dairy food processing is currently a time-consuming and often inaccurate process. This study provides evidence that high-throughput sequencing can be used as an effective tool to accurately identify microorganisms along the processing chain. In addition, it demonstrates that the populations of microbes change from raw milk to the end product. Routine implementation of high-throughput sequencing would elucidate the factors that influence population dynamics. This will enable a manufacturer to adopt control measures specific to each stage of processing and respond in an effective manner, which would ultimately lead to increased food safety and quality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108610</t>
   </si>
   <si>
+    <t>Gioddu, also known as “Miciuratu”, “Mezzoraddu” or “Latte ischidu” (literally meaning acidulous milk), is the sole variety of traditional Italian fermented milk. The aim of the present study was to elucidate the microbiota and the mycobiota occurring in artisan Gioddu sampled from three Sardinian producers by combining the results of viable counting on selective culture media and high-throughput sequencing. Physico-chemical parameters were also measured. The overall low pH values (3.80–4.22) recorded in the analyzed Gioddu samples attested the strong acidifying activity carried out by lactic acid bacteria during fermentation. Viable counts revealed the presence of presumptive lactococci, presumptive lactobacilli and non-Saccharomyces yeasts. A complex (kefir-like) microbiota of bacteria and yeasts was unveiled through sequencing. In more detail, Lactobacillus delbrueckii was found to dominate in Gioddu together with Streptococcus thermophilus, thus suggesting the establishment of a yogurt-like protocooperation. Unexpectedly, in all the three analyzed batches from two out of the three producers Lactobacillus kefiri was also detected, thus representing an absolute novelty, which suggests the presence of bioactive compounds (e.g. exopolysaccharides) similar to those characterizing milk kefir beverage. Mycobiota population, studied for the very first time in Gioddu, revealed a more complex composition, with Kluyveromyces marxianus, Galactomyces candidum and Geotrichum galactomyces constituting the core species. Further research is needed to disclose the eventual occurence in Gioddu of probiotic cultures and bioactive compounds (e.g. exopolysaccharides, angiotensin-converting enzyme inhibitory peptides and antimicrobial compounds) with potential health-benefits for the consumers.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108631</t>
   </si>
   <si>
+    <t>In the present work the microbial dynamics in wheat kernels were evaluated over time. The main aim of this research was to study the resistance of lactic acid bacteria (LAB) and yeasts associated to unprocessed cereals used for bread making during long term conservation. To this purpose four Triticum durum Desf. genotypes including two modern varieties (Claudio and Simeto) and two Sicilian wheat landraces (Russello and Timilia) were analysed by a combined culture-independent and -dependent microbiological approach after one, two or three years from cultivation and threshing. DNA based MiSeq Illumina technology was applied to reveal the entire bacterial composition of all semolina samples. The samples showed a different distribution of bacterial taxa per variety and time of storage. The groups mostly represented were Stenotrophomonas, Pseudomonas, Erwinia, Delftia and Sphingomonas genera, Enterobacteriaceae and Oxalobacteriaceae families, and Actinobacteria phylum. Among LAB, only Enterococcus genus was detected barely in a single sample (Simeto stored for one year) by the next generation sequencing, indicating that LAB remained unassigned or their abundances were below 0.1% or their DNAs were rendered inaccessible. Plate counts showed consistent differences in relation to genotypes and duration of storage, with the highest levels found for total mesophilic microorganisms detected up 6.8 Log CFU/g. Colonies of presumptive sourdough LAB were detected only in a few samples. Cocci constituted the major group of LAB in almost all samples. Following the enrichment procedure, almost all samples were characterised by the presence of acidifying microorganisms. All isolates collected before and after enrichment represented 28 different strains belonging to 10 species of Enterococcus, Lactobacillus and Pediococcus genera. The most resistant species during aging were Enterococcus faecium, Enterococcus durans, Lactobacillus brevis, Lactobacillus pentosus and Lactobacillus paracasei demonstrating that lactobacilli and enterococci are able to overcome the stressing conditions represented by cereal storage better than other LAB genera commonly found associated to cereals after harvest. Yeast community included mostly species with no interest in bread making.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2020.103547</t>
   </si>
   <si>
+    <t>Cooked ham production involves numerous steps shaping the microbial communities of the final product, with consequences on spoilage metabolites production. To identify the main factors driving the ecology of ham and its spoilage, we designed a study encompassing five variables related to ham production: type of storage during meat transportation, churning speed, drain-off time, slicing line and O2 packaging permeability. About 200 samples from the same facility were obtained and characterized with respect to i) their microbiota based on gyrB amplicon sequencing ii) their production of spoilage-related metabolites based on E-Nose analysis and enzymatic assays. The slicing was the most critical step, shaping two general types of microbiota according to the slicing line: one dominated by Carnobacterium divergens and another one dominated by Leuconostoc carnosum and Serratia proteamaculans. Regarding metabolites production, L. carnosum was associated to d-lactic acid, ethanol and acetic acid production, whereas Serratia proteamaculans was associated to acetic acid production. This last species prevailed with highly O2-permeable packaging. Within a given slicing line, campaign-based variations were observed, with Lactobacillus sakei, Leuconostoc mesenteroides and Carnobacterium maltaromaticum prevalent in summer. L. sakei was associated with l-lactic acid production and C. maltaromaticum with formic and acetic acid productions.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.00758</t>
   </si>
   <si>
+    <t>Sufu is a traditional fermented soybean food produced in China. However, the microbial compositions and metabolites of different types of sufu have not been studied in detail. Accordingly, in this study, we evaluated the differences in bacterial communities and metabolites between commercial red sufu (RS) and white sufu (WS). Principal coordinate analysis and the unweighted pair group method with arithmetic means analysis of 16S rRNA genes revealed that the bacterial community structures of RS and WS differed dramatically. At the phylum level, the relative abundances of Firmicutes and Proteobacteria were significantly different between RS and WS (P &lt; 0.01). Moreover, the abundances of Lactococcus and Tetragenococcus genera were significantly different between RS and WS (P &lt; 0.01). Among metabolites, most free amino acids, few of volatile flavor compounds, and some organic acids showed significant differences between RS and WS (P &lt; 0.05). Additionally, correlations between microbiota and metabolites were determined. Aggregated boosted tree analysis showed that formic acid had the highest relative influence (20.27%) on bacterial community diversity (Chao 1), following by arginine (5.38%), propanol (4.57%), oxalic acid (4.46%), and hexanol (4.43%). Moreover, Streptococcaceae and Moraxellaceae had the highest relative influence on the concentration of formic acid (12.84% and 8.75%, respectively). The profiles obtained in this study improve our understanding of the relationships between bacterial flora and metabolites in different types of sufu. These findings may help us interpret the roles of bacterial communities in the flavor and characteristics of sufu.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2020.109118</t>
   </si>
   <si>
+    <t>Outbreaks of food poisoning due to the consumption of contaminated beef from fast-food chains are becoming more frequent. Pathogen contamination in beef influences its spoilage as well as the development of foodborne illness. Thus, the influence of pathogen contamination on beef microbiota should be analyzed to evaluate food safety. We analyzed the influence of pathogen contamination on the shift in microbiota and the interactions between the pathogen and indigenous microbes in beef stored under different conditions. Sixty beef samples were stored at 25 °C and 4 °C for 24 h, and the shifts in microbiota were analyzed using the MiSeq system. The influence of pathogen contamination on microbiota was analyzed by artificial contamination experiments with Escherichia coli FORC_044, which was isolated from the stool of a food poisoning patient in Korea. The bacterial amounts and the proportion of Escherichia were higher when the beef was stored at 25 °C. Artificially contaminated Escherichia positively correlated with the indigenous microbes such as Pseudomonas, Brochothrix, Staphylococcus, Rahnella, and Rhizobium as determined by co-occurrence network analyses. Carnobacterium, a potential spoilage microbe, was negatively correlated with other microbes. The predicted functions of altered microbiota showed that the pathways related to the process of spoilage including biosynthesis of acetic acid and lactic acid increased over time. The shift in pathways was more pronounced in contaminated beef stored at 25 °C. Carnobacterium, Lactobacillus, and Escherichia were the main genera contributing to the shift in the relative abundance of functional genes involved in the various spoilage pathways. Our results indicated that pathogen contamination could influence beef microbiota and mediate spoilage. This study extends our understanding of the beef microbiota and provides insights into the role of pathogen and storage conditions in meat spoilage.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1007/s00253-020-10651-7</t>
   </si>
   <si>
+    <t>Cheese is a fermented dairy product that is made from animal milk and is considered to be a healthy food due to its available nutrients and potential probiotic characteristics. Since the microbes in the cheese matrix directly contribute to the quality and physicochemical properties of cheese, it is important to understand the microbial properties of cheese. In this study, Cheddar cheeses produced on three different dates at the Arbuthnot Dairy Center at Oregon State University were collected to determine the microbial community structure. A total of 773,821 sequencing reads and 271 amplicon sequence variants (ASVs) were acquired from 108 samples. Streptococcus and Lactococcus were observed as the most abundant ASVs in the cheese, which were used as the starter lactic acid bacteria (SLAB). Escherichia coli was detected in the raw milk; however, it was not detected after inoculating with SLAB. According to an alpha diversity analysis, SLAB inoculation decreased the microbial richness by inhibiting the growth of other bacteria present in the milk. A beta diversity analysis showed that microbial communities before the addition of SLAB clustered together, as did the samples from cheese making and aging. Non-starter lactic acid bacteria (NSLAB) were detected 15 weeks into aging for the June 6th and June 26th produced cheeses, and 17 weeks into aging for the cheese produced on April 26th. These NSLAB were identified as an unidentified group of Lactobacillaceae. This study characterizes the changes in the Cheddar cheese microbiome over the course of production from raw milk to a 6-month-aged final product.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/app10124063</t>
   </si>
   <si>
+    <t>The aim of this study was to evaluate the microbiome of industrially produced ripened Edam cheeses by next-generation sequencing. The samples for analyses were collected in spring and autumn. Spring samples were characterized by significantly higher Lactococcus and Bacillus counts and lower counts of Enterobacteriaceae, Enterococcus, and yeasts than autumn samples. The predominant microorganisms identified by the Illumina high-throughput sequencing technology belonged to four phyla: Firmicutes, Actinobacteria, Proteobacteria and Bacteroidetes. The dominant species were starter culture bacteria. Lactobacillus rhamnosus, Lactobacillus kefiri, Lactobacillus kefiranofaciens, Lactobacillus casei, Streptococcus thermophilus, and Bifidobacterium had the highest share of microbial cheese communities. The number of γ-Proteobacteria reads was higher in autumn cheese samples. A high number of reads was also noted in the genus Clostridium. The counts of spore-forming bacteria of the genus Bacillus were higher in cheeses produced in spring. The study revealed highly similar relationships between the analyzed production periods. The present results contribute to the existing knowledge of cheese microbiota, and they can be used to improve and modify production processes based on the composition of microbial communities, as well as to improve the quality of the final product.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.01128</t>
   </si>
   <si>
+    <t>Table olives are one of the most well-known traditionally fermented products, and their global consumption is exponentially increasing. In direct brining, table olives are produced spontaneously, without any debittering pre-treatment. Up to date, fermentation process remains empirical and inconstant, as it is affected by the physicochemical attributes of the fruit, tree and fruit management of pro and post-harvest. In the present study, whole and cracked Picual table olives were fermented at industrial scale for 120 days, using three distinct methods (natural fermentation, inoculation with lactic acid bacteria (LAB) at a 7 or a 10% NaCl concentration). Microbial, physicochemical and sensorial alterations monitored during the whole process, and several differences were observed between treatments. Results indicated that in all treatments, the dominant microflora were LAB. Yeasts also detected in noteworthy populations, especially in non-inoculated samples. However, LAB population was significantly higher in inoculated compared to non-inoculated samples. Microbial profiles identified by metagenomic approach showed meaningful differences between spontaneous and inoculated treatments. As a result, the profound dominance of starter culture had a severe effect on olives fermentation, resulting in lower pH and higher acidification, which was mainly caused by the higher levels of lactic acid produced. Furthermore, the elimination of Enterobacteriaceae was shortened, even at lower salt concentration. Although no effect observed concerning the quantitated organoleptic parameters such as color and texture, significantly higher levels in terms of antioxidant capacity were recorded in inoculated samples. At the same time, the degradation time of oleuropein was shortened, leading to the production of higher levels of hydroxytyrosol. Based on this evidence, the establishment of starter culture driven Picual olives fermentation is strongly recommended. It is crucial to mention that the inoculated treatment with reducing sodium content was highly appreciated by the sensory panel, enhancing the hypothesis that the production of Picual table olives at reduced NaCl levels is achievable.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2020.103504</t>
   </si>
   <si>
+    <t>In the present study, two groups of cows from a permanent lowland farm (PF) were divided during summer and reared in the PF or in a temporary alpine farm (ALP), respectively. Microbiological analyses were performed with the objective to investigate the microbial evolution of milk before, during, and after summer transhumance comparing, in particular, the two groups of cows to determine whether the alpine pasture could directly influence the milk microbiota. A significant increase of all microbial groups was registered in milk samples collected in the ALP. Interestingly, many strains belonging to species with well reported technological and probiotic activities were isolated from Alpine milk (20% Lactococcus lactis subsp. lactis/cremoris, 18% Lactobacillus paracasei, 14% Bifidobacterium crudilactis and 18% Propionibacterium sp.), whereas only 16% of strains isolated from the permanent farm milk belonged to the species Lactococcus lactis subsp. lactis/cremoris, 6% to Lactobacillus paracasei, 2% to Bifidobacterium crudilactis and 5% to Propionibacterium sp. The MiSeq Illumina data showed that Alpine milk presented a significant reduction of Pseudomonas and an increase of Lactococcus, Bifidobacterium and Lactobacillus genera. These data confirmed the practice of Alpine pasture as one of the main drivers affecting the milk microbiota. All the microbial changes disappeared when cows were delivered back from Alpine pasture to the indoor farm.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1186/s13568-020-01069-5</t>
   </si>
   <si>
+    <t>The reformulation of dairy products to contain less added sugar can contribute to reducing sugar consumption, thereby reducing the risk of non-communicable diseases. The objective of this study was to investigate the microbial ecology of reformulated yoghurt, which was produced using bi-enzymatic modification of lactose to increase its sweetness by a factor of 2–3. Ultimately, this reformulation strategy could reduce the amount of added sugar needed for equal sweetness of the end product. The bi-enzymatic modification relied on utilisation of a β-galactosidase enzyme to convert the milk sugar lactose to galactose and glucose, followed by the enzymatic conversion of the glucose moiety to fructose using a glucose isomerase. The microbial ecology of reformulated yoghurt produced with two mixed starter culture preparations containing either Streptococcus (S.) thermophilus and Lactobacillus (Lb.) delbrueckii or S. thermophilus, Lb. acidophilus and Bifidobacterium sp. strains, was analysed during fermentation and cool storage using 16S rRNA based metagenomics. None of the yoghurt samples showed a significant difference in microbial composition between sweetness-enhanced and regular milk at all sampling time points during manufacture and storage of yoghurt. However, a significant difference between the microbiota of inoculated milk before and after fermentation was observed. In both types of yoghurt, the starter culture genera dominated the microbial ecology at the end of fermentation as expected, reducing the possibility of growth of potentially pathogenic or spoilage bacteria possibly resulting from a changed carbohydrate spectrum.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.idairyj.2020.104804</t>
   </si>
   <si>
+    <t>The standardisation of raw milk cheeses without losing their typicality is an ambitious goal. In the present study, the performance of two Lactococcus lactis autochthonous starter cultures (AS1 and AS2) was evaluated for the production of Valle d'Aosta (VdA, Italy) Fromadzo PDO, in terms of competition and persistence capacity (by rep-PCR strain characterisation), influence on indigenous microbial population (by metataxonomic approach) and volatilome development (by GC–MS and sensory analysis). The best performance was shown by AS2 starter mixture, which was able to colonise Fromadzo cheeses at the expense of indigenous lactic microbiota, and reached mean frequency values of 87% and 70% in 30 day-ripened products from valley floor and alpine pasture milk, respectively. Moreover, both kinds of cheeses, obtained using AS2, achieved the best scores in terms of aroma and taste, the pasture cheese also achieving the best score for texture.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.01212</t>
   </si>
   <si>
+    <t>Hundreds of sourdoughs have been investigated in the last decades. However, many studies used a culture-dependent and/or culture-independent microbiological approach [mainly based on denaturing gradient gel electrophoresis (DGGE) of PCR amplicons], seldomly combined with a metabolite target analysis, to characterize the microbial species communities of the sourdoughs examined. Moreover, attention was mainly paid on lactic acid bacteria (LAB) and yeast species. In the present study, distinct household-scale (including an artisan lambic brewery) and artisan bakery-scale backslopped sourdoughs (17 in total), obtained from different regions (Belgium, France, United Kingdom, and USA), were examined through a multiphasic approach, encompassing a culture-dependent analysis [targeting LAB, acetic acid bacteria (AAB), and yeasts], different culture-independent techniques [rRNA-PCR-DGGE, metagenetics, and metagenomics (four bakery sourdoughs)], and metabolite target analysis. It turned out that the microbial species diversity of the sourdoughs was influenced by the house microbiota of the producer. Further, when the producer made use of different flours, the sourdoughs harbored similar microbial communities, independent of the flour used. AAB were only present in the Belgian sourdoughs, which might again be related to the processing environment. Fructilactobacillus sanfranciscensis (formerly known as Lactobacillus sanfranciscensis) was the prevalent LAB species of the eight sourdoughs produced by two of the three bakeries of different countries analyzed. These sourdoughs were characterized by the presence of either Saccharomyces cerevisiae or Kazachstania humilis. Moreover, the presence of Fl. sanfranciscensis was positively correlated with the production of mannitol and negatively correlated with the presence of other LAB or AAB species. Sourdoughs produced in an artisan lambic brewery were characterized by the presence of the yeast species Dekkera anomala and Pichia membranifaciens. One household sourdough was characterized by the presence of uncommon species, such as Pediococcus parvulus and Pichia fermentans. Metagenomic sequencing allowed the detection of many more LAB and AAB species than the other methods applied, which opened new frontiers for the understanding of the microbial communities involved during sourdough production processes.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.01657</t>
   </si>
   <si>
+    <t>Beef is one of the most consumed food worldwide, and it is prone to spoilage by bacteria. This risk could be caused by resident microbiota and their alterations in fresh beef meat during processing. However, scarce information is available regarding potential spoilage factors due to resident microbiota in fresh beef meat. In this study, we analyzed the microbiota composition and their predicted functions on fresh beef meat. A total of 120 beef meat samples (60 fresh ground and 60 non-ground beef samples) were collected from three different sites in South Korea on different months, and the microbiota were analyzed by the MiSeq system. Our results showed that although the microbiota in beef meat were varied among sampling site and months, the dominant phyla were the same with shared core bacteria. Notably, psychrotrophic genera, related to spoilage, were detected in all samples, and their prevalence increased significantly in July. These genera could inhibit the growth of other microbes with using glucose by fermentation. The results of this study extend our understanding of initial microbiota in fresh beef meat and potential functions influencing spoilage and can be useful to develop the preventive measures to reduce the spoilage of beef meat products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108779</t>
   </si>
   <si>
+    <t>Microbial contamination associated with beef slaughter and boning has been investigated using traditional culture dependent approaches. However, conventional counting methods have disadvantages of detecting only cultivable bacterial groups that may be a small subset of the true microbial population. This study investigated the microbiology in the boning room of an integrated (abattoir A) and a fragmented (abattoir B) Australian beef export abattoirs using culture independent 16S rRNA gene amplicon sequencing coupled with total viable count (TVC). Transmission of microbial populations during processing of carcases onto beef trim was monitored and compared between the two abattoirs. The results showed that the abattoirs produced beef trim with a mean TVC of 2.64–2.70 log10 CFU/cm2. Initial counts of microbes on the chilled carcases entering the boning room were &lt;1.5 log10 CFU/cm2 and the environmental surfaces had ≤2.0 log10 CFU/cm2 throughout the boning room. Profiling of 16S gene sequences demonstrated that the contamination of boned products (beef trim) may be a result of contamination accumulating from environmental surfaces that are regularly in contact with beef trim. The 16S data also showed that the bacterial communities on the carcases and trim shared similar community composition with microbiota on environmental surfaces at varying proportions depending on the day of processing. Bacteroidales, Clostridiales, Enterobacteriales, Lactobacillales and Pseudomonadales were predominantly present in the bacterial communities in both abattoirs. However, the changes in relative abundance of these bacteria through the boning process varied between the abattoirs. The findings from this study suggested that the transfer of bacterial contaminants in the beef cattle boning room can be dynamic, and a 16 s rRNA gene sequencing-based approach can improve our understanding of the sources of contamination in the boning environment.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2019.02747</t>
   </si>
   <si>
+    <t>Microbial contamination of beef cattle carcases and subsequent cross-contamination during processing is inevitable and virtually impossible to prevent. The understanding of microbial contamination in the beef industry is currently limited to hypotheses based on traditional microbiological tools. Additionally, the complex structural and functional responses of beef cattle microbial communities to the fragmentation in the supply chain remain unknown. This study used 16S rRNA gene sequencing in combination with traditional microbiology to monitor and compare changes in the microbiota throughout slaughter in an integrated (abattoir A) and a fragmented (abattoir B) beef abattoir in Australia. Briefly, the primary difference between an integrated and a fragmented abattoir is that fragmented abattoirs receive cattle from multiple sources, whereas integrated abattoirs typically receive cattle that has been produced using the same production system and from a limited number of sources. The composition in the bacterial communities varied between the abattoirs, though the presence of the most predominant bacterial species within the microbiota at each abattoir was similar. Lactobacillales (2.4–56.2%) and Pseudomonadales (2.4–59.4%) most notably dominated hides, carcases, and the environment in abattoir B. In abattoir A, Bacteroidales (3.9–43.8%), Lactobacillales (0.0–61.9%), and Pseudomonadales (0.5–72.1%) fluctuated but generally shared the dominance over the rest. Combined results of total viable count (TVC) and 16S rRNA gene profiling indicated that an upward hide pulling system adopted by abattoir B may lead to increased transmission of hide contaminants to post-hide pull carcases. Abattoir B had 3.2 log10CFU/cm2 reduction from hide to carcase, where abattoir A had 4.5 log10CFU/cm2 reduction. The findings from this study indicated that common beef-associated microbiota exist in varying composition in Australian abattoirs, and 16S rRNA amplicon sequencing is a powerful tool to understand in-depth movement of microbial contaminants.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.586614</t>
   </si>
   <si>
+    <t>French PDO Nyons black table olives are produced according to a traditional slow spontaneous fermentation in brine. The manufacture and unique sensorial properties of these olives thus only rely on the autochthonous complex microbiota. This study aimed at unraveling the microbial communities and dynamics of Nyons olives during a 1.5-year-long spontaneous fermentation to determine the main microbial drivers and link microbial species to key metabolites. Fermentations were monitored at a local producer plant at regular time intervals for two harvests and two olive types (organically and conventionally grown) using culture-dependent and metabarcoding (ITS2 for fungi, V3-V4 region for bacteria) approaches. Olives and brines were also sampled for volatiles, organic acids and phenolic compounds. No major differences in microbiota composition were observed according to olive type or harvest period. Throughout the fermentation, yeasts were clearly the most dominant. ITS2 sequencing data revealed complex fungal diversity dominated by Citeromyces nyonsensis, Wickerhamomyces anomalus, Zygotorulaspora mrakii, Candida boidinii and Pichia membranifaciens species. Bacterial communities were dominated by the Celerinatantimonas genus, while lactic acid bacteria remained scarce. Clear shifts in microbial communities and biochemical profiles were observed during fermentation and, by correlating metabolites and microbiota changes, four different phases were distinguished. During the first 7 days, phase I, a fast decrease of filamentous fungal and bacterial populations was observed. Between days 21 and 120, phase II, W. anomalus and C. nyonsensis for fungi and Celerinatantimonas diazotrophica for bacteria dominated the fermentation and were linked to the pH decrease and citric acid production. Phase III, between 120 and 183 days, was characterized by an increase in acids and esters and correlated to increased abundances of Z. mrakii, P. membranifaciens and C. boidinii. During the last months of fermentation, phase IV, microbial communities were dominated by P. membranifaciens and C. boidinii. Both species were strongly correlated to an increase in fruity esters and alcohol abundances. Overall, this study provides an in-depth understanding about microbial species succession and how the microbiota shapes the final distinct olive characteristics. It also constitutes a first step to identify key drivers of this fermentation.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2019.108937</t>
   </si>
   <si>
+    <t>This study explored the shelf-life and bacterial community dynamics of beef cuts stored at super-chilled conditions (−1 ± 0.5 °C) for 20 weeks when sourced from two Chinese abattoirs, in order to determine whether domestic beef has equivalent quality as that imported from Australia. The initial total viable counts (TVC) were 4.15 and 4.87 log CFU/cm2 in beef from abattoirs A and B, respectively at the commencement of the storage period. The TVC of beef from abattoir A was above 6.0 log CFU/cm2 at 6 weeks and kept below 7.0 log CFU/cm2 at 20 weeks; while the counts were above 6.0 log CFU/cm2 at 3 weeks and reached at 7.3~7.6 log CFU/cm2 in beef from abattoir B. The beef shelf-life was deemed less than 12 and 9 weeks in abattoirs A and B, respectively, based on the total volatile basic nitrogen (TVBN) threshold, although all samples were acceptable organoleptically. High-throughput sequencing showed that the initial bacteria community and bacterial succession during storage were different between the two abattoirs. Carnobacterium spp. and Lactobacillus spp. dominated in both abattoirs throughout 3–9 weeks while Serratia spp. co-dominated in abattoir B, and Lactobacillus spp. and Carnobacterium spp. were dominant for the rest of storage in abattoir A and B, respectively. Overall, the high initial TVC is a concern compared to imported beef from Australia. To achieve comparable shelf-life, domestic super-chilled stored beef would need to be sourced from abattoirs employing effective decontamination technologies or where strict hygiene procedures are adopted.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2020.103591</t>
   </si>
   <si>
+    <t>Six different ganjang batches were prepared and the microbial communities in the ganjang samples and raw materials (meju and solar salts), as well as the metabolites generated during fermentation were analyzed. The varying amounts of raw materials used differentially affected the microbial communities. Halophilic or halotolerant microbes derived from solar salts were abundant during middle or late fermentation. By contrast, non-halophilic microbes derived from meju were abundant mainly during early fermentation. Debaryomyces, Tetragenococcus, and Staphylococcus were abundant in all ganjang batches, which suggested that these may be the most common microbes involved in ganjang fermentation. The salt concentrations did not affect the abundance of Debaryomyces, which was abundant in all ganjang batches. Tetragenococcus was abundant in low salt ganjang, whereas Staphylococcus was abundant in high salt ganjang. Metabolite analysis revealed that carbohydrate concentrations were high in ganjang prepared using high amounts of meju. The level of lactate, which may be largely produced by Tetragenococcus, in low salt ganjang was high because of high microbial activity. The amino acid concentrations of the ganjang batches were mainly associated with meju quantity, but not salt concentration. These results indicated that the production of amino acids may be associated with indigenous proteases in meju, but not microbial activities during ganjang fermentation.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/microorganisms8091270</t>
   </si>
   <si>
+    <t>In this paper, the volatile flavour constituents and the bacterial diversity in characteristic Chinese fermented sour soup were analysed, and the dynamics of bacteria associated with the odour were characterized. The bacterial diversity of sour soup was studied by high-throughput sequencing. A total of 10 phyla and 89 genera were detected. Firmicutes was the dominant phylum of sour soup, accounting for 87.14–98.57%. The genus structure of normal sour soup was relatively simple, and Lactobacillus (78.05–90.26%) was the dominant genus. In addition to Lactobacillus, the foul-smelling sour soup contained more Pediococcus spp., Caproiciproducens spp., and Clostridium-sensu-stricto 12 spp. (relative abundance &gt;1%) than the normal sour soup. A total of 51 aroma compounds were detected by gas chromatography-mass spectrometry(GC-IMS), including 25 esters, 8 terpenes, 8 alcohols, 3 sulfur compounds, 2 acids, 2 ketones, 1 pyrazine, 1 monoterpene and 1 aldehyde. According to the relative odour active value (ROAV) calculation, 51 important flavour-contributing substances and 7 flavour-coordinating substances were determined. The esters with the highest relative percentages and ROAV values provided the pleasant flavour of the sour soup. In the foul-smelling sour soup, the ROAV values of 1,8-cineole, isobutyl acetate, ethyl butanoate, ethyl octanoate-M, and ethyl hexanoate-M decreased, while those of diallyl disulfide-M and diallyl disulfide-D, which were probably responsible for the foul flavour, increased. Through Pearson correlation analysis, the odour production of the foul-smelling soup was determined to be related to Pediococcus spp., Caproiciproducens spp., Clostridiumsensu_stricto_12 spp., Oscillibacter spp., Bacteroides spp., Fibaculaceae_unclassified spp., Acinetobacter spp. and Halomonas spp.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.idairyj.2020.104878</t>
   </si>
   <si>
+    <t>Kazak cheese is a characteristic handcrafted fermented dairy product from the Uyghur Autonomous Region in China. The bacterial microbiota and volatile components during milk fermentation of Kazak artisanal cheese were investigated using Illumina MiSeq sequencing technology and headspace solid-phase microextraction (HS-SPME) with gas chromatography/mass spectrometry (GC–MS), respectively. Lactobacillus and Lactococcus were found to be the main populations during milk fermentation. The relationships between microbiome succession and flavour dynamics were constructed based on bidirectional orthogonal partial least squares (O2PLS), which identified eight bacterial genera as key functional microbes for flavour production. Among these genera, Lactobacillus was positively correlated with benzoic acid and isoamyl alcohol, while Macrococcus and Anoxybacillus were negatively correlated with acetic acid, butanoic acid and isoamyl alcohol. This study provides a foundation for uncovering the mechanisms underlying the formation of the microbiota and flavour components in Kazak fermented cheese.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/microorganisms8020218</t>
   </si>
   <si>
+    <t>Background: Paipa cheese is a traditional, semi-ripened cheese made from raw cow’s milk in Colombia. The aim of this work was to gain insights on the microbiota of Paipa cheese by using a culture-independent approach. Method: two batches of Paipa cheese from three formal producers were sampled during ripening for 28 days. Total DNA from the cheese samples was used to obtain 16S rRNA gene sequences by using Illumina technology. Results: Firmicutes was the main phylum found in the cheeses (relative abundances: 59.2–82.0%), followed by Proteobacteria, Actinobacteria and Bacteroidetes. Lactococcus was the main genus, but other lactic acid bacteria (Enterococcus, Leuconostoc and Streptococcus) were also detected. Stapylococcus was also relevant in some cheese samples. The most important Proteobacteria were Enterobacteriaceae, Aeromonadaceae and Moraxellaceae. Enterobacter and Enterobacteriaceae (others) were detected in all cheese samples. Serratia and Citrobacter were detected in some samples. Aeromonas and Acinetobacter were also relevant. Other minor genera detected were Marinomonas, Corynebacterium 1 and Chryseobacterium. The principal coordinates analysis suggested that there were producer-dependent differences in the microbiota of Paipa cheeses. Conclusions: lactic acid bacteria are the main bacterial group in Paipa cheeses. However, other bacterial groups, including spoilage bacteria, potentially toxin producers, and bacteria potentially pathogenic to humans and/or prone to carry antimicrobial resistance genes are also relevant in the cheeses.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1186/s13568-020-01080-w</t>
   </si>
   <si>
+    <t>This study aimed to explore the effects of artemisinin (ART) on the milk microbiome and metabolites of dairy cow. A total of 12 mid-lactation Holstein dairy cows with similar parity, days in milk were randomly divided into 2 groups receiving either a total mixed ration (TMR) as the control group or this TMR and 120 g/d/head ART as the ART group. The milk samples were collected weekly to determine the contents, and end-of-trial (week 8) milk samples were used to identify microbial species and metabolite profiles by 16S rRNA sequencing and LC–MS analyses, respectively. We observed that the milk fat content significantly increased by ART treatment (P &lt; 0.05). The bacterial community richness was significantly lower in the ART group (P &lt; 0.05), while the diversity showed no difference (P &gt; 0.05). Compared with its abundance in the control (CON) group, Firmicutes was significantly decreased, whereas Proteobacteria was significantly increased. Furthermore, in the ART group, the relative abundances of the genera Aerococcus, Staphylococcus, Corynebacterium_1 and Facklamia were significantly lower (P &lt; 0.01). Metabolomics analysis revealed that ART significantly increasing the concentrations of glycerophospholipids, glycerolipids and flavonoids compared with those in the CON group. An enrichment analysis of the different metabolites showed that ART mainly affected glycerophospholipid metabolism and the pantothenate and CoA biosynthesis pathways. These findings revealed that ART supplementation could affect the milk microbiota and metabolites, that glycerophospholipids and glycerolipids could be potential biomarkers in the milk response to ART feed in dairy cows, and that ART changes substances in milk by maintaining lipid metabolism in the mammary gland.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.581658</t>
   </si>
   <si>
+    <t>Cheese microbiota contribute significantly to the final characteristics of cheeses due to the growth and interaction between cheese microorganisms during processing and ripening. For raw milk cheeses, such as Parmigiano Reggiano (PR), the microbiota derive from the raw milk itself, the dairy environment, and the starter. The process of cheese making and time of ripening shape this complex ecosystem through the selection of different species and biotypes that will drive the quality of the final product by performing functions of their metabolism such as proteolysis. The diversity in the final peptide and amino acid composition of the cheese is thus mostly linked to the diversity of this microbiota. The purpose of this study was to get more insight into the factors affecting PR cheese diversity and, more specifically, to evaluate whether the composition of the bacterial community of cheeses along with the specific peptide composition are more affected by the ripening times or by the cheese making process. To this end, the microbiota and the peptide fractions of 69 cheese samples (from curd to cheese ripened 24 months) were analyzed during 6 complete PR production cycles, which were performed in six different dairies located in the PR production area. The relation among microbial dynamics, peptide evolution, and ripening times were investigated in this unique and tightly controlled production and sampling set up. The study of microbial and peptide moieties in products from different dairies – from curd to at least 12 months, the earliest time from which the cheese can be sold, and up to a maximum of 24 months of ripening – highlighted the presence of differences between samples coming from different dairies, probably due to small differences in the cheese making process. Besides these differences, however, ripening time had by far the greatest impact on microbial dynamics and, consequently, on peptide composition.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.564749</t>
   </si>
   <si>
+    <t>Milk microbiota represents a key point in raw milk cheese production and contributes to the development of typical flavor and texture for each type of cheese. The aim of the present study was to evaluate the influence of chlorine products usage for cleaning and sanitizing the milking equipment on (i) raw milk microbiota; (ii) the deriving whey-starter microbiota; and (iii) Trentingrana Protected Designation of Origin (PDO) cheese microbiota and volatilome. Milk samples from three farms affiliated to a Trentingrana PDO cheese factory were collected three times per week during a 6-weeks period in which a sodium hypochlorite detergent (period C) was used and during a subsequent 6-weeks period of non-chlorine detergent usage (period NC). Samples were subjected to microbiological [Standard Plate Count; coliforms; coagulase-positive staphylococci; and lactic acid bacteria (LAB)] and metagenomic analysis (amplification of V3-V4 regions of 16S rRNA gene performed on Illumina MiSeq platform). In addition, cheese volatilome was determined by SPME-GC-MS. In the transition from period C to period NC, higher SPC and LAB counts in milk were recorded. Milk metagenomic analysis showed a peculiar distinctive microbiota composition for the three farms during the whole experimental period. Moreover, differences were highlighted comparing C and NC periods in each farm. A difference in microbial population related to chlorine usage in bulk milk and vat samples was evidenced. Moreover, chlorine utilization at farm level was found to affect the whey-starter population: the usually predominant Lactobacillus helveticus was significantly reduced during NC period, whereas Lactobacillus delbrueckii had the exact opposite trend. Alpha- and beta-diversity revealed a separation between the two treatment periods with a higher presence of L. helveticus, L. delbrueckii, and Streptococcus thermophilus in cheese samples after NC detergent period. Cheese volatilome analysis showed a slight decrease in lipolysis during C period in the inner part of the cheese wheel. Although preliminary, these results suggest a profound influence on milk and cheese microbiota, as well as on raw milk cheese production and quality, due to the use of chlorine. However, further studies will be needed to better understand the complex relationship between chlorine and microbiota along all the cheese production steps.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3168/jds.2020-18208</t>
   </si>
   <si>
+    <t>In this study, high-throughput sequencing (HTS) was used to investigate the microbiota of Robiola di Roccaverano production, an artisanal Protected Designation of Origin soft cheese made with raw goat milk by addition of a natural milk starter (NMS), from the Piedmont region of Italy. Different steps of production of Robiola di Roccaverano cheese at one artisanal dairy were monitored. Matched samples of milk, NMS, curd, and 5-d and 15-d matured cheeses were collected at different periods of the year. The DNA sequences obtained by HTS belonged to 5 phyla: Proteobacteria, Firmicutes, Bacteroidetes, Actinobacteria, and Tenericutes. In milk, Proteobacteria and Firmicutes were mainly found, and several operational taxonomic units (OTU) belonging to contaminant bacteria such as Pseudomonas, Serratia, and Staphylococcus were observed. However, in NMS, curd, and 5- and 15-d cheeses, Firmicutes were principally observed where OTU of Lactococcus lactis were predominant, followed by Leuconostoc mesenteroides OTU. The results of the analysis showed high bacterial diversity in milk samples compared with NMS, curd, and 5- and 15-d cheeses, suggesting strong action of NMS in driving the characteristics of the final products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.541972</t>
   </si>
   <si>
+    <t>Ground beef can be a reservoir for a variety of bacteria, including spoilage organisms, and pathogenic foodborne bacteria. These bacteria can exhibit antimicrobial resistance (AMR) which is a public health concern if resistance in pathogens leads to treatment failure in humans. Culture-dependent techniques are commonly used to study individual bacterial species, but these techniques are unable to describe the whole community of microbial species (microbiome) and the profile of AMR genes they carry (resistome), which is critical for getting a holistic perspective of AMR. The objective of this study was to characterize the microbiome and resistome of retail ground beef products labeled as coming from conventional or raised without antibiotics (RWA) production systems. Sixteen ground beef products were purchased from 6 retail grocery outlets in Fort Collins, CO, half of which were labeled as produced from cattle raised conventionally and half of products were from RWA production. Total DNA was extracted and isolated from each sample and subjected to 16S rRNA amplicon sequencing for microbiome characterization and target-enriched shotgun sequencing to characterize the resistome. Differences in the microbiome and resistome of RWA and conventional ground beef were analyzed using the R programming software. Our results suggest that the resistome and microbiome of retail ground beef products with RWA packaging labels do not differ from products that do not carry claims regarding antimicrobial drug exposures during cattle production. The resistome predominantly consisted of tetracycline resistance making up more than 90% of reads mapped to resistance gene accessions in our samples. Firmicutes and Proteobacteria predominated in the microbiome of all samples (69.6% and 29.0%, respectively), but Proteobacteria composed a higher proportion in ground beef from conventionally raised cattle. In addition, our results suggest that product management, such as packaging type, could exert a stronger influence on the microbiome than the resistome in consumer-ready products. Metagenomic analyses of ground beef is a promising tool to investigate community-wide shifts in retail ground beef. Importantly, however, results from metagenomic sequencing must be carefully considered in parallel with traditional methods to better characterize the risk of AMR in retail products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/s41522-020-0136-z</t>
   </si>
   <si>
+    <t>Microbial food spoilage is responsible for a considerable amount of waste and can cause food-borne diseases in humans, particularly in immunocompromised individuals and children. Therefore, preventing microbial food spoilage is a major concern for health authorities, regulators, consumers, and the food industry. However, the contamination of food products is difficult to control because there are several potential sources during production, processing, storage, distribution, and consumption, where microorganisms come in contact with the product. Here, we use high-throughput full-length 16S rRNA gene sequencing to provide insights into bacterial community structure throughout a pork-processing plant. Specifically, we investigated what proportion of bacteria on meat are presumptively not animal-associated and are therefore transferred during cutting via personnel, equipment, machines, or the slaughter environment. We then created a facility-specific transmission map of bacterial flow, which predicted previously unknown sources of bacterial contamination. This allowed us to pinpoint specific taxa to particular environmental sources and provide the facility with essential information for targeted disinfection. For example, Moraxella spp., a prominent meat spoilage organism, which was one of the most abundant amplicon sequence variants (ASVs) detected on the meat, was most likely transferred from the gloves of employees, a railing at the classification step, and the polishing tunnel whips. Our results suggest that high-throughput full-length 16S rRNA gene sequencing has great potential in food monitoring applications.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2020.103648</t>
   </si>
   <si>
+    <t>Shelf life of red meat is influenced by a number of intrinsic and extrinsic factors making its prediction challenging. Here we investigated the influence of geographically distant abattoir facilities and storage temperature relevant to commercial supply chain on the shelf lives of vacuum packaged (VP) beef and lamb meat. Samples of VP beef and lamb were analysed for surface pH, total viable counts, lactic acid bacterial counts, sensory properties, and associated bacterial community using Illumina MiSeq based 16S rRNA gene amplicon sequencing over a period of &gt;200 days. The consistent 0.41 pH unit difference between beef and lamb was found to have a profound effect on bacterial community diversity and composition, bacterial growth rates and the rate of loss of sensory quality. Though different community structures were derived from different abattoir source, bacterial growth rate and rate of sensory quality deterioration were found to be comparable for individual meat type. The greatest variation in rates was found resulting from storage temperature and livestock species themselves. Our findings indicate that bacterial growth and sensory quality loss are essentially predictable when considering their temperature dependency, however for successful meat export validation of shelf life predictive models is required due to stochastic variation in abattoir seeded bacterial populations.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2020.109586</t>
   </si>
   <si>
+    <t>Residual microorganisms in dairy products are closely related to their quality deterioration and safety. Based on the minimum sterilization conditions required by Grade A Pasteurized Milk Ordinance, this study explored the microbiota present in milk products that were high temperature short time pasteurized at 72, 75, 80, 83, or 85 °C for 15 s, 20 s, and 30 s separately. Based on high-throughput sequencing results, 6 phyla and 18 genera were identified as dominant microbiota. Proteobacteria and Firmicutes were the maior bacteria in phyla, and each comprising more than 50%. Pseudomonas was account for more than 42% of all the genera detected in all samples. Moreover, the changes in flavor substances in pasteurized milk, including 16 free amino acids, 9 fatty acids, and 17 volatile compounds, were detected using principal component and multi factor analyses. The Pearson correlation coefficient analysis identified six bacteria genera as the core functional microbiota that significantly affected the flavor compounds and the safety and quality of pasteurized milk. Interestingly, Pseudomonas, Omithimimicrobium, Cyanobacteria and Corynebacterium had positive correlations with the flavor substances, whereas Streptococcus and Paeniclostridium had significant negative correlations with these substances. The results may help enhance the quality control of dairy products and can be used as indicators of microbial contamination of pasteurized dairy products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2020.109684</t>
   </si>
   <si>
+    <t>Donkey milk has received increasing attention from consumers and dairy industry because of its nutritional value, health benefits, and proximity to human milk. Microbial diversity in donkey milk has a great impact on its quality and safety, however, microbiota in donkey milk from the major donkey-breeding regions of China have not been well documented. In this study, bacterial communities in donkey milk from Yopurga County in Western China (XJ), and Dong’e County in Eastern China (SD) were determined using high-throughput sequencing. Major phyla identified in the two donkey milk groups consistently included Acinetobacter, Proteobacteria, Firmicutes, and Bacteroidetes but with very different abundance for each phylum. Prevelence of genera was found to be diverse between the two groups, with Macrococcus and Acinetobacter dominating in the XJ samples while Streptococcus, Pseudoclavibacter, and Pseudomonas being the most abundant ones in the XJ samples. Alpha diversity analysis showed that there was significant difference in richness between the two sample groups but no difference in bacterial community diversity or coverage. The presence of possible harmful bacteria and lactic acid bacteria in donkey milk in this study provides the microbial profiles of pathogens and spoilage bacteria that need to be controlled and proposes possible utilization of beneficial microbial resources for the future.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2020.109426</t>
   </si>
   <si>
+    <t>Traceability, quality and safety of edible insects are important both for the producers and the consumers. Today, alongside the burst of edible insects in western countries, we are facing a gap of knowledge of insect microbiota associated with the microbial ecosystems of insect-based products. In this context, High-Throughput DNA Sequencing (HTS) techniques can give insight into the carryover of insect microbiota into final food products. In this study, we investigated the microbiota composition of insect-based commercial food products, applying HTS techniques coupled with bioinformatic analysis. The work aimed to analyse the microbiota variability of different categories of some insect-based commercial food products made of A. domesticus (house cricket), T. molitor (mealworm beetle), and A. diaperinus (lesser mealworm or litter beetle), including commercial raw materials and processed food items, purchased via e-commerce from different companies. Our data revealed that samples cluster per insect species based on microbiota profile and preliminary results suggested that a small number of prevalent bacteria formed a “core microbiota” characterizing the products depending on the insect. This microbial signature can be recognized despite the different food processing levels, rearing conditions and selling companies. Furthermore, differences between raw and processed food made of the same insect or similar product produced by different companies was found. These results support the application of HTS analysis for studying the composition of insect-based commercial food products in a wider perspective, for food traceability and food quality control.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.592060</t>
   </si>
   <si>
+    <t>Cheese maturation and flavor development results from complex interactions between milk substrates, cheese microbiota and their metabolites. In this study, bacterial 16S rRNA-gene sequencing, untargeted metabolomics (gas chromatography-mass spectrometry) and data integration analyses were used to characterize and differentiate commercial Cheddar cheeses of varying maturity made by the same and different manufacturers. Microbiota and metabolite compositions varied between cheeses of different ages and brands, and could be used to distinguish the cheeses. Individual amino acids and carboxylic acids were positively correlated with the ripening age for some brands. Integration and Random Forest analyses revealed numerous associations between specific bacteria and metabolites including a previously undescribed positive correlation between Thermus and phenylalanine and a negative correlation between Streptococcus and cholesterol. Together these results suggest that multi-omics analyses has the potential to be used for better understanding the relationships between cheese microbiota and metabolites during ripening and for discovering biomarkers for validating cheese age and brand authenticity.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2020.109369</t>
   </si>
   <si>
+    <t>Kefir is a well-known health-promoting beverage that can be produced by using kefir grains (traditional method) or by using natural starter cultures from kefir (backslopping method). The aim of this study was to elucidate the microbial dynamics and volatilome profile occurring during kefir production through traditional and backslopping methods by using five kefir grains that were collected in Bosnia and Herzegovina. The results from conventional pour plating techniques and amplicon-based sequencing were combined. The kefir drinks have also been characterized in terms of their physico-chemical and colorimetric parameters. A bacterial shift from Lactobacillus kefiranofaciens to Acetobacter syzygii, Lactococcus lactis and Leuconostoc pseudomesenteroides from kefir grains in traditional kefir to backslopped kefir was generally observed. Despite some differences within samples, the dominant mycobiota of backslopped kefir samples remained quite similar to that of the kefir grain samples. However, unlike the lactic acid and acetic acid bacteria, the yeast counts decreased progressively from the grains to the backslopped kefir. The backslopped kefir samples showed higher protein, lactose and ash content and lower ethanol content compared to traditional kefir samples, coupled with optimal pH values that contribute to a pleasant sensory profile. Concerning the volatilome, backslopped kefir samples were correlated with cheesy, buttery, floral and fermented odors, whereas the traditional kefir samples were correlated with alcoholic, fruity, fatty and acid odors. Overall, the data obtained in the present study provided evidence that different kefir production methods (traditional vs backslopping) affect the quality characteristics of the final product. Hence, the functional traits of backslopped kefir should be further investigated in order to verify the suitability of a potential scale-up methodology for backslopping.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2020.109645</t>
   </si>
   <si>
+    <t>The purpose of this work was to assess the effect of different packaging methods on the shelf life and bacterial communities of roast duck meat. Samples were packaged under the following five conditions: overwrapped packaging (OWP), 100% N2 (100% N2-MAP), 30% CO2/70% N2 (30% CO2-MAP), 50% CO2/50% N2 (50% CO2-MAP), and 0.4% CO/30% CO2/69.6% N2 (CO-MAP). Physicochemical and microbiological parameters were monitored during 14 days of chilled storage (0–4 °C). Results showed that MAP samples obtained higher and more stable redness, better sensory scores, and lower lipid oxidation, compared with OWP, in which CO-MAP samples had the lowest TBARS values (0.13–0.22 MDA/kg) during storage. Moreover, 30% CO2-MAP, 50% CO2-MAP, and CO-MAP effectively retarded the onset of bacterial spoilage and extended shelf life by 7 days compared with 100% N2-MAP and OWP treatments. Additionally, bacterial succession was significantly affected by the gas composition used in the packages, especially the dominant biota at the end of storage, which played an important role in the spoilage of roast duck meat under specific packaging. On day 14, Pseudoalteromonas spp., Lactobacillus spp., and Pseudomonas spp. became the most predominate genera in OWP, 100% N2-MAP, and 50% CO2-MAP, respectively. Notably, Vibrio spp. was dominant in both 30% CO2-MAP and CO-MAP, indicating 0.4% CO did not exert a further inhibitory effect on this genus. Additionally, the growth inhibition of Pseudoalteromonas spp., Lactobacillus spp., and Leuconostoc spp. by high CO2 concentration might be the reason for MAP (CO2/N2) samples having lower levels of TVC. Globally, these results indicate that 30% CO2-MAP, 50% CO2-MAP, and CO-MAP are promising packaging methods to improve roast duck meat quality and achieve shelf life extension.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109059</t>
   </si>
   <si>
+    <t>The microbial community of ungerminated and germinated barley grains from three different cultivars grown at four different locations in Norway was investigated by culture dependent and culture independent methods. Lactic acid bacteria (LAB) was focused in this study and was isolated from germinated barley. The number of LAB ranged between 2.8 and 4.6 log cfu/g in ungerminated grains and between 4.9 and 6.3 log cfu/g in germinated grains. In total 66 out of 190 isolates were Gram+, catalase-negative and presumptive LAB. The LAB isolates were by 16S rRNA sequencing identified to be Carnobacterium maltaromaticum (6), Lactococcus lactis (2), Enterococcus sp. (1) and Leuconostoc sp. (57). Germination significantly influenced the bacterial composition. Regarding the different cultivars and growth places no significant difference in bacterial composition was seen. The most abundant bacterial genus was Pantoea (18.5% of the total sequences), followed by Rhizobium (10.1%) and Sphingomonas (9.9%). Fungal composition was significantly influenced by the germination process and the cultivation place, but no significant difference in fungal composition was detected between the 3 cultivars. The most abundant fungal genera were Cryptococcus (43.8% of all the sequences), Cladosporium (8.2%), Pyrenophora (7.4%) and Vagicola (6.3%). This study revealed knowledge of barley grain associated microbes of Norwegian barley that can be useful to control the malt quality. Germination affected both bacterial and fungal microbiota composition. No difference in bacterial microbiota composition was seen regarding cultivars and cultivation place, however, the fungal microbiota composition was significantly influenced by the cultivation place. Differences in fungal community of ungerminated and germinated barley samples of different geographical locations were more pronounced than differences in bacterial communities.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2020.103658</t>
   </si>
   <si>
+    <t>We analysed the bacterial and yeast microbiomes found in mixed and spontaneously fermented beers (n = 14) and unpasteurised apple ciders (n = 6), using high-throughput 16S rRNA and internal transcribed spacer (ITS) sequencing. The ratio of bacteria to yeast was measured using quantitative polymerase chain reaction (qPCR), and short-chain organic acids were analysed using high-performance liquid chromatography (HPLC). An upgraded version of the Knomics-Biota system was used to analyse the data. The microbiomes included both starter microorganisms and those that originate from the production environment and the raw materials. In addition to the common Saccharomyces and Brettanomyces, the yeast diversity included many non-conventional species. The bacterial community in beer was dominated by Lactobacillus species, whereas these communities were more diverse in cider. Lactobacillus acetotolerans was prevalent in wild ales, whereas Candida ethanolica was prevalent in cask-matured beverages. We observed complex patterns of subspecies-level yeast diversity across beer styles, breweries, and countries. Our study represents an exploratory analysis of non-conventional beer and cider microbiomes and metabolomes, which contributes information necessary to develop improved quality control processes and may drive innovative product development in experimental and artisanal brewing.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.micres.2020.126593</t>
   </si>
   <si>
+    <t>The biggest non-tree perennial plant species endemic to Mexico were called metl in the Nahua culture; during colonial times, renamed with the Antillean word maguey. Carl von Linné finally renamed them as Agave, a Greek-Latin root word meaning admirable. Since pre-Columbian times, one of the major products obtained from some Agave species is the fermented beverage called pulque or octli. This beverage represents an ancient biotechnological development obtained by the natural fermentation of mead from such plants. Pulque played a central role in Mexican pre-Columbian cultures, while in recent times, there has been a renewed interest in it, due to its high content in nutrients and probiotics. In this study, we used massive sequencing of the 16S rRNA gene and the ribosomal internal transcribed spacer (ITS) to profile the pulque microbiome. We identified 2,855 bacteria operational taxonomic units (OTUs) and 1,494 fungi species in the pulque fermentation. Our results provide the most diverse catalog of microbes during pulque production reported so far. These findings allowed us to identify previously unidentified and core microbes resilient during pulque production, with the potential to be used as fermentation stage biomarkers. We confirmed previous reports of pulque microbes and discovered new ones like the bacteria Sphingomonas and Weisella. Among fungi we found that Saccharomyces cerevisiae was second to Candida zemplina in the studied pulque samples.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2020.602404</t>
   </si>
   <si>
+    <t>The relationship between microbiota and health has been widely reported in humans and animals. We established a link between teat cistern microbiota composition and bovine mastitis, an inflammatory disease often due to bacterial infections. To further decipher the relationships between teat cistern microbiota and immune and microbial responses, a switch from twice- to once-daily milking (ODM) in 31 initially healthy quarters of dairy cows was used to trigger an udder perturbation. In this study, a temporal relationship was reported between initial teat cistern microbiota composition and richness, the immune response to ODM, and mastitis development. Quarters with a low initial microbiota richness and taxonomic markers such as Bacteroidetes and Proteobacteria were associated with a higher rate of mastitis during ODM. Quarters with a higher richness and taxonomic markers such as Firmicutes, including the Lachnospiraceae family, and genera such as Bifidobacterium and Corynebacterium displayed early inflammation following transition to ODM but without developing mastitis (no infection). Short-term compositional shifts of microbiota indicates that microbiotas with a higher initial richness were more strongly altered by transition to ODM, with notably the disappearance of rare OTUs. Microbiota modifications were associated with an early innate immune system stimulation, which, in turn, may have contributed to the prevention of mastitis development.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3168/jds.2020-18277</t>
   </si>
   <si>
+    <t>There is a need for standardized, efficient, and practical sampling methods to support large population-based studies of the internal and external epithelial microbiomes of the bovine udder. The primary objective of this study was to evaluate different sampling devices for the isolation of microbial DNA originating from the internal and external teat epithelium. Secondary objectives were to survey and compare the microbial diversity of external and teat canal epithelial microbiomes using amplicon and shotgun metagenomic sequencing approaches. To address these objectives, we enrolled a convenience sample of 24 Holstein dairy cows and collected samples from the external epithelium at the base of udder, the external teat barrel epithelium, the external teat apex epithelium, and the teat canal epithelium. Extracted DNA was quantified and subjected to PCR amplification of the V4 hypervariable region of the 16S rRNA gene and sequenced on the Illumina MiSeq platform (Illumina Inc., San Diego, CA). A subset of samples was subjected to a shallow shotgun metagenomic assay on the Illumina HiSeq platform. For samples collected from the external teat epithelium, we found that gauze squares consistently yielded more DNA than swabs, and Simpson's reciprocal index of diversity was higher for gauze than for swabs. The teat canal epithelial samples exhibited significantly lower diversity than the external sampling locations, but there were no significant differences in diversity between teat apex, teat barrel, and base of the udder samples. There were, however, differences in the microbial distribution and abundances of specific bacteria across external epithelial surfaces. The proportion of shotgun sequence reads classified as Bos taurus was highly variable between sampling locations, ranging from 0.33% in teat apex samples to 99.91% in teat canal samples. These results indicate that gauze squares should be considered for studying the microbiome of the external epithelium of the bovine udder, particularly if DNA yield must be maximized. Further, the relative proportion of host to non-host DNA present in samples collected from the internal and external teat epithelium should be considered when designing studies that utilize shotgun metagenomic sequencing.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109130</t>
   </si>
   <si>
+    <t>Pélardon is an artisanal French raw goat's milk cheese, produced using natural whey as a backslop. The aim of this study was to identify key microbial players involved in the acidification and aroma production of this Protected Designation of Origin cheese. Microbial diversity of samples, collected from the raw milk to 3-month cheese ripening, was determined by culture-dependent (MALDI-TOF analysis of 2877 isolates) and -independent (ITS2 and 16S metabarcoding) approaches and linked to changes in biochemical profiles (volatile compounds and acids). In parallel, potential dominant autochthonous microorganism reservoirs were also investigated by sampling the cheese-factory environment. Complex and increasing microbial diversity was observed by both approaches during ripening although major discrepancies were observed regarding Lactococcus lactis and Lacticaseibacillus paracasei fate. By correlating microbial shifts to biochemical changes, Lactococcus lactis was identified as the main acidifying bacterium, while L. mesenteroides and Geotrichum candidum were prevalent and associated with amino acids catabolism after the acidification step. The three species were dominant in the whey (backslop). In contrast, L. paracasei, Enterococcus faecalis, Penicillium commune and Scopulariopsis brevicaulis, which dominated during ripening, likely originated from the cheese-making environment. All these four species were positively correlated to major volatile compounds responsible for the goaty and earthy Pélardon cheese aroma. Overall, this work highlighted the power of MALDI-TOF and molecular techniques combined with volatilome analyses to dynamically follow and identify microbial communities during cheese-making and successively identify the key-players involved in aroma production and contributing to the typicity of Pélardon cheese.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2020.109030</t>
   </si>
   <si>
+    <t>Currently, there is a strong interest in barrel ageing of finished, conventionally fermented beers, as a novel way to produce sour beers with a rich and complex flavour profile. The production process, however, remains largely a process of trial and error, often resulting in profit losses and inconsistency in quality. To improve product quality and consistency, a better understanding of the interactions between microorganisms, wood and maturing beer is needed. The aim of this study was to describe the temporal dynamics in microbial community composition, beer chemistry and sensory characteristics during barrel ageing of three conventionally fermented beers that differed in parameters like alcohol content and bitterness. Beers were matured for 38 weeks in new (two types of wood) and used (one type of wood) oak barrels. Beer samples were taken at the start of the maturation and after 2, 12 and 38 weeks. Microbial community composition, determined using amplicon sequencing of the V4 region of the bacterial 16S rRNA gene and the fungal ITS1 region, beer chemistry and sensory characteristics substantially changed throughout the maturation process. Likewise, total bacterial and fungal population densities generally increased during maturation. PerMANOVA revealed significant differences in the bacterial and fungal community composition of the three beers and across time points, but not between the different wood types. By contrast, significant differences in beer chemistry were found across the different beers, wood types and sampling points. Results also indicated that the outcome of the maturation process likely depends on the initial beer properties. Specifically, results suggested that beer bitterness may restrain the bacterial community composition, thereby having an impact on beer souring. While the bacterial community composition of moderately-hopped beers shifted to a dominance of lactic acid bacteria, the bacterial community of the high-bitterness beer remained fairly constant, with low population densities. Bacterial community composition of the moderate-bitterness beers also resembled those of traditional sours like lambic beers, hosting typical lambic brewing species like Pediococcus damnosus, Lactobacillus brevis and Acetobacter sp. Furthermore, results suggested that alcohol level may have affected the fungal community composition and extraction of wood compounds. More specifically, the concentration of wood compounds like cis-3-methyl-4-octanolide, trans-3-methyl-4-octanolide, eugenol and total polyphenols was higher in beers with a high alcohol content. Altogether, our results provide novel insights into the barrel ageing process of beer, and may pave the way for a new generation of sour beers.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.meatsci.2020.108348</t>
   </si>
   <si>
+    <t>A high-throughput sequencing approach was used to investigate the bacterial community diversity of traditional Tibetan yak jerky, which was collected from three different regions in Tibet and with different natural drying times. Tibetan yak jerky from different regions had different bacterial communities, which was mainly reflected in the relative abundance levels of unclassified Cyanobacteria, Psychrobacter and Acinetobacter. The unclassified Cyanobacteria was the dominant genus of Qamdo yak jerky, Acinetobacter was the dominant genus of Shigatse yak jerky, and Psychrobacteria was the dominant genus of Nyingchi yak jerky. With increasing natural drying time, the diversity of bacterial communities in yak jerky decreased, and unclassified Cyanobacteria become the dominant genus. Spearman's correlation analysis and canonical correspondence analysis revealed that physicochemical factors (moisture content, water activity, shear force and pH) were significantly correlated with bacterial community. Our results will be beneficial to improve and standardize the safety and quality of traditional Tibetan yak jerky.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/aem.01861-20</t>
   </si>
   <si>
+    <t>Microbial complexity and contamination levels in food processing plants heavily impact the final product fate and are mainly controlled by proper environmental cleaning and sanitizing. Among the emerging disinfection technologies, ozonation is considered an effective strategy to improve the ordinary cleaning and sanitizing of slaughterhouses. However, its effects on contamination levels and environmental microbiota still need to be understood. For this purpose, we monitored the changes in microbiota composition in different slaughterhouse environments during the phases of cleaning/sanitizing and ozonation at 40, 20, or 4 ppm. Overall, the meat processing plant microbiota differed significantly between secondary processing rooms and deboning rooms, with a greater presence of psychrotrophic taxa in secondary processing rooms because of their lower temperatures. Cleaning/sanitizing procedures significantly reduced the contamination levels and in parallel increased the number of detectable operational taxonomic units (OTUs), by removing the masking effect of the most abundant human/animal-derived OTUs, which belonged to the phylum Firmicutes. Subsequently, ozonation at 40 or 20 ppm effectively decreased the remaining viable bacterial populations. However, we could observe selective ozone-mediated inactivation of psychrotrophic bacteria only in the secondary processing rooms. There, the Brochothrix and Pseudomonas abundances and their viable counts were significantly affected by 40 or 20 ppm of ozone, while more ubiquitous genera like Staphylococcus showed a remarkable resistance to the same treatments. This study showed the effectiveness of highly concentrated gaseous ozone as an adjunct sanitizing method that can minimize cross-contamination and so extend the meat shelf life. IMPORTANCE Our in situ survey demonstrates that RNA-based sequencing of 16S rRNA amplicons is a reliable approach to qualitatively probe, at high taxonomic resolution, the changes triggered by new and existing cleaning/sanitizing strategies in the environmental microbiota in human-built environments. This approach could soon represent a fast tool to clearly define which routine sanitizing interventions are more suitable for a specific food processing environment, thus limiting the costs of special cleaning interventions and potential product loss.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/s41598-020-77054-6</t>
   </si>
   <si>
+    <t>The importance of the microbiome for bovine udder health is not well explored and most of the knowledge originates from research on mastitis. Better understanding of the microbial diversity inside the healthy udder of lactating cows might help to reduce mastitis, use of antibiotics and improve animal welfare. In this study, we investigated the microbial diversity of over 400 quarter milk samples from 60 cows sampled from two farms and on two different occasions during the same lactation period. Microbiota analysis was performed using amplicon sequencing of the 16S rRNA gene and over 1000 isolates were identified using MALDI-TOF MS. We detected a high abundance of two bacterial families, Corynebacteriaceae and Staphylococcaceae, which accounted for almost 50% of the udder microbiota of healthy cows and were detected in all the cow udders and in more than 98% of quarter milk samples. A strong negative correlation between these bacterial families was detected indicating a possible competition. The overall composition of the udder microbiota was highly diverse and significantly different between cows and between quarter milk samples from the same cow. Furthermore, we introduced a novel definition of a dysbiotic quarter at individual cow level, by analyzing the milk microbiota, and a high frequency of dysbiotic quarter samples were detected distributed among the farms and the samples. These results emphasize the importance of deepening the studies of the bovine udder microbiome to elucidate its role in udder health.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.616429</t>
   </si>
   <si>
+    <t>Introduction of microbial contaminations in the dairy value chain starts at the farm level and the initial microbial composition may severely affect the production of high-quality dairy products. Therefore, understanding the farm-to-farm variation and longitudinal shifts in the composition of the bulk tank milk microbiota is fundamental to increase the quality and reduce the spoilage and waste of milk and dairy products. In this study, we performed a double experiment to study long- and short-term longitudinal shifts in microbial composition using 16S rRNA gene amplicon sequencing. We analyzed milk from 37 farms, that had also been investigated two years earlier, to understand the stability and overall microbial changes over a longer time span. In addition, we sampled bulk tank milk from five farms every 1–2 weeks for up to 7 months to observe short-term changes in microbial composition. We demonstrated that a persistent and farm-specific microbiota is found in bulk tank milk and that changes in composition within the same farm are mostly driven by bacterial genera associated with mastitis (e.g., Staphylococcus and Streptococcus). On a long-term, we detected that major shift in milk microbiota were not correlated with farm settings, such as milking system, number of cows and quality of the milk but other factors, such as weather and feeding, may have had a greater impact on the main shifts in composition of the bulk tank milk microbiota. Our results provide new information regarding the ecology of raw milk microbiota at the farm level.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.lwt.2021.110877</t>
   </si>
   <si>
+    <t>Shubat (fermented camel milk beverage) and Ayran (yogurt) are popular traditional fermented milk products in Kazakhstan. However, the natural microbial diversity in these fermented dairy products is not well studied. In this study, we paired high-throughput sequencing with the traditional culture-dependent method to evaluate the bacterial diversity in these two fermented milk products. A total of 137 operational taxonomic units were obtained from Shubat and Ayran samples, by using 16S rRNA gene sequencing. The three most abundant operational taxonomic units were of the Lactobacillus and Streptococcus genera. In the 55 bacterial strains isolated through the culture-dependent method, the dominant species belonged to Leuconostoc and Enterococcusgenera. Moreover, probiotic properties, such as acid tolerance, bile salt tolerance, and antibiotic resistance of 26 selected lactic acid bacteria were also tested. Eight strains showed excellent survival rates under acidic pH or bile salt stress and were susceptible to the antibiotics used in the experiment. This is the first systematic study to identify the indigenous strains and natural bacterial diversity in Shubat and Ayran. We expect our results to facilitate the commercial production and quality control of these milk products.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.642789</t>
   </si>
   <si>
+    <t>Unpasteurized milk is used to produce aged artisanal cheeses, which presents a safety concern due to possible contamination with foodborne pathogens, especially Listeria monocytogenes. The objective of this study was to examine the composition of the bacterial community in unpasteurized milk used to prepare Gouda cheese artificially contaminated with L. monocytogenes (~1 log CFU/ml) and assess the community dynamics and their potential interaction with L. monocytogenes during a 90-day ripening period using targeted 16S rRNA sequencing. The diversity of bacterial taxa in three batches of unpasteurized milk was not significantly different, and the microbiomes were dominated by species of Lactococcus, Streptomyces, Staphylococcus, and Pseudomonas. The highest relative abundances were observed for Pseudomonas fluorescens (31.84–78.80%) and unidentified operational taxonomic units (OTUs) of Pseudomonas (7.56–45.27%). After manufacture, both with and without L. monocytogenes-contaminated unpasteurized milk, Gouda cheese was dominated by starter culture bacteria (including Lactococcus lactis subsp. cremoris, lactis, lactis bv. diacetylactis, and Streptococcus thermophilus), in addition to unassigned members in the taxa L. lactis and Streptococcus. During ripening there was an overall decrease in L. lactis abundance and an increase in the number of taxa with relative abundances &gt;0.1%. After 90-day ripening, a total of 82 and 81 taxa were identified in the Gouda cheese with and without L. monocytogenes, respectively. Of the identified taxa after ripening, 31 (Gouda cheese with L. monocytogenes) and 56 (Gouda cheese without L. monocytogenes) taxa had relative abundances &gt;0.1%; 31 were shared between the two types of Gouda cheese, and 25 were unique to the Gouda cheese without added L. monocytogenes. No unique taxa were identified in the Gouda cheese with the added L. monocytogenes. This study provides information on the dynamics of the bacterial community in Gouda cheese during ripening, both with and without the addition of L. monocytogenes.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/s41598-021-81105-x</t>
   </si>
   <si>
+    <t>The microbial community during fermented vegetable production has a large impact on the quality of the final products. Lactic acid bacteria have been well-studied in such processes, but knowledge about the roles of non-lactic acid bacteria is limited. This study aimed to provide useful knowledge about the relationships between the microbiota, including non-lactic acid bacteria, and metabolites in commercial pickle production by investigating Japanese pickles fermented in rice-bran. The samples were provided by six manufacturers, divided into two groups depending on the production conditions. The microbiological content of these samples was investigated by high-throughput sequencing, and metabolites were assessed by liquid chromatography-mass spectrometry and enzymatic assay. The data suggest that Halomonas, halophilic Gram-negative bacteria, can increase glutamic acid content during the pickling process under selective conditions for bacterial growth. In contrast, in less selective conditions, the microbiota consumed glutamic acid. Our results indicate that the glutamic acid content in fermented pickle is influenced by the microbiota, rather than by externally added glutamic acid. Our data suggest that both lactic acid bacteria and non-lactic acid bacteria are positive key factors in the mechanism of commercial vegetable fermentation and affect the quality of pickles.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.681185</t>
   </si>
   <si>
+    <t>Cheese ripening is effected by various microorganisms and results in the characteristic flavors of cheese. Owing to the complexity of the microbiota involved, the relationship between microorganisms and components during ripening remains unclear. In this study, metagenomics and metabolomics were integrated to reveal these relationships in three kinds of surface mold-ripened cheeses and two kinds of bacterial smear-ripened cheeses. The microbiota is broadly divided into two groups to correspond with different cheese types. Furthermore, surface mold-ripened cheese showed similar microbiota regardless of the cheese variety, whereas bacterial smear-ripened cheese showed specific microbiota characterized by marine bacteria (MB) and halophilic and alkaliphilic lactic acid bacteria for each cheese variety. In the metabolite analysis, volatile compounds suggested differences in cheese types, although organic acids and free amino acids could not determine the cheese characteristics. On the other hand, Spearman correlation analysis revealed that the abundance of specific bacteria was related to the formation of specific organic acids, free amino acids, and volatile compounds. In particular, MB was positively correlated with esters and pyrazines, indicating their contribution to cheese quality. These methodologies and results further our understanding of microorganisms and allow us to select useful strains for cheese ripening.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodcont.2021.108160</t>
   </si>
   <si>
+    <t>Bovine milk is highly nutritious, so it creates an ideal environment for the growth of microorganisms. Contamination of milk with microorganisms contributes to overall bacterial composition and has a great influence on the acidification and deterioration of milk. As dairy production and consumption have increased over the past decade, the microbial composition of milk has gained attention. In Korea, milk and milk products are rapidly gaining popularity, but studies of the bacterial composition in milk from Korean farms are limited. In the present study, we performed metagenomic analysis with high-throughput sequencing of DNA to identify bacteria in raw milk collected from 40 dairy farms in 4 different provinces in Korea: Gyeonggi-do, Chungcheong-do, Jeolla-do, and Gyeongsang-do. Representative milk bacterial communities including Proteobacteria, Firmicutes, Bacteroidetes, and Actinobacteria formed the core milk microbiota at the phylum level, and Pseudomonas was found to have the greatest provincial variation at the genus level. In addition, we determined the prevalence of spore-forming bacteria using two independent methods of culturomic analysis by MALDI-TOF and next generation sequencing of 16S rRNA genes, and Bacillus thermoamylovorans was identified to account for the largest proportion. We further confirmed that B. thermoamylovorans was able to survive in dairy products and potentially toxigenic using lab cheese model study and Caenorhabditis elegans as a simple host model. Our result clearly shows that specific provinces have distinct proportions of bacteria that may cause spoilage, suggesting specified farm environment management practices depending on the region. These findings can help Korean dairy farms produce safe, high-quality dairy products and develop new sanitation procedures as well as processing controls.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.678012</t>
   </si>
   <si>
+    <t>This study focused on the microbial and bacteriophages identification and characterization in cheese-production facilities that use natural whey starter (NWS) cultures for Trentingrana production. Bacterial and phage screening was carried out on cooked not acidified whey and NWS samples isolated from six dairy factories, for 4 consecutive days in four different months. By means of a combined approach, using plate counts, bacterial isolation, and metataxonomic analysis Lactobacillus helveticus was found occurring as the dominant species in NWS cultures and Levilactobacillus brevis as codominant in the cheese factories where the temperature of NWS production was mainly lower than 40°C, suggesting that the variability in the parameters of the NWS culture preparation could differently modulate the bacterial species in NWS cultures. Using turbidity test approach on 303 bacterial isolates from the NWS cultures, 120 distinct phages were identified. L. helveticus phage contamination of NWS cultures was revealed in most of the analyzed samples, but despite the great recovery of bacteriophage contamination cases, the microbial quality of NWS cultures was high. Our results support the presence of natural bacteriophage resistance mechanisms in L. helveticus. The use of NWS cultures probably creates an ideal environment for the proliferation of different L. helveticus strains balanced with their phages without a clear dominance. It is evident, from this study, that the presence of a high biodiversity of NWS bacterial strains is relevant to avoid phages dominance in NWS cultures and consequently to keep a good acidification ability.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3168/jds.2021-20123</t>
   </si>
   <si>
+    <t>Époisses is a protected designation of origin smear-ripened cheese from the Burgundy region in France. It has an orange color and a strong flavor, both of which are generated by surface microorganisms. The objective of the present study was to investigate the microbial dynamics at the surface of Époisses cheese during ripening and postmanufacturing storage at low temperatures. Rind samples were analyzed by enumeration on agar plates and by 16S rRNA gene and internal transcribed spacer amplicon sequencing. During most of the ripening process, the counts of yeasts, which corresponded to the species Debaryomyces hansenii and Geotrichum candidum, were higher than those of the aerobic acid-sensitive bacteria. Debaryomyces hansenii reached a level of about 3 × 108 cfu/cm2, and its viability strongly decreased in the late stage of ripening and during storage at 4°C. Two of the inoculated bacterial species, Brevibacterium aurantiacum and Staphylococcus xylosus, did not establish themselves at the cheese surface. At the end of ripening, among the 18 most abundant bacterial species detected by amplicon sequencing, 14 were gram-negative, mainly from genera Psychrobacter, Vibrio, Halomonas, and Mesonia. It was hypothesized that the high moisture level of the Époisses rinds, due the humid atmosphere of the ripening rooms and to the frequent washings of the curds, favored growth of these gram-negative species. These species may be of interest for the development of efficient ripening cultures. In addition, because the orange color of Époisses cheeses could not be attributed to the growth of Brevibacterium, it would be interesting to investigate the type and origin of the pigments that confer color to this cheese.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1111/1462-2920.15407</t>
   </si>
   <si>
+    <t>Questionnaires on farming conditions were retrieved from 2129 dairy farms and clustered, resulting in 106 representative raw cow's milk samples analysed in winter and summer. Substantiating the efficiency of our survey, some farming conditions affected the milk physicochemical composition. Culturing identified several species of lactic acid bacteria (LAB) per milk, whose number increased through 16S ribosomal RNA (rRNA) gene sequencing and shotgun metagenome analyses. Season, indoor versus outdoor housing, cow numbers, milk substitutes, ratio cattle/rest area, house care system during lactation, and urea and medium-chain fatty acids correlated with the overall microbiome composition and the LAB diversity within it. Shotgun metagenome detected variations in gene numbers and uniqueness per milk. LAB functional pathways differed among milk samples. Focusing on amino acid metabolisms and matching the retrieved annotated genes versus non-starter lactic acid bacteria (NSLAB) references from KEGG and corresponding to those identified, all samples had the same gene spectrum for each pathway. Conversely, gene redundancy varied among samples and agreed with NSLAB diversity. Milk samples with higher numbers of NSLAB species harboured higher number of copies per pathway, which would enable steady-state towards perturbations. Some farming conditions, which affected the microbiome richness, also correlated with the NSLAB composition and functionality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2021.103754</t>
   </si>
   <si>
+    <t>The microbial composition of the food production environment plays an important role in food safety and quality. This study employed both 16 S rRNA gene sequencing technology and culture-based techniques to investigate the bacterial microbiota of an egg production facility comprising of both free-range and conventional cage housing systems. The study also aimed to detect the presence of Salmonella enterica and determine whether its presence was positively or negatively associated with other taxa. Our findings revealed that microbiota profiles of free-range and cage houses differ considerably in relation to the relative abundance and diversity with a number of taxa unique to each system and to individual sampling sites within sheds. Core to each housing system were known inhabitants of the poultry gastrointestinal tracts, Romboutsia and Turicibacter, as well as common spoilage bacteria. Generally, free-range samples contained fewer taxa and were dominated by Staphylococcus equorum, differentiating them from the cage samples. Salmonella enterica was significantly associated with the presence of a taxa belonging to the Carnobacteriaceae family. The results of this study demonstrate that the diversity and composition of the microbiota is highly variable across egg layer housing systems, which could have implications for productivity, food safety and spoilage.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.689520</t>
   </si>
   <si>
+    <t>Oysters are one of the main aquatic products sold in coastal areas worldwide and are popular among consumers because of their delicious taste and nutritional value. However, the microorganisms present in oysters may pose health risks to consumers. In this study, the microbial communities of Pacific oysters (Crassostrea gigas) collected from aquatic product markets in three cities (Guangzhou, Zhuhai, and Jiangmen) of Guangdong Province, China, where raw oysters are popular, were investigated. The plate counts of viable bacteria in oysters collected in the three cities were all approximately 2 log colony-forming units/g. High-throughput sequencing analysis of the V3–V4 region of the 16Sribosomal DNA gene showed a high level of microbial diversity in oysters, as evidenced by both alpha and beta diversity analysis. Proteobacteria, Bacteroidetes, and Firmicutes were the dominant phyla of the microorganisms present in these samples. A variety of pathogenic bacteria, including the fatal foodborne pathogen Vibrio vulnificus, were found, and Vibrio was the dominant genus. Additionally, the relationship between other microbial species and pathogenic microorganisms may be mostly symbiotic in oysters. These data provide insights into the microbial communities of retail oysters in the Guangdong region and indicate a considerable risk related to the consumption of raw oysters.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.621069</t>
   </si>
   <si>
+    <t>Kefir is a high nutritional fermented dairy beverage associated with a wide range of health benefits. It constitutes a unique symbiotic association, comprising mainly lactic acid bacteria, yeasts, and occasionally acetic acid bacteria, which is strongly influenced by the geographical origin of the grains, the type of milk used, and the manufacture technology applied. Until recently, kefir microbiota has been almost exclusively studied by culture-dependent techniques. However, high-throughput sequencing, alongside omics approaches, has revolutionized the study of food microbial communities. In the present study, the bacterial, and yeast/fungal microbiota of four home-made samples (both grains and drinks), deriving from well spread geographical regions of Greece, and four industrial beverages, was elucidated by culture-dependent and -independent analyses. In all samples, classical microbiological analysis revealed varying populations of LAB and yeasts, ranging from 5.32 to 9.60 log CFU mL–1 or g–1, and 2.49 to 7.80 log CFU mL–1 or g–1, respectively, while in two industrial samples no yeasts were detected. Listeria monocytogenes, Salmonella spp. and Staphylococcus spp. were absent from all the samples analyzed, whereas Enterobacteriaceae were detected in one of them. From a total of 123 isolates, including 91 bacteria and 32 yeasts, Lentilactobacillus kefiri, Leuconostoc mesenteroides, and Lactococcus lactis as well as Kluvyeromyces marxianus and Saccharomyces cerevisiae were the mostly identified bacterial and yeast species, respectively, in the home-made samples. On the contrary, Streptococcus thermophilus, Lactobacillus delbrueckii subsp. bulgaricus, and Lacticaseibacillus rhamnosus along with Debaryomyces hansenii and K. marxianus were the main bacterial and yeast species, respectively, isolated from the industrial beverages. In agreement with the identification results obtained from the culture-dependent approaches, amplicon-based metagenomics analysis revealed that the most abundant bacterial genera in almost all home-made samples (both grains and drinks) were Lactobacillus and Lactococcus, while Saccharomyces, Kazachstania, and Kluvyeromyces were the predominant yeasts/fungi. On the other hand, Streptococcus, Lactobacillus, and Lactococcus as well as Kluvyeromyces and Debaryomyces dominated the bacterial and yeast/fungal microbiota, respectively, in the industrial beverages. This is the first report on the microbiota of kefir produced in Greece by a holistic approach combining classical microbiological, molecular, and amplicon-based metagenomics analyses.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/microorganisms9030561</t>
   </si>
   <si>
+    <t>Aloreña de Málaga is a table olive especially characterised by its natural freshness and short shelf-life. In this work, we applied a metataxonomic approach to unravel the microbial diversity of bacterial and fungi populations through the shelf-life of traditionally packed Aloreña de Málaga. A significant increase in lactic acid bacteria and mesophilic aerobic populations was observed during shelf-life, reaching the maximum population levels (4–5 log10 CFU) at the end of the study (260 days). On the contrary, a rapid reduction in yeast and mould populations was reported. The use of a metataxonomic analysis based on the amplification of 16S (bacteria) and internal transcribed spacer (ITS) region (fungi) regions revealed a low diversity for both microbial groups. Lactiplantibacillus (65.05 ± 8.65% in brine vs. 58.70 ± 15.70% in fruit), Pediococcus (28.17 ± 7.36% in brine vs. 27.20 ± 15.95% in fruit), and Celerinatantimonas (4.64 ± 1.08% in brine vs. 11.82 ± 18.17% in fruit) were the main genera found among bacteria, and an increase in Lactiplantibacillus and a reduction in Celerinatantimonas populations during the shelf-life were observed. On the other hand, Citeromyces was the dominant fungi genus (54.11 ± 2.00% in brine vs. 50.91 ± 16.14% in fruit), followed by Candida (8.80 ± 2.57% in brine vs. 12.32 ± 8.61% in fruit) and Penicillium (6.48 ± 1.87% vs. 8.48 ± 4.43% in fruit). No food-borne pathogen genera were detected in any of the samples analysed, indicating the high level of food safety found in this ready-to-eat fermented vegetable. Data obtained in this work will help in the design of new strategies for the control of microbial populations during the shelf-life of Aloreña de Málaga.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodcont.2021.108286</t>
   </si>
   <si>
+    <t>Olives are among the main components of the Mediterranean diet, rich in micronutrients and powerful antioxidants; their unique organoleptic properties and high nutritional value have increased table olive consumption worldwide. The purpose of this work was to study the microbiological and biochemical changes in Greek-style ‘Kalamata’ table olives, throughout different time-points of the shelf life of the product, packaged under modified atmosphere. Results revealed the prevalence of lactic acid bacteria (Lactobacillus spp.) from T0 and after the end of the product's shelf life, with L. parafarraginis being the dominant species, ranging from 37.8% to 49.8%. Concerning the eukaryotic populations, antagonistic interactions were observed among the dominant genera i.e. Pichia, Cladosporium and Saccharomyces. While Candida pseudolambica was the most abundant species up to T6, it was gradually displaced by Brettanomyces custersianus at T12 and T18. The significant decrease of total phenol content and a-tocopherol at T12, reflected the increment of Lactobacillus and yeast populations. The dominance of Lactobacillus spp. And B. custersianus at T18 was also depicted on the significant increase of hydroxytyrosol. The content of some fatty acids was shown to be affected by the yeast populations while the concentration of maslinic and oleanolic acid remained intact throughout storage. The combined approach of amplicon metabarcoding and biochemical analyses of naturally fermented olives packaged under modified atmosphere, enabled us to better understand the microbial competitions and interactions and the biochemical changes that accompany these transitions, hence, defining the quality of the end product offered to the consumer.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1007/s00284-021-02367-2</t>
   </si>
   <si>
+    <t>Maize meal was allowed to undergo uncontrolled fermentation in the laboratory, in simulation of the traditional method of fermentation as practised in most African households. During the fermentation process, samples were collected daily for 11 days. Physico-chemical analysis of the fermenting slurry and metagenomics analysis of the microbial community using 16S rRNA demonstrated an interrelationship between the changes in the properties of the fermentation environment and the successional interplay of the microbial community. The first 24 h of fermentation at pH of 6.5 was characterised by the proliferation of probiotic Lactobacillus and Bifidobacterium, with their relative abundance being 40.7% and 29.9%, respectively. However, prolonged fermentation and a drop in pH from 5.3 to 3.7 caused a decline and finally an absence of these probiotic bacteria which were replaced by Clostridium spp. with a relative abundance of between 97% and 99% from day 5 to day 11. This study demonstrated that prolonged fermentation of maize meal is not ideally suited for the proliferation of probiotic nutritionally beneficial bacteria.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.644828</t>
   </si>
   <si>
+    <t>A primary goal of modern cheese manufacturing is consistent product quality. One aspect of product quality that remains poorly understood is the variability of microbial subpopulations due to temporal or facility changes within cheese production environments. Therefore, our aim was to quantify this variability by measuring day-day and facility-facility changes in the cheese facility microbiome. In-process product (i.e., milk and cheese) and food-contact surfaces were sampled over the course of three production days at three cheese manufacturing facilities. Microbial communities were characterized using 16S rRNA metabarcoding and by plating on selective growth media. Each facility produced near-identical Cheddar cheese recipes on near-identical processing equipment during the time of sampling. Each facility also used a common pool of Lactococcus starter cultures which were rotated daily as groups of 4–5 strains and selected independently at each facility. Diversity analysis revealed significant facility-facility and day-day differences at each sample location. Facility differences were greatest on the food contact surfaces (i.e., draining-matting conveyor belts), explaining between 25 and 41% of the variance. Conversely, daily differences within each facility explained a greater proportion of the variance in the milk (20% vs. 12%) and cheese (29% vs. 20%). Further investigation into the sources of these differences revealed the involvement of several industrially relevant bacteria, including lactobacilli, which play a central role in flavor and texture development during Cheddar cheese ripening. Additionally, Streptococcus was found to contribute notably to differences observed in milk samples, whereas Acinetobacter, Streptococcus, Lactococcus, Exiguobacterium, and Enterobacteriaceae contributed notably to differences on the food contact surfaces. Facility differences in the cheese were overwhelmingly attributed to the rotation of Lactococcus starter cultures, thus highlighting circumstances where daily microbial shifts could be misinterpreted and emphasizing the importance of repeated sampling over time. The outcomes of this work highlight the complexity of the cheese facility microbiome and demonstrate daily and facility-facility microbial variations which might impact cheese product quality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109322</t>
   </si>
   <si>
+    <t>During spontaneous meat fermentation, diverse microbial communities develop over time. These communities consist mainly of lactic acid bacteria (LAB) and coagulase-negative staphylococci (CNS), of which the species composition is influenced by the fermentation temperature and the level of acidification. Recent development and application of amplicon-based high-throughput sequencing (HTS) methods have allowed to gain deeper insights into the microbial communities of fermented meats. The aim of the present study was to investigate the effect of different fermentation temperatures and acidification profiles on the CNS communities during spontaneous fermentation, using a previously developed amplicon-based HTS method targeting both the 16S rRNA and tuf genes. Spontaneous fermentations were performed with five different lots of meat to assess inter-lot variability. The process influence was investigated by fermenting the meat batters for seven days at different fermentation temperatures (23 °C, 30 °C, and 37 °C) and in the absence or presence of added glucose to simulate different acidification levels. Additionally, the results were compared with a starter culture-initiated fermentation process. The data revealed that the fermentation temperature was the most influential processing condition in shaping the microbial communities during spontaneous meat fermentation processes, whereas differences in pH were only responsible for minor shifts in the microbial profiles. Furthermore, the CNS communities showed a great level of variability, which depended on the initial microbial communities present and their competitiveness.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.662957</t>
   </si>
   <si>
+    <t>Cyprus traditional sausages from the Troodos mountainous region of Pitsilia gained the protected geographical indication (PGI) designation from the European Committee (EU 2020/C 203/06). Still, we lack authentication protocols for the distinction of “Pitsilia” from industrially produced Cyprus sausages. Microbial activity is an essential contributor to traditional sausages’ sensorial characteristics, but whether the microbial patterns might be associated with the area of production is unclear. In the present research, we applied high-throughput sequencing (HTS) to provide a linkage between the area of production and Cyprus sausages’ bacterial diversity. To strengthen our findings, we used three different DNA extraction commercial kits: (i) the DNeasy PowerFood Microbial Kit (QIAGEN); (ii) the NucleoSpin Food Kit (MACHEREY-NAGEL); and (iii) the blackPREP Food DNA I Kit (Analytik Jena), in which we applied three different microbial cell wall lysis modifications. The modifications included heat treatment, bead beating, and enzymatic treatment. Results regarding metagenomic sequencing were evaluated in terms of number of reads, alpha diversity indexes, and taxonomic composition. The efficacy of each method of DNA isolation was assessed quantitatively based on the extracted DNA yield and the obtained copy number of (a) the 16S rRNA gene, (b) the internal transcribed spacer (ITS) region, and (c) three Gram-positive bacteria that belong to the genera Latilactobacillus (formerly Lactobacillus), Bacillus, and Enterococcus via absolute quantification using qPCR. Compared with some examined industrial sausages, Pitsilia sausages had significantly higher bacterial alpha diversity (Shannon and Simpson indexes). Principal coordinates analysis separated the total bacterial community composition (beta diversity) of the three Pitsilia sausages from the industrial sausages, with the exception of one industrial sausage produced in Pitsilia, according to the manufacturer. Although the eight sausages shared the abundant bacterial taxa based on 16S rDNA HTS, we observed differences associated with bacterial diversity representation and specific genera. The findings indicate that the microbial communities may be used as an additional tool for identifying of the authenticity of Cypriot sausages.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/microorganisms9061223</t>
   </si>
   <si>
+    <t>Although refrigeration and modified-atmosphere packaging (MAP) allow for an extended shelf life of cooked charcuterie products, they are still susceptible to bacterial spoilage. To obtain better insights into factors that govern product deterioration, ample information is needed on the associated microbiota. In this study, sliced MAP cooked ham and cooked chicken samples were subjected to culture-dependent and culture-independent microbial analysis. In total, 683 bacterial isolates were obtained and identified from 60 samples collected throughout the storage period. For both charcuterie types, lactic acid bacteria (LAB) constituted the most abundant microbial group. In cooked ham, Brochothrix thermosphacta was highly abundant at the beginning of the shelf-life period, but was later overtaken by Leuconostoc carnosum and Lactococcus piscium. For cooked chicken products, Latilactobacillus sakei was most abundant throughout the entire period. Additionally, 13 cooked ham and 16 cooked chicken samples were analyzed using metabarcoding. Findings obtained with this method were generally in accordance with the results from the culture-dependent approach, yet they additionally demonstrated the presence of Photobacterium at the beginning of the shelf-life period in both product types. The results indicated that combining culture-dependent methods with metabarcoding can give complementary insights into the evolution of microorganisms in perishable foods.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1007/s00248-021-01709-8</t>
   </si>
   <si>
+    <t>Cantaloupe melons, which have been responsible of an increasing number of foodborne disease outbreaks, may become contaminated with microbial pathogens during production. However, little information is available on the microbial populations in the cantaloupe farm environment. The purpose of this work was to characterize the bacterial communities present on cantaloupe farms. Fruit, soil, and harvester hand rinsates were collected from two Mexican cantaloupe farms, each visited three times. Microbiome analysis was performed by sequencing 16sRNA and analyzed using qiime2 software. Correlations were determined between sample type and microbial populations. The α and β diversity analysis identified 2777 sequences across all samples. The soil samples had the highest number and diversity of unique species (from 130 to 1329 OTUs); cantaloupe (from 112 to 205 OTUs), and hands (from 67 to 151 OTUs) had similar diversity. Collectively, Proteobacteria was the most abundant phyla (from 42 to 95%), followed by Firmicutes (1–47%), Actinobacteria (&lt; 1 to 23%), and Bacteroidetes (&lt; 1 to 4.8%). The most abundant genera were Acinetobacter (20–58%), Pseudomonas (14.5%), Erwinia (13%), and Exiguobacterium (6.3%). Genera with potential to be pathogenic included Bacillus (4%), Salmonella (0.85%), Escherichia-Shigella (0.38%), Staphylococcus (0.32%), Listeria (0.29%), Clostridium (0.28%), and Cronobacter (0.27%), which were found at lower frequencies. This study provides information on the cantaloupe production microbiome, which can inform future research into critical food safety issues such as antimicrobial resistance, virulence, and genomic epidemiology.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1021/acs.jafc.1c01607</t>
   </si>
   <si>
+    <t>Microbiomes can greatly affect the quality of fermented food and beverages, including tea. In this study, microbial populations were characterized during black and green tea manufacturing, revealing that tea processing steps can drive both the bacterial and fungal community structure. Tea leaves were found to mostly harbor Proteobacteria, Bacteriodetes, Firmicutes, and Actinobacteria among bacteria and Ascomycetes among fungi. During processing, tea microbial populations changed especially between sterilized and unsterilized samples. The surface sterilization of fresh leaves before processing can remove many microbes, especially the bacteria of the genera Sphingomonas and Methylobacteria, indicating that these are mostly phylloplane microbes on tea leaves. The surface sterilization removed most fungi, except the Debaryomyces. We also observed a fluctuation in the content of several tea quality-related metabolites during processing. Caffeine and theanine were found in the same quantities in green tea with or without leaf surface sterilization. However, the sterilization process dramatically decreased the content of total catechins and theanine in black tea, indicating that microbes on the surface of tea leaf may be involved in maintaining the formation of these important metabolites during black tea processing.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/aem.01524-21</t>
   </si>
   <si>
+    <t>The main goal of this research was to characterize the bacterial diversity of the wooden boards used for aging traditional Sicilian cheeses and to evaluate whether pathogenic bacteria are associated with these surfaces. Eighteen cheese dairy factories producing three traditional cheese typologies (PDO Pecorino Siciliano, PDO Piacentinu Ennese, and Caciocavallo Palermitano) were selected within the region of Sicily. The wooden shelf surfaces were sampled by a destructive method to detach wood splinters as well as by a nondestructive brushing to collect microbial cells. Scanning electron microscopy showed the presence of almost continuous bacterial formations on the majority of the shelves analyzed. Yeasts and fungal hyphae were also visualized, indicating the complexity of the plank communities. The amplicon library of the 16S rRNA gene V3-V4 region was paired-end sequenced using the Illumina MiSeq system, allowing the identification of 14 phyla, 32 classes, 52 orders, 93 families, and 137 genera. Staphylococcus equorum was identified from all wooden surfaces, with a maximum abundance of 64.75%. Among cheese-surface-ripening bacteria, Brevibacterium and Corynebacterium were detected in almost all samples. Several halophilic (Halomonas, Tetragenococcus halophilus, Chromohalobacter, Salimicrobium, Marinococcus, Salegentibacter, Haererehalobacter, Marinobacter, and Idiomarinaceae) and moderately halophilic (Salinicoccus, Psychrobacter, and Salinisphaera) bacteria were frequently identified. Lactic acid bacteria (LAB) were present at low percentages in the genera Leuconostoc, Lactococcus, Lactobacillus, Pediococcus, and Streptococcus. The levels of viable microorganisms on the wooden shelves ranged between 2.4 and 7.8 log CFU/cm2. In some cases, LAB were counted at very high levels (8.2 log CFU/cm2). Members of the Enterobacteriaceae family were detected in a viable state for only six samples. Coagulase-positive staphylococci, Salmonella spp., and Listeria monocytogenes were not detected. Seventy-five strains belonged to the genera Leuconostoc, Lactococcus, Pediococcus, Enterococcus, Lactobacillus, and Weissella. IMPORTANCE This study provides evidence for the lack of pathogenic bacteria on the wooden shelves used to ripen internal bacterially ripened semihard and hard cheeses produced in Sicily. These three cheeses are not inoculated on their surfaces, and surface ripening is not considered to occur or, at least, does not occur at the same extent as surface-inoculated smear cheeses. Several bacterial groups identified from the wooden shelves are typically associated with smear cheeses, strongly suggesting that PDO Pecorino Siciliano, PDO Piacentinu Ennese, and Caciocavallo Palermitano cheese rind contributes to their final organoleptic profiles.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1111/jfpp.15919</t>
   </si>
   <si>
+    <t>This study aimed to explore the bacterial diversity of smoked fish and smoked-dried fish. Forty-eight fish samples were collected from various processing sites and markets in Benin. The bacterial diversity was analyzed using high-throughput sequencing of the 16S rRNA gene on the Illumina MiSeq platform. In total, 16 bacterial phyla were identified across all samples, with the majority of sequences belonging to Firmicutes (43.3%) and Proteobacteria (43.6%). Families, Staphylococcaceae, Moraxellaceae, Planococcaceae, Enterobacteriaceae, Vibrionaceae, and Bartonellaceae, were well represented. A total of 384 distinct genera was identified, with the most abundant represented by the Gram-negative, Acinetobacter, Bartonella, Enterobacter, Morganella, and Photobacterium, and the Gram-positive, Aerococcus, Bacillus, Kurthia, Macrococcus, Staphylococcus, and Weissella. OTUs related to pathogenic bacteria, such as Salmonella spp., Staphylococcus aureus, and Listeria monocytogenes, were not detected in these popular foods sold in street markets in Benin. However, the presence of potentially harmful histamine-producing bacteria has been revealed. Practical application In West Africa, fish is mainly preserved by hot smoking, which can be followed by an additional drying step using the heat that emanates from the kiln. Although several studies have investigated the microbiological quality of smoked and smoked-dried fish, their overall microbial diversity has remained so far poorly explored. Therefore, this study has investigated the bacterial diversity of these popular foods. The results of this work provide useful information on bacteria potentially participating in food spoilage or compromising the safety of these popular foods and can be useful for improving their quality and safety.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2021.103878</t>
   </si>
   <si>
+    <t>Microbes play key roles in animal welfare and food safety but there is little understanding of whether microbiomes associated with livestock vary in space and time. Here we analysed the bacteria associated with the carcasses of the same breed of 28 poultry broiler flocks at different stages of processing across two climatically similar UK regions over two seasons with 16S metabarcode DNA sequencing. Numbers of taxa types did not differ by region, but did by season (P = 1.2 × 10−19), and numbers increased with factory processing, especially in summer. There was also a significant (P &lt; 1 × 10−4) difference in the presences and abundances of taxa types by season, region and factory processing stage, and the signal for seasonal and regional differences remained highly significant on final retail products. This study therefore revealed that both season and region influence the types and abundances of taxa on retail poultry products. That poultry microbiomes differ in space and time should be considered when testing the efficacy of microbial management interventions designed to increase animal welfare and food safety: these may have differential effects on livestock depending on location and timing.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2020.109800</t>
   </si>
   <si>
+    <t>Black glutinous rice wine (BGRW) is a popular traditional Chinese rice wine; however, the flavors profiles associated with microbiota changes during its fermentation have not yet been evaluated. In this study, we explored the correlations between microbial communities with physicochemical properties and flavor components during BGRW fermentation. High-throughput sequencing was used to identify the microbial community composition of BGRW at different fermentation stages, and physicochemical properties and volatile flavor compounds (VFCs) were identified via fermentation features testing and headspace solid phase microextraction gas chromatography mass spectrometry. First, we revealed Pantoea and Kosakonia predominated bacterial genera the early stage of BGRW fermentation, Leuconostoc, Pediococcus, Bacillus, and Lactobacillus predominated bacterial genera the later stage, while Rhizopus and Saccharomyces were the predominant fungal genera throughout fermentation. Second, total sugars, titratable acids, pH, ethanol, amino acid nitrogen, and 43 VFCs were detected during fermentation. Twenty-three VFCs were differentially produced according to the linear discriminant analysis effect size method. With the increase of the fermentation time, the kinds and contents of esters and alcohols were also increased, while acids decreased. Moreover, 12 microbial genera, Lactococcus, Pediococcus, Leuconostoc, Lactobacillus, Cronobacter, Pantoea, Weissella, Enterococcus, Rhizopus, Myceliophthora, Cystofilobasidium, and Aspergillus were found to be highly correlated (|ρ| &gt; 0.7 and P &lt; 0.05) with physicochemical properties and VFCs, by redundancy analysis (RDA) and two-way orthogonal partial least squares (O2PLS) analysis. Ultimately, based on the results, a metabolic map of dominant genera in BGRW was established. Our findings provided detailed information on the dynamic changes of physicochemical properties and VFCs and selection of beneficial strains to improve the quality of BGRW.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.776862</t>
   </si>
   <si>
+    <t>Robiola di Roccaverano is a Protected Designation of Origin (PDO) soft cheese produced with raw goat’s milk, in the Roccaverano area of the Piedmont region (North–West Italy) by a consortium of 15 dairies following strict procedural guidelines. During the cheese manufacturing process, raw milk from two subsequent milking sessions (evening and morning) is inoculated with Natural Milk Cultures (NMCs), obtained by back-slopping process in which the previous days’ fermented material is inoculated into the fresh milk to start the production process. Then, the material is also inoculated with animal rennet and left to coagulate for 8–36 h at room temperature. Molding procedure takes place in perforated plastic containers for 24–48 h, where the cheeses are periodically turned over to allow the whey to release and manually dry salted in both sides (Gazzetta Ufficiale della Repubblica Italiana, 2013). Robiola di Roccaverano can be consumed as fresh cheese after 5 days from the beginning of production or ripened for 15 days. During the production of Robiola di Roccaverano, the cheesemakers naturally select the best performing NMC that are well adapted to the dairy environment, able to ensure reproducibility and standardization of the final product without losing its typicality. Therefore, the sensory characteristics of Robiola di Roccaverano are highly influenced by the action of the microorganism deriving from raw milk and NMC (Biolcati et al., 2019, 2020, 2021), as well as by contaminating microorganisms often deriving from sources such as operators, dairy equipment, and environment (Montel et al., 2014). Despite understudied, the fungal composition of the dairy products, commonly referred to as mycobiota, could strongly influence the composition of the final cheese and must be considered for a better characterization of PDO cheese. In this work, the microbiome, both bacterial and fungal composition, of Robiola di Roccaverano has been studied by means of High Throughput Sequencing (HTS) approach. Cheese samples from different cheesemakers have been collected since the bacterial microbiota and the mycobiota may be associated with the geographical area, season, dairy environment, or raw materials used for the production. Nevertheless, due to the strict manufacture guidelines, it might be possible to define a common core microbial population, typical of Robiola di Roccaverano PDO cheese.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/foods10061189</t>
   </si>
   <si>
+    <t>Lactic acid bacteria (LAB) decisively influence the technological, nutritional, organoleptic and preservation properties of bakery products. Therefore, their use has long been considered an excellent strategy to improve the characteristics of those goods. The aim of this study was the evaluation of microbial diversity in different doughs used for the production of a typical Apulian flatbread, named focaccia. Leavening of the analyzed doughs was obtained with baker’s yeast or by applying an innovative “yeast-free” protocol based on a liquid sourdough obtained by using Leuconostoc citreum strain C2.27 as a starter. The microbial populations of the doughs were studied by both a culture-dependent approach and metagenetic analyses. The flours used for dough preparation were also subjected to the same analyses. The metagenetic analyses were performed by sequencing the V5–V6 hypervariable regions of the 16S rRNA gene and the V9 hypervariable region of the 18S rRNA gene. The results indicate that these hypervariable regions were suitable for studying the microbiota of doughs, highlighting a significant difference between the microbial community of focaccia dough with baker’s yeast and that of the dough inoculated with the bacterial starter. In particular, the dough made with baker’s yeast contained a microbiota with a high abundance of Proteobacteria (82% of the bacterial population), known to be negatively correlated with the biochemical properties of the doughs, while the Proteobacteria in dough produced with the L. citreum starter were about 43.5% lower than those in flour and dough prepared using baker’s yeast. Moreover, the results show that the L. citreum C2.27 starter was able to dominate the microbial environment and also reveal the absence of the genus Saccharomyces in the dough used for the production of the “yeast-free” focaccia. This result is particularly important because it highlights the suitability of the starter strain for obtaining an innovative “yeast-free” product.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1007/s12275-021-0219-4</t>
   </si>
   <si>
+    <t>The microbial community is one of the most important factors in shaping the characteristics of fermented food. Nuodeng ham, traditionally produced and subjected to 1–4 years of fermentation, is a dry fermented food product with cultural and economic significance to locals in southwestern China. In this study, we aimed to characterize the microbiota and physicochemical profiles of Nuodeng ham across different stages of fermentation. Ham samples from each of the four years were analyzed by sequencing bacterial 16S rRNA gene and fungal internal transcribed spacer sequence, in order to characterize the diversity and composition of their microflora. A total of 2,679,483 bacterial and 2,983,234 fungal sequences of high quality were obtained and assigned to 514 and 57 genera, respectively. Among these microbes, Staphylococcus and Candida were the most abundant genera observed in the ham samples, though samples from different years showed differences in their microbial abundance. Results of physicochemical properties (pH, water, amino acid, NaCl, nitrate and nitrite contents, and the composition of volatile compounds) revealed differences among the ham samples in the composition of volatile compounds, especially in the third year samples, in which no nitrite was detected. These results suggest that the structure and diversity of microbial communities significantly differed across different stages of fermentation. Moreover, the third year hams exhibits a unique and balanced microbial community, which might contribute to the special flavor in the green and safe food products. Thus, our study lends insights into the production of high quality Nuodeng ham.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2021.110668</t>
   </si>
   <si>
+    <t>Kimchi is a fermented food prepared via spontaneous fermentation by lactic acid bacteria originating from raw ingredients. To investigate the effect of these ingredients on food fermentation, four types of food that differed only in their main raw ingredients (kimchi cabbage, green onion, leaf mustard, and young radish) were evaluated. The major microorganisms were Leuconostoc gelidum, Weissella kandleri, and Lactobacillus sakei groups. The distribution of these species depended on the sample type. All three species were primarily distributed in the food prepared from kimchi cabbage and young radish; however, the Lac. sakei group was hardly found in the food prepared using green onion and leaf mustard. Metabolite analysis results showed that the free sugar, organic acid, ethanol, and amino acid profiles differed with the sample type. This study indicates that the main ingredients could be an important factor in determining the composition of the microbial community and the metabolite composition.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2021.110316</t>
   </si>
   <si>
+    <t>Sprouts harbor high populations of bacteria and cause numerous foodborne disease outbreaks, yet little is known about their microbial composition. The present study aimed to define the microbiological ecology of sprouts using 16S rRNA microbiome sequencing and culture-dependent methods. Different types (radish, alfalfa, and rapeseed), brands (A, B, and C), and distribution routes (online and offline) of sprouts (n = 70) were considered for microbiome analysis, as well as quantitative (aerobic plate count and coliforms) and qualitative analyses (Escherichia coli O157:H7, Listeria monocytogenes, and Salmonella Typhimurium). The aerobic plate count ranged from 7 to 8 CFU/g, and the coliforms ranged from 6 to 7 log CFU/g. Microbiome analysis revealed that Proteobacteria was the dominant phylum, accounting for 79.0% in alfalfa sprouts, 68.5% in rapeseed sprouts, and 61.9% in radish sprouts. Enterobacteriaceae was the dominant family in alfalfa sprouts (33.9%) and rapeseed sprouts (14.6%), while Moraxellaceae (11.9%) were prevalent on radish sprouts. The majority of the dominant genera were common in the environment, such as soil or water. Alfalfa sprouts yielded the lowest aerobic plate count but the highest relative abundance of Enterobacteriaceae compared to the other sprouts. These results could explain why alfalfa sprouts are a leading cause of sprout-related foodborne disease outbreaks. Alpha-diversity results (Chao1 and Shannon indices) suggested that species richness was greater on radish sprouts than the other sprout types. Beta-diversity results showed samples were clustered by types, indicating dissimilarity in microbial communities. However, the distribution route had a limited influence on microbial composition. The present study provides a comparative examination of the microbial profiles of sprouts. Microbiome analyses contribute to an in-depth understanding of the microbial ecology of sprouts, leading to potential control measures for ensuring food safety.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.726483</t>
   </si>
   <si>
+    <t>Wine production in Cyprus has strong cultural ties with the island’s tradition, influencing local and foreign consumers’ preferences and contributing significantly to Cyprus’ economy. A key contributor to wine quality and sensorial characteristics development is the microbiota that colonizes grapes and performs alcoholic fermentation. Still, the microbial patterns of wines produced in different geographic regions (terroir) in Cyprus remain unknown. The present study investigated the microbial diversity of five terroirs in Cyprus, two from the PGI Lemesos region [Kyperounta (PDO Pitsilia) and Koilani (PDO Krasochoria)], and three from the PGI Pafos region [Kathikas (PDO Laona Akamas), Panayia, and Statos (PDO Panayia)], of two grape varieties, Xynisteri and Maratheftiko, using high-throughput amplicon sequencing. Through a longitudinal analysis, we examined the evolution of the bacterial and fungal diversity during spontaneous alcoholic fermentation. Both varieties were characterized by a progressive reduction in their fungal alpha diversity (Shannon index) throughout the process of fermentation. Additionally, the study revealed a distinct separation among different terroirs in total fungal community composition (beta-diversity) for the variety Xynisteri. Also, Kyperounta terroir had a distinct total fungal beta-diversity from the other terroirs for Maratheftiko. Similarly, a significant distinction was demonstrated in total bacterial diversity between the PGI Lemesos region and the PGI Pafos terroirs for grape juice of the variety Xynisteri. Pre-fermentation, the fungal diversity for Xynisteri and Maratheftiko was dominated by the genera Hanseniaspora, Aureobasidium, Erysiphe, Aspergillus, Stemphylium, Penicillium, Alternaria, Cladosporium, and Mycosphaerella. During and post-fermentation, the species Hanseniaspora nectarophila, Saccharomyces cerevisiae, Hanseniaspora guilliermondii, and Aureobasidium pullulans, became the predominant in most must samples. Regarding the bacterial diversity, Lactobacillus and Streptococcus were the predominant genera for both grape varieties in all stages of fermentation. During fermentation, an increase was observed in the relative abundance of some bacteria, such as Acetobacter, Gluconobacter, and Oenococcus oeni. Finally, the study revealed microbial biomarkers with statistically significant higher relative representation, associated with each geographic region and each grape variety, during the different stages of fermentation. The present study’s findings provide an additional linkage between the grape microbial community and the wine terroir.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3168/jds.2021-20661</t>
   </si>
   <si>
+    <t>In this study, we investigated the variation in the microbial community present in bulk tank milk samples and the potential effect of different farm management factors. Bulk tank milk samples were collected repeatedly over one year from 42 farms located in northern Sweden. Total and thermoresistant bacteria counts and 16S rRNA gene-based amplicon sequencing were used to characterize microbial community composition. The microbial community was in general heterogeneous both within and between different farms and the community composition in the bulk tank milk was commonly dominated by Pseudomonas, Acinetobacter, Streptococcus, unclassified Peptostreptococcaceae, and Staphylococcus. Principal component analysis including farm factor variables and microbial taxa data revealed that the microbial community in milk was affected by type of milking system. Milk from farms using an automatic (robot) milking system (AMS) and loose housing showed different microbial community composition compared with milk from tiestall farms. A discriminant analysis model revealed that this difference was dependent on several microbial taxa. Among farms using an automatic milking system, there were further differences in the microbial community composition depending on the brand of the milking robot used. On tiestall farms, routines for teat preparation and cleaning of the milking equipment affected the microbial community composition in milk. Total bacteria count (TBC) in milk differed between the farm types, and TBC were higher on AMS than tiestall farms (log 4.05 vs. log 3.79 TBC/mL for AMS and tiestalls, respectively). Among tiestall farms, milk from farms using a chemical agent in connection to teat preparation and a more frequent use of acid to clean the milking equipment had lower TBC in milk, than milk from farms using water for teat preparation and a less frequent use of acid to clean the milking equipment (log 3.68 vs. 4.02 TBC/mL). There were no significant differences in the number of thermoresistant bacteria between farm types. The evaluated factors explained only a small proportion of total variation in the microbiota data, however, despite this, the study highlights the effect of routines associated with teat preparation and cleaning of the milking equipment on raw milk microbiota, irrespective of type of milking system used.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2022.111075</t>
   </si>
   <si>
+    <t>Zoning is typically adopted by food manufacturers and classified into three different zones including Zone 1 (food contact surface), Zone 2 (proximity to food and food contact surfaces) and Zone 3 (remote surfaces from processing). In this study, environmental surfaces belonging to these three zones were sampled during food processing in a fresh-cut vegetables (FVs) processing facility located in Beijing, China. Bacterial loads in terms of aerobic plate count and coliform count were evaluated by culture-dependent techniques. The profile and diversity of bacterial community in these three zones were investigated by high-throughput sequencing. Zone 1 showed similar microbiota and predominated by Pseudomonas and Acinetobacter, while the predominant genera on Zone 2 or 3 were quite varied among different processing steps. The SourceTracker analysis showed that most of the bacteria (above 80%) on surfaces were from unknown sources, while sorting and disinfection &amp; cleaning steps contributed equally to the bacterial community of cutting areas. Microbial association network analysis revealed strong positive interactions of Comamonas and Janthinobacterium with Myroides and Serratia, respectively, whereas Pseudomonas showed no significant correlation with other genera. The function of microbial communities was predicted based on BugBase 16S rRNA database, and the results indicated that the proportions of potential biofilm-forming bacteria were above 70% in all samples, and species of Pseudomonas, Comamonas, Chryseobacterium and Janthinobacterium were opportunistic pathogens or spoilage bacteria. This study evaluated the bacteria risks including bacterial load, composition, as well as potential bacterial interaction, function and microbial transfer on food processing surfaces, which will facilitate our better understanding on the cross-contaminations and preventions of harmful microorganism in FVs processing industry.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1186/s12866-022-02451-y</t>
   </si>
   <si>
+    <t>Background Next-generation sequencing (NGS) methods and especially 16S rRNA gene amplicon sequencing have become indispensable tools in microbial ecology. While they have opened up new possibilities for studying microbial communities, they also have one drawback, namely providing only relative abundances and thus compositional data. Quantitative PCR (qPCR) has been used for years for the quantification of bacteria. However, this method requires the development of specific primers and has a low throughput. The constraint of low throughput has recently been overcome by the development of high-throughput qPCR (HT-qPCR), which allows for the simultaneous detection of the most prevalent bacteria in moderately complex systems, such as cheese and other fermented dairy foods. In the present study, the performance of the two approaches, NGS and HT-qPCR, was compared by analyzing the same DNA samples from 21 Raclette du Valais protected designation of origin (PDO) cheeses. Based on the results obtained, the differences, accuracy, and usefulness of the two approaches were studied in detail. Results The results obtained using NGS (non-targeted) and HT-qPCR (targeted) show considerable agreement in determining the microbial composition of the cheese DNA samples studied, albeit the fundamentally different nature of these two approaches. A few inconsistencies in species detection were observed, particularly for less abundant ones. The detailed comparison of the results for 15 bacterial species/groups measured by both methods revealed a considerable bias for certain bacterial species in the measurements of the amplicon sequencing approach. We identified as probable origin to this PCR bias due to primer mismatches, variations in the number of copies for the 16S rRNA gene, and bias introduced in the bioinformatics analysis. Conclusion As the normalized microbial composition results of NGS and HT-qPCR agreed for most of the 21 cheese samples analyzed, both methods can be considered as complementary and reliable for studying the microbial composition of cheese. Their combined application proved to be very helpful in identifying potential biases and overcoming methodological limitations in the quantitative analysis of the cheese microbiota.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2022.111063</t>
   </si>
   <si>
+    <t>In the present study, bacterial and fungal diversity, as well as volatile profiles, of ready-to-eat Portuguese Painho de Porco Preto fermented sausages manufactured by two artisanal producers in the districts of Beja (producer A) and Evora (producer B) were studied. To this end, different selective growth media and a metataxonomic analysis were combined with Headspace Solid-Phase Microextraction-Gas Chromatography/Mass Spectrometry (HS-SPME-GC/MS) analysis. The results of the microbiological viable counts revealed active microbial populations of lactic acid bacteria (up to 8 Log cfu g−1), coagulase negative cocci (up to 6 Log cfu g−1), and eumycetes (up to 6 Log cfu g−1). Bacterial populations were characterized by high relative frequencies of Latilactobacillus sakei (up to 72%), together with Weissella and Staphylococcus equorum. The mycobiota was mainly dominated by Debaryomyces hansenii (up to 55% of the relative frequency) and Kurtzmaniella zeylanoides (up to 24% of the relative frequency). Unexpected species as Wickerhamomyces subpelliculosus and Zygosaccharomyces rouxii were also detected. HS-SPME-GC/MS analysis allowed to identify a complex volatile profile, showing 159 volatile organic compounds (VOCs). VOCs belonged to twelve classes, such as aldehydes, ketones and lactones, esters and acetates, alcohols, terpenoids, sulfur compounds, aliphatic hydrocarbons, aromatic hydrocarbons, nitrogen compounds, acids, furans and pyrans, and phenols. The analysis of VOCs composition provided evidence that samples from the two producers (A and B) were different, as confirmed by the Principal Component Analysis. Hence, it is likely that the raw materials used, as well as variations related with the empirical practice of the butchers, strongly influenced the final product. The results obtained in the present study represent a further advancement in the knowledge on the biodiversity and VOCs composition of Portuguese fermented sausages. To better understand the interactions occurring between the autochthonous microorganisms and the meat batter in the Painho de Porco Preto fermented sausage, microbial and VOCs dynamics must be further deepened throughout the production process.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/msystems.00830-21</t>
   </si>
   <si>
+    <t>Prior to the advent of milk pasteurization and the use of defined-strain starter cultures, the production and ripening of cheese relied on the introduction and growth of adventitious microbes from the environment. This study characterized microbial community structures throughout a traditional farmstead cheese production continuum and evaluated the role of the environment in microbial transfer. In total, 118 samples (e.g., raw milk, cheese, and environmental surfaces) were collected from milk harvesting through cheese ripening. Microbial communities were characterized based on amplicon sequencing of bacterial 16S rRNA and fungal internal transcribed spacer genes using the Illumina MiSeq platform. Results indicated that the environment in each processing room harbored unique microbial ecosystems and consistently contributed microbes to milk, curd, and cheese. The diverse microbial composition of milk was initially attributed to milker hands and cow teats and then changed substantially following overnight ripening in a wooden vat to one dominated by lactic acid bacteria, including Lactococcus lactis, Lactobacillus, and Leuconostoc, as well as fungi such as Exophiala, Kluyveromyces, and Candida. Additional microbial contributions were attributed to processing tools, but the composition of the cheese paste remained relatively stable over 60 days of ripening. In contrast, rind communities that were largely influenced by direct contact with bamboo aging mats showed a distinct succession pattern compared to the interior sections. Overall, these findings highlight the critical role of traditional tools and practices in shaping the microbial composition of cheese and broaden our understanding of processing environments as important sources of microbes in food. IMPORTANCE Throughout the 20th century, especially in the United States, sanitation practices, pasteurization of milk, and the use of commercial defined-strain starter cultures have enhanced the safety and consistency of cheese. However, these practices can reduce cheese microbial diversity. The rapid growth of the artisanal cheese industry in the United States has renewed interest in recapturing the diversity of dairy products and the microbes involved in their production. Here, we demonstrate the essential role of the environment, including the use of wooden tools and cheesemaking equipment, as sources of dominant microbes that shape the fermentation and ripening processes of a traditional farmstead cheese produced without the addition of starter cultures or direct inoculation of any other bacteria or fungi. These data enrich our understanding of the microbial interactions between products and the environment and identify taxa that contribute to the microbial diversity of cheese and cheese production.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.lwt.2021.112125</t>
   </si>
   <si>
+    <t>White truffles are highly valuable, but the aroma is susceptible to change with storage. How volatile composition and microbiome of Tuber magnatum evolve by storage time is poorly understood. Changes in bacterial community and volatile compounds of T. magnatum fruiting bodies with storage time at 23 °C were investigated. Truffles (21 fruiting bodies) were collected from different sites in Italy, Hungary, and Croatia. Single fruiting bodies were subsampled at four time points (day (D)0, 3, 6, and 9). Gas chromatography-mass spectrometry and microbiome composition using PCR-high throughput sequencing were used to analyse the volatiles and bacterial communities, respectively. Spoilage compounds atypical of truffles increased with storage time. Likewise, bacterial communities changed with storage time; families belonging to Xanthobacteraceae dominated at D0 and gradually evolved to more Rhizobiaceae and Pseudomonadaceae by D3 and D6, and finally with more prominent Xanthomonadaceae and Burkholderiaceae at D9. Overall, storage time had increased the diversity of bacterial communities. The microbiome and volatile data were correlated using regularised canonical correlation analysis and determined correlations between 2-methylisoborneol and five bacterial OTUs. Potential candidate bacteria and their volatile metabolites can serve as markers for truffle spoilage. The results highlighted the mechanisms by which the degradation of expensive truffles occur.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.7717/peerj.12345</t>
   </si>
   <si>
+    <t>Budu is a Malaysian fermented anchovy sauce produced by immersing small fishes into a brine solution for 6 to 18 months. Microbial enzymes are known to contribute to fermentation; however, not much is known about the microbial community in Budu. Therefore, a better understanding of the Budu microbiome is necessary to improve the quality, consistency, and safety of the Budu products. In this study, we collected 60 samples from 20 bottles of Budu produced by seven manufacturers. We analyzed their microbiota using V3–V4 16S rRNA amplicon sequencing when we first opened the bottle (month 0), as well as 3 and 7 months post-opening (months 3 and 7). Tetragenococcus was the dominant genus in many samples, reaching a maximum proportion of 98.62%, but was found in low abundance, or absent, in other samples. When Budu samples were not dominated by a dominant taxa, we observed a wider genera diversity such as Staphylococcus, Acinetobacter, Halanaerobium and Bacillus. While the taxonomic composition was relatively stable across sampling periods, samples from two brands showed a sudden increase in relative abundance of the genus Chromobacterium at month 7. Based on prediction of metagenome functions, non-Tetragenococcus-dominated samples were predicted to have enriched functional pathways related to amino acid metabolism and purine metabolism compared to Tetragenococcus-dominated samples; these two pathways are fundamental to fermentation quality and health attributes of fish sauce. Among the non-Tetragenococcus-dominated samples, contributions towards amino acid metabolism and purine metabolism were biased towards the dominant taxa when species evenness is low, while in samples with higher species evenness, the contributions towards the two pathways were predicted to be evenly distributed between taxa. Our results demonstrated that the utility of 16S sequencing to assess batch variation in fermented food production. The distinct microbiota was shown to correlate with characteristic metagenome function including functions potentially related to fermented food nutrition and quality.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2022.103996</t>
   </si>
   <si>
+    <t>Microorganisms proliferate, consume nutrients, and produce many undesired metabolites, which are the main reason for the spoilage of fresh meat. Screening spoilage markers is of great significance for characterizing the freshness of fresh meat. At present, there are few studies on the volatile spoilage markers (VSMs) of lamb and their relationship with bacteria. In this study, the spoilage evolution of lamb was evaluated by multiple indicators. The changes of bacteria and volatile organic compounds (VOCs) in aerobic-packaged (AP) and vacuum-packaged (VP) lamb were measured by 16S next-generation sequencing (NGS) and headspace solid-phase microextraction (HS-SPME)-gas chromatography-mass spectrometry (GC-MS) respectively. The potential VSMs were also screened. Results showed that the shelf life of AP lamb at 4 °C was less than 10 d and VP lamb was less than 28 d. Pseudomonas was the dominant bacteria in AP lamb, while Latilactobacillus and Lactococcus were the dominant bacteria in VP lamb. Several VOCs could be recommended as potential spoilage markers, including 1-octen-3-ol, 1-hexanol, nonanal, methoxy-phenyloxime, 2,3-octanedione, acetoin and 1-pentanol for AP lamb; acetoin, 1-hexanol, 2,3-octanedione, hexanoic acid, 1-octen-3-ol, nonanal, hexanal and 2,3-octanediol for VP lamb. This study can provide information for characterizing and predicting the freshness of fresh lamb.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/microorganisms10030613</t>
   </si>
   <si>
+    <t>Bacterial pathogens, such as Listeria monocytogenes, can show resistance to disinfection and persistence on working surfaces, permitting them to survive and contaminate food products. Persistence—a complex phenomenon involving interactions between many bacteria within a biofilm—is modulated by in situ characteristics. This study aimed to describe, in silico, the microbiota identified in a swine slaughterhouse after sanitation procedures to better understand the presence of L. monocytogenes on these surfaces. Molecular tools for characterization of microbial communities were used to assess the relative contribution of different bacteria resulting from this phenomenon, and the 16S rRNA sequencing method was used on samples from meat conveyor belt surfaces collected on four sampling visits to study the co-occurrence between L. monocytogenes and other bacteria. From the background microbiota, a total of six genera were found to be negatively correlated with Listeria spp., suggesting Listeria growth inhibition, competition, or at least an absence of shared habitats. Based on these results, a complete scenario of interactions of Listeria with components of background microbiota was established. This work contributes to identifying avenues that could prevent the growth and persistence of L. monocytogenes on food-processing surfaces.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/spectrum.01751-21</t>
   </si>
   <si>
+    <t>A low initial contamination level of the meat surface is the sine qua non to extend the subsequent shelf life of ground beef for as long as possible. Therefore, the short- and long-term effects of a pregrinding treatment with electrolyzed water (EW) on the microbiological and physicochemical features of Piedmontese steak tartare were here assessed on site, by following two production runs through storage under vacuum packaging conditions at 4°C. The immersion of muscle meat in EW solution at 100 ppm of free active chlorine for 90 s produced an initial surface decontamination with no side effects or compositional modifications, except for an external color change that was subsequently masked by the grinding step. However, the initially measured decontamination was no longer detectable in ground beef, perhaps due to a quick recovery by bacteria during the grinding step from the transient oxidative stress induced by the EW. We observed different RNA-based metataxonomic profiles and metabolomic biomarkers (volatile organic compounds [VOCs], free amino acids [FAA], and biogenic amines [BA]) between production runs. Interestingly, the potentially active microbiota of the meat from each production run, investigated through operational taxonomic unit (OTU)-, oligotyping-, and amplicon sequence variant (ASV)-based bioinformatic pipelines, differed as soon as the early stages of storage, whereas microbial counts and biomarker dynamics were significantly distinguishable only after the expiration date. Higher diversity, richness, and abundance of Streptococcus organisms were identified as the main indicators of the faster spoilage observed in one of the two production runs, while Lactococcus piscium development was the main marker of shelf life end in both production runs. IMPORTANCE Treatment with EW prior to grinding did not result in an effective intervention to prolong the shelf life of Piedmontese steak tartare. Our RNA-based approach clearly highlighted a microbiota that changed markedly between production runs but little during the first shelf life stages. Under these conditions, an early metataxonomic profiling might provide the best prediction of the microbiological fate of each batch of the product.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1111/1758-2229.13045</t>
   </si>
   <si>
+    <t>Mushroom-forming fungi are important sources of food and medicine in many regions of the world, and their development and health are known to depend on various microbes. Recent studies have examined the structure of mushroom-inhabiting bacterial (MIB) communities and their association with local environmental variables, but global-scale diversity and determinants of these communities remain poorly understood. Here we examined the MIB global diversity and community composition in relation to climate, soil and host factors. We found a core global mushroom microbiome, accounting for 30% of sequence reads, while comprising a few bacterial genera such as Halomonas, Serratia, Bacillus, Cutibacterium, Bradyrhizobium and Burkholderia. Our analysis further revealed an important role of host phylogeny in shaping the communities of MIB, whereas the effects of climate and soil factors remained negligible. The results suggest that the communities of MIB and free-living bacteria are structured by contrasting community assembly processes and that fungal–bacterial interactions are an important determinant of MIB community structure.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/microorganisms10020334</t>
   </si>
   <si>
+    <t>A previous study identified differences in rind aspects between Cantal-type cheeses manufactured from the same skimmed milk, supplemented with cream derived either from pasture-raised cows (P) or from cows fed with maize silage (M). Using an integrated analysis of multiomic data, the present study aimed at investigating potential correlations between cream origin and metagenomic, lipidomic and volatolomic profiles of these Cantal cheeses. Fungal and bacterial communities of cheese cores and rinds were characterized using DNA metabarcoding at different ripening times. Lipidome and volatolome were obtained from the previous study at the end of ripening. Rind microbial communities, especially fungal communities, were influenced by cream origin. Among bacteria, Brachybacterium were more abundant in P-derived cheeses than in M-derived cheeses after 90 and 150 days of ripening. Sporendonema casei, a yeast added as a ripening starter during Cantal manufacture, which contributes to rind typical aspect, had a lower relative abundance in P-derived cheeses after 150 days of ripening. Relative abundance of this fungus was highly negatively correlated with concentrations of C18 polyunsaturated fatty acids and to concentrations of particular volatile organic compounds, including 1-pentanol and 3-methyl-2-pentanol. Overall, these results evidenced original interactions between milk fat composition and the development of fungal communities in cheeses.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2022.111481</t>
   </si>
   <si>
+    <t>The aim of the present study was to characterize the bacterial and fungal communities naturally occurring in Queijo da Beira Baixa PDO cheese samples produced in Castelo Branco district (Beira Baixa Region, Portugal) through viable counts and metataxonomic analyses. Physico-chemical and morpho-textural analyses were also carried out, together with the analysis of volatile organic compounds (VOCs). In the analyzed samples, pH values ranged between 4.72 ± 0.15 and 5.85 ± 0.02, with values of lactic acid content comprised between 0.64 ± 0.00 and 1.95 ± 0.16 g 100 g−1. Specific volume of cheese ranged from 1.09 ± 0.08 to 1.32 ± 0.02 g mL−1. Texture profile analysis showed hardness ranging between 38.3 ± 9.6 N and 68.55 ± 7.5 N. As for lactic acid bacteria, presumptive lactococci, thermophilic cocci, and lactobacilli counts up to 9 Log cfu g−1. Coagulase-negative cocci showed counts up to 7 Log cfu g−1. Enterococci counts were up to 6 Log cfu g−1. Finally, counts of eumycetes showed values up to 4 Log cfu g−1. The results of metataxonomic analysis of bacteria showed the dominance of Lactococcus lactis in all the samples. Moreover, other taxa were detected, including Lactiplantibacillus plantarum, Loigolactobacillus coryniformis, Lactococcus piscium, Streptococcus thermophilus, and Lacticaseibacillus zeae. Mycobiota was characterized by the presence of Candida sake, Ustilago, Cladosporium variabile, Starmerella, Debaryomyces hansenii, and Pichia kluyveri. In the analyzed Queijo da Beira Baixa PDO cheese samples, carboxylic acids represented the most detected VOCs, followed by esters, carbonyl compounds, and alcohols.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2021.767770</t>
   </si>
   <si>
+    <t>Fish skin-associated microbial communities are highly variable among populations and species and can impact host fitness. Still, the sources of variation in microbiome composition, and particularly how they vary among and within host individuals, have rarely been investigated. To tackle this issue, we explored patterns of variation in fish skin microbiomes across different spatial scales. We conducted replicate sampling of dorsal and ventral body sites of perch (Perca fluviatilis) from two populations and characterized the variation of fish skin-associated microbial communities with 16S rRNA gene metabarcoding. Results showed a high similarity of microbiome samples taken from the left and right side of the same fish individuals, suggesting that fish skin microbiomes can be reliably assessed and characterized even using a single sample from a specific body site. The microbiome composition of fish skin differed markedly from the bacterioplankton communities in the surrounding water and was highly variable among individuals. No ASV was present in all samples, and the most prevalent phyla, Actinobacteria, Bacteroidetes, and Proteobacteria, varied in relative abundance among fish hosts. Microbiome composition was both individual- and population specific, with most of the variation explained by individual host. At the individual level, we found no diversification in microbiome composition between dorsal and ventral body sites, but the degree of intra-individual heterogeneity varied among individuals. To identify how genetic and phenotypic characteristics of fish hosts impact the rate and nature of intra-individual temporal dynamics of the skin microbiome, and thereby contribute to the host-specific patterns documented here, remains an important task for future research.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1111/mec.16630</t>
   </si>
   <si>
+    <t>Understanding microbial dispersal is critical to understand the dynamics and evolution of microbial communities. However, microbial dispersal is difficult to study because of uncertainty about their vectors of migration. This applies to both microbial communities in natural and human-associated environments. Here, we studied microbial dispersal along the sourdoughs bread-making chain using a participatory research approach. Sourdough is a naturally fermented mixture of flour and water. It hosts a community of bacteria and yeasts whose origins are only partially known. We analysed the potential of wheat grains and flour to serve as an inoculum for sourdough microbial communities using 16S rDNA and ITS1 metabarcoding. First, in an experiment involving farmers, a miller and bakers, we followed the microbiota from grains to newly initiated and propagated sourdoughs. Second, we compared the microbiota of 46 sourdough samples collected everywhere in France, and of the flour used for their back-slopping. The core microbiota detected on the seeds, in the flour and in the sourdough was composed mainly of microbes known to be associated with plants and not living in sourdoughs. No sourdough yeast species were detected on grains and flours. Sourdough lactic acid bacteria were rarely found in flour. When they were, they did not have the same amplicon sequence variant (ASV) as found in the corresponding sourdough. However, the low sequencing depth for bacteria in flour did not allow us to draw definitive conclusion. Thus, our results showed that sourdough yeasts did not come from flour, and suggest that neither do sourdough LAB.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1089/fpd.2022.0014</t>
   </si>
   <si>
+    <t>Conventional culture-based techniques are largely inadequate in elucidating the microbiota contained in an environment, due to low recovery within a complex bacterial community. This limitation has been mitigated by the use of next-generation sequencing (NGS)-based approaches thereby facilitating the identification and classification of both culturable and uncultivable microorganisms. Amplicon targeted NGS methods, such as 16S ribosomal RNA (16S rRNA) and shotgun metagenomics, are increasingly being applied in various settings such as in food production environments to decipher the microbial consortium therein. Even though multiple food matrices/food production environments have been studied, the low-moisture environment associated with bakery food production remains to be investigated. To address this knowledge gap, in this study, we investigated the microbiome associated with two bakery production sites (designated as A and B) located in Ireland using 16S rRNA-amplicon-based sequencing. Amplicons corresponding to a hypervariable region contained within the 16S rRNA gene were amplified from DNA samples purified from environmental swabs and ingredients collected at both sites at various stages (preparation, production, postproduction, and storage) across the bakery production chain, over three seasons (winter, spring, and summer). These amplicons were sequenced, and data were analyzed using the mothur pipeline and visualized using MicrobiomeAnalyst and a series of R packages. The top seven bacterial phyla identified at both sites were composed of Proteobacteria, Firmicutes, Actinobacteria, Bacteroidetes, Deinococcus-Thermus, Patescibacteria, and Verrucomicrobia. In addition, the phyla Tenericutes (Mycoplasmatota) and Acidobacteria were observed only in samples taken at site B. Different bacterial compositions were identified at each stage of production. These same bacteria were also found to be present in the final processed food suggesting the influence of the environment on the food matrix. This study is the first demonstration of the utility of 16S rRNA amplicon-based sequencing to describe the microbiota associated with bakery processing environments.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/foods11142164</t>
   </si>
   <si>
+    <t>Fruits and vegetables (F&amp;V) products are recommended for the daily diet due to their low caloric content, high amount of vitamins, minerals and fiber. Furthermore, these foods are a source of various phytochemical compounds, such as polyphenols, flavonoids and sterols, exerting antioxidant activity. Despite the benefits derived from eating raw F&amp;V, the quality and safety of these products may represent a source of concern, since they can be quickly spoiled and have a very short shelf-life. Moreover, they may be a vehicle of pathogenic microorganisms. This study aims to evaluate the bacterial and fungal populations in F&amp;V products (i.e., iceberg lettuces, arugula, spinaches, fennels, tomatoes and pears) by using culture-dependent microbiological analysis and high-throughput sequencing (HTS), in order to decipher the microbial populations that characterize minimally-processed F&amp;V. Our results show that F&amp;V harbor diverse and product-specific bacterial and fungal communities, with vegetables leaf morphology and type of edible fraction of fruits exerting the highest influence. In addition, we observed that several alterative (e.g., Pseudomonas and Aspergillus) and potentially pathogenic taxa (such as Staphylococcus and Cladosporium) are present, thus emphasizing the need for novel product-specific strategies to control the microbial composition of F&amp;V and extend their shelf-life.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2022.110990</t>
   </si>
   <si>
+    <t>The use of fish flesh to produce fermented sausages is uncommon, especially in European countries where fermented sausages are mainly obtained using mammalian meat. In the present study, the microbiota naturally occurring in novel fermented fish sausages, handcrafted using marine fish species caught in the Mediterranean Sea, was studied. To this end, fish sausages were subjected to physico-chemical analyses (including histamine quantification). Microbiological traits of sausages were studied via viable counting and metataxonomic analysis. Sausages were also subjected to the detection of genes encoding histidine decarboxylase of both Gram-positive (hdcA) and -negative (hdc) bacteria. The results of histamine quantification showed different contents among fish sausage samples. Moreover, the presence of the hdcA gene was below the detection limit in all the samples, whereas the hdc gene was detected only in samples from batch 2, characterized by high levels of Enterobacteriaceae. In the analysed samples, viable lactic acid bacteria, coagulase-negative staphylococci, and eumycetes were detected. Bacterial composition displayed the highest frequency of Latilactobacillus sakei, whereas eumycetic composition displayed the highest frequency of Kurtzmaniella zeylanoides. In order to select potential adjunct cultures for product improvement, 60 lactic acid bacteria (22 isolates of L. sakei and 38 of Latilactobacillus curvatus) were isolated from sausage samples and characterized for: i) the presence of the hdcA gene; ii) the production of exopolysaccharides (EPS); iii) the presence of genes involved in the production of EPS; iv) the production of bacteriocins against Listeria innocua. None of the isolates tested positive for the presence of the hdcA gene. Moreover, 39 out of 60 isolates showed the formation of mucoid colonies, thus attesting the production of EPS. Interestingly, 56 out of 60 isolates were positive for the gene epsD/E, whereas 37 out of 60 isolates were positive for the gene epsA, all these genes encoding the production of heteropolysaccharides. Of note, the EPS production capability and the absence of hdcA gene could represent a starting point for future selection of the isolates as autochthonous adjunct cultures to improve texture, sensory traits and safety of the fermented fish sausages under study. None of the L. sakei or L. curvatus isolates exerted a bactericidal effect against L. innocua.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2022.111019</t>
   </si>
   <si>
+    <t>The aim of the present study was to obtain information on the occurrence of bacteria and eumycetes in ready-to-eat fermented liver sausages manufactured by 20 artisan producers located in the Marche Region (Italy). To this end, culture-dependent analyses and metataxonomic sequencing were carried out. Physico-chemical parameters and volatilome of the fermented liver sausages were also studied. Finally, the presence of hepatitis E virus (HEV) was also assessed via real-time-RT-(q)PCR assays. Active microbial populations mainly represented by lactic acid bacteria, enterococci, coagulase-negative cocci, and eumycetes were detected. Enterobacteriaceae, Pseudomonadaceae, and sulfite-reducing anaerobes were not detected in most of the samples. Latilactobacillus sakei dominated in all the analyzed samples, reaching abundances up to 80%. Staphylococcus xylosus and Staphylococcus equorum were also detected. Among minority bacterial taxa, Weissella spp., Leuconostoc spp., Macrococcus caseolyticus, Brochothrix thermosphacta, Staphylococcus succinus, Lactobacillus coryniformis, Lactiplantibacillus plantarum, Lactococcus garviae, Psychrobacter spp., and Carnobacterium viridans were detected. The mycobiota was mainly composed by Debaryomyces hansenii that was present in all samples at the highest frequency. Among minority fungal taxa, Aspergillus spp., Penicillium spp., Kurtzmaniella zeylanoides, Candida spp., Yamadazyma spp., Scopulariopsis spp., Yarrowia spp., and Starmerella spp. were detected. Interestingly, associations between some taxa and some physico-chemical parameters were also discovered. The absence of HEV in all the samples attested a high level of safety. Finally, most of the VOCs detected in the analyzed fermented liver sausages belonged to six classes as: terpenoids, aldehydes, ketones, alcohols, esters, and acids. Nitrogen compounds, sulfur compounds, phenols, hydrocarbons, lactones, furans, and aromatic hydrocarbons were also identified. Several significant relationships were observed between mycobiota and VOCs.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijgfs.2022.100509</t>
   </si>
   <si>
+    <t>The distinct microbial diversity present in fermented foods influencing flavor profile is now commonly referred to as microbial terroir. Understanding how microbial communities develop in fermented food is important because it can explain how different flavor profiles develop and how community stability leads to food preservation. Using a common DNA-sequencing approach to characterize the microbial communities that developed in eight fermented food products, we show that fermentation is primarily influenced by the main ingredient being cooked. Moreover, we found that each fermented food group harbored microbial communities similar to those previously described in traditional cooking styles. Thus, our study not only provides methodologies to characterize the microbial terroir signature of fermented foods in a professional kitchen but also enables us to understand further the value of local fermented food in our culinary journey.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1089/fpd.2021.0116</t>
   </si>
   <si>
+    <t>Microbial safety is critically important for powdered infant formula (PIF) fed to neonates, with under-developed immune systems. The quality and safety of food products are dictated by those microorganisms found in both raw materials and the built production environment. In this study, a 2-year monitoring program of a production environment was carried out in two PIF factories located in the Republic of Ireland, and the environmental microbiome in different care areas of these sites was studied by using a 16S ribosomal RNA (rRNA)-based sequencing technique. Results highlighted a core microbiome associated with the PIF factory environment containing 24 bacterial genera representing five phyla, with Acinetobacter and Pseudomonas as the predominant genera. In different care areas of the PIF factory, as hygiene standards increased, deciphered changes in microbial community compositions became smaller over time and approached stability, and bacteria dominating the care area became less influenced by the external environment and more by human interactions and raw materials. These observations indicated that the microbial composition can be altered in response to environmental interventions. Genera Cronobacter and Salmonella were observed in trace amounts in the PIF factory environment, and bacterial genera known to be persistent in a stressed environment, such as Acinetobacter, Bacillus, Streptococcus, and Clostridium, were likely to have higher abundances in dry environment-based care areas. To our knowledge, this is the first study to characterize the PIF production environment microbiome using 16S rRNA-based sequencing. This study described the composition and changing trends of the environmental microbial communities in different care areas of the PIF manufacturing facility, and it provided valuable information to support the safer production of PIF in the future.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodcont.2022.109158</t>
   </si>
   <si>
+    <t>Microbial contamination of the domestic environment can lead to food spoilage, food waste and food-borne illness generating public health concern. The present study was aimed at evaluating: microbiological contamination of domestic refrigerators using both traditional microbiological and metataxonomic methods, linking these results with consumers' characteristics, observed/stated practices in food handling and storage in households. Data were collected by means of an online survey focused on consumer habits and characteristics, and by direct observation of practices, through consumers' kitchens inspections where surface samples from refrigerators (n = 64). Microbiological and metataxononimc analyses on those samples allowed the evaluation of microbial contamination and its composition. Multivariate analysis was applied to the core Amplicon Sequence Variants composition in order to highlight relations between contamination agents and consumer practices. Consumer analysis evaluated correlation among stated/observed practices with respondents' objective knowledge of hygiene practices. Finally, multivariate dimensions derived by genera analysis were used to evaluate the role of consumer characteristics and habits in domestic contamination. The results indicated a low level of contamination. Metataxonomic analysis provided a set of microbial genera, of which, 12 were the main responsible for fridge contaminations. The respondents' objective knowledge of hygiene practices was found to be significantly related to stated practices, whereas there was no significant result in combination with observed ones. Therefore, with limited sample dimension, theoretical knowledge showed a stronger relation to stated practices, whereas it did not always reflect real-life habits. However, the direction of correlations suggests that improving consumer knowledge of good hygiene practices through more practical awareness-raising actions, could reduce food contamination and the risk of food-borne illnesses. Finally, the application of the multivariate analyses allowed the observation of two clusters with different characteristics in terms of genera composition and consumers habits (such as refrigerator's temperature checking and food arrangement in it). Thus, such an innovative approach led to identifying the putative factors which are the most in relation with microbial contamination/general composition of fridges. Nonetheless, the combination of microbiological methods with the social evaluation of consumers could provide useful insights to tackle the causes of food contamination.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2022.850720</t>
   </si>
   <si>
+    <t>In the United States, due to the limited information about the microbial quality and safety of fresh produce after the labeled open dates, unnecessary discarding of fresh produce in good conditions and food loss have been caused. The aim of this study was to address this knowledge gap and evaluate the microbial quality of commercial chopped Romaine lettuce (RL) on the “Use By” dates (UBD) and 5 days after the “Use By” dates (UBD5). The microbial quality was evaluated using culture-dependent and culture-independent methods. Three brands of RL samples, from early and late harvest seasons, were purchased from local grocery stores and stored at 4°C until 5 days after their UBD. On the UBD and UBD5, bagged lettuce was opened, homogenized, diluted, and plated onto plate count agar and anaerobic agar to obtain total aerobic plate counts (APC) and total anaerobic plate counts (AnPC). For the culture-independent method, DNA was extracted from each sample homogenate and used for 16S rRNA gene sequencing. The culture-dependent results showed that there was no significant change in APC or AnPC between UBD and UBD5 samples. The APC and AnPC ranged from 5.71 ± 0.74 to 7.89 ± 0.10 Log CFU/g and 1.75 ± 0.08 to 7.32 ± 0.61 Log CFU/g, respectively. No significant difference in alpha diversity, based on observed features and Shannon index values, was detected between UBD and UBD5 samples using 16S rRNA sequencing. Similarly, no difference was observed in beta diversity based on the Jaccard distance matrixes and the weighted Unifrac distance matrixes. Taxonomic analysis revealed 128 genera in all RL samples. The top five genera were Pseudomonas (with relative abundance ranging from 16.47 to 92.72%), Serratia (0–52.35%), Weissella (0–42.42%), Pantoea (0.17–21.33%), and Lactococcus (0–24.30%). The differential abundance analysis based on the ANCOM test showed that no bacteria were detected to have significantly differential abundance in RL between UBD and UBD5. In summary, both the culture-dependent and culture-independent results showed that there was no significant difference in the microbial quality of RL before and shortly after the UBD</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1128/msystems.00701-22</t>
   </si>
   <si>
+    <t>Microbiomes are intricately intertwined with human health, geochemical cycles, and food production. While many microbiomes of interest are highly complex and experimentally intractable, cheese rind microbiomes have proven to be powerful model systems for the study of microbial interactions. To provide a more comprehensive view of the genomic potential and temporal dynamics of cheese rind communities, we combined longitudinal, multi-platform metagenomics of three ripening washed-rind cheeses with whole-genome sequencing of community isolates. Sequencing-based approaches revealed a highly reproducible microbial succession in each cheese and the coexistence of closely related Psychrobacter species and enabled the prediction of plasmid and phage diversity and their host associations. In combination with culture-based approaches, we established a genomic catalog and a paired 16-member in vitro washed-rind cheese system. The combination of multi-platform metagenomic time-series data and an in vitro model provides a rich resource for further investigation of cheese rind microbiomes both computationally and experimentally. IMPORTANCE Metagenome sequencing can provide great insights into microbiome composition and function and help researchers develop testable hypotheses. Model microbiomes, such as those composed of cheese rind bacteria and fungi, allow the testing of these hypotheses in a controlled manner. Here, we first generated an extensive longitudinal metagenomic data set. This data set reveals successional dynamics, yields a phyla-spanning bacterial genomic catalog, associates mobile genetic elements with their hosts, and provides insights into functional enrichment of Psychrobacter in the cheese environment. Next, we show that members of the washed-rind cheese microbiome lend themselves to in vitro community reconstruction. This paired metagenomic data and in vitro system can thus be used as a platform for generating and testing hypotheses related to the dynamics within, and the functions associated with, cheese rind microbiomes.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2022.112007</t>
   </si>
   <si>
+    <t>Salame Piemonte is a dry-fermented meat product typical of the Piedmont region in Italy, manufactured using commercial starter cultures. This study aimed to select autochthonous starter cultures (ASCs) that could be used for sausage fermentation in order to strengthen the link with the geographical area of production and improve the sensory properties of the final product. A culture-dependent approach was adopted during three different spontaneous sausage fermentation processes to isolate and characterise the main bacterial resources involved. Dominant lactic acid bacteria (LAB) in each batch were Pediococcus pentosaceus, Latilactobacillus sakei, and Latilactobacillus curvatus; Staphylococcus xylosus was the most dominant coagulase-negative staphylococci (CNS) in all the studied batches. LAB and presumptive CNS isolates were further evaluated for their physiological properties and biotechnological potential. Thereafter, 11 strains were selected and evaluated for safety. Five selected strains (two P. pentosaceus, two L. sakei, and one S. xylosus strain) were used for pilot-scale Salame Piemonte production with seven different strain combinations. Based on the liking test, three ASC combinations led to the highest liking score compared to industrial products. These three ASCs were then used for the second pilot-scale sausage production confirming the high liking score. In summary, the use of P. pentosaceus and S. xylosus ASC significantly improved product sensory properties compared with that obtained using commercial starter cultures.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2022.1101515</t>
   </si>
   <si>
+    <t>The knowledge about the microbial diversity of different olives varieties from diverse regions in the Mediterranean basin is limited. This work aimed to determine the microbial diversity of three different fermented olive varieties, collected from different regions in Cyprus, via Next Generation Sequencing (NGS) analysis. Olives were spontaneously fermented for 120 days, microbial DNA was extracted from the final products, and subjected to 16S rRNA gene and ITS1 loci metabarcoding analysis for the determination of bacterial and fungal communities, respectively. Results revealed that the bacterial profile of the studied varieties was similar, while no noteworthy differences were observed in olives from different regions. The bacterial profile was dominated by the co-existence of Lactobacillus and Streptococcus, while the genera Lactococcus and Salinivibrio and the family Leuconostocaceae were also present in increased relative abundances. Regarding fungal communities, the analysis indicated discrimination among the different varieties, especially in Kalamata ones. The most abundant fungi were mainly the genera Aspergillus, Botryosphaeria, Meyerozyma, and Zygosaccharomyces for Cypriot olives, the genera Botryosphaeria, Saccharomyces, Geosmithia, and Wickeromyces for Kalamata variety, while the dominant fungi in the Picual variety were mainly members of the genera Candida, Penicillium, Saccharomyces, Hanseniospora and Botryosphaeria. Potential microbial biomarkers that distinguish the three varieties are also proposed. Moreover, interaction networks analysis identified interactions among the key taxa of the communities. Overall, the present work provides useful information and sheds light on an understudied field, such as the comparison of microbiota profiles of different varieties from several regions in Cyprus. The study enriches our knowledge and highlights the similarities and the main differences between those aspects, booming in parallel the need for further works on this frontier, in the attempt to determine potentially olives’ microbial terroir in Cyprus. Our work should be used as a benchmark for future works in this direction.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2023.110111</t>
   </si>
   <si>
+    <t>The microbial ecologies of fish, such as the olive flounder (Paralichthys olivaceus), one of the most widely consumed fish in East Asia, remain to be elucidated. The microbiome of olive flounder and related environmental samples (i.e., feed, water, workers' aprons and gloves) were collected from six different sources (i.e., a fish farm, a transporting truck, a Wando market and restaurant, and a Seoul market and restaurant). These samples (n = 102) were investigated at various farm-to-distribution stages based on their 16S rRNA sequences. The microbial communities of fish from the farms and trucks were dominated by Photobacterium (&gt;86 %) and showed distinct differences from fish from the Wando and Seoul markets and restaurants. There was also a significant difference in fish microbiomes according to geographical location. The relative abundances of Shewanella, Acinetobacter, Enterobacteriaceae, and Pseudomonas increased as the distribution and consumption stages of the supply chain advanced. The percentages of Shewanella (24.74 %), Acinetobacter (18.32 %), and Enterobacteriaceae (11.24 %) in Wando, and Pseudomonas (42.98 %) in Seoul markets and restaurants implied the importance of sanitation control in these areas. Alpha and beta diversity results corresponded to taxonomic analyses and showed the division of two groups (i.e., fish from the production and transporting stage (farm and truck fish) and fish from the distribution and consumption stages (market and restaurant fish)). The present study provides an in-depth understanding of olive flounder and its environmental microbiomes and suggests control measures to improve food safety.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2022.109917</t>
   </si>
   <si>
+    <t>The annual consumption and production of oyster mushrooms (Pleurotus ostreatus) have continued to rise due to its nutritive and health-promoting benefits. Cultivated mushrooms are mostly grown in small to medium-scaled scale production plants that present hygienic challenges which could, in turn, increase associated foodborne pathogenic outbreaks. The present study aimed to investigate the shift in microbial ecologies of oyster mushrooms from pre-distribution (cultivation in bottles or on shelves) to post-distribution at supermarkets and open-air markets. Aerobic plate counts and coliforms were quantified using traditional microbiological techniques, and the microbiome associated with oyster mushrooms (n = 70) was analyzed using 16S rRNA amplicon sequencing for an enhanced level of bacterial microbiota profiling. Overall, coliforms recovered from pre-distribution bottle-cultivated mushrooms were 1.9 log CFU/g higher (p &lt; 0.05) than that of shelf-cultivated mushrooms. The mean aerobic plate counts of oyster mushrooms distributed to open-air markets was 1.2 log CFU/g higher (p &lt; 0.05) than packaged mushrooms from supermarkets while there were no significant differences in coliform counts. The pattern of bacterial composition differed by post-distribution channels, with oyster mushrooms collected from the open-air markets demonstrating the richest microbiome diversity. An increase in the relative abundance of Enterobacteriaceae (55–68 %) and Pseudomonadaceae (27–35 %) was observed in pre- and post-distribution mushrooms, respectively. However, no distinct bacterial microbiota differences were observed for the different cultivation methods or different geographical locations for each market type. The current findings add to our understanding of the effects of cultivation methods and commercial distribution channels regarding the microbiome of oyster mushrooms and may inform potential intervention strategies for future production and distribution processes. Furthermore, the tandem analyses of culture-dependent and culture-independent methods can provide more comprehensive information than that obtained when using each approach independently.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fbio.2022.102077</t>
   </si>
   <si>
+    <t xml:space="preserve">Table olives (Olea europaea L.) are one of the most important fermented vegetables worldwide, whereas sea fennel (Crithmum maritimum L.) represents an emerging food crop, characterized by interesting nutritional and sensory qualities. Both are characterized by a high concentration of bioactive compounds with health beneficial effects. Thanks to these features, table olives and sea fennel undoubtedly represent two valuable ingredients for the manufacture of innovative vegetable preserves. Given these premises, the present study was aimed at exploring the co-fermentation of green olives and sea fennel to produce laboratory-scale prototypes of innovative high value preserves. To this end, the effects of two recipes, two standard methods for production of table olives, and two fermentation microbiota (resident or inoculated) were assessed. The prototypes were evaluated for their microbial dynamics as well as for key sensory traits by a panel of trained assessors. During the fermentation, all the prototypes showed a progressive pH reduction. Mesophilic lactobacilli, mesophilic lactococci, and yeasts were the main microbial groups at the end of the fermentation, while Enterobacteriaceae decreased during fermentation. Metataxonomic analysis revealed an evolution of the microbiota, with Lactiplantibacillus plantarum dominating in all the prototypes in the late stage of fermentation, irrespective of the recipe, processing method, and starter inoculation. A greater crunchiness and lower fibrousness were perceived in the Greek style prototypes, which were preferred than Spanish style prototypes by trained </t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/foods11182775</t>
   </si>
   <si>
+    <t>Bacteria are an important part of wine ‘microbial terroir’ and contribute to the formation of wine flavor. Based on high-throughput sequencing and non-targeted metabonomic technology, this study first explored the bacterial composition and its effect on the aroma formation of spontaneously fermented ‘Cabernet Sauvignon’ (CS) wine in the Eastern Foot of Helan Mountain (EFHM), Ningxia. The results showed that there were significant differences in bacterial communities during fermentation of CS grapes harvested from different sub-regions of EFHM, with the earlier-established vineyard obtaining more species. The level of bacterial diversity initially decreased and then increased as the fermentation proceeded. Malolactic fermentation (MLF) was spontaneously initiated during alcohol fermentation (AF). Pantoea, Lactobacillus, Rhodococcus, Fructobacillus, and Komagataeibacter were the core bacterial genera in the fermentation mixture. Lactobacillus contributed to the synthesis of methyl and isobutyl esters and the formation of red and black fruity fragrances of wine. Fructobacillus was closely related to the synthesis of aromatic alcohols and the generation of floral flavors.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2022.104154</t>
   </si>
   <si>
+    <t>Wooden vats are used in the production of some traditional cheeses as the biofilms on wooden vat surfaces are known to transfer large quantities of microbes to cheese. However, very few studies have investigated the microbial composition of biofilms on newly developed wooden vats and how communities assemble and evolve. In the present study, the microbial communities of biofilms were characterized over the activation process on new wooden vats using amplicon sequencing of bacterial 16s rRNA and fungal internal transcribed spacer genes. Results showed that microbes from the whey effectively developed on wooden vats. Lactococcus was highly dominant throughout the vat activation process with substantial increases in the relative abundance of Acetobacter and Lactobacillus at the end of the vat activation (day 7). This was in contrast with fungal communities that stabilized early (day 1) and were dominated by Kluyveromyces. Predicted functions corresponded with the different stages of biofilm formation whereby functions associated with biofilm initiation were enriched on day 1 and those associated with growth and maturation were enriched on days 4 and 7. Microbial succession on wooden vat surfaces is expected to be reproducible based on the early onset and dominance of the deterministic process.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/microorganisms11030803</t>
   </si>
   <si>
+    <t>Sourdoughs (SDs) are spontaneously formed microbial ecosystems composed of various species of lactic acid bacteria (LAB) and acid-tolerant yeasts in food matrices of cereal flours mixed with water. To date, more than 90 LAB species have been isolated, significantly impacting the organoleptic characteristics, shelf life, and health properties of bakery products. To learn more about the unique bacterial communities involved in creating regional Bulgarian sourdoughs, we examined the metacommunities of five sourdoughs produced by spontaneous fermentation and maintained by backslopping in bakeries from three geographic locations. The 16S rRNA gene amplicon sequencing showed that the former genus Lactobacillus was predominant in the studied sourdoughs (51.0–78.9%). Weissella (0.9–42.8%), Herbaspirillum (1.6–3.8%), Serratia (0.1–11.7%), Pediococcus (0.2–7.5%), Bacteroides (0.1–1.3%), and Sphingomonas (0.1–0.5%) were also found in all 5 samples. Genera Leuconostoc, Enterococcus, Bacillus, and Asaia were sample-specific. It is interesting to note that the genus Weissella was more abundant in wholegrain samples. The greatest diversity at the species level was found in the former genus Lactobacillus, presented in the sourdough samples with 13 species. The UPGMA cluster analysis clearly demonstrated similarity in species’ relative abundance between samples from the same location. In addition, we can conclude that the presence of two main clusters—one including samples from mountainous places (the cities of Smolyan and Bansko) and the other including samples from the city of Ruse (the banks of the Danube River)—may indicate the impact of climate and geographic location (e.g., terrain, elevation, land use, and nearby water bodies and their streams) on the abundance of microbiome taxa. As the bacterial population is crucial for bread standardization, we expect the local bakery sector to be interested in the relationship between process variables and their effect on bacterial dynamics described in this research study.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2023.104307</t>
   </si>
   <si>
-    <t>The microbiota of high-moisture Mozzarella cheese made from cow's milk and produced with different acidification methods was evaluated at the end of refrigerated storage by pyrosequencing of the 16S rRNA gene. The cheeses were clearly separated on the basis of the acidification methods. Cheeses produced with the addition of starters were dominated by Streptococcus thermophilus, but a variety of lactic acid bacteria and spoilage microorganisms appeared at low levels (0.01–1%). Cheeses produced by direct addition of citric acid were dominated by a diverse microbiota, including both lactic acid bacteria and psychrotrophic γ-proteobacteria. For five brands the acidification system was not declared on the label: the microbiota was dominated by thermophilic lactic acid bacteria (S. thermophilus, Lactobacillus delbrueckii, Lactobacillus helveticus) but a variety of other subdominant lactic acid bacteria, psychrotrophs and Enterobacteriaceae were present, with a diversity comparable or higher to cheeses produced by direct acid addition. This led to the conclusion that undefined starters were used for acidification. Both ordination methods and network analysis were used for the representation of beta-diversity: matrix cluster analysis, principal coordinate analysis and OTU networks uncovered different aspects of the microbial community structure. For three cheese brands both biological replicates (cheeses from different lots) and technical replicates (replicate cheeses from the same lot) were analyzed. Repeatability was acceptable for OTUs appearing at frequencies &gt; 1%, but was low otherwise. A linear mixed model showed that the starter system was responsible for most differences related to dairies, while difference due to psychrotrophic contaminants was more related to lot-to-lot variability.</t>
-  </si>
-  <si>
-    <t>Model undefined thermophilic starter cultures were produced from raw milk of nine pasta-filata cheesemaking plants using a selective procedure based on pasteurization and incubation at high temperature with the objective of studying the microbial community dynamics and the variability in performances under repeated (7–13) reproduction cycles with backslopping. The traditional culture-dependent approach, based on random isolation and molecular characterization of isolates was coupled to the determination of pH and the evaluation of the ability to produce acid and fermentation metabolites. Moreover, a culture-independent approach based on amplicon-targeted next-generation sequencing was employed. The microbial diversity was evaluated by 16S rRNA gene sequencing (V1–V3 regions), while the microdiversity of Streptococcus thermophilus populations was explored by using novel approach based on sequencing of partial amplicons of the phosphoserine phosphatase gene (serB). In addition, the occurrence of bacteriophages was evaluated by qPCR and by multiplex PCR. Although it was relatively easy to select for a community dominated by thermophilic lactic acid bacteria (LAB) within a single reproduction cycle, final pH, LAB populations and acid production activity fluctuated over reproduction cycles. Both culture-dependent and -independent methods showed that the cultures were dominated by either S. thermophilus or Lactobacillus delbrueckii subsp. lactis or by both species. Nevertheless, subdominant mesophilic species, including lactococci and spoilage organisms, persisted at low levels. A limited number of serB sequence types (ST) were present in S. thermophilus populations. L. delbrueckii and Lactococcus lactis bacteriophages were below the detection limit of the method used and high titres of cos type S. thermophilus bacteriophages were detected in only two cases. In one case a high titre of bacteriophages was concurrent with a S. thermophilus biotype shift in the culture. This study largely confirms previous data on the composition of undefined thermophilic starters used for the production of traditional cheeses in Italy but it is the first one to systematically address the dynamics of the cultures under a repeated reproduction regime with backslopping.</t>
-  </si>
-  <si>
-    <t>Mozzarella (M), Grana Padano (GP) and Parmigiano Reggiano (PR) are three of the most important traditional Italian cheeses. In the three cheese manufactures the initial fermentation is carried out by adding natural whey cultures (NWCs) according to a back-slopping procedure. In this study, NWCs and the corresponding curds from M, GP and PR manufactures were analyzed by culture-independent pyrosequencing of the amplified V1–V3 regions of the 16S rRNA gene, in order to provide insights into the microbiota involved in the curd acidification. Moreover, culture-independent high-throughput sequencing of lacS gene amplicons was carried out to evaluate the biodiversity occurring within the S. thermophilus species. Beta diversity analysis showed a species-based differentiation between GP-PR and M manufactures indicating differences between the preparations. Nevertheless, all the samples shared a naturally-selected core microbiome, that is involved in the curd acidification. Type-level variability within S. thermophilus species was also found and twenty-eight lacS gene sequence types were identified. Although lacS gene did not prove variable enough within S. thermophilus species to be used for quantitative biotype monitoring, the possibility of using non rRNA targets for quantitative biotype identification in food was highlighted.</t>
-  </si>
-  <si>
-    <t>Intermediates of production of two batches of traditional mozzarella cheese were analyzed by culture-independent pyrosequencing. The quantitative distribution of taxa within the samples suggested that thermophilic lactic acid bacteria from the natural starter were mainly responsible for the fermentation, while microorganisms found in raw milk did not develop during fermentation.</t>
-  </si>
-  <si>
-    <t>Kefir is a fermented milk-based beverage to which a number of health-promoting properties have been attributed. The microbes responsible for the fermentation of milk to produce kefir consist of a complex association of bacteria and yeasts, bound within a polysaccharide matrix, known as the kefir grain. The consistency of this microbial population, and that present in the resultant beverage, has been the subject of a number of previous, almost exclusively culture-based, studies which have indicated differences depending on geographical location and culture conditions. However, culture-based identification studies are limited by virtue of only detecting species with the ability to grow on the specific medium used and thus culture-independent, molecular-based techniques offer the potential for a more comprehensive analysis of such communities. Here we describe a detailed investigation of the microbial population, both bacterial and fungal, of kefir, using high-throughput sequencing to analyse 25 kefir milks and associated grains sourced from 8 geographically distinct regions. This is the first occasion that this technology has been employed to investigate the fungal component of these populations or to reveal the microbial composition of such an extensive number of kefir grains or milks. As a result several genera and species not previously identified in kefir were revealed. Our analysis shows that the bacterial populations in kefir are dominated by 2 phyla, the Firmicutes and the Proteobacteria. It was also established that the fungal populations of kefir were dominated by the genera Kazachstania, Kluyveromyces and Naumovozyma, but that a variable sub-dominant population also exists.</t>
-  </si>
-  <si>
-    <t>Pyrosequencing of the 16S rRNA gene, community-level physiological profiles determined by the use of Biolog EcoPlates, and proteolysis analyses were used to characterize Canestrato Pugliese Protected Designation of Origin (PDO) cheese. The number of presumptive mesophilic lactococci in raw ewes' milk was higher than that of presumptive mesophilic lactobacilli. The numbers of these microbial groups increased during ripening, showing temporal and numerical differences. Urea-PAGE showed limited primary proteolysis, whereas the analysis of the pH 4.6-soluble fraction of the cheese revealed that secondary proteolysis increased mainly from 45 to 75 days of ripening. This agreed with the concentration of free amino acids. Raw ewes' milk was contaminated by several bacterial phyla: Proteobacteria (68%; mainly Pseudomonas), Firmicutes (30%; mainly Carnobacterium and Lactococcus), Bacteroidetes (0.05%), and Actinobacteria (0.02%). Almost the same microbial composition persisted in the curd after molding. From day 1 of ripening onwards, the phylum Firmicutes dominated. Lactococcus dominated throughout ripening, and most of the Lactobacillus species appeared only at 7 or 15 days. At 90 days, Lactococcus (87.2%), Lactobacillus (4.8%; mainly Lactobacillus plantarum and Lactobacillus sakei), and Leuconostoc (3.9%) dominated. The relative utilization of carbon sources by the bacterial community reflected the succession. This study identified strategic phases that characterized the manufacture and ripening of Canestrato Pugliese cheese and established a causal relationship between mesophilic lactobacilli and proteolysis.</t>
-  </si>
-  <si>
-    <t>Pyrosequencing of the 16S rRNA targeting RNA, community-level physiological profiles made with Biolog EcoPlates, proteolysis, and volatile component (VOC) analyses were mainly used to characterize the manufacture and ripening of the pasta filata cheese Caciocavallo Pugliese. Plate counts revealed that cheese manufacture affected the microbial ecology. The results agreed with those from culture-independent approaches. As shown by urea-PAGE, reverse-phase high pressure liquid chromatography (RP-HPLC), and free-amino-acid (FAA) analyses, the extent of secondary proteolysis mainly increased after 30 to 45 days of ripening. VOCs and volatile free fatty acids (VFFA) were identified by a purge-and-trap method (PT) and solid-phase microextraction (SPME) coupled with gas chromatography-mass spectrometry (GC-MS), respectively. Except for aldehydes, the levels of most of VOCs and VFFA mainly increased from 30 to 45 days onwards. As shown through pyrosequencing analysis, raw cows' milk was contaminated by Firmicutes (53%), Proteobacteria (39%), Bacteroidetes (7.8%), Actinobacteria (0.06%), and Fusobacteria (0.03%), with heterogeneity at the genus level. The primary starter Streptococcus thermophilus dominated the curd population. Other genera occurred at low incidence or sporadically. The microbial dynamics reflected on the overall physiological diversity. At 30 days, a microbial succession was clearly highlighted. The relative abundance of Streptococcus sp. and especially St. thermophilus decreased, while that of Lactobacillus casei, Lactobacillus sp., and especially Lactobacillus paracasei increased consistently. Despite the lower relative abundance compared to St. thermophilus, mesophilic lactobacilli were the only organisms positively correlated with the concentration of FAAs, area of hydrophilic peptide peaks, and several VOCs (e.g., alcohols, ketones, esters and all furans). This study showed that a core microbiota was naturally selected during middle ripening, which seemed to be the main factor responsible for cheese ripening.</t>
-  </si>
-  <si>
-    <t>Fontina Protected Denomination of Origin (PDO) cheese is a full-fat semi-cooked cheese traditionally made in Northwest Italy (Aosta Valley) and manufactured from raw cow's milk. The management of cattle farms in Aosta Valley calls for seasonal migration to high pastures during the summer and the concentration of calving during the autumn and the beginning of the winter. Based on cattle physiology and given to calving seasonality, three cow lactation phases i.e. post-partum, oestrus and early gestation, can be identified and an effect could be hypothesized on average milk composition and on cheese quality. The aim of the present paper was to investigate the bacterial dynamics during Fontina PDO cheese manufacturing and ripening, in relation to the different lactation stages, in order to evaluate a possible correlation between microbiota and phase of lactation. For this purpose, microbial RNA analysis was carried out by RT-PCR coupled with DGGE and high-throughput sequencing. A good performance of the starter cultures was highlighted throughout Fontina PDO manufacturing and ripening; in fact, the starter prevailed against the autochthonous microbiota. Thus, the microbial activity, which was supposed to affect the final quality of Fontina PDO cheese, appeared to be strictly associated to the presence of the starter, which did not show any difference in its performance according to the different stages of cow lactation. Therefore, the results of this research highlighted a negligible correlation between the microbiota of raw milk and the organoleptic quality and typicity of Fontina cheese in relation to lactation seasonality.</t>
-  </si>
-  <si>
-    <t>The microbial ecology of cheese involves a rich and complex interaction between starter lactic acid bacteria and nonstarter lactic acid bacteria (NSLAB), mainly originating from raw milk and/or from the environment, that can contribute to the final characteristics of cheese. The aim of the present research was the exploration of the active microbiota by RNA-based approaches during the manufacturing and ripening of a Grana-like cheese. Reverse transcriptase PCR (RT-PCR)-denaturing gradient gel electrophoresis (DGGE) and RNA-based high-throughput sequencing were applied to profile microbial populations, while the enumeration of active bacteria was carried out by using quantitative PCR (qPCR). Three different cheese productions (named D, E, and F) collected in the same month from the same dairy plant were analyzed. The application of the qPCR protocol revealed the presence of 7 log CFU/ml of bacterial load in raw milk, while, during ripening, active bacterial populations ranged from &lt;4 to 8 log CFU/ml. The natural whey starters used in the three productions showed the same microbiota composition, characterized by the presence of Lactobacillus helveticus and Lactobacillus delbrueckii. Nevertheless, beta-diversity analysis of the 16S rRNA sequencing data and RT-PCR-DGGE showed a clear clustering of the samples according to the three productions, probably driven by the different milks used. Milk samples were found to be characterized by the presence of several contaminants, such as Propionibacterium acnes, Acidovorax, Acinetobacter, Pseudomonas, and NSLAB. The core genera of the starter tended to limit the development of the spoilage bacteria only in two of the three batches. This study underlines the influence of different factors that can affect the final microbiota composition of the artisanal cheese. batches. This study underlines the influence of different factors that can affect the final microbiota composition of the artisanal cheese. IMPORTANCE This study highlights the importance of the quality of the raw milk in the production of a hard cheese. Independent from the use of a starter culture, raw milk with low microbiological quality can negatively affect the populations of lactic acid bacteria and, as a consequence, impact the quality of the final product due to metabolic processes associated with spoilage bacteria.</t>
-  </si>
-  <si>
-    <t>Traditional cheeses harbour complex microbial consortia that play an important role in shaping typical sensorial properties. However, the microbial metabolism is considered difficult to control. Microbial community succession and the related gene expression were analysed during ripening of a traditional Italian cheese, identifying parameters that could be modified to accelerate ripening. Afterwards, we modulated ripening conditions and observed consistent changes in microbial community structure and function. We provide concrete evidence of the essential contribution of non-starter lactic acid bacteria in ripening-related activities. An increase in the ripening temperature promoted the expression of genes related to proteolysis, lipolysis and amino acid/lipid catabolism and significantly increases the cheese maturation rate. Moreover, temperature-promoted microbial metabolisms were consistent with the metabolomic profiles of proteins and volatile organic compounds in the cheese. The results clearly indicate how processing-driven microbiome responses can be modulated in order to optimize production efficiency and product quality.</t>
-  </si>
-  <si>
-    <t>Microbial growth on meat to unacceptable levels contributes significantly to change meat structure, color and flavor and to cause meat spoilage. The types of microorganisms initially present in meat depend on several factors and multiple sources of contamination can be identified. The aims of this study were to evaluate the microbial diversity in beefsteaks before and after aerobic storage at 4°C and to investigate the sources of microbial contamination by examining the microbiota of carcasses wherefrom the steaks originated and of the processing environment where the beef was handled. Carcass, environmental (processing plant) and meat samples were analyzed by culture-independent high-throughput sequencing of 16S rRNA gene amplicons. The microbiota of carcass swabs was very complex, including more than 600 operational taxonomic units (OTUs) belonging to 15 different phyla. A significant association was found between beef microbiota and specific beef cuts (P&lt;0.01) indicating that different cuts of the same carcass can influence the microbial contamination of beef. Despite the initially high complexity of the carcass microbiota, the steaks after aerobic storage at 4°C showed a dramatic decrease in microbial complexity. Pseudomonas sp. and Brochothrix thermosphacta were the main contaminants, and Acinetobacter, Psychrobacter and Enterobacteriaceae were also found. Comparing the relative abundance of OTUs in the different samples it was shown that abundant OTUs in beefsteaks after storage occurred in the corresponding carcass. However, the abundance of these same OTUs clearly increased in environmental samples taken in the processing plant suggesting that spoilage-associated microbial species originate from carcasses, they are carried to the processing environment where the meat is handled and there they become a resident microbiota. Such microbiota is then further spread on meat when it is handled and it represents the starting microbial association wherefrom the most efficiently growing microbial species take over during storage and can cause spoilage.</t>
-  </si>
-  <si>
-    <t>In Italy, fermented sausages (called “salami”) are consumed in large quantities. Salami samples from a local meat factory in the area of Torino were analyzed at 0, 3, 7, 30 and 45 days of ripening. Swab samples from the production environment were also collected at the beginning of the experiment. The diversity of metabolically active microbiota occurring during the natural fermentation of salami was evaluated by using RT-PCR-DGGE coupled with RNA-based pyrosequencing of the 16S rRNA gene. A culture-dependent approach was also applied to identify and characterize isolated Staphylococcaceae and LAB populations. Staphylococcus succinus, Staphylococcus xylosus and Lactobacillus sakei were the species most frequently isolated during the maturation time. Rep-PCR analysis showed that S. succinus and S. xylosus isolated from swabs and salami samples clustered together, suggesting possible contamination during the production process. RT-PCR-DGGE and rRNA-based pyrosequencing showed that the metabolically active populations were dominated by S. succinus, Lb. sakei and Leuconostoc carnosum. In this specific case study, only a few species belonging to Staphylococcaceae, Lactobacillaceae and Leuconostocaceae may be metabolically active and contribute to determine the final characteristics of the products.</t>
-  </si>
-  <si>
-    <t>Beef burgers were stored at 4°C in a vacuum in nisin-activated antimicrobial packaging. Microbial ecology analyses were performed on samples collected between days 0 and 21 of storage to discover the population diversity. Two batches were analyzed using RNA-based denaturing gradient gel electrophoresis (DGGE) and pyrosequencing. The active packaging retarded the growth of the total viable bacteria and lactic acid bacteria. Culture-independent analysis by pyrosequencing of RNA extracted directly from meat showed that Photobacterium phosphoreum, Lactococcus piscium, Lactobacillus sakei, and Leuconostoc carnosum were the major operational taxonomic units (OTUs) shared between control and treated samples. Beta diversity analysis of the 16S rRNA sequence data and RNA-DGGE showed a clear separation between two batches based on the microbiota. Control samples from batch B showed a significant high abundance of some taxa sensitive to nisin, such as Kocuria rhizophila, Staphylococcus xylosus, Leuconostoc carnosum, and Carnobacterium divergens, compared to control samples from batch A. However, only from batch B was it possible to find a significant difference between controls and treated samples during storage due to the active packaging. Predicted metagenomes confirmed differences between the two batches and indicated that the use of nisin-based antimicrobial packaging can determine a reduction in the abundance of specific metabolic pathways related to spoilage. The present study aimed to assess the viable bacterial communities in beef burgers stored in nisin-based antimicrobial packaging, and it highlights the efficacy of this strategy to prolong beef burger shelf life.</t>
-  </si>
-  <si>
-    <t>Limited information is available on the impact of the NaOH treatment on table olive fermentations, and for this reason a polyphasic approach has been adopted here to investigate its effect on the fermentation dynamics and bacterial biodiversity. The microbial counts of the main groups involved in the transformation have not shown any differences, apart from a more prompt start of the fermentation when the olives were subjected to the NaOH treatment. The data produced by culture-independent analyses highlighted that the fermentation of table olives not treated with NaOH is the result of the coexistence of two different ecosystems: the surface of the olives and the brines. A sodium hydroxide treatment not only eliminates this difference, but also affects the bacterial ecology of the olives to a great extent. As proved by high-throughput sequencing, the fermentation of the olives not treated with NaOH was characterized by the presence of halophilic bacteria, which were substituted by Lactobacillus at the later stages of the fermentation, while enterobacteria were dominant when the olives were treated with sodium hydroxide. Higher biodiversity was found for Lactobacillus plantarum isolated during untreated fermentation. Different biotypes were found on the olive surface and in the brines. When the debittering process was carried out, a decrease in the number of L. plantarum biotypes were observed and those originating from the surface of the olive did not differentiate from the ones present in the brines.</t>
-  </si>
-  <si>
-    <t>Triticum turgidum subsp. durum was grown according to four farming systems: conventional (CONV), organic with cow manure (OMAN) or green manure (OLEG), and without inputs (NOINPUT). Some chemical and technological characteristics differed between CONV and organic flours. As shown by two-dimensional electrophoresis (2-DE) analysis, OMAN and OLEG flours showed the highest number of gliadins, and OMAN flour also had the highest number of high-molecular-mass glutenins. Type I sourdoughs were prepared at the laboratory level through a back-slopping procedure, and the bacterial ecology during sourdough preparation was described by 16S rRNA gene pyrosequencing. Before fermentation, the dough made with CONV flour showed the highest bacterial diversity. Flours were variously contaminated by genera belonging to the Proteobacteria, Firmicutes, and Actinobacteria. Mature sourdoughs were completely and stably dominated by lactic acid bacteria. The diversity of Firmicutes was the highest for mature sourdoughs made with organic and, especially, NOINPUT flours. Beta diversity analysis based on the weighted UniFrac distance showed differences between doughs and sourdoughs. Those made with CONV flour were separated from the other with organic flours. Lactic acid bacterium microbiota structure was qualitatively confirmed through the culturing method. As shown by PCR-denaturing gradient gel electrophoresis (DGGE) analysis, yeasts belonging to the genera Saccharomyces, Candida, Kazachstania, and Rhodotorula occurred in all sourdoughs. Levels of bound phenolic acids and phytase and antioxidant activities differed depending on the farming system. Mature sourdoughs were used for bread making. Technological characteristics were superior in the breads made with organic sourdoughs. The farming system is another determinant affecting the sourdough microbiota. The organic cultivation of durum wheat was reflected along the flour-sourdough fermentation-bread axis.</t>
-  </si>
-  <si>
-    <t>The bacterial ecology during rye and wheat sourdough preparation was described by 16S rRNA gene pyrosequencing. Viable plate counts of presumptive lactic acid bacteria, the ratio between lactic acid bacteria and yeasts, the rate of acidification, a permutation analysis based on biochemical and microbial features, the number of operational taxonomic units (OTUs), and diversity indices all together demonstrated the maturity of the sourdoughs during 5 to 7 days of propagation. Flours were mainly contaminated by metabolically active genera (Acinetobacter, Pantoea, Pseudomonas, Comamonas, Enterobacter, Erwinia, and Sphingomonas) belonging to the phylum Proteobacteria or Bacteroidetes (genus Chryseobacterium). Their relative abundances varied with the flour. Soon after 1 day of propagation, this population was almost completely inhibited except for the Enterobacteriaceae. Although members of the phylum Firmicutes were present at very low or intermediate relative abundances in the flours, they became dominant soon after 1 day of propagation. Lactic acid bacteria were almost exclusively representative of the Firmicutes by this time. Weissella spp. were already dominant in rye flour and stably persisted, though they were later flanked by the Lactobacillus sakei group. There was a succession of species during 10 days of propagation of wheat sourdoughs. The fluctuation between dominating and subdominating populations of L. sakei group, Leuconostoc spp., Weissella spp., and Lactococcus lactis was demonstrated. Other subdominant species such as Lactobacillus plantarum were detectable throughout propagation. As shown by PCR-denaturing gradient gel electrophoresis (PCR-DGGE) analysis, Saccharomyces cerevisiae dominated throughout the sourdough propagation. Notwithstanding variations due to environmental and technology determinants, the results of this study represent a clear example of how the microbial ecology evolves during sourdough preparation.</t>
-  </si>
-  <si>
-    <t>Microbial contamination in food processing plants can play a fundamental role in food quality and safety. In this study, the microbiota in a dairy plant was studied by both 16S rRNA- and 26S rRNA-based culture-independent high-throughput amplicon sequencing. Environmental samples from surfaces and tools were studied along with the different types of cheese produced in the same plant. The microbiota of environmental swabs was very complex, including more than 200 operational taxonomic units with extremely variable relative abundances (0.01 to 99%) depending on the species and sample. A core microbiota shared by 70% of the samples indicated a coexistence of lactic acid bacteria with a remarkable level of Streptococcus thermophilus and possible spoilage-associated bacteria, including Pseudomonas, Acinetobacter, and Psychrobacter, with a relative abundance above 50%. The most abundant yeasts were Kluyveromyces marxianus, Yamadazyma triangularis, Trichosporon faecale, and Debaryomyces hansenii. Beta-diversity analyses showed a clear separation of environmental and cheese samples based on both yeast and bacterial community structure. In addition, predicted metagenomes also indicated differential distribution of metabolic pathways between the two categories of samples. Cooccurrence and coexclusion pattern analyses indicated that the occurrence of potential spoilers was excluded by lactic acid bacteria. In addition, their persistence in the environment can be helpful to counter the development of potential spoilers that may contaminate the cheeses, with possible negative effects on their microbiological quality.</t>
-  </si>
-  <si>
-    <t>Mesophilic and psychrotrophic organism viable counts, as well as high-throughput 16S rRNA gene-based pyrosequencing, were performed with the aim of elucidating the origin of psychrotrophic lactic acid bacteria (LAB) in a ready-to-eat (RTE) meal manufacturing plant. The microbial counts of the products at the end of the shelf life were greatly underestimated when mesophilic incubation was implemented due to overlooked, psychrotrophic members of the LAB. Pseudomonas spp., Enterobacteriaceae, Streptococcaceae, and Lactobacillus spp. constituted the most widespread operational taxonomic units (OTUs), whereas Leuconostoc gelidum was detected as a minor member of the indigenous microbiota of the food ingredients and microbial community of the processing environment, albeit it colonized samples at almost every sampling point on the premises. However, L. gelidum became the most predominant microbe at the end of the shelf life. The ability of L. gelidum to outgrow notorious, spoilage-related taxa like Pseudomonas, Brochothrix, and Lactobacillus underpins its high growth dynamics and severe spoilage character under refrigeration temperatures. The use of predicted metagenomes was useful for observation of putative gene repertoires in the samples analyzed in this study. The end products grouped in clusters characterized by gene profiles related to carbohydrate depletion presumably associated with a fast energy yield, a finding which is consistent with the fastidious nature of highly competitive LAB that dominated at the end of the shelf life. The present study showcases the detrimental impact of contamination with psychrotrophic LAB on the shelf life of packaged and cold-stored foodstuffs and the long-term quality implications for production batches once resident microbiota are established in the processing environment.</t>
-  </si>
-  <si>
-    <t>Microbial contamination in foodservice environments plays a fundamental role in food quality and safety. In such environments the composition of the microbiota is influenced by the characteristics of the specific surfaces and by food handling and processing and a resident microbiota may be present in each site. In this study, the bacterial biogeographical patterns in a hospital cooking center was studied by 16S rRNA-based culture-independent high-throughput amplicon sequencing in order to provide a comprehensive mapping of the surfaces and tools that come in contact with foods during preparation. Across all area, surface swab-samples from work surfaces of different zones were taken: food pre-processing rooms (dedicated to fish, vegetables, and red and white meat), storage room and kitchen. The microbiota of environmental swabs was very complex, including more than 500 operational taxonomic units (OTUs) with extremely variable relative abundances (0.02–99%) depending on the species. A core microbiota was found that was common to more than 70% of the samples analyzed and that included microbial species that were common across all areas such as Acinetobacter, Chryseobacterium, Moraxellaceae, and Alicyclobacillus, although their abundances were below 10% of the microbiota. Some surfaces were contaminated by high levels of either Pseudomonas, Psychrobacter, Paracoccus, or Kocuria. However, beta diversity analysis showed that, based on the composition of the microbiota, the environmental samples grouped according to the sampling time but not according to the specific area of sampling except for the case of samples from the vegetable pre-processing room that showed a higher level of similarity. The cleaning procedures can have a very strong impact on the spatial distribution of the microbial communities, as the use of the same cleaning tools can be even a possible vector of bacterial diffusion. Most of the microbial taxa found are not those commonly found in food as spoilers or hazardous bacteria, which indicates that food and storage conditions can be very selective in the growth of possible contaminants.</t>
-  </si>
-  <si>
-    <t>Microbial contamination in food processing plants can play a fundamental role in food quality and safety. The aims of this study were to learn more about the possible influence of the meat processing environment on initial fresh meat contamination and to investigate the differences between small-scale retail distribution (SD) and large-scale retail distribution (LD) facilities. Samples were collected from butcheries (n = 20), including LD (n = 10) and SD (n = 10) facilities, over two sampling campaigns. Samples included fresh beef and pork cuts and swab samples from the knife, the chopping board, and the butcher's hand. The microbiota of both meat samples and environmental swabs were very complex, including more than 800 operational taxonomic units (OTUs) collapsed at the species level. The 16S rRNA sequencing analysis showed that core microbiota were shared by 80% of the samples and included Pseudomonas spp., Streptococcus spp., Brochothrix spp., Psychrobacter spp., and Acinetobacter spp. Hierarchical clustering of the samples based on the microbiota showed a certain separation between meat and environmental samples, with higher levels of Proteobacteria in meat. In particular, levels of Pseudomonas and several Enterobacteriaceae members were significantly higher in meat samples, while Brochothrix, Staphylococcus, lactic acid bacteria, and Psychrobacter prevailed in environmental swab samples. Consistent clustering was also observed when metabolic activities were considered by predictive metagenomic analysis of the samples. An increase in carbohydrate metabolism was predicted for the environmental swabs and was consistently linked to Firmicutes, while increases in pathways related to amino acid and lipid metabolism were predicted for the meat samples and were positively correlated with Proteobacteria. Our results highlighted the importance of the processing environment in contributing to the initial microbial levels of meat and clearly showed that the type of retail facility (LD or SD) did not apparently affect the contamination. IMPORTANCE The study provides an in-depth description of the microbiota of meat and meat processing environments. It highlights the importance of the environment as a contamination source of spoilage bacteria, and it shows that the size of the retail facility does not affect the level and type of contamination.</t>
-  </si>
-  <si>
-    <t>This study was aimed at establishing the relationships between house, rind and core microbiotas of cheese varieties manufactured at the same industrial dairy plant. Caciotta and Caciocavallo Pugliese cheeses were chosen as model systems. Mesophilic lactobacilli, cocci and, especially, thermophilic cocci were the most abundant cultivable bacteria found on equipment, which were located in the production area. According to cell counts, catabolic profiles of microbial communities deriving from equipment, and cheese core and rind differed. As shown by 16S rRNA targeted metagenomics, Streptococcus thermophilus dominated the communities from knife surface, brine tank, curds and core cheeses as well as it was the main colonizing bacterium from drain table, rinds and ripening room of Caciocavallo Pugliese cheeses. Compared to S. thermophilus, the other starters used (Lactococcus lactis, Lactobacillus delbrueckii subsp. lactis and Lactobacillus helveticus) showed low relative abundance in cheeses and/or colonization capability. A set of other genera/species, which varied depending on the equipment surfaces and cheese making, contributed to the formation of a rather heterogeneous house microbiota. Representatives from such communities had (e.g., Lactobacillus casei, Lactobacillus plantarum group) or not (e.g., Actinobacteria) the capacity to colonize cheeses, which depended on the variety (Caciocavallo Pugliese or Caciotta cheese) and layer (rind or core). Other genera/species were mainly associated to the rind and ripening room of Caciotta (Staphylococcus species and Brochothrix spp.) or Caciocavallo Pugliese (Chromohalobacter and Sphingomonas) cheeses.</t>
-  </si>
-  <si>
-    <t>The environment of hard cheese encourages bacterial synergies and competitions along the ripening process, which might lead in defects such as clostridial blowing. In this study, Denaturing Gradient Gel Electrophoresis (DGGE), a quantitative Clostridium tyrobutyricum PCR and next-generation Illumina-based sequencing of 16S rRNA gene were applied to study 83 Grana Padano spoiled samples. The aim was to investigate the community of clostridia involved in spoilage, the ecological relationships with the other members of the cheese microbiota, and the effect of lysozyme. Three main genera were dominant in the analysed cheeses, Lactobacillus, Streptococcus and Clostridium, and the assignment at the species level was of 94.3% of 4,477,326 high quality sequences. C. tyrobutyricum and C. butyricum were the most prevalent clostridia. Hierarchical clustering based on the abundance of bacterial genera, revealed three main clusters: one characterized by the highest proportion of Clostridium, a second where Lactobacillus was predominant and the last, dominated by Streptococcus thermophilus. Ecological relationships among species were found: cheeses characterized by an high abundance of S. thermophilus and L. rhamnosus were spoiled by C. tyrobutyricum while, when L. delbrueckii was the most abundant Lactobacillus, C. butyricum was the dominant spoiling species. Lysozyme also shaped the bacterial community, reducing C. tyrobutyricum in favour of C. butyricum. Moreover, this preservative increased the proportion of L. delbrueckii and obligate heterofermentative lactobacilli and lowered L. helveticus and non-starter species, such as L. rhamnosus and L. casei.</t>
-  </si>
-  <si>
-    <t>Natural casings derived from different intestine portions have been used for centuries in the production of fresh and dry-fermented sausages. Here we analysed by means of culture-dependent methods and Illumina high-throughput sequencing of 16S rRNA amplicons the bacterial ecology of hog, cow and ovine casings at different stages of their preparation for sausages production. Several strains of Staphylococcus, Lactobacillus, Bifidobacterium, Vagococcus and Clostridium were counted, isolated and characterised at phylogenetic level. High-throughput sequencing analyses revealed a high bacterial diversity, which differed strongly between casings of different animal species. The technological processes involved in the preparation for casing had also a strong impact on the casings bacterial ecology, with a significant reduction of undesired microorganisms, and an increase in the proportion of lactobacilli and staphylococci. Natural casings were demonstrated to be complex ecological environments, whose role as microbiological inoculants in the production of sausages should not be underestimated.</t>
-  </si>
-  <si>
-    <t>We sought to determine if the time, within a production day, that a cheese is manufactured has an influence on the microbial community present within that cheese. To facilitate this, 16S rRNA amplicon sequencing was used to elucidate the microbial community dynamics of brine-salted continental-type cheese in cheeses produced early and late in the production day. Differences in the microbial composition of the core and rind of the cheese were also investigated. Throughout ripening, it was apparent that cheeses produced late in the day had a more diverse microbial population than their early equivalents. Spatial variation between the cheese core and rind was also noted in that cheese rinds were initially found to have a more diverse microbial population but thereafter the opposite was the case. Interestingly, the genera Thermus, Pseudoalteromonas, and Bifidobacterium, not routinely associated with a continental-type cheese produced from pasteurized milk, were detected. The significance, if any, of the presence of these genera will require further attention. Ultimately, the use of high-throughput sequencing has facilitated a novel and detailed analysis of the temporal and spatial distribution of microbes in this complex cheese system and established that the period during a production cycle at which a cheese is manufactured can influence its microbial composition.</t>
-  </si>
-  <si>
-    <t>This study aimed to utilize an “omics” approach to evaluate the ability of selected lactobacilli and yeasts to improve the fermentation process of Bella di Cerignola table olives. Four types of fermentations were performed at the pilot-plant scale: un-started fermented olives used as a control (Ctrl); olives started with a commercial Lactobacillus plantarum strain (S); commercial L. plantarum strain and autochthonous yeast Wickeramomyces anomalus DiSSPA73 (SY); and L. plantarum, W. anomalus DiSSPA73, autochthonous L. plantarum DiSSPA1A7 and Lactobacillus pentosus DiSSPA7 (SYL). Compared to Ctrl, S, SY, SYL showed a higher acidification (P &lt; 0.05) of the brine, which reached a pH value of 4.49 after one day of fermentation. The microbiota of unfermented olives and brine after one day of fermentation was primarily composed of Enterobacteria that belonged to Hafnia alvei and Methylobacterium. However, L. plantarum and L. pentosus dominated the total and metabolically active microbiota of the Ctrl brines and olives at the end of the fermentation. The use of lactobacilli and W. anomalus DiSSPA73 as a starter culture markedly affected the microbiota of the brines after one day of fermentation. The number of species (OTU) and the results of an alpha diversity analysis indicated that the microbial diversity of the brines was markedly simplified by the S, SY and, in particular, SYL fermentations. According to the lowest biodiversity, S, SY and SYL samples showed the lowest abundance of Proteobacteria, including Enterobacteriacea, Lactococcus lactis, Propionibacterium acidipropionici and Clostridium. The lactobacilli and W. anomalus DiSSPA73 used in this study markedly affected the amounts of free amino acids, phenolic and volatile organic compounds. Both a texture profile analysis and a sensory evaluation showed the highest appreciation for all of the started table olives. As shown through microbiological, biochemical, and sensory analyses, an accelerated fermentation of Bella di Cerignola table olives was achieved using the selected lactobacilli and yeast strains.</t>
-  </si>
-  <si>
-    <t>This study aimed at understanding the extent of contamination by lactic acid bacteria (LAB) and yeasts from the house microbiotas during sourdough back-slopping. Besides sourdoughs, wall, air, storage box, dough mixer and flour of four bakeries were analyzed. Based on plate counts, LAB and yeasts dominated the house microbiota. Based on high throughput sequencing of the 16S rRNA genes, flour harbored the highest number of Firmicutes, but only few of them adapted to storage box, dough mixer and sourdough. Lactobacillus sanfranciscensis showed the highest abundance in dough mixer and sourdoughs. Lactobacillus plantarum persisted only in storage box, dough mixer and sourdough of two bakeries. Weissella cibaria also showed higher adaptability in sourdough than in bakery equipment, suggesting that flour is the main origin of this species. Based on 18S rRNA data, Saccharomyces cerevisiae was the dominant yeast in house and sourdough microbiotas, excepted one bakery dominated by Kazachstania exigua. The results of this study suggest that the dominant species of sourdough LAB and yeasts dominated also the house microbiota.</t>
-  </si>
-  <si>
-    <t>Fresh herbs such as basil constitute an important food commodity worldwide. Basil provides considerable culinary and health benefits, but has also been implicated in foodborne illnesses. The naturally occurring bacterial community on basil leaves is currently unknown, so the epiphytic bacterial community was investigated using the culture-independent techniques denaturing gradient gel electrophoresis (DGGE) and next-generation sequencing (NGS). Sample preparation had a major influence on the results from DGGE and NGS: Novosphingobium was the dominant genus for three different basil batches obtained by maceration of basil leaves, while washing of the leaves yielded lower numbers but more variable dominant bacterial genera including Klebsiella, Pantoea, Flavobacterium, Sphingobacterium and Pseudomonas. During storage of basil, bacterial growth and shifts in the bacterial community were observed with DGGE and NGS. Spoilage was not associated with specific bacterial groups and presumably caused by physiological tissue deterioration and visual defects, rather than by bacterial growth.</t>
-  </si>
-  <si>
-    <t>Refrigerated food processing facilities are specific man-made niches likely to harbor cold-tolerant bacteria. To characterize this type of microbiota and study the link between processing plant and product microbiomes, we followed and compared microbiota associated with the raw materials and processing stages of a vacuum-packaged, cooked sausage product affected by a prolonged quality fluctuation with occasional spoilage manifestations during shelf life. A total of 195 samples were subjected to culturing and amplicon sequence analyses. Abundant mesophilic psychrotrophs were detected within the microbiomes throughout the different compartments of the production plant environment. However, each of the main genera of food safety and quality interest, e.g., Leuconostoc, Brochothrix, and Yersinia, had their own characteristic patterns of contamination. Bacteria from the genus Leuconostoc, commonly causing spoilage of cold-stored, modified-atmosphere-packaged foods, were detected in high abundance (up to &gt;98%) in the sausages studied. The same operational taxonomic units (OTUs) were, however, detected in lower abundances in raw meat and emulsion (average relative abundance of 2% ± 5%), as well as on the processing plant surfaces (&lt;4%). A completely different abundance profile was found for OTUs phylogenetically close to the species Yersinia pseudotuberculosis. These OTUs were detected in high abundance (up to 28%) on the processing plant surfaces but to a lesser extent (&lt;1%) in raw meat, sausage emulsion, and sausages. The fact that Yersinia-like OTUs were found on the surfaces of a high-hygiene packaging compartment raises food safety concerns related to their resilient existence on surfaces.</t>
-  </si>
-  <si>
-    <t>Fresh fruits and vegetables can harbor large and diverse populations of bacteria. However, most of the work on produce-associated bacteria has focused on a relatively small number of pathogenic bacteria and, as a result, we know far less about the overall diversity and composition of those bacterial communities found on produce and how the structure of these communities varies across produce types. Moreover, we lack a comprehensive view of the potential effects of differing farming practices on the bacterial communities to which consumers are exposed. We addressed these knowledge gaps by assessing bacterial community structure on conventional and organic analogs of eleven store-bought produce types using a culture-independent approach, 16 S rRNA gene pyrosequencing. Our results demonstrated that the fruits and vegetables harbored diverse bacterial communities, and the communities on each produce type were significantly distinct from one another. However, certain produce types (i.e., sprouts, spinach, lettuce, tomatoes, peppers, and strawberries) tended to share more similar communities as they all had high relative abundances of taxa belonging to the family Enterobacteriaceae when compared to the other produce types (i.e., apples, peaches, grapes, and mushrooms) which were dominated by taxa belonging to the Actinobacteria, Bacteroidetes, Firmicutes, and Proteobacteria phyla. Although potentially driven by factors other than farming practice, we also observed significant differences in community composition between conventional and organic analogs within produce types. These differences were often attributable to distinctions in the relative abundances of Enterobacteriaceae taxa, which were generally less abundant in organically-grown produce. Taken together, our results suggest that humans are exposed to substantially different bacteria depending on the types of fresh produce they consume with differences between conventionally and organically farmed varieties contributing to this variation.</t>
-  </si>
-  <si>
-    <t>The microbial spoilage of meat and seafood products with short shelf lives is responsible for a significant amount of food waste. Food spoilage is a very heterogeneous process, involving the growth of various, poorly characterized bacterial communities. In this study, we conducted 16S ribosomal RNA gene pyrosequencing on 160 samples of fresh and spoiled foods to comparatively explore the bacterial communities associated with four meat products and four seafood products that are among the most consumed food items in Europe. We show that fresh products are contaminated in part by a microbiota similar to that found on the skin and in the gut of animals. However, this animal-derived microbiota was less prevalent and less abundant than a core microbiota, psychrotrophic in nature, mainly originated from the environment (water reservoirs). We clearly show that this core community found on meat and seafood products is the main reservoir of spoilage bacteria. We also show that storage conditions exert strong selective pressure on the initial microbiota: alpha diversity in fresh samples was 189±58 operational taxonomic units (OTUs) but dropped to 27±12 OTUs in spoiled samples. The OTU assemblage associated with spoilage was shaped by low storage temperatures, packaging and the nutritional value of the food matrix itself. These factors presumably act in tandem without any hierarchical pattern. Most notably, we were also able to identify putative new clades of dominant, previously undescribed bacteria occurring on spoiled seafood, a finding that emphasizes the importance of using culture-independent methods when studying food microbiota.</t>
-  </si>
-  <si>
-    <t>Here, high-throughput sequencing was employed to reveal the highly diverse bacterial populations present in 62 Irish artisanal cheeses and, in some cases, associated cheese rinds. Using this approach, we revealed the presence of several genera not previously associated with cheese, including Faecalibacterium, Prevotella, and Helcococcus and, for the first time, detected the presence of Arthrobacter and Brachybacterium in goats' milk cheese. Our analysis confirmed many previously observed patterns, such as the dominance of typical cheese bacteria, the fact that the microbiota of raw and pasteurized milk cheeses differ, and that the level of cheese maturation has a significant influence on Lactobacillus populations. It was also noted that cheeses containing adjunct ingredients had lower proportions of Lactococcus species. It is thus apparent that high-throughput sequencing-based investigations can provide valuable insights into the microbial populations of artisanal foods.</t>
-  </si>
-  <si>
-    <t>A DNA sequencing-based strategy was applied to study the microbiology of Continental-type cheeses with a pink discoloration defect. The basis for this phenomenon has remained elusive, despite decades of research. The bacterial composition of cheese containing the defect was compared to that of control cheese using 16S rRNA gene and shotgun metagenomic sequencing as well as quantitative PCR (qPCR). Throughout, it was apparent that Thermus, a carotenoid-producing genus, was present at higher levels in defect-associated cheeses than in control cheeses. Prompted by this finding and data confirming the pink discoloration to be associated with the presence of a carotenoid, a culture-based approach was employed, and Thermus thermophilus was successfully cultured from defect-containing cheeses. The link between Thermus and the pinking phenomenon was then established through the cheese defect equivalent of Koch’s postulates when the defect was recreated by the reintroduction of a T. thermophilus isolate to a test cheese during the manufacturing process. IMPORTANCE Pink discoloration in cheese is a defect affecting many cheeses throughout the world, leading to significant financial loss for the dairy industry. Despite decades of research, the cause of this defect has remained elusive. The advent of high-throughput, next-generation sequencing has revolutionized the field of food microbiology and, with respect to this study, provided a means of testing a possible microbial basis for this defect. In this study, a combined 16S rRNA, whole-genome sequencing, and quantitative PCR approach was taken. This resulted in the identification of Thermus, a carotenoid-producing thermophile, in defect-associated cheeses and the recreation of the problem in cheeses to which Thermus was added. This finding has the potential to lead to new strategies to eliminate this defect, and our method represents an approach that can be employed to investigate the role of microbes in other food defects of unknown origin.</t>
-  </si>
-  <si>
-    <t>Dairy products are perishable and have to be preserved from spoilage during the food chain to achieve the desired shelf-life. Ricotta is a typical Italian soft dairy food produced by heat coagulation of whey proteins and is considered to be a light and healthy product. The shelf-life of Ricotta could be extended, as required by the international food trade market; however, heat resistant microflora causes spoilage and poses issues regarding the safety of the product. Next-generation sequencing (NGS) applied to the Ricotta samples defined the composition of the microbial community in-depth during the shelf-life. The analysis demonstrated the predominance of spore-forming bacteria throughout the shelf-life, mostly belonging to Bacillus, Paenibacillus and Clostridium genera. A strain involved in spoilage and causing a pink discolouration of Ricotta was isolated and characterised as Bacillus mycoides/weihenstephanensis. This is the first report of a food discolouration caused by a toxigenic strain belonging to the Bacillus cereus group that resulted the predominant strain in the community of the defective ricotta. These results suggest that the processing of raw materials to eliminate spores and residual microflora could be essential for improving the quality and the safety of the product and to extend the shelf-life of industrial Ricotta.</t>
-  </si>
-  <si>
-    <t>In the past, milk whey was only a by-product of cheese production, but currently, it has a high commercial value for use in the food industries. However, the regulation of whey management (i.e., storage and hygienic properties) has not been updated, and as a consequence, its microbiological quality is very challenging for food safety. The Next Generation Sequencing (NGS) technique was applied to several whey samples used for Ricotta production to evaluate the microbial community composition in depth using both RNA and DNA as templates for NGS library construction. Whey samples demonstrating a high microbial and aerobic spore load contained mostly Firmicutes; although variable, some samples contained a relevant amount of Gammaproteobacteria. Several lots of whey acquired as raw material for Ricotta production presented defective organoleptic properties. To define the volatile compounds in normal and defective whey samples, a headspace gas chromatography/mass spectrometry (GC/MS) analysis was conducted. The statistical analysis demonstrated that different microbial communities resulted from DNA or cDNA library sequencing, and distinguishable microbiota composed the communities contained in the organoleptic-defective whey samples.</t>
-  </si>
-  <si>
-    <t>This study was aimed at improving the functional attributes and shelf life of burrata cheese by using protective lactobacilli (Lactobacillus plantarum LPAL and Lactobacillus rhamnosus LRB), fructooligosaccharides, and inulin. Six burrata cheeses were made using (i) the traditional protocol (control), (ii) the addition of 0.5% fructooligosaccharides and inulin (DF cheese), (iii) protective lactobacilli in milk alone (PL cheese), (iv) protective lactobacilli in milk and governing liquid (2PL cheese), (v) protective lactobacilli in milk and dietary fibers (DF_PL cheese), and (vi) protective lactobacilli in milk and governing liquid and dietary fibers (DF_2PL cheese). As expected, DF, DF_PL, and DF_2PL cheeses showed 1.5% of total fibers. Burrata cheeses produced by adding protective lactobacilli only in milk (PL and DF_PL cheeses) showed the lowest acidification during cheese making and storage. Lactic and acetic acids and ethanol were found at the lowest concentrations in these samples. Analyses of cultivable microbiota and the microbiome showed that protective lactobacilli reduced the house microbiota components (e.g., Streptococcus thermophilus, Lactococcus lactis, and Leuconostoc lactis) during cheese making and storage. Protective lactobacilli slowed the growth of staphylococci, coliforms, and Pseudomonas spp., especially in early storage. According to the different microbiome assemblies, burrata samples differed in peptide profiles and the levels of free amino acids. As shown by a sensory analysis, the addition of protective lactobacilli in milk improved the flavor and increased the shelf life of burrata cheese. In comparison to cheeses made using protective cultures only in milk, the shelf lives of those containing cultures also in the governing liquid were not further prolonged and they received lower acceptability scores by the panelists. IMPORTANCE This study provides more in-depth knowledge of the microbiome of burrata cheese and the set-up for a novel biotechnology using prebiotic dietary fibers and protective probiotic Lactobacillus plantarum LPAL and Lactobacillus rhamnosus LRB in milk. The biotechnology proposed in this study should be considered a useful tool to improve the functional value of burrata cheese. The use of protective lactobacilli in milk enhanced the flavor formation and shelf life of burrata cheese.</t>
-  </si>
-  <si>
-    <t>Low temperature is used to control the growth of bacteria in milk, both pre- and post-pasteurization. As the duration of refrigerated storage extends, psychrotrophs dominate the milk microbiota, that can produce heat stable lipases which negatively impact the organoleptic qualities of milk. Here we examine the influence that refrigeration temperature (2 °C, 4 °C and 6 °C) and storage duration (96 h) have on the microbiota composition (16S profiling) of raw bulk tank milk (BTM). To reflect a proposed change to current farming practices, raw milk was blended after each milking (8 milkings) and stored for five consecutive days in each temperature-specific tank. Here 16S rRNA-based microbiota compositional analysis was performed after milk was collected on day 1 and again after the final addition of milk at day 5. In addition to assessing the impact of the duration and temperature of storage, the influence of lactation stage, i.e. mid- versus late-lactation, on the microbiota of the blended BTM was also examined. Overall, both temperature and length of storage had surprisingly little influence on the raw milk microbiota, other than an increase in proportions of Gammaproteobacteria in the blended milk samples collected after pooling on day 5, and in samples stored at 6 °C. However, lactation stage had a considerable influence on microbiota composition, with milk from mid-lactation containing higher proportions of Bacteroides, Faecalibacterium, Campylobacter and Rhodanobacter, and late-lactation milk containing higher proportions of Actinobacteria. Overall, the study demonstrates that current temperature and storage duration practises impact the microbiota of raw milk, but these impacts are modest relative to the more considerable differences between mid and late-lactation milk.</t>
-  </si>
-  <si>
-    <t>Bovine milk contains a complex microbial community that affects the quality and safety of the product. Detailed knowledge of this microbiota is, therefore, of importance for the dairy industry. In this study, the bacterial composition of consumption milk was assessed during different stages in the production line and throughout the storage in cartons by using culturing techniques and 16S rRNA marker gene sequencing. Monthly samples from two dairies were analyzed to capture the seasonal variations in the milk microbiota. Although there was a core microbiota present in milk samples from both dairies, the composition of the bacterial communities were significantly influenced by sampling month, processing stage and storage temperature. Overall, a higher abundance of operational taxonomic units (OTUs) within the order Bacillales was detected in samples of raw and pasteurized milk from the spring and summer months, while Pseudomonadales and Lactobacillales OTUs were predominant in the winter months. OTUs belonging to the order Lactobacillales, Pseudomonadales, Clostridiales and Bacillales were significantly more abundant in milk samples taken immediately after pasteurization compared to raw milk samples. During storage of milk in cartons at 4 °C, the bacterial composition remained stable throughout the product shelf life, while storage at 8 °C significantly increased the abundance of OTUs belonging to the genus Bacillus and the plate count levels of presumptive Bacillus cereus. The knowledge obtained in this work will be useful to the dairy industry during their quality assurance work and risk assessment practices.</t>
-  </si>
-  <si>
-    <t>The objectives of this study were to explore bacterial community assembly from cow teat skin to raw milk cheeses and to evaluate the role of farming systems on this assembly using 16S rRNA gene high-throughput sequencing. The two grazing systems studied (extensive vs. semi-extensive) had a greater effect on the microbiota of cow teat skin than on that of raw milks and cheeses. On teat skin, the relative abundance of several taxa at different taxonomic levels (Coriobacteriia, Bifidobacteriales, Corynebacteriales, Lachnospiraceae, Atopobium, and Clostridium) varied depending on the grazing system and the period (early or late summer). In cheese, the abundance of sub-dominant lactic acid bacteria (LAB) varied depending on the grazing system. Overall, 85% of OTUs detected in raw milks and 27% of OTUs detected in ripened cheeses were also found on cow teat skin. Several shared OTUs were assigned to taxa known to be involved in the development of cheese sensory characteristics, such as Micrococcales, Staphylococcaceae, and LAB. Our results highlight the key role of cow teat skin as a reservoir of microbial diversity for raw milk, and for the first time, that cow teat skin serves as a potential source of microorganisms found in raw-milk cheeses.</t>
-  </si>
-  <si>
-    <t>This study explored the bacterial diversity of brines used for cheesemaking in Italy, as well as their physicochemical characteristics. In this context, 19 brines used to salt soft, semi-hard, and hard Italian cheeses were collected in 14 commercial cheese plants and analyzed using a culture-independent amplicon sequencing approach in order to describe their bacterial microbiota. Large NaCl concentration variations were observed among the selected brines, with hard cheese brines exhibiting the highest values. Acidity values showed a great variability too, probably in relation to the brine use prior to sampling. Despite their high salt content, brine microbial loads ranged from 2.11 to 6.51 log CFU/mL for the total mesophilic count. Microbial community profiling assessed by 16S rRNA gene sequencing showed that these ecosystems were dominated by Firmicutes and Proteobacteria, followed by Actinobacteria and Bacteroidetes. Cheese type and brine salinity seem to be the main parameters accountable for brine microbial diversity. On the contrary, brine pH, acidity and protein concentration, correlated to cheese brine age, did not have any selective effect on the microbiota composition. Nine major genera were present in all analyzed brines, indicating that they might compose the core microbiome of cheese brines. Staphylococcus aureus was occasionally detected in brines using selective culture media. Interestingly, bacterial genera associated with a functional and technological use were frequently detected. Indeed Bifidobacteriaceae, which might be valuable probiotic candidates, and specific microbial genera such as Tetragenococcus, Corynebacterium and non-pathogenic Staphylococcus, which can contribute to sensorial properties of ripened cheeses, were widespread within brines.</t>
-  </si>
-  <si>
-    <t>Surface-ripened cheeses host complex microbial communities responsible for the transformation of milk into cheese as well as the development of important properties in terms of texture, color and sensory perception. In this study, we used high-throughput amplicon sequencing to decipher the bacterial and fungal diversity of 60 cheeses belonging to 12 popular French cheese varieties. Using this approach, 76 bacterial and 44 fungal phylotypes were identified. Major differences were observed between rind and core samples and also according to cheese varieties and manufacturing processes. Occurrence analysis revealed the presence of widespread taxa as well as operational taxonomic units (OTUs) specific to one or several cheese varieties. Finally, we observed patterns specific to the cheese production facility, supporting the importance of indigenous microorganisms for the microbial assemblage of cheese microbiota.</t>
-  </si>
-  <si>
-    <t>Kefir is a putatively health-promoting dairy beverage that is produced when a kefir grain, consisting of a consortium of microorganisms, is added to milk to initiate a natural fermentation. Here, a detailed analysis was carried out to determine how the microbial population, gene content, and flavor of three kefirs from distinct geographic locations change over the course of 24-h fermentations. Metagenomic sequencing revealed that Lactobacillus kefiranofaciens was the dominant bacterial species in kefir during early stages of fermentations but that Leuconostoc mesenteroides became more prevalent in later stages. This pattern is consistent with an observation that genes involved in aromatic amino acid biosynthesis were absent from L. kefiranofaciens but were present in L. mesenteroides. Additionally, these shifts in the microbial community structure, and associated pathways, corresponded to changes in the levels of volatile compounds. Specifically, Acetobacter spp. correlated with acetic acid; Lactobacillus spp. correlated with carboxylic acids, esters and ketones; Leuconostoc spp. correlated with acetic acid and 2,3-butanedione; and Saccharomyces spp. correlated with esters. The correlation data suggest a causal relationship between microbial taxa and flavor that is supported by observations that addition of L. kefiranofaciens NCFB 2797 increased the levels of esters and ketones whereas addition of L. mesenteroides 213M0 increased the levels of acetic acid and 2,3-butanedione. Finally, we detected genes associated with probiotic functionalities in the kefir microbiome. Our results illustrate the dynamic nature of kefir fermentations and microbial succession patterns therein and can be applied to optimize the fermentation processes, flavors, and health-related attributes of this and other fermented foods. IMPORTANCE Traditional fermented foods represent relatively low-complexity microbial environments that can be used as model microbial communities to understand how microbes interact in natural environments. Our results illustrate the dynamic nature of kefir fermentations and microbial succession patterns therein. In the process, the link between individual species, and associated pathways, with flavor compounds is revealed and several genes that could be responsible for the purported gut health-associated benefits of consuming kefir are identified. Ultimately, in addition to providing an important fundamental insight into microbial interactions, this information can be applied to optimize the fermentation processes, flavors, and health-related attributes of this and other fermented foods.</t>
-  </si>
-  <si>
-    <t>Red-brown pigmentation can occasionally form in smeared-ripened cheese such as Fontina during the ripening process. This reaction is due to over-development of the typical microbiota present on the rind. Previous studies have demonstrated the relationship between red-brown pigmentation and the traditional utilization of wooden shelves during cheese ripening. The first part of the paper focuses on the characterisation of yeast and bacterial microbiota: plate counts and 454-pyrosequencing were performed in spoiled (n = 6) and non-spoiled cheeses (n = 6) and on the wooden shelves used during ripening. The second part shows different systems tested for cleaning the wooden shelves and avoiding the development of the red-brown defect in cheese: washing with hot water and ozone treatment. Actinobacteria, dominated on the wooden shelves, suggesting to be responsible for the red-brown pigmentation; they were also found in traces in the defected cheese samples. Galactomyces and Debaryomyces were the main species characterizing the yeast population, with Debaryomyces being the most dominant species on the shelves used during ripening of the red-brown defective cheese. Hot water treatment reduced the microbial contamination of shelves, whereas only the ozone treatment ensured complete elimination of both yeast and bacteria, resulting in the cheese rind not having the red-brown defect.</t>
-  </si>
-  <si>
-    <t>Traditional Caciocavallo of Castelfranco is a semi-hard “pasta-filata” cheese produced from raw cows' milk in Campania region. The aim of the present research is mainly focused on the study, by 16S rRNA gene pyrosequencing and viable counts, of the dynamics of bacterial communities during manufacture and ripening of traditional Caciocavallo cheese. Moreover, the possible correlation between cheese microbiota and cows' feeding based on silage or hay was also evaluated. In general, except for enterococci, the technological process significantly affected all the microbial groups. According to 16S rRNA, raw cows' milk was dominated by Streptococcus thermophilus, L. lactis and Pseudomonas sp. in hay cheese production, whereas Lactococcus lactis and Acinetobacter sp. dominated silage production. Differences in the taxonomic structure of the milk's microbiota within diet groups were not related to silage and hay cows' feeding. Moreover, S. thermophilus was the unique species that dominate from raw milks to fermented intermediates and cheese in both hay and silage cheese productions. Feeding and ripening time influenced significantly sensory characteristics of the cheeses.</t>
-  </si>
-  <si>
-    <t>Background: The microbiome of cheese is diverse, even within a variety. The metagenomics of cheese is dependent on a vast array of biotic and abiotic factors. Biotic factors include the population of microbiota and their resulting cellular metabolism. Abiotic factors, including the pH, water activity, fat, salt, and moisture content of the cheese matrix, as well as environmental conditions (temperature, humidity, and location of aging), influence the biotic factors. This study assessed the metagenomics of commercial Gouda cheese prepared using pasteurized or unpasteurized cow milk or pasteurized goat milk via 16S rDNA sequencing. Results: Results were analyzed and compared based on milk pasteurization and source, spatial variability (core, outer, and under the rind), and length of aging (2–4 up to 12–18 months). The dominant organisms in the Gouda cheeses, based on percentage of sequence reads identified at the family or genus levels, were Bacillaceae, Lactococcus, Lactobacillus, Streptococcus, and Staphylococcus. More genus- or family-level (e.g. Bacillaceae) identifications were observed in the Gouda cheeses prepared with unpasteurized cow milk (120) compared with those prepared with pasteurized cow milk (92). When assessing influence of spatial variability on the metagenomics of the cheese, more pronounced differences in bacterial genera were observed in the samples taken under the rind; Brachybacterium, Pseudoalteromonas, Yersinia, Klebsiella, and Weissella were only detected in these samples. Lastly, the aging length of the cheese greatly influenced the number of organisms observed. Twenty-seven additional genus-level identifications were observed in Gouda cheese aged for 12–18 months compared with cheese only aged 2–4 months. Conclusions: Collectively, the results of this study are important in determining the typical microbiota associated with Gouda cheese and how the microbiome plays a role in safety and quality.</t>
-  </si>
-  <si>
-    <t>Microbial contamination of bovine raw milk often occurs at the farm. To acquire a deeper knowledge of the microbiota of farm tank milk, we studied milk from 45 farms situated in 2 geographical areas in Norway. Each farm was visited on 3 different occasions, with at least 2 wk between visits. We combined both bacterial cell counts and a sequence variant inference method of amplicon-based high-throughput sequencing to achieve a high-resolution overview of the microbiota in each sample. Compositional variation of the farm milk microbiota was shown in relation to the 2 areas, between the farms and between the sampling times. Despite the near constant level of bacteria enumerated in milk from each individual farm, the dominant microbiota differed significantly between the samplings. The predominant microbiota was dominated by spoilage genera, such as Pseudomonas and Bacillus, as well as the dairy fermentation genus Lactococcus and mastitis-causing organisms (Streptococcus). Analysis of the identified sequence variants within these genera showed that the populations of Pseudomonas and Lactococcus in milk had similar composition between the farms, but that Bacillus and, in particular, Streptococcus populations changed between collection days from the same farm and between farms and geographical areas. Furthermore, the levels and composition of Bacillus and Paenibacillus were different between the 2 geographical areas. The results presented here provide new insight into the farm milk microbiota and show that this microbiota is a dynamic community highly subject to variation.</t>
-  </si>
-  <si>
-    <t>Dry and early lactation periods represent the most critical phases for udder health in cattle, especially in highly productive breeds, such as the Holstein Friesian (HF). On the other hand, some autochthonous cattle breeds, such as the Rendena (REN), have a lower prevalence of mastitis and other transition-related diseases. In this study, milk microbiota of 6 HF and 3 REN cows, all raised on the same farm under the same conditions, was compared. A special focus was placed on the transition period to define bacterial groups’ prevalence with a plausible effect on mammary gland health. Four time points (dry-off, 1 d, 7–10 d and 30 d after calving) were considered. Through 16S rRNA sequencing, we characterized the microbiota composition for 117 out of the 144 milk samples initially collected, keeping only the healthy quarters, in order to focus on physiological microbiome changes and avoid shifts due to suspected diseases. Microbial populations were very different in the two breeds along all the time points, with REN milk showing a significantly lower microbial biodiversity. The taxonomic profiles of both cosmopolitan and local breeds were dominated by Firmicutes, mostly represented by the Streptococcus genus, although in very different proportions (HF 27.5%, REN 68.6%). Large differences in HF and REN cows were, also, evident from the metabolic predictive analysis from microbiome data. Finally, only HF milk displayed significant changes in the microbial composition along the transition period, while REN maintained a more stable microbiota. In conclusion, in addition to the influence on the final characteristics of dairy products obtained from milk of the two breeds, differences in the milk microbiome might, also, have an impact on their mammary gland health.</t>
-  </si>
-  <si>
-    <t>The microbiota of different types of Italian high-moisture Mozzarella cheese produced using cow or buffalo milk, acidified with natural or selected cultures, and sampled at the dairy or at the mass market, was evaluated using a Next Generation Sequencing approach, in order to identify possible drivers of the bacterial diversity. Cow Mozzarella and buffalo Mozzarella acidified with commercial cultures were dominated by Streptococcus thermophilus, while buffalo samples acidified with natural whey cultures showed similar prevalence of L. delbrueckii subsp. bulgaricus, L. helveticus and S. thermophilus. Moreover, several species of non-starter lactic acid bacteria were frequently detected. The diversity in cow Mozzarella microbiota was much higher than that of water buffalo samples. Cluster analysis clearly separated cow's cheeses from buffalo's ones, the former having a higher prevalence of psychrophilic taxa, and the latter of Lactobacillus and Streptococcus. A higher prevalence of psychrophilic species and potential spoilers was observed in samples collected at the mass retail, suggesting that longer exposures to cooling temperatures and longer production-to-consumption times could significantly affect microbiota diversity. Our results could help in detecting some kind of thermal abuse during the production or storage of mozzarella cheese.</t>
-  </si>
-  <si>
-    <t>Brazilian artisanal cheeses are characterized by the use of raw milk and in some cases, natural starter cultures, known as “pingo”, as well as following simple and traditional manufacturing technology. In this study, a large-scale screening of the microbial ecology of 11 different types of artisanal cheeses produced in five geographical areas of Brazil was performed. Besides, the specific origin-related microbial signatures were identified. Clear geography- and technology-based differences in the microbiota were observed. Lactic acid bacteria dominated in all cheeses although Enterobacteriaceae and Staphylococcus also occurred in North, Northeast and Central cheeses. Differences in the lactic acid bacteria patterns were also highlighted: Streptococcus, Leuconostoc, Lactococcus and Lactobacillus were differently combined in terms of relative abundance according to product type and region of production. This study provides a comprehensive, unprecedented microbiological mapping of Brazilian cheeses, highlighting the impact of geographical origin and mode of production on microbial diversity. The results obtained will help to plan an evaluation of microbial contamination sources that will need to be studied for the improvement of cheese quality and safety.</t>
-  </si>
-  <si>
-    <t>“Chorizo de Léon” is a high-value Spanish dry fermented sausage traditionally manufactured without the use of starter cultures, owing to the activity of a house-specific autochthonous microbiota that naturally contaminates the meat from the environment, the equipment and the raw materials. Lactic acid bacteria (particularly Lactobacillus) and coagulase-negative cocci (mainly Staphylococcus) have been reported as the most important bacterial groups regarding the organoleptic and safety properties of the dry fermented sausages. In this study, samples from raw minced meat to final products were taken from five different producers and the microbial diversity was investigated by high-throughput sequencing of 16S rRNA gene amplicons. The diverse microbial composition observed during the first stages of “Chorizo de Léon” evolved during ripening to a microbiota mainly composed by Lactobacillus in the final product. Oligotyping performed on 16S rRNA gene sequences of Lactobacillus and Staphylococcus populations revealed sub-genus level diversity within the different manufacturers, likely responsible of the characteristic organoleptic properties of the products from different companies.</t>
-  </si>
-  <si>
-    <t>Valle d'Aosta Lard d'Arnad is a protected designation of origin (PDO) product produced from fat of the shoulder and back of heavy pigs. Its manufacturing process can be very diverse, especially regarding the maturation temperature and the NaCl concentration used for the brine; thereby, the main goal of this study was to investigate the impact of those parameters on the microbiota developed during curing and ripening. Three farms producing Lard d'Arnad were selected. Two plants, reflecting the industrial process characterized either by low maturation temperature (plant A [10% NaCl, 2°C]) or by using a low NaCl concentration (plant B [2.5% NaCl, 4°C]), were selected, while the third was characterized by an artisanal process (plant C [30% NaCl, 8°C]). Lard samples were obtained at time 0 and after 7, 15, 30, 60, and 90 days of maturation. From each plant, 3 independent lots were analyzed. The diversity of live microbiota was evaluated by using classical plate counts and amplicon target sequencing of small subunit (SSU) rRNA. The main taxa identified by sequencing were Acinetobacter johnsonii, Psychrobacter, Staphylococcus equorum, Staphylococcus sciuri, Pseudomonas fragi, Brochothrix, Halomonas, and Vibrio, and differences in their relative abundances distinguished samples from the individual plants. The composition of the microbiota was more similar among plants A and B, and it was characterized by the higher presence of taxa recognized as undesired bacteria in food-processing environments. Oligotype analysis of Halomonas and Acinetobacter revealed the presence of several characteristic oligotypes associated with A and B samples. IMPORTANCE Changes in the food production process can drastically affect the microbial community structure, with a possible impact on the final characteristics of the products. The industrial processes of Lard d'Arnad production are characterized by a reduction in the salt concentration in the brines to address a consumer demand for less salty products; this can negatively affect the dynamics and development of the live microbiota and, as a consequence, can negatively impact the quality of the final product due to the higher abundance of spoilage bacteria. This study is an overview of the live microbiota that develop during lard manufacturing, and it highlights the importance of the use of traditional process to produce PDO from a spoilage perspective.</t>
-  </si>
-  <si>
-    <t>Most raw poultry sold in Finland at the retail level is mixed with marinades containing oil, sugar, spices and acetic acid and packaged under modified atmosphere. Premature spoilage of marinated poultry preparations has been observed and associated with high levels of Leuconostoc spp. in meat. In this study we investigated whether marination of broiler fillet strips increased the proportion of Leuconostoc spp. in the microbial communities. To obtain a comprehensive view of the microbiota, we sequenced total DNA and 16S rRNA gene amplicons from the microbial communities. The lactic acid bacterial communities were characterized also by identification of colonies. The results showed that marinade increased the proportions of the spoilage-associated Leuconostoc gasicomitatum in the communities as well as the proportions of Leuconostoc gelidum and Lactobacillus spp. The proportions of Carnobacterium, Vagococcus, Brochothrix thrermosphacta, Clostridium, Enterobacteriaceae and Vibrio were diminished in marinated meat. Analysis of 16S rRNA gene amplicons resulted in 312 and 284 operational taxonomical units (dissimilarity 0.03) in unmarinated and marinated meat, respectively, indicating that the meat communities were more diverse than hitherto shown. Metagenomic analysis revealed a number of bacterial taxa that have not been associated with late shelf-life meat before, including Vagococcus and Vibrio that belonged to the predominating part of the microbial community in unmarinated meat. According to the functional analysis of the metagenomes, the communities in both marinated and unmarinated poultry were characterized by high proportions (15.6% or 17.9%) of genes involved in carbohydrate metabolism.</t>
-  </si>
-  <si>
-    <t>Raw sausages are perishable foodstuffs; reducing their salt content raises questions about a possible increased spoilage of these products. In this study, we evaluated the influence of salt reduction (from 2.0% to 1.5% [wt/wt]), in combination with two types of packaging (modified atmosphere [50% mix of CO2-N2] and vacuum packaging), on the onset of spoilage and on the diversity of spoilage-associated bacteria. After 21 days of storage at 8°C, spoilage was easily observed, characterized by noticeable graying of the products and the production of gas and off-odors defined as rancid, sulfurous, or sour. At least one of these types of spoilage occurred in each sample, and the global spoilage intensity was more pronounced in samples stored under modified atmosphere than under vacuum packaging and in samples with the lower salt content. Metagenetic 16S rRNA pyrosequencing revealed that vacuum-packaged samples contained a higher total bacterial richness (n = 69 operational taxonomic units [OTUs]) than samples under the other packaging condition (n = 46 OTUs). The core community was composed of 6 OTUs (Lactobacillus sakei, Lactococcus piscium, Carnobacterium divergens, Carnobacterium maltaromaticum, Serratia proteamaculans, and Brochothrix thermosphacta), whereas 13 OTUs taxonomically assigned to the Enterobacteriaceae, Enterococcaceae, and Leuconostocaceae families comprised a less-abundant subpopulation. This subdominant community was significantly more abundant when 2.0% salt and vacuum packaging were used, and this correlated with a lower degree of spoilage. Our results demonstrate that salt reduction, particularly when it is combined with CO2-enriched packaging, promotes faster spoilage of raw sausages by lowering the overall bacterial diversity (both richness and evenness). IMPORTANCE Our study takes place in the context of raw meat product manufacturing and is linked to a requirement for salt reduction. Health guidelines are calling for a reduction in dietary salt intake. However, salt has been used for a very long time as a hurdle technology, and salt reduction in meat products raises the question of spoilage and waste of food. The study was conceived to assess the role of sodium chloride reduction in meat products, both at the level of spoilage development and at the level of bacterial diversity, using 16S rRNA amplicon sequencing and raw pork sausage as a meat model.</t>
-  </si>
-  <si>
-    <t>The microbial contamination that occurs during the slaughtering process and during handling of the meat results in a shortening of the shelf-life of meat. In this study, which has had the aim of extending the shelf life of beefsteaks, pilot-scale treatments were carried out with aqueous ozone (AO) and electrolyzed water (EW) before vacuum packaging (VP). The development of the potentially active microbiota and the associated volatilome were followed over 15 days of storage under refrigerated conditions (4 °C), in order to define the potential long-term effects of the treatments and storage condition on microbiota. The targeted RNA-based amplicon sequencing identified Pseudomonas fragi as the most frequent species before and after the treatments with AO and EW, as well as in the untreated control. The tested treatments did not reduce the overall presence of this species, but they affected the intra-species distribution of its oligotypes, albeit slightly. With the progression of the refrigerated storage and the reduction of the oxygen availability, Lactobacillus sakei, Leuconostoc gasicomitatum and Lactococcus piscium became the dominant, potentially active, beef microbiota, as confirmed by microbiological data. When the OTU abundances and volatilome were coupled, a significant association was observed between the organic acids, esters and aldehydes and these lactic acid bacteria species.In spite of the limited effectiveness of the treatments over the short and long term, this study has provided a detailed view of beef spoilage using RNA as the sequencing target, strengthening and confirming the current knowledge based on DNA-amplicon sequencing.</t>
-  </si>
-  <si>
-    <t>Lactobacillus curvatus 54M16 produced bacteriocins sak X, sak Tα, sak Tβ and sak P. The aim of this study was to investigate the anti-listerial activity of the bacteriocins-producing strain against Listeria monocytogenes in vitro co-culture experiments and during the manufacture of fermented sausages. In MRS broth, Lb. curvatus 54M16 was able to inhibit L. monocytogenes to undetectable levels after 48 h at 20 °C or 5 days at 15 °C. Anti-listerial activity was lower during the production of fermented sausages with pathogen inoculation at levels of approximately 4 Log CFU g−1. However, total inhibition of L. monocytogenes native to the raw ingredients was achieved over the course of the fermentation. Moreover, 16S rRNA-based analysis revealed the ability of Lb. curvatus 54M16 to dominate and affect the bacterial ecosystem, whereas spoilage-associated bacterial genera, such as Brochothrix, Psychrobacter, Pseudomonas and some Enterobacteriaceae, were found until the end of ripening in sausages without Lb. curvatus 54M16. The use of the bacteriocins-producing Lb. curvatus 54M16 in fermented sausages could be an important contribution to product safety, provided that eco-physiological factors and other preservation methods are maintained at levels required for the inhibition of pathogens in controlled conditions.</t>
-  </si>
-  <si>
-    <t>The present study promotes the valorization of Fabriano-like fermented sausages, which are central-Italy salami with an origin that dates to the early 17th century, for the possible future selection of autochthonous starter cultures to be used with respect to local traditions. To the best of the authors' knowledge, this study represents the first attempt to define the microbial dynamics in Fabriano-like fermented sausage and the effect of nitrates/nitrites and starter cultures on its natural bacterial biota. Culture and RNA-based techniques (RT-PCR-DGGE and Illumina sequencing) were used to assess the microbial ecology of model Fabriano-like fermented sausages together with the impact of starter cultures and different nitrate and nitrite concentrations. The meat batter was used to produce two batches of fermented sausages that were prepared as follows: i) without commercial starters or ii) with the use of starter cultures composed of Pediococcus pentosaceus and Staphylococcus xylosus. Each batch was further divided into three different batches with the addition of 0/0 mg kg−1 nitrate/nitrite, 75/60 mg kg−1 nitrate/nitrite and 150/125 mg kg−1 nitrate/nitrite to the first, second and third batch, respectively. The samples, which were produced in triplicate, were analyzed on the day of production and after 7, 21, and 42 days of ripening. Enterobacteriaceae counts were always higher in model Fabriano-like sausages produced without the use of starter cultures at all of the sampling times irrespective of the tested nitrate/nitrite concentrations. Lactobacilli counts were positively influenced by the starters, although this influence was not evident over time; moreover, the effect of nitrates and nitrites on the counts of lactobacilli differed over time. As a general trend, coagulase-negative cocci counts were apparently not influenced by the tested nitrate/nitrite concentrations. Regarding the effect of nitrates/nitrites on the microbial diversity revealed by RT-PCR-DGGE, the higher the concentration, the lower the presence of some genera/species such as Pseudomonas spp., Serratia liquefaciens and Staphylococcus spp. However, Illumina sequencing detected Pseudomonas spp. as a minority species after 7, 21 and 42 days of ripening irrespective of the nitrate/nitrite concentration. The presence of Staphylococcus species was highlighted by both RT-PCR-DGGE and Illumina sequencing at all of the stages of ripening, although its presence was massively detected in fermented sausages produced without the use of nitrates/nitrites at the end of ripening. Overall, the data collected clearly highlighted the dominance of Lactobacillus sakei in all of the fermented sausages during ripening (from day 7 to day 42) and irrespective of the nitrate/nitrite concentration and added starter cultures. Moreover, Pediococcus spp. was principally detected in model Fabriano-like fermented sausage with added starter cultures irrespective of the nitrate/nitrite concentration.</t>
-  </si>
-  <si>
-    <t>Fourteen lots of cooked ham in modified atmosphere packaging (CH) were analyzed within a few days from packaging (S) and at the end of the shelf-life (E), after storage at 7 °C to simulate thermal abuse. Five more lots, rejected from the market because spoiled (R), were included in the study. Quality of the products was generally compromised during the shelf life, with only 4 lots remaining unaltered. Analysis of 16S rRNA gene amplicons resulted in 801 OTUs. S samples presented a higher diversity than E and R ones. At the beginning of the shelf life, Proteobacteria and Firmicutes dominated the microbiota, with Acinetobacter, Brochothrix, Carnobacterium, Lactobacillus, Prevotella, Pseudomonas, Psychrobacter, Weissella, Vibrio rumoiensis occurring frequently and/or abundantly. E and R samples were dominated by Firmicutes mostly ascribed to Lactobacillales. It is noteworthy the appearance of abundant Leuconostoc, negligible in S samples, in some E and R samples, while in other LAB were outnumbered by V. rumoiensis or Brochothrix thermosphacta. The microbiota of spoiled and R samples could not be clustered on the basis of specific defects (discoloration, presence of slime, sourness, and swollen packages) or supplemented additives. LAB population of S samples, averaging 2.9 log10(cfu/g), increased to 7.7 log10(cfu/g) in the E and R samples. Dominant cultivable LAB belonged to the species Lactobacillus sakei and Leuconostoc carnosum. The same biotypes ascribed to different species where often found in the corresponding S and R samples, and sometime in different batches provided from the same producer, suggesting a recurrent contamination from the plant of production. Consistently with growth of LAB, initial pH (6.26) dropped to 5.74 in E samples. Volatiles organic compound (VOCs) analysis revealed that ethanol was the major metabolite produced during the shelf life. The profile of volatile compounds got enriched with other molecules (e.g. 2-butanone, ethyl acetate, acetic acid, acetoin, butanoic acid, ethyl ester, butanoic acid, and 2,3-butanediol) mainly ascribed to microbial metabolism.</t>
-  </si>
-  <si>
-    <t>Spanish-type chorizo is a fermented meat product that is highly appreciated by consumers. The physicochemical properties (pH, water activity (aw), total acidity (TA), and malonaldehyde content) were evaluated in the initial meat batter and at different ripening stages. Bacterial diversity and dynamics were also examined using high-throughput sequencing. A decrease in pH and aw was observed during ripening, while the TA and malonaldehyde contents increased significantly. This data correlated with the changes in lactic acid bacteria and enterobacteria populations. Total bacterial diversity in the initial samples was represented by Proteobacteria (44%) and Firmicutes (55%) phyla, where Pseudomonas (23%), Streptococcus (21%), Acinetobacter (14%), Bacillus (13%), and Brochothrix (11%) were the most abundant genera. In contrast, Firmicutes reached the highest frequency (~89%), with Lactobacillus and Streptococcus being the most represented at the end of ripening. Lactobacillus sakei, Pediococcus acidilactici, and Weissella thailandensis were identified by 16S rRNA gene analysis and were considered potentially responsible for the stability, microbiological safety, and sensory characteristics of this product.</t>
-  </si>
-  <si>
-    <t>It is well established, that certain bacteria within the Brochothrix, Carnobacterium, Lactobacillus, Lactococcus, and Leuconostoc genera have an important role in the spoilage of chill stored poultry meat packaged in modified atmosphere. However, little is known about the role of microorganisms that are difficult to culture and the microbiota during poultry spoilage. We combined traditional cultivation and culture-independent 16S rRNA amplicon sequencing to investigate the microbiota encompassing putative bacteria of whole broiler meat, packaged in modified atmosphere, during and exceeding shelf-life. Samples were taken from 6 flocks during independent slaughter days. Additional samples were analysed from the production line. There was a significant difference in the microbial community structure of 80%O2/20%CO2 retail packaged broiler meat during different times of shelf-life, mainly due to an increase of species within the Brochothrix, Carnobacterium, Vagococcus, and Janthinobacterium genera. These genera were already detected four to eight days after slaughter. However, no significant difference between flocks with respect to the microbiota encompassing putative spoilage bacteria was observed when examined in retail packaged broilers, slaughtered at the same abattoir on different days. Our study also showed that lactic acid bacteria within the Vagococcus genus can constitute a dominating part of the later shelf-life microbiota in fresh whole broiler meat packaged in 80%O2/20%CO2 modified atmosphere. A single operational taxonomic unit (OTU) assigned as Janthinobacterium lividum, an occasional spoiler of meat products, was identified as a major part of the microbiota in late shelf life broiler meat and swab samples in the cooling facility at the slaughter house production line. The combination of traditional cultivation and culture-independent methods provided a great insight into the microbiota of broiler meat during shelf-life and identified a potential point of contamination in the production line for cold tolerant Janthinobacterium.</t>
-  </si>
-  <si>
-    <t>The aim of this study was to investigate the shelf-life and microbial community dynamics of super-chilled vacuum-packaged beef striploins imported from Australia to China after approximately five weeks of shipping time and an additional 15 weeks of storage at −1 °C ± 0.5 °C. Data analysis using a mixed model (REML) with time as the fixed effect and portion as a random effect, showed that the only beef quality trait that changed during storage was total volatile basic nitrogen (TVBN; P &lt; .05), which reached the threshold of 15 mg/100 g between 15 and 20 weeks (including 5 weeks of transport). The total viable count (TVC) accounted for 78% of the variance in TVBN, when storage time was included in the model. Sensory scores decreased as storage time extended (P &lt; .05), but were still acceptable at 20 weeks. After 9 weeks, Carnobacterium spp. and Lactobacillus spp. dominated alternately and then Lactobacillus became the most prevalent bacteria. An operational taxominc unit based hierarchical cluster analysis using the unweighted pair-group method with arithmetic means was performed and it was shown that the bacterial communities tended to be consistent as storage time extended. Overall indications are that beef which is safe can be imported into China from Australia and aged for extended periods.</t>
-  </si>
-  <si>
-    <t>Thawed hake (Merluccius capensis and M. paradoxus) and plaice (Pleuronectes platessa) fillets were used as a model to evaluate the effect of storage temperature (0 or 10 °C) and biological variability (fish species, lot to lot) on bacterial growth kinetics and microbial successions. Both culture dependent methods (plate counts on non-selective and selective media) and culture independent methods (qPCR and 16S rRNA gene metabarcoding) were used. Bacterial counts exceeded 107 cfu/g within 2–3 days at 10 °C and 7–8 days at 0 °C. Plate counts on three media (Plate Count Agar +0.5% NaCl, Iron Agar Lyngby and Pseudomonas Selective medium) and 16S rRNA gene counts estimated by qPCR were highly correlated. Growth was modelled using the D-model and specific growth rate ranged between 0.97 and 1.24 d−1 and 3.54 and 5.90 d−1 at 0 and 10 °C, respectively. The initial composition of the microbiota showed lot-to-lot variation, but significant differences between the two fish species were detected. Alpha diversity significantly decreased during storage. When bacterial counts exceeded 107 cfu/g, the microbiota was dominated by members of the genera Pseudomonas, Psychrobacter, Acinetobacter, Serratia, Flavobacterium, Acinetobacter, Carnobacterium, Brochothrix and Vagococcus. However, Photobacterium and Shewanella, two genera frequently associated with fish spoilage, were either absent or minor components of the microbiota. As expected, storage temperature significantly affected the abundance of several species. The inference of microbial association networks with three different approaches (an ensemble approach using the CoNet app, Sparse Correlations for Compositional data, and SParse InversE Covariance Estimation for Ecological Association Inference) allowed the detection of both a core microbiota, which was present throughout storage, and a number of taxa, which became dominant at the end of spoilage and were characterized by a disproportionate amount of negative interactions.</t>
-  </si>
-  <si>
-    <t>Traceability of seafood has become crucial with market globalization and consumer’s awareness. The present study used PCR-DGGE and 454 pyrosequencing to assess if bacterial communities fingerprint associated to seabass (Dicentrarchus labrax) skin mucus can be used to discriminate the geographic origin of fishes cultured in three semi-intensive fish farms. PCR-DGGE and pyrosequencing results were congruent and suggested that this molecular approach has the potential to trace fish farms with a spatial resolution &lt;500 m. Pyrosequencing results provided a detailed insight into the bacterial community composition of seabass skin mucus and revealed the existence of a core of bacterial communities within family Pseudomonadaceae and Rhodobacteraceae. This approach also allowed to recognized key OTUs that are potentially relevant to discriminate the geographic origin of the fish being surveyed. Overall, the present study increased our knowledge on farmed seabass microbiome and demonstrated that specific and unique bacterial taxa can act as natural signatures that allow us to trace fish to its respective geographic origin. Our study provides valuable clues that should be more investigated in future studies as a way to fulfill current traceability needs in the global trade of seafood.</t>
-  </si>
-  <si>
-    <t>Microbial (colony counts, 16S rRNA gene amplification), chemical (pH, 1H NMR spectroscopy) and sensory changes in raw Atlantic Salmon (Salmo salar) and tuna (Thunnus albacares) fillets stored under vacuum at 3 °C were evaluated over a period of 12 days. Both species of fish are globally important and among the ten most consumed fishes in the world. Although the sensory analyses showed a decrease in the quality of both fish species, only the salmon fillets were considered spoiled at the end of the storage period. In salmon, trimethylamine was the main spoilage product and bacterial colony counts reached an average of 7.3 log10 cfu/g. The concentration of glucose decreased and the concentration of organic acids increased during storage revealing glucose fermentation. Photobacterium was the dominating genus in the salmon studied. In the tuna studied, the bacterial colony counts reached only an average of 4.6 log10 cfu/g. The dominating bacteria in tuna were Pseudomonas spp. Glucose levels did not decrease, suggesting that amino acids and lactate most likely acted as carbon sources for bacteria in tuna. In conclusion, the study revealed that salmon was clearly a more perishable fish than tuna.</t>
-  </si>
-  <si>
-    <t>In this study, the microbiota of liquid eggs (raw materials) produced by different suppliers and final products (chilled pasteurized liquid whole eggs and chilled pasteurized liquid egg yolk) (n = 211, pooled in 21 samples) was studied by a 16S rRNA-based amplicon sequencing. The raw material samples were collected from five different egg suppliers (A, B, C, E, and F), whereas the sixth type of raw material was whole shell eggs broken at the egg processing factory. The suppliers were located at different distances (∼100 Km to ∼1500 Km) from the liquid egg processing facility, being subjected to varying practices after egg breaking (pasteurization and addition of hydrogen peroxide), followed by chilled transportation. The results showed that final products presented lower diversity indexes than raw materials suggesting that processing and storage act towards shaping their microbiota. Besides, the transportation distance seemed to influence the microbiota of liquid egg. Proteobacteria and Firmicutes dominated the sequences of 16S rRNA in raw materials and final product samples, while the abundance of classes was found to vary considerably among samples and composite samples. Lactobacillales and Pseudomonadales were the most abundant order in almost all raw material samples, whereas Enterobacteriales was abundant in few raw material samples. The principal genera linked to final products were Pseudomonas, Carnobacterium and less frequently Clostridium. The study highlights that the practices employed by suppliers and transportation distances are key in modulating the microbiota of raw materials and further liquid processed egg products.</t>
-  </si>
-  <si>
-    <t>Background Fresh sprouted seeds have been associated with a number of large outbreaks caused by Salmonella and Shiga toxin-producing E. coli. However, the high number of commensal bacteria found on sprouted seeds hampers the detection of these pathogens. Knowledge about the composition of the sprout microbiome is limited. In this study, the microbiome of mungo bean sprouts and the impact of buffered peptone water (BPW) and Enterobacteriaceae enrichment broth (EE-broth)-based enrichment protocols on this microbiome were investigated. Results Assessments based on aerobic mesophilic colony counts showed similar increases in mungo bean sprout background flora levels independent of the enrichment protocol used. 16S rRNA sequencing revealed a mungo bean sprout microbiome dominated by Proteobacteria and Bacteroidetes. EE-broth enrichment of such samples preserved and increased Proteobacteriadominance while reducing Bacteroidetes and Firmicutes relative abundances. BPW enrichment, however, increased Firmicutes relative abundance while decreasing Proteobacteria and Bacteroidetes levels. Both enrichments also lead to various genus level changes within the Protobacteria and Firmicutes phyla. Conclusions New insights into the microbiome associated with mungo bean sprout and how it is influenced through BPW and EE-broth-based enrichment strategies used for detecting Gram-negative pathogens were generated. BPW enrichment leads to Firmicutes and Proteobacteriadominance, whereas EE-broth enrichment preserves Proteobacteria dominance in the mungo bean sprout samples. By increasing the relative abundance of Firmicutes, BPW also increases the abundance of Gram-positive organisms including some that might inhibit recovery of Gram-negative pathogens. The use of EE-broth, although preserving and increasing the dominance of Proteobacteria, can also hamper the detection of lowly abundant Gram-negative target pathogens due to outgrowth of such organisms by the highly abundant non-target Proteobacteria genera comprising the mungo bean sprout associated background flora.</t>
-  </si>
-  <si>
-    <t>Limited documentation of the cucumber fermentation microbiome has impeded the understanding of the role of microbes on the quality of finished products. We characterized the microbiome of fresh and fermented cucumber samples using culture dependent and independent techniques, with an emphasis on the non-lactic acid bacteria (non-LAB) population. Insubstantial microbiome variations were observed among fresh cucumber types with Rhizobium (31.04%), Pseudomonas (14.08%), Pantoea (9.25%), Stenotrophomonas (6.83%), and Acinetobacter (6.5%) prevailing. The relative abundance of LAB remained below 0.4% and 4.0% on fresh cucumbers and day 3 of the fermentations brined with 6% sodium chloride, respectively. Fermentation cover brine samples collected on day 1 harbored Pseudomonas, Pantoea, Stenotrophomonas, Acinetobacter, Comamonas, Wautersiella, Microbacterium, Flavobacterium, Ochrobactrum and the Enterobacteriaceae, Citrobacter, Enterobacter and Kluyvera. Plate counts for presumptive Klebsiella and Pseudomonas from fermentation cover brine samples reached 2.80 ± 0.36 and 2.78 ± 0.83 log of CFU/mL, respectively, in 30% and 60% of the nine tanks scrutinized with selective media. Both genera were found in cover brine samples with pH values at 4.04 ± 0.15. We aim at elucidating whether the low relative abundance of non-LAB in commercial cucumber fermentations, in particular Pseudomonas and Enterobacteriaceae, impacts the quality of fermented cucumbers.</t>
-  </si>
-  <si>
-    <t>Thermophilic lactic acid bacteria (LAB) species, such as Streptococcus thermophilus, Lactobacillus delbrueckii and Lactobacillus helveticus, enjoy worldwide economic importance as dairy starters. To assess the diversity of thermophilic bacteria in milk, milk samples were enriched in thermophilic organisms through a stepwise procedure which included pasteurization of milk at 63 °C for 30 min (PM samples) and pasteurization followed by incubation at 42 °C for 24 h (IPM samples). The microbial composition of these samples was analyzed by culture-dependent (at 42 °C) and culture-independent (PCR-DGGE and pyrosequencing of 16S rRNA gene amplicons) microbial techniques. The results were then compared to those obtained for their corresponding starting raw milk counterparts (RM samples). Twenty different species were scored by culturing among 352 isolates purified from the counting plates and identified by molecular methods. Mesophilic LAB species (Lactococcus lactis, Lactococcus garvieae) were dominant (87% of the isolates) among the RM samples. However, S. thermophilus and Lb. delbrueckii were found to be the dominant recoverable organisms in both PM and IPM samples. The DGGE profiles of RM and PM samples were found to be very similar; the most prominent bands belonging to Lactococcus, Leuconostoc and Streptococcus species. In contrast, just three DGGE bands were obtained for IPM samples, two of which were assigned to S. thermophilus. The pyrosequencing results scored 95 operational taxonomic units (OTUs) at 3% sequence divergence in an RM sample, while only 13 were encountered in two IPM samples. This technique identified Leuconostoc citreum as the dominant microorganism in the RM sample, while S. thermophilus constituted more than 98% of the reads in the IPM samples. The procedure followed in this study allowed to estimate the bacterial diversity in milk and afford a suitable strategy for the isolation of new thermophilic LAB strains, among which adequate starters might be selected.</t>
-  </si>
-  <si>
-    <t>The microbial assemblies on the surface of plants correlate with specific climatic features, suggesting a direct link between environmental conditions and microbial inhabitation patterns. At the same time however, microbial communities demonstrate distinct profiles depending on the plant species and region of origin. In this study, we report Next Generation Sequencing-based metagenomic analysis of microbial communities associated with apple and blackcurrant fruits harvested from Lithuania and the Czech Republic. Differences in the taxonomic composition of eukaryotic and prokaryotic microorganisms were observed between plant types. Our results revealed limited geographic differentiation between the bacterial and fungal communities associated with apples. In contrast, blackcurrant berries harvested from different regions demonstrated high diversity in both bacterial and fungal microbiota structures. Among fungal and bacterial microorganisms, we identified both potentially beneficial (Cryptococcus, Hanseniaspora, Massilia, Rhodotorula, Sphingomonas) and phytopathogenic microorganisms (Cladosporium, Pantoea, Phoma, Pseudomonas, Septoria, Taphrina) indicating their important roles in ecological and evolutionary processes.</t>
-  </si>
-  <si>
-    <t>The microbial composition of artisan and industrial animal rennet pastes was studied by using both culture-dependent and -independent approaches. Pyrosequencing targeting the 16S rRNA gene allowed to identify 361 operational taxonomic units (OTUs) to the genus/species level. Among lactic acid bacteria (LAB), Streptococcus thermophilus and some lactobacilli, mainly Lactobacillus crispatus and Lactobacillus reuteri, were the most abundant species, with differences among the samples. Twelve groups of microorganisms were targeted by viable plate counts revealing a dominance of mesophilic cocci. All rennets were able to acidify ultrahigh-temperature-processed (UHT) milk as shown by pH and total titratable acidity (TTA). Presumptive LAB isolated at the highest dilutions of acidified milks were phenotypically characterized, grouped, differentiated at the strain level by randomly amplified polymorphic DNA (RAPD)-PCR analysis, and subjected to 16S rRNA gene sequencing. Only 18 strains were clearly identified at the species level, as Enterococcus casseliflavus, Enterococcus faecium, Enterococcus faecalis, Enterococcus lactis, Lactobacillus delbrueckii, and Streptococcus thermophilus, while the other strains, all belonging to the genus Enterococcus, could not be allotted into any previously described species. The phylogenetic analysis showed that these strains might represent different unknown species. All strains were evaluated for their dairy technological performances. All isolates produced diacetyl, and 10 of them produced a rapid pH drop in milk, but only 3 isolates were also autolytic. This work showed that animal rennet pastes can be sources of LAB, mainly enterococci, that might contribute to the microbial diversity associated with dairy productions.</t>
-  </si>
-  <si>
-    <t>The phyllosphere is colonized by a wide variety of bacteria and fungi; it harbors epiphytes, as well as plant-pathogenic bacteria and even human pathogens. However, little is known about how the bacterial community composition on leafy greens develops over time. The bacterial community of the leafy-green phyllosphere obtained from two plantings of rocket salad (Diplotaxis tenuifolia) and three plantings of lettuce (Lactuca sativa) at two farms in Norway were profiled by an Illumina MiSeq-based approach. We found that the bacterial richness of the L. sativa samples was significantly greater shortly (3 weeks) after planting than at harvest (5 to 7 weeks after planting) for plantings 1 and 3 at both farms. For the second planting, the bacterial diversity remained consistent at the two sites. This suggests that the effect on bacterial colonization of leaves, at least in part must, be seasonally driven rather than driven solely by leaf maturity. The distribution of phyllosphere communities varied between D. tenuifolia and L. sativa at harvest. The variability between these species at the same location suggests that the leaf-dwelling bacteria are not only passive inhabitants but interact with the host, which shapes niches favoring the growth of particular taxa. This work contributes to our understanding of host plant-specific microbial community structures and shows how these communities change throughout plant development.</t>
-  </si>
-  <si>
-    <t>Background Plants harbor a diverse bacterial community, both as epiphytes on the plant surface and as endophytes within plant tissue. While some plant-associated bacteria act as plant pathogens or promote plant growth, others may be human pathogens. The aim of the current study was to determine the bacterial community composition of organic and conventionally grown leafy salad vegetables at the point of consumption using both culture-dependent and culture-independent methods. Results Total culturable bacteria on salad vegetables ranged from 8.0 × 103 to 5.5 × 108 CFU g-1. The number of culturable endophytic bacteria from surface sterilized plants was significantly lower, ranging from 2.2 × 103 to 5.8 × 105 CFU g-1. Cultured isolates belonged to six major bacterial phyla, and included representatives of Pseudomonas, Pantoea, Chryseobacterium, and Flavobacterium. Eleven different phyla and subphyla were identified by culture-independent pyrosequencing, with Gammaproteobacteria, Betaproteobacteria, and Bacteroidetes being the most dominant lineages. Other bacterial lineages identified (e.g. Firmicutes, Alphaproteobacteria, Acidobacteria, and Actinobacteria) typically represented less than 1% of sequences obtained. At the genus level, sequences classified as Pseudomonas were identified in all samples and this was often the most prevalent genus. Ralstonia sequences made up a greater portion of the community in surface sterilized than non-surface sterilized samples, indicating that it was largely endophytic, while Acinetobacter sequences appeared to be primarily associated with the leaf surface. Analysis of molecular variance indicated there were no significant differences in bacterial community composition between organic versus conventionally grown, or surface-sterilized versus non-sterilized leaf vegetables. While culture-independent pyrosequencing identified significantly more bacterial taxa, the dominant taxa from pyrosequence data were also detected by traditional culture-dependent methods. Conclusions The use of pyrosequencing allowed for the identification of low abundance bacteria in leaf salad vegetables not detected by culture-dependent methods. The presence of a range of bacterial populations as endophytes presents an interesting phenomenon as these microorganisms cannot be removed by washing and are thus ingested during salad consumption.</t>
-  </si>
-  <si>
-    <t>The effect of air packaging (AP), vacuum packaging (VP) and modified atmosphere packaging (MAP, 75% CO2/25% N2) on the composition of the microbial community of lightly salted grass carp (Ctenopharyngodon idellus) fillets stored at 4 °C was studied. Physicochemical characteristics (total volatile basic nitrogen (TVB-N) value, pH value and biogenic amines (BA)) were also monitored. Based on sensory evaluation, the shelf life of fillets under AP, VP, and MAP was 8, 16 and 24 days, respectively. High-throughput sequencing showed that Acinetobacter and Pseudomonas dominated the microflora of fresh grass carp. At the sensory rejection time, Pseudomonas and Psychrobacter dominated the AP products. Lactococcus became the predominant genus of both VP and MAP fillets, and there was no obvious difference in the composition of the dominant microbiota between these two treatments at the end of the shelf life.</t>
-  </si>
-  <si>
-    <t>Kimchi, a food made of fermented vegetables, is densely populated by indigenous microorganisms that originate from the raw ingredients under normal conditions. Most microbiological studies on kimchi have been on the most popular dish, baechu-kimchi (Chinese cabbage kimchi). Therefore, relatively little is known about the various other kinds of kimchi (depending on the region, season, main ingredient, starter culture inoculation and recipe). In this study, we collected 100 samples periodically during the fermentation of ten representative kinds of kimchi (including starter-inoculated kimchi) that were stored in the refrigerator (4 °C) during the 30−35 days fermentation period. The multiplex barcoded pyrosequencing of a hypervariable V1−V3 region of the 16S ribosomal RNA (rRNA) gene tagged with sample-specific barcodes for multiplex identifiers was employed for bacterial community profiling. We found that bacterial communities differed between starter-inoculated and non-inoculated kimchi at the early stages of fermentation, but overall there were no significant differences in the late phases. Also, the diversity and richness of bacterial communities varied depending on the various types of kimchi, and these differences could largely be explained by the major ingredients and the manufacture processes of each types of kimchi. This study provides the comprehensive understanding of the factors influencing the biodiversity of the kimchi ecosystem.</t>
-  </si>
-  <si>
-    <t>The various stages of the cheese-making process harbor distinct bacterial communities which may influence the sensory characteristics of artisanal cheeses. The objective of this study was to investigate the microbiota from dairy farm to final cheeses along an artisanal cheese-making continuum. Environmental and food samples were collected from 21 sites, including the dairy farm, milk, cheese plant, and finished cheeses. The microbiota of these samples were analyzed using 16S rRNA amplicon sequencing, with sequences grouped into operational taxonomic units (OTUs) by phylotype at the genus level. Alpha diversity decreased from dairy farm to finished cheese. Firmicutes was the dominant phylum, ranging from 31% to 92% between the dairy farm and finished cheeses, respectively, with Proteobacteria, Actinobacteria, and Bacteroides also present (25%, 11%, and 9% overall relative abundance, respectively). Of the 37 core OTUs (&gt;5 reads in &gt;80% of site replicates) observed in cheese, 32 were shared with the dairy farm. Starter-related genera (i.e., Lactococcus, Lactobacillus, Streptococcus, and Leuconostoc) represented between 69% and 98% relative abundance in final cheeses depending on style, with the remainder likely acquired from various environmental sources on the farm and during the cheese-making process.</t>
-  </si>
-  <si>
-    <t>The processing environment of broiler processing plants is a potential major source of bacterial contamination of broiler carcasses. This study investigated the effect of processing water and processing time on the microbial diversity of yellow-feathered broiler carcasses at select stages of slaughter during one commercial processing day using a high-throughput sequencing technique targeting the V3single bondV4 region of the 16S RNA gene. Our results demonstrated that Firmicutes and Proteobacteria were the dominant bacterial phyla of broiler carcasses and processing water in the chiller tank, whereas the processing water in the scalder tank contained a high abundance of Firmicutes and Deinococcus-Thermus. At the genus level, Escherichia-Shigella and Streptococcus were present on broiler carcasses with high abundances after defeathering, but their abundance decreased after washing and chilling. The bacterial community structure was revealed to become more complex at later stages of processing, as indicated by the consistent increase in microbial alpha diversity metrics (Chao 1, Shannoneven and Shannon) throughout the processing stages (p &lt; 0.05). Significantly separate clustering of bacterial communities between scalder tank water and carcasses was revealed by PCoA analysis, indicating the limited effect of scalding water on the bacterial communities of broiler carcasses.</t>
-  </si>
-  <si>
-    <t>Strategies to mitigate antibiotic-resistant bacteria (ARB), including human pathogens, on raw vegetables are needed to reduce incidence of resistant infections. The objective of this research was to determine the effectiveness of standard post-harvest interventions, sanitizer washing and cold storage, to reduce ARB, including antibiotic resistant strains of the human pathogen E. coli O15:H7 and a common spoilage bacterium Pseudomonas, on raw carrots. To provide a background inoculum representing potential pre-harvest carryover of ARB, carrots were dip-inoculated in dairy cow manure compost slurry and further inoculated with known ARB. Inoculated carrots were washed with one of three treatments: sodium hypochlorite (50 ppm free chlorine), peroxyacetic acid (40 ppm peroxyacetic acid; 11.2% hydrogen peroxide), tap water (no sanitizer), or no washing (control). Washed carrots were air dried, packaged and stored at 10 °C for 7d or 2 °C for up to 60 d. Enumeration was performed using total heterotrophic plate counts (HPC), HPCs on antibiotic-containing media (“ARBs”), E. coli O157:H7, and Pseudomonas sp. immediately after washing (0 d) and after 7 d of storage. In addition to the cultured bacteria, changes to the surficial carrot microbiota were profiled by sequencing bacterial 16S rRNA gene amplicons to determine the effect of sanitizer wash, storage temperature, and time of storage (0, 1, 7, 14 and 60 d). Storage temperature, addition of a sanitizer during wash, and duration of storage significantly affected the bacterial microbiota (Wilcoxon, p &lt; 0.05). Inclusion of either sanitizer in the wash water significantly reduced the log CFU/g of E. coli O157:H7 and Pseudomonas sp., as well as HPCs enumerated on cefotaxime- (10 μg/ml), sulfamethoxazole- (100 μg/ml), or tetracycline (3 μg/ml) supplemented media compared to the unwashed control (ANOVA, p &lt; 0.05). However, no significant reductions to bacteria resistant to vancomycin or clindamycin occurred after washing and storage. Members of the Proteobactetria, Firmicutes, Actinobacteria, Planctomycetes, and Acidobacteria comprised the bacterial carrot microbiota. The diversity of the carrot microbiota was significantly affected by the temperature of storage and by extended storage (60 d), when spoilage began to occur. There were no significant differences to the relative abundance of bacterial groups associated with the type of sanitizer used for washing. Results of this study indicate that inclusion of a sanitizer in wash water, followed by storage at 2 °C, might be an effective strategy to prevent re-growth of pathogenic E. coli O157:H7 and reduce levels of bacteria resistant to certain antibiotics on carrots.</t>
-  </si>
-  <si>
-    <t>Background Salmonella enterica is a common cause of foodborne gastroenteritis in the United States and is associated with outbreaks in fresh produce such as cilantro. Salmonella culture-based detection methods are complex and time consuming, and improvments to increase detection sensitivity will benefit consumers. In this study, we used 16S rRNA sequencing to determine the microbiome of cilantro. We also investigated changes to the microbial community prior to and after a 24-hour nonselective pre-enrichment culture step commonly used by laboratory analysts to resuscitate microorganisms in foods suspected of contamination with pathogens. Cilantro samples were processed for Salmonella detection according to the method in the United States Food and Drug Administration Bacteriological Analytical Manual. Genomic DNA was extracted from culture supernatants prior to and after a 24-hour nonselective pre-enrichment step and 454 pyrosequencing was performed on 16S rRNA amplicon libraries. A database of Enterobacteriaceae 16S rRNA sequences was created, and used to screen the libraries for Salmonella, as some samples were known to be culture positive. Additionally, culture positive cilantro samples were examined for the presence of Salmonella using shotgun metagenomics on the Illumina MiSeq. Results Time zero uncultured samples had an abundance of Proteobacteria while the 24-hour enriched samples were composed mostly of Gram-positive Firmicutes. Shotgun metagenomic sequencing of Salmonella culture positive cilantro samples revealed variable degrees of Salmonella contamination among the sequenced samples. Conclusions Our cilantro study demonstrates the use of high-throughput sequencing to reveal the microbiome of cilantro, and how the microbiome changes during the culture-based protocols employed by food safety laboratories to detect foodborne pathogens. Finding that culturing the cilantro shifts the microbiome to a predominance of Firmicutes suggests that changing our culture-based methods will improve detection sensitivity for foodborne enteric pathogens.</t>
-  </si>
-  <si>
-    <t>Ready-to-eat (RTE) leafy salad vegetables are considered foods that can be consumed immediately at the point of sale without further treatment. The aim of the study was to investigate the bacterial community composition of RTE salads at the point of consumption and the changes in bacterial diversity and composition associated with different household washing treatments. The bacterial microbiomes of rocket and spinach leaves were examined by means of 16S rRNA gene high-throughput sequencing. Overall, 886 Operational Taxonomic Units (OTUs) were detected in the salads’ leaves. Proteobacteria was the most diverse high-level taxonomic group followed by Bacteroidetes and Firmicutes. Although they were processed at the same production facilities, rocket showed different bacterial community composition than spinach salads, mainly attributed to the different contributions of Proteobacteria and Bacteroidetes to the total OTU number. The tested household decontamination treatments proved inefficient in changing the bacterial community composition in both RTE salads. Furthermore, storage duration of the salads at refrigeration temperatures affected the microbiome, by decreasing the bacterial richness and promoting the dominance of psychrotropic bacteria. Finally, both salads were found to be a reservoir of opportunistic human pathogens, while washing methods usually applied at home proved to be inefficient in their removal.</t>
-  </si>
-  <si>
-    <t>Forastero hybrid cocoa bean fermentations have been carried out in a box (B) and in a heap (H), with or without the inoculation of Saccharomyces cerevisiae and Torulaspora delbrueckii as starter cultures. The bacteria, yeasts, and microbial metabolites (volatile and nonvolatile organic compounds) were monitored during fermentation to assess the connection between microbiota and the release of metabolites during this process. The presence of starter cultures was detected, by means of culture-dependent analysis, during the first 2 days of both fermentations. However, no statistical difference was observed in any of the physicochemical or microbiological analyses. Plate counts revealed the dominance of yeasts at the beginning of both fermentations, and these were followed by acetic acid bacteria (AAB) and lactic acid bacteria (LAB). Hanseniaspora opuntiae, S. cerevisiae, Pichia pijperi, Acetobacter pasteurianus, and Lactobacillus fermentum were the most abundant operational taxonomic units (OTUs) during both fermentation processes (B and H), although different relative abundances were observed. Only the diversity of the fungal species indicated a higher level of complexity in the B fermentations than in the H fermentations (P &lt; 0.05), as well as a statistically significant difference between the initially inoculated starter cultures (P &lt; 0.01). However, the microbial metabolite analysis indicated different distributions of the volatile and nonvolatile compounds between the two procedures, that is, B and H (P &lt; 0.05), rather than between the inoculated and noninoculated fermentations. The box fermentations showed faster carbohydrate metabolism and greater production of organic acid compounds, which boosted the formation of alcohols and esters, than did the heap fermentations. Overall, the microbial dynamics and associations between the bacteria, yeasts, and metabolites were found to depend on the type of fermentation. IMPORTANCE In spite of the limited effectiveness of the considered inoculated starter strains, this study provides new information on the microbial development of box and heap cocoa fermentations, under inoculated and noninoculated conditions, as we coupled yeast/bacterial amplicon-based sequencing data with microbial metabolite detection. The information so far available suggests that microbial communities have played an important role in the evolution of aroma compounds. Understanding the pathways that microorganisms follow during the formation of aromas could be used to improve the fermentation processes and to enhance chocolate quality.</t>
-  </si>
-  <si>
-    <t>Liqvan (or Lighvan) is a traditional Iranian cheese from the East Azerbaijan province of Iran, which is made of raw ewe's milk without the addition of a starter. The grazing pastures, environmental conditions and the ancient regional production methods allocate a distinctive microbial ecology to this type of cheese, and these factors are consequently associated with the quality of the product. In this study, the microbiota of the milk, curd and cheese has been investigated using culture independent approaches. Denaturing gradient gel electrophoresis (DGGE) of the bacteria, 16S rRNA based high-throughput sequencing and enumeration of the live bacterial community by means of quantitative PCR (qPCR) have been used for this purpose. The results showed that the main bacterial population in the milk belonged to both microbial contaminants and lactic acid bacteria (LAB). However, both of these populations were totally replaced by LAB during ripening. The present survey contributes by describing the microbiota of this ancient cheese in more detail during fermentation and ripening.</t>
-  </si>
-  <si>
-    <t>Milk microbiota has a great influence on the safety and quality of dairy products. However, few studies have investigated the variations of bacterial composition in raw milk. In this study, raw milk samples were collected in 12 successive months, and their bacterial compositions were determined by 16 S rRNA gene sequencing. The highest diversity of bacterial composition was detected in June, while the lowest was in December. Firmicutes, Proteobacteria and Actinobacteria were the most abundant phyla and exhibited a counter-balanced relationship. Pseudomonas, Lactococcus and Acinetobacter were the most prevalent genera (&gt;1%), and a tiny core microbiota (Acinetobacter and Pseudomonas) was observed. Temperature and humidity were the determining factors for most variation in bacterial compositions at both the phylum and genus levels. Higher abundances of Pseudomonas, Propionibacterium and Flavobacterium were correlated with low temperature. Furthermore, Pseudomonas/Propionibacterium and Lactobacillus/Bifidobacterium were two pairs of genera that had synergistic effects. Associations between the microbiota and milk quality parameters were analyzed. The abundances of Propionibacterium and Pseudoalteromonas were negatively correlated to total bacterial count, which meant that they helped to maintain milk quality, while a series of environmental microorganisms contributed to the spoilage of raw milk.</t>
-  </si>
-  <si>
-    <t>Bovine mastitis, an inflammation of the udder, is associated with increases in milk somatic cell count usually resulting from bacterial infection. We analysed 50 mastitic milk samples via cultivation, 16S rRNA sequencing and a combination of the two (culturomics) to define the complete microbial content of the milk. Most samples contained over 10,000 cfu mL−1 total bacterial counts including isolates that were haemolysin positive (n = 36). Among colonies isolated from blood agar plates, Streptococcus uberis was dominant (11/50) followed by Streptococcus dysgalactiae (6/50), Pseudomonas (6/50), Enterococcus faecalis (6/50), Escherichia coli (6/50), Staphylococcus argenteus (4/50), Bacillus (4/50) and Staphylococcus aureus (2/50). 16S rRNA profiling revealed that amplicons were dominated by Rhodococcus, Staphylococcus, Streptococcus and Pseudomonas. A higher inter-sample diversity was noted in the 16S rRNA readouts, which was not always reflected in the plating results. The combination of the two methods highlights the polymicrobial complexity of bovine mastitis.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.foodres.2019.05.032</t>
-  </si>
-  <si>
-    <t>Chicken meat is one of the most widely consumed meats worldwide. The microbiota on the whole body of chicken is a potential source of foodborne pathogens that can be transmitted to humans during the preparation of raw meat. However, to date, there have been no studies comparing the microbiota of packaged chicken products and those of raw chicken carcasses from butcher shops, although such information could be useful for identifying sources of contamination in cases of food poisoning. We addressed this in the present study by analyzing the microbiota of 80 chicken meat samples collected from various butcher shops and processing plants in South Korea with the Illumina MiSeq system based on the 16S rRNA gene sequence. The bacterial amounts in chicken samples were estimated by quantitative real-time PCR. Although different microbial members were present in unpackaged meat from butcher shops as compared to those in packaged products from commercial sources, seasonal differences (sample obtained in January vs. July) in microbiota were more significant even in the packaged products from the same company. We also investigated the influence of contaminated foodborne pathogen on the indigenous microbiota (64 chicken samples) by artificially inoculated with Salmonella enterica serotype Virchow on chicken carcasses under various conditions, and carrying out 16S rRNA gene and whole metagenome sequencing. The amount of contaminated Salmonella in chicken meat samples was the highest and lowest in samples stored at 27 °C and 4 °C after washing, respectively. Additionally, the relative abundance of virulence genes was detected lower in samples stored at 4 °C after washing in both butcher shop and commercial samples. These results could be useful for reducing the risk of foodborne illness caused by cross-contamination during the preparation of chicken meat.</t>
-  </si>
-  <si>
-    <t>Hákarl is produced by curing of the Greenland shark (Somniosus microcephalus) flesh, which before fermentation is toxic due to the high content of trimethylamine (TMA) or trimethylamine N-oxide (TMAO). Despite its long history of consumption, little knowledge is available on the microbial consortia involved in the fermentation of this fish. In the present study, a polyphasic approach based on both culturing and DNA-based techniques was adopted to gain insight into the microbial species present in ready-to-eat hákarl. To this aim, samples of ready-to-eat hákarl were subjected to viable counting on different selective growth media. The DNA directly extracted from the samples was further subjected to Polymerase Chain Reaction-Denaturing Gradient Gel Electrophoresis (PCR-DGGE) and 16S amplicon-based sequencing. Moreover, the presence of Shiga toxin-producing Escherichia coli (STEC) and Pseudomonas aeruginosa was assessed via qualitative real-time PCR assays. pH values measured in the analyzed samples ranged from between 8.07 ± 0.06 and 8.76 ± 0.00. Viable counts revealed the presence of total mesophilic aerobes, lactic acid bacteria and Pseudomonadaceae. Regarding bacteria, PCR-DGGE analysis highlighted the dominance of close relatives of Tissierella creatinophila. For amplicon sequencing, the main operational taxonomic units (OTUs) shared among the data set were Tissierella, Pseudomonas, Oceanobacillus, Abyssivirga and Lactococcus. The presence of Pseudomonas in the analyzed samples supports the hypothesis of a possible role of this microorganism on the detoxification of shark meat from TMAO or TMA during fermentation. Several minor OTUs (&lt;1%) were also detected, including Alkalibacterium, Staphylococcus, Proteiniclasticum, Acinetobacter, Erysipelothrix, Anaerobacillus, Ochrobactrum, Listeria and Photobacterium. Analysis of the yeast and filamentous fungi community composition by PCR-DGGE revealed the presence of close relatives of Candida tropicalis, Candida glabrata, Candida parapsilosis, Candida zeylanoides, Saccharomyces cerevisiae, Debaryomyces, Torulaspora, Yamadazyma, Sporobolomyces, Alternaria, Cladosporium tenuissimum, Moristroma quercinum and Phoma/Epicoccum, and some of these species probably play key roles in the development of the sensory qualities of the end product. Finally, qualitative real-time PCR assays revealed the absence of STEC and Pseudomonas aeruginosa in all of the analyzed samples.</t>
-  </si>
-  <si>
-    <t>Background Multistate foodborne disease outbreaks and recalls of apples and apple products contaminated with Listeria monocytogenes demonstrate the need for improved pathogen control in the apple supply chain. Apple processing facilities have been identified in the past as potential sources of persisting L. monocytogenes contamination. In this study, we sought to understand the composition of microbiota in built apple and other tree fruit processing environments and its association with the occurrence of the foodborne pathogen L. monocytogenes. Results Analysis of 117 samples collected from three apple and other tree fruit packing facilities (F1, F2, and F3) showed that facility F2 had a significantly higher L. monocytogenes occurrence compared to F1 and F3 (p &lt; 0.01). The microbiota in facility F2 was distinct compared to facilities F1 and F3 as supported by the mean Shannon index for bacterial and fungal alpha diversities that was significantly lower in F2, compared to F1 and F3 (p &lt; 0.01). Microbiota in F2 was uniquely predominated by bacterial family Pseudomonadaceae and fungal family Dipodascaceae. Conclusions The composition and diversity of microbiota and mycobiota present in the investigated built food processing environments may be indicative of persistent contamination with L. monocytogenes. These findings support the need for further investigation of the role of the microbial communities in the persistence of L. monocytogenes to support the optimization of L. monocytogenes control strategies in the apple supply chain.</t>
-  </si>
-  <si>
-    <t>Wheat sourdough is a common traditional fermented food that is produced worldwide. However, product quality of spontaneous sourdough is not easy to control because it depends on natural fermentation and backslopping, about which little is known, notably after ten backslopping steps. To this end, we tracked the spontaneous fermentation of three sourdoughs made from wheat flours during 32 backslopping steps for 60 days. At 24 time points, the microbial community was analyzed by both culture-dependent and culture-independent methods and its chemical constituents were assessed. Dynamic changes were observed in the microbial community, which showed a common succession pattern among the three sourdoughs at the bacterial family level and differences at the species level. The bacterial communities evolved through three phases that were driven by different groups of lactic acid bacteria (LAB) species. The dynamism among the metabolites also differed, depending on the species composition of the LAB and yeast communities. In one sourdough, the growth of Saccharomyces cerevisiae was detected along with a concentration of increased ethanol, while in the other two sourdoughs, Wickerhamomyces anomalus was detected without ethanol production. Regarding the LAB communities, two sourdoughs were eventually co-dominated by Lactobacillus plantarum and L. brevis, while the other sourdough was eventually dominated solely by the heterolactic fermentative bacterium Lactobacillus fermentum, and ethanol was produced at the same level as lactic acid. Further research is needed to determine the bacterial and yeast species involved in the fermentation of sourdough, to help improve the design and quality control of the final product.</t>
-  </si>
-  <si>
-    <t>We set out to identify the viable and total bacterial content in milk as it passes through a large-scale, dairy product manufacturing plant for pasteurization, concentration, separation, blending, and storage prior to cheese manufacture. A total of 142 milk samples were collected from up to 10 pieces of equipment for a period spanning 21 h on two collection dates in the spring and late summer of 2014. Bacterial composition in the milk was determined by 16S rRNA marker gene, high-throughput DNA sequencing. Milk samples from the late summer were paired such that half were treated with propidium monoazide (PMA) to enrich for viable cells prior to quantification by PCR and identification by DNA sequence analysis. Streptococcus had the highest median relative abundance across all sampling sites within the facility on both sampling dates. The proportions of Anoxybacillus, Thermus, Lactococcus, Lactobacillus, Micrococcaceae, and Pseudomonas were also elevated in some samples. Viable cells detected by PMA treatment showed that Turicibacter was enriched after high-temperature short-time pasteurization, whereas proportions of Staphylococcus were significantly reduced. Using clean-in-place (CIP) times as a reference point, Bacillus, Pseudomonas, and Anoxybacillus were found in high relative proportions in several recently cleaned silos (&lt;19 h since CIP). At later times (&gt;19 h after CIP), 10 of 11 silos containing elevated viable cell numbers were enriched in Acinetobacter and/or Lactococcus. These results show the tremendous point-to-point and sample-dependent variations in bacterial composition in milk during processing. IMPORTANCE Milk undergoes sustained contact with the built environment during processing into finished dairy products. This contact has the potential to influence the introduction, viability, and growth of microorganisms within the milk. Currently, the population dynamics of bacteria in milk undergoing processing are not well understood. Therefore, we measured for total and viable bacterial composition and cell numbers in milk over time and at different processing points in a cheese manufacturing facility in California. Our results provide new perspectives on the dramatic variations in microbial populations in milk during processing even over short amounts of time. Although some of the changes in the milk microbiota were predictable (e.g., reduced viable cell numbers after pasteurization), other findings could not be easily foreseen based on knowledge of bacteria contained in raw milk or when the equipment was last cleaned. This information is important for predicting and controlling microbial spoilage contaminants in dairy products.</t>
-  </si>
-  <si>
-    <t>Mastitis is a highly prevalent condition that has a great impact on milk production and animal welfare, and often requires substantial management efforts. For this reason, it is generally considered an important threat to the dairy industry. Many microbial, host, and environmental factors can protect against, predispose to, or influence the development of mastitis. The objective of this work was to characterize the milk microbiota of Manchega ewes, and to compare samples from animals with and without a history of mastitis. We analyzed milk samples from 36 ewes belonging to 2 different farms (18 ewes from each farm) using culture-dependent and culture-independent techniques. We also analyzed several immune compounds to investigate associations of mastitis with 3 main variables: farm; history of mastitis or no mastitis; and parity number. Both culture-dependent and culture-independent techniques showed that ewe milk harbored a site-specific complex microbiota and microbiome. Staphylococcus epidermidis was the main species driving the difference between farm A (where it was the dominant species) and B (where it was not). In contrast, samples from farm B were characterized by the presence of a wide spectrum of other coagulase-negative staphylococci. Some of these species have already been associated with subclinical intramammary infections in ruminants. Of the 10 immune compounds assayed in this study, 3 were related to a history of mastitis [IL-8, IFN-γ, and IFN-gamma-induced protein 10 (IP-10)]. Increases in IL-8 concentrations in milk seemed to be a feature of subclinical mastitis in sheep, and in this study, this immune factor was detected only in samples from ewes with some episodes of mastitis and from the group with the highest somatic cell count. We also observed a positive correlation between the samples with the highest somatic cell count and IFN-γ and IP-10 levels. Our results suggest that these 3 compounds could be used as biomarkers for the negative selection of mastitis-prone animals, particularly when somatic cell count is very high.</t>
-  </si>
-  <si>
-    <t>The aim of this study was to define the microbiota of water buffalo milk during sub-clinical and clinical mastitis, as compared to healthy status, by using high-throughput sequencing of the 16S rRNA gene. A total of 137 quarter samples were included in the experimental design: 27 samples derived from healthy, culture negative quarters, with a Somatic Cell Count (SCC) of less than 200,000 cells/ml; 27 samples from quarters with clinical mastitis; 83 samples were collected from quarters with subclinical mastitis, with a SCC number greater of 200,000 cells/ml and/or culture positive for udder pathogens, without clinical signs of mastitis. Bacterial DNA was purified and the 16S rRNA genes were individually amplified and sequenced. Significant differences were found in milk samples from healthy quarters and those with sub-clinical and clinical mastitis. The microbiota diversity of milk from healthy quarters was richer as compared to samples with sub-clinical mastitis, whose microbiota diversity was in turn richer as compared to those from clinical mastitis. The core microbiota of water buffalo milk, defined as the asset of microorganisms shared by all healthy milk samples, includes 15 genera, namely Micrococcus, Propionibacterium, 5-7N15, Solibacillus, Staphylococcus, Aerococcus, Facklamia, Trichococcus, Turicibacter, 02d06, SMB53, Clostridium, Acinetobacter, Psychrobacter and Pseudomonas. Only two genera (Acinetobacter and Pseudomonas) were present in all the samples from sub-clinical mastitis, and no genus was shared across all in clinical mastitis milk samples. The presence of mastitis was found to be related to the change in the relative abundance of genera, such as Psychrobacter, whose relative abundance decreased from 16.26% in the milk samples from healthy quarters to 3.2% in clinical mastitis. Other genera, such as SMB53 and Solibacillus, were decreased as well. Discriminant analysis presents the evidence that the microbial community of healthy and clinical mastitis could be discriminated on the background of their microbiota profiles.</t>
-  </si>
-  <si>
-    <t>The aim of this study was to characterize the spoilage microbiota of hake fillets stored under modified atmospheres (MAP) (50% CO2/50% N2) at different temperatures using high-throughput 16S rRNA gene sequencing and to compare the results with those obtained using traditional microbiology techniques. The results obtained indicate that, as expected, higher storage temperatures lead to shorter shelf-lives (the time of sensory rejection by panelists). Thus, the shelf-life decreased from six days to two days for Batch A when the storage temperature increased from 1 to 7 °C, and from five to two days—when the same increase in storage temperature was compared—for Batch B. In all cases, the trimethylamine (TMA) levels measured at the time of sensory rejection of hake fillets exceeded the recommended threshold of 5 mg/100 g. Photobacterium and Psychrobacter were the most abundant genera at the time of spoilage in all but one of the samples analyzed: Thus, Photobacterium represented between 19% and 46%, and Psychrobacter between 27% and 38% of the total microbiota. They were followed by Moritella, Carnobacterium, Shewanella, and Vibrio, whose relative order varied depending on the sample/batch analyzed. These results highlight the relevance of Photobacterium as a spoiler of hake stored in atmospheres rich in CO2. Further research will be required to elucidate if other microorganisms, such as Psychrobacter, Moritella, or Carnobacterium, also contribute to spoilage of hake when stored under MAP.</t>
-  </si>
-  <si>
-    <t>Despite the continuing development of new insect-derived food products, microbial research on edible insects and insect-based foods is still very limited. The goal of this study was to increase the knowledge on the microbial quality of edible insects by comparing the bacterial community composition of mealworms (Tenebrio molitor) and crickets (Acheta domesticus and Gryllodes sigillatus) from several production cycles and rearing companies. Remarkable differences in the bacterial community composition were found between different mealworm rearing companies and mealworm production cycles from the same company. In comparison with mealworms, the bacterial community composition of the investigated crickets was more similar among different companies, and was highly similar between both cricket species investigated. Mealworm communities were dominated by Spiroplasma and Erwinia species, while crickets were abundantly colonised by (Para)bacteroides species. With respect to food safety, only a few operational taxonomic units could be associated with potential human pathogens such as Cronobacter or spoilage bacteria such as Pseudomonas. In summary, our results implicate that at least for cricket rearing, production cycles of constant and good quality in terms of bacterial composition can be obtained by different rearing companies. For mealworms however, more variation in terms of microbial quality occurs between companies.</t>
-  </si>
-  <si>
-    <t>In this study, the microbiota during industrial rearing, processing, and storage of the edible tropical house cricket, Gryllodes sigillatus, was investigated. To this end, we analyzed samples from the cricket feed, obtained before feeding as well as from the cages, and from the crickets during rearing, after harvest, and after processing into frozen, oven-dried, and smoked and oven-dried (smoked/dried) end products. Although the feed contained lower microbial numbers than the crickets, both were dominated by the same species-level operational taxonomic units, as determined by Illumina MiSeq sequencing. They corresponded, among others, to members of Porphyromonadaceae, Fusobacterium, Parabacteroides, and Erwinia. The harvested crickets contained high microbial numbers, but none of the investigated food pathogens Salmonella spp., Listeria monocytogenes, Bacillus cereus, or coagulase-positive staphylococci. However, some possible mycotoxin-producing fungi were isolated from the crickets. A postharvest heat treatment, shortly boiling the crickets, reduced microbial numbers, but an endospore load of 2.4 log CFU/g remained. After processing, an increase in microbial counts was observed for the dried and smoked/dried crickets. Additionally, in the smoked/dried crickets, a high abundance of a Bacillussp. was observed. Considering the possible occurrence of food-pathogenic species from this genus, it is advised to apply a heat treatment which is sufficient to eliminate spores. Nevertheless, the microbial numbers remained constant over a 6-month storage period, whether frozen (frozen end product) or at ambient temperature (oven-dried and smoked/dried end products). IMPORTANCE The need for sustainable protein sources has led to the emergence of a new food sector, producing and processing edible insects into foods. However, insight into the microbial quality of this new food and into the microbial dynamics during rearing, processing, and storage of edible insects is still limited. Samples monitored for their microbiota were obtained in this study from an industrial rearing and processing cycle. The results lead first to the identification of process steps which are critical for microbial food safety. Second, they can be used in the construction of a Hazard Analysis and Critical Control Points (HACCP) plan and of a Novel Food dossier, which is required in Europe for edible insects. Finally, they confirm the shelf-life period which was determined by the rearer.</t>
-  </si>
-  <si>
-    <t>In this study, the microbial dynamics during an industrial production cyle of lesser mealworms (Alphitobius diaperinus), sold for human consumption, were characterised. The microbial numbers as well as the microbial diversity were generally higher for the substrate, existing of remaining feed, faeces and exuviae, than for the larvae. Most of the species-level operational taxonomic units, identified using Illumina MiSeq sequencing, that were present in the feed were also detected in the larvae and vice versa. However, bacterial diversity decreased in the larvae during rearing. These results suggested that the feed is an important determinant of the insect bacterial community, but that some bacterial species show a competitive advantage inside the insect gut and become dominant. A blanching treatment of the larvae after harvest reduced most microbial counts, but the number of aerobic endospores remained at 4.0 log cfu/g. Whereas food pathogens Salmonella spp., Listeria monocytogenes, Bacillus cereus or coagulase-positive staphylococci were not detected in our study, fungal isolates corresponding to the genera Aspergillus and Fusarium were recovered. Therefore, it cannot be excluded that mycotoxins were present. The results of this study contribute to a better understanding of the microbial dynamics and food safety aspects during the production of edible insects.</t>
-  </si>
-  <si>
-    <t>Sprouts are considered a healthy ready-to-eat food and has gained popularity in recent years. The objective of the present study was to determine the dynamics of sprouts' microbiome during cold storage to the end of their shelf-life at home. The microbiological quality of fresh alfalfa (Medicago sativa) and mung bean (Vigna radiata) sprouts from two commercial brands was tested and the number of APC ranges from 5.0 to 8.7 log CFU/g in alfalfa and 6.7 to 9.3 log CFU/g in mung bean sprouts. In the case of alfalfa, but not mung beans, there were differences in the mean numbers of APC between the two brands. The number of coliform bacteria ranges from 4.3 to 7.7 log CFU/g in alfalfa and 4.1 to 8.1 log CFU/g in mung bean sprouts. Four independent batches of sprouts were used for DNA preparation and were sampled immediately after purchase and once a week during subsequent storage in refrigerator until the end of their shelf-life. Microbial population of the sprouts was determined using next generation sequencing of 16S rRNA amplicons. Alfalfa sprouts were dominated by Pseudomonas throughout the storage time with relative abundance of &gt;60% at 3 weeks. Fresh mung bean sprouts were dominated by both Pseudomonas and Pantoea, but Pantoea became the dominant taxa after 2 weeks of storage, with &gt;46% of relative abundance. The bacterial communities associated with sprouts were largely dependent on the sprout type, and less dependent on the brand. The species richness and diversity declined during storage and the development of spoilage. Among the 160 genera identified on sprouts, 23 were reported to contain known spoilage-associated species and 30 genera comprise potential human pathogenic species. This study provides new insight into the microbiome dynamics of alfalfa and mung bean sprouts during cold storage.</t>
-  </si>
-  <si>
-    <t>Fermented foods play a major role in the diet of people in Africa, where a wide variety of raw materials are fermented. Understanding the microbial populations of these products would help in the design of specific starter cultures to produce standardized and safer foods. In this study, the bacterial diversity of African fermented foods produced from several raw materials (cereals, milk, cassava, honey, palm sap, and locust beans) under different conditions (household, small commercial producers or laboratory) in 8 African countries was analysed by 16S rRNA gene amplicon sequencing during the Workshop “Analysis of the Microbiomes of Naturally Fermented Foods Training Course”. Results show that lactobacilli were less abundant in fermentations performed under laboratory conditions compared to artisanal or commercial fermentations. Excluding the samples produced under laboratory conditions, lactobacilli is one of the dominant groups in all the remaining samples. Genera within the order Lactobacillales dominated dairy, cereal and cassava fermentations. Genera within the order Lactobacillales, and genera Zymomonas and Bacillus were predominant in alcoholic beverages, whereas Bacillus and Lactobacillus were the dominant genera in the locust bean sample. The genus Zymomonas was reported for the first time in dairy, cereal, cassava and locust bean fermentations.</t>
-  </si>
-  <si>
-    <t>Truffle fungi, luxurious food items with captivating aromas, are highly valued in the culinary world. However, truffles are perishable and their aroma undergoes deep changes upon storage. Additionally, truffle aroma might be partially derived from microbes. Hence, we investigated here the influence of storage on two factors, namely the volatile profile and bacterial community composition in the black truffle Tuber aestivum. The possible linkage among those factors was further explored. Our results demonstrate important changes in the volatile profiles of truffles over nine days of storage at room temperature. In the same time frame, dominant bacterial classes characteristic of fresh truffles (α-Proteobacteria, β-Proteobacteria, and Sphingobacteria classes) were gradually replaced by food spoilage bacteria (γ-Proteobacteria and Bacilli classes). Freshness and spoilage volatile markers (i.e. dimethyl sulfide (DMS), butan-2-one, 2- and, 2- and 3-methylbutan-1-ol, and 2-phenylethan-1-ol) were identified. Lastly, network analysis showed correlations between those markers and specific bacterial classes typical of fresh and spoiled truffles. Overall, our results demonstrate the profound effect of storage on the aroma and bacterial community composition of truffles and highlight how the gradual replacement of the commensal microbiome by spoilage microbes mirrors shifts in aroma profile and the possible loss of fresh truffle flavor.</t>
-  </si>
-  <si>
-    <t>Natural (N) as well as starter inoculated (S, inoculated with Saccharomyces cerevisiae M3–5; CZS, Candida zemplinina T13, Zygosaccharomyces bailii NS113 and Saccharomyces cerevisiae M3–5) fermentations of Falanghina must from dehydrated grape were monitored. Culture dependent analyses and amplicon-based high-throughput sequencing targeting 18S rRNA and 16S rRNA genes were used to monitor the fungal and bacterial communities (8 sampling points during 65 days). The resulting wines were subject to both sensory evaluation and volatile organic compounds analysis. Fungal community of un-inoculated musts (N) at beginning of the fermentation was mainly represented by Aureobasidium, Cladosporium, Sclerotinia, while Candida, Debaryomyces, Hanseniaspora, Metschnikowia, Pichia, Saccharomyces and Zygosaccharomyces showed a very low occurrence. The dominance of Hanseniaspora vineae and/or Hanseniaspora uvarum was clear up to 29th days of fermentation. S. cerevisiae occurred in all the phases but become dominant only at the end of the process. The odour profiles as evaluate by Quantitative Descriptive Analysis (QDA) highlighted a significant impact of the fungal populations on the olfactory profiles of the wines. Raisins, dried fruits, Sherry and liqueur were stronger in both S and CZS, while N was mostly discriminated by solvent/chemical and floral features. Outcomes underpin the impact of microbiota on the chemical and odour traits of Falanghina passito wines.</t>
-  </si>
-  <si>
-    <t>Palm wine is obtained by fermentation of palm tree sap. In the Pacific coast of Mexico, palm wine is called Tuba and it is consumed as a traditional fermented beverage. Tuba has empirical applications such as an auxiliary in gastrointestinal diseases and a good source of nutrients. In the present study, a next-generation sequencing of the V3–V4 regions of the 16S rRNA gene was employed to analyze bacterial diversity and population dynamics during the fermentation process of Tuba, both in laboratory controlled conditions and in commercial samples from local vendors. Taxonomic identification showed that Fructobacillus was the main genus in all the samples, following by Leuconostoc, Gluconacetobacter, Sphingomonas, and Vibrio. Alpha diversity analysis demonstrated variability between all the samples. Beta diversity clustered the bacterial population according to the collection origin of the sample. Metabolic functional profile inference showed that the members of the bacterial communities may present the vitamin, antibiotic and antioxidant biosynthesis genes. Additionally, we further investigated the correlation between the predominant genera and some composition parameters of this beverage. This study provides the basis of the bacterial community composition and functionality of the fermented beverage.</t>
-  </si>
-  <si>
-    <t>This study revealed for the first time the dynamic changes of the bacterial community during the fermentation of traditional Chinese fish sauce (TCFS) using high-throughput sequencing. In the early phase of TCFS fermentation, Shewanella (approximately 90%) within Proteobacteria was the dominant bacteria. Then, Halanaerobium (3%–86%) within Firmicutes rapidly replaced Shewanella as the dominant genus until the 12th month. Lactococcus (3.31%) and Bacillus (45.56%) belonging to Firmicutes were detected abundantly in the 3rd and 9th months after fermentation, respectively. In the late phase (12–15 months), Tetragenococcus within Firmicutes replaced Halanaerobium as the most dominant bacteria (29.54%). Many other genera including Pseudomonas, Psychrobacter, Tissierella, Carnobacterium and Gallicola were abundantly present in the 15th month after fermentation. Furthermore, the relationships between the bacterial community and major functional substances of TCFS, including amino nitrogen (AAN), free amino acids (FAAs), total soluble nitrogen (TSN), and trimethylamine (TMA), were investigated by partial least squares regression (PLSR). Tetragenococcus was positively correlated with the formation of TMA, while Halanaerobium showed the opposite result, suggesting that Tetragenococcus might be a good starter for TCFS fermentation. These results contribute to our knowledge about bacterial participation in the process of TCFS fermentation and will help improve the quality of fermented seafood.</t>
-  </si>
-  <si>
-    <t>Sataw-Dong is a fermented stink bean in brine, made with Parkia speciosa subjected to spontaneous fermentation. This study aimed to investigate the impact of Lactobacillus plantarum KJ03 as a starter culture during Sataw-Dong fermentation and to determine its effect on the volatilome profile. Two fermentations were performed: spontaneous and inoculated with starter. The surface of the beans and the brines were separately analyzed throughout fermentation period for 15 days. Inoculated samples clearly showed a significantly higher acidification of the brine, reaching a pH of 3.98 within 5 days of fermentation. The microbiota was investigated through 16S amplicon based sequencing and revealed the dominance of Lactobacillus plantarum and Lactobacillus sanfranciscensis throughout the fermentation in both brine and bean samples. The starter used clearly influenced volatile organic compounds (VOCs) profiles. Inoculated samples showed the lowest abundance of Brevundimonas, Corynebacterium, Enterobacteriaceae, Methylobacterium and Klebsiella, compared to the spontaneous fermentation. Correlation between OTUs and VOCs revealed that acids, aldehydes, and alcohols exhibited a positive correlation with L. plantarum and L. sanfranciscencis. Overall aldehydes were mostly produced at the beginning, while acids, alcohols, and ketones at the middle until the end of the fermentation. Sataw-Dong produced with the starter significantly perceived a positive response in the overall acceptance. As shown through microbiological changes, acidification, VOCs and sensory analysis, the successful and accelerated Sataw-Dong fermentation was achieved when using a functional starter strain.</t>
-  </si>
-  <si>
-    <t>Spoilage bacteria seriously influence meat quality. In this study, the bacterial community, sensory scores, pH, and total volatile basic nitrogen (TVB-N) in refrigerated (4 °C) pork, the most commonly consumed meat in China, were investigated. In a high-throughput sequencing analysis of the V3–V4 region of the 16S rDNA gene, 259 bacterial genera were belonging to 21 phyla were identified. With the passage of time, the bacterial community diversity decreased. After 5 days, Pseudomonas, Acinetobacter and Photobacterium were dominant in refrigerated pork, especially Photobacterium, which rarely associated with meat spoilage. Our results suggest that these taxa contribute to refrigerated pork spoilage. During storage, pH and TVB-N showed similar trends. Additionally, total viable counts (TVC) increased steadily and sensory score decreased. On day 5, TVC, pH, TVB-N and sensory scores changed dramatically, and sensory scores indicating that the shelf life of refrigerated pork was less than 5 days. The predicted metabolic pathways, based o the data of 16S rDNA, indicated an abundant carbohydrate metabolism and amino metabolism in refrigerated pork. This study provides insight into the determinants of shelf life. Furthermore, it provides insight into the process involved in refrigerated pork spoilage.</t>
-  </si>
-  <si>
-    <t>This study was designed to explore the temperature effects on bacterial communities and metabolites, as well as their relationships during the fermentation of sour meat, a traditional fermented meat product in the ethnic minority regions of China. Results showed that reduction of pH and increase of lactic acid and free amino acid contents occurred (p &lt; 0.05) as the fermentation temperature and time increased, and the tendency was more apparent at higher temperature. During the fermentation, Lactobacillus gradually replaced other genera, and higher the temperature, more rapid was the process. Both the number and amount of volatile organic compounds increased at higher temperatures. Hexanal, benzaldehyde, nonanal, (E,E)-2,4-decadienal, 1-octen-3-ol and octanal were identified as the key volatile organic compounds produced by Lactobacillus in sour meat as main contributors to odor as confirmed by variable importance in the projection analysis. Redundancy analysis and Pearson correlation showed positive correlation between Lactobacillus and desired product characteristics, such as higher content of lactic acid, free amino acids, volatile organic compounds, and lower pH and water activity values, which may represent a better quality and longer shelf life after fermentation at higher temperature. Therefore fermentation at 20 °C and 25 °C are proposed as optimum temperatures for sour meat production.</t>
-  </si>
-  <si>
-    <t>Fermented chopped pepper is a widely used ingredient in traditional Chinese cuisine. To improve the quality and solve safety problems during production, it is essential to fully understand the bacterial diversity present during the fermentation process. In this study, the dynamics and diversity of the bacterial community present during the fermentation of chopped pepper were analysed by high‐throughput sequencing. There was a higher level of bacterial diversity at the beginning of fermentation, and Proteobacteria were found to be the dominant group at this stage. However, after 3 days, Proteobacteria decreased in abundance and Firmicutes became the dominant group present in the samples. Interestingly, the relative abundance of Weissella increased during the first 3 days of fermentation and then gradually decreased over the rest of the fermentation process, suggesting that Weissella may play an important role during the initial stage of fermentation. Lactobacillus was found to constitute the majority of bacteria during the fermentation period. This study demonstrates that high‐throughput sequencing is a useful tool to evaluate bacterial diversity and monitor microbial quality in fermented chopped pepper. The results obtained in this study advance the current understanding of the bacterial communities present in chopped pepper and provide a theoretical basis for improving the quality of chopped pepper fermentation. Significance and Impact of the Study Fermented chopped pepper is an important ingredient in traditional Chinese foods. As of yet, the bacterial community dynamics that take place during the fermentation of chopped pepper have not been described. In this study, we used high‐throughput sequencing to investigate the bacterial community, deepening our understanding of the microbial mechanisms underlying the fermentation of traditional chopped pepper.</t>
-  </si>
-  <si>
-    <t>The practices of preparing traditional foods in the Arctic are rapidly disappearing. Traditional foods of the Arctic represent a rarity among food studies in that they are meat-sourced and prepared in non-industrial settings. These foods, generally consumed without any heating step prior to consumption, harbor an insofar undescribed microbiome. The food-associated microbiomes have implications not only with respect to disease risk, but might also positively influence host health by transferring a yet unknown diversity of live microbes to the human gastrointestinal tract. Here we report the first study of the microbial composition of traditionally dried fish prepared according to Greenlandic traditions and their industrial counterparts. We show that dried capelin prepared according to traditional methods have microbiomes clearly different from industrially prepared capelin, which also have more homogenous microbiomes than traditionally prepared capelin. Interestingly, the locally preferred type of traditionally dried capelin, described to be tastier than other traditionally dried capelin, contains bacteria that potentially confer distinct taste. Finally, we show that dried cod have comparably more homogenous microbiomes when compared to capelin and that in general, the environment of drying is a major determinant of the microbial composition of these indigenous food products.</t>
-  </si>
-  <si>
-    <t>“Suero Costeño” (SC) is a traditional soured cream elaborated from raw milk in the Northern-Caribbean coast of Colombia. The natural microbiota that characterizes this popular Colombian fermented milk is unknown, although several culturing studies have previously been attempted. In this work, the microbiota associated with SC from three manufacturers in two regions, “Planeta Rica” (Córdoba) and “Caucasia” (Antioquia), was analysed by means of culturing methods in combination with high-throughput sequencing and DGGE analysis of 16S rRNA gene amplicons. The bacterial ecosystem of SC samples was revealed to be composed of lactic acid bacteria belonging to the Streptococcaceae and Lactobacillaceae families; the proportions and genera varying among manufacturers and region of elaboration. Members of the Lactobacillus acidophilus group, Lactocococcus lactis, Streptococcus infantarius and Streptococcus salivarius characterized this artisanal product. In comparison with culturing, the use of molecular in deep culture-independent techniques provides a more realistic picture of the overall bacterial communities residing in SC. Besides the descriptive purpose, these approaches will facilitate a rational strategy to follow (culture media and growing conditions) for the isolation of indigenous strains that allow standardization in the manufacture of SC.</t>
-  </si>
-  <si>
-    <t>Italian PDO (Protected Designation of Origin) Fiore Sardo (FS), Pecorino Siciliano (PS) and Pecorino Toscano (PT) ewes’ milk cheeses were chosen as hard cheese model systems to investigate the spatial distribution of the metabolically active microbiota and the related effects on proteolysis and synthesis of volatile components (VOC). Cheese slices were divided in nine sub-blocks, each one separately subjected to analysis and compared to whole cheese slice (control). Gradients for moisture, and concentrations of salt, fat and protein distinguished sub-blocks, while the cell density of the main microbial groups did not differ. Secondary proteolysis differed between sub-blocks of each cheese, especially when the number and area of hydrophilic and hydrophobic peptide peaks were assessed. The concentration of free amino acids (FAA) agreed with these data. As determined through Purge and Trap (PT) coupled with Gas Chromatography-Mass Spectrometry (PT-GC/MS), and regardless of the cheese variety, the profile with the lowest level of VOC was restricted to the region identified by the letter E defined as core. As shown through pyrosequencing of the 16S rRNA targeting RNA, the spatial distribution of the metabolically active microbiota agreed with the VOC distribution. Differences were highlighted between core and the rest of the cheese. Top and bottom under rind sub-blocks of all three cheeses harbored the widest biodiversity.</t>
-  </si>
-  <si>
-    <t>In this work, the amplicon sequencing of the 16 S rRNA gene was employed to investigate the bacterial diversity in ingredients, processing environment, and ripened cheeses collected from three farms producing Serra da Canastra artisanal cheese. The data obtained indicated a remarkable variability in the bacteria consortia of the milk, whey, and environmental samples collected in farms 1, 2, and 3, despite their location in the same city. On the other hand, the starter culture and final product (ripened cheese) presented more constant and similar microbiota no matter the farm. The findings suggest that Streptococcus and Lactococcus have competitive advantages throughout Serra da Canastra cheese-making/ripening, which is crucial for their high relative abundance in the final products. An exploratory assessment based on sequencing data available in the literature showed that the Serra da Canastra cheeses sequences clustered with specific cheese varieties that are also made from raw milk but ripened for very different periods. The findings of this study highlight that despite the variability of milk and whey microbiota among the three farms, the starter culture (“pingo”) has strong relevance in shaping the microbiota of the final product.</t>
-  </si>
-  <si>
-    <t>Long ripened cheeses, such as Grana Padano (GP), a Protected Designation of Origin (PDO) Italian cheese, harbor a viable microbiota mainly composed of non-starter lactic acid bacteria (NSLAB), which contribute to the final characteristics of cheese. The NSLAB species Lactobacillus rhamnosus, Lb. casei and Lb. paracasei are frequently found in GP, and form a closely related taxonomic group (Lb. casei group), making it difficult to distinguish the three species through 16S rRNA sequencing. SpxB, a metabolic gene coding for pyruvate oxidase in Lb. casei group, was recently used to distinguish the species within this bacterial group, both in pure cultures and in cheese, where it could provide an alternative energy source through the conversion of pyruvate to acetate. The aim of this work was to study the evolution of the metabolically active microbiota during different stages of GP ripening, targeting 16S rRNA to describe the whole microbiota composition, and spxB gene to monitor the biodiversity within the Lb. casei group. Furthermore, activation of pyruvate oxidase pathway was measured directly in cheese by reverse transcription real time PCR (RT–qPCR). The results showed that Lb. casei group dominates throughout the ripening and high-throughput sequencing of spxB allowed to identify four clusters inside the Lb. casei group. The dynamics of the sequence types forming the clusters were followed during ripening. Pyruvate oxidase pathway was expressed in cheese, showing a decreasing trend over ripening time. This work highlights how the composition of the microbiota in the early manufacturing stages influences the microbial dynamics throughout ripening, and how targeting of a metabolic gene can provide an insight into the activity of strains relevant for dairy products.</t>
-  </si>
-  <si>
-    <t>A variety of foods fermented with lactic acid bacteria serve as dietary staples in many African communities; yet, their bacterial profiles are poorly characterized. The integration of health-promoting probiotics into naturally fermented milk products could make a profound impact on human health. Here, we characterize the bacterial community composition of a naturally fermented milk product (lait caillé) from northern Senegal, prepared in wooden bowls (lahals) with a bacterial biofilm to steer the fermentation process. We incorporated a probiotic starter culture containing the most documented probiotic strain Lactobacillus rhamnosus GG (generic strain name yoba 2012) into the local fermentation process. Bar-coded 16S rRNA amplicon sequencing of lait caillé samples indicated that the bacterial community of lait caillé has high species richness with over 100 bacterial genera; however, few have high abundance. In contrast to the diverse bacterial compositions of other characterized naturally fermented milk products, the composition of lait caillé predominantly consists of the lactic acid bacteria Streptococcus and Lactobacillus, resembling the bacterial composition in regular yogurt. The bacterial community composition of lait caillé varies geographically based on the presence of some genera, including Lactoccoccus, Enterococcus, Bifidobacterium, and Bacillus, but this trend is not consistent within production communities. The diversity of bacterial communities is much higher in the lahal biofilm than in the naturally fermented milk products, which is in turn greater than in commercial yogurts. Addition of a starter culture with L. rhamnosus yoba 2012 to milk in lahals led to substantial growth of this probiotic bacterium during the fermentation process. Two independent quantitative PCR-analyses specific for L. rhamnosus yoba 2012 indicated a 20- to 60-fold increase in the total number of probiotic bacteria in the first batch after inoculation. A similar increase of the probiotic was observed in a variation of lait caillé prepared with carbohydrate-rich millet granules (thiakry) added prior to fermentation. This study shows the feasibility of integrating health-promoting probiotic strains into naturally fermented foods produced in regions with a high prevalence of malnutrition.</t>
-  </si>
-  <si>
-    <t>This study aimed at establishing the effects of attenuated starters and surface bacteria on various features of caciotta cheese. The cheese undergoes a ripening period during which the house microbiota contaminates the surface. Conventional cheese (the control cheese [CC]) is made using only primary starters. Primary starters and attenuated (i.e., unable to grow and synthesize lactic acid) Lactococcus lactis (Lc. lactis) subsp. lactis were used to produce caciotta cheese without (ATT cheese) or with an inoculum of surface bacteria: (i) Leuconostoc lactis (Le. lactis) (LL cheese), (ii) Vibrio casei (VC cheese), (iii) Staphylococcus equorum (SE cheese), (iv) Brochothrix thermosphacta (BX cheese), and (v) a mixture of all four (MIX cheese). Attenuated Lc. lactis increased microbial diversity during cheese ripening. At the core, attenuated starter mainly increased indigenous lactococci and Lactobacillus delbrueckii group bacteria. At the surface, the main effect was on Macrococcus caseolyticus. Autochthonous Le. lactis strains took advantage of the attenuated starter, becoming dominant. Adjunct Le. lactis positively affected Lactobacillus sakei group bacteria on the LL cheese surface. Adjunct V. casei, S. equorum, and B. thermosphacta did not become dominant. Surfaces of VC, SE, and BX cheeses mainly harbored Staphylococcus succinus. Peptidase activities were higher in cheeses made with attenuated starter than in CC, which had the lowest concentration of free amino acids. Based on the enzymatic activities of adjunct Le. lactis, LL and MIX cheeses exhibited the highest glutamate dehydrogenase, cystathionine-γ-lyase, and esterase activities. As shown by multivariate statistical analyses, LL and MIX cheeses showed the highest similarity for microbiological and biochemical features. LL and MIX cheeses received the highest scores for overall sensory acceptability. IMPORTANCE This study provides in-depth knowledge of the effects of attenuated starters and surface bacterial strains on the microbiota and related metabolic activities during cheese ripening. The use of attenuated Lc. lactis strongly impacted the microbiota assembly of caciotta cheese. This led to improved biochemical and sensory features compared to conventional cheese. Among surface bacterial strains, Le. lactis played a key role in the metabolic activities involved in cheese ripening. This resulted in an improvement of the sensory quality of caciotta cheese. The use of attenuated lactic acid bacteria and the surface adjunct Le. lactis could be a useful biotechnology to improve the flavor formation of caciotta cheese.</t>
-  </si>
-  <si>
-    <t>The cheese-derived strains Streptococcus thermophilus 84C isolated from Nostrano cheese, and Lactobacillus brevis DSM 32386 isolated from Traditional Mountain Malga cheese have been previously reported as γ-aminobutyric acid (GABA)-producers in vitro. In the present study, the ability of these strains to produce GABA was studied in experimental raw milk cheeses, with the aim to investigate the effect of the culture and the ripening time on the GABA concentration. The cultures used consisted on S. thermophilus 84C alone (84C) or in combination with L. brevis DSM 32386 (84C-DSM). The control culture was a commercial S. thermophilus strain, which was tested alone (CTRL) or in combination with the L. brevis DSM 32386 (CTRL-DSM). The pH evolution, microbiological counts, MiSeq Illumina and UHPLC-HQOMS analysis on milk and cheese samples were performed after 2, 9, and 20 days ripening. During the whole ripening, the pH was always under 5.5 in all batches. The concentration of GABA increased during ripening, with the highest content in 84C after 9 days ripening (84 ± 37 mg/kg), in 84C-DSM and CTRL-DSM after 20 days ripening (91 ± 28 and 88 ± 24 mg/kg, respectively). The data obtained support the hypothesis that S. thermophilus 84C and L. brevis DSM 32386 could be exploited as functional cultures, improving the in situ bio-synthesis of GABA during cheese ripening.</t>
-  </si>
-  <si>
-    <t>Carcass chilling is a critical step in broiler processing. Understanding the effect of chilling on the bacterial communities of broilers is important, as these communities may be largely responsible for the spoilage process. This study examined the effect of chilling systems (air chilling [AC] and water chilling [WC]) and subsequent aerobic storage on the microbiota of yellow-feathered broiler carcasses using a high-throughput sequencing technique targeting the V3–V4 region of the 16S RNA gene. Evidence of the clear differences in the microbiota structures between AC and WC carcasses was illustrated by principle coordinates and heat map clustered analyses. The distinctions between the AC and WC carcass bacterial communities were more pronounced during the later storage stages. The major genera on the spoiled AC carcasses were Pseudomonas, Psychrobacter and Shewanella, whereas the major genera on the spoiled WC carcasses were Psychrobacter, Pseudomonas and Carnobacterium. These data suggest that the chilling method has a marked effect on the microbiota composition of yellow-feathered broilers along the entire storage period. The chilling method was also of great importance for surface color. However, there was no significant difference in the sensorial shelf-life of chicken when comparing the chilling methods.</t>
-  </si>
-  <si>
-    <t>Nitrite is widely used in meat products as a multifunctional additive, combining flavour and colour properties with antioxidant and antimicrobial effects. However, nitrite may form reaction products (i.e., nitrosamine) that are potentially carcinogenic to humans. The meat industry, in response to consumers’ demands for nitrite-free products, is seeking natural alternatives to nitrite, such as plant-based extracts. Three types of dry-fermented sausages were manufactured: NIT, containing 30 ppm of sodium nitrite; GSE, containing grape seed extract and olive pomace hydroxytyrosol; and CHE, containing chestnut extract and olive pomace hydroxytyrosol. Next-generation sequencing (NGS) was used to analyse microbial consortia, which were correlated with physical and chemical parameters. The prokaryotic community composition was similar among treatments, with a high relative abundance of Staphylococcus xylosus and Lactobacillus sakei, collectively accounting for 87% of the total community. However, significant differences were observed in both operational taxonomic unit (OTU) presence/absence and relative abundance. Ten genera varied in abundance between treatments. The increase in Lactobacillaceae in CHE may explain the reduced pH levels detected in these samples. In conclusion, NGS analysis showed that the prokaryotic community composition was similar in GSE and NIT, while CHE varied in both the composition and relative abundance of different taxa.</t>
-  </si>
-  <si>
-    <t>The present work was carried out to evaluate the microbiological and physicochemical composition of salamis produced with the meat of beef, horse, wild boar and pork. Salami productions occurred under controlled laboratory conditions to exclude butchery environmental contaminations, without the addition of nitrate and nitrite. All trials were monitored during the ripening (13 °C and 90% relative humidity) extended until 45 d. The evolution of physicochemical parameters showed that beef and pork salamis were characterized by a higher content of branched chain fatty acids (FA) and rumenic acid than horse and wild boar salamis, whereas the last two productions showed higher values of secondary lipid oxidation. Plate counts showed that lactic acid bacteria (LAB), yeasts and coagulase-negative staphylococci (CNS) populations dominated the microbial community of all productions with Lactobacillus and Staphylococcus as most frequently isolated bacteria. The microbial diversity evaluated by MiSeq Illumina showed the presence of members of Gammaproteobacteria phylum, Moraxellaceae family, Acinetobacter, Pseudomonas, Carnobacterium and Enterococcus in all salamis. This study showed the natural evolution of indigenous fermented meat starter cultures and confirmed a higher suitability of horse and beef meat for nitrate/nitrite free salami production due to their hygienic quality at 30 d.</t>
-  </si>
-  <si>
-    <t>Understanding the microbial community of cheese is important in the dairy industry, as the microbiota contributes to the safety, quality, and physicochemical and sensory properties of cheese. In this study, the microbial compositions of different cheeses (Cheddar, provolone, and Swiss cheese) and cheese locations (core, rind, and mixed) collected from the Arbuthnot Dairy Center at Oregon State University were analyzed using 16S rRNA gene amplicon sequencing with the Illumina MiSeq platform (Illumina, San Diego, CA). A total of 225 operational taxonomic units were identified from the 4,675,187 sequencing reads generated. Streptococcus was observed to be the most abundant organism in provolone (72 to 85%) and Swiss (60 to 67%), whereas Lactococcus spp. were found to dominate Cheddar cheese (27 to 76%). Species richness varied significantly by cheese. According to alpha diversity analysis, porter-soaked Cheddar cheese exhibited the highest microbial richness, whereas smoked provolone cheese showed the lowest. Rind regions of each cheese changed color through smoking and soaking for the beverage process. In addition, the microbial diversity of the rind region was higher than the core region because smoking and soaking processes directly contacted the rind region of each cheese. The microbial communities of the samples clustered by cheese, indicated that, within a given type of cheese, microbial compositions were very similar. Moreover, 34 operational taxonomic units were identified as biomarkers for different types of cheese through the linear discriminant analysis effect size method. Last, both carbohydrate and AA metabolites comprised more than 40% of the total functional annotated genes from 9 varieties of cheese samples. This study provides insight into the microbial composition of different types of cheese, as well as various locations within a cheese, which is applicable to its safety and sensory quality.</t>
-  </si>
-  <si>
-    <t>Panxian ham, a traditional Chinese dry-cured ham, is protected by national geographical indication. Similar to other fermented foods, the microbial population of dry-cured ham is pivotal to taste and flavor formation. This study aimed to establish the relationship between microorganisms and metabolites during the spontaneous fermentation of Panxian ham. Multivariate analysis based on metabolomics data revealed that continuous metabolic changes occurred during the entire fermentation process, with the most significant changes occurring in the initial stage of ripening. Thirty-one significantly different metabolites (SDMs) were identified as discriminant factor, and pathway analysis suggested that these metabolites were involved in 30 pathways, including alanine, aspartate, and glutamate metabolism; glycine, serine, and threonine metabolism; and arginine and proline metabolism. Microbial community analysis using the Illumina MiSeq platform indicated that the bacterial community was more complex than the fungal community, and their succession regulation differed during processing. At the genus level, 11 bacteria and five fungi were identified as core microbes, of which Staphylococcus was the dominant bacteria and Debaryomyces and Aspergillus were the dominant fungi. Further, statistical redundancy analysis (RDA) indicated that Staphylococcus, Debaryomyces, and Chromohalobacter promoted the production of amino and fatty acids; Cobetia and Aspergillus were associated with sugar metabolism, and Kushneria, Penicillium, and Yamadazyma were closely related with organic acids. These findings provide fundamental knowledge regarding the metabolically active microorganisms in Panxian ham, helping industrial processors to develop effective strategies for standardizing quality parameters.</t>
-  </si>
-  <si>
-    <t>Aims Differences in the bacterial population of cucumber fermentations brined with no salt, 100 mmol l−1 (1·1%) calcium chloride (CaCl2) or 1·03 mol l−1 (6%) sodium chloride (NaCl) were studied. Methods and Results Changes in the microbiology and chemistry of commercial and laboratory scale cucumber fermentations occurring as a function of time were monitored using colony counts and metagenetic analysis, and a pH probe and high‐performance liquid chromatography analysis respectively. Dissolved oxygen and carbon dioxide content were monitored in commercial fermentations. Fermentations brined with calcium chloride (CaCl2) or no salt sustained faster microbial growth and reduction in pH than those brined with 1·03 mol l−1 NaCl. Leuconostoc, Lactococcus and Weissella dominated in fermentations brined with no salt or 100 mmol l−1 CaCl2 on day 1 as compared to Weissella and enterobacteria in fermentations containing 1·03 mol l−1 NaCl. Lactobacilli dominated all fermentations by the third day, regardless of salt type, and was followed, in relative abundance by Pediococcus, Leuconostoc, Lactococcus and Weissella. From 84 to 96% of the population was composed of Lactobacillus by day 7 of the fermentations, except in the no salt fermentations in which a mixed population of LAB remained. The population of LAB found in commercial cucumber fermentations brined with 100 mmol l−1 CaCl2 (n = 18) or 1·03 mol l−1 NaCl (n = 9) mimicked that of laboratory fermentations. A declining population of aerobes was detected in commercial fermentations brined with CaCl2 on day 1. Conclusion A reduced NaCl content in cucumber fermentation enhances microbial diversity. Significance and Impact of the Study This study fills a knowledge gap and aids in the design of improved reduced NaCl cucumber fermentations.</t>
-  </si>
-  <si>
-    <t>Sourdough fermentation is a traditional process that is used to improve bread quality. A spontaneous sourdough ecosystem consists of a mixture of flour and water that is fermented by endogenous lactic acid bacteria (LAB) and yeasts. The aim of this study was to identify bacterial diversity during backslopping of spontaneous sourdoughs prepared from wheat, spelt, or rye wholemeal flour. Culture-dependent analyses showed that the number of LAB (109 CFU/ml) was higher by three orders of magnitude than the number of yeasts (106 CFU/ml), irrespective of the flour type. These results were complemented by next-generation sequencing of the 16S rDNA V3 and V4 variable regions. The dominant phylum in all sourdough samples was Firmicutes, which was represented exclusively by the Lactobacillales order. The two remaining and less abundant phyla were Proteobacteria and Bacteroidetes. The culture-independent approach allowed us to detect changes in microbial ecology during the 72-hr fermentation period. Weissella sp. was the most abundant genus after 24 hr of fermentation of the rye sourdough, but as the process progressed, its abundance decreased in favor of the Lactobacillus genus similarly as in wheat and spelt sourdoughs. The Lactobacillus genus was dominant in all sourdoughs after 72 hr, which was consistent with our results obtained using culture-dependent analyses. This work was carried out to determine the microbial biodiversity of sourdoughs that are made from wheat, spelt, and rye wholemeal flour and can be used as a source of strains for specific starter cultures to produce functional bread.</t>
-  </si>
-  <si>
-    <t>Postharvest food decay is one major issue for today’s food loss along the supply chain. Hot water treatment (HWT), a sustainable method to reduce pathogen-induced postharvest fruit decay, has been proven to be effective on a variety of crops. However, the microbiome response to HWT is still unknown, and the role of postharvest microbiota for fruit quality is largely unexplored. To study both, we applied a combined approach of metabarcoding analysis and real time qPCR for microbiome tracking. Overall, HWT was highly effective in reducing rot symptoms on apples under commercial conditions, and induced only slight changes to the fungal microbiota, and insignificantly affected the bacterial community. Pathogen infection, however, significantly decreased the bacterial and fungal diversity, and especially rare taxa were almost eradicated in diseased apples. Here, about 90% of the total fungal community was composed by co-occurring storage pathogens Neofabraea alba and Penicillium expansum. Additionally, the prokaryote to eukaryote ratio, almost balanced in apples before storage, was shifted to 0.6% bacteria and 99.4% fungi in diseased apples, albeit the total bacterial abundance was stable across all samples. Healthy stored apples shared 18 bacterial and 4 fungal taxa that were not found in diseased apples; therefore, defining a health-related postharvest microbiome. In addition, applying a combined approach of HWT and a biological control consortium consisting of Pantoea vagans 14E4, Bacillus amyloliquefaciens 14C9 and Pseudomonas paralactis 6F3, were proven to be efficient in reducing both postharvest pathogens. Our results provide first insights into the microbiome response to HWT, and suggest a combined treatment with biological control agents.</t>
-  </si>
-  <si>
-    <t>Douchi is a type of traditional Chinese flavoring food that has been used for thousands of years and is produced by multispecies solid-state fermentation. However, the correlation between the flavor, the microbiota, and the functional core microbiota in Aspergillus-type douchi fermentation remains unclear. In this study, Illumina MiSeq sequencing and chromatography were used to investigate the bacterial community and flavor components in Aspergillus-type douchi fermentation. The dominant phyla were Firmicutes, Proteobacteria, and Actinobacteria, and the dominant genera were Weissella, Bacillus, Anaerosalibacter, Lactobacillus, Staphylococcus, and Enterococcus. A total of 58 flavor components were detected during fermentation, including two alcohols, 14 esters, five pyrazines, three alkanes, four aldehydes, three phenols, six acids, and five other compounds. Bidirectional orthogonal partial least square modeling showed that Corynebacterium_1, Lactococcus, Atopostipes, Peptostreptococcus, norank_o__AKYG1722, Truepera, Gulosibacter, norank_f__Actinomycetaceae, and unclassified_f__Rhodobacteraceae are the functional core microbiota responsible for the formation of the flavor components during douchi fermentation. This is the first study to investigate the functional core microbiota in douchi fermentation using Illumina MiSeq sequencing and chromatographic techniques. Our findings extend our understanding of the relationships between flavor, the microbiota, and the functional core microbiota during Aspergillus-type douchi fermentation.</t>
-  </si>
-  <si>
-    <t>In this study, the microbiota of ready-to-eat surströmming from three Swedish producers were studied using a combined approach. The pH values of the samples ranged between 6.67 ± 0.01 and 6.98 ± 0.01, whereas their aw values were between 0.911 ± 0.001 and 0.940 ± 0.001. The acetic acid concentration was between 0.289 ± 0.009 g/100 g and 0.556 ± 0.036 g/100 g. Very low concentrations of lactic acid were measured. Viable counting revealed the presence of mesophilic aerobes, mesophilic lactobacilli and lactococci as well as halophilic lactobacilli and lactococci, coagulase-negative staphylococci, halophilic aerobes and anaerobes. Negligible counts for Enterobacteriaceae, Pseudomonadaceae and total eumycetes were observed, whereas no sulfite-reducing anaerobes were detected. Listeria monocytogenes and Salmonella spp. were absent in all samples. Multiplex real-time PCR revealed the absence of the bont/A, bont/B, bont/E, bont/F, and 4gyrB (CP) genes, which encode botulinic toxins, in all the samples analyzed. Metagenomic sequencing revealed the presence of a core microbiota dominated by Halanaerobium praevalens, Alkalibacterium gilvum, Carnobacterium spp., Tetragenococcus halophilus, Clostridiisalibacter spp. and Porphyromonadaceae. Psychrobacter celer, Ruminococcaceae, Marinilactibacillus psychrotolerans, Streptococcus infantis and Salinivibrio costicola were detected as minor OTUs. GC-MS analysis of volatile components revealed the massive presence of trimethylamine and sulphur compounds. Moreover, 1,2,4-trithiolane, phenols, ketones, aldehydes, alcohols, esters and long chain aliphatic hydrocarbons were also detected. The data obtained allowed pro-technological bacteria, which are well-adapted to saline environments, to be discovered for the first time. Further analyses are needed to better clarify the extent of the contribution of either the microbiota or autolytic enzymes of the fish flesh in the aroma definition.</t>
-  </si>
-  <si>
-    <t>Sensory, chemical and microbial changes for Atlantic cod (Gadus morhua L.) filets from capture-based-aquaculture in Greenland were studied. The objective was to determine shelf-life and indices of spoilage for iced or superchilled fillets when stored in air, or modified atmosphere packed (MAP; 40% CO2 and 60% N2). MAP iced storage extended the sensory shelf-life from 15 days to 21 days compared to storage in air. With superchilling at −1.7 °C sensory shelf-life was above 32 days, and no formation of total volatile nitrogen (TVN) was observed irrespective of storage in air or MAP. pH of ≥7.0, TVN (≥35 mg-N/100 g) and trimethylamine (≥20 mg-N TMA/100 g) were promising indices of spoilage. Aerobic viable counts were less valuable indices of spoilage as the dominating microbiota of cod in air (Pseudomonas spp., Photobacterium spp., Shewanella spp., Acinetobacter spp.) changed to Photobacterium spp. in MAP cod. Spoilage activity determined as the yield factor for TVN formation was 6–200 folds higher for Photobacterium spp. compared to Shewanella spp. and Pseudomonas spp. Photobacterium carnosum was responsible for TVN formation in iced cod irrespective of storage in air or MAP, and it was identified at the specific spoilage organism that limited iced product shelf-life.</t>
-  </si>
-  <si>
-    <t>The identification of milk microbial communities in ruminants is relevant for understanding the association between milk microbiota and health status. The most common approach for studying the microbiota is amplifying and sequencing specific hypervariable regions of the 16S rRNA gene using massive sequencing techniques. However, the taxonomic resolution is limited to family and, in some cases, genus level. We aimed to improve taxonomic classification of the water buffalo milk microbiota by amplifying and sequencing the full-length 16S rRNA gene (1,500 bp) using Nanopore sequencing (single-molecule sequencing). When comparing with short-read results, we improved the taxonomic classification, reaching species level. We identified the main microbial agents of subclinical mastitis at the species level that were in accordance with the microbiological culture results. These results confirm the potential of single-molecule sequencing for in-depth analysis of microbial populations in dairy animals.</t>
-  </si>
-  <si>
-    <t>Microorganisms from the environment can enter the dairy supply chain at multiple stages, including production, milk collection, and processing, with potential implications for quality and safety. The ability to track these microorganisms can be greatly enhanced by the use of high-throughput DNA sequencing (HTS). Here HTS, both 16S rRNA gene amplicon and shotgun metagenomic sequencing were applied to investigate the microbiomes of fresh mid- and late-lactation milk collected from farm bulk tanks, collection tankers, milk silos, skimmed milk silos, a cream silo, and powder samples to investigate the microbial changes throughout a skim milk powder manufacturing process. 16S rRNA gene analysis established that the microbiota of raw milks from farm bulk tanks and in collection tankers were very diverse but that psychrotrophic genera associated with spoilage, Pseudomonas and Acinetobacter, were present in all samples. Upon storage within the whole-milk silo at the processing facility, the species Pseudomonas fluorescens and Acinetobacter baumannii became dominant. The skimmed milk powder generated during the mid-lactation period had a microbial composition that was very different from that of raw milk; specifically, two thermophilic genera, Thermus and Geobacillus, were enriched. In contrast, the microbiota of skimmed milk powder generated from late-lactation milk more closely resembled that of the raw milk and was dominated by spoilage-associated psychrotrophic bacteria. This study demonstrates that the dairy microbiota can differ significantly across different sampling days. More specifically, HTS can be used to trace microbial species from raw milks through processing to final powdered products. IMPORTANCE Microorganisms can enter and persist in dairy at several stages of the processing chain. Detection of microorganisms within dairy food processing is currently a time-consuming and often inaccurate process. This study provides evidence that high-throughput sequencing can be used as an effective tool to accurately identify microorganisms along the processing chain. In addition, it demonstrates that the populations of microbes change from raw milk to the end product. Routine implementation of high-throughput sequencing would elucidate the factors that influence population dynamics. This will enable a manufacturer to adopt control measures specific to each stage of processing and respond in an effective manner, which would ultimately lead to increased food safety and quality.</t>
-  </si>
-  <si>
-    <t>Gioddu, also known as “Miciuratu”, “Mezzoraddu” or “Latte ischidu” (literally meaning acidulous milk), is the sole variety of traditional Italian fermented milk. The aim of the present study was to elucidate the microbiota and the mycobiota occurring in artisan Gioddu sampled from three Sardinian producers by combining the results of viable counting on selective culture media and high-throughput sequencing. Physico-chemical parameters were also measured. The overall low pH values (3.80–4.22) recorded in the analyzed Gioddu samples attested the strong acidifying activity carried out by lactic acid bacteria during fermentation. Viable counts revealed the presence of presumptive lactococci, presumptive lactobacilli and non-Saccharomyces yeasts. A complex (kefir-like) microbiota of bacteria and yeasts was unveiled through sequencing. In more detail, Lactobacillus delbrueckii was found to dominate in Gioddu together with Streptococcus thermophilus, thus suggesting the establishment of a yogurt-like protocooperation. Unexpectedly, in all the three analyzed batches from two out of the three producers Lactobacillus kefiri was also detected, thus representing an absolute novelty, which suggests the presence of bioactive compounds (e.g. exopolysaccharides) similar to those characterizing milk kefir beverage. Mycobiota population, studied for the very first time in Gioddu, revealed a more complex composition, with Kluyveromyces marxianus, Galactomyces candidum and Geotrichum galactomyces constituting the core species. Further research is needed to disclose the eventual occurence in Gioddu of probiotic cultures and bioactive compounds (e.g. exopolysaccharides, angiotensin-converting enzyme inhibitory peptides and antimicrobial compounds) with potential health-benefits for the consumers.</t>
-  </si>
-  <si>
-    <t>In the present work the microbial dynamics in wheat kernels were evaluated over time. The main aim of this research was to study the resistance of lactic acid bacteria (LAB) and yeasts associated to unprocessed cereals used for bread making during long term conservation. To this purpose four Triticum durum Desf. genotypes including two modern varieties (Claudio and Simeto) and two Sicilian wheat landraces (Russello and Timilia) were analysed by a combined culture-independent and -dependent microbiological approach after one, two or three years from cultivation and threshing. DNA based MiSeq Illumina technology was applied to reveal the entire bacterial composition of all semolina samples. The samples showed a different distribution of bacterial taxa per variety and time of storage. The groups mostly represented were Stenotrophomonas, Pseudomonas, Erwinia, Delftia and Sphingomonas genera, Enterobacteriaceae and Oxalobacteriaceae families, and Actinobacteria phylum. Among LAB, only Enterococcus genus was detected barely in a single sample (Simeto stored for one year) by the next generation sequencing, indicating that LAB remained unassigned or their abundances were below 0.1% or their DNAs were rendered inaccessible. Plate counts showed consistent differences in relation to genotypes and duration of storage, with the highest levels found for total mesophilic microorganisms detected up 6.8 Log CFU/g. Colonies of presumptive sourdough LAB were detected only in a few samples. Cocci constituted the major group of LAB in almost all samples. Following the enrichment procedure, almost all samples were characterised by the presence of acidifying microorganisms. All isolates collected before and after enrichment represented 28 different strains belonging to 10 species of Enterococcus, Lactobacillus and Pediococcus genera. The most resistant species during aging were Enterococcus faecium, Enterococcus durans, Lactobacillus brevis, Lactobacillus pentosus and Lactobacillus paracasei demonstrating that lactobacilli and enterococci are able to overcome the stressing conditions represented by cereal storage better than other LAB genera commonly found associated to cereals after harvest. Yeast community included mostly species with no interest in bread making.</t>
-  </si>
-  <si>
-    <t>Cooked ham production involves numerous steps shaping the microbial communities of the final product, with consequences on spoilage metabolites production. To identify the main factors driving the ecology of ham and its spoilage, we designed a study encompassing five variables related to ham production: type of storage during meat transportation, churning speed, drain-off time, slicing line and O2 packaging permeability. About 200 samples from the same facility were obtained and characterized with respect to i) their microbiota based on gyrB amplicon sequencing ii) their production of spoilage-related metabolites based on E-Nose analysis and enzymatic assays. The slicing was the most critical step, shaping two general types of microbiota according to the slicing line: one dominated by Carnobacterium divergens and another one dominated by Leuconostoc carnosum and Serratia proteamaculans. Regarding metabolites production, L. carnosum was associated to d-lactic acid, ethanol and acetic acid production, whereas Serratia proteamaculans was associated to acetic acid production. This last species prevailed with highly O2-permeable packaging. Within a given slicing line, campaign-based variations were observed, with Lactobacillus sakei, Leuconostoc mesenteroides and Carnobacterium maltaromaticum prevalent in summer. L. sakei was associated with l-lactic acid production and C. maltaromaticum with formic and acetic acid productions.</t>
-  </si>
-  <si>
-    <t>Sufu is a traditional fermented soybean food produced in China. However, the microbial compositions and metabolites of different types of sufu have not been studied in detail. Accordingly, in this study, we evaluated the differences in bacterial communities and metabolites between commercial red sufu (RS) and white sufu (WS). Principal coordinate analysis and the unweighted pair group method with arithmetic means analysis of 16S rRNA genes revealed that the bacterial community structures of RS and WS differed dramatically. At the phylum level, the relative abundances of Firmicutes and Proteobacteria were significantly different between RS and WS (P &lt; 0.01). Moreover, the abundances of Lactococcus and Tetragenococcus genera were significantly different between RS and WS (P &lt; 0.01). Among metabolites, most free amino acids, few of volatile flavor compounds, and some organic acids showed significant differences between RS and WS (P &lt; 0.05). Additionally, correlations between microbiota and metabolites were determined. Aggregated boosted tree analysis showed that formic acid had the highest relative influence (20.27%) on bacterial community diversity (Chao 1), following by arginine (5.38%), propanol (4.57%), oxalic acid (4.46%), and hexanol (4.43%). Moreover, Streptococcaceae and Moraxellaceae had the highest relative influence on the concentration of formic acid (12.84% and 8.75%, respectively). The profiles obtained in this study improve our understanding of the relationships between bacterial flora and metabolites in different types of sufu. These findings may help us interpret the roles of bacterial communities in the flavor and characteristics of sufu.</t>
-  </si>
-  <si>
-    <t>Outbreaks of food poisoning due to the consumption of contaminated beef from fast-food chains are becoming more frequent. Pathogen contamination in beef influences its spoilage as well as the development of foodborne illness. Thus, the influence of pathogen contamination on beef microbiota should be analyzed to evaluate food safety. We analyzed the influence of pathogen contamination on the shift in microbiota and the interactions between the pathogen and indigenous microbes in beef stored under different conditions. Sixty beef samples were stored at 25 °C and 4 °C for 24 h, and the shifts in microbiota were analyzed using the MiSeq system. The influence of pathogen contamination on microbiota was analyzed by artificial contamination experiments with Escherichia coli FORC_044, which was isolated from the stool of a food poisoning patient in Korea. The bacterial amounts and the proportion of Escherichia were higher when the beef was stored at 25 °C. Artificially contaminated Escherichia positively correlated with the indigenous microbes such as Pseudomonas, Brochothrix, Staphylococcus, Rahnella, and Rhizobium as determined by co-occurrence network analyses. Carnobacterium, a potential spoilage microbe, was negatively correlated with other microbes. The predicted functions of altered microbiota showed that the pathways related to the process of spoilage including biosynthesis of acetic acid and lactic acid increased over time. The shift in pathways was more pronounced in contaminated beef stored at 25 °C. Carnobacterium, Lactobacillus, and Escherichia were the main genera contributing to the shift in the relative abundance of functional genes involved in the various spoilage pathways. Our results indicated that pathogen contamination could influence beef microbiota and mediate spoilage. This study extends our understanding of the beef microbiota and provides insights into the role of pathogen and storage conditions in meat spoilage.</t>
-  </si>
-  <si>
-    <t>Cheese is a fermented dairy product that is made from animal milk and is considered to be a healthy food due to its available nutrients and potential probiotic characteristics. Since the microbes in the cheese matrix directly contribute to the quality and physicochemical properties of cheese, it is important to understand the microbial properties of cheese. In this study, Cheddar cheeses produced on three different dates at the Arbuthnot Dairy Center at Oregon State University were collected to determine the microbial community structure. A total of 773,821 sequencing reads and 271 amplicon sequence variants (ASVs) were acquired from 108 samples. Streptococcus and Lactococcus were observed as the most abundant ASVs in the cheese, which were used as the starter lactic acid bacteria (SLAB). Escherichia coli was detected in the raw milk; however, it was not detected after inoculating with SLAB. According to an alpha diversity analysis, SLAB inoculation decreased the microbial richness by inhibiting the growth of other bacteria present in the milk. A beta diversity analysis showed that microbial communities before the addition of SLAB clustered together, as did the samples from cheese making and aging. Non-starter lactic acid bacteria (NSLAB) were detected 15 weeks into aging for the June 6th and June 26th produced cheeses, and 17 weeks into aging for the cheese produced on April 26th. These NSLAB were identified as an unidentified group of Lactobacillaceae. This study characterizes the changes in the Cheddar cheese microbiome over the course of production from raw milk to a 6-month-aged final product.</t>
-  </si>
-  <si>
-    <t>The aim of this study was to evaluate the microbiome of industrially produced ripened Edam cheeses by next-generation sequencing. The samples for analyses were collected in spring and autumn. Spring samples were characterized by significantly higher Lactococcus and Bacillus counts and lower counts of Enterobacteriaceae, Enterococcus, and yeasts than autumn samples. The predominant microorganisms identified by the Illumina high-throughput sequencing technology belonged to four phyla: Firmicutes, Actinobacteria, Proteobacteria and Bacteroidetes. The dominant species were starter culture bacteria. Lactobacillus rhamnosus, Lactobacillus kefiri, Lactobacillus kefiranofaciens, Lactobacillus casei, Streptococcus thermophilus, and Bifidobacterium had the highest share of microbial cheese communities. The number of γ-Proteobacteria reads was higher in autumn cheese samples. A high number of reads was also noted in the genus Clostridium. The counts of spore-forming bacteria of the genus Bacillus were higher in cheeses produced in spring. The study revealed highly similar relationships between the analyzed production periods. The present results contribute to the existing knowledge of cheese microbiota, and they can be used to improve and modify production processes based on the composition of microbial communities, as well as to improve the quality of the final product.</t>
-  </si>
-  <si>
-    <t>Table olives are one of the most well-known traditionally fermented products, and their global consumption is exponentially increasing. In direct brining, table olives are produced spontaneously, without any debittering pre-treatment. Up to date, fermentation process remains empirical and inconstant, as it is affected by the physicochemical attributes of the fruit, tree and fruit management of pro and post-harvest. In the present study, whole and cracked Picual table olives were fermented at industrial scale for 120 days, using three distinct methods (natural fermentation, inoculation with lactic acid bacteria (LAB) at a 7 or a 10% NaCl concentration). Microbial, physicochemical and sensorial alterations monitored during the whole process, and several differences were observed between treatments. Results indicated that in all treatments, the dominant microflora were LAB. Yeasts also detected in noteworthy populations, especially in non-inoculated samples. However, LAB population was significantly higher in inoculated compared to non-inoculated samples. Microbial profiles identified by metagenomic approach showed meaningful differences between spontaneous and inoculated treatments. As a result, the profound dominance of starter culture had a severe effect on olives fermentation, resulting in lower pH and higher acidification, which was mainly caused by the higher levels of lactic acid produced. Furthermore, the elimination of Enterobacteriaceae was shortened, even at lower salt concentration. Although no effect observed concerning the quantitated organoleptic parameters such as color and texture, significantly higher levels in terms of antioxidant capacity were recorded in inoculated samples. At the same time, the degradation time of oleuropein was shortened, leading to the production of higher levels of hydroxytyrosol. Based on this evidence, the establishment of starter culture driven Picual olives fermentation is strongly recommended. It is crucial to mention that the inoculated treatment with reducing sodium content was highly appreciated by the sensory panel, enhancing the hypothesis that the production of Picual table olives at reduced NaCl levels is achievable.</t>
-  </si>
-  <si>
-    <t>In the present study, two groups of cows from a permanent lowland farm (PF) were divided during summer and reared in the PF or in a temporary alpine farm (ALP), respectively. Microbiological analyses were performed with the objective to investigate the microbial evolution of milk before, during, and after summer transhumance comparing, in particular, the two groups of cows to determine whether the alpine pasture could directly influence the milk microbiota. A significant increase of all microbial groups was registered in milk samples collected in the ALP. Interestingly, many strains belonging to species with well reported technological and probiotic activities were isolated from Alpine milk (20% Lactococcus lactis subsp. lactis/cremoris, 18% Lactobacillus paracasei, 14% Bifidobacterium crudilactis and 18% Propionibacterium sp.), whereas only 16% of strains isolated from the permanent farm milk belonged to the species Lactococcus lactis subsp. lactis/cremoris, 6% to Lactobacillus paracasei, 2% to Bifidobacterium crudilactis and 5% to Propionibacterium sp. The MiSeq Illumina data showed that Alpine milk presented a significant reduction of Pseudomonas and an increase of Lactococcus, Bifidobacterium and Lactobacillus genera. These data confirmed the practice of Alpine pasture as one of the main drivers affecting the milk microbiota. All the microbial changes disappeared when cows were delivered back from Alpine pasture to the indoor farm.</t>
-  </si>
-  <si>
-    <t>The reformulation of dairy products to contain less added sugar can contribute to reducing sugar consumption, thereby reducing the risk of non-communicable diseases. The objective of this study was to investigate the microbial ecology of reformulated yoghurt, which was produced using bi-enzymatic modification of lactose to increase its sweetness by a factor of 2–3. Ultimately, this reformulation strategy could reduce the amount of added sugar needed for equal sweetness of the end product. The bi-enzymatic modification relied on utilisation of a β-galactosidase enzyme to convert the milk sugar lactose to galactose and glucose, followed by the enzymatic conversion of the glucose moiety to fructose using a glucose isomerase. The microbial ecology of reformulated yoghurt produced with two mixed starter culture preparations containing either Streptococcus (S.) thermophilus and Lactobacillus (Lb.) delbrueckii or S. thermophilus, Lb. acidophilus and Bifidobacterium sp. strains, was analysed during fermentation and cool storage using 16S rRNA based metagenomics. None of the yoghurt samples showed a significant difference in microbial composition between sweetness-enhanced and regular milk at all sampling time points during manufacture and storage of yoghurt. However, a significant difference between the microbiota of inoculated milk before and after fermentation was observed. In both types of yoghurt, the starter culture genera dominated the microbial ecology at the end of fermentation as expected, reducing the possibility of growth of potentially pathogenic or spoilage bacteria possibly resulting from a changed carbohydrate spectrum.</t>
-  </si>
-  <si>
-    <t>The standardisation of raw milk cheeses without losing their typicality is an ambitious goal. In the present study, the performance of two Lactococcus lactis autochthonous starter cultures (AS1 and AS2) was evaluated for the production of Valle d'Aosta (VdA, Italy) Fromadzo PDO, in terms of competition and persistence capacity (by rep-PCR strain characterisation), influence on indigenous microbial population (by metataxonomic approach) and volatilome development (by GC–MS and sensory analysis). The best performance was shown by AS2 starter mixture, which was able to colonise Fromadzo cheeses at the expense of indigenous lactic microbiota, and reached mean frequency values of 87% and 70% in 30 day-ripened products from valley floor and alpine pasture milk, respectively. Moreover, both kinds of cheeses, obtained using AS2, achieved the best scores in terms of aroma and taste, the pasture cheese also achieving the best score for texture.</t>
-  </si>
-  <si>
-    <t>Hundreds of sourdoughs have been investigated in the last decades. However, many studies used a culture-dependent and/or culture-independent microbiological approach [mainly based on denaturing gradient gel electrophoresis (DGGE) of PCR amplicons], seldomly combined with a metabolite target analysis, to characterize the microbial species communities of the sourdoughs examined. Moreover, attention was mainly paid on lactic acid bacteria (LAB) and yeast species. In the present study, distinct household-scale (including an artisan lambic brewery) and artisan bakery-scale backslopped sourdoughs (17 in total), obtained from different regions (Belgium, France, United Kingdom, and USA), were examined through a multiphasic approach, encompassing a culture-dependent analysis [targeting LAB, acetic acid bacteria (AAB), and yeasts], different culture-independent techniques [rRNA-PCR-DGGE, metagenetics, and metagenomics (four bakery sourdoughs)], and metabolite target analysis. It turned out that the microbial species diversity of the sourdoughs was influenced by the house microbiota of the producer. Further, when the producer made use of different flours, the sourdoughs harbored similar microbial communities, independent of the flour used. AAB were only present in the Belgian sourdoughs, which might again be related to the processing environment. Fructilactobacillus sanfranciscensis (formerly known as Lactobacillus sanfranciscensis) was the prevalent LAB species of the eight sourdoughs produced by two of the three bakeries of different countries analyzed. These sourdoughs were characterized by the presence of either Saccharomyces cerevisiae or Kazachstania humilis. Moreover, the presence of Fl. sanfranciscensis was positively correlated with the production of mannitol and negatively correlated with the presence of other LAB or AAB species. Sourdoughs produced in an artisan lambic brewery were characterized by the presence of the yeast species Dekkera anomala and Pichia membranifaciens. One household sourdough was characterized by the presence of uncommon species, such as Pediococcus parvulus and Pichia fermentans. Metagenomic sequencing allowed the detection of many more LAB and AAB species than the other methods applied, which opened new frontiers for the understanding of the microbial communities involved during sourdough production processes.</t>
-  </si>
-  <si>
-    <t>Beef is one of the most consumed food worldwide, and it is prone to spoilage by bacteria. This risk could be caused by resident microbiota and their alterations in fresh beef meat during processing. However, scarce information is available regarding potential spoilage factors due to resident microbiota in fresh beef meat. In this study, we analyzed the microbiota composition and their predicted functions on fresh beef meat. A total of 120 beef meat samples (60 fresh ground and 60 non-ground beef samples) were collected from three different sites in South Korea on different months, and the microbiota were analyzed by the MiSeq system. Our results showed that although the microbiota in beef meat were varied among sampling site and months, the dominant phyla were the same with shared core bacteria. Notably, psychrotrophic genera, related to spoilage, were detected in all samples, and their prevalence increased significantly in July. These genera could inhibit the growth of other microbes with using glucose by fermentation. The results of this study extend our understanding of initial microbiota in fresh beef meat and potential functions influencing spoilage and can be useful to develop the preventive measures to reduce the spoilage of beef meat products.</t>
-  </si>
-  <si>
-    <t>Microbial contamination associated with beef slaughter and boning has been investigated using traditional culture dependent approaches. However, conventional counting methods have disadvantages of detecting only cultivable bacterial groups that may be a small subset of the true microbial population. This study investigated the microbiology in the boning room of an integrated (abattoir A) and a fragmented (abattoir B) Australian beef export abattoirs using culture independent 16S rRNA gene amplicon sequencing coupled with total viable count (TVC). Transmission of microbial populations during processing of carcases onto beef trim was monitored and compared between the two abattoirs. The results showed that the abattoirs produced beef trim with a mean TVC of 2.64–2.70 log10 CFU/cm2. Initial counts of microbes on the chilled carcases entering the boning room were &lt;1.5 log10 CFU/cm2 and the environmental surfaces had ≤2.0 log10 CFU/cm2 throughout the boning room. Profiling of 16S gene sequences demonstrated that the contamination of boned products (beef trim) may be a result of contamination accumulating from environmental surfaces that are regularly in contact with beef trim. The 16S data also showed that the bacterial communities on the carcases and trim shared similar community composition with microbiota on environmental surfaces at varying proportions depending on the day of processing. Bacteroidales, Clostridiales, Enterobacteriales, Lactobacillales and Pseudomonadales were predominantly present in the bacterial communities in both abattoirs. However, the changes in relative abundance of these bacteria through the boning process varied between the abattoirs. The findings from this study suggested that the transfer of bacterial contaminants in the beef cattle boning room can be dynamic, and a 16 s rRNA gene sequencing-based approach can improve our understanding of the sources of contamination in the boning environment.</t>
-  </si>
-  <si>
-    <t>Microbial contamination of beef cattle carcases and subsequent cross-contamination during processing is inevitable and virtually impossible to prevent. The understanding of microbial contamination in the beef industry is currently limited to hypotheses based on traditional microbiological tools. Additionally, the complex structural and functional responses of beef cattle microbial communities to the fragmentation in the supply chain remain unknown. This study used 16S rRNA gene sequencing in combination with traditional microbiology to monitor and compare changes in the microbiota throughout slaughter in an integrated (abattoir A) and a fragmented (abattoir B) beef abattoir in Australia. Briefly, the primary difference between an integrated and a fragmented abattoir is that fragmented abattoirs receive cattle from multiple sources, whereas integrated abattoirs typically receive cattle that has been produced using the same production system and from a limited number of sources. The composition in the bacterial communities varied between the abattoirs, though the presence of the most predominant bacterial species within the microbiota at each abattoir was similar. Lactobacillales (2.4–56.2%) and Pseudomonadales (2.4–59.4%) most notably dominated hides, carcases, and the environment in abattoir B. In abattoir A, Bacteroidales (3.9–43.8%), Lactobacillales (0.0–61.9%), and Pseudomonadales (0.5–72.1%) fluctuated but generally shared the dominance over the rest. Combined results of total viable count (TVC) and 16S rRNA gene profiling indicated that an upward hide pulling system adopted by abattoir B may lead to increased transmission of hide contaminants to post-hide pull carcases. Abattoir B had 3.2 log10CFU/cm2 reduction from hide to carcase, where abattoir A had 4.5 log10CFU/cm2 reduction. The findings from this study indicated that common beef-associated microbiota exist in varying composition in Australian abattoirs, and 16S rRNA amplicon sequencing is a powerful tool to understand in-depth movement of microbial contaminants.</t>
-  </si>
-  <si>
-    <t>French PDO Nyons black table olives are produced according to a traditional slow spontaneous fermentation in brine. The manufacture and unique sensorial properties of these olives thus only rely on the autochthonous complex microbiota. This study aimed at unraveling the microbial communities and dynamics of Nyons olives during a 1.5-year-long spontaneous fermentation to determine the main microbial drivers and link microbial species to key metabolites. Fermentations were monitored at a local producer plant at regular time intervals for two harvests and two olive types (organically and conventionally grown) using culture-dependent and metabarcoding (ITS2 for fungi, V3-V4 region for bacteria) approaches. Olives and brines were also sampled for volatiles, organic acids and phenolic compounds. No major differences in microbiota composition were observed according to olive type or harvest period. Throughout the fermentation, yeasts were clearly the most dominant. ITS2 sequencing data revealed complex fungal diversity dominated by Citeromyces nyonsensis, Wickerhamomyces anomalus, Zygotorulaspora mrakii, Candida boidinii and Pichia membranifaciens species. Bacterial communities were dominated by the Celerinatantimonas genus, while lactic acid bacteria remained scarce. Clear shifts in microbial communities and biochemical profiles were observed during fermentation and, by correlating metabolites and microbiota changes, four different phases were distinguished. During the first 7 days, phase I, a fast decrease of filamentous fungal and bacterial populations was observed. Between days 21 and 120, phase II, W. anomalus and C. nyonsensis for fungi and Celerinatantimonas diazotrophica for bacteria dominated the fermentation and were linked to the pH decrease and citric acid production. Phase III, between 120 and 183 days, was characterized by an increase in acids and esters and correlated to increased abundances of Z. mrakii, P. membranifaciens and C. boidinii. During the last months of fermentation, phase IV, microbial communities were dominated by P. membranifaciens and C. boidinii. Both species were strongly correlated to an increase in fruity esters and alcohol abundances. Overall, this study provides an in-depth understanding about microbial species succession and how the microbiota shapes the final distinct olive characteristics. It also constitutes a first step to identify key drivers of this fermentation.</t>
-  </si>
-  <si>
-    <t>This study explored the shelf-life and bacterial community dynamics of beef cuts stored at super-chilled conditions (−1 ± 0.5 °C) for 20 weeks when sourced from two Chinese abattoirs, in order to determine whether domestic beef has equivalent quality as that imported from Australia. The initial total viable counts (TVC) were 4.15 and 4.87 log CFU/cm2 in beef from abattoirs A and B, respectively at the commencement of the storage period. The TVC of beef from abattoir A was above 6.0 log CFU/cm2 at 6 weeks and kept below 7.0 log CFU/cm2 at 20 weeks; while the counts were above 6.0 log CFU/cm2 at 3 weeks and reached at 7.3~7.6 log CFU/cm2 in beef from abattoir B. The beef shelf-life was deemed less than 12 and 9 weeks in abattoirs A and B, respectively, based on the total volatile basic nitrogen (TVBN) threshold, although all samples were acceptable organoleptically. High-throughput sequencing showed that the initial bacteria community and bacterial succession during storage were different between the two abattoirs. Carnobacterium spp. and Lactobacillus spp. dominated in both abattoirs throughout 3–9 weeks while Serratia spp. co-dominated in abattoir B, and Lactobacillus spp. and Carnobacterium spp. were dominant for the rest of storage in abattoir A and B, respectively. Overall, the high initial TVC is a concern compared to imported beef from Australia. To achieve comparable shelf-life, domestic super-chilled stored beef would need to be sourced from abattoirs employing effective decontamination technologies or where strict hygiene procedures are adopted.</t>
-  </si>
-  <si>
-    <t>Six different ganjang batches were prepared and the microbial communities in the ganjang samples and raw materials (meju and solar salts), as well as the metabolites generated during fermentation were analyzed. The varying amounts of raw materials used differentially affected the microbial communities. Halophilic or halotolerant microbes derived from solar salts were abundant during middle or late fermentation. By contrast, non-halophilic microbes derived from meju were abundant mainly during early fermentation. Debaryomyces, Tetragenococcus, and Staphylococcus were abundant in all ganjang batches, which suggested that these may be the most common microbes involved in ganjang fermentation. The salt concentrations did not affect the abundance of Debaryomyces, which was abundant in all ganjang batches. Tetragenococcus was abundant in low salt ganjang, whereas Staphylococcus was abundant in high salt ganjang. Metabolite analysis revealed that carbohydrate concentrations were high in ganjang prepared using high amounts of meju. The level of lactate, which may be largely produced by Tetragenococcus, in low salt ganjang was high because of high microbial activity. The amino acid concentrations of the ganjang batches were mainly associated with meju quantity, but not salt concentration. These results indicated that the production of amino acids may be associated with indigenous proteases in meju, but not microbial activities during ganjang fermentation.</t>
-  </si>
-  <si>
-    <t>In this paper, the volatile flavour constituents and the bacterial diversity in characteristic Chinese fermented sour soup were analysed, and the dynamics of bacteria associated with the odour were characterized. The bacterial diversity of sour soup was studied by high-throughput sequencing. A total of 10 phyla and 89 genera were detected. Firmicutes was the dominant phylum of sour soup, accounting for 87.14–98.57%. The genus structure of normal sour soup was relatively simple, and Lactobacillus (78.05–90.26%) was the dominant genus. In addition to Lactobacillus, the foul-smelling sour soup contained more Pediococcus spp., Caproiciproducens spp., and Clostridium-sensu-stricto 12 spp. (relative abundance &gt;1%) than the normal sour soup. A total of 51 aroma compounds were detected by gas chromatography-mass spectrometry(GC-IMS), including 25 esters, 8 terpenes, 8 alcohols, 3 sulfur compounds, 2 acids, 2 ketones, 1 pyrazine, 1 monoterpene and 1 aldehyde. According to the relative odour active value (ROAV) calculation, 51 important flavour-contributing substances and 7 flavour-coordinating substances were determined. The esters with the highest relative percentages and ROAV values provided the pleasant flavour of the sour soup. In the foul-smelling sour soup, the ROAV values of 1,8-cineole, isobutyl acetate, ethyl butanoate, ethyl octanoate-M, and ethyl hexanoate-M decreased, while those of diallyl disulfide-M and diallyl disulfide-D, which were probably responsible for the foul flavour, increased. Through Pearson correlation analysis, the odour production of the foul-smelling soup was determined to be related to Pediococcus spp., Caproiciproducens spp., Clostridiumsensu_stricto_12 spp., Oscillibacter spp., Bacteroides spp., Fibaculaceae_unclassified spp., Acinetobacter spp. and Halomonas spp.</t>
-  </si>
-  <si>
-    <t>Kazak cheese is a characteristic handcrafted fermented dairy product from the Uyghur Autonomous Region in China. The bacterial microbiota and volatile components during milk fermentation of Kazak artisanal cheese were investigated using Illumina MiSeq sequencing technology and headspace solid-phase microextraction (HS-SPME) with gas chromatography/mass spectrometry (GC–MS), respectively. Lactobacillus and Lactococcus were found to be the main populations during milk fermentation. The relationships between microbiome succession and flavour dynamics were constructed based on bidirectional orthogonal partial least squares (O2PLS), which identified eight bacterial genera as key functional microbes for flavour production. Among these genera, Lactobacillus was positively correlated with benzoic acid and isoamyl alcohol, while Macrococcus and Anoxybacillus were negatively correlated with acetic acid, butanoic acid and isoamyl alcohol. This study provides a foundation for uncovering the mechanisms underlying the formation of the microbiota and flavour components in Kazak fermented cheese.</t>
-  </si>
-  <si>
-    <t>Background: Paipa cheese is a traditional, semi-ripened cheese made from raw cow’s milk in Colombia. The aim of this work was to gain insights on the microbiota of Paipa cheese by using a culture-independent approach. Method: two batches of Paipa cheese from three formal producers were sampled during ripening for 28 days. Total DNA from the cheese samples was used to obtain 16S rRNA gene sequences by using Illumina technology. Results: Firmicutes was the main phylum found in the cheeses (relative abundances: 59.2–82.0%), followed by Proteobacteria, Actinobacteria and Bacteroidetes. Lactococcus was the main genus, but other lactic acid bacteria (Enterococcus, Leuconostoc and Streptococcus) were also detected. Stapylococcus was also relevant in some cheese samples. The most important Proteobacteria were Enterobacteriaceae, Aeromonadaceae and Moraxellaceae. Enterobacter and Enterobacteriaceae (others) were detected in all cheese samples. Serratia and Citrobacter were detected in some samples. Aeromonas and Acinetobacter were also relevant. Other minor genera detected were Marinomonas, Corynebacterium 1 and Chryseobacterium. The principal coordinates analysis suggested that there were producer-dependent differences in the microbiota of Paipa cheeses. Conclusions: lactic acid bacteria are the main bacterial group in Paipa cheeses. However, other bacterial groups, including spoilage bacteria, potentially toxin producers, and bacteria potentially pathogenic to humans and/or prone to carry antimicrobial resistance genes are also relevant in the cheeses.</t>
-  </si>
-  <si>
-    <t>This study aimed to explore the effects of artemisinin (ART) on the milk microbiome and metabolites of dairy cow. A total of 12 mid-lactation Holstein dairy cows with similar parity, days in milk were randomly divided into 2 groups receiving either a total mixed ration (TMR) as the control group or this TMR and 120 g/d/head ART as the ART group. The milk samples were collected weekly to determine the contents, and end-of-trial (week 8) milk samples were used to identify microbial species and metabolite profiles by 16S rRNA sequencing and LC–MS analyses, respectively. We observed that the milk fat content significantly increased by ART treatment (P &lt; 0.05). The bacterial community richness was significantly lower in the ART group (P &lt; 0.05), while the diversity showed no difference (P &gt; 0.05). Compared with its abundance in the control (CON) group, Firmicutes was significantly decreased, whereas Proteobacteria was significantly increased. Furthermore, in the ART group, the relative abundances of the genera Aerococcus, Staphylococcus, Corynebacterium_1 and Facklamia were significantly lower (P &lt; 0.01). Metabolomics analysis revealed that ART significantly increasing the concentrations of glycerophospholipids, glycerolipids and flavonoids compared with those in the CON group. An enrichment analysis of the different metabolites showed that ART mainly affected glycerophospholipid metabolism and the pantothenate and CoA biosynthesis pathways. These findings revealed that ART supplementation could affect the milk microbiota and metabolites, that glycerophospholipids and glycerolipids could be potential biomarkers in the milk response to ART feed in dairy cows, and that ART changes substances in milk by maintaining lipid metabolism in the mammary gland.</t>
-  </si>
-  <si>
-    <t>Cheese microbiota contribute significantly to the final characteristics of cheeses due to the growth and interaction between cheese microorganisms during processing and ripening. For raw milk cheeses, such as Parmigiano Reggiano (PR), the microbiota derive from the raw milk itself, the dairy environment, and the starter. The process of cheese making and time of ripening shape this complex ecosystem through the selection of different species and biotypes that will drive the quality of the final product by performing functions of their metabolism such as proteolysis. The diversity in the final peptide and amino acid composition of the cheese is thus mostly linked to the diversity of this microbiota. The purpose of this study was to get more insight into the factors affecting PR cheese diversity and, more specifically, to evaluate whether the composition of the bacterial community of cheeses along with the specific peptide composition are more affected by the ripening times or by the cheese making process. To this end, the microbiota and the peptide fractions of 69 cheese samples (from curd to cheese ripened 24 months) were analyzed during 6 complete PR production cycles, which were performed in six different dairies located in the PR production area. The relation among microbial dynamics, peptide evolution, and ripening times were investigated in this unique and tightly controlled production and sampling set up. The study of microbial and peptide moieties in products from different dairies – from curd to at least 12 months, the earliest time from which the cheese can be sold, and up to a maximum of 24 months of ripening – highlighted the presence of differences between samples coming from different dairies, probably due to small differences in the cheese making process. Besides these differences, however, ripening time had by far the greatest impact on microbial dynamics and, consequently, on peptide composition.</t>
-  </si>
-  <si>
-    <t>Milk microbiota represents a key point in raw milk cheese production and contributes to the development of typical flavor and texture for each type of cheese. The aim of the present study was to evaluate the influence of chlorine products usage for cleaning and sanitizing the milking equipment on (i) raw milk microbiota; (ii) the deriving whey-starter microbiota; and (iii) Trentingrana Protected Designation of Origin (PDO) cheese microbiota and volatilome. Milk samples from three farms affiliated to a Trentingrana PDO cheese factory were collected three times per week during a 6-weeks period in which a sodium hypochlorite detergent (period C) was used and during a subsequent 6-weeks period of non-chlorine detergent usage (period NC). Samples were subjected to microbiological [Standard Plate Count; coliforms; coagulase-positive staphylococci; and lactic acid bacteria (LAB)] and metagenomic analysis (amplification of V3-V4 regions of 16S rRNA gene performed on Illumina MiSeq platform). In addition, cheese volatilome was determined by SPME-GC-MS. In the transition from period C to period NC, higher SPC and LAB counts in milk were recorded. Milk metagenomic analysis showed a peculiar distinctive microbiota composition for the three farms during the whole experimental period. Moreover, differences were highlighted comparing C and NC periods in each farm. A difference in microbial population related to chlorine usage in bulk milk and vat samples was evidenced. Moreover, chlorine utilization at farm level was found to affect the whey-starter population: the usually predominant Lactobacillus helveticus was significantly reduced during NC period, whereas Lactobacillus delbrueckii had the exact opposite trend. Alpha- and beta-diversity revealed a separation between the two treatment periods with a higher presence of L. helveticus, L. delbrueckii, and Streptococcus thermophilus in cheese samples after NC detergent period. Cheese volatilome analysis showed a slight decrease in lipolysis during C period in the inner part of the cheese wheel. Although preliminary, these results suggest a profound influence on milk and cheese microbiota, as well as on raw milk cheese production and quality, due to the use of chlorine. However, further studies will be needed to better understand the complex relationship between chlorine and microbiota along all the cheese production steps.</t>
-  </si>
-  <si>
-    <t>In this study, high-throughput sequencing (HTS) was used to investigate the microbiota of Robiola di Roccaverano production, an artisanal Protected Designation of Origin soft cheese made with raw goat milk by addition of a natural milk starter (NMS), from the Piedmont region of Italy. Different steps of production of Robiola di Roccaverano cheese at one artisanal dairy were monitored. Matched samples of milk, NMS, curd, and 5-d and 15-d matured cheeses were collected at different periods of the year. The DNA sequences obtained by HTS belonged to 5 phyla: Proteobacteria, Firmicutes, Bacteroidetes, Actinobacteria, and Tenericutes. In milk, Proteobacteria and Firmicutes were mainly found, and several operational taxonomic units (OTU) belonging to contaminant bacteria such as Pseudomonas, Serratia, and Staphylococcus were observed. However, in NMS, curd, and 5- and 15-d cheeses, Firmicutes were principally observed where OTU of Lactococcus lactis were predominant, followed by Leuconostoc mesenteroides OTU. The results of the analysis showed high bacterial diversity in milk samples compared with NMS, curd, and 5- and 15-d cheeses, suggesting strong action of NMS in driving the characteristics of the final products.</t>
-  </si>
-  <si>
-    <t>Ground beef can be a reservoir for a variety of bacteria, including spoilage organisms, and pathogenic foodborne bacteria. These bacteria can exhibit antimicrobial resistance (AMR) which is a public health concern if resistance in pathogens leads to treatment failure in humans. Culture-dependent techniques are commonly used to study individual bacterial species, but these techniques are unable to describe the whole community of microbial species (microbiome) and the profile of AMR genes they carry (resistome), which is critical for getting a holistic perspective of AMR. The objective of this study was to characterize the microbiome and resistome of retail ground beef products labeled as coming from conventional or raised without antibiotics (RWA) production systems. Sixteen ground beef products were purchased from 6 retail grocery outlets in Fort Collins, CO, half of which were labeled as produced from cattle raised conventionally and half of products were from RWA production. Total DNA was extracted and isolated from each sample and subjected to 16S rRNA amplicon sequencing for microbiome characterization and target-enriched shotgun sequencing to characterize the resistome. Differences in the microbiome and resistome of RWA and conventional ground beef were analyzed using the R programming software. Our results suggest that the resistome and microbiome of retail ground beef products with RWA packaging labels do not differ from products that do not carry claims regarding antimicrobial drug exposures during cattle production. The resistome predominantly consisted of tetracycline resistance making up more than 90% of reads mapped to resistance gene accessions in our samples. Firmicutes and Proteobacteria predominated in the microbiome of all samples (69.6% and 29.0%, respectively), but Proteobacteria composed a higher proportion in ground beef from conventionally raised cattle. In addition, our results suggest that product management, such as packaging type, could exert a stronger influence on the microbiome than the resistome in consumer-ready products. Metagenomic analyses of ground beef is a promising tool to investigate community-wide shifts in retail ground beef. Importantly, however, results from metagenomic sequencing must be carefully considered in parallel with traditional methods to better characterize the risk of AMR in retail products.</t>
-  </si>
-  <si>
-    <t>Microbial food spoilage is responsible for a considerable amount of waste and can cause food-borne diseases in humans, particularly in immunocompromised individuals and children. Therefore, preventing microbial food spoilage is a major concern for health authorities, regulators, consumers, and the food industry. However, the contamination of food products is difficult to control because there are several potential sources during production, processing, storage, distribution, and consumption, where microorganisms come in contact with the product. Here, we use high-throughput full-length 16S rRNA gene sequencing to provide insights into bacterial community structure throughout a pork-processing plant. Specifically, we investigated what proportion of bacteria on meat are presumptively not animal-associated and are therefore transferred during cutting via personnel, equipment, machines, or the slaughter environment. We then created a facility-specific transmission map of bacterial flow, which predicted previously unknown sources of bacterial contamination. This allowed us to pinpoint specific taxa to particular environmental sources and provide the facility with essential information for targeted disinfection. For example, Moraxella spp., a prominent meat spoilage organism, which was one of the most abundant amplicon sequence variants (ASVs) detected on the meat, was most likely transferred from the gloves of employees, a railing at the classification step, and the polishing tunnel whips. Our results suggest that high-throughput full-length 16S rRNA gene sequencing has great potential in food monitoring applications.</t>
-  </si>
-  <si>
-    <t>Shelf life of red meat is influenced by a number of intrinsic and extrinsic factors making its prediction challenging. Here we investigated the influence of geographically distant abattoir facilities and storage temperature relevant to commercial supply chain on the shelf lives of vacuum packaged (VP) beef and lamb meat. Samples of VP beef and lamb were analysed for surface pH, total viable counts, lactic acid bacterial counts, sensory properties, and associated bacterial community using Illumina MiSeq based 16S rRNA gene amplicon sequencing over a period of &gt;200 days. The consistent 0.41 pH unit difference between beef and lamb was found to have a profound effect on bacterial community diversity and composition, bacterial growth rates and the rate of loss of sensory quality. Though different community structures were derived from different abattoir source, bacterial growth rate and rate of sensory quality deterioration were found to be comparable for individual meat type. The greatest variation in rates was found resulting from storage temperature and livestock species themselves. Our findings indicate that bacterial growth and sensory quality loss are essentially predictable when considering their temperature dependency, however for successful meat export validation of shelf life predictive models is required due to stochastic variation in abattoir seeded bacterial populations.</t>
-  </si>
-  <si>
-    <t>Residual microorganisms in dairy products are closely related to their quality deterioration and safety. Based on the minimum sterilization conditions required by Grade A Pasteurized Milk Ordinance, this study explored the microbiota present in milk products that were high temperature short time pasteurized at 72, 75, 80, 83, or 85 °C for 15 s, 20 s, and 30 s separately. Based on high-throughput sequencing results, 6 phyla and 18 genera were identified as dominant microbiota. Proteobacteria and Firmicutes were the maior bacteria in phyla, and each comprising more than 50%. Pseudomonas was account for more than 42% of all the genera detected in all samples. Moreover, the changes in flavor substances in pasteurized milk, including 16 free amino acids, 9 fatty acids, and 17 volatile compounds, were detected using principal component and multi factor analyses. The Pearson correlation coefficient analysis identified six bacteria genera as the core functional microbiota that significantly affected the flavor compounds and the safety and quality of pasteurized milk. Interestingly, Pseudomonas, Omithimimicrobium, Cyanobacteria and Corynebacterium had positive correlations with the flavor substances, whereas Streptococcus and Paeniclostridium had significant negative correlations with these substances. The results may help enhance the quality control of dairy products and can be used as indicators of microbial contamination of pasteurized dairy products.</t>
-  </si>
-  <si>
-    <t>Donkey milk has received increasing attention from consumers and dairy industry because of its nutritional value, health benefits, and proximity to human milk. Microbial diversity in donkey milk has a great impact on its quality and safety, however, microbiota in donkey milk from the major donkey-breeding regions of China have not been well documented. In this study, bacterial communities in donkey milk from Yopurga County in Western China (XJ), and Dong’e County in Eastern China (SD) were determined using high-throughput sequencing. Major phyla identified in the two donkey milk groups consistently included Acinetobacter, Proteobacteria, Firmicutes, and Bacteroidetes but with very different abundance for each phylum. Prevelence of genera was found to be diverse between the two groups, with Macrococcus and Acinetobacter dominating in the XJ samples while Streptococcus, Pseudoclavibacter, and Pseudomonas being the most abundant ones in the XJ samples. Alpha diversity analysis showed that there was significant difference in richness between the two sample groups but no difference in bacterial community diversity or coverage. The presence of possible harmful bacteria and lactic acid bacteria in donkey milk in this study provides the microbial profiles of pathogens and spoilage bacteria that need to be controlled and proposes possible utilization of beneficial microbial resources for the future.</t>
-  </si>
-  <si>
-    <t>Traceability, quality and safety of edible insects are important both for the producers and the consumers. Today, alongside the burst of edible insects in western countries, we are facing a gap of knowledge of insect microbiota associated with the microbial ecosystems of insect-based products. In this context, High-Throughput DNA Sequencing (HTS) techniques can give insight into the carryover of insect microbiota into final food products. In this study, we investigated the microbiota composition of insect-based commercial food products, applying HTS techniques coupled with bioinformatic analysis. The work aimed to analyse the microbiota variability of different categories of some insect-based commercial food products made of A. domesticus (house cricket), T. molitor (mealworm beetle), and A. diaperinus (lesser mealworm or litter beetle), including commercial raw materials and processed food items, purchased via e-commerce from different companies. Our data revealed that samples cluster per insect species based on microbiota profile and preliminary results suggested that a small number of prevalent bacteria formed a “core microbiota” characterizing the products depending on the insect. This microbial signature can be recognized despite the different food processing levels, rearing conditions and selling companies. Furthermore, differences between raw and processed food made of the same insect or similar product produced by different companies was found. These results support the application of HTS analysis for studying the composition of insect-based commercial food products in a wider perspective, for food traceability and food quality control.</t>
-  </si>
-  <si>
-    <t>Cheese maturation and flavor development results from complex interactions between milk substrates, cheese microbiota and their metabolites. In this study, bacterial 16S rRNA-gene sequencing, untargeted metabolomics (gas chromatography-mass spectrometry) and data integration analyses were used to characterize and differentiate commercial Cheddar cheeses of varying maturity made by the same and different manufacturers. Microbiota and metabolite compositions varied between cheeses of different ages and brands, and could be used to distinguish the cheeses. Individual amino acids and carboxylic acids were positively correlated with the ripening age for some brands. Integration and Random Forest analyses revealed numerous associations between specific bacteria and metabolites including a previously undescribed positive correlation between Thermus and phenylalanine and a negative correlation between Streptococcus and cholesterol. Together these results suggest that multi-omics analyses has the potential to be used for better understanding the relationships between cheese microbiota and metabolites during ripening and for discovering biomarkers for validating cheese age and brand authenticity.</t>
-  </si>
-  <si>
-    <t>Kefir is a well-known health-promoting beverage that can be produced by using kefir grains (traditional method) or by using natural starter cultures from kefir (backslopping method). The aim of this study was to elucidate the microbial dynamics and volatilome profile occurring during kefir production through traditional and backslopping methods by using five kefir grains that were collected in Bosnia and Herzegovina. The results from conventional pour plating techniques and amplicon-based sequencing were combined. The kefir drinks have also been characterized in terms of their physico-chemical and colorimetric parameters. A bacterial shift from Lactobacillus kefiranofaciens to Acetobacter syzygii, Lactococcus lactis and Leuconostoc pseudomesenteroides from kefir grains in traditional kefir to backslopped kefir was generally observed. Despite some differences within samples, the dominant mycobiota of backslopped kefir samples remained quite similar to that of the kefir grain samples. However, unlike the lactic acid and acetic acid bacteria, the yeast counts decreased progressively from the grains to the backslopped kefir. The backslopped kefir samples showed higher protein, lactose and ash content and lower ethanol content compared to traditional kefir samples, coupled with optimal pH values that contribute to a pleasant sensory profile. Concerning the volatilome, backslopped kefir samples were correlated with cheesy, buttery, floral and fermented odors, whereas the traditional kefir samples were correlated with alcoholic, fruity, fatty and acid odors. Overall, the data obtained in the present study provided evidence that different kefir production methods (traditional vs backslopping) affect the quality characteristics of the final product. Hence, the functional traits of backslopped kefir should be further investigated in order to verify the suitability of a potential scale-up methodology for backslopping.</t>
-  </si>
-  <si>
-    <t>The purpose of this work was to assess the effect of different packaging methods on the shelf life and bacterial communities of roast duck meat. Samples were packaged under the following five conditions: overwrapped packaging (OWP), 100% N2 (100% N2-MAP), 30% CO2/70% N2 (30% CO2-MAP), 50% CO2/50% N2 (50% CO2-MAP), and 0.4% CO/30% CO2/69.6% N2 (CO-MAP). Physicochemical and microbiological parameters were monitored during 14 days of chilled storage (0–4 °C). Results showed that MAP samples obtained higher and more stable redness, better sensory scores, and lower lipid oxidation, compared with OWP, in which CO-MAP samples had the lowest TBARS values (0.13–0.22 MDA/kg) during storage. Moreover, 30% CO2-MAP, 50% CO2-MAP, and CO-MAP effectively retarded the onset of bacterial spoilage and extended shelf life by 7 days compared with 100% N2-MAP and OWP treatments. Additionally, bacterial succession was significantly affected by the gas composition used in the packages, especially the dominant biota at the end of storage, which played an important role in the spoilage of roast duck meat under specific packaging. On day 14, Pseudoalteromonas spp., Lactobacillus spp., and Pseudomonas spp. became the most predominate genera in OWP, 100% N2-MAP, and 50% CO2-MAP, respectively. Notably, Vibrio spp. was dominant in both 30% CO2-MAP and CO-MAP, indicating 0.4% CO did not exert a further inhibitory effect on this genus. Additionally, the growth inhibition of Pseudoalteromonas spp., Lactobacillus spp., and Leuconostoc spp. by high CO2 concentration might be the reason for MAP (CO2/N2) samples having lower levels of TVC. Globally, these results indicate that 30% CO2-MAP, 50% CO2-MAP, and CO-MAP are promising packaging methods to improve roast duck meat quality and achieve shelf life extension.</t>
-  </si>
-  <si>
-    <t>The microbial community of ungerminated and germinated barley grains from three different cultivars grown at four different locations in Norway was investigated by culture dependent and culture independent methods. Lactic acid bacteria (LAB) was focused in this study and was isolated from germinated barley. The number of LAB ranged between 2.8 and 4.6 log cfu/g in ungerminated grains and between 4.9 and 6.3 log cfu/g in germinated grains. In total 66 out of 190 isolates were Gram+, catalase-negative and presumptive LAB. The LAB isolates were by 16S rRNA sequencing identified to be Carnobacterium maltaromaticum (6), Lactococcus lactis (2), Enterococcus sp. (1) and Leuconostoc sp. (57). Germination significantly influenced the bacterial composition. Regarding the different cultivars and growth places no significant difference in bacterial composition was seen. The most abundant bacterial genus was Pantoea (18.5% of the total sequences), followed by Rhizobium (10.1%) and Sphingomonas (9.9%). Fungal composition was significantly influenced by the germination process and the cultivation place, but no significant difference in fungal composition was detected between the 3 cultivars. The most abundant fungal genera were Cryptococcus (43.8% of all the sequences), Cladosporium (8.2%), Pyrenophora (7.4%) and Vagicola (6.3%). This study revealed knowledge of barley grain associated microbes of Norwegian barley that can be useful to control the malt quality. Germination affected both bacterial and fungal microbiota composition. No difference in bacterial microbiota composition was seen regarding cultivars and cultivation place, however, the fungal microbiota composition was significantly influenced by the cultivation place. Differences in fungal community of ungerminated and germinated barley samples of different geographical locations were more pronounced than differences in bacterial communities.</t>
-  </si>
-  <si>
-    <t>We analysed the bacterial and yeast microbiomes found in mixed and spontaneously fermented beers (n = 14) and unpasteurised apple ciders (n = 6), using high-throughput 16S rRNA and internal transcribed spacer (ITS) sequencing. The ratio of bacteria to yeast was measured using quantitative polymerase chain reaction (qPCR), and short-chain organic acids were analysed using high-performance liquid chromatography (HPLC). An upgraded version of the Knomics-Biota system was used to analyse the data. The microbiomes included both starter microorganisms and those that originate from the production environment and the raw materials. In addition to the common Saccharomyces and Brettanomyces, the yeast diversity included many non-conventional species. The bacterial community in beer was dominated by Lactobacillus species, whereas these communities were more diverse in cider. Lactobacillus acetotolerans was prevalent in wild ales, whereas Candida ethanolica was prevalent in cask-matured beverages. We observed complex patterns of subspecies-level yeast diversity across beer styles, breweries, and countries. Our study represents an exploratory analysis of non-conventional beer and cider microbiomes and metabolomes, which contributes information necessary to develop improved quality control processes and may drive innovative product development in experimental and artisanal brewing.</t>
-  </si>
-  <si>
-    <t>The biggest non-tree perennial plant species endemic to Mexico were called metl in the Nahua culture; during colonial times, renamed with the Antillean word maguey. Carl von Linné finally renamed them as Agave, a Greek-Latin root word meaning admirable. Since pre-Columbian times, one of the major products obtained from some Agave species is the fermented beverage called pulque or octli. This beverage represents an ancient biotechnological development obtained by the natural fermentation of mead from such plants. Pulque played a central role in Mexican pre-Columbian cultures, while in recent times, there has been a renewed interest in it, due to its high content in nutrients and probiotics. In this study, we used massive sequencing of the 16S rRNA gene and the ribosomal internal transcribed spacer (ITS) to profile the pulque microbiome. We identified 2,855 bacteria operational taxonomic units (OTUs) and 1,494 fungi species in the pulque fermentation. Our results provide the most diverse catalog of microbes during pulque production reported so far. These findings allowed us to identify previously unidentified and core microbes resilient during pulque production, with the potential to be used as fermentation stage biomarkers. We confirmed previous reports of pulque microbes and discovered new ones like the bacteria Sphingomonas and Weisella. Among fungi we found that Saccharomyces cerevisiae was second to Candida zemplina in the studied pulque samples.</t>
-  </si>
-  <si>
-    <t>The relationship between microbiota and health has been widely reported in humans and animals. We established a link between teat cistern microbiota composition and bovine mastitis, an inflammatory disease often due to bacterial infections. To further decipher the relationships between teat cistern microbiota and immune and microbial responses, a switch from twice- to once-daily milking (ODM) in 31 initially healthy quarters of dairy cows was used to trigger an udder perturbation. In this study, a temporal relationship was reported between initial teat cistern microbiota composition and richness, the immune response to ODM, and mastitis development. Quarters with a low initial microbiota richness and taxonomic markers such as Bacteroidetes and Proteobacteria were associated with a higher rate of mastitis during ODM. Quarters with a higher richness and taxonomic markers such as Firmicutes, including the Lachnospiraceae family, and genera such as Bifidobacterium and Corynebacterium displayed early inflammation following transition to ODM but without developing mastitis (no infection). Short-term compositional shifts of microbiota indicates that microbiotas with a higher initial richness were more strongly altered by transition to ODM, with notably the disappearance of rare OTUs. Microbiota modifications were associated with an early innate immune system stimulation, which, in turn, may have contributed to the prevention of mastitis development.</t>
-  </si>
-  <si>
-    <t>There is a need for standardized, efficient, and practical sampling methods to support large population-based studies of the internal and external epithelial microbiomes of the bovine udder. The primary objective of this study was to evaluate different sampling devices for the isolation of microbial DNA originating from the internal and external teat epithelium. Secondary objectives were to survey and compare the microbial diversity of external and teat canal epithelial microbiomes using amplicon and shotgun metagenomic sequencing approaches. To address these objectives, we enrolled a convenience sample of 24 Holstein dairy cows and collected samples from the external epithelium at the base of udder, the external teat barrel epithelium, the external teat apex epithelium, and the teat canal epithelium. Extracted DNA was quantified and subjected to PCR amplification of the V4 hypervariable region of the 16S rRNA gene and sequenced on the Illumina MiSeq platform (Illumina Inc., San Diego, CA). A subset of samples was subjected to a shallow shotgun metagenomic assay on the Illumina HiSeq platform. For samples collected from the external teat epithelium, we found that gauze squares consistently yielded more DNA than swabs, and Simpson's reciprocal index of diversity was higher for gauze than for swabs. The teat canal epithelial samples exhibited significantly lower diversity than the external sampling locations, but there were no significant differences in diversity between teat apex, teat barrel, and base of the udder samples. There were, however, differences in the microbial distribution and abundances of specific bacteria across external epithelial surfaces. The proportion of shotgun sequence reads classified as Bos taurus was highly variable between sampling locations, ranging from 0.33% in teat apex samples to 99.91% in teat canal samples. These results indicate that gauze squares should be considered for studying the microbiome of the external epithelium of the bovine udder, particularly if DNA yield must be maximized. Further, the relative proportion of host to non-host DNA present in samples collected from the internal and external teat epithelium should be considered when designing studies that utilize shotgun metagenomic sequencing.</t>
-  </si>
-  <si>
-    <t>Pélardon is an artisanal French raw goat's milk cheese, produced using natural whey as a backslop. The aim of this study was to identify key microbial players involved in the acidification and aroma production of this Protected Designation of Origin cheese. Microbial diversity of samples, collected from the raw milk to 3-month cheese ripening, was determined by culture-dependent (MALDI-TOF analysis of 2877 isolates) and -independent (ITS2 and 16S metabarcoding) approaches and linked to changes in biochemical profiles (volatile compounds and acids). In parallel, potential dominant autochthonous microorganism reservoirs were also investigated by sampling the cheese-factory environment. Complex and increasing microbial diversity was observed by both approaches during ripening although major discrepancies were observed regarding Lactococcus lactis and Lacticaseibacillus paracasei fate. By correlating microbial shifts to biochemical changes, Lactococcus lactis was identified as the main acidifying bacterium, while L. mesenteroides and Geotrichum candidum were prevalent and associated with amino acids catabolism after the acidification step. The three species were dominant in the whey (backslop). In contrast, L. paracasei, Enterococcus faecalis, Penicillium commune and Scopulariopsis brevicaulis, which dominated during ripening, likely originated from the cheese-making environment. All these four species were positively correlated to major volatile compounds responsible for the goaty and earthy Pélardon cheese aroma. Overall, this work highlighted the power of MALDI-TOF and molecular techniques combined with volatilome analyses to dynamically follow and identify microbial communities during cheese-making and successively identify the key-players involved in aroma production and contributing to the typicity of Pélardon cheese.</t>
-  </si>
-  <si>
-    <t>Currently, there is a strong interest in barrel ageing of finished, conventionally fermented beers, as a novel way to produce sour beers with a rich and complex flavour profile. The production process, however, remains largely a process of trial and error, often resulting in profit losses and inconsistency in quality. To improve product quality and consistency, a better understanding of the interactions between microorganisms, wood and maturing beer is needed. The aim of this study was to describe the temporal dynamics in microbial community composition, beer chemistry and sensory characteristics during barrel ageing of three conventionally fermented beers that differed in parameters like alcohol content and bitterness. Beers were matured for 38 weeks in new (two types of wood) and used (one type of wood) oak barrels. Beer samples were taken at the start of the maturation and after 2, 12 and 38 weeks. Microbial community composition, determined using amplicon sequencing of the V4 region of the bacterial 16S rRNA gene and the fungal ITS1 region, beer chemistry and sensory characteristics substantially changed throughout the maturation process. Likewise, total bacterial and fungal population densities generally increased during maturation. PerMANOVA revealed significant differences in the bacterial and fungal community composition of the three beers and across time points, but not between the different wood types. By contrast, significant differences in beer chemistry were found across the different beers, wood types and sampling points. Results also indicated that the outcome of the maturation process likely depends on the initial beer properties. Specifically, results suggested that beer bitterness may restrain the bacterial community composition, thereby having an impact on beer souring. While the bacterial community composition of moderately-hopped beers shifted to a dominance of lactic acid bacteria, the bacterial community of the high-bitterness beer remained fairly constant, with low population densities. Bacterial community composition of the moderate-bitterness beers also resembled those of traditional sours like lambic beers, hosting typical lambic brewing species like Pediococcus damnosus, Lactobacillus brevis and Acetobacter sp. Furthermore, results suggested that alcohol level may have affected the fungal community composition and extraction of wood compounds. More specifically, the concentration of wood compounds like cis-3-methyl-4-octanolide, trans-3-methyl-4-octanolide, eugenol and total polyphenols was higher in beers with a high alcohol content. Altogether, our results provide novel insights into the barrel ageing process of beer, and may pave the way for a new generation of sour beers.</t>
-  </si>
-  <si>
-    <t>A high-throughput sequencing approach was used to investigate the bacterial community diversity of traditional Tibetan yak jerky, which was collected from three different regions in Tibet and with different natural drying times. Tibetan yak jerky from different regions had different bacterial communities, which was mainly reflected in the relative abundance levels of unclassified Cyanobacteria, Psychrobacter and Acinetobacter. The unclassified Cyanobacteria was the dominant genus of Qamdo yak jerky, Acinetobacter was the dominant genus of Shigatse yak jerky, and Psychrobacteria was the dominant genus of Nyingchi yak jerky. With increasing natural drying time, the diversity of bacterial communities in yak jerky decreased, and unclassified Cyanobacteria become the dominant genus. Spearman's correlation analysis and canonical correspondence analysis revealed that physicochemical factors (moisture content, water activity, shear force and pH) were significantly correlated with bacterial community. Our results will be beneficial to improve and standardize the safety and quality of traditional Tibetan yak jerky.</t>
-  </si>
-  <si>
-    <t>Microbial complexity and contamination levels in food processing plants heavily impact the final product fate and are mainly controlled by proper environmental cleaning and sanitizing. Among the emerging disinfection technologies, ozonation is considered an effective strategy to improve the ordinary cleaning and sanitizing of slaughterhouses. However, its effects on contamination levels and environmental microbiota still need to be understood. For this purpose, we monitored the changes in microbiota composition in different slaughterhouse environments during the phases of cleaning/sanitizing and ozonation at 40, 20, or 4 ppm. Overall, the meat processing plant microbiota differed significantly between secondary processing rooms and deboning rooms, with a greater presence of psychrotrophic taxa in secondary processing rooms because of their lower temperatures. Cleaning/sanitizing procedures significantly reduced the contamination levels and in parallel increased the number of detectable operational taxonomic units (OTUs), by removing the masking effect of the most abundant human/animal-derived OTUs, which belonged to the phylum Firmicutes. Subsequently, ozonation at 40 or 20 ppm effectively decreased the remaining viable bacterial populations. However, we could observe selective ozone-mediated inactivation of psychrotrophic bacteria only in the secondary processing rooms. There, the Brochothrix and Pseudomonas abundances and their viable counts were significantly affected by 40 or 20 ppm of ozone, while more ubiquitous genera like Staphylococcus showed a remarkable resistance to the same treatments. This study showed the effectiveness of highly concentrated gaseous ozone as an adjunct sanitizing method that can minimize cross-contamination and so extend the meat shelf life. IMPORTANCE Our in situ survey demonstrates that RNA-based sequencing of 16S rRNA amplicons is a reliable approach to qualitatively probe, at high taxonomic resolution, the changes triggered by new and existing cleaning/sanitizing strategies in the environmental microbiota in human-built environments. This approach could soon represent a fast tool to clearly define which routine sanitizing interventions are more suitable for a specific food processing environment, thus limiting the costs of special cleaning interventions and potential product loss.</t>
-  </si>
-  <si>
-    <t>The importance of the microbiome for bovine udder health is not well explored and most of the knowledge originates from research on mastitis. Better understanding of the microbial diversity inside the healthy udder of lactating cows might help to reduce mastitis, use of antibiotics and improve animal welfare. In this study, we investigated the microbial diversity of over 400 quarter milk samples from 60 cows sampled from two farms and on two different occasions during the same lactation period. Microbiota analysis was performed using amplicon sequencing of the 16S rRNA gene and over 1000 isolates were identified using MALDI-TOF MS. We detected a high abundance of two bacterial families, Corynebacteriaceae and Staphylococcaceae, which accounted for almost 50% of the udder microbiota of healthy cows and were detected in all the cow udders and in more than 98% of quarter milk samples. A strong negative correlation between these bacterial families was detected indicating a possible competition. The overall composition of the udder microbiota was highly diverse and significantly different between cows and between quarter milk samples from the same cow. Furthermore, we introduced a novel definition of a dysbiotic quarter at individual cow level, by analyzing the milk microbiota, and a high frequency of dysbiotic quarter samples were detected distributed among the farms and the samples. These results emphasize the importance of deepening the studies of the bovine udder microbiome to elucidate its role in udder health.</t>
-  </si>
-  <si>
-    <t>Introduction of microbial contaminations in the dairy value chain starts at the farm level and the initial microbial composition may severely affect the production of high-quality dairy products. Therefore, understanding the farm-to-farm variation and longitudinal shifts in the composition of the bulk tank milk microbiota is fundamental to increase the quality and reduce the spoilage and waste of milk and dairy products. In this study, we performed a double experiment to study long- and short-term longitudinal shifts in microbial composition using 16S rRNA gene amplicon sequencing. We analyzed milk from 37 farms, that had also been investigated two years earlier, to understand the stability and overall microbial changes over a longer time span. In addition, we sampled bulk tank milk from five farms every 1–2 weeks for up to 7 months to observe short-term changes in microbial composition. We demonstrated that a persistent and farm-specific microbiota is found in bulk tank milk and that changes in composition within the same farm are mostly driven by bacterial genera associated with mastitis (e.g., Staphylococcus and Streptococcus). On a long-term, we detected that major shift in milk microbiota were not correlated with farm settings, such as milking system, number of cows and quality of the milk but other factors, such as weather and feeding, may have had a greater impact on the main shifts in composition of the bulk tank milk microbiota. Our results provide new information regarding the ecology of raw milk microbiota at the farm level.</t>
-  </si>
-  <si>
-    <t>Shubat (fermented camel milk beverage) and Ayran (yogurt) are popular traditional fermented milk products in Kazakhstan. However, the natural microbial diversity in these fermented dairy products is not well studied. In this study, we paired high-throughput sequencing with the traditional culture-dependent method to evaluate the bacterial diversity in these two fermented milk products. A total of 137 operational taxonomic units were obtained from Shubat and Ayran samples, by using 16S rRNA gene sequencing. The three most abundant operational taxonomic units were of the Lactobacillus and Streptococcus genera. In the 55 bacterial strains isolated through the culture-dependent method, the dominant species belonged to Leuconostoc and Enterococcusgenera. Moreover, probiotic properties, such as acid tolerance, bile salt tolerance, and antibiotic resistance of 26 selected lactic acid bacteria were also tested. Eight strains showed excellent survival rates under acidic pH or bile salt stress and were susceptible to the antibiotics used in the experiment. This is the first systematic study to identify the indigenous strains and natural bacterial diversity in Shubat and Ayran. We expect our results to facilitate the commercial production and quality control of these milk products.</t>
-  </si>
-  <si>
-    <t>Unpasteurized milk is used to produce aged artisanal cheeses, which presents a safety concern due to possible contamination with foodborne pathogens, especially Listeria monocytogenes. The objective of this study was to examine the composition of the bacterial community in unpasteurized milk used to prepare Gouda cheese artificially contaminated with L. monocytogenes (~1 log CFU/ml) and assess the community dynamics and their potential interaction with L. monocytogenes during a 90-day ripening period using targeted 16S rRNA sequencing. The diversity of bacterial taxa in three batches of unpasteurized milk was not significantly different, and the microbiomes were dominated by species of Lactococcus, Streptomyces, Staphylococcus, and Pseudomonas. The highest relative abundances were observed for Pseudomonas fluorescens (31.84–78.80%) and unidentified operational taxonomic units (OTUs) of Pseudomonas (7.56–45.27%). After manufacture, both with and without L. monocytogenes-contaminated unpasteurized milk, Gouda cheese was dominated by starter culture bacteria (including Lactococcus lactis subsp. cremoris, lactis, lactis bv. diacetylactis, and Streptococcus thermophilus), in addition to unassigned members in the taxa L. lactis and Streptococcus. During ripening there was an overall decrease in L. lactis abundance and an increase in the number of taxa with relative abundances &gt;0.1%. After 90-day ripening, a total of 82 and 81 taxa were identified in the Gouda cheese with and without L. monocytogenes, respectively. Of the identified taxa after ripening, 31 (Gouda cheese with L. monocytogenes) and 56 (Gouda cheese without L. monocytogenes) taxa had relative abundances &gt;0.1%; 31 were shared between the two types of Gouda cheese, and 25 were unique to the Gouda cheese without added L. monocytogenes. No unique taxa were identified in the Gouda cheese with the added L. monocytogenes. This study provides information on the dynamics of the bacterial community in Gouda cheese during ripening, both with and without the addition of L. monocytogenes.</t>
-  </si>
-  <si>
-    <t>The microbial community during fermented vegetable production has a large impact on the quality of the final products. Lactic acid bacteria have been well-studied in such processes, but knowledge about the roles of non-lactic acid bacteria is limited. This study aimed to provide useful knowledge about the relationships between the microbiota, including non-lactic acid bacteria, and metabolites in commercial pickle production by investigating Japanese pickles fermented in rice-bran. The samples were provided by six manufacturers, divided into two groups depending on the production conditions. The microbiological content of these samples was investigated by high-throughput sequencing, and metabolites were assessed by liquid chromatography-mass spectrometry and enzymatic assay. The data suggest that Halomonas, halophilic Gram-negative bacteria, can increase glutamic acid content during the pickling process under selective conditions for bacterial growth. In contrast, in less selective conditions, the microbiota consumed glutamic acid. Our results indicate that the glutamic acid content in fermented pickle is influenced by the microbiota, rather than by externally added glutamic acid. Our data suggest that both lactic acid bacteria and non-lactic acid bacteria are positive key factors in the mechanism of commercial vegetable fermentation and affect the quality of pickles.</t>
-  </si>
-  <si>
-    <t>Cheese ripening is effected by various microorganisms and results in the characteristic flavors of cheese. Owing to the complexity of the microbiota involved, the relationship between microorganisms and components during ripening remains unclear. In this study, metagenomics and metabolomics were integrated to reveal these relationships in three kinds of surface mold-ripened cheeses and two kinds of bacterial smear-ripened cheeses. The microbiota is broadly divided into two groups to correspond with different cheese types. Furthermore, surface mold-ripened cheese showed similar microbiota regardless of the cheese variety, whereas bacterial smear-ripened cheese showed specific microbiota characterized by marine bacteria (MB) and halophilic and alkaliphilic lactic acid bacteria for each cheese variety. In the metabolite analysis, volatile compounds suggested differences in cheese types, although organic acids and free amino acids could not determine the cheese characteristics. On the other hand, Spearman correlation analysis revealed that the abundance of specific bacteria was related to the formation of specific organic acids, free amino acids, and volatile compounds. In particular, MB was positively correlated with esters and pyrazines, indicating their contribution to cheese quality. These methodologies and results further our understanding of microorganisms and allow us to select useful strains for cheese ripening.</t>
-  </si>
-  <si>
-    <t>Bovine milk is highly nutritious, so it creates an ideal environment for the growth of microorganisms. Contamination of milk with microorganisms contributes to overall bacterial composition and has a great influence on the acidification and deterioration of milk. As dairy production and consumption have increased over the past decade, the microbial composition of milk has gained attention. In Korea, milk and milk products are rapidly gaining popularity, but studies of the bacterial composition in milk from Korean farms are limited. In the present study, we performed metagenomic analysis with high-throughput sequencing of DNA to identify bacteria in raw milk collected from 40 dairy farms in 4 different provinces in Korea: Gyeonggi-do, Chungcheong-do, Jeolla-do, and Gyeongsang-do. Representative milk bacterial communities including Proteobacteria, Firmicutes, Bacteroidetes, and Actinobacteria formed the core milk microbiota at the phylum level, and Pseudomonas was found to have the greatest provincial variation at the genus level. In addition, we determined the prevalence of spore-forming bacteria using two independent methods of culturomic analysis by MALDI-TOF and next generation sequencing of 16S rRNA genes, and Bacillus thermoamylovorans was identified to account for the largest proportion. We further confirmed that B. thermoamylovorans was able to survive in dairy products and potentially toxigenic using lab cheese model study and Caenorhabditis elegans as a simple host model. Our result clearly shows that specific provinces have distinct proportions of bacteria that may cause spoilage, suggesting specified farm environment management practices depending on the region. These findings can help Korean dairy farms produce safe, high-quality dairy products and develop new sanitation procedures as well as processing controls.</t>
-  </si>
-  <si>
-    <t>This study focused on the microbial and bacteriophages identification and characterization in cheese-production facilities that use natural whey starter (NWS) cultures for Trentingrana production. Bacterial and phage screening was carried out on cooked not acidified whey and NWS samples isolated from six dairy factories, for 4 consecutive days in four different months. By means of a combined approach, using plate counts, bacterial isolation, and metataxonomic analysis Lactobacillus helveticus was found occurring as the dominant species in NWS cultures and Levilactobacillus brevis as codominant in the cheese factories where the temperature of NWS production was mainly lower than 40°C, suggesting that the variability in the parameters of the NWS culture preparation could differently modulate the bacterial species in NWS cultures. Using turbidity test approach on 303 bacterial isolates from the NWS cultures, 120 distinct phages were identified. L. helveticus phage contamination of NWS cultures was revealed in most of the analyzed samples, but despite the great recovery of bacteriophage contamination cases, the microbial quality of NWS cultures was high. Our results support the presence of natural bacteriophage resistance mechanisms in L. helveticus. The use of NWS cultures probably creates an ideal environment for the proliferation of different L. helveticus strains balanced with their phages without a clear dominance. It is evident, from this study, that the presence of a high biodiversity of NWS bacterial strains is relevant to avoid phages dominance in NWS cultures and consequently to keep a good acidification ability.</t>
-  </si>
-  <si>
-    <t>Époisses is a protected designation of origin smear-ripened cheese from the Burgundy region in France. It has an orange color and a strong flavor, both of which are generated by surface microorganisms. The objective of the present study was to investigate the microbial dynamics at the surface of Époisses cheese during ripening and postmanufacturing storage at low temperatures. Rind samples were analyzed by enumeration on agar plates and by 16S rRNA gene and internal transcribed spacer amplicon sequencing. During most of the ripening process, the counts of yeasts, which corresponded to the species Debaryomyces hansenii and Geotrichum candidum, were higher than those of the aerobic acid-sensitive bacteria. Debaryomyces hansenii reached a level of about 3 × 108 cfu/cm2, and its viability strongly decreased in the late stage of ripening and during storage at 4°C. Two of the inoculated bacterial species, Brevibacterium aurantiacum and Staphylococcus xylosus, did not establish themselves at the cheese surface. At the end of ripening, among the 18 most abundant bacterial species detected by amplicon sequencing, 14 were gram-negative, mainly from genera Psychrobacter, Vibrio, Halomonas, and Mesonia. It was hypothesized that the high moisture level of the Époisses rinds, due the humid atmosphere of the ripening rooms and to the frequent washings of the curds, favored growth of these gram-negative species. These species may be of interest for the development of efficient ripening cultures. In addition, because the orange color of Époisses cheeses could not be attributed to the growth of Brevibacterium, it would be interesting to investigate the type and origin of the pigments that confer color to this cheese.</t>
-  </si>
-  <si>
-    <t>Questionnaires on farming conditions were retrieved from 2129 dairy farms and clustered, resulting in 106 representative raw cow's milk samples analysed in winter and summer. Substantiating the efficiency of our survey, some farming conditions affected the milk physicochemical composition. Culturing identified several species of lactic acid bacteria (LAB) per milk, whose number increased through 16S ribosomal RNA (rRNA) gene sequencing and shotgun metagenome analyses. Season, indoor versus outdoor housing, cow numbers, milk substitutes, ratio cattle/rest area, house care system during lactation, and urea and medium-chain fatty acids correlated with the overall microbiome composition and the LAB diversity within it. Shotgun metagenome detected variations in gene numbers and uniqueness per milk. LAB functional pathways differed among milk samples. Focusing on amino acid metabolisms and matching the retrieved annotated genes versus non-starter lactic acid bacteria (NSLAB) references from KEGG and corresponding to those identified, all samples had the same gene spectrum for each pathway. Conversely, gene redundancy varied among samples and agreed with NSLAB diversity. Milk samples with higher numbers of NSLAB species harboured higher number of copies per pathway, which would enable steady-state towards perturbations. Some farming conditions, which affected the microbiome richness, also correlated with the NSLAB composition and functionality.</t>
-  </si>
-  <si>
-    <t>The microbial composition of the food production environment plays an important role in food safety and quality. This study employed both 16 S rRNA gene sequencing technology and culture-based techniques to investigate the bacterial microbiota of an egg production facility comprising of both free-range and conventional cage housing systems. The study also aimed to detect the presence of Salmonella enterica and determine whether its presence was positively or negatively associated with other taxa. Our findings revealed that microbiota profiles of free-range and cage houses differ considerably in relation to the relative abundance and diversity with a number of taxa unique to each system and to individual sampling sites within sheds. Core to each housing system were known inhabitants of the poultry gastrointestinal tracts, Romboutsia and Turicibacter, as well as common spoilage bacteria. Generally, free-range samples contained fewer taxa and were dominated by Staphylococcus equorum, differentiating them from the cage samples. Salmonella enterica was significantly associated with the presence of a taxa belonging to the Carnobacteriaceae family. The results of this study demonstrate that the diversity and composition of the microbiota is highly variable across egg layer housing systems, which could have implications for productivity, food safety and spoilage.</t>
-  </si>
-  <si>
-    <t>Oysters are one of the main aquatic products sold in coastal areas worldwide and are popular among consumers because of their delicious taste and nutritional value. However, the microorganisms present in oysters may pose health risks to consumers. In this study, the microbial communities of Pacific oysters (Crassostrea gigas) collected from aquatic product markets in three cities (Guangzhou, Zhuhai, and Jiangmen) of Guangdong Province, China, where raw oysters are popular, were investigated. The plate counts of viable bacteria in oysters collected in the three cities were all approximately 2 log colony-forming units/g. High-throughput sequencing analysis of the V3–V4 region of the 16Sribosomal DNA gene showed a high level of microbial diversity in oysters, as evidenced by both alpha and beta diversity analysis. Proteobacteria, Bacteroidetes, and Firmicutes were the dominant phyla of the microorganisms present in these samples. A variety of pathogenic bacteria, including the fatal foodborne pathogen Vibrio vulnificus, were found, and Vibrio was the dominant genus. Additionally, the relationship between other microbial species and pathogenic microorganisms may be mostly symbiotic in oysters. These data provide insights into the microbial communities of retail oysters in the Guangdong region and indicate a considerable risk related to the consumption of raw oysters.</t>
-  </si>
-  <si>
-    <t>Kefir is a high nutritional fermented dairy beverage associated with a wide range of health benefits. It constitutes a unique symbiotic association, comprising mainly lactic acid bacteria, yeasts, and occasionally acetic acid bacteria, which is strongly influenced by the geographical origin of the grains, the type of milk used, and the manufacture technology applied. Until recently, kefir microbiota has been almost exclusively studied by culture-dependent techniques. However, high-throughput sequencing, alongside omics approaches, has revolutionized the study of food microbial communities. In the present study, the bacterial, and yeast/fungal microbiota of four home-made samples (both grains and drinks), deriving from well spread geographical regions of Greece, and four industrial beverages, was elucidated by culture-dependent and -independent analyses. In all samples, classical microbiological analysis revealed varying populations of LAB and yeasts, ranging from 5.32 to 9.60 log CFU mL–1 or g–1, and 2.49 to 7.80 log CFU mL–1 or g–1, respectively, while in two industrial samples no yeasts were detected. Listeria monocytogenes, Salmonella spp. and Staphylococcus spp. were absent from all the samples analyzed, whereas Enterobacteriaceae were detected in one of them. From a total of 123 isolates, including 91 bacteria and 32 yeasts, Lentilactobacillus kefiri, Leuconostoc mesenteroides, and Lactococcus lactis as well as Kluvyeromyces marxianus and Saccharomyces cerevisiae were the mostly identified bacterial and yeast species, respectively, in the home-made samples. On the contrary, Streptococcus thermophilus, Lactobacillus delbrueckii subsp. bulgaricus, and Lacticaseibacillus rhamnosus along with Debaryomyces hansenii and K. marxianus were the main bacterial and yeast species, respectively, isolated from the industrial beverages. In agreement with the identification results obtained from the culture-dependent approaches, amplicon-based metagenomics analysis revealed that the most abundant bacterial genera in almost all home-made samples (both grains and drinks) were Lactobacillus and Lactococcus, while Saccharomyces, Kazachstania, and Kluvyeromyces were the predominant yeasts/fungi. On the other hand, Streptococcus, Lactobacillus, and Lactococcus as well as Kluvyeromyces and Debaryomyces dominated the bacterial and yeast/fungal microbiota, respectively, in the industrial beverages. This is the first report on the microbiota of kefir produced in Greece by a holistic approach combining classical microbiological, molecular, and amplicon-based metagenomics analyses.</t>
-  </si>
-  <si>
-    <t>Aloreña de Málaga is a table olive especially characterised by its natural freshness and short shelf-life. In this work, we applied a metataxonomic approach to unravel the microbial diversity of bacterial and fungi populations through the shelf-life of traditionally packed Aloreña de Málaga. A significant increase in lactic acid bacteria and mesophilic aerobic populations was observed during shelf-life, reaching the maximum population levels (4–5 log10 CFU) at the end of the study (260 days). On the contrary, a rapid reduction in yeast and mould populations was reported. The use of a metataxonomic analysis based on the amplification of 16S (bacteria) and internal transcribed spacer (ITS) region (fungi) regions revealed a low diversity for both microbial groups. Lactiplantibacillus (65.05 ± 8.65% in brine vs. 58.70 ± 15.70% in fruit), Pediococcus (28.17 ± 7.36% in brine vs. 27.20 ± 15.95% in fruit), and Celerinatantimonas (4.64 ± 1.08% in brine vs. 11.82 ± 18.17% in fruit) were the main genera found among bacteria, and an increase in Lactiplantibacillus and a reduction in Celerinatantimonas populations during the shelf-life were observed. On the other hand, Citeromyces was the dominant fungi genus (54.11 ± 2.00% in brine vs. 50.91 ± 16.14% in fruit), followed by Candida (8.80 ± 2.57% in brine vs. 12.32 ± 8.61% in fruit) and Penicillium (6.48 ± 1.87% vs. 8.48 ± 4.43% in fruit). No food-borne pathogen genera were detected in any of the samples analysed, indicating the high level of food safety found in this ready-to-eat fermented vegetable. Data obtained in this work will help in the design of new strategies for the control of microbial populations during the shelf-life of Aloreña de Málaga.</t>
-  </si>
-  <si>
-    <t>Olives are among the main components of the Mediterranean diet, rich in micronutrients and powerful antioxidants; their unique organoleptic properties and high nutritional value have increased table olive consumption worldwide. The purpose of this work was to study the microbiological and biochemical changes in Greek-style ‘Kalamata’ table olives, throughout different time-points of the shelf life of the product, packaged under modified atmosphere. Results revealed the prevalence of lactic acid bacteria (Lactobacillus spp.) from T0 and after the end of the product's shelf life, with L. parafarraginis being the dominant species, ranging from 37.8% to 49.8%. Concerning the eukaryotic populations, antagonistic interactions were observed among the dominant genera i.e. Pichia, Cladosporium and Saccharomyces. While Candida pseudolambica was the most abundant species up to T6, it was gradually displaced by Brettanomyces custersianus at T12 and T18. The significant decrease of total phenol content and a-tocopherol at T12, reflected the increment of Lactobacillus and yeast populations. The dominance of Lactobacillus spp. And B. custersianus at T18 was also depicted on the significant increase of hydroxytyrosol. The content of some fatty acids was shown to be affected by the yeast populations while the concentration of maslinic and oleanolic acid remained intact throughout storage. The combined approach of amplicon metabarcoding and biochemical analyses of naturally fermented olives packaged under modified atmosphere, enabled us to better understand the microbial competitions and interactions and the biochemical changes that accompany these transitions, hence, defining the quality of the end product offered to the consumer.</t>
-  </si>
-  <si>
-    <t>Maize meal was allowed to undergo uncontrolled fermentation in the laboratory, in simulation of the traditional method of fermentation as practised in most African households. During the fermentation process, samples were collected daily for 11 days. Physico-chemical analysis of the fermenting slurry and metagenomics analysis of the microbial community using 16S rRNA demonstrated an interrelationship between the changes in the properties of the fermentation environment and the successional interplay of the microbial community. The first 24 h of fermentation at pH of 6.5 was characterised by the proliferation of probiotic Lactobacillus and Bifidobacterium, with their relative abundance being 40.7% and 29.9%, respectively. However, prolonged fermentation and a drop in pH from 5.3 to 3.7 caused a decline and finally an absence of these probiotic bacteria which were replaced by Clostridium spp. with a relative abundance of between 97% and 99% from day 5 to day 11. This study demonstrated that prolonged fermentation of maize meal is not ideally suited for the proliferation of probiotic nutritionally beneficial bacteria.</t>
-  </si>
-  <si>
-    <t>A primary goal of modern cheese manufacturing is consistent product quality. One aspect of product quality that remains poorly understood is the variability of microbial subpopulations due to temporal or facility changes within cheese production environments. Therefore, our aim was to quantify this variability by measuring day-day and facility-facility changes in the cheese facility microbiome. In-process product (i.e., milk and cheese) and food-contact surfaces were sampled over the course of three production days at three cheese manufacturing facilities. Microbial communities were characterized using 16S rRNA metabarcoding and by plating on selective growth media. Each facility produced near-identical Cheddar cheese recipes on near-identical processing equipment during the time of sampling. Each facility also used a common pool of Lactococcus starter cultures which were rotated daily as groups of 4–5 strains and selected independently at each facility. Diversity analysis revealed significant facility-facility and day-day differences at each sample location. Facility differences were greatest on the food contact surfaces (i.e., draining-matting conveyor belts), explaining between 25 and 41% of the variance. Conversely, daily differences within each facility explained a greater proportion of the variance in the milk (20% vs. 12%) and cheese (29% vs. 20%). Further investigation into the sources of these differences revealed the involvement of several industrially relevant bacteria, including lactobacilli, which play a central role in flavor and texture development during Cheddar cheese ripening. Additionally, Streptococcus was found to contribute notably to differences observed in milk samples, whereas Acinetobacter, Streptococcus, Lactococcus, Exiguobacterium, and Enterobacteriaceae contributed notably to differences on the food contact surfaces. Facility differences in the cheese were overwhelmingly attributed to the rotation of Lactococcus starter cultures, thus highlighting circumstances where daily microbial shifts could be misinterpreted and emphasizing the importance of repeated sampling over time. The outcomes of this work highlight the complexity of the cheese facility microbiome and demonstrate daily and facility-facility microbial variations which might impact cheese product quality.</t>
-  </si>
-  <si>
-    <t>During spontaneous meat fermentation, diverse microbial communities develop over time. These communities consist mainly of lactic acid bacteria (LAB) and coagulase-negative staphylococci (CNS), of which the species composition is influenced by the fermentation temperature and the level of acidification. Recent development and application of amplicon-based high-throughput sequencing (HTS) methods have allowed to gain deeper insights into the microbial communities of fermented meats. The aim of the present study was to investigate the effect of different fermentation temperatures and acidification profiles on the CNS communities during spontaneous fermentation, using a previously developed amplicon-based HTS method targeting both the 16S rRNA and tuf genes. Spontaneous fermentations were performed with five different lots of meat to assess inter-lot variability. The process influence was investigated by fermenting the meat batters for seven days at different fermentation temperatures (23 °C, 30 °C, and 37 °C) and in the absence or presence of added glucose to simulate different acidification levels. Additionally, the results were compared with a starter culture-initiated fermentation process. The data revealed that the fermentation temperature was the most influential processing condition in shaping the microbial communities during spontaneous meat fermentation processes, whereas differences in pH were only responsible for minor shifts in the microbial profiles. Furthermore, the CNS communities showed a great level of variability, which depended on the initial microbial communities present and their competitiveness.</t>
-  </si>
-  <si>
-    <t>Cyprus traditional sausages from the Troodos mountainous region of Pitsilia gained the protected geographical indication (PGI) designation from the European Committee (EU 2020/C 203/06). Still, we lack authentication protocols for the distinction of “Pitsilia” from industrially produced Cyprus sausages. Microbial activity is an essential contributor to traditional sausages’ sensorial characteristics, but whether the microbial patterns might be associated with the area of production is unclear. In the present research, we applied high-throughput sequencing (HTS) to provide a linkage between the area of production and Cyprus sausages’ bacterial diversity. To strengthen our findings, we used three different DNA extraction commercial kits: (i) the DNeasy PowerFood Microbial Kit (QIAGEN); (ii) the NucleoSpin Food Kit (MACHEREY-NAGEL); and (iii) the blackPREP Food DNA I Kit (Analytik Jena), in which we applied three different microbial cell wall lysis modifications. The modifications included heat treatment, bead beating, and enzymatic treatment. Results regarding metagenomic sequencing were evaluated in terms of number of reads, alpha diversity indexes, and taxonomic composition. The efficacy of each method of DNA isolation was assessed quantitatively based on the extracted DNA yield and the obtained copy number of (a) the 16S rRNA gene, (b) the internal transcribed spacer (ITS) region, and (c) three Gram-positive bacteria that belong to the genera Latilactobacillus (formerly Lactobacillus), Bacillus, and Enterococcus via absolute quantification using qPCR. Compared with some examined industrial sausages, Pitsilia sausages had significantly higher bacterial alpha diversity (Shannon and Simpson indexes). Principal coordinates analysis separated the total bacterial community composition (beta diversity) of the three Pitsilia sausages from the industrial sausages, with the exception of one industrial sausage produced in Pitsilia, according to the manufacturer. Although the eight sausages shared the abundant bacterial taxa based on 16S rDNA HTS, we observed differences associated with bacterial diversity representation and specific genera. The findings indicate that the microbial communities may be used as an additional tool for identifying of the authenticity of Cypriot sausages.</t>
-  </si>
-  <si>
-    <t>Although refrigeration and modified-atmosphere packaging (MAP) allow for an extended shelf life of cooked charcuterie products, they are still susceptible to bacterial spoilage. To obtain better insights into factors that govern product deterioration, ample information is needed on the associated microbiota. In this study, sliced MAP cooked ham and cooked chicken samples were subjected to culture-dependent and culture-independent microbial analysis. In total, 683 bacterial isolates were obtained and identified from 60 samples collected throughout the storage period. For both charcuterie types, lactic acid bacteria (LAB) constituted the most abundant microbial group. In cooked ham, Brochothrix thermosphacta was highly abundant at the beginning of the shelf-life period, but was later overtaken by Leuconostoc carnosum and Lactococcus piscium. For cooked chicken products, Latilactobacillus sakei was most abundant throughout the entire period. Additionally, 13 cooked ham and 16 cooked chicken samples were analyzed using metabarcoding. Findings obtained with this method were generally in accordance with the results from the culture-dependent approach, yet they additionally demonstrated the presence of Photobacterium at the beginning of the shelf-life period in both product types. The results indicated that combining culture-dependent methods with metabarcoding can give complementary insights into the evolution of microorganisms in perishable foods.</t>
-  </si>
-  <si>
-    <t>Cantaloupe melons, which have been responsible of an increasing number of foodborne disease outbreaks, may become contaminated with microbial pathogens during production. However, little information is available on the microbial populations in the cantaloupe farm environment. The purpose of this work was to characterize the bacterial communities present on cantaloupe farms. Fruit, soil, and harvester hand rinsates were collected from two Mexican cantaloupe farms, each visited three times. Microbiome analysis was performed by sequencing 16sRNA and analyzed using qiime2 software. Correlations were determined between sample type and microbial populations. The α and β diversity analysis identified 2777 sequences across all samples. The soil samples had the highest number and diversity of unique species (from 130 to 1329 OTUs); cantaloupe (from 112 to 205 OTUs), and hands (from 67 to 151 OTUs) had similar diversity. Collectively, Proteobacteria was the most abundant phyla (from 42 to 95%), followed by Firmicutes (1–47%), Actinobacteria (&lt; 1 to 23%), and Bacteroidetes (&lt; 1 to 4.8%). The most abundant genera were Acinetobacter (20–58%), Pseudomonas (14.5%), Erwinia (13%), and Exiguobacterium (6.3%). Genera with potential to be pathogenic included Bacillus (4%), Salmonella (0.85%), Escherichia-Shigella (0.38%), Staphylococcus (0.32%), Listeria (0.29%), Clostridium (0.28%), and Cronobacter (0.27%), which were found at lower frequencies. This study provides information on the cantaloupe production microbiome, which can inform future research into critical food safety issues such as antimicrobial resistance, virulence, and genomic epidemiology.</t>
-  </si>
-  <si>
-    <t>Microbiomes can greatly affect the quality of fermented food and beverages, including tea. In this study, microbial populations were characterized during black and green tea manufacturing, revealing that tea processing steps can drive both the bacterial and fungal community structure. Tea leaves were found to mostly harbor Proteobacteria, Bacteriodetes, Firmicutes, and Actinobacteria among bacteria and Ascomycetes among fungi. During processing, tea microbial populations changed especially between sterilized and unsterilized samples. The surface sterilization of fresh leaves before processing can remove many microbes, especially the bacteria of the genera Sphingomonas and Methylobacteria, indicating that these are mostly phylloplane microbes on tea leaves. The surface sterilization removed most fungi, except the Debaryomyces. We also observed a fluctuation in the content of several tea quality-related metabolites during processing. Caffeine and theanine were found in the same quantities in green tea with or without leaf surface sterilization. However, the sterilization process dramatically decreased the content of total catechins and theanine in black tea, indicating that microbes on the surface of tea leaf may be involved in maintaining the formation of these important metabolites during black tea processing.</t>
-  </si>
-  <si>
-    <t>The main goal of this research was to characterize the bacterial diversity of the wooden boards used for aging traditional Sicilian cheeses and to evaluate whether pathogenic bacteria are associated with these surfaces. Eighteen cheese dairy factories producing three traditional cheese typologies (PDO Pecorino Siciliano, PDO Piacentinu Ennese, and Caciocavallo Palermitano) were selected within the region of Sicily. The wooden shelf surfaces were sampled by a destructive method to detach wood splinters as well as by a nondestructive brushing to collect microbial cells. Scanning electron microscopy showed the presence of almost continuous bacterial formations on the majority of the shelves analyzed. Yeasts and fungal hyphae were also visualized, indicating the complexity of the plank communities. The amplicon library of the 16S rRNA gene V3-V4 region was paired-end sequenced using the Illumina MiSeq system, allowing the identification of 14 phyla, 32 classes, 52 orders, 93 families, and 137 genera. Staphylococcus equorum was identified from all wooden surfaces, with a maximum abundance of 64.75%. Among cheese-surface-ripening bacteria, Brevibacterium and Corynebacterium were detected in almost all samples. Several halophilic (Halomonas, Tetragenococcus halophilus, Chromohalobacter, Salimicrobium, Marinococcus, Salegentibacter, Haererehalobacter, Marinobacter, and Idiomarinaceae) and moderately halophilic (Salinicoccus, Psychrobacter, and Salinisphaera) bacteria were frequently identified. Lactic acid bacteria (LAB) were present at low percentages in the genera Leuconostoc, Lactococcus, Lactobacillus, Pediococcus, and Streptococcus. The levels of viable microorganisms on the wooden shelves ranged between 2.4 and 7.8 log CFU/cm2. In some cases, LAB were counted at very high levels (8.2 log CFU/cm2). Members of the Enterobacteriaceae family were detected in a viable state for only six samples. Coagulase-positive staphylococci, Salmonella spp., and Listeria monocytogenes were not detected. Seventy-five strains belonged to the genera Leuconostoc, Lactococcus, Pediococcus, Enterococcus, Lactobacillus, and Weissella. IMPORTANCE This study provides evidence for the lack of pathogenic bacteria on the wooden shelves used to ripen internal bacterially ripened semihard and hard cheeses produced in Sicily. These three cheeses are not inoculated on their surfaces, and surface ripening is not considered to occur or, at least, does not occur at the same extent as surface-inoculated smear cheeses. Several bacterial groups identified from the wooden shelves are typically associated with smear cheeses, strongly suggesting that PDO Pecorino Siciliano, PDO Piacentinu Ennese, and Caciocavallo Palermitano cheese rind contributes to their final organoleptic profiles.</t>
-  </si>
-  <si>
-    <t>This study aimed to explore the bacterial diversity of smoked fish and smoked-dried fish. Forty-eight fish samples were collected from various processing sites and markets in Benin. The bacterial diversity was analyzed using high-throughput sequencing of the 16S rRNA gene on the Illumina MiSeq platform. In total, 16 bacterial phyla were identified across all samples, with the majority of sequences belonging to Firmicutes (43.3%) and Proteobacteria (43.6%). Families, Staphylococcaceae, Moraxellaceae, Planococcaceae, Enterobacteriaceae, Vibrionaceae, and Bartonellaceae, were well represented. A total of 384 distinct genera was identified, with the most abundant represented by the Gram-negative, Acinetobacter, Bartonella, Enterobacter, Morganella, and Photobacterium, and the Gram-positive, Aerococcus, Bacillus, Kurthia, Macrococcus, Staphylococcus, and Weissella. OTUs related to pathogenic bacteria, such as Salmonella spp., Staphylococcus aureus, and Listeria monocytogenes, were not detected in these popular foods sold in street markets in Benin. However, the presence of potentially harmful histamine-producing bacteria has been revealed. Practical application In West Africa, fish is mainly preserved by hot smoking, which can be followed by an additional drying step using the heat that emanates from the kiln. Although several studies have investigated the microbiological quality of smoked and smoked-dried fish, their overall microbial diversity has remained so far poorly explored. Therefore, this study has investigated the bacterial diversity of these popular foods. The results of this work provide useful information on bacteria potentially participating in food spoilage or compromising the safety of these popular foods and can be useful for improving their quality and safety.</t>
-  </si>
-  <si>
-    <t>Microbes play key roles in animal welfare and food safety but there is little understanding of whether microbiomes associated with livestock vary in space and time. Here we analysed the bacteria associated with the carcasses of the same breed of 28 poultry broiler flocks at different stages of processing across two climatically similar UK regions over two seasons with 16S metabarcode DNA sequencing. Numbers of taxa types did not differ by region, but did by season (P = 1.2 × 10−19), and numbers increased with factory processing, especially in summer. There was also a significant (P &lt; 1 × 10−4) difference in the presences and abundances of taxa types by season, region and factory processing stage, and the signal for seasonal and regional differences remained highly significant on final retail products. This study therefore revealed that both season and region influence the types and abundances of taxa on retail poultry products. That poultry microbiomes differ in space and time should be considered when testing the efficacy of microbial management interventions designed to increase animal welfare and food safety: these may have differential effects on livestock depending on location and timing.</t>
-  </si>
-  <si>
-    <t>Black glutinous rice wine (BGRW) is a popular traditional Chinese rice wine; however, the flavors profiles associated with microbiota changes during its fermentation have not yet been evaluated. In this study, we explored the correlations between microbial communities with physicochemical properties and flavor components during BGRW fermentation. High-throughput sequencing was used to identify the microbial community composition of BGRW at different fermentation stages, and physicochemical properties and volatile flavor compounds (VFCs) were identified via fermentation features testing and headspace solid phase microextraction gas chromatography mass spectrometry. First, we revealed Pantoea and Kosakonia predominated bacterial genera the early stage of BGRW fermentation, Leuconostoc, Pediococcus, Bacillus, and Lactobacillus predominated bacterial genera the later stage, while Rhizopus and Saccharomyces were the predominant fungal genera throughout fermentation. Second, total sugars, titratable acids, pH, ethanol, amino acid nitrogen, and 43 VFCs were detected during fermentation. Twenty-three VFCs were differentially produced according to the linear discriminant analysis effect size method. With the increase of the fermentation time, the kinds and contents of esters and alcohols were also increased, while acids decreased. Moreover, 12 microbial genera, Lactococcus, Pediococcus, Leuconostoc, Lactobacillus, Cronobacter, Pantoea, Weissella, Enterococcus, Rhizopus, Myceliophthora, Cystofilobasidium, and Aspergillus were found to be highly correlated (|ρ| &gt; 0.7 and P &lt; 0.05) with physicochemical properties and VFCs, by redundancy analysis (RDA) and two-way orthogonal partial least squares (O2PLS) analysis. Ultimately, based on the results, a metabolic map of dominant genera in BGRW was established. Our findings provided detailed information on the dynamic changes of physicochemical properties and VFCs and selection of beneficial strains to improve the quality of BGRW.</t>
-  </si>
-  <si>
-    <t>Robiola di Roccaverano is a Protected Designation of Origin (PDO) soft cheese produced with raw goat’s milk, in the Roccaverano area of the Piedmont region (North–West Italy) by a consortium of 15 dairies following strict procedural guidelines. During the cheese manufacturing process, raw milk from two subsequent milking sessions (evening and morning) is inoculated with Natural Milk Cultures (NMCs), obtained by back-slopping process in which the previous days’ fermented material is inoculated into the fresh milk to start the production process. Then, the material is also inoculated with animal rennet and left to coagulate for 8–36 h at room temperature. Molding procedure takes place in perforated plastic containers for 24–48 h, where the cheeses are periodically turned over to allow the whey to release and manually dry salted in both sides (Gazzetta Ufficiale della Repubblica Italiana, 2013). Robiola di Roccaverano can be consumed as fresh cheese after 5 days from the beginning of production or ripened for 15 days. During the production of Robiola di Roccaverano, the cheesemakers naturally select the best performing NMC that are well adapted to the dairy environment, able to ensure reproducibility and standardization of the final product without losing its typicality. Therefore, the sensory characteristics of Robiola di Roccaverano are highly influenced by the action of the microorganism deriving from raw milk and NMC (Biolcati et al., 2019, 2020, 2021), as well as by contaminating microorganisms often deriving from sources such as operators, dairy equipment, and environment (Montel et al., 2014). Despite understudied, the fungal composition of the dairy products, commonly referred to as mycobiota, could strongly influence the composition of the final cheese and must be considered for a better characterization of PDO cheese. In this work, the microbiome, both bacterial and fungal composition, of Robiola di Roccaverano has been studied by means of High Throughput Sequencing (HTS) approach. Cheese samples from different cheesemakers have been collected since the bacterial microbiota and the mycobiota may be associated with the geographical area, season, dairy environment, or raw materials used for the production. Nevertheless, due to the strict manufacture guidelines, it might be possible to define a common core microbial population, typical of Robiola di Roccaverano PDO cheese.</t>
-  </si>
-  <si>
-    <t>Lactic acid bacteria (LAB) decisively influence the technological, nutritional, organoleptic and preservation properties of bakery products. Therefore, their use has long been considered an excellent strategy to improve the characteristics of those goods. The aim of this study was the evaluation of microbial diversity in different doughs used for the production of a typical Apulian flatbread, named focaccia. Leavening of the analyzed doughs was obtained with baker’s yeast or by applying an innovative “yeast-free” protocol based on a liquid sourdough obtained by using Leuconostoc citreum strain C2.27 as a starter. The microbial populations of the doughs were studied by both a culture-dependent approach and metagenetic analyses. The flours used for dough preparation were also subjected to the same analyses. The metagenetic analyses were performed by sequencing the V5–V6 hypervariable regions of the 16S rRNA gene and the V9 hypervariable region of the 18S rRNA gene. The results indicate that these hypervariable regions were suitable for studying the microbiota of doughs, highlighting a significant difference between the microbial community of focaccia dough with baker’s yeast and that of the dough inoculated with the bacterial starter. In particular, the dough made with baker’s yeast contained a microbiota with a high abundance of Proteobacteria (82% of the bacterial population), known to be negatively correlated with the biochemical properties of the doughs, while the Proteobacteria in dough produced with the L. citreum starter were about 43.5% lower than those in flour and dough prepared using baker’s yeast. Moreover, the results show that the L. citreum C2.27 starter was able to dominate the microbial environment and also reveal the absence of the genus Saccharomyces in the dough used for the production of the “yeast-free” focaccia. This result is particularly important because it highlights the suitability of the starter strain for obtaining an innovative “yeast-free” product.</t>
-  </si>
-  <si>
-    <t>The microbial community is one of the most important factors in shaping the characteristics of fermented food. Nuodeng ham, traditionally produced and subjected to 1–4 years of fermentation, is a dry fermented food product with cultural and economic significance to locals in southwestern China. In this study, we aimed to characterize the microbiota and physicochemical profiles of Nuodeng ham across different stages of fermentation. Ham samples from each of the four years were analyzed by sequencing bacterial 16S rRNA gene and fungal internal transcribed spacer sequence, in order to characterize the diversity and composition of their microflora. A total of 2,679,483 bacterial and 2,983,234 fungal sequences of high quality were obtained and assigned to 514 and 57 genera, respectively. Among these microbes, Staphylococcus and Candida were the most abundant genera observed in the ham samples, though samples from different years showed differences in their microbial abundance. Results of physicochemical properties (pH, water, amino acid, NaCl, nitrate and nitrite contents, and the composition of volatile compounds) revealed differences among the ham samples in the composition of volatile compounds, especially in the third year samples, in which no nitrite was detected. These results suggest that the structure and diversity of microbial communities significantly differed across different stages of fermentation. Moreover, the third year hams exhibits a unique and balanced microbial community, which might contribute to the special flavor in the green and safe food products. Thus, our study lends insights into the production of high quality Nuodeng ham.</t>
-  </si>
-  <si>
-    <t>Kimchi is a fermented food prepared via spontaneous fermentation by lactic acid bacteria originating from raw ingredients. To investigate the effect of these ingredients on food fermentation, four types of food that differed only in their main raw ingredients (kimchi cabbage, green onion, leaf mustard, and young radish) were evaluated. The major microorganisms were Leuconostoc gelidum, Weissella kandleri, and Lactobacillus sakei groups. The distribution of these species depended on the sample type. All three species were primarily distributed in the food prepared from kimchi cabbage and young radish; however, the Lac. sakei group was hardly found in the food prepared using green onion and leaf mustard. Metabolite analysis results showed that the free sugar, organic acid, ethanol, and amino acid profiles differed with the sample type. This study indicates that the main ingredients could be an important factor in determining the composition of the microbial community and the metabolite composition.</t>
-  </si>
-  <si>
-    <t>Sprouts harbor high populations of bacteria and cause numerous foodborne disease outbreaks, yet little is known about their microbial composition. The present study aimed to define the microbiological ecology of sprouts using 16S rRNA microbiome sequencing and culture-dependent methods. Different types (radish, alfalfa, and rapeseed), brands (A, B, and C), and distribution routes (online and offline) of sprouts (n = 70) were considered for microbiome analysis, as well as quantitative (aerobic plate count and coliforms) and qualitative analyses (Escherichia coli O157:H7, Listeria monocytogenes, and Salmonella Typhimurium). The aerobic plate count ranged from 7 to 8 CFU/g, and the coliforms ranged from 6 to 7 log CFU/g. Microbiome analysis revealed that Proteobacteria was the dominant phylum, accounting for 79.0% in alfalfa sprouts, 68.5% in rapeseed sprouts, and 61.9% in radish sprouts. Enterobacteriaceae was the dominant family in alfalfa sprouts (33.9%) and rapeseed sprouts (14.6%), while Moraxellaceae (11.9%) were prevalent on radish sprouts. The majority of the dominant genera were common in the environment, such as soil or water. Alfalfa sprouts yielded the lowest aerobic plate count but the highest relative abundance of Enterobacteriaceae compared to the other sprouts. These results could explain why alfalfa sprouts are a leading cause of sprout-related foodborne disease outbreaks. Alpha-diversity results (Chao1 and Shannon indices) suggested that species richness was greater on radish sprouts than the other sprout types. Beta-diversity results showed samples were clustered by types, indicating dissimilarity in microbial communities. However, the distribution route had a limited influence on microbial composition. The present study provides a comparative examination of the microbial profiles of sprouts. Microbiome analyses contribute to an in-depth understanding of the microbial ecology of sprouts, leading to potential control measures for ensuring food safety.</t>
-  </si>
-  <si>
-    <t>Wine production in Cyprus has strong cultural ties with the island’s tradition, influencing local and foreign consumers’ preferences and contributing significantly to Cyprus’ economy. A key contributor to wine quality and sensorial characteristics development is the microbiota that colonizes grapes and performs alcoholic fermentation. Still, the microbial patterns of wines produced in different geographic regions (terroir) in Cyprus remain unknown. The present study investigated the microbial diversity of five terroirs in Cyprus, two from the PGI Lemesos region [Kyperounta (PDO Pitsilia) and Koilani (PDO Krasochoria)], and three from the PGI Pafos region [Kathikas (PDO Laona Akamas), Panayia, and Statos (PDO Panayia)], of two grape varieties, Xynisteri and Maratheftiko, using high-throughput amplicon sequencing. Through a longitudinal analysis, we examined the evolution of the bacterial and fungal diversity during spontaneous alcoholic fermentation. Both varieties were characterized by a progressive reduction in their fungal alpha diversity (Shannon index) throughout the process of fermentation. Additionally, the study revealed a distinct separation among different terroirs in total fungal community composition (beta-diversity) for the variety Xynisteri. Also, Kyperounta terroir had a distinct total fungal beta-diversity from the other terroirs for Maratheftiko. Similarly, a significant distinction was demonstrated in total bacterial diversity between the PGI Lemesos region and the PGI Pafos terroirs for grape juice of the variety Xynisteri. Pre-fermentation, the fungal diversity for Xynisteri and Maratheftiko was dominated by the genera Hanseniaspora, Aureobasidium, Erysiphe, Aspergillus, Stemphylium, Penicillium, Alternaria, Cladosporium, and Mycosphaerella. During and post-fermentation, the species Hanseniaspora nectarophila, Saccharomyces cerevisiae, Hanseniaspora guilliermondii, and Aureobasidium pullulans, became the predominant in most must samples. Regarding the bacterial diversity, Lactobacillus and Streptococcus were the predominant genera for both grape varieties in all stages of fermentation. During fermentation, an increase was observed in the relative abundance of some bacteria, such as Acetobacter, Gluconobacter, and Oenococcus oeni. Finally, the study revealed microbial biomarkers with statistically significant higher relative representation, associated with each geographic region and each grape variety, during the different stages of fermentation. The present study’s findings provide an additional linkage between the grape microbial community and the wine terroir.</t>
-  </si>
-  <si>
-    <t>In this study, we investigated the variation in the microbial community present in bulk tank milk samples and the potential effect of different farm management factors. Bulk tank milk samples were collected repeatedly over one year from 42 farms located in northern Sweden. Total and thermoresistant bacteria counts and 16S rRNA gene-based amplicon sequencing were used to characterize microbial community composition. The microbial community was in general heterogeneous both within and between different farms and the community composition in the bulk tank milk was commonly dominated by Pseudomonas, Acinetobacter, Streptococcus, unclassified Peptostreptococcaceae, and Staphylococcus. Principal component analysis including farm factor variables and microbial taxa data revealed that the microbial community in milk was affected by type of milking system. Milk from farms using an automatic (robot) milking system (AMS) and loose housing showed different microbial community composition compared with milk from tiestall farms. A discriminant analysis model revealed that this difference was dependent on several microbial taxa. Among farms using an automatic milking system, there were further differences in the microbial community composition depending on the brand of the milking robot used. On tiestall farms, routines for teat preparation and cleaning of the milking equipment affected the microbial community composition in milk. Total bacteria count (TBC) in milk differed between the farm types, and TBC were higher on AMS than tiestall farms (log 4.05 vs. log 3.79 TBC/mL for AMS and tiestalls, respectively). Among tiestall farms, milk from farms using a chemical agent in connection to teat preparation and a more frequent use of acid to clean the milking equipment had lower TBC in milk, than milk from farms using water for teat preparation and a less frequent use of acid to clean the milking equipment (log 3.68 vs. 4.02 TBC/mL). There were no significant differences in the number of thermoresistant bacteria between farm types. The evaluated factors explained only a small proportion of total variation in the microbiota data, however, despite this, the study highlights the effect of routines associated with teat preparation and cleaning of the milking equipment on raw milk microbiota, irrespective of type of milking system used.</t>
-  </si>
-  <si>
-    <t>Zoning is typically adopted by food manufacturers and classified into three different zones including Zone 1 (food contact surface), Zone 2 (proximity to food and food contact surfaces) and Zone 3 (remote surfaces from processing). In this study, environmental surfaces belonging to these three zones were sampled during food processing in a fresh-cut vegetables (FVs) processing facility located in Beijing, China. Bacterial loads in terms of aerobic plate count and coliform count were evaluated by culture-dependent techniques. The profile and diversity of bacterial community in these three zones were investigated by high-throughput sequencing. Zone 1 showed similar microbiota and predominated by Pseudomonas and Acinetobacter, while the predominant genera on Zone 2 or 3 were quite varied among different processing steps. The SourceTracker analysis showed that most of the bacteria (above 80%) on surfaces were from unknown sources, while sorting and disinfection &amp; cleaning steps contributed equally to the bacterial community of cutting areas. Microbial association network analysis revealed strong positive interactions of Comamonas and Janthinobacterium with Myroides and Serratia, respectively, whereas Pseudomonas showed no significant correlation with other genera. The function of microbial communities was predicted based on BugBase 16S rRNA database, and the results indicated that the proportions of potential biofilm-forming bacteria were above 70% in all samples, and species of Pseudomonas, Comamonas, Chryseobacterium and Janthinobacterium were opportunistic pathogens or spoilage bacteria. This study evaluated the bacteria risks including bacterial load, composition, as well as potential bacterial interaction, function and microbial transfer on food processing surfaces, which will facilitate our better understanding on the cross-contaminations and preventions of harmful microorganism in FVs processing industry.</t>
-  </si>
-  <si>
-    <t>Background Next-generation sequencing (NGS) methods and especially 16S rRNA gene amplicon sequencing have become indispensable tools in microbial ecology. While they have opened up new possibilities for studying microbial communities, they also have one drawback, namely providing only relative abundances and thus compositional data. Quantitative PCR (qPCR) has been used for years for the quantification of bacteria. However, this method requires the development of specific primers and has a low throughput. The constraint of low throughput has recently been overcome by the development of high-throughput qPCR (HT-qPCR), which allows for the simultaneous detection of the most prevalent bacteria in moderately complex systems, such as cheese and other fermented dairy foods. In the present study, the performance of the two approaches, NGS and HT-qPCR, was compared by analyzing the same DNA samples from 21 Raclette du Valais protected designation of origin (PDO) cheeses. Based on the results obtained, the differences, accuracy, and usefulness of the two approaches were studied in detail. Results The results obtained using NGS (non-targeted) and HT-qPCR (targeted) show considerable agreement in determining the microbial composition of the cheese DNA samples studied, albeit the fundamentally different nature of these two approaches. A few inconsistencies in species detection were observed, particularly for less abundant ones. The detailed comparison of the results for 15 bacterial species/groups measured by both methods revealed a considerable bias for certain bacterial species in the measurements of the amplicon sequencing approach. We identified as probable origin to this PCR bias due to primer mismatches, variations in the number of copies for the 16S rRNA gene, and bias introduced in the bioinformatics analysis. Conclusion As the normalized microbial composition results of NGS and HT-qPCR agreed for most of the 21 cheese samples analyzed, both methods can be considered as complementary and reliable for studying the microbial composition of cheese. Their combined application proved to be very helpful in identifying potential biases and overcoming methodological limitations in the quantitative analysis of the cheese microbiota.</t>
-  </si>
-  <si>
-    <t>In the present study, bacterial and fungal diversity, as well as volatile profiles, of ready-to-eat Portuguese Painho de Porco Preto fermented sausages manufactured by two artisanal producers in the districts of Beja (producer A) and Evora (producer B) were studied. To this end, different selective growth media and a metataxonomic analysis were combined with Headspace Solid-Phase Microextraction-Gas Chromatography/Mass Spectrometry (HS-SPME-GC/MS) analysis. The results of the microbiological viable counts revealed active microbial populations of lactic acid bacteria (up to 8 Log cfu g−1), coagulase negative cocci (up to 6 Log cfu g−1), and eumycetes (up to 6 Log cfu g−1). Bacterial populations were characterized by high relative frequencies of Latilactobacillus sakei (up to 72%), together with Weissella and Staphylococcus equorum. The mycobiota was mainly dominated by Debaryomyces hansenii (up to 55% of the relative frequency) and Kurtzmaniella zeylanoides (up to 24% of the relative frequency). Unexpected species as Wickerhamomyces subpelliculosus and Zygosaccharomyces rouxii were also detected. HS-SPME-GC/MS analysis allowed to identify a complex volatile profile, showing 159 volatile organic compounds (VOCs). VOCs belonged to twelve classes, such as aldehydes, ketones and lactones, esters and acetates, alcohols, terpenoids, sulfur compounds, aliphatic hydrocarbons, aromatic hydrocarbons, nitrogen compounds, acids, furans and pyrans, and phenols. The analysis of VOCs composition provided evidence that samples from the two producers (A and B) were different, as confirmed by the Principal Component Analysis. Hence, it is likely that the raw materials used, as well as variations related with the empirical practice of the butchers, strongly influenced the final product. The results obtained in the present study represent a further advancement in the knowledge on the biodiversity and VOCs composition of Portuguese fermented sausages. To better understand the interactions occurring between the autochthonous microorganisms and the meat batter in the Painho de Porco Preto fermented sausage, microbial and VOCs dynamics must be further deepened throughout the production process.</t>
-  </si>
-  <si>
-    <t>Prior to the advent of milk pasteurization and the use of defined-strain starter cultures, the production and ripening of cheese relied on the introduction and growth of adventitious microbes from the environment. This study characterized microbial community structures throughout a traditional farmstead cheese production continuum and evaluated the role of the environment in microbial transfer. In total, 118 samples (e.g., raw milk, cheese, and environmental surfaces) were collected from milk harvesting through cheese ripening. Microbial communities were characterized based on amplicon sequencing of bacterial 16S rRNA and fungal internal transcribed spacer genes using the Illumina MiSeq platform. Results indicated that the environment in each processing room harbored unique microbial ecosystems and consistently contributed microbes to milk, curd, and cheese. The diverse microbial composition of milk was initially attributed to milker hands and cow teats and then changed substantially following overnight ripening in a wooden vat to one dominated by lactic acid bacteria, including Lactococcus lactis, Lactobacillus, and Leuconostoc, as well as fungi such as Exophiala, Kluyveromyces, and Candida. Additional microbial contributions were attributed to processing tools, but the composition of the cheese paste remained relatively stable over 60 days of ripening. In contrast, rind communities that were largely influenced by direct contact with bamboo aging mats showed a distinct succession pattern compared to the interior sections. Overall, these findings highlight the critical role of traditional tools and practices in shaping the microbial composition of cheese and broaden our understanding of processing environments as important sources of microbes in food. IMPORTANCE Throughout the 20th century, especially in the United States, sanitation practices, pasteurization of milk, and the use of commercial defined-strain starter cultures have enhanced the safety and consistency of cheese. However, these practices can reduce cheese microbial diversity. The rapid growth of the artisanal cheese industry in the United States has renewed interest in recapturing the diversity of dairy products and the microbes involved in their production. Here, we demonstrate the essential role of the environment, including the use of wooden tools and cheesemaking equipment, as sources of dominant microbes that shape the fermentation and ripening processes of a traditional farmstead cheese produced without the addition of starter cultures or direct inoculation of any other bacteria or fungi. These data enrich our understanding of the microbial interactions between products and the environment and identify taxa that contribute to the microbial diversity of cheese and cheese production.</t>
-  </si>
-  <si>
-    <t>White truffles are highly valuable, but the aroma is susceptible to change with storage. How volatile composition and microbiome of Tuber magnatum evolve by storage time is poorly understood. Changes in bacterial community and volatile compounds of T. magnatum fruiting bodies with storage time at 23 °C were investigated. Truffles (21 fruiting bodies) were collected from different sites in Italy, Hungary, and Croatia. Single fruiting bodies were subsampled at four time points (day (D)0, 3, 6, and 9). Gas chromatography-mass spectrometry and microbiome composition using PCR-high throughput sequencing were used to analyse the volatiles and bacterial communities, respectively. Spoilage compounds atypical of truffles increased with storage time. Likewise, bacterial communities changed with storage time; families belonging to Xanthobacteraceae dominated at D0 and gradually evolved to more Rhizobiaceae and Pseudomonadaceae by D3 and D6, and finally with more prominent Xanthomonadaceae and Burkholderiaceae at D9. Overall, storage time had increased the diversity of bacterial communities. The microbiome and volatile data were correlated using regularised canonical correlation analysis and determined correlations between 2-methylisoborneol and five bacterial OTUs. Potential candidate bacteria and their volatile metabolites can serve as markers for truffle spoilage. The results highlighted the mechanisms by which the degradation of expensive truffles occur.</t>
-  </si>
-  <si>
-    <t>Budu is a Malaysian fermented anchovy sauce produced by immersing small fishes into a brine solution for 6 to 18 months. Microbial enzymes are known to contribute to fermentation; however, not much is known about the microbial community in Budu. Therefore, a better understanding of the Budu microbiome is necessary to improve the quality, consistency, and safety of the Budu products. In this study, we collected 60 samples from 20 bottles of Budu produced by seven manufacturers. We analyzed their microbiota using V3–V4 16S rRNA amplicon sequencing when we first opened the bottle (month 0), as well as 3 and 7 months post-opening (months 3 and 7). Tetragenococcus was the dominant genus in many samples, reaching a maximum proportion of 98.62%, but was found in low abundance, or absent, in other samples. When Budu samples were not dominated by a dominant taxa, we observed a wider genera diversity such as Staphylococcus, Acinetobacter, Halanaerobium and Bacillus. While the taxonomic composition was relatively stable across sampling periods, samples from two brands showed a sudden increase in relative abundance of the genus Chromobacterium at month 7. Based on prediction of metagenome functions, non-Tetragenococcus-dominated samples were predicted to have enriched functional pathways related to amino acid metabolism and purine metabolism compared to Tetragenococcus-dominated samples; these two pathways are fundamental to fermentation quality and health attributes of fish sauce. Among the non-Tetragenococcus-dominated samples, contributions towards amino acid metabolism and purine metabolism were biased towards the dominant taxa when species evenness is low, while in samples with higher species evenness, the contributions towards the two pathways were predicted to be evenly distributed between taxa. Our results demonstrated that the utility of 16S sequencing to assess batch variation in fermented food production. The distinct microbiota was shown to correlate with characteristic metagenome function including functions potentially related to fermented food nutrition and quality.</t>
-  </si>
-  <si>
-    <t>Microorganisms proliferate, consume nutrients, and produce many undesired metabolites, which are the main reason for the spoilage of fresh meat. Screening spoilage markers is of great significance for characterizing the freshness of fresh meat. At present, there are few studies on the volatile spoilage markers (VSMs) of lamb and their relationship with bacteria. In this study, the spoilage evolution of lamb was evaluated by multiple indicators. The changes of bacteria and volatile organic compounds (VOCs) in aerobic-packaged (AP) and vacuum-packaged (VP) lamb were measured by 16S next-generation sequencing (NGS) and headspace solid-phase microextraction (HS-SPME)-gas chromatography-mass spectrometry (GC-MS) respectively. The potential VSMs were also screened. Results showed that the shelf life of AP lamb at 4 °C was less than 10 d and VP lamb was less than 28 d. Pseudomonas was the dominant bacteria in AP lamb, while Latilactobacillus and Lactococcus were the dominant bacteria in VP lamb. Several VOCs could be recommended as potential spoilage markers, including 1-octen-3-ol, 1-hexanol, nonanal, methoxy-phenyloxime, 2,3-octanedione, acetoin and 1-pentanol for AP lamb; acetoin, 1-hexanol, 2,3-octanedione, hexanoic acid, 1-octen-3-ol, nonanal, hexanal and 2,3-octanediol for VP lamb. This study can provide information for characterizing and predicting the freshness of fresh lamb.</t>
-  </si>
-  <si>
-    <t>Bacterial pathogens, such as Listeria monocytogenes, can show resistance to disinfection and persistence on working surfaces, permitting them to survive and contaminate food products. Persistence—a complex phenomenon involving interactions between many bacteria within a biofilm—is modulated by in situ characteristics. This study aimed to describe, in silico, the microbiota identified in a swine slaughterhouse after sanitation procedures to better understand the presence of L. monocytogenes on these surfaces. Molecular tools for characterization of microbial communities were used to assess the relative contribution of different bacteria resulting from this phenomenon, and the 16S rRNA sequencing method was used on samples from meat conveyor belt surfaces collected on four sampling visits to study the co-occurrence between L. monocytogenes and other bacteria. From the background microbiota, a total of six genera were found to be negatively correlated with Listeria spp., suggesting Listeria growth inhibition, competition, or at least an absence of shared habitats. Based on these results, a complete scenario of interactions of Listeria with components of background microbiota was established. This work contributes to identifying avenues that could prevent the growth and persistence of L. monocytogenes on food-processing surfaces.</t>
-  </si>
-  <si>
-    <t>A low initial contamination level of the meat surface is the sine qua non to extend the subsequent shelf life of ground beef for as long as possible. Therefore, the short- and long-term effects of a pregrinding treatment with electrolyzed water (EW) on the microbiological and physicochemical features of Piedmontese steak tartare were here assessed on site, by following two production runs through storage under vacuum packaging conditions at 4°C. The immersion of muscle meat in EW solution at 100 ppm of free active chlorine for 90 s produced an initial surface decontamination with no side effects or compositional modifications, except for an external color change that was subsequently masked by the grinding step. However, the initially measured decontamination was no longer detectable in ground beef, perhaps due to a quick recovery by bacteria during the grinding step from the transient oxidative stress induced by the EW. We observed different RNA-based metataxonomic profiles and metabolomic biomarkers (volatile organic compounds [VOCs], free amino acids [FAA], and biogenic amines [BA]) between production runs. Interestingly, the potentially active microbiota of the meat from each production run, investigated through operational taxonomic unit (OTU)-, oligotyping-, and amplicon sequence variant (ASV)-based bioinformatic pipelines, differed as soon as the early stages of storage, whereas microbial counts and biomarker dynamics were significantly distinguishable only after the expiration date. Higher diversity, richness, and abundance of Streptococcus organisms were identified as the main indicators of the faster spoilage observed in one of the two production runs, while Lactococcus piscium development was the main marker of shelf life end in both production runs. IMPORTANCE Treatment with EW prior to grinding did not result in an effective intervention to prolong the shelf life of Piedmontese steak tartare. Our RNA-based approach clearly highlighted a microbiota that changed markedly between production runs but little during the first shelf life stages. Under these conditions, an early metataxonomic profiling might provide the best prediction of the microbiological fate of each batch of the product.</t>
-  </si>
-  <si>
-    <t>Mushroom-forming fungi are important sources of food and medicine in many regions of the world, and their development and health are known to depend on various microbes. Recent studies have examined the structure of mushroom-inhabiting bacterial (MIB) communities and their association with local environmental variables, but global-scale diversity and determinants of these communities remain poorly understood. Here we examined the MIB global diversity and community composition in relation to climate, soil and host factors. We found a core global mushroom microbiome, accounting for 30% of sequence reads, while comprising a few bacterial genera such as Halomonas, Serratia, Bacillus, Cutibacterium, Bradyrhizobium and Burkholderia. Our analysis further revealed an important role of host phylogeny in shaping the communities of MIB, whereas the effects of climate and soil factors remained negligible. The results suggest that the communities of MIB and free-living bacteria are structured by contrasting community assembly processes and that fungal–bacterial interactions are an important determinant of MIB community structure.</t>
-  </si>
-  <si>
-    <t>A previous study identified differences in rind aspects between Cantal-type cheeses manufactured from the same skimmed milk, supplemented with cream derived either from pasture-raised cows (P) or from cows fed with maize silage (M). Using an integrated analysis of multiomic data, the present study aimed at investigating potential correlations between cream origin and metagenomic, lipidomic and volatolomic profiles of these Cantal cheeses. Fungal and bacterial communities of cheese cores and rinds were characterized using DNA metabarcoding at different ripening times. Lipidome and volatolome were obtained from the previous study at the end of ripening. Rind microbial communities, especially fungal communities, were influenced by cream origin. Among bacteria, Brachybacterium were more abundant in P-derived cheeses than in M-derived cheeses after 90 and 150 days of ripening. Sporendonema casei, a yeast added as a ripening starter during Cantal manufacture, which contributes to rind typical aspect, had a lower relative abundance in P-derived cheeses after 150 days of ripening. Relative abundance of this fungus was highly negatively correlated with concentrations of C18 polyunsaturated fatty acids and to concentrations of particular volatile organic compounds, including 1-pentanol and 3-methyl-2-pentanol. Overall, these results evidenced original interactions between milk fat composition and the development of fungal communities in cheeses.</t>
-  </si>
-  <si>
-    <t>The aim of the present study was to characterize the bacterial and fungal communities naturally occurring in Queijo da Beira Baixa PDO cheese samples produced in Castelo Branco district (Beira Baixa Region, Portugal) through viable counts and metataxonomic analyses. Physico-chemical and morpho-textural analyses were also carried out, together with the analysis of volatile organic compounds (VOCs). In the analyzed samples, pH values ranged between 4.72 ± 0.15 and 5.85 ± 0.02, with values of lactic acid content comprised between 0.64 ± 0.00 and 1.95 ± 0.16 g 100 g−1. Specific volume of cheese ranged from 1.09 ± 0.08 to 1.32 ± 0.02 g mL−1. Texture profile analysis showed hardness ranging between 38.3 ± 9.6 N and 68.55 ± 7.5 N. As for lactic acid bacteria, presumptive lactococci, thermophilic cocci, and lactobacilli counts up to 9 Log cfu g−1. Coagulase-negative cocci showed counts up to 7 Log cfu g−1. Enterococci counts were up to 6 Log cfu g−1. Finally, counts of eumycetes showed values up to 4 Log cfu g−1. The results of metataxonomic analysis of bacteria showed the dominance of Lactococcus lactis in all the samples. Moreover, other taxa were detected, including Lactiplantibacillus plantarum, Loigolactobacillus coryniformis, Lactococcus piscium, Streptococcus thermophilus, and Lacticaseibacillus zeae. Mycobiota was characterized by the presence of Candida sake, Ustilago, Cladosporium variabile, Starmerella, Debaryomyces hansenii, and Pichia kluyveri. In the analyzed Queijo da Beira Baixa PDO cheese samples, carboxylic acids represented the most detected VOCs, followed by esters, carbonyl compounds, and alcohols.</t>
-  </si>
-  <si>
-    <t>Fish skin-associated microbial communities are highly variable among populations and species and can impact host fitness. Still, the sources of variation in microbiome composition, and particularly how they vary among and within host individuals, have rarely been investigated. To tackle this issue, we explored patterns of variation in fish skin microbiomes across different spatial scales. We conducted replicate sampling of dorsal and ventral body sites of perch (Perca fluviatilis) from two populations and characterized the variation of fish skin-associated microbial communities with 16S rRNA gene metabarcoding. Results showed a high similarity of microbiome samples taken from the left and right side of the same fish individuals, suggesting that fish skin microbiomes can be reliably assessed and characterized even using a single sample from a specific body site. The microbiome composition of fish skin differed markedly from the bacterioplankton communities in the surrounding water and was highly variable among individuals. No ASV was present in all samples, and the most prevalent phyla, Actinobacteria, Bacteroidetes, and Proteobacteria, varied in relative abundance among fish hosts. Microbiome composition was both individual- and population specific, with most of the variation explained by individual host. At the individual level, we found no diversification in microbiome composition between dorsal and ventral body sites, but the degree of intra-individual heterogeneity varied among individuals. To identify how genetic and phenotypic characteristics of fish hosts impact the rate and nature of intra-individual temporal dynamics of the skin microbiome, and thereby contribute to the host-specific patterns documented here, remains an important task for future research.</t>
-  </si>
-  <si>
-    <t>Understanding microbial dispersal is critical to understand the dynamics and evolution of microbial communities. However, microbial dispersal is difficult to study because of uncertainty about their vectors of migration. This applies to both microbial communities in natural and human-associated environments. Here, we studied microbial dispersal along the sourdoughs bread-making chain using a participatory research approach. Sourdough is a naturally fermented mixture of flour and water. It hosts a community of bacteria and yeasts whose origins are only partially known. We analysed the potential of wheat grains and flour to serve as an inoculum for sourdough microbial communities using 16S rDNA and ITS1 metabarcoding. First, in an experiment involving farmers, a miller and bakers, we followed the microbiota from grains to newly initiated and propagated sourdoughs. Second, we compared the microbiota of 46 sourdough samples collected everywhere in France, and of the flour used for their back-slopping. The core microbiota detected on the seeds, in the flour and in the sourdough was composed mainly of microbes known to be associated with plants and not living in sourdoughs. No sourdough yeast species were detected on grains and flours. Sourdough lactic acid bacteria were rarely found in flour. When they were, they did not have the same amplicon sequence variant (ASV) as found in the corresponding sourdough. However, the low sequencing depth for bacteria in flour did not allow us to draw definitive conclusion. Thus, our results showed that sourdough yeasts did not come from flour, and suggest that neither do sourdough LAB.</t>
-  </si>
-  <si>
-    <t>Conventional culture-based techniques are largely inadequate in elucidating the microbiota contained in an environment, due to low recovery within a complex bacterial community. This limitation has been mitigated by the use of next-generation sequencing (NGS)-based approaches thereby facilitating the identification and classification of both culturable and uncultivable microorganisms. Amplicon targeted NGS methods, such as 16S ribosomal RNA (16S rRNA) and shotgun metagenomics, are increasingly being applied in various settings such as in food production environments to decipher the microbial consortium therein. Even though multiple food matrices/food production environments have been studied, the low-moisture environment associated with bakery food production remains to be investigated. To address this knowledge gap, in this study, we investigated the microbiome associated with two bakery production sites (designated as A and B) located in Ireland using 16S rRNA-amplicon-based sequencing. Amplicons corresponding to a hypervariable region contained within the 16S rRNA gene were amplified from DNA samples purified from environmental swabs and ingredients collected at both sites at various stages (preparation, production, postproduction, and storage) across the bakery production chain, over three seasons (winter, spring, and summer). These amplicons were sequenced, and data were analyzed using the mothur pipeline and visualized using MicrobiomeAnalyst and a series of R packages. The top seven bacterial phyla identified at both sites were composed of Proteobacteria, Firmicutes, Actinobacteria, Bacteroidetes, Deinococcus-Thermus, Patescibacteria, and Verrucomicrobia. In addition, the phyla Tenericutes (Mycoplasmatota) and Acidobacteria were observed only in samples taken at site B. Different bacterial compositions were identified at each stage of production. These same bacteria were also found to be present in the final processed food suggesting the influence of the environment on the food matrix. This study is the first demonstration of the utility of 16S rRNA amplicon-based sequencing to describe the microbiota associated with bakery processing environments.</t>
-  </si>
-  <si>
-    <t>Fruits and vegetables (F&amp;V) products are recommended for the daily diet due to their low caloric content, high amount of vitamins, minerals and fiber. Furthermore, these foods are a source of various phytochemical compounds, such as polyphenols, flavonoids and sterols, exerting antioxidant activity. Despite the benefits derived from eating raw F&amp;V, the quality and safety of these products may represent a source of concern, since they can be quickly spoiled and have a very short shelf-life. Moreover, they may be a vehicle of pathogenic microorganisms. This study aims to evaluate the bacterial and fungal populations in F&amp;V products (i.e., iceberg lettuces, arugula, spinaches, fennels, tomatoes and pears) by using culture-dependent microbiological analysis and high-throughput sequencing (HTS), in order to decipher the microbial populations that characterize minimally-processed F&amp;V. Our results show that F&amp;V harbor diverse and product-specific bacterial and fungal communities, with vegetables leaf morphology and type of edible fraction of fruits exerting the highest influence. In addition, we observed that several alterative (e.g., Pseudomonas and Aspergillus) and potentially pathogenic taxa (such as Staphylococcus and Cladosporium) are present, thus emphasizing the need for novel product-specific strategies to control the microbial composition of F&amp;V and extend their shelf-life.</t>
-  </si>
-  <si>
-    <t>The use of fish flesh to produce fermented sausages is uncommon, especially in European countries where fermented sausages are mainly obtained using mammalian meat. In the present study, the microbiota naturally occurring in novel fermented fish sausages, handcrafted using marine fish species caught in the Mediterranean Sea, was studied. To this end, fish sausages were subjected to physico-chemical analyses (including histamine quantification). Microbiological traits of sausages were studied via viable counting and metataxonomic analysis. Sausages were also subjected to the detection of genes encoding histidine decarboxylase of both Gram-positive (hdcA) and -negative (hdc) bacteria. The results of histamine quantification showed different contents among fish sausage samples. Moreover, the presence of the hdcA gene was below the detection limit in all the samples, whereas the hdc gene was detected only in samples from batch 2, characterized by high levels of Enterobacteriaceae. In the analysed samples, viable lactic acid bacteria, coagulase-negative staphylococci, and eumycetes were detected. Bacterial composition displayed the highest frequency of Latilactobacillus sakei, whereas eumycetic composition displayed the highest frequency of Kurtzmaniella zeylanoides. In order to select potential adjunct cultures for product improvement, 60 lactic acid bacteria (22 isolates of L. sakei and 38 of Latilactobacillus curvatus) were isolated from sausage samples and characterized for: i) the presence of the hdcA gene; ii) the production of exopolysaccharides (EPS); iii) the presence of genes involved in the production of EPS; iv) the production of bacteriocins against Listeria innocua. None of the isolates tested positive for the presence of the hdcA gene. Moreover, 39 out of 60 isolates showed the formation of mucoid colonies, thus attesting the production of EPS. Interestingly, 56 out of 60 isolates were positive for the gene epsD/E, whereas 37 out of 60 isolates were positive for the gene epsA, all these genes encoding the production of heteropolysaccharides. Of note, the EPS production capability and the absence of hdcA gene could represent a starting point for future selection of the isolates as autochthonous adjunct cultures to improve texture, sensory traits and safety of the fermented fish sausages under study. None of the L. sakei or L. curvatus isolates exerted a bactericidal effect against L. innocua.</t>
-  </si>
-  <si>
-    <t>The aim of the present study was to obtain information on the occurrence of bacteria and eumycetes in ready-to-eat fermented liver sausages manufactured by 20 artisan producers located in the Marche Region (Italy). To this end, culture-dependent analyses and metataxonomic sequencing were carried out. Physico-chemical parameters and volatilome of the fermented liver sausages were also studied. Finally, the presence of hepatitis E virus (HEV) was also assessed via real-time-RT-(q)PCR assays. Active microbial populations mainly represented by lactic acid bacteria, enterococci, coagulase-negative cocci, and eumycetes were detected. Enterobacteriaceae, Pseudomonadaceae, and sulfite-reducing anaerobes were not detected in most of the samples. Latilactobacillus sakei dominated in all the analyzed samples, reaching abundances up to 80%. Staphylococcus xylosus and Staphylococcus equorum were also detected. Among minority bacterial taxa, Weissella spp., Leuconostoc spp., Macrococcus caseolyticus, Brochothrix thermosphacta, Staphylococcus succinus, Lactobacillus coryniformis, Lactiplantibacillus plantarum, Lactococcus garviae, Psychrobacter spp., and Carnobacterium viridans were detected. The mycobiota was mainly composed by Debaryomyces hansenii that was present in all samples at the highest frequency. Among minority fungal taxa, Aspergillus spp., Penicillium spp., Kurtzmaniella zeylanoides, Candida spp., Yamadazyma spp., Scopulariopsis spp., Yarrowia spp., and Starmerella spp. were detected. Interestingly, associations between some taxa and some physico-chemical parameters were also discovered. The absence of HEV in all the samples attested a high level of safety. Finally, most of the VOCs detected in the analyzed fermented liver sausages belonged to six classes as: terpenoids, aldehydes, ketones, alcohols, esters, and acids. Nitrogen compounds, sulfur compounds, phenols, hydrocarbons, lactones, furans, and aromatic hydrocarbons were also identified. Several significant relationships were observed between mycobiota and VOCs.</t>
-  </si>
-  <si>
-    <t>The distinct microbial diversity present in fermented foods influencing flavor profile is now commonly referred to as microbial terroir. Understanding how microbial communities develop in fermented food is important because it can explain how different flavor profiles develop and how community stability leads to food preservation. Using a common DNA-sequencing approach to characterize the microbial communities that developed in eight fermented food products, we show that fermentation is primarily influenced by the main ingredient being cooked. Moreover, we found that each fermented food group harbored microbial communities similar to those previously described in traditional cooking styles. Thus, our study not only provides methodologies to characterize the microbial terroir signature of fermented foods in a professional kitchen but also enables us to understand further the value of local fermented food in our culinary journey.</t>
-  </si>
-  <si>
-    <t>Microbial safety is critically important for powdered infant formula (PIF) fed to neonates, with under-developed immune systems. The quality and safety of food products are dictated by those microorganisms found in both raw materials and the built production environment. In this study, a 2-year monitoring program of a production environment was carried out in two PIF factories located in the Republic of Ireland, and the environmental microbiome in different care areas of these sites was studied by using a 16S ribosomal RNA (rRNA)-based sequencing technique. Results highlighted a core microbiome associated with the PIF factory environment containing 24 bacterial genera representing five phyla, with Acinetobacter and Pseudomonas as the predominant genera. In different care areas of the PIF factory, as hygiene standards increased, deciphered changes in microbial community compositions became smaller over time and approached stability, and bacteria dominating the care area became less influenced by the external environment and more by human interactions and raw materials. These observations indicated that the microbial composition can be altered in response to environmental interventions. Genera Cronobacter and Salmonella were observed in trace amounts in the PIF factory environment, and bacterial genera known to be persistent in a stressed environment, such as Acinetobacter, Bacillus, Streptococcus, and Clostridium, were likely to have higher abundances in dry environment-based care areas. To our knowledge, this is the first study to characterize the PIF production environment microbiome using 16S rRNA-based sequencing. This study described the composition and changing trends of the environmental microbial communities in different care areas of the PIF manufacturing facility, and it provided valuable information to support the safer production of PIF in the future.</t>
-  </si>
-  <si>
-    <t>Microbial contamination of the domestic environment can lead to food spoilage, food waste and food-borne illness generating public health concern. The present study was aimed at evaluating: microbiological contamination of domestic refrigerators using both traditional microbiological and metataxonomic methods, linking these results with consumers' characteristics, observed/stated practices in food handling and storage in households. Data were collected by means of an online survey focused on consumer habits and characteristics, and by direct observation of practices, through consumers' kitchens inspections where surface samples from refrigerators (n = 64). Microbiological and metataxononimc analyses on those samples allowed the evaluation of microbial contamination and its composition. Multivariate analysis was applied to the core Amplicon Sequence Variants composition in order to highlight relations between contamination agents and consumer practices. Consumer analysis evaluated correlation among stated/observed practices with respondents' objective knowledge of hygiene practices. Finally, multivariate dimensions derived by genera analysis were used to evaluate the role of consumer characteristics and habits in domestic contamination. The results indicated a low level of contamination. Metataxonomic analysis provided a set of microbial genera, of which, 12 were the main responsible for fridge contaminations. The respondents' objective knowledge of hygiene practices was found to be significantly related to stated practices, whereas there was no significant result in combination with observed ones. Therefore, with limited sample dimension, theoretical knowledge showed a stronger relation to stated practices, whereas it did not always reflect real-life habits. However, the direction of correlations suggests that improving consumer knowledge of good hygiene practices through more practical awareness-raising actions, could reduce food contamination and the risk of food-borne illnesses. Finally, the application of the multivariate analyses allowed the observation of two clusters with different characteristics in terms of genera composition and consumers habits (such as refrigerator's temperature checking and food arrangement in it). Thus, such an innovative approach led to identifying the putative factors which are the most in relation with microbial contamination/general composition of fridges. Nonetheless, the combination of microbiological methods with the social evaluation of consumers could provide useful insights to tackle the causes of food contamination.</t>
-  </si>
-  <si>
-    <t>In the United States, due to the limited information about the microbial quality and safety of fresh produce after the labeled open dates, unnecessary discarding of fresh produce in good conditions and food loss have been caused. The aim of this study was to address this knowledge gap and evaluate the microbial quality of commercial chopped Romaine lettuce (RL) on the “Use By” dates (UBD) and 5 days after the “Use By” dates (UBD5). The microbial quality was evaluated using culture-dependent and culture-independent methods. Three brands of RL samples, from early and late harvest seasons, were purchased from local grocery stores and stored at 4°C until 5 days after their UBD. On the UBD and UBD5, bagged lettuce was opened, homogenized, diluted, and plated onto plate count agar and anaerobic agar to obtain total aerobic plate counts (APC) and total anaerobic plate counts (AnPC). For the culture-independent method, DNA was extracted from each sample homogenate and used for 16S rRNA gene sequencing. The culture-dependent results showed that there was no significant change in APC or AnPC between UBD and UBD5 samples. The APC and AnPC ranged from 5.71 ± 0.74 to 7.89 ± 0.10 Log CFU/g and 1.75 ± 0.08 to 7.32 ± 0.61 Log CFU/g, respectively. No significant difference in alpha diversity, based on observed features and Shannon index values, was detected between UBD and UBD5 samples using 16S rRNA sequencing. Similarly, no difference was observed in beta diversity based on the Jaccard distance matrixes and the weighted Unifrac distance matrixes. Taxonomic analysis revealed 128 genera in all RL samples. The top five genera were Pseudomonas (with relative abundance ranging from 16.47 to 92.72%), Serratia (0–52.35%), Weissella (0–42.42%), Pantoea (0.17–21.33%), and Lactococcus (0–24.30%). The differential abundance analysis based on the ANCOM test showed that no bacteria were detected to have significantly differential abundance in RL between UBD and UBD5. In summary, both the culture-dependent and culture-independent results showed that there was no significant difference in the microbial quality of RL before and shortly after the UBD</t>
-  </si>
-  <si>
-    <t>Microbiomes are intricately intertwined with human health, geochemical cycles, and food production. While many microbiomes of interest are highly complex and experimentally intractable, cheese rind microbiomes have proven to be powerful model systems for the study of microbial interactions. To provide a more comprehensive view of the genomic potential and temporal dynamics of cheese rind communities, we combined longitudinal, multi-platform metagenomics of three ripening washed-rind cheeses with whole-genome sequencing of community isolates. Sequencing-based approaches revealed a highly reproducible microbial succession in each cheese and the coexistence of closely related Psychrobacter species and enabled the prediction of plasmid and phage diversity and their host associations. In combination with culture-based approaches, we established a genomic catalog and a paired 16-member in vitro washed-rind cheese system. The combination of multi-platform metagenomic time-series data and an in vitro model provides a rich resource for further investigation of cheese rind microbiomes both computationally and experimentally. IMPORTANCE Metagenome sequencing can provide great insights into microbiome composition and function and help researchers develop testable hypotheses. Model microbiomes, such as those composed of cheese rind bacteria and fungi, allow the testing of these hypotheses in a controlled manner. Here, we first generated an extensive longitudinal metagenomic data set. This data set reveals successional dynamics, yields a phyla-spanning bacterial genomic catalog, associates mobile genetic elements with their hosts, and provides insights into functional enrichment of Psychrobacter in the cheese environment. Next, we show that members of the washed-rind cheese microbiome lend themselves to in vitro community reconstruction. This paired metagenomic data and in vitro system can thus be used as a platform for generating and testing hypotheses related to the dynamics within, and the functions associated with, cheese rind microbiomes.</t>
-  </si>
-  <si>
-    <t>Salame Piemonte is a dry-fermented meat product typical of the Piedmont region in Italy, manufactured using commercial starter cultures. This study aimed to select autochthonous starter cultures (ASCs) that could be used for sausage fermentation in order to strengthen the link with the geographical area of production and improve the sensory properties of the final product. A culture-dependent approach was adopted during three different spontaneous sausage fermentation processes to isolate and characterise the main bacterial resources involved. Dominant lactic acid bacteria (LAB) in each batch were Pediococcus pentosaceus, Latilactobacillus sakei, and Latilactobacillus curvatus; Staphylococcus xylosus was the most dominant coagulase-negative staphylococci (CNS) in all the studied batches. LAB and presumptive CNS isolates were further evaluated for their physiological properties and biotechnological potential. Thereafter, 11 strains were selected and evaluated for safety. Five selected strains (two P. pentosaceus, two L. sakei, and one S. xylosus strain) were used for pilot-scale Salame Piemonte production with seven different strain combinations. Based on the liking test, three ASC combinations led to the highest liking score compared to industrial products. These three ASCs were then used for the second pilot-scale sausage production confirming the high liking score. In summary, the use of P. pentosaceus and S. xylosus ASC significantly improved product sensory properties compared with that obtained using commercial starter cultures.</t>
-  </si>
-  <si>
-    <t>The knowledge about the microbial diversity of different olives varieties from diverse regions in the Mediterranean basin is limited. This work aimed to determine the microbial diversity of three different fermented olive varieties, collected from different regions in Cyprus, via Next Generation Sequencing (NGS) analysis. Olives were spontaneously fermented for 120 days, microbial DNA was extracted from the final products, and subjected to 16S rRNA gene and ITS1 loci metabarcoding analysis for the determination of bacterial and fungal communities, respectively. Results revealed that the bacterial profile of the studied varieties was similar, while no noteworthy differences were observed in olives from different regions. The bacterial profile was dominated by the co-existence of Lactobacillus and Streptococcus, while the genera Lactococcus and Salinivibrio and the family Leuconostocaceae were also present in increased relative abundances. Regarding fungal communities, the analysis indicated discrimination among the different varieties, especially in Kalamata ones. The most abundant fungi were mainly the genera Aspergillus, Botryosphaeria, Meyerozyma, and Zygosaccharomyces for Cypriot olives, the genera Botryosphaeria, Saccharomyces, Geosmithia, and Wickeromyces for Kalamata variety, while the dominant fungi in the Picual variety were mainly members of the genera Candida, Penicillium, Saccharomyces, Hanseniospora and Botryosphaeria. Potential microbial biomarkers that distinguish the three varieties are also proposed. Moreover, interaction networks analysis identified interactions among the key taxa of the communities. Overall, the present work provides useful information and sheds light on an understudied field, such as the comparison of microbiota profiles of different varieties from several regions in Cyprus. The study enriches our knowledge and highlights the similarities and the main differences between those aspects, booming in parallel the need for further works on this frontier, in the attempt to determine potentially olives’ microbial terroir in Cyprus. Our work should be used as a benchmark for future works in this direction.</t>
-  </si>
-  <si>
-    <t>The microbial ecologies of fish, such as the olive flounder (Paralichthys olivaceus), one of the most widely consumed fish in East Asia, remain to be elucidated. The microbiome of olive flounder and related environmental samples (i.e., feed, water, workers' aprons and gloves) were collected from six different sources (i.e., a fish farm, a transporting truck, a Wando market and restaurant, and a Seoul market and restaurant). These samples (n = 102) were investigated at various farm-to-distribution stages based on their 16S rRNA sequences. The microbial communities of fish from the farms and trucks were dominated by Photobacterium (&gt;86 %) and showed distinct differences from fish from the Wando and Seoul markets and restaurants. There was also a significant difference in fish microbiomes according to geographical location. The relative abundances of Shewanella, Acinetobacter, Enterobacteriaceae, and Pseudomonas increased as the distribution and consumption stages of the supply chain advanced. The percentages of Shewanella (24.74 %), Acinetobacter (18.32 %), and Enterobacteriaceae (11.24 %) in Wando, and Pseudomonas (42.98 %) in Seoul markets and restaurants implied the importance of sanitation control in these areas. Alpha and beta diversity results corresponded to taxonomic analyses and showed the division of two groups (i.e., fish from the production and transporting stage (farm and truck fish) and fish from the distribution and consumption stages (market and restaurant fish)). The present study provides an in-depth understanding of olive flounder and its environmental microbiomes and suggests control measures to improve food safety.</t>
-  </si>
-  <si>
-    <t>The annual consumption and production of oyster mushrooms (Pleurotus ostreatus) have continued to rise due to its nutritive and health-promoting benefits. Cultivated mushrooms are mostly grown in small to medium-scaled scale production plants that present hygienic challenges which could, in turn, increase associated foodborne pathogenic outbreaks. The present study aimed to investigate the shift in microbial ecologies of oyster mushrooms from pre-distribution (cultivation in bottles or on shelves) to post-distribution at supermarkets and open-air markets. Aerobic plate counts and coliforms were quantified using traditional microbiological techniques, and the microbiome associated with oyster mushrooms (n = 70) was analyzed using 16S rRNA amplicon sequencing for an enhanced level of bacterial microbiota profiling. Overall, coliforms recovered from pre-distribution bottle-cultivated mushrooms were 1.9 log CFU/g higher (p &lt; 0.05) than that of shelf-cultivated mushrooms. The mean aerobic plate counts of oyster mushrooms distributed to open-air markets was 1.2 log CFU/g higher (p &lt; 0.05) than packaged mushrooms from supermarkets while there were no significant differences in coliform counts. The pattern of bacterial composition differed by post-distribution channels, with oyster mushrooms collected from the open-air markets demonstrating the richest microbiome diversity. An increase in the relative abundance of Enterobacteriaceae (55–68 %) and Pseudomonadaceae (27–35 %) was observed in pre- and post-distribution mushrooms, respectively. However, no distinct bacterial microbiota differences were observed for the different cultivation methods or different geographical locations for each market type. The current findings add to our understanding of the effects of cultivation methods and commercial distribution channels regarding the microbiome of oyster mushrooms and may inform potential intervention strategies for future production and distribution processes. Furthermore, the tandem analyses of culture-dependent and culture-independent methods can provide more comprehensive information than that obtained when using each approach independently.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table olives (Olea europaea L.) are one of the most important fermented vegetables worldwide, whereas sea fennel (Crithmum maritimum L.) represents an emerging food crop, characterized by interesting nutritional and sensory qualities. Both are characterized by a high concentration of bioactive compounds with health beneficial effects. Thanks to these features, table olives and sea fennel undoubtedly represent two valuable ingredients for the manufacture of innovative vegetable preserves. Given these premises, the present study was aimed at exploring the co-fermentation of green olives and sea fennel to produce laboratory-scale prototypes of innovative high value preserves. To this end, the effects of two recipes, two standard methods for production of table olives, and two fermentation microbiota (resident or inoculated) were assessed. The prototypes were evaluated for their microbial dynamics as well as for key sensory traits by a panel of trained assessors. During the fermentation, all the prototypes showed a progressive pH reduction. Mesophilic lactobacilli, mesophilic lactococci, and yeasts were the main microbial groups at the end of the fermentation, while Enterobacteriaceae decreased during fermentation. Metataxonomic analysis revealed an evolution of the microbiota, with Lactiplantibacillus plantarum dominating in all the prototypes in the late stage of fermentation, irrespective of the recipe, processing method, and starter inoculation. A greater crunchiness and lower fibrousness were perceived in the Greek style prototypes, which were preferred than Spanish style prototypes by trained </t>
-  </si>
-  <si>
-    <t>Bacteria are an important part of wine ‘microbial terroir’ and contribute to the formation of wine flavor. Based on high-throughput sequencing and non-targeted metabonomic technology, this study first explored the bacterial composition and its effect on the aroma formation of spontaneously fermented ‘Cabernet Sauvignon’ (CS) wine in the Eastern Foot of Helan Mountain (EFHM), Ningxia. The results showed that there were significant differences in bacterial communities during fermentation of CS grapes harvested from different sub-regions of EFHM, with the earlier-established vineyard obtaining more species. The level of bacterial diversity initially decreased and then increased as the fermentation proceeded. Malolactic fermentation (MLF) was spontaneously initiated during alcohol fermentation (AF). Pantoea, Lactobacillus, Rhodococcus, Fructobacillus, and Komagataeibacter were the core bacterial genera in the fermentation mixture. Lactobacillus contributed to the synthesis of methyl and isobutyl esters and the formation of red and black fruity fragrances of wine. Fructobacillus was closely related to the synthesis of aromatic alcohols and the generation of floral flavors.</t>
-  </si>
-  <si>
-    <t>Wooden vats are used in the production of some traditional cheeses as the biofilms on wooden vat surfaces are known to transfer large quantities of microbes to cheese. However, very few studies have investigated the microbial composition of biofilms on newly developed wooden vats and how communities assemble and evolve. In the present study, the microbial communities of biofilms were characterized over the activation process on new wooden vats using amplicon sequencing of bacterial 16s rRNA and fungal internal transcribed spacer genes. Results showed that microbes from the whey effectively developed on wooden vats. Lactococcus was highly dominant throughout the vat activation process with substantial increases in the relative abundance of Acetobacter and Lactobacillus at the end of the vat activation (day 7). This was in contrast with fungal communities that stabilized early (day 1) and were dominated by Kluyveromyces. Predicted functions corresponded with the different stages of biofilm formation whereby functions associated with biofilm initiation were enriched on day 1 and those associated with growth and maturation were enriched on days 4 and 7. Microbial succession on wooden vat surfaces is expected to be reproducible based on the early onset and dominance of the deterministic process.</t>
-  </si>
-  <si>
-    <t>Sourdoughs (SDs) are spontaneously formed microbial ecosystems composed of various species of lactic acid bacteria (LAB) and acid-tolerant yeasts in food matrices of cereal flours mixed with water. To date, more than 90 LAB species have been isolated, significantly impacting the organoleptic characteristics, shelf life, and health properties of bakery products. To learn more about the unique bacterial communities involved in creating regional Bulgarian sourdoughs, we examined the metacommunities of five sourdoughs produced by spontaneous fermentation and maintained by backslopping in bakeries from three geographic locations. The 16S rRNA gene amplicon sequencing showed that the former genus Lactobacillus was predominant in the studied sourdoughs (51.0–78.9%). Weissella (0.9–42.8%), Herbaspirillum (1.6–3.8%), Serratia (0.1–11.7%), Pediococcus (0.2–7.5%), Bacteroides (0.1–1.3%), and Sphingomonas (0.1–0.5%) were also found in all 5 samples. Genera Leuconostoc, Enterococcus, Bacillus, and Asaia were sample-specific. It is interesting to note that the genus Weissella was more abundant in wholegrain samples. The greatest diversity at the species level was found in the former genus Lactobacillus, presented in the sourdough samples with 13 species. The UPGMA cluster analysis clearly demonstrated similarity in species’ relative abundance between samples from the same location. In addition, we can conclude that the presence of two main clusters—one including samples from mountainous places (the cities of Smolyan and Bansko) and the other including samples from the city of Ruse (the banks of the Danube River)—may indicate the impact of climate and geographic location (e.g., terrain, elevation, land use, and nearby water bodies and their streams) on the abundance of microbiome taxa. As the bacterial population is crucial for bread standardization, we expect the local bakery sector to be interested in the relationship between process variables and their effect on bacterial dynamics described in this research study.</t>
-  </si>
-  <si>
     <t>Button mushrooms (Agaricus bisporus), are one of the most widely consumed mushrooms in the world. However, changes within its microbial community as it relates to the use of different raw materials and cultivation methods, as well as potential points of microbial contamination throughout the production process have not been investigated extensively. In the present study, button mushroom cultivation was investigated in each of the four stages (raw materials, composting (phase I, Ⅱ, and Ⅲ), casing, and harvesting), and samples (n = 186) from mushrooms and their related environments were collected from four distinct mushroom-growing farms (A–D) in Korea. Shifts within the bacterial consortium during mushroom production were characterized with 16 S rRNA amplicon sequencing. The succession of bacterial communities on each farm was dependent on the raw material incorporated, aeration, and the farm environment. The dominant phyla of the compost stack at the four farms were Pseudomonadota (56.7%) in farm A, Pseudomonadota (43.3%) in farm B, Bacteroidota (46.0%) in farm C, and Bacillota (62.8%) in farm D. During the Phase Ⅰ, highly heat-resistant microbes, such as those from the phylum Deinococcota (0.6–65.5%) and the families Bacillaceae (1.7–36.3%), Thermaceae (0.1–65.5%), and Limnochordaceae (0.3–30.5%) greatly proliferated. The microbial diversity within compost samples exhibited a marked decline as a result of the proliferation of thermophilic bacteria. In the spawning step, there were considerable increases in Xanthomonadaceae in the pasteurized composts of farms C and D – both of which employed an aeration system. In the harvesting phase, beta diversity correlated strongly between the casing soil layer and pre-harvest mushrooms, as well as between gloves and packaged mushrooms. The results suggest that gloves may be a major source of cross-contamination for packaged mushrooms, highlighting the need for enhanced hygienic practices during the harvesting phase to ensure product safety. These findings contribute to the current understanding of the influence of environmental and adjacent microbiomes on mushroom products to benefit the mushroom industry and relevant stakeholders by ensuring quality production.</t>
   </si>
   <si>
@@ -1447,36 +1444,36 @@
     <t>https://doi.org/10.3390/jof8101034</t>
   </si>
   <si>
+    <t>Microbial diversity in vineyards and in grapes has generated significant scientific interest. From a biotechnological perspective, vineyard and grape biodiversity has been shown to impact soil, vine, and grape health and to determine the fermentation microbiome and the final character of wine. Thus, an understanding of the drivers that are responsible for the differences in vineyard and grape microbiota is required. The impact of soil and climate, as well as of viticultural practices in geographically delimited areas, have been reported. However, the limited scale makes the identification of generally applicable drivers of microbial biodiversity and of specific microbial fingerprints challenging. The comparison and meta-analysis of different datasets is furthermore complicated by differences in sampling and in methodology. Here we present data from a wide-ranging coordinated approach, using standardized sampling and data generation and analysis, involving four countries with different climates and viticultural traditions. The data confirm the existence of a grape core microbial consortium, but also provide evidence for country-specific microbiota and suggest the existence of a cultivar-specific microbial fingerprint for Cabernet Sauvignon grape. This study puts in evidence new insight of the grape microbial community in two continents and the importance of both location and cultivar for the definition of the grape microbiome.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.fm.2023.104286</t>
   </si>
   <si>
+    <t>Microbial community and volatilome of brines were monitored during the spontaneous fermentations of Spanish-style and Natural-style green table olives from Manzanilla cultivar. Fermentation of olives in the Spanish style was carried out by lactic acid bacteria (LAB) and yeasts, whereas halophilic Gram-negative bacteria and archaea, along with yeasts, drove the fermentation in the Natural style. Clear differences between the two olive fermentations regarding physicochemical and biochemical features were found. Lactobacillus, Pichia, and Saccharomyces were the dominant microbial communities in the Spanish style, whereas Allidiomarina, Halomonas, Saccharomyces, Pichia, and Nakazawaea predominated in the Natural style. Numerous qualitative and quantitative differences in individual volatiles between both fermentations were found. The final products mainly differed in total amounts of volatile acids and carbonyl compounds. In addition, in each olive style, strong positive correlations were found between the dominant microbial communities and various volatile compounds, some of them previously reported as aroma-active compounds in table olives. The findings from this study provide a better understanding of each fermentation process and may help the development of controlled fermentations using starter cultures of bacteria and/or yeasts for the production of high-quality green table olives from Manzanilla cultivar.</t>
+  </si>
+  <si>
+    <t>https://doi.org/237</t>
+  </si>
+  <si>
+    <t>Due to changes in climatic conditions in Poland interest in viticulture and wine production has considerably boosted. One of the worldwide trends in winemaking is use of indigenous strains of yeast and lactic acid bacteria (LAB). The aim of the study was to analyse the microbial diversity of Polish red wines and their key properties and combine them for better understanding of the processes responsible for creating the sensory attributes. Metagenetic analysis was used to characterise the bacterial and yeast diversity of wines produced by spontaneous fermentation of grapes of the Regent variety, which came from three vineyards: “Dom Bliskowice” (DB), “Małe Dobre” (MD), and “Winnica Janowiec” (WJ). Among bacteria, Tatumella ptyseos was the most abundant species in DB and WJ wines and Leuconostoc pseudomesenteroides was the most abundant in MD wine. Among yeasts, Saccharomyces cerevisiae was found in DB and WJ wines, Saccharomyces cariocanus in MD wine, and Hanseniaspora uvarum in all samples studied. Studied wines had statistically significantly different antioxidant capacities and distinct glucose, fructose, and lactic acid concentrations. The presence of acetic and lactic acid bacteria was positively related to the concentrations of acetic and lactic acid, respectively, while the lack of malic acid was indicative of malolactic fermentation. This knowledge may be useful in the development of unique local starter cultures for the production of wines with specific characteristics.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2022.919047</t>
   </si>
   <si>
-    <t>Microbial diversity in vineyards and in grapes has generated significant scientific interest. From a biotechnological perspective, vineyard and grape biodiversity has been shown to impact soil, vine, and grape health and to determine the fermentation microbiome and the final character of wine. Thus, an understanding of the drivers that are responsible for the differences in vineyard and grape microbiota is required. The impact of soil and climate, as well as of viticultural practices in geographically delimited areas, have been reported. However, the limited scale makes the identification of generally applicable drivers of microbial biodiversity and of specific microbial fingerprints challenging. The comparison and meta-analysis of different datasets is furthermore complicated by differences in sampling and in methodology. Here we present data from a wide-ranging coordinated approach, using standardized sampling and data generation and analysis, involving four countries with different climates and viticultural traditions. The data confirm the existence of a grape core microbial consortium, but also provide evidence for country-specific microbiota and suggest the existence of a cultivar-specific microbial fingerprint for Cabernet Sauvignon grape. This study puts in evidence new insight of the grape microbial community in two continents and the importance of both location and cultivar for the definition of the grape microbiome.</t>
-  </si>
-  <si>
-    <t>Microbial community and volatilome of brines were monitored during the spontaneous fermentations of Spanish-style and Natural-style green table olives from Manzanilla cultivar. Fermentation of olives in the Spanish style was carried out by lactic acid bacteria (LAB) and yeasts, whereas halophilic Gram-negative bacteria and archaea, along with yeasts, drove the fermentation in the Natural style. Clear differences between the two olive fermentations regarding physicochemical and biochemical features were found. Lactobacillus, Pichia, and Saccharomyces were the dominant microbial communities in the Spanish style, whereas Allidiomarina, Halomonas, Saccharomyces, Pichia, and Nakazawaea predominated in the Natural style. Numerous qualitative and quantitative differences in individual volatiles between both fermentations were found. The final products mainly differed in total amounts of volatile acids and carbonyl compounds. In addition, in each olive style, strong positive correlations were found between the dominant microbial communities and various volatile compounds, some of them previously reported as aroma-active compounds in table olives. The findings from this study provide a better understanding of each fermentation process and may help the development of controlled fermentations using starter cultures of bacteria and/or yeasts for the production of high-quality green table olives from Manzanilla cultivar.</t>
-  </si>
-  <si>
-    <t>Due to changes in climatic conditions in Poland interest in viticulture and wine production has considerably boosted. One of the worldwide trends in winemaking is use of indigenous strains of yeast and lactic acid bacteria (LAB). The aim of the study was to analyse the microbial diversity of Polish red wines and their key properties and combine them for better understanding of the processes responsible for creating the sensory attributes. Metagenetic analysis was used to characterise the bacterial and yeast diversity of wines produced by spontaneous fermentation of grapes of the Regent variety, which came from three vineyards: “Dom Bliskowice” (DB), “Małe Dobre” (MD), and “Winnica Janowiec” (WJ). Among bacteria, Tatumella ptyseos was the most abundant species in DB and WJ wines and Leuconostoc pseudomesenteroides was the most abundant in MD wine. Among yeasts, Saccharomyces cerevisiae was found in DB and WJ wines, Saccharomyces cariocanus in MD wine, and Hanseniaspora uvarum in all samples studied. Studied wines had statistically significantly different antioxidant capacities and distinct glucose, fructose, and lactic acid concentrations. The presence of acetic and lactic acid bacteria was positively related to the concentrations of acetic and lactic acid, respectively, while the lack of malic acid was indicative of malolactic fermentation. This knowledge may be useful in the development of unique local starter cultures for the production of wines with specific characteristics.</t>
-  </si>
-  <si>
     <t>Flat peaches possess characteristic flavors and are rich in nutrients. The fermentation of flat peaches to produce wine through complex biochemical reactions is an effective method to overcome their seasonal defects. Spontaneously fermented flat peach wine has plentiful and strong flavors, but the microbiota of fermentation are still unknown. In this study, the microbial succession and volatile compound dynamics of spontaneous fermentation in Xinjiang flat peach wine were investigated using high-throughput sequencing (HTS) and headspace solid phase microextraction (HS-SPME) coupled with gas chromatography-mass spectrometry (GC-MS) technology, respectively, to better understand the microbiota involved. Multivariate data analysis was used to predict the relationship between microorganisms and volatile chemicals. The results showed that Kazachstania, Pichia, Aspergillus, Fructobacillus, Leuconostoc, and Lactobacillus were the dominant genera during the spontaneous fermentation of flat peach wine. Furthermore, ethyl hexanoate, 3-hexen-1-yl acetate, ethyl caprate, ethyl caprylate, phenethyl acetate, ethanol, γ-decalactone, decanal, 1-hexanoic acid, and octanoic acid endued flat peach wine with a strong fruity and fatty aroma. The core functional microbiota (primarily consisting of 11 bacterial and 14 fungal taxa) was strongly associated with the production of 27 volatile compounds in the spontaneously fermented flat peach wine, according to multivariate data analysis. Some alcohols and esters were positively linked with the presence of Kazachstania and Pichia. Meanwhile, the presence of Fructobacillus, Leuconostoc, Lactobacillus, and Weissella was significantly correlated with 2-non-anol, ethanol, 3-methyl-1-butanol, octyl formate, isoamyl lactate, and ethyl lactate. This snapshot of microbial succession and volatile compound dynamics provides insights into the microorganisms involved in flat peach wine fermentation and could guide the production of flat peach wine with desirable characteristics.</t>
   </si>
   <si>
-    <t>https://doi.org/237</t>
+    <t>https://doi.org/10.1016/j.foodres.2021.110344</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2022.954917</t>
   </si>
   <si>
     <t>Palm wine fermentation is a complex microbial process that evolves with tapping times. The dynamics in microbiota and metabolites throughout palm wine tapping days is still not established, which are critical for the distinctive characteristics of palm wine taste and quality, and thus the mastery of the daily quality fluctuation during tapping. We analyzed the changes in microbial community structure by amplicon sequencing of bacterial 16S rRNA gene and fungal internal transcribed spacer (ITS) region, and metabolite profile changes using mass spectrometry in palm wine collected over 25–30 days tapping of ron (Borassus aethiopum) and oil palms (Elaeis guineensis) from Côte d’Ivoire. The stage-wise collected palm wine samples showed distinct changes in microbial diversity and pH, supporting microbial community dynamics during palm wine tapping. Results highlighted the dominance of Saccharomyces cerevisiae in early stages and the emergence of non-Saccharomyces yeasts, particularly Hanseniaspora spp. in the later stages of oil palm wine tapping, vice versa in the case of ron palm wine tapping, with a unique presence of Saccharomycodes in the later stages (15–30 days). Fructophilic lactic acid bacteria (FLAB), mainly Fructobacillus and Leuconostoc, encountered in both types of palm wine tapping showed a decline at later stages of oil palm wine tapping. In this type of palm wine, acetic acid bacteria with genera Acetobacter and Glucanoacetobacter, by surpassing Lactobacillus in the last stage become dominant, whereas Lactobacillus remained dominant in ron palm wine throughout tapping days. The decline in the relative abundance of gevotroline and essential amino acids during the later stages of palm wine tapping (15–25 days) supports the difference in the health benefits of the palm wine obtained from different days of tapping, indicating that early stages of tapping is more nutritional and healthy than the later stages. The microbial dynamics may be a potential indicator of metabolite changes during palm sap fermentation, thus contributing to establish particular features of palm wines in different stages of tapping. This understanding of microbial ecology and chemical composition changes during palm wine tapping can be used as biomarkers to assess palm wine’s quality and help to design an optimum starter culture.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2021.110344</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fmicb.2022.954917</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.dib.2022.108022</t>
   </si>
   <si>
@@ -1489,41 +1486,148 @@
     <t>Wine grape fungal community composition is influenced by abiotic factors including geography and vintage. Compositional differences may correlate with different wine metabolite composition and sensory profiles, suggesting a microbial role in the shaping of a wine's terroir, or regional character. While grape and wine-associated fungal community composition has been studied extensively at a regional and sub-regional scale, it has not been explored in detail on fine geographical scales over multiple harvests. Over two years, we examined the fungal communities on Vitis Vinifera cv. Pinot noir grape berry surfaces, in crushed grapes, and in lab spontaneous fermentations from three vineyards within a &lt; 1 km radius in Canada's Okanagan Valley wine region. We also evaluated the effect of winery environment exposure on fungal community composition by sampling grapes crushed and fermented in the winery at commercial scale. Spatiotemporal community structure was evident among grape berry surface, crushed grape and fermentation samples, with each vineyard exhibiting a distinct fungal community signature. Crushed grape fungal populations were richer in fermentative yeast species compared to grape berry surface fungal populations. Our study suggests that, as on a regional level, fungal populations may contribute to fine-scale -terroir,’ with significant implications for single-vineyard wines. This article explores wine-associated fungal communities from closely situated (1 km) vineyards, finding that vineyards have their own unique communities that persist during wine fermentations from those vineyards.</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.lwt.2022.113680</t>
+  </si>
+  <si>
+    <t>Microbial diversity of three typical Qu in China, Jimo wheat Qu from Shandong province (WQJM), Shaoxing wheat Qu from Zhejiang province (WQSX), and Gutian Hong Qu from Fujian province (GTHQ), was compared by Illumina-based sequencing. Then volatile compounds in rice wine were analyzed by FlavourSpec® to illustrate correlation between rice wine flavor and microbes in Qu. Results showed that the microbial diversity was WQJM &gt; WQSX &gt; GTHQ, and the dominant microbiota in each Qu varied greatly. Saccharopolyspora, Staphylococcus and Aspergillus were the main microorganisms in WQSX. Microbes in WQJM distributed relatively even, and Pantoea, Bacillus, Pediococcus, Staphylococcus, Weissella, Aspergillus, Rhizopus, Thermoascus, and Saccharomyces were dominated. In GTHQ, Pantoea, Klebsiella, Burkholderia, and Monascus were major microbial floras. Correlation analysis indicated that Corynebacterium, Klebsiella, Pantoea, Wickerhamomyces, and Mucor in WQSX were mainly correlated with producing esters including ethyl hexanoate, isoamyl acetate, ethyl pyruvate. Brevibacterium, Klebsiella, Brachybacterium, Aspergillus, Penicillium, and Xeromyces in WQJM were strongly related with aldehydes, alcohols and ketones represented by benzaldehyde, ethanol, heptan-2-one. In GTHQ, Burkholderia, Weissella, Aspergillus, Candida, Davidiella, Alternaria and Saccharomyces were closely correlated with butan-1-ol, 2-pentanone, dimethyl sulfide. The different microbiota in Qu caused variation of metabolism during brewing, and lead to the distinguished flavor of rice wine.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0163135</t>
+  </si>
+  <si>
+    <t>Nowadays, our knowledge of the fungal biodiversity in fermented vegetables is limited although these microorganisms could have a great influence on the quality and safety of this kind of food. This work uses a metagenetic approach to obtain basic knowledge of the fungal community ecology during the course of fermentation of natural Aloreña de Málaga table olives, from reception of raw material to edible fruits. For this purpose, samples of brines and fruits were collected from two industries in Guadalhorce Valley (Málaga, Spain) at different moments of fermentation (0, 7, 30 and 120 days). The physicochemical and microbial counts performed during fermentation showed the typical evolution of this type of processes, mainly dominated by yeasts in apparent absence of Enterobacteriaceae and Lactobacillaceae. High-throughput barcoded pyrosequencing analysis of ITS1-5.8S-ITS2 region showed a low biodiversity of the fungal community, with the presence at 97% identity of 29 different fungal genera included in 105 operational taxonomic units (OTUs). The most important genera in the raw material at the moment of reception in the industry were Penicillium, Cladosporium, Malassezia, and Candida, whilst after 4 months of fermentation in brines Zygotorulaspora and Pichia were predominant, whereas in fruits were Candida, Penicillium, Debaryomyces and Saccharomyces. The fungal genera Penicillium, Pichia, and Zygotorulaspora were shared among the three types of substrates during all the course of fermentation, representing the core fungal population for this table olive specialty. A phylogenetic analysis of the ITS sequences allowed a more accurate assignment of diverse OTUs to Pichia manshurica, Candida parapsilosis/C. tropicalis, Candida diddensiae, and Citeromyces nyonensis clades. This study highlights the existence of a complex fungal consortium in olive fermentations including phytopathogenic, saprofitic, spoilage and fermentative genera. Insights into the ecology, identification and quantification of fungi species in olive fermentation will facilitate the design of new strategies to improve the quality and safety of this fermented vegetable.</t>
+  </si>
+  <si>
+    <t>This study aimed at investigating the influence of the process environment and raw materials as sources of microorganisms during Nyons black table olive fermentations. Fermented olives and/or brine from spoiled fermentation tanks were analyzed and compared to good quality samples from fermentations collected during 3 consecutive harvest years. Fresh olives, salt and different process environment samples were also analyzed. Microbial diversity of all samples was analyzed using 16S and ITS2 amplicon sequencing and SourceTracker tool was used to investigate links between environment, raw materials and fermentation samples. First, comparison of microbial diversity in control and most spoiled fermentations revealed striking differences in bacterial composition with an overall higher diversity in spoiled fermentations especially for lactic acid bacteria with Lentilactobacillus buchneri, Lentilactobacillus parafarraginis dominating in brine and Pediococcus parvulus, Pediococcus ethanolidurans dominating in olive fruits. Fungal communities were similar in composition although higher abundances of Pichia membranifaciens and Penicillium carneum/roqueforti were observed in spoiled samples. Secondly, process environment samples were characterized by high bacterial and fungal diversity, especially compared to fresh olive fruits. Overall, dominant fungal species in control fermentations were also found in most environmental samples revealing a “house mycobiota”. SourceTracker analysis further highlighted the contribution of brine and water from the optical sorter as a source of fungi. Most interestingly, spoilage fungi and most bacteria were retrieved in brine and environmental samples while others such as P. ethanolidurans were only found in environmental samples indicating that the studied spoilage originated from a fermentation deviation rather than a punctual contamination. Taken altogether, these results highlighted the positive and negative influence of the process environment and emphasized the relevance of studying it to better understand microbial vectors occurring during food fermentations, especially natural ones.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2022.104082</t>
+  </si>
+  <si>
     <t>In this work, a total of 72 commercial table olive packages obtained from different international markets were analysed to determine their fungal biodiversity. Viable fungal counts ranged from the detection threshold (&lt;1.6 log10 CFU/g in 25% of cases) to a maximum of 5.86 log10 CFU/g. Assignation of fungal taxonomy was carried out through a metataxonomic analysis of the ITS region, which revealed that almost half of the total sequences obtained from all packages corresponded to the Pichia genus (44.08%), followed by Citeromyces (14.45%), Candida (8.07%), and Wickerhamomyces (6.95%). In lower proportions were also detected other genera such as Starmerella (3.60%), Saccharomyces (2.24%), Debaryomyces (2.08%), and Dekkera (2.05%). The statistical analysis allowed to link certain taxa to specific types of elaboration (lye treated, green, and black natural olives), presentation (pitted, whole, or sliced samples), and packaging material/system (glass, PET, plastic bags, and vacuum). Likewise, Zygotorulaspora genus was especially sensitive to the presence of potassium sorbate, while other genera such as Sporobolomyces, Moniliella, and Gibellulopsis were more abundant in packages treated with this preservative. Lastly, potential pathogenic fungal genera such as Alternaria, Kodamaea, Lodderomyces, Malasessia, or Aspergillus were detected in low proportions (&lt;0.3%), although with higher representation in some individual samples. Our results contribute to improving our knowledge of the fungal population associated with this ready-to-eat fermented vegetable, providing us a strong tool to assess the safety, stability, and quality of the final product.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2022.104082</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.lwt.2022.113680</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0163135</t>
-  </si>
-  <si>
-    <t>Microbial diversity of three typical Qu in China, Jimo wheat Qu from Shandong province (WQJM), Shaoxing wheat Qu from Zhejiang province (WQSX), and Gutian Hong Qu from Fujian province (GTHQ), was compared by Illumina-based sequencing. Then volatile compounds in rice wine were analyzed by FlavourSpec® to illustrate correlation between rice wine flavor and microbes in Qu. Results showed that the microbial diversity was WQJM &gt; WQSX &gt; GTHQ, and the dominant microbiota in each Qu varied greatly. Saccharopolyspora, Staphylococcus and Aspergillus were the main microorganisms in WQSX. Microbes in WQJM distributed relatively even, and Pantoea, Bacillus, Pediococcus, Staphylococcus, Weissella, Aspergillus, Rhizopus, Thermoascus, and Saccharomyces were dominated. In GTHQ, Pantoea, Klebsiella, Burkholderia, and Monascus were major microbial floras. Correlation analysis indicated that Corynebacterium, Klebsiella, Pantoea, Wickerhamomyces, and Mucor in WQSX were mainly correlated with producing esters including ethyl hexanoate, isoamyl acetate, ethyl pyruvate. Brevibacterium, Klebsiella, Brachybacterium, Aspergillus, Penicillium, and Xeromyces in WQJM were strongly related with aldehydes, alcohols and ketones represented by benzaldehyde, ethanol, heptan-2-one. In GTHQ, Burkholderia, Weissella, Aspergillus, Candida, Davidiella, Alternaria and Saccharomyces were closely correlated with butan-1-ol, 2-pentanone, dimethyl sulfide. The different microbiota in Qu caused variation of metabolism during brewing, and lead to the distinguished flavor of rice wine.</t>
-  </si>
-  <si>
-    <t>Nowadays, our knowledge of the fungal biodiversity in fermented vegetables is limited although these microorganisms could have a great influence on the quality and safety of this kind of food. This work uses a metagenetic approach to obtain basic knowledge of the fungal community ecology during the course of fermentation of natural Aloreña de Málaga table olives, from reception of raw material to edible fruits. For this purpose, samples of brines and fruits were collected from two industries in Guadalhorce Valley (Málaga, Spain) at different moments of fermentation (0, 7, 30 and 120 days). The physicochemical and microbial counts performed during fermentation showed the typical evolution of this type of processes, mainly dominated by yeasts in apparent absence of Enterobacteriaceae and Lactobacillaceae. High-throughput barcoded pyrosequencing analysis of ITS1-5.8S-ITS2 region showed a low biodiversity of the fungal community, with the presence at 97% identity of 29 different fungal genera included in 105 operational taxonomic units (OTUs). The most important genera in the raw material at the moment of reception in the industry were Penicillium, Cladosporium, Malassezia, and Candida, whilst after 4 months of fermentation in brines Zygotorulaspora and Pichia were predominant, whereas in fruits were Candida, Penicillium, Debaryomyces and Saccharomyces. The fungal genera Penicillium, Pichia, and Zygotorulaspora were shared among the three types of substrates during all the course of fermentation, representing the core fungal population for this table olive specialty. A phylogenetic analysis of the ITS sequences allowed a more accurate assignment of diverse OTUs to Pichia manshurica, Candida parapsilosis/C. tropicalis, Candida diddensiae, and Citeromyces nyonensis clades. This study highlights the existence of a complex fungal consortium in olive fermentations including phytopathogenic, saprofitic, spoilage and fermentative genera. Insights into the ecology, identification and quantification of fungi species in olive fermentation will facilitate the design of new strategies to improve the quality and safety of this fermented vegetable.</t>
-  </si>
-  <si>
-    <t>This study aimed at investigating the influence of the process environment and raw materials as sources of microorganisms during Nyons black table olive fermentations. Fermented olives and/or brine from spoiled fermentation tanks were analyzed and compared to good quality samples from fermentations collected during 3 consecutive harvest years. Fresh olives, salt and different process environment samples were also analyzed. Microbial diversity of all samples was analyzed using 16S and ITS2 amplicon sequencing and SourceTracker tool was used to investigate links between environment, raw materials and fermentation samples. First, comparison of microbial diversity in control and most spoiled fermentations revealed striking differences in bacterial composition with an overall higher diversity in spoiled fermentations especially for lactic acid bacteria with Lentilactobacillus buchneri, Lentilactobacillus parafarraginis dominating in brine and Pediococcus parvulus, Pediococcus ethanolidurans dominating in olive fruits. Fungal communities were similar in composition although higher abundances of Pichia membranifaciens and Penicillium carneum/roqueforti were observed in spoiled samples. Secondly, process environment samples were characterized by high bacterial and fungal diversity, especially compared to fresh olive fruits. Overall, dominant fungal species in control fermentations were also found in most environmental samples revealing a “house mycobiota”. SourceTracker analysis further highlighted the contribution of brine and water from the optical sorter as a source of fungi. Most interestingly, spoilage fungi and most bacteria were retrieved in brine and environmental samples while others such as P. ethanolidurans were only found in environmental samples indicating that the studied spoilage originated from a fermentation deviation rather than a punctual contamination. Taken altogether, these results highlighted the positive and negative influence of the process environment and emphasized the relevance of studying it to better understand microbial vectors occurring during food fermentations, especially natural ones.</t>
-  </si>
-  <si>
     <t>Spontaneously fermented Ethiopian honey wine, Tej, is a popular alcoholic beverage in Ethiopia. However, a detailed information which is needed to modernized the production process of this traditional beverage has not yet been conducted. Thus, this paper is aimed to reveal the physicochemical and microbial dynamics occurred during Tej fermentation processes. To address this objective, Tej samples was collected every 48 h from three households located at three different cities of Ethiopia. As fermentation progressed, pH, glucose, and fructose content decreased, whereas, titratable acidity and alcohol content increased. Likewise, antioxidant activity, especially 3-ethylbenzothiazoline-6-sulfonic acid diammonium salt (ABTS) assay, increased as the fermentation progressed to final stages. Moreover, the bacterial communities shifted to Lactobacillus dominancy as the fermentation progress to the end. Furthermore, during the whole fermentation period, fungal communities were practically dominated by Saccharomyces species. Due to these dominances microbial diversity decreased toward the end of fermentation. Besides, quantitative increases in both microbial communities were observed during Tej fermentation periods. However, fungal gene copy numbers were by half higher than bacterial gene copy numbers. In conclusion, Species of Lactobacillus and Saccharomyces could be taken as a potential mixed starter culture candidates for inoculated Tej fermentation systems.</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2016.07.014</t>
+  </si>
+  <si>
     <t>This study uses an “omics” approach to evaluate the bacterial biodiversity changes during fermentation process of natural green cracked Aloreña de Málaga table olives, from raw material to fermented fruit. For this purpose, two industries separated by almost 20km in Guadalhorce Valley (Málaga, Spain) were analysed for obtaining both brines and fruit samples at different moments of fermentation (0, 7, 30 and 120days). Physicochemical and microbial counts during fermentation showed the typical evolution of this type of processes, apparently dominated by yeasts. However, high-throughput barcoded pyrosequencing analysis of V2–V3 hypervariable region of the bacterial 16S rRNA gene showed at 97% identity the presence of 131 bacterial genera included in 357 operational taxonomic units, not detected by the conventional approach. The bacterial biodiversity was clearly higher in the olives at the moment of reception in the industry and during the first days of fermentation, while decreased considerably as elapse the fermentation process. The presence of Enterobacteriaceae and Lactobacillaceae species was scarce during the four months of study. On the contrary, the most important genus at the end of fermentation was Celerinatantimonas in both brine (95.3% of frequency) and fruit (89.4%) samples, while the presence of well-known spoilage microorganisms (Pseudomonas and Propionibacterium) and halophilic bacteria (Modestobacter, Rhodovibrio, Salinibacter) was also common during the course of fermentation. Among the most important bacterial pathogens related to food, only Staphylococcus genus was found at low frequencies (&lt;0.02% of total sequences). Results show the need of this type of studies to enhance our knowledge of the microbiology of table olive fermentations. It is also necessary to determine the role played by these species not previously detected in table olives on the quality and safety of this fermented vegetable.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2016.07.014</t>
+    <t>https://doi.org/10.3389/fmicb.2021.771636</t>
+  </si>
+  <si>
+    <t>Nocellara Etnea is one of the main Sicilian cultivars traditionally used to produce both olive oil and naturally fermented table olives. In the present study, the effect of different salt concentrations on physico-chemical, microbiological, sensorial, and volatile organic compounds (VOCs) formation was evaluated in order to obtain functional Nocellara Etnea table olives. The experimental design consisted of 8 treatments as follow: fermentations at 4, 5, 6, and 8% of salt with (E1-E4 samples) and without (C1-C4 samples) the addition of starters. All the trials were carried out at room temperature (18 ± 2°C) and monitored for an overall period of 120 d. In addition, the persistence of the potential probiotic Lactobacillus paracasei N24 at the end of the process was investigated. Microbiological data revealed the dominance of lactic acid bacteria (LAB), starting from the 7th d of fermentation, and the reduction of yeasts and enterobacteria in the final product inoculated with starters. VOCs profile highlighted a high amount of aldehydes at the beginning of fermentation, which significantly decreased through the process and a concomitant increase of alcohols, acids, esters, and phenols. In particular, esters showed an occurrence percentage higher in experimental samples rather than in control ones, contributing to more pleasant flavors. Moreover, acetic acid, ethanol, and phenols, which often generate off-flavors, were negatively correlated with mesophilic bacteria and LAB. It is interesting to note that salt content did not affect the performances of starter cultures and slightly influenced the metabolome of table olives. Sensory data demonstrated significant differences among samples registering the highest overall acceptability in the experimental sample at 5% of NaCl. The persistence of the L. paracasei N24 strain in experimental samples, at the end of the process, revealed its promising perspectives as starter culture for the production of functional table olives with reduced salt content.</t>
+  </si>
+  <si>
+    <t>unpublished</t>
+  </si>
+  <si>
+    <t>effect of starter culture and brine NaCl on the bacterial and fungal microbiota dynamics in Oliva di Gaeta (cv. Itrana) PDO brines</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2017.00457</t>
+  </si>
+  <si>
+    <t>The composition and changes of the fungal population and of the metabolites present in grapes and in ferments of Vitis vinifera L. cv. Corvina, one of the major components of the Amarone musts, were dissected aiming at the identification of constant characteristics possibly influenced by the productive process. The fungal populations and metabolomic profiles were analyzed in three different vintages. 454-pyrosequencing on the ribosomal ITS1 region has been used to identify the fungal population present in Corvina grapes and fresh must. Samples were also subjected to metabolomics analysis measuring both free volatile compounds and glycosylated aroma precursors through an untargeted approach with comprehensive two-dimensional gas chromatography time-of-flight mass spectrometry. Albeit strongly dependent on the climate, both the mycobiota and metabolome of Corvina grapes and fresh musts show some characteristics recursive in different vintages. Such persistent characteristics are likely determined by the method adopted to produce Amarone or other dry wines made from partially dried grapes. In particular, the harsh conditions imposed by the prolonged withering appear to contribute to the shaping of the fungal populations. The fungal genera and metabolites present in different vintages in V. vinifera L. cv. Corvina grapes and fresh musts represent core components of the peculiar technique of production of Amarone. Their identification allows the in-depth understanding and improved control of the process of production of this economically and culturally relevant wine.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods12122386</t>
+  </si>
+  <si>
+    <t>Microbial and biochemical changes in the brine during the spontaneous fermentation of Gordal, Hojiblanca and Manzanilla olive cultivars processed according to the natural style were monitored. The microbial composition was assessed through a metagenomic study. Sugars, ethanol, glycerol, organic acids and phenolic compounds were quantified by standard methods. In addition, the volatile profiles, contents of phenolic compounds in the olives and quality parameters of the final products were compared. Fermentation in Gordal brines was conducted by lactic acid bacteria (mainly Lactobacillus and Pediococcus) and yeasts (mainly Candida boidinii, Candida tropicalis and Wickerhamomyces anomalus). In Hojiblanca and Manzanilla brines, halophilic Gram-negative bacteria (e.g., Halomonas, Allidiomarina and Marinobacter) along with yeasts (mainly, Saccharomyces) were responsible for the fermentation. Higher acidity and lower pH values were reached in Gordal brines compared to Hojiblanca and Manzanilla. After 30 days of fermentation, no sugars were detected in Gordal brine, but residual amounts were found in the brines from Hojiblanca (&lt;0.2 g/L glucose) and Manzanilla (2.9 g/L glucose and 0.2 g/L fructose). Lactic acid was the main acid product in Gordal fermentation, whereas citric acid was the predominant organic acid in the Hojiblanca and Manzanilla brines. Manzanilla brine samples showed a greater concentration of phenolic compounds than Hojiblanca and Gordal brines. After a 6-month fermentation, Gordal olives were superior compared to the Hojiblanca and Manzanilla varieties regarding product safety (lower final pH and absence of Enterobacteriaceae), content of volatile compounds (richer aroma), content of bitter phenolics (lower content of oleuropein, which resulted in less perceived bitterness) and color parameters (more yellow and lighter color, indicating a higher visual appraisal). The results of the present study will contribute to a better understanding of each fermentation process and could help to promote natural-style elaborations using the above-mentioned olive cultivars.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/msphere.00534-20</t>
+  </si>
+  <si>
+    <t>The flavors of fermented plant foods and beverages are formed by microorganisms, and in the case of wine, the location and environmental features of the vineyard site also imprint the wine with distinctive aromas and flavors. Microbial growth and metabolism play an integral role in wine production, by influencing grapevine health, wine fermentation, and the flavor, aroma, and quality of finished wines. The contributions by which microbial distribution patterns drive wine metabolites are unclear, and while flavor has been correlated with fungal and bacterial composition for wine, bacterial activity provides fewer sensorially active biochemical conversions than fungi in wine fermentation. Here, we collected samples across six distinct wine-growing areas in southern Australia to investigate regional distribution patterns of fungi and bacteria and the association with wine chemical composition. Results show that both soil and must microbiota distinguish wine-growing regions. We found a relationship between microbial and wine metabolic profiles under different environmental conditions, in particular measures of soil properties and weather. Fungal communities are associated with wine regional distinctiveness. We found that the soil microbiome is a source of grape- and must-associated fungi and suggest that weather and soil could influence wine characteristics via the soil fungal community. Our report describes a comprehensive scenario of wine microbial biogeography where microbial diversity responds to the surrounding environment and correlates with wine composition and regional characteristics. These findings provide perspectives for thoughtful human practices to optimize food composition through understanding fungal activity and abundance.
+IMPORTANCE The composition of soil has long been thought to provide wine with characteristic regional flavors. Here, we show that for vineyards in southern Australia, the soil fungal communities are of primary importance for the aromas found in wines. We propose a mechanism by which fungi can move from the soil through the vine.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.825756</t>
+  </si>
+  <si>
+    <t>Flor yeast velum is a biofilm formed by certain yeast strains that distinguishesbiologically aged wines such as Sherry wine from southern Spain from others. AlthoughSaccharomyces cerevisiaeis the most common species, 5.8 S-internal transcribedspacer (ITS) restriction fragment length polymorphism analyses have revealed theexistence of non-Saccharomycesspecies. In order to uncover the flor microbiotadiversity at a species level, we used ITS (internal transcribed spacer 1)-metabarcodingand matrix-assisted laser desorption/Ionization time of flight mass spectrometrytechniques. Further, to enhance identification effectiveness, we performed an additionalincubation stage in 1:1 wine:yeast extract peptone dextrose (YPD) before identification.Six species were identified:S. cerevisiae,Pichia manshurica,Pichia membranifaciens,Wickerhamomyces anomalus,Candida guillermondii, andTrichosporon asahii, two ofwhich were discovered for the first time (C. guillermondiiandTrichosporon ashaii) inSherry wines. We analyzed wines where non-Saccharomycesyeasts were present orabsent to see any potential link between the microbiota and the chemical profile. Only2 significant volatile chemicals (out of 13 quantified), ethanol and ethyl lactate, and2 enological parameters (out of 6 quantified), such as pH and titratable acidity, werefound to differ in long-aged wines. Although results show a low impact where the non-Saccharomycesyeasts are present, these yeasts isolated from harsh environments (highethanol and low nutrient availability) could have a potential industrial interest in fields suchas food microbiology and biofuel production</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2022.109956</t>
+  </si>
+  <si>
+    <t>In the last several years, the popularity of homebrewed beers has skyrocketed. However, this type of product is extremely vulnerable to microbial deterioration. Twelve homemade beers, some characterized by defects or stuck fermentation, were analysed by using a polyphasic approach encompassing culturomics and culture-independent techniques to better understand mechanisms that drive microbiota evolution throughout production and to highlight determinants responsible for crowning with success. Two sour beers, one apple-flavoured ale, two Italian grape ales, and seven standard ales were sampled. Microbiological characterization was obtained by plating on nine different media coupled with High-throughput sequencing analysis of fungal and bacterial communities by targeting ITS1–2 and the V3–V4 regions of the 16S rRNA, respectively. Total microflora on PCA largely varied among samples, ranging from &lt;102 CFU/mL up to around 107 CFU/mL often reflecting yeast counts on WL and LM. LAB population's levels on MRS and SDBm did not overlap, with the counts on the latter being even 5 Log CFU/mL greater. Acetic Acid bacteria were retrieved in Sour beers, as well as in one IGA, even though acetic acid was not detectable by HPLC in this last sample. Brettanomyces spp. were only found in sour beers, as expected, whereas Enterobacteriaceae were never counted. A total of 63 yeasts were randomly isolated from countable plates. Saccharomyces cerevisiae and Wickerhamomyces anomalus were the most frequently isolated species. In many cases, Interdelta analysis biotyping of S. cerevisiae isolates consistently allowed the detection of the starter strain. By HST S. cerevisiae dominated the mycobiota in four samples, even if in one of them residual maltose and ethanol contents suggested a stuck fermentation. W. anomalus was found to be the dominant species in two beers. Fifty-five LAB cultures were isolated and identified. Pediococcus damnosus was the only species retrieved in sour beers and two Ales, while Levilactobacillus brevis was found in two Ale samples. HTS did not confirm this result in one Ale sample since the genus Panotea spp. accounted for over 90 % of the microbiota. Enterobacteriaceae which were never counted dominated the microbiome of two Ale beers. Biogenic amines content largely varied with three Ale samples greatly contaminated. Based on chemical and microbiological outcomes only one beer ASAle out of 12 could be considered acceptable. Furthermore, the widespread presence of LAB by culturomics and Enterobacteriaceae by HTS raises concerns about the final products' safety.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jbiosc.2023.06.010</t>
+  </si>
+  <si>
+    <t>Uninoculated wines are regarded as having improved mouthfeel and texture and more complex flavor profiles when compared to wines inoculated with commercial S. cerevisiae strains. Uninoculated fermentation involves a complex microbial succession of yeasts and bacteria during fermentation. Microbial population dynamics are affected by several factors that can ultimately determine if a particular species or strain contributes to wine aroma and flavor. In this work, we have studied the effect of aeration, a common winemaking practice, on the yeast microbiota during uninoculated Chardonnay wine fermentation. The timing of aeration and then aeration intensity were evaluated across two successive vintages. While the timing of aeration significantly impacted fermentation efficiency across oxygen treatments, different levels of aeration intensity only differed when compared to the non-aerated control ferments. Air addition increased the viable cell population size of yeast from the genera Hanseniaspora, Lachancea, Metschnikowia and Torulaspora in both vintages. While in 2019, a high relative abundance was found for Hanseniaspora species in aerated ferments, in 2020, T. delbrueckii was visibly more abundant than other species in response to aeration. Accompanying the observed differences in yeast community structure, the chemical profile of the finished wines was also different across the various aeration treatments. However, excessive aeration resulted in elevated concentrations of ethyl acetate and acetic acid, which would likely have a detrimental effect on wine quality. This work demonstrates the role of aeration in shaping yeast population dynamics and modulating a volatile profile in uninoculated wines, and highlights the need for careful air addition to avoid a negative sensory impact on wine flavor and aroma.</t>
+  </si>
+  <si>
+    <t>Forastero hybrid cocoa bean fermentations have been carried out in a box (B) and in a heap (H), with or without the inoculation of Saccharomyces cerevisiae and Torulaspora delbrueckii as starter cultures. The bacteria, yeasts, and microbial metabolites (volatile and nonvolatile organic compounds) were monitored during fermentation to assess the connection between microbiota and the release of metabolites during this process. The presence of starter cultures was detected, by means of culture-dependent analysis, during the first 2 days of both fermentations. However, no statistical difference was observed in any of the physicochemical or microbiological analyses. Plate counts revealed the dominance of yeasts at the beginning of both fermentations, and these were followed by acetic acid bacteria (AAB) and lactic acid bacteria (LAB). Hanseniaspora opuntiae, S. cerevisiae, Pichia pijperi, Acetobacter pasteurianus, and Lactobacillus fermentum were the most abundant operational taxonomic units (OTUs) during both fermentation processes (B and H), although different relative abundances were observed. Only the diversity of the fungal species indicated a higher level of complexity in the B fermentations than in the H fermentations (P &lt; 0.05), as well as a statistically significant difference between the initially inoculated starter cultures (P &lt; 0.01). However, the microbial metabolite analysis indicated different distributions of the volatile and nonvolatile compounds between the two procedures, that is, B and H (P &lt; 0.05), rather than between the inoculated and noninoculated fermentations. The box fermentations showed faster carbohydrate metabolism and greater production of organic acid compounds, which boosted the formation of alcohols and esters, than did the heap fermentations. Overall, the microbial dynamics and associations between the bacteria, yeasts, and metabolites were found to depend on the type of fermentation.
+IMPORTANCE In spite of the limited effectiveness of the considered inoculated starter strains, this study provides new information on the microbial development of box and heap cocoa fermentations, under inoculated and noninoculated conditions, as we coupled yeast/bacterial amplicon-based sequencing data with microbial metabolite detection. The information so far available suggests that microbial communities have played an important role in the evolution of aroma compounds. Understanding the pathways that microorganisms follow during the formation of aromas could be used to improve the fermentation processes and to enhance chocolate quality.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/fermentation7030134</t>
+  </si>
+  <si>
+    <t>Most modern fermented foods and beverages are produced in fit-for-purpose facilities which are designed to ensure not only a reliable product, but also one safe for consumption. Despite careful hygiene, microorganisms can colonise these facilities and establish resident populations that can potentially contribute to the fermentation process. Although some microorganisms may not negatively affect the final product, spoilage microorganisms can be detrimental for quality, generating substantial economic losses. Here, amplicon-based phylotyping was used to map microbial communities within an Australian winery, before, during and after the 2020 vintage. Resident bacterial and yeast populations were shown to change over time, with both relative abundance and location within the winery varying according to sampling date. The bacterial family Micrococcaceae, and the genera Sphingomonas and Brevundimonas were the most abundant bacterial taxonomies, while Naganishia, Pyrenochaeta and Didymella were the most abundant fungal genera. Mapping the spatial distributions of the microbial populations identified the main locations that harboured these resident microorganisms, that include known wine spoilage yeasts and bacteria. Wine spoilage microorganisms, including the genefugura Lactobacillus, Acetobacter, Gluconobacter and Brettanomyces showed very low relative abundance and were found only in a couple of locations within the winery. Microbial populations detected in this facility were also compared to the resident microbiota identified in other fermented food facilities, revealing that microbial population structures may reflect the nature of the product created in each facility.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.562560</t>
+  </si>
+  <si>
+    <t>Wine aged in barrels or bottles is susceptible to alteration by microorganisms that affect the final product quality. However, our knowledge of the microbiota during aging and the factors modulating the microbial communities is still quite limited. The present work uses high-throughput sequencing (HTS) techniques to deal with the meta-taxonomic characterization of microbial consortia present in red wines along 12 months aging. The wines obtained from two different grape varieties were aged at two different cellars and compared based on time of wine aging in the barrels, previous usage of the barrels, and differences between wine aging in oak barrels or glass bottles. The aging in barrels did not significantly affect the microbial diversity but changed the structure and composition of fungal and bacterial populations. The main microorganisms driving these changes were the bacterial genera Acetobacter, Oenococcus, Lactobacillus, Gluconobacter, Lactococcus, and Komagataeibacter and the fungal genera Malassezia, Hanseniaspora, and Torulaspora. Our results showed that the oak barrels increased effect on the microbial diversity in comparison with the glass bottles, in which the microbial community was very similar to that of the wine introduced in the barrels at the beginning of the aging. Furthermore, wine in the bottles harbored higher proportion of Lactobacillus but lower proportion of Acetobacter. Finally, it seems that 1 year of previous usage of the barrels was not enough to induce significant changes in the diversity or composition of microbiota through aging compared with new barrels. This is the first meta-taxonomic study on microbial communities during wine aging and shows that the microorganism composition of barrel-aged wines was similar at both cellars. These results hint at the possibility of a common and stable microbiota after aging in the absence of exogenous alterations. Further corroborations on the current outcome would be valuable for the comparison and detection of microbial alterations during aging that could potentially prevent economic losses in the wine industry.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods12081695</t>
+  </si>
+  <si>
+    <t>It is profitable to export fresh meat overseas, where it is often regarded as a premium commodity. Meeting this demand for fresh meat, however, necessitates long export times, during which uncontrolled temperature increases can affect the microbiological quality of the meat and thereby, reduce shelf life or compromise food safety. To study the impact of temperature deviations on microbial community composition and diversity, we used 16S rRNA gene sequencing for Listeria monocytogenes and Salmonella spp. detection to describe the surface microbiota of eight batches of vacuum-packed loins stored at −1.5 °C (control) for 56 days and subjected to a 2 °C or 10 °C temperature deviation for a few hours (mimicking problems regularly encountered in the industry) at day 15 or 29. The presence of pathogens was negligible. The applied temperature deviations were not associated with different microbiota. Sequencing analysis showed the presence of Yersinia, an unexpected pathogen, and relative abundance increased in the groups subjected to temperature deviations. Over time, Lactobacillales_unclassified genus became the main constituent of the microbiota of vacuum-packed pork loins. Although the microbiota of the eight batches appeared similar at the beginning of storage, differences were revealed after 56 days, suggesting unequal aging of the microbiota.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2023.112926</t>
+  </si>
+  <si>
+    <t>In this study, Caciocavallo Podolico Lucano (CPL) cheese was deeply characterized for its bacterial community, chemical composition and sensory aspects. The entire cheese making process (from milk collection to ripened cheese) was performed by strictly applying the traditional protocol for CPL production in four dairy factories (A–D) representative of the production area. The vat made of wood represents the main transformation tool for CPL cheese production and the biofilms hosted onto the internal surfaces of all vats analyzed in this study were dominated by lactic acid bacteria. Total mesophilic microorganisms present in bulk milk (4.7–5.0 log CFU/ml) increased consistently after contact with the wooden vat surfaces (5.4–6.4 log CFU/ml). The application of Illumina sequencing technology identified barely 18 taxonomic groups among processed samples; streptococci and lactobacilli constituted the major groups of the wooden vat biofilms [94.74–99.70 % of relative abundance (RA)], while lactobacilli dominated almost entirely (94.19–100 % of total RA) the bacterial community of ripened cheeses. Except coagulase positive staphylococci, undesirable bacteria were undetectable. Among chemical parameters, significant variations were registered for unsaturated, monounsaturated, polyunsaturated fatty acids and antioxidant properties (significantly lower for CPL cheeses produced in factory B). The cheeses from factories A, C and D were characterized by a higher lactic acid and persistence smell attributes than factory B. This work indicated that the strict application of CPL cheese making protocol harmonized the main microbiological, physicochemical and sensory parameters of the final cheeses produced in the four factories investigated.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2023.112743</t>
+  </si>
+  <si>
+    <t>Our study investigated the chemical, microbiological, and bioactive peptide profiles of Asiago Protected Designation of Origin (PDO) cheese from two dairies (Dairy I and II) produced over two consecutive days (batches) and analysed during three months of ripening. The effect of different starter cultures was evaluated. The microbiome varied between the dairies and batches, with curds post-salting dominated by the starter culture-associated genera. During ripening, there was an increasing trend in the Lactobacillus genus, especially for Dairy I, which used an industrial starter. Bioactive peptide intensities differed throughout ripening due to the extent of proteolysis, and their intensity or concentration evolved, modifying, and differentiating profiles. The industrial starter used in Dairy I had the highest relative intensity (average value 76.50%) of bioactive peptides after three months of ripening. In contrast, the cheeses made with natural milk starter (Dairy II) had lower total relative intensity (average value 47.75%) but produced ACE-inhibitory peptides through sub-dominant strains and non-starter lactic acid bacteria. The importance of autochthonous strains of each micro-region even within a delimited PDO production area was highlighted.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2023.1154508</t>
+  </si>
+  <si>
+    <t>In cheese production, microorganisms are usually added at the beginning of the process as primary starters to drive curd acidification, while secondary microorganisms, with other pro-technological features important for cheese ripening, are added as selected cultures. This research aimed to investigate the possibilities of influencing and selecting the raw milk microbiota using artisanal traditional methods, providing a simple method to produce a natural supplementary culture. We investigated the production of an enriched raw milk whey culture (eRWC), a natural adjunct microbial culture produced from mixing an enriched raw milk (eRM) with a natural whey culture (NWC). The raw milk was enriched by spontaneous fermentation for 21 d at 10°C. Three milk enrichment protocols were tested: heat treatment before incubation, heat treatment plus salt addition, and no treatment. The eRMs were then co-fermented with NWC (ratio of 1:10) at 38°C for 6 h (young eRWC) and 22 h (old eRWC). Microbial diversity during cultures’ preparation was evaluated through the determination of colony forming units on selective growth media, and next-generation sequencing (16S rRNA gene amplicon sequencing). The enrichment step increased the streptococci and lactobacilli but reduced microbial richness and diversity of the eRMs. Although the lactic acid bacteria viable count was not significantly different between the eRWCs, they harbored higher microbial richness and diversity than NWC. Natural adjunct cultures were then tested in cheese making trials, following the microbial development, and assessing the chemical quality of the 120 d ripened cheeses. The use of eRWCs slowed the curd acidification in the first hours of cheese making but the pH 24 h after production settled to equal values for all the cheeses. Although the use of diverse eRWCs contributed to having a richer and more diverse microbiota in the early stages of cheese making, their effect decreased over time during ripening, showing an inferior effect to the raw milk microbiota. Even if more research is needed, the optimization of such a tool could be an alternative to the practice of isolating, geno-pheno-typing, and formulating mixed-defined-strain adjunct cultures that require knowledge and facilities not always available for artisanal cheese makers.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2023.1196879</t>
+  </si>
+  <si>
+    <t>Mozzarella di Bufala Campana PDO cheese (MBC) is a globally esteemed Italian cheese. The traditional cheesemaking process of MBC relies on natural whey starter culture, water buffalo's milk, and the local agroecosystem. In this study, the microbial ecology of intermediate samples of MBC production, coming from two dairies with slightly different cheesemaking technology (dairy M large producer, and dairy C medium-small), was investigated using 16S rRNA amplicon sequencing. This research aimed to provide insights into the dynamics of microbial consortia involved in various cheesemaking steps. All samples, except for raw buffalo milk, exhibited a core microbiome predominantly composed of Streptococcus spp. and Lactobacillus spp., albeit with different ratios between the two genera across the two MBC producers. Notably, the microbiota of the brine from both dairies, analyzed using 16S amplicon sequencing for the first time, was dominated by the Lactobacillus and Streptococcus genera, while only dairy C showed the presence of minor genera such as Pediococcus and Lentilactobacillus. Intriguingly, the final mozzarella samples from both producers displayed an inversion in the dominance of Lactobacillus spp. over Streptococcus spp. in the microbiota compared to curd samples, possibly attributable to the alleviation of thermal stress following the curd stretching step. In conclusion, the different samples from the two production facilities did not exhibit significant differences in terms of the species involved in MBC cheesemaking. This finding confirms that the key role in the MBC cheesemaking process lies with a small-sized microbiome primarily composed of Streptococcus and Lactobacillus spp.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2023.104419</t>
+  </si>
+  <si>
+    <t>Ready-to-eat (RTE) chicken products are prone to bacterial contamination, posing foodborne illness risks. High-throughput sequencing (HTS) has been widely used to study the distribution of pathogenic and spoilage bacteria in RTE chicken products but lacks quantitative data on taxa abundances. In this study, we employed a method combining HTS with absolute quantification, using Edwardsiella tarda as an internal standard strain, to achieve the relative and absolute abundances of microbiota in RTE chicken products stored at 4 and 25 °C. The results showed that the addition of appropriate concentration of internal standard strains exhibited no significant impact on the structure composition, relative abundance, and absolute abundance of bacterial communities in chicken meat, achieving comprehensive absolute quantification in RTE chicken products. Furthermore, the absolute abundance of bacterial genera at the end of storage followed a log-normal distribution, with most genera having an absolute abundance between 103 and 105 CFU/g. This study provides insights into the quantification of bacterial communities in RTE chicken products, laying a foundation for the development of strategies to extend the shelf life of RTE products.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2023.112775</t>
+  </si>
+  <si>
+    <t>As poultry possesses a high risk of contamination by various pathogens and has repeatedly been linked to foodborne outbreaks, ensuring microbiological safety throughout the chicken production chain is essential. In this study, bacterial communities in chickens and associated environments (n = 72), including feces, floors, gloves, and worktables, were trace investigated from the broiler farm, slaughterhouse, meat processing plant, and the market by amplicon sequencing of the V4 region of the 16S rRNA. The bacterial composition in live chickens along the production chain significantly changed across the stages, with distinct microbiota noted at each step. Pseudomonas, Shewanella, Acinetobacter, and Psychrobacter were dominant in the final products. Staphylococcus was abundant in live birds originally (36.83 %) but dramatically decreased after slaughter (3.07 %, 0.06 %, and 0.42 % in slaughtered, processed, and market carcasses, respectively), which may be attributed to defeathering. The proportion of Enterobacteriaceae, Acinetobacter, and Pseudomonas increased from 0.95 %, 0.03 %, and 0.04 % before slaughter to 13.57 %, 34.19 %, and 21.90 %, respectively, after slaughter, highlighting the importance of hygiene management in the succeeding steps. Diversity analysis revealed the possibility of bacterial transmission between samples from the processing plant and the market. Source tracking was performed to identify microbial contamination routes in the chicken microbiome; the major bacterial sources in the final products were the samples from the processing plant (such as processed carcasses, gloves, and worktables), accounting for 93.53 % of the total microbial sources. These results suggest that in-depth knowledge of microbial transmission between chickens and their surroundings can facilitate a precise understanding of microbiological concerns across the poultry production system and help establish safety management measures for the poultry industry.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1531,39 +1635,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1575,19 +1653,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1899,20 +1971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0F821E-4D0E-9C48-880F-AED2209EDDE4}">
-  <dimension ref="A1:C252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C781AEBC-C641-064D-ACC0-B023AB65836A}">
+  <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B226" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B252" sqref="B252"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1926,2560 +1992,2560 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
+      <c r="B20" t="s">
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
+      <c r="B22" t="s">
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
+      <c r="B23" t="s">
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
+      <c r="B24" t="s">
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
+      <c r="B25" t="s">
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
+      <c r="B27" t="s">
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>33</v>
+      <c r="B32" t="s">
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
+      <c r="B33" t="s">
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>35</v>
+      <c r="B34" t="s">
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
+      <c r="B35" t="s">
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>37</v>
+      <c r="B36" t="s">
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
+      <c r="B37" t="s">
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>39</v>
+      <c r="B38" t="s">
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>40</v>
+      <c r="B39" t="s">
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>41</v>
+      <c r="B40" t="s">
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>42</v>
+      <c r="B41" t="s">
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>43</v>
+      <c r="B42" t="s">
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
+      <c r="B43" t="s">
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
+      <c r="B44" t="s">
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
+      <c r="B45" t="s">
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
+      <c r="B46" t="s">
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
+      <c r="B47" t="s">
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
+      <c r="B48" t="s">
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
+      <c r="B49" t="s">
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>51</v>
+      <c r="B50" t="s">
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>52</v>
+      <c r="B51" t="s">
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>53</v>
+      <c r="B52" t="s">
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>54</v>
+      <c r="B53" t="s">
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
+      <c r="B54" t="s">
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>56</v>
+      <c r="B55" t="s">
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>57</v>
+      <c r="B56" t="s">
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>58</v>
+      <c r="B57" t="s">
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>59</v>
+      <c r="B58" t="s">
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>60</v>
+      <c r="B59" t="s">
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>61</v>
+      <c r="B60" t="s">
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>62</v>
+      <c r="B61" t="s">
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>63</v>
+      <c r="B62" t="s">
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>64</v>
+      <c r="B63" t="s">
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>65</v>
+      <c r="B64" t="s">
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>66</v>
+      <c r="B65" t="s">
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>67</v>
+      <c r="B66" t="s">
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>68</v>
+      <c r="B67" t="s">
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>69</v>
+      <c r="B68" t="s">
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>70</v>
+      <c r="B69" t="s">
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>71</v>
+      <c r="B70" t="s">
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>72</v>
+      <c r="B71" t="s">
+        <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>73</v>
+      <c r="B72" t="s">
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>74</v>
+      <c r="B73" t="s">
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>304</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>75</v>
+      <c r="B74" t="s">
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>76</v>
+      <c r="B75" t="s">
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>77</v>
+      <c r="B76" t="s">
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>78</v>
+      <c r="B77" t="s">
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>79</v>
+      <c r="B78" t="s">
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>80</v>
+      <c r="B79" t="s">
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>81</v>
+      <c r="B80" t="s">
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>82</v>
+      <c r="B81" t="s">
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>83</v>
+      <c r="B82" t="s">
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
+      <c r="B83" t="s">
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>314</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>315</v>
+      <c r="B84" t="s">
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>316</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>85</v>
+      <c r="B85" t="s">
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>317</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>86</v>
+      <c r="B86" t="s">
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>318</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>87</v>
+      <c r="B87" t="s">
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>319</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>88</v>
+      <c r="B88" t="s">
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>320</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>89</v>
+      <c r="B89" t="s">
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>321</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>90</v>
+      <c r="B90" t="s">
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>322</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>91</v>
+      <c r="B91" t="s">
+        <v>180</v>
       </c>
       <c r="C91" t="s">
-        <v>323</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>92</v>
+      <c r="B92" t="s">
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>324</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>93</v>
+      <c r="B93" t="s">
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>325</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>94</v>
+      <c r="B94" t="s">
+        <v>186</v>
       </c>
       <c r="C94" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>95</v>
+      <c r="B95" t="s">
+        <v>188</v>
       </c>
       <c r="C95" t="s">
-        <v>327</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>96</v>
+      <c r="B96" t="s">
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>97</v>
+      <c r="B97" t="s">
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>98</v>
+      <c r="B98" t="s">
+        <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>99</v>
+      <c r="B99" t="s">
+        <v>196</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>100</v>
+      <c r="B100" t="s">
+        <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>101</v>
+      <c r="B101" t="s">
+        <v>200</v>
       </c>
       <c r="C101" t="s">
-        <v>333</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>102</v>
+      <c r="B102" t="s">
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>103</v>
+      <c r="B103" t="s">
+        <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>104</v>
+      <c r="B104" t="s">
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>336</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>105</v>
+      <c r="B105" t="s">
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>106</v>
+      <c r="B106" t="s">
+        <v>210</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>107</v>
+      <c r="B107" t="s">
+        <v>212</v>
       </c>
       <c r="C107" t="s">
-        <v>339</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>108</v>
+      <c r="B108" t="s">
+        <v>214</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>109</v>
+      <c r="B109" t="s">
+        <v>216</v>
       </c>
       <c r="C109" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>110</v>
+      <c r="B110" t="s">
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>111</v>
+      <c r="B111" t="s">
+        <v>220</v>
       </c>
       <c r="C111" t="s">
-        <v>343</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>112</v>
+      <c r="B112" t="s">
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>344</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>113</v>
+      <c r="B113" t="s">
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>114</v>
+      <c r="B114" t="s">
+        <v>226</v>
       </c>
       <c r="C114" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>115</v>
+      <c r="B115" t="s">
+        <v>228</v>
       </c>
       <c r="C115" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>116</v>
+      <c r="B116" t="s">
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>348</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>117</v>
+      <c r="B117" t="s">
+        <v>232</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>118</v>
+      <c r="B118" t="s">
+        <v>234</v>
       </c>
       <c r="C118" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>119</v>
+      <c r="B119" t="s">
+        <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>120</v>
+      <c r="B120" t="s">
+        <v>238</v>
       </c>
       <c r="C120" t="s">
-        <v>352</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>121</v>
+      <c r="B121" t="s">
+        <v>240</v>
       </c>
       <c r="C121" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>122</v>
+      <c r="B122" t="s">
+        <v>242</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>123</v>
+      <c r="B123" t="s">
+        <v>244</v>
       </c>
       <c r="C123" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>124</v>
+      <c r="B124" t="s">
+        <v>246</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>124</v>
+      <c r="B125" t="s">
+        <v>246</v>
       </c>
       <c r="C125" t="s">
-        <v>356</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>125</v>
+      <c r="B126" t="s">
+        <v>248</v>
       </c>
       <c r="C126" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>126</v>
+      <c r="B127" t="s">
+        <v>250</v>
       </c>
       <c r="C127" t="s">
-        <v>358</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>127</v>
+      <c r="B128" t="s">
+        <v>252</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>128</v>
+      <c r="B129" t="s">
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>129</v>
+      <c r="B130" t="s">
+        <v>256</v>
       </c>
       <c r="C130" t="s">
-        <v>361</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>130</v>
+      <c r="B131" t="s">
+        <v>258</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>131</v>
+      <c r="B132" t="s">
+        <v>260</v>
       </c>
       <c r="C132" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>132</v>
+      <c r="B133" t="s">
+        <v>262</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>133</v>
+      <c r="B134" t="s">
+        <v>264</v>
       </c>
       <c r="C134" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>134</v>
+      <c r="B135" t="s">
+        <v>266</v>
       </c>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>135</v>
+      <c r="B136" t="s">
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>136</v>
+      <c r="B137" t="s">
+        <v>270</v>
       </c>
       <c r="C137" t="s">
-        <v>368</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>137</v>
+      <c r="B138" t="s">
+        <v>272</v>
       </c>
       <c r="C138" t="s">
-        <v>369</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>138</v>
+      <c r="B139" t="s">
+        <v>274</v>
       </c>
       <c r="C139" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>139</v>
+      <c r="B140" t="s">
+        <v>276</v>
       </c>
       <c r="C140" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>140</v>
+      <c r="B141" t="s">
+        <v>278</v>
       </c>
       <c r="C141" t="s">
-        <v>372</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>141</v>
+      <c r="B142" t="s">
+        <v>280</v>
       </c>
       <c r="C142" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>142</v>
+      <c r="B143" t="s">
+        <v>282</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>143</v>
+      <c r="B144" t="s">
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>375</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>144</v>
+      <c r="B145" t="s">
+        <v>286</v>
       </c>
       <c r="C145" t="s">
-        <v>376</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>145</v>
+      <c r="B146" t="s">
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>146</v>
+      <c r="B147" t="s">
+        <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>147</v>
+      <c r="B148" t="s">
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>379</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>148</v>
+      <c r="B149" t="s">
+        <v>294</v>
       </c>
       <c r="C149" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>149</v>
+      <c r="B150" t="s">
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>150</v>
+      <c r="B151" t="s">
+        <v>298</v>
       </c>
       <c r="C151" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>151</v>
+      <c r="B152" t="s">
+        <v>300</v>
       </c>
       <c r="C152" t="s">
-        <v>383</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>152</v>
+      <c r="B153" t="s">
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>384</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>153</v>
+      <c r="B154" t="s">
+        <v>304</v>
       </c>
       <c r="C154" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>154</v>
+      <c r="B155" t="s">
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>155</v>
+      <c r="B156" t="s">
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>156</v>
+      <c r="B157" t="s">
+        <v>310</v>
       </c>
       <c r="C157" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>157</v>
+      <c r="B158" t="s">
+        <v>312</v>
       </c>
       <c r="C158" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>158</v>
+      <c r="B159" t="s">
+        <v>314</v>
       </c>
       <c r="C159" t="s">
-        <v>390</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>159</v>
+      <c r="B160" t="s">
+        <v>316</v>
       </c>
       <c r="C160" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>160</v>
+      <c r="B161" t="s">
+        <v>318</v>
       </c>
       <c r="C161" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>161</v>
+      <c r="B162" t="s">
+        <v>320</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>162</v>
+      <c r="B163" t="s">
+        <v>322</v>
       </c>
       <c r="C163" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>163</v>
+      <c r="B164" t="s">
+        <v>324</v>
       </c>
       <c r="C164" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>164</v>
+      <c r="B165" t="s">
+        <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>165</v>
+      <c r="B166" t="s">
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>166</v>
+      <c r="B167" t="s">
+        <v>330</v>
       </c>
       <c r="C167" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>167</v>
+      <c r="B168" t="s">
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>168</v>
+      <c r="B169" t="s">
+        <v>334</v>
       </c>
       <c r="C169" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>169</v>
+      <c r="B170" t="s">
+        <v>336</v>
       </c>
       <c r="C170" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>170</v>
+      <c r="B171" t="s">
+        <v>338</v>
       </c>
       <c r="C171" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>171</v>
+      <c r="B172" t="s">
+        <v>340</v>
       </c>
       <c r="C172" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>172</v>
+      <c r="B173" t="s">
+        <v>342</v>
       </c>
       <c r="C173" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>173</v>
+      <c r="B174" t="s">
+        <v>344</v>
       </c>
       <c r="C174" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>174</v>
+      <c r="B175" t="s">
+        <v>346</v>
       </c>
       <c r="C175" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>175</v>
+      <c r="B176" t="s">
+        <v>348</v>
       </c>
       <c r="C176" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>176</v>
+      <c r="B177" t="s">
+        <v>350</v>
       </c>
       <c r="C177" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>177</v>
+      <c r="B178" t="s">
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>178</v>
+      <c r="B179" t="s">
+        <v>354</v>
       </c>
       <c r="C179" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>179</v>
+      <c r="B180" t="s">
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>180</v>
+      <c r="B181" t="s">
+        <v>358</v>
       </c>
       <c r="C181" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>181</v>
+      <c r="B182" t="s">
+        <v>360</v>
       </c>
       <c r="C182" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>182</v>
+      <c r="B183" t="s">
+        <v>362</v>
       </c>
       <c r="C183" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>183</v>
+      <c r="B184" t="s">
+        <v>364</v>
       </c>
       <c r="C184" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>184</v>
+      <c r="B185" t="s">
+        <v>366</v>
       </c>
       <c r="C185" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>185</v>
+      <c r="B186" t="s">
+        <v>368</v>
       </c>
       <c r="C186" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>186</v>
+      <c r="B187" t="s">
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>187</v>
+      <c r="B188" t="s">
+        <v>372</v>
       </c>
       <c r="C188" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>188</v>
+      <c r="B189" t="s">
+        <v>374</v>
       </c>
       <c r="C189" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>189</v>
+      <c r="B190" t="s">
+        <v>376</v>
       </c>
       <c r="C190" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>190</v>
+      <c r="B191" t="s">
+        <v>378</v>
       </c>
       <c r="C191" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>191</v>
+      <c r="B192" t="s">
+        <v>380</v>
       </c>
       <c r="C192" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>192</v>
+      <c r="B193" t="s">
+        <v>382</v>
       </c>
       <c r="C193" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>193</v>
+      <c r="B194" t="s">
+        <v>384</v>
       </c>
       <c r="C194" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>194</v>
+      <c r="B195" t="s">
+        <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>195</v>
+      <c r="B196" t="s">
+        <v>388</v>
       </c>
       <c r="C196" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>196</v>
+      <c r="B197" t="s">
+        <v>390</v>
       </c>
       <c r="C197" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>197</v>
+      <c r="B198" t="s">
+        <v>392</v>
       </c>
       <c r="C198" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>198</v>
+      <c r="B199" t="s">
+        <v>394</v>
       </c>
       <c r="C199" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>199</v>
+      <c r="B200" t="s">
+        <v>396</v>
       </c>
       <c r="C200" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>200</v>
+      <c r="B201" t="s">
+        <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>201</v>
+      <c r="B202" t="s">
+        <v>400</v>
       </c>
       <c r="C202" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>202</v>
+      <c r="B203" t="s">
+        <v>402</v>
       </c>
       <c r="C203" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>203</v>
+      <c r="B204" t="s">
+        <v>404</v>
       </c>
       <c r="C204" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>204</v>
+      <c r="B205" t="s">
+        <v>406</v>
       </c>
       <c r="C205" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>205</v>
+      <c r="B206" t="s">
+        <v>408</v>
       </c>
       <c r="C206" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>206</v>
+      <c r="B207" t="s">
+        <v>410</v>
       </c>
       <c r="C207" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>207</v>
+      <c r="B208" t="s">
+        <v>412</v>
       </c>
       <c r="C208" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>208</v>
+      <c r="B209" t="s">
+        <v>414</v>
       </c>
       <c r="C209" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>209</v>
+      <c r="B210" t="s">
+        <v>416</v>
       </c>
       <c r="C210" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>210</v>
+      <c r="B211" t="s">
+        <v>418</v>
       </c>
       <c r="C211" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>211</v>
+      <c r="B212" t="s">
+        <v>420</v>
       </c>
       <c r="C212" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>212</v>
+      <c r="B213" t="s">
+        <v>422</v>
       </c>
       <c r="C213" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>213</v>
+      <c r="B214" t="s">
+        <v>424</v>
       </c>
       <c r="C214" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>214</v>
+      <c r="B215" t="s">
+        <v>426</v>
       </c>
       <c r="C215" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>215</v>
+      <c r="B216" t="s">
+        <v>428</v>
       </c>
       <c r="C216" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>216</v>
+      <c r="B217" t="s">
+        <v>430</v>
       </c>
       <c r="C217" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>217</v>
+      <c r="B218" t="s">
+        <v>432</v>
       </c>
       <c r="C218" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>218</v>
+      <c r="B219" t="s">
+        <v>434</v>
       </c>
       <c r="C219" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>219</v>
+      <c r="B220" t="s">
+        <v>436</v>
       </c>
       <c r="C220" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>220</v>
+      <c r="B221" t="s">
+        <v>438</v>
       </c>
       <c r="C221" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>221</v>
+      <c r="B222" t="s">
+        <v>440</v>
       </c>
       <c r="C222" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>222</v>
+      <c r="B223" t="s">
+        <v>442</v>
       </c>
       <c r="C223" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>223</v>
+      <c r="B224" t="s">
+        <v>444</v>
       </c>
       <c r="C224" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>224</v>
+      <c r="B225" t="s">
+        <v>446</v>
       </c>
       <c r="C225" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>225</v>
+      <c r="B226" t="s">
+        <v>448</v>
       </c>
       <c r="C226" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>226</v>
+      <c r="B227" t="s">
+        <v>450</v>
       </c>
       <c r="C227" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>227</v>
+      <c r="B228" t="s">
+        <v>452</v>
       </c>
       <c r="C228" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>228</v>
+      <c r="B229" t="s">
+        <v>454</v>
       </c>
       <c r="C229" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>229</v>
+      <c r="B230" t="s">
+        <v>456</v>
       </c>
       <c r="C230" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>230</v>
+      <c r="B231" t="s">
+        <v>458</v>
       </c>
       <c r="C231" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>231</v>
+      <c r="B232" t="s">
+        <v>460</v>
       </c>
       <c r="C232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>232</v>
+      <c r="B233" t="s">
+        <v>462</v>
       </c>
       <c r="C233" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>233</v>
+      <c r="B234" t="s">
+        <v>464</v>
       </c>
       <c r="C234" t="s">
         <v>465</v>
@@ -4504,7 +4570,7 @@
         <v>468</v>
       </c>
       <c r="C236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4512,18 +4578,18 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C237" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>475</v>
+      <c r="B238" t="s">
+        <v>472</v>
       </c>
       <c r="C238" t="s">
         <v>473</v>
@@ -4534,10 +4600,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C239" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4545,10 +4611,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="C240" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4556,10 +4622,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C241" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4567,10 +4633,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>477</v>
+      </c>
+      <c r="C242" t="s">
         <v>478</v>
-      </c>
-      <c r="C242" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4600,10 +4666,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C245" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -4611,10 +4677,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>194</v>
+        <v>386</v>
       </c>
       <c r="C246" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4622,10 +4688,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>485</v>
+      </c>
+      <c r="C247" t="s">
         <v>486</v>
-      </c>
-      <c r="C247" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4633,10 +4699,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C248" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4644,10 +4710,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C249" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -4655,10 +4721,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C250" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -4677,18 +4743,233 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>491</v>
+      </c>
+      <c r="C252" t="s">
         <v>492</v>
       </c>
-      <c r="C252" t="s">
-        <v>491</v>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>493</v>
+      </c>
+      <c r="C253" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>495</v>
+      </c>
+      <c r="C254" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>497</v>
+      </c>
+      <c r="C255" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>499</v>
+      </c>
+      <c r="C256" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>501</v>
+      </c>
+      <c r="C257" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>503</v>
+      </c>
+      <c r="C258" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>505</v>
+      </c>
+      <c r="C259" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>507</v>
+      </c>
+      <c r="C260" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>158</v>
+      </c>
+      <c r="C261" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>510</v>
+      </c>
+      <c r="C262" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>232</v>
+      </c>
+      <c r="C263" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>501</v>
+      </c>
+      <c r="C264" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>512</v>
+      </c>
+      <c r="C265" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>514</v>
+      </c>
+      <c r="C266" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>516</v>
+      </c>
+      <c r="C267" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>518</v>
+      </c>
+      <c r="C268" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>520</v>
+      </c>
+      <c r="C269" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>522</v>
+      </c>
+      <c r="C270" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>524</v>
+      </c>
+      <c r="C271" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>526</v>
+      </c>
+      <c r="C272" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C234" xr:uid="{0F0F821E-4D0E-9C48-880F-AED2209EDDE4}"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1893EEE2-D99C-3E43-9281-0CF063C6C557}"/>
-    <hyperlink ref="B84" r:id="rId2" xr:uid="{43879421-2C75-2643-A42B-3509AED6FBFB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/the_real_thing/FMBN_5/Excel_text_files_v5/Abstracts.xlsx
+++ b/the_real_thing/FMBN_5/Excel_text_files_v5/Abstracts.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenioparente/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN5_0_1_040924/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenioparente/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN_5_1/FMBN5_1_1_060525/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9987AADC-4DCF-DD4C-9B88-B8B79615D075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F057AC3-9ECA-4547-ABE1-42FD0C3B75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="7900" windowWidth="26040" windowHeight="14940" xr2:uid="{BF964EF4-E532-4340-86F2-91B17A2C867A}"/>
+    <workbookView xWindow="4780" yWindow="500" windowWidth="31940" windowHeight="17560" xr2:uid="{EC83DC76-DA63-8B42-8906-4BAF203BC638}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$234</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="579">
   <si>
     <t>study</t>
   </si>
@@ -49,489 +52,936 @@
     <t>https://doi.org/10.1016/j.ijfoodmicro.2015.09.002</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2015.10.014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0089680</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.02218-12</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0069371</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.00757-14</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.02097-14</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2014.05.021</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.00999-16</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/srep21871</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0070222</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2015.01.016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.03093-15</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0069074</t>
+  </si>
+  <si>
+    <t>https://doi.org/unpublished data</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.04161-14</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.02955-13</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.02294-15</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.03941-14</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2014.10.018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.00793-16</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2015.10.008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2015.07.004</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2015.04.047</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.04054-14</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2015.06.002</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2015.06.009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijerph120810171</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.02228-15</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0059310</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/ismej.2014.202</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.00918-12</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/mSystems.00023-16</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2015.12.009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2016.01272</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.01494-17</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.05.019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.11.004</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-017-18447-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2017.02119</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2016.09.026</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/mSystems.00052-16</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2016.10.018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2016.11.016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12866-018-1323-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3168/jds.2017-14083</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0205054</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2018.12.007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2018.12.014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2017.09.009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.00983-17</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2012.04.016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.00323-16</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.10.012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2017.11.003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.04.032</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.09.017</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.meatsci.2018.09.001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2019.04.003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2018.11.039</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2019.01.008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-017-11552-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.12.021</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodcont.2018.09.016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s40168-016-0193-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2018.08.003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2013.04.015</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.micres.2017.09.004</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.03837-13</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.03470-14</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1471-2180-13-274</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.12.022</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2011.10.011</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.04.002</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.04.006</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.11.006</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12866-015-0497-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/pathogens8010037</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.01164-18</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2017.03.019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-20862-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.idairyj.2019.104539</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.03.027</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s40168-019-0726-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jbiosc.2019.02.006</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.00270-19</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3168/jds.2019-16403</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0184710</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods8100489</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.08.018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AEM.00255-18</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2017.09.012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.103261</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-019-50190-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.103251</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2018.11.033</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2019.00531</t>
+  </si>
+  <si>
+    <t>https://doi.org/110.3390/microorganisms7090371</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2018.04.012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.04.013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2019.108286</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/lam.13212</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.103305</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2017.07.011</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0153213</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2020.103453</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.07.002</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2018.02218</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/aem.02165-19</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2019.00093</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.103390</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2020.103417</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.103385</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3168/jds.2019-17455</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2019.03012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jam.14597</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/mbo3.1009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2019.02502</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0226965</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2020.103503</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2019.103405</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3168/jds.2019-17359</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/mSystems.00226-20</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108610</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108631</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2020.103547</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.00758</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2020.109118</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00253-020-10651-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/app10124063</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.01128</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2020.103504</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13568-020-01069-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.idairyj.2020.104804</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.01212</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.01657</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108779</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2019.02747</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.586614</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2019.108937</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2020.103591</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/microorganisms8091270</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.idairyj.2020.104878</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/microorganisms8020218</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13568-020-01080-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.581658</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.564749</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3168/jds.2020-18208</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.541972</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41522-020-0136-z</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2020.103648</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2020.109586</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2020.109684</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2020.109426</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.592060</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2020.109369</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2020.109645</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109059</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2020.103658</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.micres.2020.126593</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2020.602404</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3168/jds.2020-18277</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109130</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2020.109030</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.meatsci.2020.108348</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/aem.01861-20</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-020-77054-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.616429</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.lwt.2021.110877</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.642789</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-021-81105-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.681185</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodcont.2021.108160</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.678012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3168/jds.2021-20123</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1462-2920.15407</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2021.103754</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.689520</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.621069</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/microorganisms9030561</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodcont.2021.108286</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00284-021-02367-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.644828</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109322</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.662957</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/microorganisms9061223</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00248-021-01709-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.jafc.1c01607</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/aem.01524-21</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jfpp.15919</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2021.103878</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2020.109800</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.776862</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods10061189</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12275-021-0219-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2021.110668</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2021.110316</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.726483</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3168/jds.2021-20661</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2022.111075</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12866-022-02451-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2022.111063</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/msystems.00830-21</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.lwt.2021.112125</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7717/peerj.12345</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2022.103996</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/microorganisms10030613</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/spectrum.01751-21</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1758-2229.13045</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/microorganisms10020334</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2022.111481</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.767770</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/mec.16630</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1089/fpd.2022.0014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods11142164</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2022.110990</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2022.111019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijgfs.2022.100509</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1089/fpd.2021.0116</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodcont.2022.109158</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2022.850720</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/msystems.00701-22</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2022.112007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2022.1101515</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2023.110111</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2022.109917</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fbio.2022.102077</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods11182775</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2022.104154</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/microorganisms11030803</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2023.104307</t>
+  </si>
+  <si>
     <t>The microbiota of high-moisture Mozzarella cheese made from cow's milk and produced with different acidification methods was evaluated at the end of refrigerated storage by pyrosequencing of the 16S rRNA gene. The cheeses were clearly separated on the basis of the acidification methods. Cheeses produced with the addition of starters were dominated by Streptococcus thermophilus, but a variety of lactic acid bacteria and spoilage microorganisms appeared at low levels (0.01–1%). Cheeses produced by direct addition of citric acid were dominated by a diverse microbiota, including both lactic acid bacteria and psychrotrophic γ-proteobacteria. For five brands the acidification system was not declared on the label: the microbiota was dominated by thermophilic lactic acid bacteria (S. thermophilus, Lactobacillus delbrueckii, Lactobacillus helveticus) but a variety of other subdominant lactic acid bacteria, psychrotrophs and Enterobacteriaceae were present, with a diversity comparable or higher to cheeses produced by direct acid addition. This led to the conclusion that undefined starters were used for acidification. Both ordination methods and network analysis were used for the representation of beta-diversity: matrix cluster analysis, principal coordinate analysis and OTU networks uncovered different aspects of the microbial community structure. For three cheese brands both biological replicates (cheeses from different lots) and technical replicates (replicate cheeses from the same lot) were analyzed. Repeatability was acceptable for OTUs appearing at frequencies &gt; 1%, but was low otherwise. A linear mixed model showed that the starter system was responsible for most differences related to dairies, while difference due to psychrotrophic contaminants was more related to lot-to-lot variability.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2015.10.014</t>
-  </si>
-  <si>
     <t>Model undefined thermophilic starter cultures were produced from raw milk of nine pasta-filata cheesemaking plants using a selective procedure based on pasteurization and incubation at high temperature with the objective of studying the microbial community dynamics and the variability in performances under repeated (7–13) reproduction cycles with backslopping. The traditional culture-dependent approach, based on random isolation and molecular characterization of isolates was coupled to the determination of pH and the evaluation of the ability to produce acid and fermentation metabolites. Moreover, a culture-independent approach based on amplicon-targeted next-generation sequencing was employed. The microbial diversity was evaluated by 16S rRNA gene sequencing (V1–V3 regions), while the microdiversity of Streptococcus thermophilus populations was explored by using novel approach based on sequencing of partial amplicons of the phosphoserine phosphatase gene (serB). In addition, the occurrence of bacteriophages was evaluated by qPCR and by multiplex PCR. Although it was relatively easy to select for a community dominated by thermophilic lactic acid bacteria (LAB) within a single reproduction cycle, final pH, LAB populations and acid production activity fluctuated over reproduction cycles. Both culture-dependent and -independent methods showed that the cultures were dominated by either S. thermophilus or Lactobacillus delbrueckii subsp. lactis or by both species. Nevertheless, subdominant mesophilic species, including lactococci and spoilage organisms, persisted at low levels. A limited number of serB sequence types (ST) were present in S. thermophilus populations. L. delbrueckii and Lactococcus lactis bacteriophages were below the detection limit of the method used and high titres of cos type S. thermophilus bacteriophages were detected in only two cases. In one case a high titre of bacteriophages was concurrent with a S. thermophilus biotype shift in the culture. This study largely confirms previous data on the composition of undefined thermophilic starters used for the production of traditional cheeses in Italy but it is the first one to systematically address the dynamics of the cultures under a repeated reproduction regime with backslopping.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0089680</t>
-  </si>
-  <si>
     <t>Mozzarella (M), Grana Padano (GP) and Parmigiano Reggiano (PR) are three of the most important traditional Italian cheeses. In the three cheese manufactures the initial fermentation is carried out by adding natural whey cultures (NWCs) according to a back-slopping procedure. In this study, NWCs and the corresponding curds from M, GP and PR manufactures were analyzed by culture-independent pyrosequencing of the amplified V1–V3 regions of the 16S rRNA gene, in order to provide insights into the microbiota involved in the curd acidification. Moreover, culture-independent high-throughput sequencing of lacS gene amplicons was carried out to evaluate the biodiversity occurring within the S. thermophilus species. Beta diversity analysis showed a species-based differentiation between GP-PR and M manufactures indicating differences between the preparations. Nevertheless, all the samples shared a naturally-selected core microbiome, that is involved in the curd acidification. Type-level variability within S. thermophilus species was also found and twenty-eight lacS gene sequence types were identified. Although lacS gene did not prove variable enough within S. thermophilus species to be used for quantitative biotype monitoring, the possibility of using non rRNA targets for quantitative biotype identification in food was highlighted.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.02218-12</t>
-  </si>
-  <si>
     <t>Intermediates of production of two batches of traditional mozzarella cheese were analyzed by culture-independent pyrosequencing. The quantitative distribution of taxa within the samples suggested that thermophilic lactic acid bacteria from the natural starter were mainly responsible for the fermentation, while microorganisms found in raw milk did not develop during fermentation.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0069371</t>
-  </si>
-  <si>
     <t>Kefir is a fermented milk-based beverage to which a number of health-promoting properties have been attributed. The microbes responsible for the fermentation of milk to produce kefir consist of a complex association of bacteria and yeasts, bound within a polysaccharide matrix, known as the kefir grain. The consistency of this microbial population, and that present in the resultant beverage, has been the subject of a number of previous, almost exclusively culture-based, studies which have indicated differences depending on geographical location and culture conditions. However, culture-based identification studies are limited by virtue of only detecting species with the ability to grow on the specific medium used and thus culture-independent, molecular-based techniques offer the potential for a more comprehensive analysis of such communities. Here we describe a detailed investigation of the microbial population, both bacterial and fungal, of kefir, using high-throughput sequencing to analyse 25 kefir milks and associated grains sourced from 8 geographically distinct regions. This is the first occasion that this technology has been employed to investigate the fungal component of these populations or to reveal the microbial composition of such an extensive number of kefir grains or milks. As a result several genera and species not previously identified in kefir were revealed. Our analysis shows that the bacterial populations in kefir are dominated by 2 phyla, the Firmicutes and the Proteobacteria. It was also established that the fungal populations of kefir were dominated by the genera Kazachstania, Kluyveromyces and Naumovozyma, but that a variable sub-dominant population also exists.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.00757-14</t>
-  </si>
-  <si>
     <t>Pyrosequencing of the 16S rRNA gene, community-level physiological profiles determined by the use of Biolog EcoPlates, and proteolysis analyses were used to characterize Canestrato Pugliese Protected Designation of Origin (PDO) cheese. The number of presumptive mesophilic lactococci in raw ewes' milk was higher than that of presumptive mesophilic lactobacilli. The numbers of these microbial groups increased during ripening, showing temporal and numerical differences. Urea-PAGE showed limited primary proteolysis, whereas the analysis of the pH 4.6-soluble fraction of the cheese revealed that secondary proteolysis increased mainly from 45 to 75 days of ripening. This agreed with the concentration of free amino acids. Raw ewes' milk was contaminated by several bacterial phyla: Proteobacteria (68%; mainly Pseudomonas), Firmicutes (30%; mainly Carnobacterium and Lactococcus), Bacteroidetes (0.05%), and Actinobacteria (0.02%). Almost the same microbial composition persisted in the curd after molding. From day 1 of ripening onwards, the phylum Firmicutes dominated. Lactococcus dominated throughout ripening, and most of the Lactobacillus species appeared only at 7 or 15 days. At 90 days, Lactococcus (87.2%), Lactobacillus (4.8%; mainly Lactobacillus plantarum and Lactobacillus sakei), and Leuconostoc (3.9%) dominated. The relative utilization of carbon sources by the bacterial community reflected the succession. This study identified strategic phases that characterized the manufacture and ripening of Canestrato Pugliese cheese and established a causal relationship between mesophilic lactobacilli and proteolysis.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.02097-14</t>
-  </si>
-  <si>
     <t>Pyrosequencing of the 16S rRNA targeting RNA, community-level physiological profiles made with Biolog EcoPlates, proteolysis, and volatile component (VOC) analyses were mainly used to characterize the manufacture and ripening of the pasta filata cheese Caciocavallo Pugliese. Plate counts revealed that cheese manufacture affected the microbial ecology. The results agreed with those from culture-independent approaches. As shown by urea-PAGE, reverse-phase high pressure liquid chromatography (RP-HPLC), and free-amino-acid (FAA) analyses, the extent of secondary proteolysis mainly increased after 30 to 45 days of ripening. VOCs and volatile free fatty acids (VFFA) were identified by a purge-and-trap method (PT) and solid-phase microextraction (SPME) coupled with gas chromatography-mass spectrometry (GC-MS), respectively. Except for aldehydes, the levels of most of VOCs and VFFA mainly increased from 30 to 45 days onwards. As shown through pyrosequencing analysis, raw cows' milk was contaminated by Firmicutes (53%), Proteobacteria (39%), Bacteroidetes (7.8%), Actinobacteria (0.06%), and Fusobacteria (0.03%), with heterogeneity at the genus level. The primary starter Streptococcus thermophilus dominated the curd population. Other genera occurred at low incidence or sporadically. The microbial dynamics reflected on the overall physiological diversity. At 30 days, a microbial succession was clearly highlighted. The relative abundance of Streptococcus sp. and especially St. thermophilus decreased, while that of Lactobacillus casei, Lactobacillus sp., and especially Lactobacillus paracasei increased consistently. Despite the lower relative abundance compared to St. thermophilus, mesophilic lactobacilli were the only organisms positively correlated with the concentration of FAAs, area of hydrophilic peptide peaks, and several VOCs (e.g., alcohols, ketones, esters and all furans). This study showed that a core microbiota was naturally selected during middle ripening, which seemed to be the main factor responsible for cheese ripening.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2014.05.021</t>
-  </si>
-  <si>
     <t>Fontina Protected Denomination of Origin (PDO) cheese is a full-fat semi-cooked cheese traditionally made in Northwest Italy (Aosta Valley) and manufactured from raw cow's milk. The management of cattle farms in Aosta Valley calls for seasonal migration to high pastures during the summer and the concentration of calving during the autumn and the beginning of the winter. Based on cattle physiology and given to calving seasonality, three cow lactation phases i.e. post-partum, oestrus and early gestation, can be identified and an effect could be hypothesized on average milk composition and on cheese quality. The aim of the present paper was to investigate the bacterial dynamics during Fontina PDO cheese manufacturing and ripening, in relation to the different lactation stages, in order to evaluate a possible correlation between microbiota and phase of lactation. For this purpose, microbial RNA analysis was carried out by RT-PCR coupled with DGGE and high-throughput sequencing. A good performance of the starter cultures was highlighted throughout Fontina PDO manufacturing and ripening; in fact, the starter prevailed against the autochthonous microbiota. Thus, the microbial activity, which was supposed to affect the final quality of Fontina PDO cheese, appeared to be strictly associated to the presence of the starter, which did not show any difference in its performance according to the different stages of cow lactation. Therefore, the results of this research highlighted a negligible correlation between the microbiota of raw milk and the organoleptic quality and typicity of Fontina cheese in relation to lactation seasonality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.00999-16</t>
-  </si>
-  <si>
     <t>The microbial ecology of cheese involves a rich and complex interaction between starter lactic acid bacteria and nonstarter lactic acid bacteria (NSLAB), mainly originating from raw milk and/or from the environment, that can contribute to the final characteristics of cheese. The aim of the present research was the exploration of the active microbiota by RNA-based approaches during the manufacturing and ripening of a Grana-like cheese. Reverse transcriptase PCR (RT-PCR)-denaturing gradient gel electrophoresis (DGGE) and RNA-based high-throughput sequencing were applied to profile microbial populations, while the enumeration of active bacteria was carried out by using quantitative PCR (qPCR). Three different cheese productions (named D, E, and F) collected in the same month from the same dairy plant were analyzed. The application of the qPCR protocol revealed the presence of 7 log CFU/ml of bacterial load in raw milk, while, during ripening, active bacterial populations ranged from &lt;4 to 8 log CFU/ml. The natural whey starters used in the three productions showed the same microbiota composition, characterized by the presence of Lactobacillus helveticus and Lactobacillus delbrueckii. Nevertheless, beta-diversity analysis of the 16S rRNA sequencing data and RT-PCR-DGGE showed a clear clustering of the samples according to the three productions, probably driven by the different milks used. Milk samples were found to be characterized by the presence of several contaminants, such as Propionibacterium acnes, Acidovorax, Acinetobacter, Pseudomonas, and NSLAB. The core genera of the starter tended to limit the development of the spoilage bacteria only in two of the three batches. This study underlines the influence of different factors that can affect the final microbiota composition of the artisanal cheese. batches. This study underlines the influence of different factors that can affect the final microbiota composition of the artisanal cheese. IMPORTANCE This study highlights the importance of the quality of the raw milk in the production of a hard cheese. Independent from the use of a starter culture, raw milk with low microbiological quality can negatively affect the populations of lactic acid bacteria and, as a consequence, impact the quality of the final product due to metabolic processes associated with spoilage bacteria.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/srep21871</t>
-  </si>
-  <si>
     <t>Traditional cheeses harbour complex microbial consortia that play an important role in shaping typical sensorial properties. However, the microbial metabolism is considered difficult to control. Microbial community succession and the related gene expression were analysed during ripening of a traditional Italian cheese, identifying parameters that could be modified to accelerate ripening. Afterwards, we modulated ripening conditions and observed consistent changes in microbial community structure and function. We provide concrete evidence of the essential contribution of non-starter lactic acid bacteria in ripening-related activities. An increase in the ripening temperature promoted the expression of genes related to proteolysis, lipolysis and amino acid/lipid catabolism and significantly increases the cheese maturation rate. Moreover, temperature-promoted microbial metabolisms were consistent with the metabolomic profiles of proteins and volatile organic compounds in the cheese. The results clearly indicate how processing-driven microbiome responses can be modulated in order to optimize production efficiency and product quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0070222</t>
-  </si>
-  <si>
     <t>Microbial growth on meat to unacceptable levels contributes significantly to change meat structure, color and flavor and to cause meat spoilage. The types of microorganisms initially present in meat depend on several factors and multiple sources of contamination can be identified. The aims of this study were to evaluate the microbial diversity in beefsteaks before and after aerobic storage at 4°C and to investigate the sources of microbial contamination by examining the microbiota of carcasses wherefrom the steaks originated and of the processing environment where the beef was handled. Carcass, environmental (processing plant) and meat samples were analyzed by culture-independent high-throughput sequencing of 16S rRNA gene amplicons. The microbiota of carcass swabs was very complex, including more than 600 operational taxonomic units (OTUs) belonging to 15 different phyla. A significant association was found between beef microbiota and specific beef cuts (P&lt;0.01) indicating that different cuts of the same carcass can influence the microbial contamination of beef. Despite the initially high complexity of the carcass microbiota, the steaks after aerobic storage at 4°C showed a dramatic decrease in microbial complexity. Pseudomonas sp. and Brochothrix thermosphacta were the main contaminants, and Acinetobacter, Psychrobacter and Enterobacteriaceae were also found. Comparing the relative abundance of OTUs in the different samples it was shown that abundant OTUs in beefsteaks after storage occurred in the corresponding carcass. However, the abundance of these same OTUs clearly increased in environmental samples taken in the processing plant suggesting that spoilage-associated microbial species originate from carcasses, they are carried to the processing environment where the meat is handled and there they become a resident microbiota. Such microbiota is then further spread on meat when it is handled and it represents the starting microbial association wherefrom the most efficiently growing microbial species take over during storage and can cause spoilage.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2015.01.016</t>
-  </si>
-  <si>
     <t>In Italy, fermented sausages (called “salami”) are consumed in large quantities. Salami samples from a local meat factory in the area of Torino were analyzed at 0, 3, 7, 30 and 45 days of ripening. Swab samples from the production environment were also collected at the beginning of the experiment. The diversity of metabolically active microbiota occurring during the natural fermentation of salami was evaluated by using RT-PCR-DGGE coupled with RNA-based pyrosequencing of the 16S rRNA gene. A culture-dependent approach was also applied to identify and characterize isolated Staphylococcaceae and LAB populations. Staphylococcus succinus, Staphylococcus xylosus and Lactobacillus sakei were the species most frequently isolated during the maturation time. Rep-PCR analysis showed that S. succinus and S. xylosus isolated from swabs and salami samples clustered together, suggesting possible contamination during the production process. RT-PCR-DGGE and rRNA-based pyrosequencing showed that the metabolically active populations were dominated by S. succinus, Lb. sakei and Leuconostoc carnosum. In this specific case study, only a few species belonging to Staphylococcaceae, Lactobacillaceae and Leuconostocaceae may be metabolically active and contribute to determine the final characteristics of the products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.03093-15</t>
-  </si>
-  <si>
     <t>Beef burgers were stored at 4°C in a vacuum in nisin-activated antimicrobial packaging. Microbial ecology analyses were performed on samples collected between days 0 and 21 of storage to discover the population diversity. Two batches were analyzed using RNA-based denaturing gradient gel electrophoresis (DGGE) and pyrosequencing. The active packaging retarded the growth of the total viable bacteria and lactic acid bacteria. Culture-independent analysis by pyrosequencing of RNA extracted directly from meat showed that Photobacterium phosphoreum, Lactococcus piscium, Lactobacillus sakei, and Leuconostoc carnosum were the major operational taxonomic units (OTUs) shared between control and treated samples. Beta diversity analysis of the 16S rRNA sequence data and RNA-DGGE showed a clear separation between two batches based on the microbiota. Control samples from batch B showed a significant high abundance of some taxa sensitive to nisin, such as Kocuria rhizophila, Staphylococcus xylosus, Leuconostoc carnosum, and Carnobacterium divergens, compared to control samples from batch A. However, only from batch B was it possible to find a significant difference between controls and treated samples during storage due to the active packaging. Predicted metagenomes confirmed differences between the two batches and indicated that the use of nisin-based antimicrobial packaging can determine a reduction in the abundance of specific metabolic pathways related to spoilage. The present study aimed to assess the viable bacterial communities in beef burgers stored in nisin-based antimicrobial packaging, and it highlights the efficacy of this strategy to prolong beef burger shelf life.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0069074</t>
-  </si>
-  <si>
     <t>Limited information is available on the impact of the NaOH treatment on table olive fermentations, and for this reason a polyphasic approach has been adopted here to investigate its effect on the fermentation dynamics and bacterial biodiversity. The microbial counts of the main groups involved in the transformation have not shown any differences, apart from a more prompt start of the fermentation when the olives were subjected to the NaOH treatment. The data produced by culture-independent analyses highlighted that the fermentation of table olives not treated with NaOH is the result of the coexistence of two different ecosystems: the surface of the olives and the brines. A sodium hydroxide treatment not only eliminates this difference, but also affects the bacterial ecology of the olives to a great extent. As proved by high-throughput sequencing, the fermentation of the olives not treated with NaOH was characterized by the presence of halophilic bacteria, which were substituted by Lactobacillus at the later stages of the fermentation, while enterobacteria were dominant when the olives were treated with sodium hydroxide. Higher biodiversity was found for Lactobacillus plantarum isolated during untreated fermentation. Different biotypes were found on the olive surface and in the brines. When the debittering process was carried out, a decrease in the number of L. plantarum biotypes were observed and those originating from the surface of the olive did not differentiate from the ones present in the brines.</t>
   </si>
   <si>
-    <t>https://doi.org/unpublished data</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1128/AEM.04161-14</t>
-  </si>
-  <si>
     <t>Triticum turgidum subsp. durum was grown according to four farming systems: conventional (CONV), organic with cow manure (OMAN) or green manure (OLEG), and without inputs (NOINPUT). Some chemical and technological characteristics differed between CONV and organic flours. As shown by two-dimensional electrophoresis (2-DE) analysis, OMAN and OLEG flours showed the highest number of gliadins, and OMAN flour also had the highest number of high-molecular-mass glutenins. Type I sourdoughs were prepared at the laboratory level through a back-slopping procedure, and the bacterial ecology during sourdough preparation was described by 16S rRNA gene pyrosequencing. Before fermentation, the dough made with CONV flour showed the highest bacterial diversity. Flours were variously contaminated by genera belonging to the Proteobacteria, Firmicutes, and Actinobacteria. Mature sourdoughs were completely and stably dominated by lactic acid bacteria. The diversity of Firmicutes was the highest for mature sourdoughs made with organic and, especially, NOINPUT flours. Beta diversity analysis based on the weighted UniFrac distance showed differences between doughs and sourdoughs. Those made with CONV flour were separated from the other with organic flours. Lactic acid bacterium microbiota structure was qualitatively confirmed through the culturing method. As shown by PCR-denaturing gradient gel electrophoresis (DGGE) analysis, yeasts belonging to the genera Saccharomyces, Candida, Kazachstania, and Rhodotorula occurred in all sourdoughs. Levels of bound phenolic acids and phytase and antioxidant activities differed depending on the farming system. Mature sourdoughs were used for bread making. Technological characteristics were superior in the breads made with organic sourdoughs. The farming system is another determinant affecting the sourdough microbiota. The organic cultivation of durum wheat was reflected along the flour-sourdough fermentation-bread axis.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.02955-13</t>
-  </si>
-  <si>
     <t>The bacterial ecology during rye and wheat sourdough preparation was described by 16S rRNA gene pyrosequencing. Viable plate counts of presumptive lactic acid bacteria, the ratio between lactic acid bacteria and yeasts, the rate of acidification, a permutation analysis based on biochemical and microbial features, the number of operational taxonomic units (OTUs), and diversity indices all together demonstrated the maturity of the sourdoughs during 5 to 7 days of propagation. Flours were mainly contaminated by metabolically active genera (Acinetobacter, Pantoea, Pseudomonas, Comamonas, Enterobacter, Erwinia, and Sphingomonas) belonging to the phylum Proteobacteria or Bacteroidetes (genus Chryseobacterium). Their relative abundances varied with the flour. Soon after 1 day of propagation, this population was almost completely inhibited except for the Enterobacteriaceae. Although members of the phylum Firmicutes were present at very low or intermediate relative abundances in the flours, they became dominant soon after 1 day of propagation. Lactic acid bacteria were almost exclusively representative of the Firmicutes by this time. Weissella spp. were already dominant in rye flour and stably persisted, though they were later flanked by the Lactobacillus sakei group. There was a succession of species during 10 days of propagation of wheat sourdoughs. The fluctuation between dominating and subdominating populations of L. sakei group, Leuconostoc spp., Weissella spp., and Lactococcus lactis was demonstrated. Other subdominant species such as Lactobacillus plantarum were detectable throughout propagation. As shown by PCR-denaturing gradient gel electrophoresis (PCR-DGGE) analysis, Saccharomyces cerevisiae dominated throughout the sourdough propagation. Notwithstanding variations due to environmental and technology determinants, the results of this study represent a clear example of how the microbial ecology evolves during sourdough preparation.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.02294-15</t>
-  </si>
-  <si>
     <t>Microbial contamination in food processing plants can play a fundamental role in food quality and safety. In this study, the microbiota in a dairy plant was studied by both 16S rRNA- and 26S rRNA-based culture-independent high-throughput amplicon sequencing. Environmental samples from surfaces and tools were studied along with the different types of cheese produced in the same plant. The microbiota of environmental swabs was very complex, including more than 200 operational taxonomic units with extremely variable relative abundances (0.01 to 99%) depending on the species and sample. A core microbiota shared by 70% of the samples indicated a coexistence of lactic acid bacteria with a remarkable level of Streptococcus thermophilus and possible spoilage-associated bacteria, including Pseudomonas, Acinetobacter, and Psychrobacter, with a relative abundance above 50%. The most abundant yeasts were Kluyveromyces marxianus, Yamadazyma triangularis, Trichosporon faecale, and Debaryomyces hansenii. Beta-diversity analyses showed a clear separation of environmental and cheese samples based on both yeast and bacterial community structure. In addition, predicted metagenomes also indicated differential distribution of metabolic pathways between the two categories of samples. Cooccurrence and coexclusion pattern analyses indicated that the occurrence of potential spoilers was excluded by lactic acid bacteria. In addition, their persistence in the environment can be helpful to counter the development of potential spoilers that may contaminate the cheeses, with possible negative effects on their microbiological quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.03941-14</t>
-  </si>
-  <si>
     <t>Mesophilic and psychrotrophic organism viable counts, as well as high-throughput 16S rRNA gene-based pyrosequencing, were performed with the aim of elucidating the origin of psychrotrophic lactic acid bacteria (LAB) in a ready-to-eat (RTE) meal manufacturing plant. The microbial counts of the products at the end of the shelf life were greatly underestimated when mesophilic incubation was implemented due to overlooked, psychrotrophic members of the LAB. Pseudomonas spp., Enterobacteriaceae, Streptococcaceae, and Lactobacillus spp. constituted the most widespread operational taxonomic units (OTUs), whereas Leuconostoc gelidum was detected as a minor member of the indigenous microbiota of the food ingredients and microbial community of the processing environment, albeit it colonized samples at almost every sampling point on the premises. However, L. gelidum became the most predominant microbe at the end of the shelf life. The ability of L. gelidum to outgrow notorious, spoilage-related taxa like Pseudomonas, Brochothrix, and Lactobacillus underpins its high growth dynamics and severe spoilage character under refrigeration temperatures. The use of predicted metagenomes was useful for observation of putative gene repertoires in the samples analyzed in this study. The end products grouped in clusters characterized by gene profiles related to carbohydrate depletion presumably associated with a fast energy yield, a finding which is consistent with the fastidious nature of highly competitive LAB that dominated at the end of the shelf life. The present study showcases the detrimental impact of contamination with psychrotrophic LAB on the shelf life of packaged and cold-stored foodstuffs and the long-term quality implications for production batches once resident microbiota are established in the processing environment.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2014.10.018</t>
-  </si>
-  <si>
     <t>Microbial contamination in foodservice environments plays a fundamental role in food quality and safety. In such environments the composition of the microbiota is influenced by the characteristics of the specific surfaces and by food handling and processing and a resident microbiota may be present in each site. In this study, the bacterial biogeographical patterns in a hospital cooking center was studied by 16S rRNA-based culture-independent high-throughput amplicon sequencing in order to provide a comprehensive mapping of the surfaces and tools that come in contact with foods during preparation. Across all area, surface swab-samples from work surfaces of different zones were taken: food pre-processing rooms (dedicated to fish, vegetables, and red and white meat), storage room and kitchen. The microbiota of environmental swabs was very complex, including more than 500 operational taxonomic units (OTUs) with extremely variable relative abundances (0.02–99%) depending on the species. A core microbiota was found that was common to more than 70% of the samples analyzed and that included microbial species that were common across all areas such as Acinetobacter, Chryseobacterium, Moraxellaceae, and Alicyclobacillus, although their abundances were below 10% of the microbiota. Some surfaces were contaminated by high levels of either Pseudomonas, Psychrobacter, Paracoccus, or Kocuria. However, beta diversity analysis showed that, based on the composition of the microbiota, the environmental samples grouped according to the sampling time but not according to the specific area of sampling except for the case of samples from the vegetable pre-processing room that showed a higher level of similarity. The cleaning procedures can have a very strong impact on the spatial distribution of the microbial communities, as the use of the same cleaning tools can be even a possible vector of bacterial diffusion. Most of the microbial taxa found are not those commonly found in food as spoilers or hazardous bacteria, which indicates that food and storage conditions can be very selective in the growth of possible contaminants.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.00793-16</t>
-  </si>
-  <si>
     <t>Microbial contamination in food processing plants can play a fundamental role in food quality and safety. The aims of this study were to learn more about the possible influence of the meat processing environment on initial fresh meat contamination and to investigate the differences between small-scale retail distribution (SD) and large-scale retail distribution (LD) facilities. Samples were collected from butcheries (n = 20), including LD (n = 10) and SD (n = 10) facilities, over two sampling campaigns. Samples included fresh beef and pork cuts and swab samples from the knife, the chopping board, and the butcher's hand. The microbiota of both meat samples and environmental swabs were very complex, including more than 800 operational taxonomic units (OTUs) collapsed at the species level. The 16S rRNA sequencing analysis showed that core microbiota were shared by 80% of the samples and included Pseudomonas spp., Streptococcus spp., Brochothrix spp., Psychrobacter spp., and Acinetobacter spp. Hierarchical clustering of the samples based on the microbiota showed a certain separation between meat and environmental samples, with higher levels of Proteobacteria in meat. In particular, levels of Pseudomonas and several Enterobacteriaceae members were significantly higher in meat samples, while Brochothrix, Staphylococcus, lactic acid bacteria, and Psychrobacter prevailed in environmental swab samples. Consistent clustering was also observed when metabolic activities were considered by predictive metagenomic analysis of the samples. An increase in carbohydrate metabolism was predicted for the environmental swabs and was consistently linked to Firmicutes, while increases in pathways related to amino acid and lipid metabolism were predicted for the meat samples and were positively correlated with Proteobacteria. Our results highlighted the importance of the processing environment in contributing to the initial microbial levels of meat and clearly showed that the type of retail facility (LD or SD) did not apparently affect the contamination. IMPORTANCE The study provides an in-depth description of the microbiota of meat and meat processing environments. It highlights the importance of the environment as a contamination source of spoilage bacteria, and it shows that the size of the retail facility does not affect the level and type of contamination.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2015.10.008</t>
-  </si>
-  <si>
     <t>This study was aimed at establishing the relationships between house, rind and core microbiotas of cheese varieties manufactured at the same industrial dairy plant. Caciotta and Caciocavallo Pugliese cheeses were chosen as model systems. Mesophilic lactobacilli, cocci and, especially, thermophilic cocci were the most abundant cultivable bacteria found on equipment, which were located in the production area. According to cell counts, catabolic profiles of microbial communities deriving from equipment, and cheese core and rind differed. As shown by 16S rRNA targeted metagenomics, Streptococcus thermophilus dominated the communities from knife surface, brine tank, curds and core cheeses as well as it was the main colonizing bacterium from drain table, rinds and ripening room of Caciocavallo Pugliese cheeses. Compared to S. thermophilus, the other starters used (Lactococcus lactis, Lactobacillus delbrueckii subsp. lactis and Lactobacillus helveticus) showed low relative abundance in cheeses and/or colonization capability. A set of other genera/species, which varied depending on the equipment surfaces and cheese making, contributed to the formation of a rather heterogeneous house microbiota. Representatives from such communities had (e.g., Lactobacillus casei, Lactobacillus plantarum group) or not (e.g., Actinobacteria) the capacity to colonize cheeses, which depended on the variety (Caciocavallo Pugliese or Caciotta cheese) and layer (rind or core). Other genera/species were mainly associated to the rind and ripening room of Caciotta (Staphylococcus species and Brochothrix spp.) or Caciocavallo Pugliese (Chromohalobacter and Sphingomonas) cheeses.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2015.07.004</t>
-  </si>
-  <si>
     <t>The environment of hard cheese encourages bacterial synergies and competitions along the ripening process, which might lead in defects such as clostridial blowing. In this study, Denaturing Gradient Gel Electrophoresis (DGGE), a quantitative Clostridium tyrobutyricum PCR and next-generation Illumina-based sequencing of 16S rRNA gene were applied to study 83 Grana Padano spoiled samples. The aim was to investigate the community of clostridia involved in spoilage, the ecological relationships with the other members of the cheese microbiota, and the effect of lysozyme. Three main genera were dominant in the analysed cheeses, Lactobacillus, Streptococcus and Clostridium, and the assignment at the species level was of 94.3% of 4,477,326 high quality sequences. C. tyrobutyricum and C. butyricum were the most prevalent clostridia. Hierarchical clustering based on the abundance of bacterial genera, revealed three main clusters: one characterized by the highest proportion of Clostridium, a second where Lactobacillus was predominant and the last, dominated by Streptococcus thermophilus. Ecological relationships among species were found: cheeses characterized by an high abundance of S. thermophilus and L. rhamnosus were spoiled by C. tyrobutyricum while, when L. delbrueckii was the most abundant Lactobacillus, C. butyricum was the dominant spoiling species. Lysozyme also shaped the bacterial community, reducing C. tyrobutyricum in favour of C. butyricum. Moreover, this preservative increased the proportion of L. delbrueckii and obligate heterofermentative lactobacilli and lowered L. helveticus and non-starter species, such as L. rhamnosus and L. casei.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2015.04.047</t>
-  </si>
-  <si>
     <t>Natural casings derived from different intestine portions have been used for centuries in the production of fresh and dry-fermented sausages. Here we analysed by means of culture-dependent methods and Illumina high-throughput sequencing of 16S rRNA amplicons the bacterial ecology of hog, cow and ovine casings at different stages of their preparation for sausages production. Several strains of Staphylococcus, Lactobacillus, Bifidobacterium, Vagococcus and Clostridium were counted, isolated and characterised at phylogenetic level. High-throughput sequencing analyses revealed a high bacterial diversity, which differed strongly between casings of different animal species. The technological processes involved in the preparation for casing had also a strong impact on the casings bacterial ecology, with a significant reduction of undesired microorganisms, and an increase in the proportion of lactobacilli and staphylococci. Natural casings were demonstrated to be complex ecological environments, whose role as microbiological inoculants in the production of sausages should not be underestimated.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.04054-14</t>
-  </si>
-  <si>
     <t>We sought to determine if the time, within a production day, that a cheese is manufactured has an influence on the microbial community present within that cheese. To facilitate this, 16S rRNA amplicon sequencing was used to elucidate the microbial community dynamics of brine-salted continental-type cheese in cheeses produced early and late in the production day. Differences in the microbial composition of the core and rind of the cheese were also investigated. Throughout ripening, it was apparent that cheeses produced late in the day had a more diverse microbial population than their early equivalents. Spatial variation between the cheese core and rind was also noted in that cheese rinds were initially found to have a more diverse microbial population but thereafter the opposite was the case. Interestingly, the genera Thermus, Pseudoalteromonas, and Bifidobacterium, not routinely associated with a continental-type cheese produced from pasteurized milk, were detected. The significance, if any, of the presence of these genera will require further attention. Ultimately, the use of high-throughput sequencing has facilitated a novel and detailed analysis of the temporal and spatial distribution of microbes in this complex cheese system and established that the period during a production cycle at which a cheese is manufactured can influence its microbial composition.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2015.06.002</t>
-  </si>
-  <si>
     <t>This study aimed to utilize an “omics” approach to evaluate the ability of selected lactobacilli and yeasts to improve the fermentation process of Bella di Cerignola table olives. Four types of fermentations were performed at the pilot-plant scale: un-started fermented olives used as a control (Ctrl); olives started with a commercial Lactobacillus plantarum strain (S); commercial L. plantarum strain and autochthonous yeast Wickeramomyces anomalus DiSSPA73 (SY); and L. plantarum, W. anomalus DiSSPA73, autochthonous L. plantarum DiSSPA1A7 and Lactobacillus pentosus DiSSPA7 (SYL). Compared to Ctrl, S, SY, SYL showed a higher acidification (P &lt; 0.05) of the brine, which reached a pH value of 4.49 after one day of fermentation. The microbiota of unfermented olives and brine after one day of fermentation was primarily composed of Enterobacteria that belonged to Hafnia alvei and Methylobacterium. However, L. plantarum and L. pentosus dominated the total and metabolically active microbiota of the Ctrl brines and olives at the end of the fermentation. The use of lactobacilli and W. anomalus DiSSPA73 as a starter culture markedly affected the microbiota of the brines after one day of fermentation. The number of species (OTU) and the results of an alpha diversity analysis indicated that the microbial diversity of the brines was markedly simplified by the S, SY and, in particular, SYL fermentations. According to the lowest biodiversity, S, SY and SYL samples showed the lowest abundance of Proteobacteria, including Enterobacteriacea, Lactococcus lactis, Propionibacterium acidipropionici and Clostridium. The lactobacilli and W. anomalus DiSSPA73 used in this study markedly affected the amounts of free amino acids, phenolic and volatile organic compounds. Both a texture profile analysis and a sensory evaluation showed the highest appreciation for all of the started table olives. As shown through microbiological, biochemical, and sensory analyses, an accelerated fermentation of Bella di Cerignola table olives was achieved using the selected lactobacilli and yeast strains.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2015.06.009</t>
-  </si>
-  <si>
     <t>This study aimed at understanding the extent of contamination by lactic acid bacteria (LAB) and yeasts from the house microbiotas during sourdough back-slopping. Besides sourdoughs, wall, air, storage box, dough mixer and flour of four bakeries were analyzed. Based on plate counts, LAB and yeasts dominated the house microbiota. Based on high throughput sequencing of the 16S rRNA genes, flour harbored the highest number of Firmicutes, but only few of them adapted to storage box, dough mixer and sourdough. Lactobacillus sanfranciscensis showed the highest abundance in dough mixer and sourdoughs. Lactobacillus plantarum persisted only in storage box, dough mixer and sourdough of two bakeries. Weissella cibaria also showed higher adaptability in sourdough than in bakery equipment, suggesting that flour is the main origin of this species. Based on 18S rRNA data, Saccharomyces cerevisiae was the dominant yeast in house and sourdough microbiotas, excepted one bakery dominated by Kazachstania exigua. The results of this study suggest that the dominant species of sourdough LAB and yeasts dominated also the house microbiota.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/ijerph120810171</t>
-  </si>
-  <si>
     <t>Fresh herbs such as basil constitute an important food commodity worldwide. Basil provides considerable culinary and health benefits, but has also been implicated in foodborne illnesses. The naturally occurring bacterial community on basil leaves is currently unknown, so the epiphytic bacterial community was investigated using the culture-independent techniques denaturing gradient gel electrophoresis (DGGE) and next-generation sequencing (NGS). Sample preparation had a major influence on the results from DGGE and NGS: Novosphingobium was the dominant genus for three different basil batches obtained by maceration of basil leaves, while washing of the leaves yielded lower numbers but more variable dominant bacterial genera including Klebsiella, Pantoea, Flavobacterium, Sphingobacterium and Pseudomonas. During storage of basil, bacterial growth and shifts in the bacterial community were observed with DGGE and NGS. Spoilage was not associated with specific bacterial groups and presumably caused by physiological tissue deterioration and visual defects, rather than by bacterial growth.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.02228-15</t>
-  </si>
-  <si>
     <t>Refrigerated food processing facilities are specific man-made niches likely to harbor cold-tolerant bacteria. To characterize this type of microbiota and study the link between processing plant and product microbiomes, we followed and compared microbiota associated with the raw materials and processing stages of a vacuum-packaged, cooked sausage product affected by a prolonged quality fluctuation with occasional spoilage manifestations during shelf life. A total of 195 samples were subjected to culturing and amplicon sequence analyses. Abundant mesophilic psychrotrophs were detected within the microbiomes throughout the different compartments of the production plant environment. However, each of the main genera of food safety and quality interest, e.g., Leuconostoc, Brochothrix, and Yersinia, had their own characteristic patterns of contamination. Bacteria from the genus Leuconostoc, commonly causing spoilage of cold-stored, modified-atmosphere-packaged foods, were detected in high abundance (up to &gt;98%) in the sausages studied. The same operational taxonomic units (OTUs) were, however, detected in lower abundances in raw meat and emulsion (average relative abundance of 2% ± 5%), as well as on the processing plant surfaces (&lt;4%). A completely different abundance profile was found for OTUs phylogenetically close to the species Yersinia pseudotuberculosis. These OTUs were detected in high abundance (up to 28%) on the processing plant surfaces but to a lesser extent (&lt;1%) in raw meat, sausage emulsion, and sausages. The fact that Yersinia-like OTUs were found on the surfaces of a high-hygiene packaging compartment raises food safety concerns related to their resilient existence on surfaces.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0059310</t>
-  </si>
-  <si>
     <t>Fresh fruits and vegetables can harbor large and diverse populations of bacteria. However, most of the work on produce-associated bacteria has focused on a relatively small number of pathogenic bacteria and, as a result, we know far less about the overall diversity and composition of those bacterial communities found on produce and how the structure of these communities varies across produce types. Moreover, we lack a comprehensive view of the potential effects of differing farming practices on the bacterial communities to which consumers are exposed. We addressed these knowledge gaps by assessing bacterial community structure on conventional and organic analogs of eleven store-bought produce types using a culture-independent approach, 16 S rRNA gene pyrosequencing. Our results demonstrated that the fruits and vegetables harbored diverse bacterial communities, and the communities on each produce type were significantly distinct from one another. However, certain produce types (i.e., sprouts, spinach, lettuce, tomatoes, peppers, and strawberries) tended to share more similar communities as they all had high relative abundances of taxa belonging to the family Enterobacteriaceae when compared to the other produce types (i.e., apples, peaches, grapes, and mushrooms) which were dominated by taxa belonging to the Actinobacteria, Bacteroidetes, Firmicutes, and Proteobacteria phyla. Although potentially driven by factors other than farming practice, we also observed significant differences in community composition between conventional and organic analogs within produce types. These differences were often attributable to distinctions in the relative abundances of Enterobacteriaceae taxa, which were generally less abundant in organically-grown produce. Taken together, our results suggest that humans are exposed to substantially different bacteria depending on the types of fresh produce they consume with differences between conventionally and organically farmed varieties contributing to this variation.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/ismej.2014.202</t>
-  </si>
-  <si>
     <t>The microbial spoilage of meat and seafood products with short shelf lives is responsible for a significant amount of food waste. Food spoilage is a very heterogeneous process, involving the growth of various, poorly characterized bacterial communities. In this study, we conducted 16S ribosomal RNA gene pyrosequencing on 160 samples of fresh and spoiled foods to comparatively explore the bacterial communities associated with four meat products and four seafood products that are among the most consumed food items in Europe. We show that fresh products are contaminated in part by a microbiota similar to that found on the skin and in the gut of animals. However, this animal-derived microbiota was less prevalent and less abundant than a core microbiota, psychrotrophic in nature, mainly originated from the environment (water reservoirs). We clearly show that this core community found on meat and seafood products is the main reservoir of spoilage bacteria. We also show that storage conditions exert strong selective pressure on the initial microbiota: alpha diversity in fresh samples was 189±58 operational taxonomic units (OTUs) but dropped to 27±12 OTUs in spoiled samples. The OTU assemblage associated with spoilage was shaped by low storage temperatures, packaging and the nutritional value of the food matrix itself. These factors presumably act in tandem without any hierarchical pattern. Most notably, we were also able to identify putative new clades of dominant, previously undescribed bacteria occurring on spoiled seafood, a finding that emphasizes the importance of using culture-independent methods when studying food microbiota.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.00918-12</t>
-  </si>
-  <si>
     <t>Here, high-throughput sequencing was employed to reveal the highly diverse bacterial populations present in 62 Irish artisanal cheeses and, in some cases, associated cheese rinds. Using this approach, we revealed the presence of several genera not previously associated with cheese, including Faecalibacterium, Prevotella, and Helcococcus and, for the first time, detected the presence of Arthrobacter and Brachybacterium in goats' milk cheese. Our analysis confirmed many previously observed patterns, such as the dominance of typical cheese bacteria, the fact that the microbiota of raw and pasteurized milk cheeses differ, and that the level of cheese maturation has a significant influence on Lactobacillus populations. It was also noted that cheeses containing adjunct ingredients had lower proportions of Lactococcus species. It is thus apparent that high-throughput sequencing-based investigations can provide valuable insights into the microbial populations of artisanal foods.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/mSystems.00023-16</t>
-  </si>
-  <si>
     <t>A DNA sequencing-based strategy was applied to study the microbiology of Continental-type cheeses with a pink discoloration defect. The basis for this phenomenon has remained elusive, despite decades of research. The bacterial composition of cheese containing the defect was compared to that of control cheese using 16S rRNA gene and shotgun metagenomic sequencing as well as quantitative PCR (qPCR). Throughout, it was apparent that Thermus, a carotenoid-producing genus, was present at higher levels in defect-associated cheeses than in control cheeses. Prompted by this finding and data confirming the pink discoloration to be associated with the presence of a carotenoid, a culture-based approach was employed, and Thermus thermophilus was successfully cultured from defect-containing cheeses. The link between Thermus and the pinking phenomenon was then established through the cheese defect equivalent of Koch’s postulates when the defect was recreated by the reintroduction of a T. thermophilus isolate to a test cheese during the manufacturing process. IMPORTANCE Pink discoloration in cheese is a defect affecting many cheeses throughout the world, leading to significant financial loss for the dairy industry. Despite decades of research, the cause of this defect has remained elusive. The advent of high-throughput, next-generation sequencing has revolutionized the field of food microbiology and, with respect to this study, provided a means of testing a possible microbial basis for this defect. In this study, a combined 16S rRNA, whole-genome sequencing, and quantitative PCR approach was taken. This resulted in the identification of Thermus, a carotenoid-producing thermophile, in defect-associated cheeses and the recreation of the problem in cheeses to which Thermus was added. This finding has the potential to lead to new strategies to eliminate this defect, and our method represents an approach that can be employed to investigate the role of microbes in other food defects of unknown origin.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2015.12.009</t>
-  </si>
-  <si>
     <t>Dairy products are perishable and have to be preserved from spoilage during the food chain to achieve the desired shelf-life. Ricotta is a typical Italian soft dairy food produced by heat coagulation of whey proteins and is considered to be a light and healthy product. The shelf-life of Ricotta could be extended, as required by the international food trade market; however, heat resistant microflora causes spoilage and poses issues regarding the safety of the product. Next-generation sequencing (NGS) applied to the Ricotta samples defined the composition of the microbial community in-depth during the shelf-life. The analysis demonstrated the predominance of spore-forming bacteria throughout the shelf-life, mostly belonging to Bacillus, Paenibacillus and Clostridium genera. A strain involved in spoilage and causing a pink discolouration of Ricotta was isolated and characterised as Bacillus mycoides/weihenstephanensis. This is the first report of a food discolouration caused by a toxigenic strain belonging to the Bacillus cereus group that resulted the predominant strain in the community of the defective ricotta. These results suggest that the processing of raw materials to eliminate spores and residual microflora could be essential for improving the quality and the safety of the product and to extend the shelf-life of industrial Ricotta.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2016.01272</t>
-  </si>
-  <si>
     <t>In the past, milk whey was only a by-product of cheese production, but currently, it has a high commercial value for use in the food industries. However, the regulation of whey management (i.e., storage and hygienic properties) has not been updated, and as a consequence, its microbiological quality is very challenging for food safety. The Next Generation Sequencing (NGS) technique was applied to several whey samples used for Ricotta production to evaluate the microbial community composition in depth using both RNA and DNA as templates for NGS library construction. Whey samples demonstrating a high microbial and aerobic spore load contained mostly Firmicutes; although variable, some samples contained a relevant amount of Gammaproteobacteria. Several lots of whey acquired as raw material for Ricotta production presented defective organoleptic properties. To define the volatile compounds in normal and defective whey samples, a headspace gas chromatography/mass spectrometry (GC/MS) analysis was conducted. The statistical analysis demonstrated that different microbial communities resulted from DNA or cDNA library sequencing, and distinguishable microbiota composed the communities contained in the organoleptic-defective whey samples.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.01494-17</t>
-  </si>
-  <si>
     <t>This study was aimed at improving the functional attributes and shelf life of burrata cheese by using protective lactobacilli (Lactobacillus plantarum LPAL and Lactobacillus rhamnosus LRB), fructooligosaccharides, and inulin. Six burrata cheeses were made using (i) the traditional protocol (control), (ii) the addition of 0.5% fructooligosaccharides and inulin (DF cheese), (iii) protective lactobacilli in milk alone (PL cheese), (iv) protective lactobacilli in milk and governing liquid (2PL cheese), (v) protective lactobacilli in milk and dietary fibers (DF_PL cheese), and (vi) protective lactobacilli in milk and governing liquid and dietary fibers (DF_2PL cheese). As expected, DF, DF_PL, and DF_2PL cheeses showed 1.5% of total fibers. Burrata cheeses produced by adding protective lactobacilli only in milk (PL and DF_PL cheeses) showed the lowest acidification during cheese making and storage. Lactic and acetic acids and ethanol were found at the lowest concentrations in these samples. Analyses of cultivable microbiota and the microbiome showed that protective lactobacilli reduced the house microbiota components (e.g., Streptococcus thermophilus, Lactococcus lactis, and Leuconostoc lactis) during cheese making and storage. Protective lactobacilli slowed the growth of staphylococci, coliforms, and Pseudomonas spp., especially in early storage. According to the different microbiome assemblies, burrata samples differed in peptide profiles and the levels of free amino acids. As shown by a sensory analysis, the addition of protective lactobacilli in milk improved the flavor and increased the shelf life of burrata cheese. In comparison to cheeses made using protective cultures only in milk, the shelf lives of those containing cultures also in the governing liquid were not further prolonged and they received lower acceptability scores by the panelists. IMPORTANCE This study provides more in-depth knowledge of the microbiome of burrata cheese and the set-up for a novel biotechnology using prebiotic dietary fibers and protective probiotic Lactobacillus plantarum LPAL and Lactobacillus rhamnosus LRB in milk. The biotechnology proposed in this study should be considered a useful tool to improve the functional value of burrata cheese. The use of protective lactobacilli in milk enhanced the flavor formation and shelf life of burrata cheese.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.05.019</t>
-  </si>
-  <si>
     <t>Low temperature is used to control the growth of bacteria in milk, both pre- and post-pasteurization. As the duration of refrigerated storage extends, psychrotrophs dominate the milk microbiota, that can produce heat stable lipases which negatively impact the organoleptic qualities of milk. Here we examine the influence that refrigeration temperature (2 °C, 4 °C and 6 °C) and storage duration (96 h) have on the microbiota composition (16S profiling) of raw bulk tank milk (BTM). To reflect a proposed change to current farming practices, raw milk was blended after each milking (8 milkings) and stored for five consecutive days in each temperature-specific tank. Here 16S rRNA-based microbiota compositional analysis was performed after milk was collected on day 1 and again after the final addition of milk at day 5. In addition to assessing the impact of the duration and temperature of storage, the influence of lactation stage, i.e. mid- versus late-lactation, on the microbiota of the blended BTM was also examined. Overall, both temperature and length of storage had surprisingly little influence on the raw milk microbiota, other than an increase in proportions of Gammaproteobacteria in the blended milk samples collected after pooling on day 5, and in samples stored at 6 °C. However, lactation stage had a considerable influence on microbiota composition, with milk from mid-lactation containing higher proportions of Bacteroides, Faecalibacterium, Campylobacter and Rhodanobacter, and late-lactation milk containing higher proportions of Actinobacteria. Overall, the study demonstrates that current temperature and storage duration practises impact the microbiota of raw milk, but these impacts are modest relative to the more considerable differences between mid and late-lactation milk.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.11.004</t>
-  </si>
-  <si>
     <t>Bovine milk contains a complex microbial community that affects the quality and safety of the product. Detailed knowledge of this microbiota is, therefore, of importance for the dairy industry. In this study, the bacterial composition of consumption milk was assessed during different stages in the production line and throughout the storage in cartons by using culturing techniques and 16S rRNA marker gene sequencing. Monthly samples from two dairies were analyzed to capture the seasonal variations in the milk microbiota. Although there was a core microbiota present in milk samples from both dairies, the composition of the bacterial communities were significantly influenced by sampling month, processing stage and storage temperature. Overall, a higher abundance of operational taxonomic units (OTUs) within the order Bacillales was detected in samples of raw and pasteurized milk from the spring and summer months, while Pseudomonadales and Lactobacillales OTUs were predominant in the winter months. OTUs belonging to the order Lactobacillales, Pseudomonadales, Clostridiales and Bacillales were significantly more abundant in milk samples taken immediately after pasteurization compared to raw milk samples. During storage of milk in cartons at 4 °C, the bacterial composition remained stable throughout the product shelf life, while storage at 8 °C significantly increased the abundance of OTUs belonging to the genus Bacillus and the plate count levels of presumptive Bacillus cereus. The knowledge obtained in this work will be useful to the dairy industry during their quality assurance work and risk assessment practices.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/s41598-017-18447-y</t>
-  </si>
-  <si>
     <t>The objectives of this study were to explore bacterial community assembly from cow teat skin to raw milk cheeses and to evaluate the role of farming systems on this assembly using 16S rRNA gene high-throughput sequencing. The two grazing systems studied (extensive vs. semi-extensive) had a greater effect on the microbiota of cow teat skin than on that of raw milks and cheeses. On teat skin, the relative abundance of several taxa at different taxonomic levels (Coriobacteriia, Bifidobacteriales, Corynebacteriales, Lachnospiraceae, Atopobium, and Clostridium) varied depending on the grazing system and the period (early or late summer). In cheese, the abundance of sub-dominant lactic acid bacteria (LAB) varied depending on the grazing system. Overall, 85% of OTUs detected in raw milks and 27% of OTUs detected in ripened cheeses were also found on cow teat skin. Several shared OTUs were assigned to taxa known to be involved in the development of cheese sensory characteristics, such as Micrococcales, Staphylococcaceae, and LAB. Our results highlight the key role of cow teat skin as a reservoir of microbial diversity for raw milk, and for the first time, that cow teat skin serves as a potential source of microorganisms found in raw-milk cheeses.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2017.02119</t>
-  </si>
-  <si>
     <t>This study explored the bacterial diversity of brines used for cheesemaking in Italy, as well as their physicochemical characteristics. In this context, 19 brines used to salt soft, semi-hard, and hard Italian cheeses were collected in 14 commercial cheese plants and analyzed using a culture-independent amplicon sequencing approach in order to describe their bacterial microbiota. Large NaCl concentration variations were observed among the selected brines, with hard cheese brines exhibiting the highest values. Acidity values showed a great variability too, probably in relation to the brine use prior to sampling. Despite their high salt content, brine microbial loads ranged from 2.11 to 6.51 log CFU/mL for the total mesophilic count. Microbial community profiling assessed by 16S rRNA gene sequencing showed that these ecosystems were dominated by Firmicutes and Proteobacteria, followed by Actinobacteria and Bacteroidetes. Cheese type and brine salinity seem to be the main parameters accountable for brine microbial diversity. On the contrary, brine pH, acidity and protein concentration, correlated to cheese brine age, did not have any selective effect on the microbiota composition. Nine major genera were present in all analyzed brines, indicating that they might compose the core microbiome of cheese brines. Staphylococcus aureus was occasionally detected in brines using selective culture media. Interestingly, bacterial genera associated with a functional and technological use were frequently detected. Indeed Bifidobacteriaceae, which might be valuable probiotic candidates, and specific microbial genera such as Tetragenococcus, Corynebacterium and non-pathogenic Staphylococcus, which can contribute to sensorial properties of ripened cheeses, were widespread within brines.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2016.09.026</t>
-  </si>
-  <si>
     <t>Surface-ripened cheeses host complex microbial communities responsible for the transformation of milk into cheese as well as the development of important properties in terms of texture, color and sensory perception. In this study, we used high-throughput amplicon sequencing to decipher the bacterial and fungal diversity of 60 cheeses belonging to 12 popular French cheese varieties. Using this approach, 76 bacterial and 44 fungal phylotypes were identified. Major differences were observed between rind and core samples and also according to cheese varieties and manufacturing processes. Occurrence analysis revealed the presence of widespread taxa as well as operational taxonomic units (OTUs) specific to one or several cheese varieties. Finally, we observed patterns specific to the cheese production facility, supporting the importance of indigenous microorganisms for the microbial assemblage of cheese microbiota.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/mSystems.00052-16</t>
-  </si>
-  <si>
     <t>Kefir is a putatively health-promoting dairy beverage that is produced when a kefir grain, consisting of a consortium of microorganisms, is added to milk to initiate a natural fermentation. Here, a detailed analysis was carried out to determine how the microbial population, gene content, and flavor of three kefirs from distinct geographic locations change over the course of 24-h fermentations. Metagenomic sequencing revealed that Lactobacillus kefiranofaciens was the dominant bacterial species in kefir during early stages of fermentations but that Leuconostoc mesenteroides became more prevalent in later stages. This pattern is consistent with an observation that genes involved in aromatic amino acid biosynthesis were absent from L. kefiranofaciens but were present in L. mesenteroides. Additionally, these shifts in the microbial community structure, and associated pathways, corresponded to changes in the levels of volatile compounds. Specifically, Acetobacter spp. correlated with acetic acid; Lactobacillus spp. correlated with carboxylic acids, esters and ketones; Leuconostoc spp. correlated with acetic acid and 2,3-butanedione; and Saccharomyces spp. correlated with esters. The correlation data suggest a causal relationship between microbial taxa and flavor that is supported by observations that addition of L. kefiranofaciens NCFB 2797 increased the levels of esters and ketones whereas addition of L. mesenteroides 213M0 increased the levels of acetic acid and 2,3-butanedione. Finally, we detected genes associated with probiotic functionalities in the kefir microbiome. Our results illustrate the dynamic nature of kefir fermentations and microbial succession patterns therein and can be applied to optimize the fermentation processes, flavors, and health-related attributes of this and other fermented foods. IMPORTANCE Traditional fermented foods represent relatively low-complexity microbial environments that can be used as model microbial communities to understand how microbes interact in natural environments. Our results illustrate the dynamic nature of kefir fermentations and microbial succession patterns therein. In the process, the link between individual species, and associated pathways, with flavor compounds is revealed and several genes that could be responsible for the purported gut health-associated benefits of consuming kefir are identified. Ultimately, in addition to providing an important fundamental insight into microbial interactions, this information can be applied to optimize the fermentation processes, flavors, and health-related attributes of this and other fermented foods.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2016.10.018</t>
-  </si>
-  <si>
     <t>Red-brown pigmentation can occasionally form in smeared-ripened cheese such as Fontina during the ripening process. This reaction is due to over-development of the typical microbiota present on the rind. Previous studies have demonstrated the relationship between red-brown pigmentation and the traditional utilization of wooden shelves during cheese ripening. The first part of the paper focuses on the characterisation of yeast and bacterial microbiota: plate counts and 454-pyrosequencing were performed in spoiled (n = 6) and non-spoiled cheeses (n = 6) and on the wooden shelves used during ripening. The second part shows different systems tested for cleaning the wooden shelves and avoiding the development of the red-brown defect in cheese: washing with hot water and ozone treatment. Actinobacteria, dominated on the wooden shelves, suggesting to be responsible for the red-brown pigmentation; they were also found in traces in the defected cheese samples. Galactomyces and Debaryomyces were the main species characterizing the yeast population, with Debaryomyces being the most dominant species on the shelves used during ripening of the red-brown defective cheese. Hot water treatment reduced the microbial contamination of shelves, whereas only the ozone treatment ensured complete elimination of both yeast and bacteria, resulting in the cheese rind not having the red-brown defect.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2016.11.016</t>
-  </si>
-  <si>
     <t>Traditional Caciocavallo of Castelfranco is a semi-hard “pasta-filata” cheese produced from raw cows' milk in Campania region. The aim of the present research is mainly focused on the study, by 16S rRNA gene pyrosequencing and viable counts, of the dynamics of bacterial communities during manufacture and ripening of traditional Caciocavallo cheese. Moreover, the possible correlation between cheese microbiota and cows' feeding based on silage or hay was also evaluated. In general, except for enterococci, the technological process significantly affected all the microbial groups. According to 16S rRNA, raw cows' milk was dominated by Streptococcus thermophilus, L. lactis and Pseudomonas sp. in hay cheese production, whereas Lactococcus lactis and Acinetobacter sp. dominated silage production. Differences in the taxonomic structure of the milk's microbiota within diet groups were not related to silage and hay cows' feeding. Moreover, S. thermophilus was the unique species that dominate from raw milks to fermented intermediates and cheese in both hay and silage cheese productions. Feeding and ripening time influenced significantly sensory characteristics of the cheeses.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/s12866-018-1323-4</t>
-  </si>
-  <si>
     <t>Background: The microbiome of cheese is diverse, even within a variety. The metagenomics of cheese is dependent on a vast array of biotic and abiotic factors. Biotic factors include the population of microbiota and their resulting cellular metabolism. Abiotic factors, including the pH, water activity, fat, salt, and moisture content of the cheese matrix, as well as environmental conditions (temperature, humidity, and location of aging), influence the biotic factors. This study assessed the metagenomics of commercial Gouda cheese prepared using pasteurized or unpasteurized cow milk or pasteurized goat milk via 16S rDNA sequencing. Results: Results were analyzed and compared based on milk pasteurization and source, spatial variability (core, outer, and under the rind), and length of aging (2–4 up to 12–18 months). The dominant organisms in the Gouda cheeses, based on percentage of sequence reads identified at the family or genus levels, were Bacillaceae, Lactococcus, Lactobacillus, Streptococcus, and Staphylococcus. More genus- or family-level (e.g. Bacillaceae) identifications were observed in the Gouda cheeses prepared with unpasteurized cow milk (120) compared with those prepared with pasteurized cow milk (92). When assessing influence of spatial variability on the metagenomics of the cheese, more pronounced differences in bacterial genera were observed in the samples taken under the rind; Brachybacterium, Pseudoalteromonas, Yersinia, Klebsiella, and Weissella were only detected in these samples. Lastly, the aging length of the cheese greatly influenced the number of organisms observed. Twenty-seven additional genus-level identifications were observed in Gouda cheese aged for 12–18 months compared with cheese only aged 2–4 months. Conclusions: Collectively, the results of this study are important in determining the typical microbiota associated with Gouda cheese and how the microbiome plays a role in safety and quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3168/jds.2017-14083</t>
-  </si>
-  <si>
     <t>Microbial contamination of bovine raw milk often occurs at the farm. To acquire a deeper knowledge of the microbiota of farm tank milk, we studied milk from 45 farms situated in 2 geographical areas in Norway. Each farm was visited on 3 different occasions, with at least 2 wk between visits. We combined both bacterial cell counts and a sequence variant inference method of amplicon-based high-throughput sequencing to achieve a high-resolution overview of the microbiota in each sample. Compositional variation of the farm milk microbiota was shown in relation to the 2 areas, between the farms and between the sampling times. Despite the near constant level of bacteria enumerated in milk from each individual farm, the dominant microbiota differed significantly between the samplings. The predominant microbiota was dominated by spoilage genera, such as Pseudomonas and Bacillus, as well as the dairy fermentation genus Lactococcus and mastitis-causing organisms (Streptococcus). Analysis of the identified sequence variants within these genera showed that the populations of Pseudomonas and Lactococcus in milk had similar composition between the farms, but that Bacillus and, in particular, Streptococcus populations changed between collection days from the same farm and between farms and geographical areas. Furthermore, the levels and composition of Bacillus and Paenibacillus were different between the 2 geographical areas. The results presented here provide new insight into the farm milk microbiota and show that this microbiota is a dynamic community highly subject to variation.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0205054</t>
-  </si>
-  <si>
     <t>Dry and early lactation periods represent the most critical phases for udder health in cattle, especially in highly productive breeds, such as the Holstein Friesian (HF). On the other hand, some autochthonous cattle breeds, such as the Rendena (REN), have a lower prevalence of mastitis and other transition-related diseases. In this study, milk microbiota of 6 HF and 3 REN cows, all raised on the same farm under the same conditions, was compared. A special focus was placed on the transition period to define bacterial groups’ prevalence with a plausible effect on mammary gland health. Four time points (dry-off, 1 d, 7–10 d and 30 d after calving) were considered. Through 16S rRNA sequencing, we characterized the microbiota composition for 117 out of the 144 milk samples initially collected, keeping only the healthy quarters, in order to focus on physiological microbiome changes and avoid shifts due to suspected diseases. Microbial populations were very different in the two breeds along all the time points, with REN milk showing a significantly lower microbial biodiversity. The taxonomic profiles of both cosmopolitan and local breeds were dominated by Firmicutes, mostly represented by the Streptococcus genus, although in very different proportions (HF 27.5%, REN 68.6%). Large differences in HF and REN cows were, also, evident from the metabolic predictive analysis from microbiome data. Finally, only HF milk displayed significant changes in the microbial composition along the transition period, while REN maintained a more stable microbiota. In conclusion, in addition to the influence on the final characteristics of dairy products obtained from milk of the two breeds, differences in the milk microbiome might, also, have an impact on their mammary gland health.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2018.12.007</t>
-  </si>
-  <si>
     <t>The microbiota of different types of Italian high-moisture Mozzarella cheese produced using cow or buffalo milk, acidified with natural or selected cultures, and sampled at the dairy or at the mass market, was evaluated using a Next Generation Sequencing approach, in order to identify possible drivers of the bacterial diversity. Cow Mozzarella and buffalo Mozzarella acidified with commercial cultures were dominated by Streptococcus thermophilus, while buffalo samples acidified with natural whey cultures showed similar prevalence of L. delbrueckii subsp. bulgaricus, L. helveticus and S. thermophilus. Moreover, several species of non-starter lactic acid bacteria were frequently detected. The diversity in cow Mozzarella microbiota was much higher than that of water buffalo samples. Cluster analysis clearly separated cow's cheeses from buffalo's ones, the former having a higher prevalence of psychrophilic taxa, and the latter of Lactobacillus and Streptococcus. A higher prevalence of psychrophilic species and potential spoilers was observed in samples collected at the mass retail, suggesting that longer exposures to cooling temperatures and longer production-to-consumption times could significantly affect microbiota diversity. Our results could help in detecting some kind of thermal abuse during the production or storage of mozzarella cheese.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2018.12.014</t>
-  </si>
-  <si>
     <t>Brazilian artisanal cheeses are characterized by the use of raw milk and in some cases, natural starter cultures, known as “pingo”, as well as following simple and traditional manufacturing technology. In this study, a large-scale screening of the microbial ecology of 11 different types of artisanal cheeses produced in five geographical areas of Brazil was performed. Besides, the specific origin-related microbial signatures were identified. Clear geography- and technology-based differences in the microbiota were observed. Lactic acid bacteria dominated in all cheeses although Enterobacteriaceae and Staphylococcus also occurred in North, Northeast and Central cheeses. Differences in the lactic acid bacteria patterns were also highlighted: Streptococcus, Leuconostoc, Lactococcus and Lactobacillus were differently combined in terms of relative abundance according to product type and region of production. This study provides a comprehensive, unprecedented microbiological mapping of Brazilian cheeses, highlighting the impact of geographical origin and mode of production on microbial diversity. The results obtained will help to plan an evaluation of microbial contamination sources that will need to be studied for the improvement of cheese quality and safety.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2017.09.009</t>
-  </si>
-  <si>
     <t>“Chorizo de Léon” is a high-value Spanish dry fermented sausage traditionally manufactured without the use of starter cultures, owing to the activity of a house-specific autochthonous microbiota that naturally contaminates the meat from the environment, the equipment and the raw materials. Lactic acid bacteria (particularly Lactobacillus) and coagulase-negative cocci (mainly Staphylococcus) have been reported as the most important bacterial groups regarding the organoleptic and safety properties of the dry fermented sausages. In this study, samples from raw minced meat to final products were taken from five different producers and the microbial diversity was investigated by high-throughput sequencing of 16S rRNA gene amplicons. The diverse microbial composition observed during the first stages of “Chorizo de Léon” evolved during ripening to a microbiota mainly composed by Lactobacillus in the final product. Oligotyping performed on 16S rRNA gene sequences of Lactobacillus and Staphylococcus populations revealed sub-genus level diversity within the different manufacturers, likely responsible of the characteristic organoleptic properties of the products from different companies.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.00983-17</t>
-  </si>
-  <si>
     <t>Valle d'Aosta Lard d'Arnad is a protected designation of origin (PDO) product produced from fat of the shoulder and back of heavy pigs. Its manufacturing process can be very diverse, especially regarding the maturation temperature and the NaCl concentration used for the brine; thereby, the main goal of this study was to investigate the impact of those parameters on the microbiota developed during curing and ripening. Three farms producing Lard d'Arnad were selected. Two plants, reflecting the industrial process characterized either by low maturation temperature (plant A [10% NaCl, 2°C]) or by using a low NaCl concentration (plant B [2.5% NaCl, 4°C]), were selected, while the third was characterized by an artisanal process (plant C [30% NaCl, 8°C]). Lard samples were obtained at time 0 and after 7, 15, 30, 60, and 90 days of maturation. From each plant, 3 independent lots were analyzed. The diversity of live microbiota was evaluated by using classical plate counts and amplicon target sequencing of small subunit (SSU) rRNA. The main taxa identified by sequencing were Acinetobacter johnsonii, Psychrobacter, Staphylococcus equorum, Staphylococcus sciuri, Pseudomonas fragi, Brochothrix, Halomonas, and Vibrio, and differences in their relative abundances distinguished samples from the individual plants. The composition of the microbiota was more similar among plants A and B, and it was characterized by the higher presence of taxa recognized as undesired bacteria in food-processing environments. Oligotype analysis of Halomonas and Acinetobacter revealed the presence of several characteristic oligotypes associated with A and B samples. IMPORTANCE Changes in the food production process can drastically affect the microbial community structure, with a possible impact on the final characteristics of the products. The industrial processes of Lard d'Arnad production are characterized by a reduction in the salt concentration in the brines to address a consumer demand for less salty products; this can negatively affect the dynamics and development of the live microbiota and, as a consequence, can negatively impact the quality of the final product due to the higher abundance of spoilage bacteria. This study is an overview of the live microbiota that develop during lard manufacturing, and it highlights the importance of the use of traditional process to produce PDO from a spoilage perspective.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2012.04.016</t>
-  </si>
-  <si>
     <t>Most raw poultry sold in Finland at the retail level is mixed with marinades containing oil, sugar, spices and acetic acid and packaged under modified atmosphere. Premature spoilage of marinated poultry preparations has been observed and associated with high levels of Leuconostoc spp. in meat. In this study we investigated whether marination of broiler fillet strips increased the proportion of Leuconostoc spp. in the microbial communities. To obtain a comprehensive view of the microbiota, we sequenced total DNA and 16S rRNA gene amplicons from the microbial communities. The lactic acid bacterial communities were characterized also by identification of colonies. The results showed that marinade increased the proportions of the spoilage-associated Leuconostoc gasicomitatum in the communities as well as the proportions of Leuconostoc gelidum and Lactobacillus spp. The proportions of Carnobacterium, Vagococcus, Brochothrix thrermosphacta, Clostridium, Enterobacteriaceae and Vibrio were diminished in marinated meat. Analysis of 16S rRNA gene amplicons resulted in 312 and 284 operational taxonomical units (dissimilarity 0.03) in unmarinated and marinated meat, respectively, indicating that the meat communities were more diverse than hitherto shown. Metagenomic analysis revealed a number of bacterial taxa that have not been associated with late shelf-life meat before, including Vagococcus and Vibrio that belonged to the predominating part of the microbial community in unmarinated meat. According to the functional analysis of the metagenomes, the communities in both marinated and unmarinated poultry were characterized by high proportions (15.6% or 17.9%) of genes involved in carbohydrate metabolism.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.00323-16</t>
-  </si>
-  <si>
     <t>Raw sausages are perishable foodstuffs; reducing their salt content raises questions about a possible increased spoilage of these products. In this study, we evaluated the influence of salt reduction (from 2.0% to 1.5% [wt/wt]), in combination with two types of packaging (modified atmosphere [50% mix of CO2-N2] and vacuum packaging), on the onset of spoilage and on the diversity of spoilage-associated bacteria. After 21 days of storage at 8°C, spoilage was easily observed, characterized by noticeable graying of the products and the production of gas and off-odors defined as rancid, sulfurous, or sour. At least one of these types of spoilage occurred in each sample, and the global spoilage intensity was more pronounced in samples stored under modified atmosphere than under vacuum packaging and in samples with the lower salt content. Metagenetic 16S rRNA pyrosequencing revealed that vacuum-packaged samples contained a higher total bacterial richness (n = 69 operational taxonomic units [OTUs]) than samples under the other packaging condition (n = 46 OTUs). The core community was composed of 6 OTUs (Lactobacillus sakei, Lactococcus piscium, Carnobacterium divergens, Carnobacterium maltaromaticum, Serratia proteamaculans, and Brochothrix thermosphacta), whereas 13 OTUs taxonomically assigned to the Enterobacteriaceae, Enterococcaceae, and Leuconostocaceae families comprised a less-abundant subpopulation. This subdominant community was significantly more abundant when 2.0% salt and vacuum packaging were used, and this correlated with a lower degree of spoilage. Our results demonstrate that salt reduction, particularly when it is combined with CO2-enriched packaging, promotes faster spoilage of raw sausages by lowering the overall bacterial diversity (both richness and evenness). IMPORTANCE Our study takes place in the context of raw meat product manufacturing and is linked to a requirement for salt reduction. Health guidelines are calling for a reduction in dietary salt intake. However, salt has been used for a very long time as a hurdle technology, and salt reduction in meat products raises the question of spoilage and waste of food. The study was conceived to assess the role of sodium chloride reduction in meat products, both at the level of spoilage development and at the level of bacterial diversity, using 16S rRNA amplicon sequencing and raw pork sausage as a meat model.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.10.012</t>
-  </si>
-  <si>
     <t>The microbial contamination that occurs during the slaughtering process and during handling of the meat results in a shortening of the shelf-life of meat. In this study, which has had the aim of extending the shelf life of beefsteaks, pilot-scale treatments were carried out with aqueous ozone (AO) and electrolyzed water (EW) before vacuum packaging (VP). The development of the potentially active microbiota and the associated volatilome were followed over 15 days of storage under refrigerated conditions (4 °C), in order to define the potential long-term effects of the treatments and storage condition on microbiota. The targeted RNA-based amplicon sequencing identified Pseudomonas fragi as the most frequent species before and after the treatments with AO and EW, as well as in the untreated control. The tested treatments did not reduce the overall presence of this species, but they affected the intra-species distribution of its oligotypes, albeit slightly. With the progression of the refrigerated storage and the reduction of the oxygen availability, Lactobacillus sakei, Leuconostoc gasicomitatum and Lactococcus piscium became the dominant, potentially active, beef microbiota, as confirmed by microbiological data. When the OTU abundances and volatilome were coupled, a significant association was observed between the organic acids, esters and aldehydes and these lactic acid bacteria species.In spite of the limited effectiveness of the treatments over the short and long term, this study has provided a detailed view of beef spoilage using RNA as the sequencing target, strengthening and confirming the current knowledge based on DNA-amplicon sequencing.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2017.11.003</t>
-  </si>
-  <si>
     <t>Lactobacillus curvatus 54M16 produced bacteriocins sak X, sak Tα, sak Tβ and sak P. The aim of this study was to investigate the anti-listerial activity of the bacteriocins-producing strain against Listeria monocytogenes in vitro co-culture experiments and during the manufacture of fermented sausages. In MRS broth, Lb. curvatus 54M16 was able to inhibit L. monocytogenes to undetectable levels after 48 h at 20 °C or 5 days at 15 °C. Anti-listerial activity was lower during the production of fermented sausages with pathogen inoculation at levels of approximately 4 Log CFU g−1. However, total inhibition of L. monocytogenes native to the raw ingredients was achieved over the course of the fermentation. Moreover, 16S rRNA-based analysis revealed the ability of Lb. curvatus 54M16 to dominate and affect the bacterial ecosystem, whereas spoilage-associated bacterial genera, such as Brochothrix, Psychrobacter, Pseudomonas and some Enterobacteriaceae, were found until the end of ripening in sausages without Lb. curvatus 54M16. The use of the bacteriocins-producing Lb. curvatus 54M16 in fermented sausages could be an important contribution to product safety, provided that eco-physiological factors and other preservation methods are maintained at levels required for the inhibition of pathogens in controlled conditions.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.04.032</t>
-  </si>
-  <si>
     <t>The present study promotes the valorization of Fabriano-like fermented sausages, which are central-Italy salami with an origin that dates to the early 17th century, for the possible future selection of autochthonous starter cultures to be used with respect to local traditions. To the best of the authors' knowledge, this study represents the first attempt to define the microbial dynamics in Fabriano-like fermented sausage and the effect of nitrates/nitrites and starter cultures on its natural bacterial biota. Culture and RNA-based techniques (RT-PCR-DGGE and Illumina sequencing) were used to assess the microbial ecology of model Fabriano-like fermented sausages together with the impact of starter cultures and different nitrate and nitrite concentrations. The meat batter was used to produce two batches of fermented sausages that were prepared as follows: i) without commercial starters or ii) with the use of starter cultures composed of Pediococcus pentosaceus and Staphylococcus xylosus. Each batch was further divided into three different batches with the addition of 0/0 mg kg−1 nitrate/nitrite, 75/60 mg kg−1 nitrate/nitrite and 150/125 mg kg−1 nitrate/nitrite to the first, second and third batch, respectively. The samples, which were produced in triplicate, were analyzed on the day of production and after 7, 21, and 42 days of ripening. Enterobacteriaceae counts were always higher in model Fabriano-like sausages produced without the use of starter cultures at all of the sampling times irrespective of the tested nitrate/nitrite concentrations. Lactobacilli counts were positively influenced by the starters, although this influence was not evident over time; moreover, the effect of nitrates and nitrites on the counts of lactobacilli differed over time. As a general trend, coagulase-negative cocci counts were apparently not influenced by the tested nitrate/nitrite concentrations. Regarding the effect of nitrates/nitrites on the microbial diversity revealed by RT-PCR-DGGE, the higher the concentration, the lower the presence of some genera/species such as Pseudomonas spp., Serratia liquefaciens and Staphylococcus spp. However, Illumina sequencing detected Pseudomonas spp. as a minority species after 7, 21 and 42 days of ripening irrespective of the nitrate/nitrite concentration. The presence of Staphylococcus species was highlighted by both RT-PCR-DGGE and Illumina sequencing at all of the stages of ripening, although its presence was massively detected in fermented sausages produced without the use of nitrates/nitrites at the end of ripening. Overall, the data collected clearly highlighted the dominance of Lactobacillus sakei in all of the fermented sausages during ripening (from day 7 to day 42) and irrespective of the nitrate/nitrite concentration and added starter cultures. Moreover, Pediococcus spp. was principally detected in model Fabriano-like fermented sausage with added starter cultures irrespective of the nitrate/nitrite concentration.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.09.017</t>
-  </si>
-  <si>
     <t>Fourteen lots of cooked ham in modified atmosphere packaging (CH) were analyzed within a few days from packaging (S) and at the end of the shelf-life (E), after storage at 7 °C to simulate thermal abuse. Five more lots, rejected from the market because spoiled (R), were included in the study. Quality of the products was generally compromised during the shelf life, with only 4 lots remaining unaltered. Analysis of 16S rRNA gene amplicons resulted in 801 OTUs. S samples presented a higher diversity than E and R ones. At the beginning of the shelf life, Proteobacteria and Firmicutes dominated the microbiota, with Acinetobacter, Brochothrix, Carnobacterium, Lactobacillus, Prevotella, Pseudomonas, Psychrobacter, Weissella, Vibrio rumoiensis occurring frequently and/or abundantly. E and R samples were dominated by Firmicutes mostly ascribed to Lactobacillales. It is noteworthy the appearance of abundant Leuconostoc, negligible in S samples, in some E and R samples, while in other LAB were outnumbered by V. rumoiensis or Brochothrix thermosphacta. The microbiota of spoiled and R samples could not be clustered on the basis of specific defects (discoloration, presence of slime, sourness, and swollen packages) or supplemented additives. LAB population of S samples, averaging 2.9 log10(cfu/g), increased to 7.7 log10(cfu/g) in the E and R samples. Dominant cultivable LAB belonged to the species Lactobacillus sakei and Leuconostoc carnosum. The same biotypes ascribed to different species where often found in the corresponding S and R samples, and sometime in different batches provided from the same producer, suggesting a recurrent contamination from the plant of production. Consistently with growth of LAB, initial pH (6.26) dropped to 5.74 in E samples. Volatiles organic compound (VOCs) analysis revealed that ethanol was the major metabolite produced during the shelf life. The profile of volatile compounds got enriched with other molecules (e.g. 2-butanone, ethyl acetate, acetic acid, acetoin, butanoic acid, ethyl ester, butanoic acid, and 2,3-butanediol) mainly ascribed to microbial metabolism.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.meatsci.2018.09.001</t>
-  </si>
-  <si>
     <t>Spanish-type chorizo is a fermented meat product that is highly appreciated by consumers. The physicochemical properties (pH, water activity (aw), total acidity (TA), and malonaldehyde content) were evaluated in the initial meat batter and at different ripening stages. Bacterial diversity and dynamics were also examined using high-throughput sequencing. A decrease in pH and aw was observed during ripening, while the TA and malonaldehyde contents increased significantly. This data correlated with the changes in lactic acid bacteria and enterobacteria populations. Total bacterial diversity in the initial samples was represented by Proteobacteria (44%) and Firmicutes (55%) phyla, where Pseudomonas (23%), Streptococcus (21%), Acinetobacter (14%), Bacillus (13%), and Brochothrix (11%) were the most abundant genera. In contrast, Firmicutes reached the highest frequency (~89%), with Lactobacillus and Streptococcus being the most represented at the end of ripening. Lactobacillus sakei, Pediococcus acidilactici, and Weissella thailandensis were identified by 16S rRNA gene analysis and were considered potentially responsible for the stability, microbiological safety, and sensory characteristics of this product.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2019.04.003</t>
-  </si>
-  <si>
     <t>It is well established, that certain bacteria within the Brochothrix, Carnobacterium, Lactobacillus, Lactococcus, and Leuconostoc genera have an important role in the spoilage of chill stored poultry meat packaged in modified atmosphere. However, little is known about the role of microorganisms that are difficult to culture and the microbiota during poultry spoilage. We combined traditional cultivation and culture-independent 16S rRNA amplicon sequencing to investigate the microbiota encompassing putative bacteria of whole broiler meat, packaged in modified atmosphere, during and exceeding shelf-life. Samples were taken from 6 flocks during independent slaughter days. Additional samples were analysed from the production line. There was a significant difference in the microbial community structure of 80%O2/20%CO2 retail packaged broiler meat during different times of shelf-life, mainly due to an increase of species within the Brochothrix, Carnobacterium, Vagococcus, and Janthinobacterium genera. These genera were already detected four to eight days after slaughter. However, no significant difference between flocks with respect to the microbiota encompassing putative spoilage bacteria was observed when examined in retail packaged broilers, slaughtered at the same abattoir on different days. Our study also showed that lactic acid bacteria within the Vagococcus genus can constitute a dominating part of the later shelf-life microbiota in fresh whole broiler meat packaged in 80%O2/20%CO2 modified atmosphere. A single operational taxonomic unit (OTU) assigned as Janthinobacterium lividum, an occasional spoiler of meat products, was identified as a major part of the microbiota in late shelf life broiler meat and swab samples in the cooling facility at the slaughter house production line. The combination of traditional cultivation and culture-independent methods provided a great insight into the microbiota of broiler meat during shelf-life and identified a potential point of contamination in the production line for cold tolerant Janthinobacterium.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2018.11.039</t>
-  </si>
-  <si>
     <t>The aim of this study was to investigate the shelf-life and microbial community dynamics of super-chilled vacuum-packaged beef striploins imported from Australia to China after approximately five weeks of shipping time and an additional 15 weeks of storage at −1 °C ± 0.5 °C. Data analysis using a mixed model (REML) with time as the fixed effect and portion as a random effect, showed that the only beef quality trait that changed during storage was total volatile basic nitrogen (TVBN; P &lt; .05), which reached the threshold of 15 mg/100 g between 15 and 20 weeks (including 5 weeks of transport). The total viable count (TVC) accounted for 78% of the variance in TVBN, when storage time was included in the model. Sensory scores decreased as storage time extended (P &lt; .05), but were still acceptable at 20 weeks. After 9 weeks, Carnobacterium spp. and Lactobacillus spp. dominated alternately and then Lactobacillus became the most prevalent bacteria. An operational taxominc unit based hierarchical cluster analysis using the unweighted pair-group method with arithmetic means was performed and it was shown that the bacterial communities tended to be consistent as storage time extended. Overall indications are that beef which is safe can be imported into China from Australia and aged for extended periods.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2019.01.008</t>
-  </si>
-  <si>
     <t>Thawed hake (Merluccius capensis and M. paradoxus) and plaice (Pleuronectes platessa) fillets were used as a model to evaluate the effect of storage temperature (0 or 10 °C) and biological variability (fish species, lot to lot) on bacterial growth kinetics and microbial successions. Both culture dependent methods (plate counts on non-selective and selective media) and culture independent methods (qPCR and 16S rRNA gene metabarcoding) were used. Bacterial counts exceeded 107 cfu/g within 2–3 days at 10 °C and 7–8 days at 0 °C. Plate counts on three media (Plate Count Agar +0.5% NaCl, Iron Agar Lyngby and Pseudomonas Selective medium) and 16S rRNA gene counts estimated by qPCR were highly correlated. Growth was modelled using the D-model and specific growth rate ranged between 0.97 and 1.24 d−1 and 3.54 and 5.90 d−1 at 0 and 10 °C, respectively. The initial composition of the microbiota showed lot-to-lot variation, but significant differences between the two fish species were detected. Alpha diversity significantly decreased during storage. When bacterial counts exceeded 107 cfu/g, the microbiota was dominated by members of the genera Pseudomonas, Psychrobacter, Acinetobacter, Serratia, Flavobacterium, Acinetobacter, Carnobacterium, Brochothrix and Vagococcus. However, Photobacterium and Shewanella, two genera frequently associated with fish spoilage, were either absent or minor components of the microbiota. As expected, storage temperature significantly affected the abundance of several species. The inference of microbial association networks with three different approaches (an ensemble approach using the CoNet app, Sparse Correlations for Compositional data, and SParse InversE Covariance Estimation for Ecological Association Inference) allowed the detection of both a core microbiota, which was present throughout storage, and a number of taxa, which became dominant at the end of spoilage and were characterized by a disproportionate amount of negative interactions.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/s41598-017-11552-y</t>
-  </si>
-  <si>
     <t>Traceability of seafood has become crucial with market globalization and consumer’s awareness. The present study used PCR-DGGE and 454 pyrosequencing to assess if bacterial communities fingerprint associated to seabass (Dicentrarchus labrax) skin mucus can be used to discriminate the geographic origin of fishes cultured in three semi-intensive fish farms. PCR-DGGE and pyrosequencing results were congruent and suggested that this molecular approach has the potential to trace fish farms with a spatial resolution &lt;500 m. Pyrosequencing results provided a detailed insight into the bacterial community composition of seabass skin mucus and revealed the existence of a core of bacterial communities within family Pseudomonadaceae and Rhodobacteraceae. This approach also allowed to recognized key OTUs that are potentially relevant to discriminate the geographic origin of the fish being surveyed. Overall, the present study increased our knowledge on farmed seabass microbiome and demonstrated that specific and unique bacterial taxa can act as natural signatures that allow us to trace fish to its respective geographic origin. Our study provides valuable clues that should be more investigated in future studies as a way to fulfill current traceability needs in the global trade of seafood.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.12.021</t>
-  </si>
-  <si>
     <t>Microbial (colony counts, 16S rRNA gene amplification), chemical (pH, 1H NMR spectroscopy) and sensory changes in raw Atlantic Salmon (Salmo salar) and tuna (Thunnus albacares) fillets stored under vacuum at 3 °C were evaluated over a period of 12 days. Both species of fish are globally important and among the ten most consumed fishes in the world. Although the sensory analyses showed a decrease in the quality of both fish species, only the salmon fillets were considered spoiled at the end of the storage period. In salmon, trimethylamine was the main spoilage product and bacterial colony counts reached an average of 7.3 log10 cfu/g. The concentration of glucose decreased and the concentration of organic acids increased during storage revealing glucose fermentation. Photobacterium was the dominating genus in the salmon studied. In the tuna studied, the bacterial colony counts reached only an average of 4.6 log10 cfu/g. The dominating bacteria in tuna were Pseudomonas spp. Glucose levels did not decrease, suggesting that amino acids and lactate most likely acted as carbon sources for bacteria in tuna. In conclusion, the study revealed that salmon was clearly a more perishable fish than tuna.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodcont.2018.09.016</t>
-  </si>
-  <si>
     <t>In this study, the microbiota of liquid eggs (raw materials) produced by different suppliers and final products (chilled pasteurized liquid whole eggs and chilled pasteurized liquid egg yolk) (n = 211, pooled in 21 samples) was studied by a 16S rRNA-based amplicon sequencing. The raw material samples were collected from five different egg suppliers (A, B, C, E, and F), whereas the sixth type of raw material was whole shell eggs broken at the egg processing factory. The suppliers were located at different distances (∼100 Km to ∼1500 Km) from the liquid egg processing facility, being subjected to varying practices after egg breaking (pasteurization and addition of hydrogen peroxide), followed by chilled transportation. The results showed that final products presented lower diversity indexes than raw materials suggesting that processing and storage act towards shaping their microbiota. Besides, the transportation distance seemed to influence the microbiota of liquid egg. Proteobacteria and Firmicutes dominated the sequences of 16S rRNA in raw materials and final product samples, while the abundance of classes was found to vary considerably among samples and composite samples. Lactobacillales and Pseudomonadales were the most abundant order in almost all raw material samples, whereas Enterobacteriales was abundant in few raw material samples. The principal genera linked to final products were Pseudomonas, Carnobacterium and less frequently Clostridium. The study highlights that the practices employed by suppliers and transportation distances are key in modulating the microbiota of raw materials and further liquid processed egg products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/s40168-016-0193-y</t>
-  </si>
-  <si>
     <t>Background Fresh sprouted seeds have been associated with a number of large outbreaks caused by Salmonella and Shiga toxin-producing E. coli. However, the high number of commensal bacteria found on sprouted seeds hampers the detection of these pathogens. Knowledge about the composition of the sprout microbiome is limited. In this study, the microbiome of mungo bean sprouts and the impact of buffered peptone water (BPW) and Enterobacteriaceae enrichment broth (EE-broth)-based enrichment protocols on this microbiome were investigated. Results Assessments based on aerobic mesophilic colony counts showed similar increases in mungo bean sprout background flora levels independent of the enrichment protocol used. 16S rRNA sequencing revealed a mungo bean sprout microbiome dominated by Proteobacteria and Bacteroidetes. EE-broth enrichment of such samples preserved and increased Proteobacteriadominance while reducing Bacteroidetes and Firmicutes relative abundances. BPW enrichment, however, increased Firmicutes relative abundance while decreasing Proteobacteria and Bacteroidetes levels. Both enrichments also lead to various genus level changes within the Protobacteria and Firmicutes phyla. Conclusions New insights into the microbiome associated with mungo bean sprout and how it is influenced through BPW and EE-broth-based enrichment strategies used for detecting Gram-negative pathogens were generated. BPW enrichment leads to Firmicutes and Proteobacteriadominance, whereas EE-broth enrichment preserves Proteobacteria dominance in the mungo bean sprout samples. By increasing the relative abundance of Firmicutes, BPW also increases the abundance of Gram-positive organisms including some that might inhibit recovery of Gram-negative pathogens. The use of EE-broth, although preserving and increasing the dominance of Proteobacteria, can also hamper the detection of lowly abundant Gram-negative target pathogens due to outgrowth of such organisms by the highly abundant non-target Proteobacteria genera comprising the mungo bean sprout associated background flora.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2018.08.003</t>
-  </si>
-  <si>
     <t>Limited documentation of the cucumber fermentation microbiome has impeded the understanding of the role of microbes on the quality of finished products. We characterized the microbiome of fresh and fermented cucumber samples using culture dependent and independent techniques, with an emphasis on the non-lactic acid bacteria (non-LAB) population. Insubstantial microbiome variations were observed among fresh cucumber types with Rhizobium (31.04%), Pseudomonas (14.08%), Pantoea (9.25%), Stenotrophomonas (6.83%), and Acinetobacter (6.5%) prevailing. The relative abundance of LAB remained below 0.4% and 4.0% on fresh cucumbers and day 3 of the fermentations brined with 6% sodium chloride, respectively. Fermentation cover brine samples collected on day 1 harbored Pseudomonas, Pantoea, Stenotrophomonas, Acinetobacter, Comamonas, Wautersiella, Microbacterium, Flavobacterium, Ochrobactrum and the Enterobacteriaceae, Citrobacter, Enterobacter and Kluyvera. Plate counts for presumptive Klebsiella and Pseudomonas from fermentation cover brine samples reached 2.80 ± 0.36 and 2.78 ± 0.83 log of CFU/mL, respectively, in 30% and 60% of the nine tanks scrutinized with selective media. Both genera were found in cover brine samples with pH values at 4.04 ± 0.15. We aim at elucidating whether the low relative abundance of non-LAB in commercial cucumber fermentations, in particular Pseudomonas and Enterobacteriaceae, impacts the quality of fermented cucumbers.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2013.04.015</t>
-  </si>
-  <si>
     <t>Thermophilic lactic acid bacteria (LAB) species, such as Streptococcus thermophilus, Lactobacillus delbrueckii and Lactobacillus helveticus, enjoy worldwide economic importance as dairy starters. To assess the diversity of thermophilic bacteria in milk, milk samples were enriched in thermophilic organisms through a stepwise procedure which included pasteurization of milk at 63 °C for 30 min (PM samples) and pasteurization followed by incubation at 42 °C for 24 h (IPM samples). The microbial composition of these samples was analyzed by culture-dependent (at 42 °C) and culture-independent (PCR-DGGE and pyrosequencing of 16S rRNA gene amplicons) microbial techniques. The results were then compared to those obtained for their corresponding starting raw milk counterparts (RM samples). Twenty different species were scored by culturing among 352 isolates purified from the counting plates and identified by molecular methods. Mesophilic LAB species (Lactococcus lactis, Lactococcus garvieae) were dominant (87% of the isolates) among the RM samples. However, S. thermophilus and Lb. delbrueckii were found to be the dominant recoverable organisms in both PM and IPM samples. The DGGE profiles of RM and PM samples were found to be very similar; the most prominent bands belonging to Lactococcus, Leuconostoc and Streptococcus species. In contrast, just three DGGE bands were obtained for IPM samples, two of which were assigned to S. thermophilus. The pyrosequencing results scored 95 operational taxonomic units (OTUs) at 3% sequence divergence in an RM sample, while only 13 were encountered in two IPM samples. This technique identified Leuconostoc citreum as the dominant microorganism in the RM sample, while S. thermophilus constituted more than 98% of the reads in the IPM samples. The procedure followed in this study allowed to estimate the bacterial diversity in milk and afford a suitable strategy for the isolation of new thermophilic LAB strains, among which adequate starters might be selected.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.micres.2017.09.004</t>
-  </si>
-  <si>
     <t>The microbial assemblies on the surface of plants correlate with specific climatic features, suggesting a direct link between environmental conditions and microbial inhabitation patterns. At the same time however, microbial communities demonstrate distinct profiles depending on the plant species and region of origin. In this study, we report Next Generation Sequencing-based metagenomic analysis of microbial communities associated with apple and blackcurrant fruits harvested from Lithuania and the Czech Republic. Differences in the taxonomic composition of eukaryotic and prokaryotic microorganisms were observed between plant types. Our results revealed limited geographic differentiation between the bacterial and fungal communities associated with apples. In contrast, blackcurrant berries harvested from different regions demonstrated high diversity in both bacterial and fungal microbiota structures. Among fungal and bacterial microorganisms, we identified both potentially beneficial (Cryptococcus, Hanseniaspora, Massilia, Rhodotorula, Sphingomonas) and phytopathogenic microorganisms (Cladosporium, Pantoea, Phoma, Pseudomonas, Septoria, Taphrina) indicating their important roles in ecological and evolutionary processes.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.03837-13</t>
-  </si>
-  <si>
     <t>The microbial composition of artisan and industrial animal rennet pastes was studied by using both culture-dependent and -independent approaches. Pyrosequencing targeting the 16S rRNA gene allowed to identify 361 operational taxonomic units (OTUs) to the genus/species level. Among lactic acid bacteria (LAB), Streptococcus thermophilus and some lactobacilli, mainly Lactobacillus crispatus and Lactobacillus reuteri, were the most abundant species, with differences among the samples. Twelve groups of microorganisms were targeted by viable plate counts revealing a dominance of mesophilic cocci. All rennets were able to acidify ultrahigh-temperature-processed (UHT) milk as shown by pH and total titratable acidity (TTA). Presumptive LAB isolated at the highest dilutions of acidified milks were phenotypically characterized, grouped, differentiated at the strain level by randomly amplified polymorphic DNA (RAPD)-PCR analysis, and subjected to 16S rRNA gene sequencing. Only 18 strains were clearly identified at the species level, as Enterococcus casseliflavus, Enterococcus faecium, Enterococcus faecalis, Enterococcus lactis, Lactobacillus delbrueckii, and Streptococcus thermophilus, while the other strains, all belonging to the genus Enterococcus, could not be allotted into any previously described species. The phylogenetic analysis showed that these strains might represent different unknown species. All strains were evaluated for their dairy technological performances. All isolates produced diacetyl, and 10 of them produced a rapid pH drop in milk, but only 3 isolates were also autolytic. This work showed that animal rennet pastes can be sources of LAB, mainly enterococci, that might contribute to the microbial diversity associated with dairy productions.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.03470-14</t>
-  </si>
-  <si>
     <t>The phyllosphere is colonized by a wide variety of bacteria and fungi; it harbors epiphytes, as well as plant-pathogenic bacteria and even human pathogens. However, little is known about how the bacterial community composition on leafy greens develops over time. The bacterial community of the leafy-green phyllosphere obtained from two plantings of rocket salad (Diplotaxis tenuifolia) and three plantings of lettuce (Lactuca sativa) at two farms in Norway were profiled by an Illumina MiSeq-based approach. We found that the bacterial richness of the L. sativa samples was significantly greater shortly (3 weeks) after planting than at harvest (5 to 7 weeks after planting) for plantings 1 and 3 at both farms. For the second planting, the bacterial diversity remained consistent at the two sites. This suggests that the effect on bacterial colonization of leaves, at least in part must, be seasonally driven rather than driven solely by leaf maturity. The distribution of phyllosphere communities varied between D. tenuifolia and L. sativa at harvest. The variability between these species at the same location suggests that the leaf-dwelling bacteria are not only passive inhabitants but interact with the host, which shapes niches favoring the growth of particular taxa. This work contributes to our understanding of host plant-specific microbial community structures and shows how these communities change throughout plant development.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/1471-2180-13-274</t>
-  </si>
-  <si>
     <t>Background Plants harbor a diverse bacterial community, both as epiphytes on the plant surface and as endophytes within plant tissue. While some plant-associated bacteria act as plant pathogens or promote plant growth, others may be human pathogens. The aim of the current study was to determine the bacterial community composition of organic and conventionally grown leafy salad vegetables at the point of consumption using both culture-dependent and culture-independent methods. Results Total culturable bacteria on salad vegetables ranged from 8.0 × 103 to 5.5 × 108 CFU g-1. The number of culturable endophytic bacteria from surface sterilized plants was significantly lower, ranging from 2.2 × 103 to 5.8 × 105 CFU g-1. Cultured isolates belonged to six major bacterial phyla, and included representatives of Pseudomonas, Pantoea, Chryseobacterium, and Flavobacterium. Eleven different phyla and subphyla were identified by culture-independent pyrosequencing, with Gammaproteobacteria, Betaproteobacteria, and Bacteroidetes being the most dominant lineages. Other bacterial lineages identified (e.g. Firmicutes, Alphaproteobacteria, Acidobacteria, and Actinobacteria) typically represented less than 1% of sequences obtained. At the genus level, sequences classified as Pseudomonas were identified in all samples and this was often the most prevalent genus. Ralstonia sequences made up a greater portion of the community in surface sterilized than non-surface sterilized samples, indicating that it was largely endophytic, while Acinetobacter sequences appeared to be primarily associated with the leaf surface. Analysis of molecular variance indicated there were no significant differences in bacterial community composition between organic versus conventionally grown, or surface-sterilized versus non-sterilized leaf vegetables. While culture-independent pyrosequencing identified significantly more bacterial taxa, the dominant taxa from pyrosequence data were also detected by traditional culture-dependent methods. Conclusions The use of pyrosequencing allowed for the identification of low abundance bacteria in leaf salad vegetables not detected by culture-dependent methods. The presence of a range of bacterial populations as endophytes presents an interesting phenomenon as these microorganisms cannot be removed by washing and are thus ingested during salad consumption.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.12.022</t>
-  </si>
-  <si>
     <t>The effect of air packaging (AP), vacuum packaging (VP) and modified atmosphere packaging (MAP, 75% CO2/25% N2) on the composition of the microbial community of lightly salted grass carp (Ctenopharyngodon idellus) fillets stored at 4 °C was studied. Physicochemical characteristics (total volatile basic nitrogen (TVB-N) value, pH value and biogenic amines (BA)) were also monitored. Based on sensory evaluation, the shelf life of fillets under AP, VP, and MAP was 8, 16 and 24 days, respectively. High-throughput sequencing showed that Acinetobacter and Pseudomonas dominated the microflora of fresh grass carp. At the sensory rejection time, Pseudomonas and Psychrobacter dominated the AP products. Lactococcus became the predominant genus of both VP and MAP fillets, and there was no obvious difference in the composition of the dominant microbiota between these two treatments at the end of the shelf life.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2011.10.011</t>
-  </si>
-  <si>
     <t>Kimchi, a food made of fermented vegetables, is densely populated by indigenous microorganisms that originate from the raw ingredients under normal conditions. Most microbiological studies on kimchi have been on the most popular dish, baechu-kimchi (Chinese cabbage kimchi). Therefore, relatively little is known about the various other kinds of kimchi (depending on the region, season, main ingredient, starter culture inoculation and recipe). In this study, we collected 100 samples periodically during the fermentation of ten representative kinds of kimchi (including starter-inoculated kimchi) that were stored in the refrigerator (4 °C) during the 30−35 days fermentation period. The multiplex barcoded pyrosequencing of a hypervariable V1−V3 region of the 16S ribosomal RNA (rRNA) gene tagged with sample-specific barcodes for multiplex identifiers was employed for bacterial community profiling. We found that bacterial communities differed between starter-inoculated and non-inoculated kimchi at the early stages of fermentation, but overall there were no significant differences in the late phases. Also, the diversity and richness of bacterial communities varied depending on the various types of kimchi, and these differences could largely be explained by the major ingredients and the manufacture processes of each types of kimchi. This study provides the comprehensive understanding of the factors influencing the biodiversity of the kimchi ecosystem.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.04.002</t>
-  </si>
-  <si>
     <t>The various stages of the cheese-making process harbor distinct bacterial communities which may influence the sensory characteristics of artisanal cheeses. The objective of this study was to investigate the microbiota from dairy farm to final cheeses along an artisanal cheese-making continuum. Environmental and food samples were collected from 21 sites, including the dairy farm, milk, cheese plant, and finished cheeses. The microbiota of these samples were analyzed using 16S rRNA amplicon sequencing, with sequences grouped into operational taxonomic units (OTUs) by phylotype at the genus level. Alpha diversity decreased from dairy farm to finished cheese. Firmicutes was the dominant phylum, ranging from 31% to 92% between the dairy farm and finished cheeses, respectively, with Proteobacteria, Actinobacteria, and Bacteroides also present (25%, 11%, and 9% overall relative abundance, respectively). Of the 37 core OTUs (&gt;5 reads in &gt;80% of site replicates) observed in cheese, 32 were shared with the dairy farm. Starter-related genera (i.e., Lactococcus, Lactobacillus, Streptococcus, and Leuconostoc) represented between 69% and 98% relative abundance in final cheeses depending on style, with the remainder likely acquired from various environmental sources on the farm and during the cheese-making process.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.04.006</t>
-  </si>
-  <si>
     <t>The processing environment of broiler processing plants is a potential major source of bacterial contamination of broiler carcasses. This study investigated the effect of processing water and processing time on the microbial diversity of yellow-feathered broiler carcasses at select stages of slaughter during one commercial processing day using a high-throughput sequencing technique targeting the V3single bondV4 region of the 16S RNA gene. Our results demonstrated that Firmicutes and Proteobacteria were the dominant bacterial phyla of broiler carcasses and processing water in the chiller tank, whereas the processing water in the scalder tank contained a high abundance of Firmicutes and Deinococcus-Thermus. At the genus level, Escherichia-Shigella and Streptococcus were present on broiler carcasses with high abundances after defeathering, but their abundance decreased after washing and chilling. The bacterial community structure was revealed to become more complex at later stages of processing, as indicated by the consistent increase in microbial alpha diversity metrics (Chao 1, Shannoneven and Shannon) throughout the processing stages (p &lt; 0.05). Significantly separate clustering of bacterial communities between scalder tank water and carcasses was revealed by PCoA analysis, indicating the limited effect of scalding water on the bacterial communities of broiler carcasses.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2018.11.006</t>
-  </si>
-  <si>
     <t>Strategies to mitigate antibiotic-resistant bacteria (ARB), including human pathogens, on raw vegetables are needed to reduce incidence of resistant infections. The objective of this research was to determine the effectiveness of standard post-harvest interventions, sanitizer washing and cold storage, to reduce ARB, including antibiotic resistant strains of the human pathogen E. coli O15:H7 and a common spoilage bacterium Pseudomonas, on raw carrots. To provide a background inoculum representing potential pre-harvest carryover of ARB, carrots were dip-inoculated in dairy cow manure compost slurry and further inoculated with known ARB. Inoculated carrots were washed with one of three treatments: sodium hypochlorite (50 ppm free chlorine), peroxyacetic acid (40 ppm peroxyacetic acid; 11.2% hydrogen peroxide), tap water (no sanitizer), or no washing (control). Washed carrots were air dried, packaged and stored at 10 °C for 7d or 2 °C for up to 60 d. Enumeration was performed using total heterotrophic plate counts (HPC), HPCs on antibiotic-containing media (“ARBs”), E. coli O157:H7, and Pseudomonas sp. immediately after washing (0 d) and after 7 d of storage. In addition to the cultured bacteria, changes to the surficial carrot microbiota were profiled by sequencing bacterial 16S rRNA gene amplicons to determine the effect of sanitizer wash, storage temperature, and time of storage (0, 1, 7, 14 and 60 d). Storage temperature, addition of a sanitizer during wash, and duration of storage significantly affected the bacterial microbiota (Wilcoxon, p &lt; 0.05). Inclusion of either sanitizer in the wash water significantly reduced the log CFU/g of E. coli O157:H7 and Pseudomonas sp., as well as HPCs enumerated on cefotaxime- (10 μg/ml), sulfamethoxazole- (100 μg/ml), or tetracycline (3 μg/ml) supplemented media compared to the unwashed control (ANOVA, p &lt; 0.05). However, no significant reductions to bacteria resistant to vancomycin or clindamycin occurred after washing and storage. Members of the Proteobactetria, Firmicutes, Actinobacteria, Planctomycetes, and Acidobacteria comprised the bacterial carrot microbiota. The diversity of the carrot microbiota was significantly affected by the temperature of storage and by extended storage (60 d), when spoilage began to occur. There were no significant differences to the relative abundance of bacterial groups associated with the type of sanitizer used for washing. Results of this study indicate that inclusion of a sanitizer in wash water, followed by storage at 2 °C, might be an effective strategy to prevent re-growth of pathogenic E. coli O157:H7 and reduce levels of bacteria resistant to certain antibiotics on carrots.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/s12866-015-0497-2</t>
-  </si>
-  <si>
     <t>Background Salmonella enterica is a common cause of foodborne gastroenteritis in the United States and is associated with outbreaks in fresh produce such as cilantro. Salmonella culture-based detection methods are complex and time consuming, and improvments to increase detection sensitivity will benefit consumers. In this study, we used 16S rRNA sequencing to determine the microbiome of cilantro. We also investigated changes to the microbial community prior to and after a 24-hour nonselective pre-enrichment culture step commonly used by laboratory analysts to resuscitate microorganisms in foods suspected of contamination with pathogens. Cilantro samples were processed for Salmonella detection according to the method in the United States Food and Drug Administration Bacteriological Analytical Manual. Genomic DNA was extracted from culture supernatants prior to and after a 24-hour nonselective pre-enrichment step and 454 pyrosequencing was performed on 16S rRNA amplicon libraries. A database of Enterobacteriaceae 16S rRNA sequences was created, and used to screen the libraries for Salmonella, as some samples were known to be culture positive. Additionally, culture positive cilantro samples were examined for the presence of Salmonella using shotgun metagenomics on the Illumina MiSeq. Results Time zero uncultured samples had an abundance of Proteobacteria while the 24-hour enriched samples were composed mostly of Gram-positive Firmicutes. Shotgun metagenomic sequencing of Salmonella culture positive cilantro samples revealed variable degrees of Salmonella contamination among the sequenced samples. Conclusions Our cilantro study demonstrates the use of high-throughput sequencing to reveal the microbiome of cilantro, and how the microbiome changes during the culture-based protocols employed by food safety laboratories to detect foodborne pathogens. Finding that culturing the cilantro shifts the microbiome to a predominance of Firmicutes suggests that changing our culture-based methods will improve detection sensitivity for foodborne enteric pathogens.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/pathogens8010037</t>
-  </si>
-  <si>
     <t>Ready-to-eat (RTE) leafy salad vegetables are considered foods that can be consumed immediately at the point of sale without further treatment. The aim of the study was to investigate the bacterial community composition of RTE salads at the point of consumption and the changes in bacterial diversity and composition associated with different household washing treatments. The bacterial microbiomes of rocket and spinach leaves were examined by means of 16S rRNA gene high-throughput sequencing. Overall, 886 Operational Taxonomic Units (OTUs) were detected in the salads’ leaves. Proteobacteria was the most diverse high-level taxonomic group followed by Bacteroidetes and Firmicutes. Although they were processed at the same production facilities, rocket showed different bacterial community composition than spinach salads, mainly attributed to the different contributions of Proteobacteria and Bacteroidetes to the total OTU number. The tested household decontamination treatments proved inefficient in changing the bacterial community composition in both RTE salads. Furthermore, storage duration of the salads at refrigeration temperatures affected the microbiome, by decreasing the bacterial richness and promoting the dominance of psychrotropic bacteria. Finally, both salads were found to be a reservoir of opportunistic human pathogens, while washing methods usually applied at home proved to be inefficient in their removal.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.01164-18</t>
-  </si>
-  <si>
     <t>Forastero hybrid cocoa bean fermentations have been carried out in a box (B) and in a heap (H), with or without the inoculation of Saccharomyces cerevisiae and Torulaspora delbrueckii as starter cultures. The bacteria, yeasts, and microbial metabolites (volatile and nonvolatile organic compounds) were monitored during fermentation to assess the connection between microbiota and the release of metabolites during this process. The presence of starter cultures was detected, by means of culture-dependent analysis, during the first 2 days of both fermentations. However, no statistical difference was observed in any of the physicochemical or microbiological analyses. Plate counts revealed the dominance of yeasts at the beginning of both fermentations, and these were followed by acetic acid bacteria (AAB) and lactic acid bacteria (LAB). Hanseniaspora opuntiae, S. cerevisiae, Pichia pijperi, Acetobacter pasteurianus, and Lactobacillus fermentum were the most abundant operational taxonomic units (OTUs) during both fermentation processes (B and H), although different relative abundances were observed. Only the diversity of the fungal species indicated a higher level of complexity in the B fermentations than in the H fermentations (P &lt; 0.05), as well as a statistically significant difference between the initially inoculated starter cultures (P &lt; 0.01). However, the microbial metabolite analysis indicated different distributions of the volatile and nonvolatile compounds between the two procedures, that is, B and H (P &lt; 0.05), rather than between the inoculated and noninoculated fermentations. The box fermentations showed faster carbohydrate metabolism and greater production of organic acid compounds, which boosted the formation of alcohols and esters, than did the heap fermentations. Overall, the microbial dynamics and associations between the bacteria, yeasts, and metabolites were found to depend on the type of fermentation. IMPORTANCE In spite of the limited effectiveness of the considered inoculated starter strains, this study provides new information on the microbial development of box and heap cocoa fermentations, under inoculated and noninoculated conditions, as we coupled yeast/bacterial amplicon-based sequencing data with microbial metabolite detection. The information so far available suggests that microbial communities have played an important role in the evolution of aroma compounds. Understanding the pathways that microorganisms follow during the formation of aromas could be used to improve the fermentation processes and to enhance chocolate quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2017.03.019</t>
-  </si>
-  <si>
     <t>Liqvan (or Lighvan) is a traditional Iranian cheese from the East Azerbaijan province of Iran, which is made of raw ewe's milk without the addition of a starter. The grazing pastures, environmental conditions and the ancient regional production methods allocate a distinctive microbial ecology to this type of cheese, and these factors are consequently associated with the quality of the product. In this study, the microbiota of the milk, curd and cheese has been investigated using culture independent approaches. Denaturing gradient gel electrophoresis (DGGE) of the bacteria, 16S rRNA based high-throughput sequencing and enumeration of the live bacterial community by means of quantitative PCR (qPCR) have been used for this purpose. The results showed that the main bacterial population in the milk belonged to both microbial contaminants and lactic acid bacteria (LAB). However, both of these populations were totally replaced by LAB during ripening. The present survey contributes by describing the microbiota of this ancient cheese in more detail during fermentation and ripening.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/s41598-018-20862-8</t>
-  </si>
-  <si>
     <t>Milk microbiota has a great influence on the safety and quality of dairy products. However, few studies have investigated the variations of bacterial composition in raw milk. In this study, raw milk samples were collected in 12 successive months, and their bacterial compositions were determined by 16 S rRNA gene sequencing. The highest diversity of bacterial composition was detected in June, while the lowest was in December. Firmicutes, Proteobacteria and Actinobacteria were the most abundant phyla and exhibited a counter-balanced relationship. Pseudomonas, Lactococcus and Acinetobacter were the most prevalent genera (&gt;1%), and a tiny core microbiota (Acinetobacter and Pseudomonas) was observed. Temperature and humidity were the determining factors for most variation in bacterial compositions at both the phylum and genus levels. Higher abundances of Pseudomonas, Propionibacterium and Flavobacterium were correlated with low temperature. Furthermore, Pseudomonas/Propionibacterium and Lactobacillus/Bifidobacterium were two pairs of genera that had synergistic effects. Associations between the microbiota and milk quality parameters were analyzed. The abundances of Propionibacterium and Pseudoalteromonas were negatively correlated to total bacterial count, which meant that they helped to maintain milk quality, while a series of environmental microorganisms contributed to the spoilage of raw milk.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.idairyj.2019.104539</t>
-  </si>
-  <si>
     <t>Bovine mastitis, an inflammation of the udder, is associated with increases in milk somatic cell count usually resulting from bacterial infection. We analysed 50 mastitic milk samples via cultivation, 16S rRNA sequencing and a combination of the two (culturomics) to define the complete microbial content of the milk. Most samples contained over 10,000 cfu mL−1 total bacterial counts including isolates that were haemolysin positive (n = 36). Among colonies isolated from blood agar plates, Streptococcus uberis was dominant (11/50) followed by Streptococcus dysgalactiae (6/50), Pseudomonas (6/50), Enterococcus faecalis (6/50), Escherichia coli (6/50), Staphylococcus argenteus (4/50), Bacillus (4/50) and Staphylococcus aureus (2/50). 16S rRNA profiling revealed that amplicons were dominated by Rhodococcus, Staphylococcus, Streptococcus and Pseudomonas. A higher inter-sample diversity was noted in the 16S rRNA readouts, which was not always reflected in the plating results. The combination of the two methods highlights the polymicrobial complexity of bovine mastitis.</t>
   </si>
   <si>
@@ -541,897 +991,450 @@
     <t>Chicken meat is one of the most widely consumed meats worldwide. The microbiota on the whole body of chicken is a potential source of foodborne pathogens that can be transmitted to humans during the preparation of raw meat. However, to date, there have been no studies comparing the microbiota of packaged chicken products and those of raw chicken carcasses from butcher shops, although such information could be useful for identifying sources of contamination in cases of food poisoning. We addressed this in the present study by analyzing the microbiota of 80 chicken meat samples collected from various butcher shops and processing plants in South Korea with the Illumina MiSeq system based on the 16S rRNA gene sequence. The bacterial amounts in chicken samples were estimated by quantitative real-time PCR. Although different microbial members were present in unpackaged meat from butcher shops as compared to those in packaged products from commercial sources, seasonal differences (sample obtained in January vs. July) in microbiota were more significant even in the packaged products from the same company. We also investigated the influence of contaminated foodborne pathogen on the indigenous microbiota (64 chicken samples) by artificially inoculated with Salmonella enterica serotype Virchow on chicken carcasses under various conditions, and carrying out 16S rRNA gene and whole metagenome sequencing. The amount of contaminated Salmonella in chicken meat samples was the highest and lowest in samples stored at 27 °C and 4 °C after washing, respectively. Additionally, the relative abundance of virulence genes was detected lower in samples stored at 4 °C after washing in both butcher shop and commercial samples. These results could be useful for reducing the risk of foodborne illness caused by cross-contamination during the preparation of chicken meat.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.03.027</t>
-  </si>
-  <si>
     <t>Hákarl is produced by curing of the Greenland shark (Somniosus microcephalus) flesh, which before fermentation is toxic due to the high content of trimethylamine (TMA) or trimethylamine N-oxide (TMAO). Despite its long history of consumption, little knowledge is available on the microbial consortia involved in the fermentation of this fish. In the present study, a polyphasic approach based on both culturing and DNA-based techniques was adopted to gain insight into the microbial species present in ready-to-eat hákarl. To this aim, samples of ready-to-eat hákarl were subjected to viable counting on different selective growth media. The DNA directly extracted from the samples was further subjected to Polymerase Chain Reaction-Denaturing Gradient Gel Electrophoresis (PCR-DGGE) and 16S amplicon-based sequencing. Moreover, the presence of Shiga toxin-producing Escherichia coli (STEC) and Pseudomonas aeruginosa was assessed via qualitative real-time PCR assays. pH values measured in the analyzed samples ranged from between 8.07 ± 0.06 and 8.76 ± 0.00. Viable counts revealed the presence of total mesophilic aerobes, lactic acid bacteria and Pseudomonadaceae. Regarding bacteria, PCR-DGGE analysis highlighted the dominance of close relatives of Tissierella creatinophila. For amplicon sequencing, the main operational taxonomic units (OTUs) shared among the data set were Tissierella, Pseudomonas, Oceanobacillus, Abyssivirga and Lactococcus. The presence of Pseudomonas in the analyzed samples supports the hypothesis of a possible role of this microorganism on the detoxification of shark meat from TMAO or TMA during fermentation. Several minor OTUs (&lt;1%) were also detected, including Alkalibacterium, Staphylococcus, Proteiniclasticum, Acinetobacter, Erysipelothrix, Anaerobacillus, Ochrobactrum, Listeria and Photobacterium. Analysis of the yeast and filamentous fungi community composition by PCR-DGGE revealed the presence of close relatives of Candida tropicalis, Candida glabrata, Candida parapsilosis, Candida zeylanoides, Saccharomyces cerevisiae, Debaryomyces, Torulaspora, Yamadazyma, Sporobolomyces, Alternaria, Cladosporium tenuissimum, Moristroma quercinum and Phoma/Epicoccum, and some of these species probably play key roles in the development of the sensory qualities of the end product. Finally, qualitative real-time PCR assays revealed the absence of STEC and Pseudomonas aeruginosa in all of the analyzed samples.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/s40168-019-0726-2</t>
-  </si>
-  <si>
     <t>Background Multistate foodborne disease outbreaks and recalls of apples and apple products contaminated with Listeria monocytogenes demonstrate the need for improved pathogen control in the apple supply chain. Apple processing facilities have been identified in the past as potential sources of persisting L. monocytogenes contamination. In this study, we sought to understand the composition of microbiota in built apple and other tree fruit processing environments and its association with the occurrence of the foodborne pathogen L. monocytogenes. Results Analysis of 117 samples collected from three apple and other tree fruit packing facilities (F1, F2, and F3) showed that facility F2 had a significantly higher L. monocytogenes occurrence compared to F1 and F3 (p &lt; 0.01). The microbiota in facility F2 was distinct compared to facilities F1 and F3 as supported by the mean Shannon index for bacterial and fungal alpha diversities that was significantly lower in F2, compared to F1 and F3 (p &lt; 0.01). Microbiota in F2 was uniquely predominated by bacterial family Pseudomonadaceae and fungal family Dipodascaceae. Conclusions The composition and diversity of microbiota and mycobiota present in the investigated built food processing environments may be indicative of persistent contamination with L. monocytogenes. These findings support the need for further investigation of the role of the microbial communities in the persistence of L. monocytogenes to support the optimization of L. monocytogenes control strategies in the apple supply chain.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.jbiosc.2019.02.006</t>
-  </si>
-  <si>
     <t>Wheat sourdough is a common traditional fermented food that is produced worldwide. However, product quality of spontaneous sourdough is not easy to control because it depends on natural fermentation and backslopping, about which little is known, notably after ten backslopping steps. To this end, we tracked the spontaneous fermentation of three sourdoughs made from wheat flours during 32 backslopping steps for 60 days. At 24 time points, the microbial community was analyzed by both culture-dependent and culture-independent methods and its chemical constituents were assessed. Dynamic changes were observed in the microbial community, which showed a common succession pattern among the three sourdoughs at the bacterial family level and differences at the species level. The bacterial communities evolved through three phases that were driven by different groups of lactic acid bacteria (LAB) species. The dynamism among the metabolites also differed, depending on the species composition of the LAB and yeast communities. In one sourdough, the growth of Saccharomyces cerevisiae was detected along with a concentration of increased ethanol, while in the other two sourdoughs, Wickerhamomyces anomalus was detected without ethanol production. Regarding the LAB communities, two sourdoughs were eventually co-dominated by Lactobacillus plantarum and L. brevis, while the other sourdough was eventually dominated solely by the heterolactic fermentative bacterium Lactobacillus fermentum, and ethanol was produced at the same level as lactic acid. Further research is needed to determine the bacterial and yeast species involved in the fermentation of sourdough, to help improve the design and quality control of the final product.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.00270-19</t>
-  </si>
-  <si>
     <t>We set out to identify the viable and total bacterial content in milk as it passes through a large-scale, dairy product manufacturing plant for pasteurization, concentration, separation, blending, and storage prior to cheese manufacture. A total of 142 milk samples were collected from up to 10 pieces of equipment for a period spanning 21 h on two collection dates in the spring and late summer of 2014. Bacterial composition in the milk was determined by 16S rRNA marker gene, high-throughput DNA sequencing. Milk samples from the late summer were paired such that half were treated with propidium monoazide (PMA) to enrich for viable cells prior to quantification by PCR and identification by DNA sequence analysis. Streptococcus had the highest median relative abundance across all sampling sites within the facility on both sampling dates. The proportions of Anoxybacillus, Thermus, Lactococcus, Lactobacillus, Micrococcaceae, and Pseudomonas were also elevated in some samples. Viable cells detected by PMA treatment showed that Turicibacter was enriched after high-temperature short-time pasteurization, whereas proportions of Staphylococcus were significantly reduced. Using clean-in-place (CIP) times as a reference point, Bacillus, Pseudomonas, and Anoxybacillus were found in high relative proportions in several recently cleaned silos (&lt;19 h since CIP). At later times (&gt;19 h after CIP), 10 of 11 silos containing elevated viable cell numbers were enriched in Acinetobacter and/or Lactococcus. These results show the tremendous point-to-point and sample-dependent variations in bacterial composition in milk during processing. IMPORTANCE Milk undergoes sustained contact with the built environment during processing into finished dairy products. This contact has the potential to influence the introduction, viability, and growth of microorganisms within the milk. Currently, the population dynamics of bacteria in milk undergoing processing are not well understood. Therefore, we measured for total and viable bacterial composition and cell numbers in milk over time and at different processing points in a cheese manufacturing facility in California. Our results provide new perspectives on the dramatic variations in microbial populations in milk during processing even over short amounts of time. Although some of the changes in the milk microbiota were predictable (e.g., reduced viable cell numbers after pasteurization), other findings could not be easily foreseen based on knowledge of bacteria contained in raw milk or when the equipment was last cleaned. This information is important for predicting and controlling microbial spoilage contaminants in dairy products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3168/jds.2019-16403</t>
-  </si>
-  <si>
     <t>Mastitis is a highly prevalent condition that has a great impact on milk production and animal welfare, and often requires substantial management efforts. For this reason, it is generally considered an important threat to the dairy industry. Many microbial, host, and environmental factors can protect against, predispose to, or influence the development of mastitis. The objective of this work was to characterize the milk microbiota of Manchega ewes, and to compare samples from animals with and without a history of mastitis. We analyzed milk samples from 36 ewes belonging to 2 different farms (18 ewes from each farm) using culture-dependent and culture-independent techniques. We also analyzed several immune compounds to investigate associations of mastitis with 3 main variables: farm; history of mastitis or no mastitis; and parity number. Both culture-dependent and culture-independent techniques showed that ewe milk harbored a site-specific complex microbiota and microbiome. Staphylococcus epidermidis was the main species driving the difference between farm A (where it was the dominant species) and B (where it was not). In contrast, samples from farm B were characterized by the presence of a wide spectrum of other coagulase-negative staphylococci. Some of these species have already been associated with subclinical intramammary infections in ruminants. Of the 10 immune compounds assayed in this study, 3 were related to a history of mastitis [IL-8, IFN-γ, and IFN-gamma-induced protein 10 (IP-10)]. Increases in IL-8 concentrations in milk seemed to be a feature of subclinical mastitis in sheep, and in this study, this immune factor was detected only in samples from ewes with some episodes of mastitis and from the group with the highest somatic cell count. We also observed a positive correlation between the samples with the highest somatic cell count and IFN-γ and IP-10 levels. Our results suggest that these 3 compounds could be used as biomarkers for the negative selection of mastitis-prone animals, particularly when somatic cell count is very high.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0184710</t>
-  </si>
-  <si>
     <t>The aim of this study was to define the microbiota of water buffalo milk during sub-clinical and clinical mastitis, as compared to healthy status, by using high-throughput sequencing of the 16S rRNA gene. A total of 137 quarter samples were included in the experimental design: 27 samples derived from healthy, culture negative quarters, with a Somatic Cell Count (SCC) of less than 200,000 cells/ml; 27 samples from quarters with clinical mastitis; 83 samples were collected from quarters with subclinical mastitis, with a SCC number greater of 200,000 cells/ml and/or culture positive for udder pathogens, without clinical signs of mastitis. Bacterial DNA was purified and the 16S rRNA genes were individually amplified and sequenced. Significant differences were found in milk samples from healthy quarters and those with sub-clinical and clinical mastitis. The microbiota diversity of milk from healthy quarters was richer as compared to samples with sub-clinical mastitis, whose microbiota diversity was in turn richer as compared to those from clinical mastitis. The core microbiota of water buffalo milk, defined as the asset of microorganisms shared by all healthy milk samples, includes 15 genera, namely Micrococcus, Propionibacterium, 5-7N15, Solibacillus, Staphylococcus, Aerococcus, Facklamia, Trichococcus, Turicibacter, 02d06, SMB53, Clostridium, Acinetobacter, Psychrobacter and Pseudomonas. Only two genera (Acinetobacter and Pseudomonas) were present in all the samples from sub-clinical mastitis, and no genus was shared across all in clinical mastitis milk samples. The presence of mastitis was found to be related to the change in the relative abundance of genera, such as Psychrobacter, whose relative abundance decreased from 16.26% in the milk samples from healthy quarters to 3.2% in clinical mastitis. Other genera, such as SMB53 and Solibacillus, were decreased as well. Discriminant analysis presents the evidence that the microbial community of healthy and clinical mastitis could be discriminated on the background of their microbiota profiles.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/foods8100489</t>
-  </si>
-  <si>
     <t>The aim of this study was to characterize the spoilage microbiota of hake fillets stored under modified atmospheres (MAP) (50% CO2/50% N2) at different temperatures using high-throughput 16S rRNA gene sequencing and to compare the results with those obtained using traditional microbiology techniques. The results obtained indicate that, as expected, higher storage temperatures lead to shorter shelf-lives (the time of sensory rejection by panelists). Thus, the shelf-life decreased from six days to two days for Batch A when the storage temperature increased from 1 to 7 °C, and from five to two days—when the same increase in storage temperature was compared—for Batch B. In all cases, the trimethylamine (TMA) levels measured at the time of sensory rejection of hake fillets exceeded the recommended threshold of 5 mg/100 g. Photobacterium and Psychrobacter were the most abundant genera at the time of spoilage in all but one of the samples analyzed: Thus, Photobacterium represented between 19% and 46%, and Psychrobacter between 27% and 38% of the total microbiota. They were followed by Moritella, Carnobacterium, Shewanella, and Vibrio, whose relative order varied depending on the sample/batch analyzed. These results highlight the relevance of Photobacterium as a spoiler of hake stored in atmospheres rich in CO2. Further research will be required to elucidate if other microorganisms, such as Psychrobacter, Moritella, or Carnobacterium, also contribute to spoilage of hake when stored under MAP.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.08.018</t>
-  </si>
-  <si>
     <t>Despite the continuing development of new insect-derived food products, microbial research on edible insects and insect-based foods is still very limited. The goal of this study was to increase the knowledge on the microbial quality of edible insects by comparing the bacterial community composition of mealworms (Tenebrio molitor) and crickets (Acheta domesticus and Gryllodes sigillatus) from several production cycles and rearing companies. Remarkable differences in the bacterial community composition were found between different mealworm rearing companies and mealworm production cycles from the same company. In comparison with mealworms, the bacterial community composition of the investigated crickets was more similar among different companies, and was highly similar between both cricket species investigated. Mealworm communities were dominated by Spiroplasma and Erwinia species, while crickets were abundantly colonised by (Para)bacteroides species. With respect to food safety, only a few operational taxonomic units could be associated with potential human pathogens such as Cronobacter or spoilage bacteria such as Pseudomonas. In summary, our results implicate that at least for cricket rearing, production cycles of constant and good quality in terms of bacterial composition can be obtained by different rearing companies. For mealworms however, more variation in terms of microbial quality occurs between companies.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/AEM.00255-18</t>
-  </si>
-  <si>
     <t>In this study, the microbiota during industrial rearing, processing, and storage of the edible tropical house cricket, Gryllodes sigillatus, was investigated. To this end, we analyzed samples from the cricket feed, obtained before feeding as well as from the cages, and from the crickets during rearing, after harvest, and after processing into frozen, oven-dried, and smoked and oven-dried (smoked/dried) end products. Although the feed contained lower microbial numbers than the crickets, both were dominated by the same species-level operational taxonomic units, as determined by Illumina MiSeq sequencing. They corresponded, among others, to members of Porphyromonadaceae, Fusobacterium, Parabacteroides, and Erwinia. The harvested crickets contained high microbial numbers, but none of the investigated food pathogens Salmonella spp., Listeria monocytogenes, Bacillus cereus, or coagulase-positive staphylococci. However, some possible mycotoxin-producing fungi were isolated from the crickets. A postharvest heat treatment, shortly boiling the crickets, reduced microbial numbers, but an endospore load of 2.4 log CFU/g remained. After processing, an increase in microbial counts was observed for the dried and smoked/dried crickets. Additionally, in the smoked/dried crickets, a high abundance of a Bacillussp. was observed. Considering the possible occurrence of food-pathogenic species from this genus, it is advised to apply a heat treatment which is sufficient to eliminate spores. Nevertheless, the microbial numbers remained constant over a 6-month storage period, whether frozen (frozen end product) or at ambient temperature (oven-dried and smoked/dried end products). IMPORTANCE The need for sustainable protein sources has led to the emergence of a new food sector, producing and processing edible insects into foods. However, insight into the microbial quality of this new food and into the microbial dynamics during rearing, processing, and storage of edible insects is still limited. Samples monitored for their microbiota were obtained in this study from an industrial rearing and processing cycle. The results lead first to the identification of process steps which are critical for microbial food safety. Second, they can be used in the construction of a Hazard Analysis and Critical Control Points (HACCP) plan and of a Novel Food dossier, which is required in Europe for edible insects. Finally, they confirm the shelf-life period which was determined by the rearer.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2017.09.012</t>
-  </si>
-  <si>
     <t>In this study, the microbial dynamics during an industrial production cyle of lesser mealworms (Alphitobius diaperinus), sold for human consumption, were characterised. The microbial numbers as well as the microbial diversity were generally higher for the substrate, existing of remaining feed, faeces and exuviae, than for the larvae. Most of the species-level operational taxonomic units, identified using Illumina MiSeq sequencing, that were present in the feed were also detected in the larvae and vice versa. However, bacterial diversity decreased in the larvae during rearing. These results suggested that the feed is an important determinant of the insect bacterial community, but that some bacterial species show a competitive advantage inside the insect gut and become dominant. A blanching treatment of the larvae after harvest reduced most microbial counts, but the number of aerobic endospores remained at 4.0 log cfu/g. Whereas food pathogens Salmonella spp., Listeria monocytogenes, Bacillus cereus or coagulase-positive staphylococci were not detected in our study, fungal isolates corresponding to the genera Aspergillus and Fusarium were recovered. Therefore, it cannot be excluded that mycotoxins were present. The results of this study contribute to a better understanding of the microbial dynamics and food safety aspects during the production of edible insects.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.103261</t>
-  </si>
-  <si>
     <t>Sprouts are considered a healthy ready-to-eat food and has gained popularity in recent years. The objective of the present study was to determine the dynamics of sprouts' microbiome during cold storage to the end of their shelf-life at home. The microbiological quality of fresh alfalfa (Medicago sativa) and mung bean (Vigna radiata) sprouts from two commercial brands was tested and the number of APC ranges from 5.0 to 8.7 log CFU/g in alfalfa and 6.7 to 9.3 log CFU/g in mung bean sprouts. In the case of alfalfa, but not mung beans, there were differences in the mean numbers of APC between the two brands. The number of coliform bacteria ranges from 4.3 to 7.7 log CFU/g in alfalfa and 4.1 to 8.1 log CFU/g in mung bean sprouts. Four independent batches of sprouts were used for DNA preparation and were sampled immediately after purchase and once a week during subsequent storage in refrigerator until the end of their shelf-life. Microbial population of the sprouts was determined using next generation sequencing of 16S rRNA amplicons. Alfalfa sprouts were dominated by Pseudomonas throughout the storage time with relative abundance of &gt;60% at 3 weeks. Fresh mung bean sprouts were dominated by both Pseudomonas and Pantoea, but Pantoea became the dominant taxa after 2 weeks of storage, with &gt;46% of relative abundance. The bacterial communities associated with sprouts were largely dependent on the sprout type, and less dependent on the brand. The species richness and diversity declined during storage and the development of spoilage. Among the 160 genera identified on sprouts, 23 were reported to contain known spoilage-associated species and 30 genera comprise potential human pathogenic species. This study provides new insight into the microbiome dynamics of alfalfa and mung bean sprouts during cold storage.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/s41598-019-50190-4</t>
-  </si>
-  <si>
     <t>Fermented foods play a major role in the diet of people in Africa, where a wide variety of raw materials are fermented. Understanding the microbial populations of these products would help in the design of specific starter cultures to produce standardized and safer foods. In this study, the bacterial diversity of African fermented foods produced from several raw materials (cereals, milk, cassava, honey, palm sap, and locust beans) under different conditions (household, small commercial producers or laboratory) in 8 African countries was analysed by 16S rRNA gene amplicon sequencing during the Workshop “Analysis of the Microbiomes of Naturally Fermented Foods Training Course”. Results show that lactobacilli were less abundant in fermentations performed under laboratory conditions compared to artisanal or commercial fermentations. Excluding the samples produced under laboratory conditions, lactobacilli is one of the dominant groups in all the remaining samples. Genera within the order Lactobacillales dominated dairy, cereal and cassava fermentations. Genera within the order Lactobacillales, and genera Zymomonas and Bacillus were predominant in alcoholic beverages, whereas Bacillus and Lactobacillus were the dominant genera in the locust bean sample. The genus Zymomonas was reported for the first time in dairy, cereal, cassava and locust bean fermentations.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.103251</t>
-  </si>
-  <si>
     <t>Truffle fungi, luxurious food items with captivating aromas, are highly valued in the culinary world. However, truffles are perishable and their aroma undergoes deep changes upon storage. Additionally, truffle aroma might be partially derived from microbes. Hence, we investigated here the influence of storage on two factors, namely the volatile profile and bacterial community composition in the black truffle Tuber aestivum. The possible linkage among those factors was further explored. Our results demonstrate important changes in the volatile profiles of truffles over nine days of storage at room temperature. In the same time frame, dominant bacterial classes characteristic of fresh truffles (α-Proteobacteria, β-Proteobacteria, and Sphingobacteria classes) were gradually replaced by food spoilage bacteria (γ-Proteobacteria and Bacilli classes). Freshness and spoilage volatile markers (i.e. dimethyl sulfide (DMS), butan-2-one, 2- and, 2- and 3-methylbutan-1-ol, and 2-phenylethan-1-ol) were identified. Lastly, network analysis showed correlations between those markers and specific bacterial classes typical of fresh and spoiled truffles. Overall, our results demonstrate the profound effect of storage on the aroma and bacterial community composition of truffles and highlight how the gradual replacement of the commensal microbiome by spoilage microbes mirrors shifts in aroma profile and the possible loss of fresh truffle flavor.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2018.11.033</t>
-  </si>
-  <si>
     <t>Natural (N) as well as starter inoculated (S, inoculated with Saccharomyces cerevisiae M3–5; CZS, Candida zemplinina T13, Zygosaccharomyces bailii NS113 and Saccharomyces cerevisiae M3–5) fermentations of Falanghina must from dehydrated grape were monitored. Culture dependent analyses and amplicon-based high-throughput sequencing targeting 18S rRNA and 16S rRNA genes were used to monitor the fungal and bacterial communities (8 sampling points during 65 days). The resulting wines were subject to both sensory evaluation and volatile organic compounds analysis. Fungal community of un-inoculated musts (N) at beginning of the fermentation was mainly represented by Aureobasidium, Cladosporium, Sclerotinia, while Candida, Debaryomyces, Hanseniaspora, Metschnikowia, Pichia, Saccharomyces and Zygosaccharomyces showed a very low occurrence. The dominance of Hanseniaspora vineae and/or Hanseniaspora uvarum was clear up to 29th days of fermentation. S. cerevisiae occurred in all the phases but become dominant only at the end of the process. The odour profiles as evaluate by Quantitative Descriptive Analysis (QDA) highlighted a significant impact of the fungal populations on the olfactory profiles of the wines. Raisins, dried fruits, Sherry and liqueur were stronger in both S and CZS, while N was mostly discriminated by solvent/chemical and floral features. Outcomes underpin the impact of microbiota on the chemical and odour traits of Falanghina passito wines.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2019.00531</t>
-  </si>
-  <si>
     <t>Palm wine is obtained by fermentation of palm tree sap. In the Pacific coast of Mexico, palm wine is called Tuba and it is consumed as a traditional fermented beverage. Tuba has empirical applications such as an auxiliary in gastrointestinal diseases and a good source of nutrients. In the present study, a next-generation sequencing of the V3–V4 regions of the 16S rRNA gene was employed to analyze bacterial diversity and population dynamics during the fermentation process of Tuba, both in laboratory controlled conditions and in commercial samples from local vendors. Taxonomic identification showed that Fructobacillus was the main genus in all the samples, following by Leuconostoc, Gluconacetobacter, Sphingomonas, and Vibrio. Alpha diversity analysis demonstrated variability between all the samples. Beta diversity clustered the bacterial population according to the collection origin of the sample. Metabolic functional profile inference showed that the members of the bacterial communities may present the vitamin, antibiotic and antioxidant biosynthesis genes. Additionally, we further investigated the correlation between the predominant genera and some composition parameters of this beverage. This study provides the basis of the bacterial community composition and functionality of the fermented beverage.</t>
   </si>
   <si>
-    <t>https://doi.org/110.3390/microorganisms7090371</t>
-  </si>
-  <si>
     <t>This study revealed for the first time the dynamic changes of the bacterial community during the fermentation of traditional Chinese fish sauce (TCFS) using high-throughput sequencing. In the early phase of TCFS fermentation, Shewanella (approximately 90%) within Proteobacteria was the dominant bacteria. Then, Halanaerobium (3%–86%) within Firmicutes rapidly replaced Shewanella as the dominant genus until the 12th month. Lactococcus (3.31%) and Bacillus (45.56%) belonging to Firmicutes were detected abundantly in the 3rd and 9th months after fermentation, respectively. In the late phase (12–15 months), Tetragenococcus within Firmicutes replaced Halanaerobium as the most dominant bacteria (29.54%). Many other genera including Pseudomonas, Psychrobacter, Tissierella, Carnobacterium and Gallicola were abundantly present in the 15th month after fermentation. Furthermore, the relationships between the bacterial community and major functional substances of TCFS, including amino nitrogen (AAN), free amino acids (FAAs), total soluble nitrogen (TSN), and trimethylamine (TMA), were investigated by partial least squares regression (PLSR). Tetragenococcus was positively correlated with the formation of TMA, while Halanaerobium showed the opposite result, suggesting that Tetragenococcus might be a good starter for TCFS fermentation. These results contribute to our knowledge about bacterial participation in the process of TCFS fermentation and will help improve the quality of fermented seafood.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2018.04.012</t>
-  </si>
-  <si>
     <t>Sataw-Dong is a fermented stink bean in brine, made with Parkia speciosa subjected to spontaneous fermentation. This study aimed to investigate the impact of Lactobacillus plantarum KJ03 as a starter culture during Sataw-Dong fermentation and to determine its effect on the volatilome profile. Two fermentations were performed: spontaneous and inoculated with starter. The surface of the beans and the brines were separately analyzed throughout fermentation period for 15 days. Inoculated samples clearly showed a significantly higher acidification of the brine, reaching a pH of 3.98 within 5 days of fermentation. The microbiota was investigated through 16S amplicon based sequencing and revealed the dominance of Lactobacillus plantarum and Lactobacillus sanfranciscensis throughout the fermentation in both brine and bean samples. The starter used clearly influenced volatile organic compounds (VOCs) profiles. Inoculated samples showed the lowest abundance of Brevundimonas, Corynebacterium, Enterobacteriaceae, Methylobacterium and Klebsiella, compared to the spontaneous fermentation. Correlation between OTUs and VOCs revealed that acids, aldehydes, and alcohols exhibited a positive correlation with L. plantarum and L. sanfranciscencis. Overall aldehydes were mostly produced at the beginning, while acids, alcohols, and ketones at the middle until the end of the fermentation. Sataw-Dong produced with the starter significantly perceived a positive response in the overall acceptance. As shown through microbiological changes, acidification, VOCs and sensory analysis, the successful and accelerated Sataw-Dong fermentation was achieved when using a functional starter strain.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.04.013</t>
-  </si>
-  <si>
     <t>Spoilage bacteria seriously influence meat quality. In this study, the bacterial community, sensory scores, pH, and total volatile basic nitrogen (TVB-N) in refrigerated (4 °C) pork, the most commonly consumed meat in China, were investigated. In a high-throughput sequencing analysis of the V3–V4 region of the 16S rDNA gene, 259 bacterial genera were belonging to 21 phyla were identified. With the passage of time, the bacterial community diversity decreased. After 5 days, Pseudomonas, Acinetobacter and Photobacterium were dominant in refrigerated pork, especially Photobacterium, which rarely associated with meat spoilage. Our results suggest that these taxa contribute to refrigerated pork spoilage. During storage, pH and TVB-N showed similar trends. Additionally, total viable counts (TVC) increased steadily and sensory score decreased. On day 5, TVC, pH, TVB-N and sensory scores changed dramatically, and sensory scores indicating that the shelf life of refrigerated pork was less than 5 days. The predicted metabolic pathways, based o the data of 16S rDNA, indicated an abundant carbohydrate metabolism and amino metabolism in refrigerated pork. This study provides insight into the determinants of shelf life. Furthermore, it provides insight into the process involved in refrigerated pork spoilage.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2019.108286</t>
-  </si>
-  <si>
     <t>This study was designed to explore the temperature effects on bacterial communities and metabolites, as well as their relationships during the fermentation of sour meat, a traditional fermented meat product in the ethnic minority regions of China. Results showed that reduction of pH and increase of lactic acid and free amino acid contents occurred (p &lt; 0.05) as the fermentation temperature and time increased, and the tendency was more apparent at higher temperature. During the fermentation, Lactobacillus gradually replaced other genera, and higher the temperature, more rapid was the process. Both the number and amount of volatile organic compounds increased at higher temperatures. Hexanal, benzaldehyde, nonanal, (E,E)-2,4-decadienal, 1-octen-3-ol and octanal were identified as the key volatile organic compounds produced by Lactobacillus in sour meat as main contributors to odor as confirmed by variable importance in the projection analysis. Redundancy analysis and Pearson correlation showed positive correlation between Lactobacillus and desired product characteristics, such as higher content of lactic acid, free amino acids, volatile organic compounds, and lower pH and water activity values, which may represent a better quality and longer shelf life after fermentation at higher temperature. Therefore fermentation at 20 °C and 25 °C are proposed as optimum temperatures for sour meat production.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/lam.13212</t>
-  </si>
-  <si>
     <t>Fermented chopped pepper is a widely used ingredient in traditional Chinese cuisine. To improve the quality and solve safety problems during production, it is essential to fully understand the bacterial diversity present during the fermentation process. In this study, the dynamics and diversity of the bacterial community present during the fermentation of chopped pepper were analysed by high‐throughput sequencing. There was a higher level of bacterial diversity at the beginning of fermentation, and Proteobacteria were found to be the dominant group at this stage. However, after 3 days, Proteobacteria decreased in abundance and Firmicutes became the dominant group present in the samples. Interestingly, the relative abundance of Weissella increased during the first 3 days of fermentation and then gradually decreased over the rest of the fermentation process, suggesting that Weissella may play an important role during the initial stage of fermentation. Lactobacillus was found to constitute the majority of bacteria during the fermentation period. This study demonstrates that high‐throughput sequencing is a useful tool to evaluate bacterial diversity and monitor microbial quality in fermented chopped pepper. The results obtained in this study advance the current understanding of the bacterial communities present in chopped pepper and provide a theoretical basis for improving the quality of chopped pepper fermentation. Significance and Impact of the Study Fermented chopped pepper is an important ingredient in traditional Chinese foods. As of yet, the bacterial community dynamics that take place during the fermentation of chopped pepper have not been described. In this study, we used high‐throughput sequencing to investigate the bacterial community, deepening our understanding of the microbial mechanisms underlying the fermentation of traditional chopped pepper.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.103305</t>
-  </si>
-  <si>
     <t>The practices of preparing traditional foods in the Arctic are rapidly disappearing. Traditional foods of the Arctic represent a rarity among food studies in that they are meat-sourced and prepared in non-industrial settings. These foods, generally consumed without any heating step prior to consumption, harbor an insofar undescribed microbiome. The food-associated microbiomes have implications not only with respect to disease risk, but might also positively influence host health by transferring a yet unknown diversity of live microbes to the human gastrointestinal tract. Here we report the first study of the microbial composition of traditionally dried fish prepared according to Greenlandic traditions and their industrial counterparts. We show that dried capelin prepared according to traditional methods have microbiomes clearly different from industrially prepared capelin, which also have more homogenous microbiomes than traditionally prepared capelin. Interestingly, the locally preferred type of traditionally dried capelin, described to be tastier than other traditionally dried capelin, contains bacteria that potentially confer distinct taste. Finally, we show that dried cod have comparably more homogenous microbiomes when compared to capelin and that in general, the environment of drying is a major determinant of the microbial composition of these indigenous food products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2017.07.011</t>
-  </si>
-  <si>
     <t>“Suero Costeño” (SC) is a traditional soured cream elaborated from raw milk in the Northern-Caribbean coast of Colombia. The natural microbiota that characterizes this popular Colombian fermented milk is unknown, although several culturing studies have previously been attempted. In this work, the microbiota associated with SC from three manufacturers in two regions, “Planeta Rica” (Córdoba) and “Caucasia” (Antioquia), was analysed by means of culturing methods in combination with high-throughput sequencing and DGGE analysis of 16S rRNA gene amplicons. The bacterial ecosystem of SC samples was revealed to be composed of lactic acid bacteria belonging to the Streptococcaceae and Lactobacillaceae families; the proportions and genera varying among manufacturers and region of elaboration. Members of the Lactobacillus acidophilus group, Lactocococcus lactis, Streptococcus infantarius and Streptococcus salivarius characterized this artisanal product. In comparison with culturing, the use of molecular in deep culture-independent techniques provides a more realistic picture of the overall bacterial communities residing in SC. Besides the descriptive purpose, these approaches will facilitate a rational strategy to follow (culture media and growing conditions) for the isolation of indigenous strains that allow standardization in the manufacture of SC.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0153213</t>
-  </si>
-  <si>
     <t>Italian PDO (Protected Designation of Origin) Fiore Sardo (FS), Pecorino Siciliano (PS) and Pecorino Toscano (PT) ewes’ milk cheeses were chosen as hard cheese model systems to investigate the spatial distribution of the metabolically active microbiota and the related effects on proteolysis and synthesis of volatile components (VOC). Cheese slices were divided in nine sub-blocks, each one separately subjected to analysis and compared to whole cheese slice (control). Gradients for moisture, and concentrations of salt, fat and protein distinguished sub-blocks, while the cell density of the main microbial groups did not differ. Secondary proteolysis differed between sub-blocks of each cheese, especially when the number and area of hydrophilic and hydrophobic peptide peaks were assessed. The concentration of free amino acids (FAA) agreed with these data. As determined through Purge and Trap (PT) coupled with Gas Chromatography-Mass Spectrometry (PT-GC/MS), and regardless of the cheese variety, the profile with the lowest level of VOC was restricted to the region identified by the letter E defined as core. As shown through pyrosequencing of the 16S rRNA targeting RNA, the spatial distribution of the metabolically active microbiota agreed with the VOC distribution. Differences were highlighted between core and the rest of the cheese. Top and bottom under rind sub-blocks of all three cheeses harbored the widest biodiversity.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2020.103453</t>
-  </si>
-  <si>
     <t>In this work, the amplicon sequencing of the 16 S rRNA gene was employed to investigate the bacterial diversity in ingredients, processing environment, and ripened cheeses collected from three farms producing Serra da Canastra artisanal cheese. The data obtained indicated a remarkable variability in the bacteria consortia of the milk, whey, and environmental samples collected in farms 1, 2, and 3, despite their location in the same city. On the other hand, the starter culture and final product (ripened cheese) presented more constant and similar microbiota no matter the farm. The findings suggest that Streptococcus and Lactococcus have competitive advantages throughout Serra da Canastra cheese-making/ripening, which is crucial for their high relative abundance in the final products. An exploratory assessment based on sequencing data available in the literature showed that the Serra da Canastra cheeses sequences clustered with specific cheese varieties that are also made from raw milk but ripened for very different periods. The findings of this study highlight that despite the variability of milk and whey microbiota among the three farms, the starter culture (“pingo”) has strong relevance in shaping the microbiota of the final product.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2017.07.002</t>
-  </si>
-  <si>
     <t>Long ripened cheeses, such as Grana Padano (GP), a Protected Designation of Origin (PDO) Italian cheese, harbor a viable microbiota mainly composed of non-starter lactic acid bacteria (NSLAB), which contribute to the final characteristics of cheese. The NSLAB species Lactobacillus rhamnosus, Lb. casei and Lb. paracasei are frequently found in GP, and form a closely related taxonomic group (Lb. casei group), making it difficult to distinguish the three species through 16S rRNA sequencing. SpxB, a metabolic gene coding for pyruvate oxidase in Lb. casei group, was recently used to distinguish the species within this bacterial group, both in pure cultures and in cheese, where it could provide an alternative energy source through the conversion of pyruvate to acetate. The aim of this work was to study the evolution of the metabolically active microbiota during different stages of GP ripening, targeting 16S rRNA to describe the whole microbiota composition, and spxB gene to monitor the biodiversity within the Lb. casei group. Furthermore, activation of pyruvate oxidase pathway was measured directly in cheese by reverse transcription real time PCR (RT–qPCR). The results showed that Lb. casei group dominates throughout the ripening and high-throughput sequencing of spxB allowed to identify four clusters inside the Lb. casei group. The dynamics of the sequence types forming the clusters were followed during ripening. Pyruvate oxidase pathway was expressed in cheese, showing a decreasing trend over ripening time. This work highlights how the composition of the microbiota in the early manufacturing stages influences the microbial dynamics throughout ripening, and how targeting of a metabolic gene can provide an insight into the activity of strains relevant for dairy products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2018.02218</t>
-  </si>
-  <si>
     <t>A variety of foods fermented with lactic acid bacteria serve as dietary staples in many African communities; yet, their bacterial profiles are poorly characterized. The integration of health-promoting probiotics into naturally fermented milk products could make a profound impact on human health. Here, we characterize the bacterial community composition of a naturally fermented milk product (lait caillé) from northern Senegal, prepared in wooden bowls (lahals) with a bacterial biofilm to steer the fermentation process. We incorporated a probiotic starter culture containing the most documented probiotic strain Lactobacillus rhamnosus GG (generic strain name yoba 2012) into the local fermentation process. Bar-coded 16S rRNA amplicon sequencing of lait caillé samples indicated that the bacterial community of lait caillé has high species richness with over 100 bacterial genera; however, few have high abundance. In contrast to the diverse bacterial compositions of other characterized naturally fermented milk products, the composition of lait caillé predominantly consists of the lactic acid bacteria Streptococcus and Lactobacillus, resembling the bacterial composition in regular yogurt. The bacterial community composition of lait caillé varies geographically based on the presence of some genera, including Lactoccoccus, Enterococcus, Bifidobacterium, and Bacillus, but this trend is not consistent within production communities. The diversity of bacterial communities is much higher in the lahal biofilm than in the naturally fermented milk products, which is in turn greater than in commercial yogurts. Addition of a starter culture with L. rhamnosus yoba 2012 to milk in lahals led to substantial growth of this probiotic bacterium during the fermentation process. Two independent quantitative PCR-analyses specific for L. rhamnosus yoba 2012 indicated a 20- to 60-fold increase in the total number of probiotic bacteria in the first batch after inoculation. A similar increase of the probiotic was observed in a variation of lait caillé prepared with carbohydrate-rich millet granules (thiakry) added prior to fermentation. This study shows the feasibility of integrating health-promoting probiotic strains into naturally fermented foods produced in regions with a high prevalence of malnutrition.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/aem.02165-19</t>
-  </si>
-  <si>
     <t>This study aimed at establishing the effects of attenuated starters and surface bacteria on various features of caciotta cheese. The cheese undergoes a ripening period during which the house microbiota contaminates the surface. Conventional cheese (the control cheese [CC]) is made using only primary starters. Primary starters and attenuated (i.e., unable to grow and synthesize lactic acid) Lactococcus lactis (Lc. lactis) subsp. lactis were used to produce caciotta cheese without (ATT cheese) or with an inoculum of surface bacteria: (i) Leuconostoc lactis (Le. lactis) (LL cheese), (ii) Vibrio casei (VC cheese), (iii) Staphylococcus equorum (SE cheese), (iv) Brochothrix thermosphacta (BX cheese), and (v) a mixture of all four (MIX cheese). Attenuated Lc. lactis increased microbial diversity during cheese ripening. At the core, attenuated starter mainly increased indigenous lactococci and Lactobacillus delbrueckii group bacteria. At the surface, the main effect was on Macrococcus caseolyticus. Autochthonous Le. lactis strains took advantage of the attenuated starter, becoming dominant. Adjunct Le. lactis positively affected Lactobacillus sakei group bacteria on the LL cheese surface. Adjunct V. casei, S. equorum, and B. thermosphacta did not become dominant. Surfaces of VC, SE, and BX cheeses mainly harbored Staphylococcus succinus. Peptidase activities were higher in cheeses made with attenuated starter than in CC, which had the lowest concentration of free amino acids. Based on the enzymatic activities of adjunct Le. lactis, LL and MIX cheeses exhibited the highest glutamate dehydrogenase, cystathionine-γ-lyase, and esterase activities. As shown by multivariate statistical analyses, LL and MIX cheeses showed the highest similarity for microbiological and biochemical features. LL and MIX cheeses received the highest scores for overall sensory acceptability. IMPORTANCE This study provides in-depth knowledge of the effects of attenuated starters and surface bacterial strains on the microbiota and related metabolic activities during cheese ripening. The use of attenuated Lc. lactis strongly impacted the microbiota assembly of caciotta cheese. This led to improved biochemical and sensory features compared to conventional cheese. Among surface bacterial strains, Le. lactis played a key role in the metabolic activities involved in cheese ripening. This resulted in an improvement of the sensory quality of caciotta cheese. The use of attenuated lactic acid bacteria and the surface adjunct Le. lactis could be a useful biotechnology to improve the flavor formation of caciotta cheese.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2019.00093</t>
-  </si>
-  <si>
     <t>The cheese-derived strains Streptococcus thermophilus 84C isolated from Nostrano cheese, and Lactobacillus brevis DSM 32386 isolated from Traditional Mountain Malga cheese have been previously reported as γ-aminobutyric acid (GABA)-producers in vitro. In the present study, the ability of these strains to produce GABA was studied in experimental raw milk cheeses, with the aim to investigate the effect of the culture and the ripening time on the GABA concentration. The cultures used consisted on S. thermophilus 84C alone (84C) or in combination with L. brevis DSM 32386 (84C-DSM). The control culture was a commercial S. thermophilus strain, which was tested alone (CTRL) or in combination with the L. brevis DSM 32386 (CTRL-DSM). The pH evolution, microbiological counts, MiSeq Illumina and UHPLC-HQOMS analysis on milk and cheese samples were performed after 2, 9, and 20 days ripening. During the whole ripening, the pH was always under 5.5 in all batches. The concentration of GABA increased during ripening, with the highest content in 84C after 9 days ripening (84 ± 37 mg/kg), in 84C-DSM and CTRL-DSM after 20 days ripening (91 ± 28 and 88 ± 24 mg/kg, respectively). The data obtained support the hypothesis that S. thermophilus 84C and L. brevis DSM 32386 could be exploited as functional cultures, improving the in situ bio-synthesis of GABA during cheese ripening.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.103390</t>
-  </si>
-  <si>
     <t>Carcass chilling is a critical step in broiler processing. Understanding the effect of chilling on the bacterial communities of broilers is important, as these communities may be largely responsible for the spoilage process. This study examined the effect of chilling systems (air chilling [AC] and water chilling [WC]) and subsequent aerobic storage on the microbiota of yellow-feathered broiler carcasses using a high-throughput sequencing technique targeting the V3–V4 region of the 16S RNA gene. Evidence of the clear differences in the microbiota structures between AC and WC carcasses was illustrated by principle coordinates and heat map clustered analyses. The distinctions between the AC and WC carcass bacterial communities were more pronounced during the later storage stages. The major genera on the spoiled AC carcasses were Pseudomonas, Psychrobacter and Shewanella, whereas the major genera on the spoiled WC carcasses were Psychrobacter, Pseudomonas and Carnobacterium. These data suggest that the chilling method has a marked effect on the microbiota composition of yellow-feathered broilers along the entire storage period. The chilling method was also of great importance for surface color. However, there was no significant difference in the sensorial shelf-life of chicken when comparing the chilling methods.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2020.103417</t>
-  </si>
-  <si>
     <t>Nitrite is widely used in meat products as a multifunctional additive, combining flavour and colour properties with antioxidant and antimicrobial effects. However, nitrite may form reaction products (i.e., nitrosamine) that are potentially carcinogenic to humans. The meat industry, in response to consumers’ demands for nitrite-free products, is seeking natural alternatives to nitrite, such as plant-based extracts. Three types of dry-fermented sausages were manufactured: NIT, containing 30 ppm of sodium nitrite; GSE, containing grape seed extract and olive pomace hydroxytyrosol; and CHE, containing chestnut extract and olive pomace hydroxytyrosol. Next-generation sequencing (NGS) was used to analyse microbial consortia, which were correlated with physical and chemical parameters. The prokaryotic community composition was similar among treatments, with a high relative abundance of Staphylococcus xylosus and Lactobacillus sakei, collectively accounting for 87% of the total community. However, significant differences were observed in both operational taxonomic unit (OTU) presence/absence and relative abundance. Ten genera varied in abundance between treatments. The increase in Lactobacillaceae in CHE may explain the reduced pH levels detected in these samples. In conclusion, NGS analysis showed that the prokaryotic community composition was similar in GSE and NIT, while CHE varied in both the composition and relative abundance of different taxa.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.103385</t>
-  </si>
-  <si>
     <t>The present work was carried out to evaluate the microbiological and physicochemical composition of salamis produced with the meat of beef, horse, wild boar and pork. Salami productions occurred under controlled laboratory conditions to exclude butchery environmental contaminations, without the addition of nitrate and nitrite. All trials were monitored during the ripening (13 °C and 90% relative humidity) extended until 45 d. The evolution of physicochemical parameters showed that beef and pork salamis were characterized by a higher content of branched chain fatty acids (FA) and rumenic acid than horse and wild boar salamis, whereas the last two productions showed higher values of secondary lipid oxidation. Plate counts showed that lactic acid bacteria (LAB), yeasts and coagulase-negative staphylococci (CNS) populations dominated the microbial community of all productions with Lactobacillus and Staphylococcus as most frequently isolated bacteria. The microbial diversity evaluated by MiSeq Illumina showed the presence of members of Gammaproteobacteria phylum, Moraxellaceae family, Acinetobacter, Pseudomonas, Carnobacterium and Enterococcus in all salamis. This study showed the natural evolution of indigenous fermented meat starter cultures and confirmed a higher suitability of horse and beef meat for nitrate/nitrite free salami production due to their hygienic quality at 30 d.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3168/jds.2019-17455</t>
-  </si>
-  <si>
     <t>Understanding the microbial community of cheese is important in the dairy industry, as the microbiota contributes to the safety, quality, and physicochemical and sensory properties of cheese. In this study, the microbial compositions of different cheeses (Cheddar, provolone, and Swiss cheese) and cheese locations (core, rind, and mixed) collected from the Arbuthnot Dairy Center at Oregon State University were analyzed using 16S rRNA gene amplicon sequencing with the Illumina MiSeq platform (Illumina, San Diego, CA). A total of 225 operational taxonomic units were identified from the 4,675,187 sequencing reads generated. Streptococcus was observed to be the most abundant organism in provolone (72 to 85%) and Swiss (60 to 67%), whereas Lactococcus spp. were found to dominate Cheddar cheese (27 to 76%). Species richness varied significantly by cheese. According to alpha diversity analysis, porter-soaked Cheddar cheese exhibited the highest microbial richness, whereas smoked provolone cheese showed the lowest. Rind regions of each cheese changed color through smoking and soaking for the beverage process. In addition, the microbial diversity of the rind region was higher than the core region because smoking and soaking processes directly contacted the rind region of each cheese. The microbial communities of the samples clustered by cheese, indicated that, within a given type of cheese, microbial compositions were very similar. Moreover, 34 operational taxonomic units were identified as biomarkers for different types of cheese through the linear discriminant analysis effect size method. Last, both carbohydrate and AA metabolites comprised more than 40% of the total functional annotated genes from 9 varieties of cheese samples. This study provides insight into the microbial composition of different types of cheese, as well as various locations within a cheese, which is applicable to its safety and sensory quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2019.03012</t>
-  </si>
-  <si>
     <t>Panxian ham, a traditional Chinese dry-cured ham, is protected by national geographical indication. Similar to other fermented foods, the microbial population of dry-cured ham is pivotal to taste and flavor formation. This study aimed to establish the relationship between microorganisms and metabolites during the spontaneous fermentation of Panxian ham. Multivariate analysis based on metabolomics data revealed that continuous metabolic changes occurred during the entire fermentation process, with the most significant changes occurring in the initial stage of ripening. Thirty-one significantly different metabolites (SDMs) were identified as discriminant factor, and pathway analysis suggested that these metabolites were involved in 30 pathways, including alanine, aspartate, and glutamate metabolism; glycine, serine, and threonine metabolism; and arginine and proline metabolism. Microbial community analysis using the Illumina MiSeq platform indicated that the bacterial community was more complex than the fungal community, and their succession regulation differed during processing. At the genus level, 11 bacteria and five fungi were identified as core microbes, of which Staphylococcus was the dominant bacteria and Debaryomyces and Aspergillus were the dominant fungi. Further, statistical redundancy analysis (RDA) indicated that Staphylococcus, Debaryomyces, and Chromohalobacter promoted the production of amino and fatty acids; Cobetia and Aspergillus were associated with sugar metabolism, and Kushneria, Penicillium, and Yamadazyma were closely related with organic acids. These findings provide fundamental knowledge regarding the metabolically active microorganisms in Panxian ham, helping industrial processors to develop effective strategies for standardizing quality parameters.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/jam.14597</t>
-  </si>
-  <si>
     <t>Aims Differences in the bacterial population of cucumber fermentations brined with no salt, 100 mmol l−1 (1·1%) calcium chloride (CaCl2) or 1·03 mol l−1 (6%) sodium chloride (NaCl) were studied. Methods and Results Changes in the microbiology and chemistry of commercial and laboratory scale cucumber fermentations occurring as a function of time were monitored using colony counts and metagenetic analysis, and a pH probe and high‐performance liquid chromatography analysis respectively. Dissolved oxygen and carbon dioxide content were monitored in commercial fermentations. Fermentations brined with calcium chloride (CaCl2) or no salt sustained faster microbial growth and reduction in pH than those brined with 1·03 mol l−1 NaCl. Leuconostoc, Lactococcus and Weissella dominated in fermentations brined with no salt or 100 mmol l−1 CaCl2 on day 1 as compared to Weissella and enterobacteria in fermentations containing 1·03 mol l−1 NaCl. Lactobacilli dominated all fermentations by the third day, regardless of salt type, and was followed, in relative abundance by Pediococcus, Leuconostoc, Lactococcus and Weissella. From 84 to 96% of the population was composed of Lactobacillus by day 7 of the fermentations, except in the no salt fermentations in which a mixed population of LAB remained. The population of LAB found in commercial cucumber fermentations brined with 100 mmol l−1 CaCl2 (n = 18) or 1·03 mol l−1 NaCl (n = 9) mimicked that of laboratory fermentations. A declining population of aerobes was detected in commercial fermentations brined with CaCl2 on day 1. Conclusion A reduced NaCl content in cucumber fermentation enhances microbial diversity. Significance and Impact of the Study This study fills a knowledge gap and aids in the design of improved reduced NaCl cucumber fermentations.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1002/mbo3.1009</t>
-  </si>
-  <si>
     <t>Sourdough fermentation is a traditional process that is used to improve bread quality. A spontaneous sourdough ecosystem consists of a mixture of flour and water that is fermented by endogenous lactic acid bacteria (LAB) and yeasts. The aim of this study was to identify bacterial diversity during backslopping of spontaneous sourdoughs prepared from wheat, spelt, or rye wholemeal flour. Culture-dependent analyses showed that the number of LAB (109 CFU/ml) was higher by three orders of magnitude than the number of yeasts (106 CFU/ml), irrespective of the flour type. These results were complemented by next-generation sequencing of the 16S rDNA V3 and V4 variable regions. The dominant phylum in all sourdough samples was Firmicutes, which was represented exclusively by the Lactobacillales order. The two remaining and less abundant phyla were Proteobacteria and Bacteroidetes. The culture-independent approach allowed us to detect changes in microbial ecology during the 72-hr fermentation period. Weissella sp. was the most abundant genus after 24 hr of fermentation of the rye sourdough, but as the process progressed, its abundance decreased in favor of the Lactobacillus genus similarly as in wheat and spelt sourdoughs. The Lactobacillus genus was dominant in all sourdoughs after 72 hr, which was consistent with our results obtained using culture-dependent analyses. This work was carried out to determine the microbial biodiversity of sourdoughs that are made from wheat, spelt, and rye wholemeal flour and can be used as a source of strains for specific starter cultures to produce functional bread.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2019.02502</t>
-  </si>
-  <si>
     <t>Postharvest food decay is one major issue for today’s food loss along the supply chain. Hot water treatment (HWT), a sustainable method to reduce pathogen-induced postharvest fruit decay, has been proven to be effective on a variety of crops. However, the microbiome response to HWT is still unknown, and the role of postharvest microbiota for fruit quality is largely unexplored. To study both, we applied a combined approach of metabarcoding analysis and real time qPCR for microbiome tracking. Overall, HWT was highly effective in reducing rot symptoms on apples under commercial conditions, and induced only slight changes to the fungal microbiota, and insignificantly affected the bacterial community. Pathogen infection, however, significantly decreased the bacterial and fungal diversity, and especially rare taxa were almost eradicated in diseased apples. Here, about 90% of the total fungal community was composed by co-occurring storage pathogens Neofabraea alba and Penicillium expansum. Additionally, the prokaryote to eukaryote ratio, almost balanced in apples before storage, was shifted to 0.6% bacteria and 99.4% fungi in diseased apples, albeit the total bacterial abundance was stable across all samples. Healthy stored apples shared 18 bacterial and 4 fungal taxa that were not found in diseased apples; therefore, defining a health-related postharvest microbiome. In addition, applying a combined approach of HWT and a biological control consortium consisting of Pantoea vagans 14E4, Bacillus amyloliquefaciens 14C9 and Pseudomonas paralactis 6F3, were proven to be efficient in reducing both postharvest pathogens. Our results provide first insights into the microbiome response to HWT, and suggest a combined treatment with biological control agents.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0226965</t>
-  </si>
-  <si>
     <t>Douchi is a type of traditional Chinese flavoring food that has been used for thousands of years and is produced by multispecies solid-state fermentation. However, the correlation between the flavor, the microbiota, and the functional core microbiota in Aspergillus-type douchi fermentation remains unclear. In this study, Illumina MiSeq sequencing and chromatography were used to investigate the bacterial community and flavor components in Aspergillus-type douchi fermentation. The dominant phyla were Firmicutes, Proteobacteria, and Actinobacteria, and the dominant genera were Weissella, Bacillus, Anaerosalibacter, Lactobacillus, Staphylococcus, and Enterococcus. A total of 58 flavor components were detected during fermentation, including two alcohols, 14 esters, five pyrazines, three alkanes, four aldehydes, three phenols, six acids, and five other compounds. Bidirectional orthogonal partial least square modeling showed that Corynebacterium_1, Lactococcus, Atopostipes, Peptostreptococcus, norank_o__AKYG1722, Truepera, Gulosibacter, norank_f__Actinomycetaceae, and unclassified_f__Rhodobacteraceae are the functional core microbiota responsible for the formation of the flavor components during douchi fermentation. This is the first study to investigate the functional core microbiota in douchi fermentation using Illumina MiSeq sequencing and chromatographic techniques. Our findings extend our understanding of the relationships between flavor, the microbiota, and the functional core microbiota during Aspergillus-type douchi fermentation.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2020.103503</t>
-  </si>
-  <si>
     <t>In this study, the microbiota of ready-to-eat surströmming from three Swedish producers were studied using a combined approach. The pH values of the samples ranged between 6.67 ± 0.01 and 6.98 ± 0.01, whereas their aw values were between 0.911 ± 0.001 and 0.940 ± 0.001. The acetic acid concentration was between 0.289 ± 0.009 g/100 g and 0.556 ± 0.036 g/100 g. Very low concentrations of lactic acid were measured. Viable counting revealed the presence of mesophilic aerobes, mesophilic lactobacilli and lactococci as well as halophilic lactobacilli and lactococci, coagulase-negative staphylococci, halophilic aerobes and anaerobes. Negligible counts for Enterobacteriaceae, Pseudomonadaceae and total eumycetes were observed, whereas no sulfite-reducing anaerobes were detected. Listeria monocytogenes and Salmonella spp. were absent in all samples. Multiplex real-time PCR revealed the absence of the bont/A, bont/B, bont/E, bont/F, and 4gyrB (CP) genes, which encode botulinic toxins, in all the samples analyzed. Metagenomic sequencing revealed the presence of a core microbiota dominated by Halanaerobium praevalens, Alkalibacterium gilvum, Carnobacterium spp., Tetragenococcus halophilus, Clostridiisalibacter spp. and Porphyromonadaceae. Psychrobacter celer, Ruminococcaceae, Marinilactibacillus psychrotolerans, Streptococcus infantis and Salinivibrio costicola were detected as minor OTUs. GC-MS analysis of volatile components revealed the massive presence of trimethylamine and sulphur compounds. Moreover, 1,2,4-trithiolane, phenols, ketones, aldehydes, alcohols, esters and long chain aliphatic hydrocarbons were also detected. The data obtained allowed pro-technological bacteria, which are well-adapted to saline environments, to be discovered for the first time. Further analyses are needed to better clarify the extent of the contribution of either the microbiota or autolytic enzymes of the fish flesh in the aroma definition.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2019.103405</t>
-  </si>
-  <si>
     <t>Sensory, chemical and microbial changes for Atlantic cod (Gadus morhua L.) filets from capture-based-aquaculture in Greenland were studied. The objective was to determine shelf-life and indices of spoilage for iced or superchilled fillets when stored in air, or modified atmosphere packed (MAP; 40% CO2 and 60% N2). MAP iced storage extended the sensory shelf-life from 15 days to 21 days compared to storage in air. With superchilling at −1.7 °C sensory shelf-life was above 32 days, and no formation of total volatile nitrogen (TVN) was observed irrespective of storage in air or MAP. pH of ≥7.0, TVN (≥35 mg-N/100 g) and trimethylamine (≥20 mg-N TMA/100 g) were promising indices of spoilage. Aerobic viable counts were less valuable indices of spoilage as the dominating microbiota of cod in air (Pseudomonas spp., Photobacterium spp., Shewanella spp., Acinetobacter spp.) changed to Photobacterium spp. in MAP cod. Spoilage activity determined as the yield factor for TVN formation was 6–200 folds higher for Photobacterium spp. compared to Shewanella spp. and Pseudomonas spp. Photobacterium carnosum was responsible for TVN formation in iced cod irrespective of storage in air or MAP, and it was identified at the specific spoilage organism that limited iced product shelf-life.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3168/jds.2019-17359</t>
-  </si>
-  <si>
     <t>The identification of milk microbial communities in ruminants is relevant for understanding the association between milk microbiota and health status. The most common approach for studying the microbiota is amplifying and sequencing specific hypervariable regions of the 16S rRNA gene using massive sequencing techniques. However, the taxonomic resolution is limited to family and, in some cases, genus level. We aimed to improve taxonomic classification of the water buffalo milk microbiota by amplifying and sequencing the full-length 16S rRNA gene (1,500 bp) using Nanopore sequencing (single-molecule sequencing). When comparing with short-read results, we improved the taxonomic classification, reaching species level. We identified the main microbial agents of subclinical mastitis at the species level that were in accordance with the microbiological culture results. These results confirm the potential of single-molecule sequencing for in-depth analysis of microbial populations in dairy animals.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/mSystems.00226-20</t>
-  </si>
-  <si>
     <t>Microorganisms from the environment can enter the dairy supply chain at multiple stages, including production, milk collection, and processing, with potential implications for quality and safety. The ability to track these microorganisms can be greatly enhanced by the use of high-throughput DNA sequencing (HTS). Here HTS, both 16S rRNA gene amplicon and shotgun metagenomic sequencing were applied to investigate the microbiomes of fresh mid- and late-lactation milk collected from farm bulk tanks, collection tankers, milk silos, skimmed milk silos, a cream silo, and powder samples to investigate the microbial changes throughout a skim milk powder manufacturing process. 16S rRNA gene analysis established that the microbiota of raw milks from farm bulk tanks and in collection tankers were very diverse but that psychrotrophic genera associated with spoilage, Pseudomonas and Acinetobacter, were present in all samples. Upon storage within the whole-milk silo at the processing facility, the species Pseudomonas fluorescens and Acinetobacter baumannii became dominant. The skimmed milk powder generated during the mid-lactation period had a microbial composition that was very different from that of raw milk; specifically, two thermophilic genera, Thermus and Geobacillus, were enriched. In contrast, the microbiota of skimmed milk powder generated from late-lactation milk more closely resembled that of the raw milk and was dominated by spoilage-associated psychrotrophic bacteria. This study demonstrates that the dairy microbiota can differ significantly across different sampling days. More specifically, HTS can be used to trace microbial species from raw milks through processing to final powdered products. IMPORTANCE Microorganisms can enter and persist in dairy at several stages of the processing chain. Detection of microorganisms within dairy food processing is currently a time-consuming and often inaccurate process. This study provides evidence that high-throughput sequencing can be used as an effective tool to accurately identify microorganisms along the processing chain. In addition, it demonstrates that the populations of microbes change from raw milk to the end product. Routine implementation of high-throughput sequencing would elucidate the factors that influence population dynamics. This will enable a manufacturer to adopt control measures specific to each stage of processing and respond in an effective manner, which would ultimately lead to increased food safety and quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108610</t>
-  </si>
-  <si>
     <t>Gioddu, also known as “Miciuratu”, “Mezzoraddu” or “Latte ischidu” (literally meaning acidulous milk), is the sole variety of traditional Italian fermented milk. The aim of the present study was to elucidate the microbiota and the mycobiota occurring in artisan Gioddu sampled from three Sardinian producers by combining the results of viable counting on selective culture media and high-throughput sequencing. Physico-chemical parameters were also measured. The overall low pH values (3.80–4.22) recorded in the analyzed Gioddu samples attested the strong acidifying activity carried out by lactic acid bacteria during fermentation. Viable counts revealed the presence of presumptive lactococci, presumptive lactobacilli and non-Saccharomyces yeasts. A complex (kefir-like) microbiota of bacteria and yeasts was unveiled through sequencing. In more detail, Lactobacillus delbrueckii was found to dominate in Gioddu together with Streptococcus thermophilus, thus suggesting the establishment of a yogurt-like protocooperation. Unexpectedly, in all the three analyzed batches from two out of the three producers Lactobacillus kefiri was also detected, thus representing an absolute novelty, which suggests the presence of bioactive compounds (e.g. exopolysaccharides) similar to those characterizing milk kefir beverage. Mycobiota population, studied for the very first time in Gioddu, revealed a more complex composition, with Kluyveromyces marxianus, Galactomyces candidum and Geotrichum galactomyces constituting the core species. Further research is needed to disclose the eventual occurence in Gioddu of probiotic cultures and bioactive compounds (e.g. exopolysaccharides, angiotensin-converting enzyme inhibitory peptides and antimicrobial compounds) with potential health-benefits for the consumers.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108631</t>
-  </si>
-  <si>
     <t>In the present work the microbial dynamics in wheat kernels were evaluated over time. The main aim of this research was to study the resistance of lactic acid bacteria (LAB) and yeasts associated to unprocessed cereals used for bread making during long term conservation. To this purpose four Triticum durum Desf. genotypes including two modern varieties (Claudio and Simeto) and two Sicilian wheat landraces (Russello and Timilia) were analysed by a combined culture-independent and -dependent microbiological approach after one, two or three years from cultivation and threshing. DNA based MiSeq Illumina technology was applied to reveal the entire bacterial composition of all semolina samples. The samples showed a different distribution of bacterial taxa per variety and time of storage. The groups mostly represented were Stenotrophomonas, Pseudomonas, Erwinia, Delftia and Sphingomonas genera, Enterobacteriaceae and Oxalobacteriaceae families, and Actinobacteria phylum. Among LAB, only Enterococcus genus was detected barely in a single sample (Simeto stored for one year) by the next generation sequencing, indicating that LAB remained unassigned or their abundances were below 0.1% or their DNAs were rendered inaccessible. Plate counts showed consistent differences in relation to genotypes and duration of storage, with the highest levels found for total mesophilic microorganisms detected up 6.8 Log CFU/g. Colonies of presumptive sourdough LAB were detected only in a few samples. Cocci constituted the major group of LAB in almost all samples. Following the enrichment procedure, almost all samples were characterised by the presence of acidifying microorganisms. All isolates collected before and after enrichment represented 28 different strains belonging to 10 species of Enterococcus, Lactobacillus and Pediococcus genera. The most resistant species during aging were Enterococcus faecium, Enterococcus durans, Lactobacillus brevis, Lactobacillus pentosus and Lactobacillus paracasei demonstrating that lactobacilli and enterococci are able to overcome the stressing conditions represented by cereal storage better than other LAB genera commonly found associated to cereals after harvest. Yeast community included mostly species with no interest in bread making.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2020.103547</t>
-  </si>
-  <si>
     <t>Cooked ham production involves numerous steps shaping the microbial communities of the final product, with consequences on spoilage metabolites production. To identify the main factors driving the ecology of ham and its spoilage, we designed a study encompassing five variables related to ham production: type of storage during meat transportation, churning speed, drain-off time, slicing line and O2 packaging permeability. About 200 samples from the same facility were obtained and characterized with respect to i) their microbiota based on gyrB amplicon sequencing ii) their production of spoilage-related metabolites based on E-Nose analysis and enzymatic assays. The slicing was the most critical step, shaping two general types of microbiota according to the slicing line: one dominated by Carnobacterium divergens and another one dominated by Leuconostoc carnosum and Serratia proteamaculans. Regarding metabolites production, L. carnosum was associated to d-lactic acid, ethanol and acetic acid production, whereas Serratia proteamaculans was associated to acetic acid production. This last species prevailed with highly O2-permeable packaging. Within a given slicing line, campaign-based variations were observed, with Lactobacillus sakei, Leuconostoc mesenteroides and Carnobacterium maltaromaticum prevalent in summer. L. sakei was associated with l-lactic acid production and C. maltaromaticum with formic and acetic acid productions.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.00758</t>
-  </si>
-  <si>
     <t>Sufu is a traditional fermented soybean food produced in China. However, the microbial compositions and metabolites of different types of sufu have not been studied in detail. Accordingly, in this study, we evaluated the differences in bacterial communities and metabolites between commercial red sufu (RS) and white sufu (WS). Principal coordinate analysis and the unweighted pair group method with arithmetic means analysis of 16S rRNA genes revealed that the bacterial community structures of RS and WS differed dramatically. At the phylum level, the relative abundances of Firmicutes and Proteobacteria were significantly different between RS and WS (P &lt; 0.01). Moreover, the abundances of Lactococcus and Tetragenococcus genera were significantly different between RS and WS (P &lt; 0.01). Among metabolites, most free amino acids, few of volatile flavor compounds, and some organic acids showed significant differences between RS and WS (P &lt; 0.05). Additionally, correlations between microbiota and metabolites were determined. Aggregated boosted tree analysis showed that formic acid had the highest relative influence (20.27%) on bacterial community diversity (Chao 1), following by arginine (5.38%), propanol (4.57%), oxalic acid (4.46%), and hexanol (4.43%). Moreover, Streptococcaceae and Moraxellaceae had the highest relative influence on the concentration of formic acid (12.84% and 8.75%, respectively). The profiles obtained in this study improve our understanding of the relationships between bacterial flora and metabolites in different types of sufu. These findings may help us interpret the roles of bacterial communities in the flavor and characteristics of sufu.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2020.109118</t>
-  </si>
-  <si>
     <t>Outbreaks of food poisoning due to the consumption of contaminated beef from fast-food chains are becoming more frequent. Pathogen contamination in beef influences its spoilage as well as the development of foodborne illness. Thus, the influence of pathogen contamination on beef microbiota should be analyzed to evaluate food safety. We analyzed the influence of pathogen contamination on the shift in microbiota and the interactions between the pathogen and indigenous microbes in beef stored under different conditions. Sixty beef samples were stored at 25 °C and 4 °C for 24 h, and the shifts in microbiota were analyzed using the MiSeq system. The influence of pathogen contamination on microbiota was analyzed by artificial contamination experiments with Escherichia coli FORC_044, which was isolated from the stool of a food poisoning patient in Korea. The bacterial amounts and the proportion of Escherichia were higher when the beef was stored at 25 °C. Artificially contaminated Escherichia positively correlated with the indigenous microbes such as Pseudomonas, Brochothrix, Staphylococcus, Rahnella, and Rhizobium as determined by co-occurrence network analyses. Carnobacterium, a potential spoilage microbe, was negatively correlated with other microbes. The predicted functions of altered microbiota showed that the pathways related to the process of spoilage including biosynthesis of acetic acid and lactic acid increased over time. The shift in pathways was more pronounced in contaminated beef stored at 25 °C. Carnobacterium, Lactobacillus, and Escherichia were the main genera contributing to the shift in the relative abundance of functional genes involved in the various spoilage pathways. Our results indicated that pathogen contamination could influence beef microbiota and mediate spoilage. This study extends our understanding of the beef microbiota and provides insights into the role of pathogen and storage conditions in meat spoilage.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1007/s00253-020-10651-7</t>
-  </si>
-  <si>
     <t>Cheese is a fermented dairy product that is made from animal milk and is considered to be a healthy food due to its available nutrients and potential probiotic characteristics. Since the microbes in the cheese matrix directly contribute to the quality and physicochemical properties of cheese, it is important to understand the microbial properties of cheese. In this study, Cheddar cheeses produced on three different dates at the Arbuthnot Dairy Center at Oregon State University were collected to determine the microbial community structure. A total of 773,821 sequencing reads and 271 amplicon sequence variants (ASVs) were acquired from 108 samples. Streptococcus and Lactococcus were observed as the most abundant ASVs in the cheese, which were used as the starter lactic acid bacteria (SLAB). Escherichia coli was detected in the raw milk; however, it was not detected after inoculating with SLAB. According to an alpha diversity analysis, SLAB inoculation decreased the microbial richness by inhibiting the growth of other bacteria present in the milk. A beta diversity analysis showed that microbial communities before the addition of SLAB clustered together, as did the samples from cheese making and aging. Non-starter lactic acid bacteria (NSLAB) were detected 15 weeks into aging for the June 6th and June 26th produced cheeses, and 17 weeks into aging for the cheese produced on April 26th. These NSLAB were identified as an unidentified group of Lactobacillaceae. This study characterizes the changes in the Cheddar cheese microbiome over the course of production from raw milk to a 6-month-aged final product.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/app10124063</t>
-  </si>
-  <si>
     <t>The aim of this study was to evaluate the microbiome of industrially produced ripened Edam cheeses by next-generation sequencing. The samples for analyses were collected in spring and autumn. Spring samples were characterized by significantly higher Lactococcus and Bacillus counts and lower counts of Enterobacteriaceae, Enterococcus, and yeasts than autumn samples. The predominant microorganisms identified by the Illumina high-throughput sequencing technology belonged to four phyla: Firmicutes, Actinobacteria, Proteobacteria and Bacteroidetes. The dominant species were starter culture bacteria. Lactobacillus rhamnosus, Lactobacillus kefiri, Lactobacillus kefiranofaciens, Lactobacillus casei, Streptococcus thermophilus, and Bifidobacterium had the highest share of microbial cheese communities. The number of γ-Proteobacteria reads was higher in autumn cheese samples. A high number of reads was also noted in the genus Clostridium. The counts of spore-forming bacteria of the genus Bacillus were higher in cheeses produced in spring. The study revealed highly similar relationships between the analyzed production periods. The present results contribute to the existing knowledge of cheese microbiota, and they can be used to improve and modify production processes based on the composition of microbial communities, as well as to improve the quality of the final product.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.01128</t>
-  </si>
-  <si>
     <t>Table olives are one of the most well-known traditionally fermented products, and their global consumption is exponentially increasing. In direct brining, table olives are produced spontaneously, without any debittering pre-treatment. Up to date, fermentation process remains empirical and inconstant, as it is affected by the physicochemical attributes of the fruit, tree and fruit management of pro and post-harvest. In the present study, whole and cracked Picual table olives were fermented at industrial scale for 120 days, using three distinct methods (natural fermentation, inoculation with lactic acid bacteria (LAB) at a 7 or a 10% NaCl concentration). Microbial, physicochemical and sensorial alterations monitored during the whole process, and several differences were observed between treatments. Results indicated that in all treatments, the dominant microflora were LAB. Yeasts also detected in noteworthy populations, especially in non-inoculated samples. However, LAB population was significantly higher in inoculated compared to non-inoculated samples. Microbial profiles identified by metagenomic approach showed meaningful differences between spontaneous and inoculated treatments. As a result, the profound dominance of starter culture had a severe effect on olives fermentation, resulting in lower pH and higher acidification, which was mainly caused by the higher levels of lactic acid produced. Furthermore, the elimination of Enterobacteriaceae was shortened, even at lower salt concentration. Although no effect observed concerning the quantitated organoleptic parameters such as color and texture, significantly higher levels in terms of antioxidant capacity were recorded in inoculated samples. At the same time, the degradation time of oleuropein was shortened, leading to the production of higher levels of hydroxytyrosol. Based on this evidence, the establishment of starter culture driven Picual olives fermentation is strongly recommended. It is crucial to mention that the inoculated treatment with reducing sodium content was highly appreciated by the sensory panel, enhancing the hypothesis that the production of Picual table olives at reduced NaCl levels is achievable.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2020.103504</t>
-  </si>
-  <si>
     <t>In the present study, two groups of cows from a permanent lowland farm (PF) were divided during summer and reared in the PF or in a temporary alpine farm (ALP), respectively. Microbiological analyses were performed with the objective to investigate the microbial evolution of milk before, during, and after summer transhumance comparing, in particular, the two groups of cows to determine whether the alpine pasture could directly influence the milk microbiota. A significant increase of all microbial groups was registered in milk samples collected in the ALP. Interestingly, many strains belonging to species with well reported technological and probiotic activities were isolated from Alpine milk (20% Lactococcus lactis subsp. lactis/cremoris, 18% Lactobacillus paracasei, 14% Bifidobacterium crudilactis and 18% Propionibacterium sp.), whereas only 16% of strains isolated from the permanent farm milk belonged to the species Lactococcus lactis subsp. lactis/cremoris, 6% to Lactobacillus paracasei, 2% to Bifidobacterium crudilactis and 5% to Propionibacterium sp. The MiSeq Illumina data showed that Alpine milk presented a significant reduction of Pseudomonas and an increase of Lactococcus, Bifidobacterium and Lactobacillus genera. These data confirmed the practice of Alpine pasture as one of the main drivers affecting the milk microbiota. All the microbial changes disappeared when cows were delivered back from Alpine pasture to the indoor farm.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/s13568-020-01069-5</t>
-  </si>
-  <si>
     <t>The reformulation of dairy products to contain less added sugar can contribute to reducing sugar consumption, thereby reducing the risk of non-communicable diseases. The objective of this study was to investigate the microbial ecology of reformulated yoghurt, which was produced using bi-enzymatic modification of lactose to increase its sweetness by a factor of 2–3. Ultimately, this reformulation strategy could reduce the amount of added sugar needed for equal sweetness of the end product. The bi-enzymatic modification relied on utilisation of a β-galactosidase enzyme to convert the milk sugar lactose to galactose and glucose, followed by the enzymatic conversion of the glucose moiety to fructose using a glucose isomerase. The microbial ecology of reformulated yoghurt produced with two mixed starter culture preparations containing either Streptococcus (S.) thermophilus and Lactobacillus (Lb.) delbrueckii or S. thermophilus, Lb. acidophilus and Bifidobacterium sp. strains, was analysed during fermentation and cool storage using 16S rRNA based metagenomics. None of the yoghurt samples showed a significant difference in microbial composition between sweetness-enhanced and regular milk at all sampling time points during manufacture and storage of yoghurt. However, a significant difference between the microbiota of inoculated milk before and after fermentation was observed. In both types of yoghurt, the starter culture genera dominated the microbial ecology at the end of fermentation as expected, reducing the possibility of growth of potentially pathogenic or spoilage bacteria possibly resulting from a changed carbohydrate spectrum.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.idairyj.2020.104804</t>
-  </si>
-  <si>
     <t>The standardisation of raw milk cheeses without losing their typicality is an ambitious goal. In the present study, the performance of two Lactococcus lactis autochthonous starter cultures (AS1 and AS2) was evaluated for the production of Valle d'Aosta (VdA, Italy) Fromadzo PDO, in terms of competition and persistence capacity (by rep-PCR strain characterisation), influence on indigenous microbial population (by metataxonomic approach) and volatilome development (by GC–MS and sensory analysis). The best performance was shown by AS2 starter mixture, which was able to colonise Fromadzo cheeses at the expense of indigenous lactic microbiota, and reached mean frequency values of 87% and 70% in 30 day-ripened products from valley floor and alpine pasture milk, respectively. Moreover, both kinds of cheeses, obtained using AS2, achieved the best scores in terms of aroma and taste, the pasture cheese also achieving the best score for texture.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.01212</t>
-  </si>
-  <si>
     <t>Hundreds of sourdoughs have been investigated in the last decades. However, many studies used a culture-dependent and/or culture-independent microbiological approach [mainly based on denaturing gradient gel electrophoresis (DGGE) of PCR amplicons], seldomly combined with a metabolite target analysis, to characterize the microbial species communities of the sourdoughs examined. Moreover, attention was mainly paid on lactic acid bacteria (LAB) and yeast species. In the present study, distinct household-scale (including an artisan lambic brewery) and artisan bakery-scale backslopped sourdoughs (17 in total), obtained from different regions (Belgium, France, United Kingdom, and USA), were examined through a multiphasic approach, encompassing a culture-dependent analysis [targeting LAB, acetic acid bacteria (AAB), and yeasts], different culture-independent techniques [rRNA-PCR-DGGE, metagenetics, and metagenomics (four bakery sourdoughs)], and metabolite target analysis. It turned out that the microbial species diversity of the sourdoughs was influenced by the house microbiota of the producer. Further, when the producer made use of different flours, the sourdoughs harbored similar microbial communities, independent of the flour used. AAB were only present in the Belgian sourdoughs, which might again be related to the processing environment. Fructilactobacillus sanfranciscensis (formerly known as Lactobacillus sanfranciscensis) was the prevalent LAB species of the eight sourdoughs produced by two of the three bakeries of different countries analyzed. These sourdoughs were characterized by the presence of either Saccharomyces cerevisiae or Kazachstania humilis. Moreover, the presence of Fl. sanfranciscensis was positively correlated with the production of mannitol and negatively correlated with the presence of other LAB or AAB species. Sourdoughs produced in an artisan lambic brewery were characterized by the presence of the yeast species Dekkera anomala and Pichia membranifaciens. One household sourdough was characterized by the presence of uncommon species, such as Pediococcus parvulus and Pichia fermentans. Metagenomic sequencing allowed the detection of many more LAB and AAB species than the other methods applied, which opened new frontiers for the understanding of the microbial communities involved during sourdough production processes.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.01657</t>
-  </si>
-  <si>
     <t>Beef is one of the most consumed food worldwide, and it is prone to spoilage by bacteria. This risk could be caused by resident microbiota and their alterations in fresh beef meat during processing. However, scarce information is available regarding potential spoilage factors due to resident microbiota in fresh beef meat. In this study, we analyzed the microbiota composition and their predicted functions on fresh beef meat. A total of 120 beef meat samples (60 fresh ground and 60 non-ground beef samples) were collected from three different sites in South Korea on different months, and the microbiota were analyzed by the MiSeq system. Our results showed that although the microbiota in beef meat were varied among sampling site and months, the dominant phyla were the same with shared core bacteria. Notably, psychrotrophic genera, related to spoilage, were detected in all samples, and their prevalence increased significantly in July. These genera could inhibit the growth of other microbes with using glucose by fermentation. The results of this study extend our understanding of initial microbiota in fresh beef meat and potential functions influencing spoilage and can be useful to develop the preventive measures to reduce the spoilage of beef meat products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2020.108779</t>
-  </si>
-  <si>
     <t>Microbial contamination associated with beef slaughter and boning has been investigated using traditional culture dependent approaches. However, conventional counting methods have disadvantages of detecting only cultivable bacterial groups that may be a small subset of the true microbial population. This study investigated the microbiology in the boning room of an integrated (abattoir A) and a fragmented (abattoir B) Australian beef export abattoirs using culture independent 16S rRNA gene amplicon sequencing coupled with total viable count (TVC). Transmission of microbial populations during processing of carcases onto beef trim was monitored and compared between the two abattoirs. The results showed that the abattoirs produced beef trim with a mean TVC of 2.64–2.70 log10 CFU/cm2. Initial counts of microbes on the chilled carcases entering the boning room were &lt;1.5 log10 CFU/cm2 and the environmental surfaces had ≤2.0 log10 CFU/cm2 throughout the boning room. Profiling of 16S gene sequences demonstrated that the contamination of boned products (beef trim) may be a result of contamination accumulating from environmental surfaces that are regularly in contact with beef trim. The 16S data also showed that the bacterial communities on the carcases and trim shared similar community composition with microbiota on environmental surfaces at varying proportions depending on the day of processing. Bacteroidales, Clostridiales, Enterobacteriales, Lactobacillales and Pseudomonadales were predominantly present in the bacterial communities in both abattoirs. However, the changes in relative abundance of these bacteria through the boning process varied between the abattoirs. The findings from this study suggested that the transfer of bacterial contaminants in the beef cattle boning room can be dynamic, and a 16 s rRNA gene sequencing-based approach can improve our understanding of the sources of contamination in the boning environment.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2019.02747</t>
-  </si>
-  <si>
     <t>Microbial contamination of beef cattle carcases and subsequent cross-contamination during processing is inevitable and virtually impossible to prevent. The understanding of microbial contamination in the beef industry is currently limited to hypotheses based on traditional microbiological tools. Additionally, the complex structural and functional responses of beef cattle microbial communities to the fragmentation in the supply chain remain unknown. This study used 16S rRNA gene sequencing in combination with traditional microbiology to monitor and compare changes in the microbiota throughout slaughter in an integrated (abattoir A) and a fragmented (abattoir B) beef abattoir in Australia. Briefly, the primary difference between an integrated and a fragmented abattoir is that fragmented abattoirs receive cattle from multiple sources, whereas integrated abattoirs typically receive cattle that has been produced using the same production system and from a limited number of sources. The composition in the bacterial communities varied between the abattoirs, though the presence of the most predominant bacterial species within the microbiota at each abattoir was similar. Lactobacillales (2.4–56.2%) and Pseudomonadales (2.4–59.4%) most notably dominated hides, carcases, and the environment in abattoir B. In abattoir A, Bacteroidales (3.9–43.8%), Lactobacillales (0.0–61.9%), and Pseudomonadales (0.5–72.1%) fluctuated but generally shared the dominance over the rest. Combined results of total viable count (TVC) and 16S rRNA gene profiling indicated that an upward hide pulling system adopted by abattoir B may lead to increased transmission of hide contaminants to post-hide pull carcases. Abattoir B had 3.2 log10CFU/cm2 reduction from hide to carcase, where abattoir A had 4.5 log10CFU/cm2 reduction. The findings from this study indicated that common beef-associated microbiota exist in varying composition in Australian abattoirs, and 16S rRNA amplicon sequencing is a powerful tool to understand in-depth movement of microbial contaminants.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.586614</t>
-  </si>
-  <si>
     <t>French PDO Nyons black table olives are produced according to a traditional slow spontaneous fermentation in brine. The manufacture and unique sensorial properties of these olives thus only rely on the autochthonous complex microbiota. This study aimed at unraveling the microbial communities and dynamics of Nyons olives during a 1.5-year-long spontaneous fermentation to determine the main microbial drivers and link microbial species to key metabolites. Fermentations were monitored at a local producer plant at regular time intervals for two harvests and two olive types (organically and conventionally grown) using culture-dependent and metabarcoding (ITS2 for fungi, V3-V4 region for bacteria) approaches. Olives and brines were also sampled for volatiles, organic acids and phenolic compounds. No major differences in microbiota composition were observed according to olive type or harvest period. Throughout the fermentation, yeasts were clearly the most dominant. ITS2 sequencing data revealed complex fungal diversity dominated by Citeromyces nyonsensis, Wickerhamomyces anomalus, Zygotorulaspora mrakii, Candida boidinii and Pichia membranifaciens species. Bacterial communities were dominated by the Celerinatantimonas genus, while lactic acid bacteria remained scarce. Clear shifts in microbial communities and biochemical profiles were observed during fermentation and, by correlating metabolites and microbiota changes, four different phases were distinguished. During the first 7 days, phase I, a fast decrease of filamentous fungal and bacterial populations was observed. Between days 21 and 120, phase II, W. anomalus and C. nyonsensis for fungi and Celerinatantimonas diazotrophica for bacteria dominated the fermentation and were linked to the pH decrease and citric acid production. Phase III, between 120 and 183 days, was characterized by an increase in acids and esters and correlated to increased abundances of Z. mrakii, P. membranifaciens and C. boidinii. During the last months of fermentation, phase IV, microbial communities were dominated by P. membranifaciens and C. boidinii. Both species were strongly correlated to an increase in fruity esters and alcohol abundances. Overall, this study provides an in-depth understanding about microbial species succession and how the microbiota shapes the final distinct olive characteristics. It also constitutes a first step to identify key drivers of this fermentation.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2019.108937</t>
-  </si>
-  <si>
     <t>This study explored the shelf-life and bacterial community dynamics of beef cuts stored at super-chilled conditions (−1 ± 0.5 °C) for 20 weeks when sourced from two Chinese abattoirs, in order to determine whether domestic beef has equivalent quality as that imported from Australia. The initial total viable counts (TVC) were 4.15 and 4.87 log CFU/cm2 in beef from abattoirs A and B, respectively at the commencement of the storage period. The TVC of beef from abattoir A was above 6.0 log CFU/cm2 at 6 weeks and kept below 7.0 log CFU/cm2 at 20 weeks; while the counts were above 6.0 log CFU/cm2 at 3 weeks and reached at 7.3~7.6 log CFU/cm2 in beef from abattoir B. The beef shelf-life was deemed less than 12 and 9 weeks in abattoirs A and B, respectively, based on the total volatile basic nitrogen (TVBN) threshold, although all samples were acceptable organoleptically. High-throughput sequencing showed that the initial bacteria community and bacterial succession during storage were different between the two abattoirs. Carnobacterium spp. and Lactobacillus spp. dominated in both abattoirs throughout 3–9 weeks while Serratia spp. co-dominated in abattoir B, and Lactobacillus spp. and Carnobacterium spp. were dominant for the rest of storage in abattoir A and B, respectively. Overall, the high initial TVC is a concern compared to imported beef from Australia. To achieve comparable shelf-life, domestic super-chilled stored beef would need to be sourced from abattoirs employing effective decontamination technologies or where strict hygiene procedures are adopted.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2020.103591</t>
-  </si>
-  <si>
     <t>Six different ganjang batches were prepared and the microbial communities in the ganjang samples and raw materials (meju and solar salts), as well as the metabolites generated during fermentation were analyzed. The varying amounts of raw materials used differentially affected the microbial communities. Halophilic or halotolerant microbes derived from solar salts were abundant during middle or late fermentation. By contrast, non-halophilic microbes derived from meju were abundant mainly during early fermentation. Debaryomyces, Tetragenococcus, and Staphylococcus were abundant in all ganjang batches, which suggested that these may be the most common microbes involved in ganjang fermentation. The salt concentrations did not affect the abundance of Debaryomyces, which was abundant in all ganjang batches. Tetragenococcus was abundant in low salt ganjang, whereas Staphylococcus was abundant in high salt ganjang. Metabolite analysis revealed that carbohydrate concentrations were high in ganjang prepared using high amounts of meju. The level of lactate, which may be largely produced by Tetragenococcus, in low salt ganjang was high because of high microbial activity. The amino acid concentrations of the ganjang batches were mainly associated with meju quantity, but not salt concentration. These results indicated that the production of amino acids may be associated with indigenous proteases in meju, but not microbial activities during ganjang fermentation.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/microorganisms8091270</t>
-  </si>
-  <si>
     <t>In this paper, the volatile flavour constituents and the bacterial diversity in characteristic Chinese fermented sour soup were analysed, and the dynamics of bacteria associated with the odour were characterized. The bacterial diversity of sour soup was studied by high-throughput sequencing. A total of 10 phyla and 89 genera were detected. Firmicutes was the dominant phylum of sour soup, accounting for 87.14–98.57%. The genus structure of normal sour soup was relatively simple, and Lactobacillus (78.05–90.26%) was the dominant genus. In addition to Lactobacillus, the foul-smelling sour soup contained more Pediococcus spp., Caproiciproducens spp., and Clostridium-sensu-stricto 12 spp. (relative abundance &gt;1%) than the normal sour soup. A total of 51 aroma compounds were detected by gas chromatography-mass spectrometry(GC-IMS), including 25 esters, 8 terpenes, 8 alcohols, 3 sulfur compounds, 2 acids, 2 ketones, 1 pyrazine, 1 monoterpene and 1 aldehyde. According to the relative odour active value (ROAV) calculation, 51 important flavour-contributing substances and 7 flavour-coordinating substances were determined. The esters with the highest relative percentages and ROAV values provided the pleasant flavour of the sour soup. In the foul-smelling sour soup, the ROAV values of 1,8-cineole, isobutyl acetate, ethyl butanoate, ethyl octanoate-M, and ethyl hexanoate-M decreased, while those of diallyl disulfide-M and diallyl disulfide-D, which were probably responsible for the foul flavour, increased. Through Pearson correlation analysis, the odour production of the foul-smelling soup was determined to be related to Pediococcus spp., Caproiciproducens spp., Clostridiumsensu_stricto_12 spp., Oscillibacter spp., Bacteroides spp., Fibaculaceae_unclassified spp., Acinetobacter spp. and Halomonas spp.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.idairyj.2020.104878</t>
-  </si>
-  <si>
     <t>Kazak cheese is a characteristic handcrafted fermented dairy product from the Uyghur Autonomous Region in China. The bacterial microbiota and volatile components during milk fermentation of Kazak artisanal cheese were investigated using Illumina MiSeq sequencing technology and headspace solid-phase microextraction (HS-SPME) with gas chromatography/mass spectrometry (GC–MS), respectively. Lactobacillus and Lactococcus were found to be the main populations during milk fermentation. The relationships between microbiome succession and flavour dynamics were constructed based on bidirectional orthogonal partial least squares (O2PLS), which identified eight bacterial genera as key functional microbes for flavour production. Among these genera, Lactobacillus was positively correlated with benzoic acid and isoamyl alcohol, while Macrococcus and Anoxybacillus were negatively correlated with acetic acid, butanoic acid and isoamyl alcohol. This study provides a foundation for uncovering the mechanisms underlying the formation of the microbiota and flavour components in Kazak fermented cheese.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/microorganisms8020218</t>
-  </si>
-  <si>
     <t>Background: Paipa cheese is a traditional, semi-ripened cheese made from raw cow’s milk in Colombia. The aim of this work was to gain insights on the microbiota of Paipa cheese by using a culture-independent approach. Method: two batches of Paipa cheese from three formal producers were sampled during ripening for 28 days. Total DNA from the cheese samples was used to obtain 16S rRNA gene sequences by using Illumina technology. Results: Firmicutes was the main phylum found in the cheeses (relative abundances: 59.2–82.0%), followed by Proteobacteria, Actinobacteria and Bacteroidetes. Lactococcus was the main genus, but other lactic acid bacteria (Enterococcus, Leuconostoc and Streptococcus) were also detected. Stapylococcus was also relevant in some cheese samples. The most important Proteobacteria were Enterobacteriaceae, Aeromonadaceae and Moraxellaceae. Enterobacter and Enterobacteriaceae (others) were detected in all cheese samples. Serratia and Citrobacter were detected in some samples. Aeromonas and Acinetobacter were also relevant. Other minor genera detected were Marinomonas, Corynebacterium 1 and Chryseobacterium. The principal coordinates analysis suggested that there were producer-dependent differences in the microbiota of Paipa cheeses. Conclusions: lactic acid bacteria are the main bacterial group in Paipa cheeses. However, other bacterial groups, including spoilage bacteria, potentially toxin producers, and bacteria potentially pathogenic to humans and/or prone to carry antimicrobial resistance genes are also relevant in the cheeses.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/s13568-020-01080-w</t>
-  </si>
-  <si>
     <t>This study aimed to explore the effects of artemisinin (ART) on the milk microbiome and metabolites of dairy cow. A total of 12 mid-lactation Holstein dairy cows with similar parity, days in milk were randomly divided into 2 groups receiving either a total mixed ration (TMR) as the control group or this TMR and 120 g/d/head ART as the ART group. The milk samples were collected weekly to determine the contents, and end-of-trial (week 8) milk samples were used to identify microbial species and metabolite profiles by 16S rRNA sequencing and LC–MS analyses, respectively. We observed that the milk fat content significantly increased by ART treatment (P &lt; 0.05). The bacterial community richness was significantly lower in the ART group (P &lt; 0.05), while the diversity showed no difference (P &gt; 0.05). Compared with its abundance in the control (CON) group, Firmicutes was significantly decreased, whereas Proteobacteria was significantly increased. Furthermore, in the ART group, the relative abundances of the genera Aerococcus, Staphylococcus, Corynebacterium_1 and Facklamia were significantly lower (P &lt; 0.01). Metabolomics analysis revealed that ART significantly increasing the concentrations of glycerophospholipids, glycerolipids and flavonoids compared with those in the CON group. An enrichment analysis of the different metabolites showed that ART mainly affected glycerophospholipid metabolism and the pantothenate and CoA biosynthesis pathways. These findings revealed that ART supplementation could affect the milk microbiota and metabolites, that glycerophospholipids and glycerolipids could be potential biomarkers in the milk response to ART feed in dairy cows, and that ART changes substances in milk by maintaining lipid metabolism in the mammary gland.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.581658</t>
-  </si>
-  <si>
     <t>Cheese microbiota contribute significantly to the final characteristics of cheeses due to the growth and interaction between cheese microorganisms during processing and ripening. For raw milk cheeses, such as Parmigiano Reggiano (PR), the microbiota derive from the raw milk itself, the dairy environment, and the starter. The process of cheese making and time of ripening shape this complex ecosystem through the selection of different species and biotypes that will drive the quality of the final product by performing functions of their metabolism such as proteolysis. The diversity in the final peptide and amino acid composition of the cheese is thus mostly linked to the diversity of this microbiota. The purpose of this study was to get more insight into the factors affecting PR cheese diversity and, more specifically, to evaluate whether the composition of the bacterial community of cheeses along with the specific peptide composition are more affected by the ripening times or by the cheese making process. To this end, the microbiota and the peptide fractions of 69 cheese samples (from curd to cheese ripened 24 months) were analyzed during 6 complete PR production cycles, which were performed in six different dairies located in the PR production area. The relation among microbial dynamics, peptide evolution, and ripening times were investigated in this unique and tightly controlled production and sampling set up. The study of microbial and peptide moieties in products from different dairies – from curd to at least 12 months, the earliest time from which the cheese can be sold, and up to a maximum of 24 months of ripening – highlighted the presence of differences between samples coming from different dairies, probably due to small differences in the cheese making process. Besides these differences, however, ripening time had by far the greatest impact on microbial dynamics and, consequently, on peptide composition.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.564749</t>
-  </si>
-  <si>
     <t>Milk microbiota represents a key point in raw milk cheese production and contributes to the development of typical flavor and texture for each type of cheese. The aim of the present study was to evaluate the influence of chlorine products usage for cleaning and sanitizing the milking equipment on (i) raw milk microbiota; (ii) the deriving whey-starter microbiota; and (iii) Trentingrana Protected Designation of Origin (PDO) cheese microbiota and volatilome. Milk samples from three farms affiliated to a Trentingrana PDO cheese factory were collected three times per week during a 6-weeks period in which a sodium hypochlorite detergent (period C) was used and during a subsequent 6-weeks period of non-chlorine detergent usage (period NC). Samples were subjected to microbiological [Standard Plate Count; coliforms; coagulase-positive staphylococci; and lactic acid bacteria (LAB)] and metagenomic analysis (amplification of V3-V4 regions of 16S rRNA gene performed on Illumina MiSeq platform). In addition, cheese volatilome was determined by SPME-GC-MS. In the transition from period C to period NC, higher SPC and LAB counts in milk were recorded. Milk metagenomic analysis showed a peculiar distinctive microbiota composition for the three farms during the whole experimental period. Moreover, differences were highlighted comparing C and NC periods in each farm. A difference in microbial population related to chlorine usage in bulk milk and vat samples was evidenced. Moreover, chlorine utilization at farm level was found to affect the whey-starter population: the usually predominant Lactobacillus helveticus was significantly reduced during NC period, whereas Lactobacillus delbrueckii had the exact opposite trend. Alpha- and beta-diversity revealed a separation between the two treatment periods with a higher presence of L. helveticus, L. delbrueckii, and Streptococcus thermophilus in cheese samples after NC detergent period. Cheese volatilome analysis showed a slight decrease in lipolysis during C period in the inner part of the cheese wheel. Although preliminary, these results suggest a profound influence on milk and cheese microbiota, as well as on raw milk cheese production and quality, due to the use of chlorine. However, further studies will be needed to better understand the complex relationship between chlorine and microbiota along all the cheese production steps.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3168/jds.2020-18208</t>
-  </si>
-  <si>
     <t>In this study, high-throughput sequencing (HTS) was used to investigate the microbiota of Robiola di Roccaverano production, an artisanal Protected Designation of Origin soft cheese made with raw goat milk by addition of a natural milk starter (NMS), from the Piedmont region of Italy. Different steps of production of Robiola di Roccaverano cheese at one artisanal dairy were monitored. Matched samples of milk, NMS, curd, and 5-d and 15-d matured cheeses were collected at different periods of the year. The DNA sequences obtained by HTS belonged to 5 phyla: Proteobacteria, Firmicutes, Bacteroidetes, Actinobacteria, and Tenericutes. In milk, Proteobacteria and Firmicutes were mainly found, and several operational taxonomic units (OTU) belonging to contaminant bacteria such as Pseudomonas, Serratia, and Staphylococcus were observed. However, in NMS, curd, and 5- and 15-d cheeses, Firmicutes were principally observed where OTU of Lactococcus lactis were predominant, followed by Leuconostoc mesenteroides OTU. The results of the analysis showed high bacterial diversity in milk samples compared with NMS, curd, and 5- and 15-d cheeses, suggesting strong action of NMS in driving the characteristics of the final products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.541972</t>
-  </si>
-  <si>
     <t>Ground beef can be a reservoir for a variety of bacteria, including spoilage organisms, and pathogenic foodborne bacteria. These bacteria can exhibit antimicrobial resistance (AMR) which is a public health concern if resistance in pathogens leads to treatment failure in humans. Culture-dependent techniques are commonly used to study individual bacterial species, but these techniques are unable to describe the whole community of microbial species (microbiome) and the profile of AMR genes they carry (resistome), which is critical for getting a holistic perspective of AMR. The objective of this study was to characterize the microbiome and resistome of retail ground beef products labeled as coming from conventional or raised without antibiotics (RWA) production systems. Sixteen ground beef products were purchased from 6 retail grocery outlets in Fort Collins, CO, half of which were labeled as produced from cattle raised conventionally and half of products were from RWA production. Total DNA was extracted and isolated from each sample and subjected to 16S rRNA amplicon sequencing for microbiome characterization and target-enriched shotgun sequencing to characterize the resistome. Differences in the microbiome and resistome of RWA and conventional ground beef were analyzed using the R programming software. Our results suggest that the resistome and microbiome of retail ground beef products with RWA packaging labels do not differ from products that do not carry claims regarding antimicrobial drug exposures during cattle production. The resistome predominantly consisted of tetracycline resistance making up more than 90% of reads mapped to resistance gene accessions in our samples. Firmicutes and Proteobacteria predominated in the microbiome of all samples (69.6% and 29.0%, respectively), but Proteobacteria composed a higher proportion in ground beef from conventionally raised cattle. In addition, our results suggest that product management, such as packaging type, could exert a stronger influence on the microbiome than the resistome in consumer-ready products. Metagenomic analyses of ground beef is a promising tool to investigate community-wide shifts in retail ground beef. Importantly, however, results from metagenomic sequencing must be carefully considered in parallel with traditional methods to better characterize the risk of AMR in retail products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/s41522-020-0136-z</t>
-  </si>
-  <si>
     <t>Microbial food spoilage is responsible for a considerable amount of waste and can cause food-borne diseases in humans, particularly in immunocompromised individuals and children. Therefore, preventing microbial food spoilage is a major concern for health authorities, regulators, consumers, and the food industry. However, the contamination of food products is difficult to control because there are several potential sources during production, processing, storage, distribution, and consumption, where microorganisms come in contact with the product. Here, we use high-throughput full-length 16S rRNA gene sequencing to provide insights into bacterial community structure throughout a pork-processing plant. Specifically, we investigated what proportion of bacteria on meat are presumptively not animal-associated and are therefore transferred during cutting via personnel, equipment, machines, or the slaughter environment. We then created a facility-specific transmission map of bacterial flow, which predicted previously unknown sources of bacterial contamination. This allowed us to pinpoint specific taxa to particular environmental sources and provide the facility with essential information for targeted disinfection. For example, Moraxella spp., a prominent meat spoilage organism, which was one of the most abundant amplicon sequence variants (ASVs) detected on the meat, was most likely transferred from the gloves of employees, a railing at the classification step, and the polishing tunnel whips. Our results suggest that high-throughput full-length 16S rRNA gene sequencing has great potential in food monitoring applications.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2020.103648</t>
-  </si>
-  <si>
     <t>Shelf life of red meat is influenced by a number of intrinsic and extrinsic factors making its prediction challenging. Here we investigated the influence of geographically distant abattoir facilities and storage temperature relevant to commercial supply chain on the shelf lives of vacuum packaged (VP) beef and lamb meat. Samples of VP beef and lamb were analysed for surface pH, total viable counts, lactic acid bacterial counts, sensory properties, and associated bacterial community using Illumina MiSeq based 16S rRNA gene amplicon sequencing over a period of &gt;200 days. The consistent 0.41 pH unit difference between beef and lamb was found to have a profound effect on bacterial community diversity and composition, bacterial growth rates and the rate of loss of sensory quality. Though different community structures were derived from different abattoir source, bacterial growth rate and rate of sensory quality deterioration were found to be comparable for individual meat type. The greatest variation in rates was found resulting from storage temperature and livestock species themselves. Our findings indicate that bacterial growth and sensory quality loss are essentially predictable when considering their temperature dependency, however for successful meat export validation of shelf life predictive models is required due to stochastic variation in abattoir seeded bacterial populations.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2020.109586</t>
-  </si>
-  <si>
     <t>Residual microorganisms in dairy products are closely related to their quality deterioration and safety. Based on the minimum sterilization conditions required by Grade A Pasteurized Milk Ordinance, this study explored the microbiota present in milk products that were high temperature short time pasteurized at 72, 75, 80, 83, or 85 °C for 15 s, 20 s, and 30 s separately. Based on high-throughput sequencing results, 6 phyla and 18 genera were identified as dominant microbiota. Proteobacteria and Firmicutes were the maior bacteria in phyla, and each comprising more than 50%. Pseudomonas was account for more than 42% of all the genera detected in all samples. Moreover, the changes in flavor substances in pasteurized milk, including 16 free amino acids, 9 fatty acids, and 17 volatile compounds, were detected using principal component and multi factor analyses. The Pearson correlation coefficient analysis identified six bacteria genera as the core functional microbiota that significantly affected the flavor compounds and the safety and quality of pasteurized milk. Interestingly, Pseudomonas, Omithimimicrobium, Cyanobacteria and Corynebacterium had positive correlations with the flavor substances, whereas Streptococcus and Paeniclostridium had significant negative correlations with these substances. The results may help enhance the quality control of dairy products and can be used as indicators of microbial contamination of pasteurized dairy products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2020.109684</t>
-  </si>
-  <si>
     <t>Donkey milk has received increasing attention from consumers and dairy industry because of its nutritional value, health benefits, and proximity to human milk. Microbial diversity in donkey milk has a great impact on its quality and safety, however, microbiota in donkey milk from the major donkey-breeding regions of China have not been well documented. In this study, bacterial communities in donkey milk from Yopurga County in Western China (XJ), and Dong’e County in Eastern China (SD) were determined using high-throughput sequencing. Major phyla identified in the two donkey milk groups consistently included Acinetobacter, Proteobacteria, Firmicutes, and Bacteroidetes but with very different abundance for each phylum. Prevelence of genera was found to be diverse between the two groups, with Macrococcus and Acinetobacter dominating in the XJ samples while Streptococcus, Pseudoclavibacter, and Pseudomonas being the most abundant ones in the XJ samples. Alpha diversity analysis showed that there was significant difference in richness between the two sample groups but no difference in bacterial community diversity or coverage. The presence of possible harmful bacteria and lactic acid bacteria in donkey milk in this study provides the microbial profiles of pathogens and spoilage bacteria that need to be controlled and proposes possible utilization of beneficial microbial resources for the future.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2020.109426</t>
-  </si>
-  <si>
     <t>Traceability, quality and safety of edible insects are important both for the producers and the consumers. Today, alongside the burst of edible insects in western countries, we are facing a gap of knowledge of insect microbiota associated with the microbial ecosystems of insect-based products. In this context, High-Throughput DNA Sequencing (HTS) techniques can give insight into the carryover of insect microbiota into final food products. In this study, we investigated the microbiota composition of insect-based commercial food products, applying HTS techniques coupled with bioinformatic analysis. The work aimed to analyse the microbiota variability of different categories of some insect-based commercial food products made of A. domesticus (house cricket), T. molitor (mealworm beetle), and A. diaperinus (lesser mealworm or litter beetle), including commercial raw materials and processed food items, purchased via e-commerce from different companies. Our data revealed that samples cluster per insect species based on microbiota profile and preliminary results suggested that a small number of prevalent bacteria formed a “core microbiota” characterizing the products depending on the insect. This microbial signature can be recognized despite the different food processing levels, rearing conditions and selling companies. Furthermore, differences between raw and processed food made of the same insect or similar product produced by different companies was found. These results support the application of HTS analysis for studying the composition of insect-based commercial food products in a wider perspective, for food traceability and food quality control.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.592060</t>
-  </si>
-  <si>
     <t>Cheese maturation and flavor development results from complex interactions between milk substrates, cheese microbiota and their metabolites. In this study, bacterial 16S rRNA-gene sequencing, untargeted metabolomics (gas chromatography-mass spectrometry) and data integration analyses were used to characterize and differentiate commercial Cheddar cheeses of varying maturity made by the same and different manufacturers. Microbiota and metabolite compositions varied between cheeses of different ages and brands, and could be used to distinguish the cheeses. Individual amino acids and carboxylic acids were positively correlated with the ripening age for some brands. Integration and Random Forest analyses revealed numerous associations between specific bacteria and metabolites including a previously undescribed positive correlation between Thermus and phenylalanine and a negative correlation between Streptococcus and cholesterol. Together these results suggest that multi-omics analyses has the potential to be used for better understanding the relationships between cheese microbiota and metabolites during ripening and for discovering biomarkers for validating cheese age and brand authenticity.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2020.109369</t>
-  </si>
-  <si>
     <t>Kefir is a well-known health-promoting beverage that can be produced by using kefir grains (traditional method) or by using natural starter cultures from kefir (backslopping method). The aim of this study was to elucidate the microbial dynamics and volatilome profile occurring during kefir production through traditional and backslopping methods by using five kefir grains that were collected in Bosnia and Herzegovina. The results from conventional pour plating techniques and amplicon-based sequencing were combined. The kefir drinks have also been characterized in terms of their physico-chemical and colorimetric parameters. A bacterial shift from Lactobacillus kefiranofaciens to Acetobacter syzygii, Lactococcus lactis and Leuconostoc pseudomesenteroides from kefir grains in traditional kefir to backslopped kefir was generally observed. Despite some differences within samples, the dominant mycobiota of backslopped kefir samples remained quite similar to that of the kefir grain samples. However, unlike the lactic acid and acetic acid bacteria, the yeast counts decreased progressively from the grains to the backslopped kefir. The backslopped kefir samples showed higher protein, lactose and ash content and lower ethanol content compared to traditional kefir samples, coupled with optimal pH values that contribute to a pleasant sensory profile. Concerning the volatilome, backslopped kefir samples were correlated with cheesy, buttery, floral and fermented odors, whereas the traditional kefir samples were correlated with alcoholic, fruity, fatty and acid odors. Overall, the data obtained in the present study provided evidence that different kefir production methods (traditional vs backslopping) affect the quality characteristics of the final product. Hence, the functional traits of backslopped kefir should be further investigated in order to verify the suitability of a potential scale-up methodology for backslopping.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2020.109645</t>
-  </si>
-  <si>
     <t>The purpose of this work was to assess the effect of different packaging methods on the shelf life and bacterial communities of roast duck meat. Samples were packaged under the following five conditions: overwrapped packaging (OWP), 100% N2 (100% N2-MAP), 30% CO2/70% N2 (30% CO2-MAP), 50% CO2/50% N2 (50% CO2-MAP), and 0.4% CO/30% CO2/69.6% N2 (CO-MAP). Physicochemical and microbiological parameters were monitored during 14 days of chilled storage (0–4 °C). Results showed that MAP samples obtained higher and more stable redness, better sensory scores, and lower lipid oxidation, compared with OWP, in which CO-MAP samples had the lowest TBARS values (0.13–0.22 MDA/kg) during storage. Moreover, 30% CO2-MAP, 50% CO2-MAP, and CO-MAP effectively retarded the onset of bacterial spoilage and extended shelf life by 7 days compared with 100% N2-MAP and OWP treatments. Additionally, bacterial succession was significantly affected by the gas composition used in the packages, especially the dominant biota at the end of storage, which played an important role in the spoilage of roast duck meat under specific packaging. On day 14, Pseudoalteromonas spp., Lactobacillus spp., and Pseudomonas spp. became the most predominate genera in OWP, 100% N2-MAP, and 50% CO2-MAP, respectively. Notably, Vibrio spp. was dominant in both 30% CO2-MAP and CO-MAP, indicating 0.4% CO did not exert a further inhibitory effect on this genus. Additionally, the growth inhibition of Pseudoalteromonas spp., Lactobacillus spp., and Leuconostoc spp. by high CO2 concentration might be the reason for MAP (CO2/N2) samples having lower levels of TVC. Globally, these results indicate that 30% CO2-MAP, 50% CO2-MAP, and CO-MAP are promising packaging methods to improve roast duck meat quality and achieve shelf life extension.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109059</t>
-  </si>
-  <si>
     <t>The microbial community of ungerminated and germinated barley grains from three different cultivars grown at four different locations in Norway was investigated by culture dependent and culture independent methods. Lactic acid bacteria (LAB) was focused in this study and was isolated from germinated barley. The number of LAB ranged between 2.8 and 4.6 log cfu/g in ungerminated grains and between 4.9 and 6.3 log cfu/g in germinated grains. In total 66 out of 190 isolates were Gram+, catalase-negative and presumptive LAB. The LAB isolates were by 16S rRNA sequencing identified to be Carnobacterium maltaromaticum (6), Lactococcus lactis (2), Enterococcus sp. (1) and Leuconostoc sp. (57). Germination significantly influenced the bacterial composition. Regarding the different cultivars and growth places no significant difference in bacterial composition was seen. The most abundant bacterial genus was Pantoea (18.5% of the total sequences), followed by Rhizobium (10.1%) and Sphingomonas (9.9%). Fungal composition was significantly influenced by the germination process and the cultivation place, but no significant difference in fungal composition was detected between the 3 cultivars. The most abundant fungal genera were Cryptococcus (43.8% of all the sequences), Cladosporium (8.2%), Pyrenophora (7.4%) and Vagicola (6.3%). This study revealed knowledge of barley grain associated microbes of Norwegian barley that can be useful to control the malt quality. Germination affected both bacterial and fungal microbiota composition. No difference in bacterial microbiota composition was seen regarding cultivars and cultivation place, however, the fungal microbiota composition was significantly influenced by the cultivation place. Differences in fungal community of ungerminated and germinated barley samples of different geographical locations were more pronounced than differences in bacterial communities.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2020.103658</t>
-  </si>
-  <si>
     <t>We analysed the bacterial and yeast microbiomes found in mixed and spontaneously fermented beers (n = 14) and unpasteurised apple ciders (n = 6), using high-throughput 16S rRNA and internal transcribed spacer (ITS) sequencing. The ratio of bacteria to yeast was measured using quantitative polymerase chain reaction (qPCR), and short-chain organic acids were analysed using high-performance liquid chromatography (HPLC). An upgraded version of the Knomics-Biota system was used to analyse the data. The microbiomes included both starter microorganisms and those that originate from the production environment and the raw materials. In addition to the common Saccharomyces and Brettanomyces, the yeast diversity included many non-conventional species. The bacterial community in beer was dominated by Lactobacillus species, whereas these communities were more diverse in cider. Lactobacillus acetotolerans was prevalent in wild ales, whereas Candida ethanolica was prevalent in cask-matured beverages. We observed complex patterns of subspecies-level yeast diversity across beer styles, breweries, and countries. Our study represents an exploratory analysis of non-conventional beer and cider microbiomes and metabolomes, which contributes information necessary to develop improved quality control processes and may drive innovative product development in experimental and artisanal brewing.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.micres.2020.126593</t>
-  </si>
-  <si>
     <t>The biggest non-tree perennial plant species endemic to Mexico were called metl in the Nahua culture; during colonial times, renamed with the Antillean word maguey. Carl von Linné finally renamed them as Agave, a Greek-Latin root word meaning admirable. Since pre-Columbian times, one of the major products obtained from some Agave species is the fermented beverage called pulque or octli. This beverage represents an ancient biotechnological development obtained by the natural fermentation of mead from such plants. Pulque played a central role in Mexican pre-Columbian cultures, while in recent times, there has been a renewed interest in it, due to its high content in nutrients and probiotics. In this study, we used massive sequencing of the 16S rRNA gene and the ribosomal internal transcribed spacer (ITS) to profile the pulque microbiome. We identified 2,855 bacteria operational taxonomic units (OTUs) and 1,494 fungi species in the pulque fermentation. Our results provide the most diverse catalog of microbes during pulque production reported so far. These findings allowed us to identify previously unidentified and core microbes resilient during pulque production, with the potential to be used as fermentation stage biomarkers. We confirmed previous reports of pulque microbes and discovered new ones like the bacteria Sphingomonas and Weisella. Among fungi we found that Saccharomyces cerevisiae was second to Candida zemplina in the studied pulque samples.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2020.602404</t>
-  </si>
-  <si>
     <t>The relationship between microbiota and health has been widely reported in humans and animals. We established a link between teat cistern microbiota composition and bovine mastitis, an inflammatory disease often due to bacterial infections. To further decipher the relationships between teat cistern microbiota and immune and microbial responses, a switch from twice- to once-daily milking (ODM) in 31 initially healthy quarters of dairy cows was used to trigger an udder perturbation. In this study, a temporal relationship was reported between initial teat cistern microbiota composition and richness, the immune response to ODM, and mastitis development. Quarters with a low initial microbiota richness and taxonomic markers such as Bacteroidetes and Proteobacteria were associated with a higher rate of mastitis during ODM. Quarters with a higher richness and taxonomic markers such as Firmicutes, including the Lachnospiraceae family, and genera such as Bifidobacterium and Corynebacterium displayed early inflammation following transition to ODM but without developing mastitis (no infection). Short-term compositional shifts of microbiota indicates that microbiotas with a higher initial richness were more strongly altered by transition to ODM, with notably the disappearance of rare OTUs. Microbiota modifications were associated with an early innate immune system stimulation, which, in turn, may have contributed to the prevention of mastitis development.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3168/jds.2020-18277</t>
-  </si>
-  <si>
     <t>There is a need for standardized, efficient, and practical sampling methods to support large population-based studies of the internal and external epithelial microbiomes of the bovine udder. The primary objective of this study was to evaluate different sampling devices for the isolation of microbial DNA originating from the internal and external teat epithelium. Secondary objectives were to survey and compare the microbial diversity of external and teat canal epithelial microbiomes using amplicon and shotgun metagenomic sequencing approaches. To address these objectives, we enrolled a convenience sample of 24 Holstein dairy cows and collected samples from the external epithelium at the base of udder, the external teat barrel epithelium, the external teat apex epithelium, and the teat canal epithelium. Extracted DNA was quantified and subjected to PCR amplification of the V4 hypervariable region of the 16S rRNA gene and sequenced on the Illumina MiSeq platform (Illumina Inc., San Diego, CA). A subset of samples was subjected to a shallow shotgun metagenomic assay on the Illumina HiSeq platform. For samples collected from the external teat epithelium, we found that gauze squares consistently yielded more DNA than swabs, and Simpson's reciprocal index of diversity was higher for gauze than for swabs. The teat canal epithelial samples exhibited significantly lower diversity than the external sampling locations, but there were no significant differences in diversity between teat apex, teat barrel, and base of the udder samples. There were, however, differences in the microbial distribution and abundances of specific bacteria across external epithelial surfaces. The proportion of shotgun sequence reads classified as Bos taurus was highly variable between sampling locations, ranging from 0.33% in teat apex samples to 99.91% in teat canal samples. These results indicate that gauze squares should be considered for studying the microbiome of the external epithelium of the bovine udder, particularly if DNA yield must be maximized. Further, the relative proportion of host to non-host DNA present in samples collected from the internal and external teat epithelium should be considered when designing studies that utilize shotgun metagenomic sequencing.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109130</t>
-  </si>
-  <si>
     <t>Pélardon is an artisanal French raw goat's milk cheese, produced using natural whey as a backslop. The aim of this study was to identify key microbial players involved in the acidification and aroma production of this Protected Designation of Origin cheese. Microbial diversity of samples, collected from the raw milk to 3-month cheese ripening, was determined by culture-dependent (MALDI-TOF analysis of 2877 isolates) and -independent (ITS2 and 16S metabarcoding) approaches and linked to changes in biochemical profiles (volatile compounds and acids). In parallel, potential dominant autochthonous microorganism reservoirs were also investigated by sampling the cheese-factory environment. Complex and increasing microbial diversity was observed by both approaches during ripening although major discrepancies were observed regarding Lactococcus lactis and Lacticaseibacillus paracasei fate. By correlating microbial shifts to biochemical changes, Lactococcus lactis was identified as the main acidifying bacterium, while L. mesenteroides and Geotrichum candidum were prevalent and associated with amino acids catabolism after the acidification step. The three species were dominant in the whey (backslop). In contrast, L. paracasei, Enterococcus faecalis, Penicillium commune and Scopulariopsis brevicaulis, which dominated during ripening, likely originated from the cheese-making environment. All these four species were positively correlated to major volatile compounds responsible for the goaty and earthy Pélardon cheese aroma. Overall, this work highlighted the power of MALDI-TOF and molecular techniques combined with volatilome analyses to dynamically follow and identify microbial communities during cheese-making and successively identify the key-players involved in aroma production and contributing to the typicity of Pélardon cheese.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2020.109030</t>
-  </si>
-  <si>
     <t>Currently, there is a strong interest in barrel ageing of finished, conventionally fermented beers, as a novel way to produce sour beers with a rich and complex flavour profile. The production process, however, remains largely a process of trial and error, often resulting in profit losses and inconsistency in quality. To improve product quality and consistency, a better understanding of the interactions between microorganisms, wood and maturing beer is needed. The aim of this study was to describe the temporal dynamics in microbial community composition, beer chemistry and sensory characteristics during barrel ageing of three conventionally fermented beers that differed in parameters like alcohol content and bitterness. Beers were matured for 38 weeks in new (two types of wood) and used (one type of wood) oak barrels. Beer samples were taken at the start of the maturation and after 2, 12 and 38 weeks. Microbial community composition, determined using amplicon sequencing of the V4 region of the bacterial 16S rRNA gene and the fungal ITS1 region, beer chemistry and sensory characteristics substantially changed throughout the maturation process. Likewise, total bacterial and fungal population densities generally increased during maturation. PerMANOVA revealed significant differences in the bacterial and fungal community composition of the three beers and across time points, but not between the different wood types. By contrast, significant differences in beer chemistry were found across the different beers, wood types and sampling points. Results also indicated that the outcome of the maturation process likely depends on the initial beer properties. Specifically, results suggested that beer bitterness may restrain the bacterial community composition, thereby having an impact on beer souring. While the bacterial community composition of moderately-hopped beers shifted to a dominance of lactic acid bacteria, the bacterial community of the high-bitterness beer remained fairly constant, with low population densities. Bacterial community composition of the moderate-bitterness beers also resembled those of traditional sours like lambic beers, hosting typical lambic brewing species like Pediococcus damnosus, Lactobacillus brevis and Acetobacter sp. Furthermore, results suggested that alcohol level may have affected the fungal community composition and extraction of wood compounds. More specifically, the concentration of wood compounds like cis-3-methyl-4-octanolide, trans-3-methyl-4-octanolide, eugenol and total polyphenols was higher in beers with a high alcohol content. Altogether, our results provide novel insights into the barrel ageing process of beer, and may pave the way for a new generation of sour beers.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.meatsci.2020.108348</t>
-  </si>
-  <si>
     <t>A high-throughput sequencing approach was used to investigate the bacterial community diversity of traditional Tibetan yak jerky, which was collected from three different regions in Tibet and with different natural drying times. Tibetan yak jerky from different regions had different bacterial communities, which was mainly reflected in the relative abundance levels of unclassified Cyanobacteria, Psychrobacter and Acinetobacter. The unclassified Cyanobacteria was the dominant genus of Qamdo yak jerky, Acinetobacter was the dominant genus of Shigatse yak jerky, and Psychrobacteria was the dominant genus of Nyingchi yak jerky. With increasing natural drying time, the diversity of bacterial communities in yak jerky decreased, and unclassified Cyanobacteria become the dominant genus. Spearman's correlation analysis and canonical correspondence analysis revealed that physicochemical factors (moisture content, water activity, shear force and pH) were significantly correlated with bacterial community. Our results will be beneficial to improve and standardize the safety and quality of traditional Tibetan yak jerky.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/aem.01861-20</t>
-  </si>
-  <si>
     <t>Microbial complexity and contamination levels in food processing plants heavily impact the final product fate and are mainly controlled by proper environmental cleaning and sanitizing. Among the emerging disinfection technologies, ozonation is considered an effective strategy to improve the ordinary cleaning and sanitizing of slaughterhouses. However, its effects on contamination levels and environmental microbiota still need to be understood. For this purpose, we monitored the changes in microbiota composition in different slaughterhouse environments during the phases of cleaning/sanitizing and ozonation at 40, 20, or 4 ppm. Overall, the meat processing plant microbiota differed significantly between secondary processing rooms and deboning rooms, with a greater presence of psychrotrophic taxa in secondary processing rooms because of their lower temperatures. Cleaning/sanitizing procedures significantly reduced the contamination levels and in parallel increased the number of detectable operational taxonomic units (OTUs), by removing the masking effect of the most abundant human/animal-derived OTUs, which belonged to the phylum Firmicutes. Subsequently, ozonation at 40 or 20 ppm effectively decreased the remaining viable bacterial populations. However, we could observe selective ozone-mediated inactivation of psychrotrophic bacteria only in the secondary processing rooms. There, the Brochothrix and Pseudomonas abundances and their viable counts were significantly affected by 40 or 20 ppm of ozone, while more ubiquitous genera like Staphylococcus showed a remarkable resistance to the same treatments. This study showed the effectiveness of highly concentrated gaseous ozone as an adjunct sanitizing method that can minimize cross-contamination and so extend the meat shelf life. IMPORTANCE Our in situ survey demonstrates that RNA-based sequencing of 16S rRNA amplicons is a reliable approach to qualitatively probe, at high taxonomic resolution, the changes triggered by new and existing cleaning/sanitizing strategies in the environmental microbiota in human-built environments. This approach could soon represent a fast tool to clearly define which routine sanitizing interventions are more suitable for a specific food processing environment, thus limiting the costs of special cleaning interventions and potential product loss.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/s41598-020-77054-6</t>
-  </si>
-  <si>
     <t>The importance of the microbiome for bovine udder health is not well explored and most of the knowledge originates from research on mastitis. Better understanding of the microbial diversity inside the healthy udder of lactating cows might help to reduce mastitis, use of antibiotics and improve animal welfare. In this study, we investigated the microbial diversity of over 400 quarter milk samples from 60 cows sampled from two farms and on two different occasions during the same lactation period. Microbiota analysis was performed using amplicon sequencing of the 16S rRNA gene and over 1000 isolates were identified using MALDI-TOF MS. We detected a high abundance of two bacterial families, Corynebacteriaceae and Staphylococcaceae, which accounted for almost 50% of the udder microbiota of healthy cows and were detected in all the cow udders and in more than 98% of quarter milk samples. A strong negative correlation between these bacterial families was detected indicating a possible competition. The overall composition of the udder microbiota was highly diverse and significantly different between cows and between quarter milk samples from the same cow. Furthermore, we introduced a novel definition of a dysbiotic quarter at individual cow level, by analyzing the milk microbiota, and a high frequency of dysbiotic quarter samples were detected distributed among the farms and the samples. These results emphasize the importance of deepening the studies of the bovine udder microbiome to elucidate its role in udder health.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.616429</t>
-  </si>
-  <si>
     <t>Introduction of microbial contaminations in the dairy value chain starts at the farm level and the initial microbial composition may severely affect the production of high-quality dairy products. Therefore, understanding the farm-to-farm variation and longitudinal shifts in the composition of the bulk tank milk microbiota is fundamental to increase the quality and reduce the spoilage and waste of milk and dairy products. In this study, we performed a double experiment to study long- and short-term longitudinal shifts in microbial composition using 16S rRNA gene amplicon sequencing. We analyzed milk from 37 farms, that had also been investigated two years earlier, to understand the stability and overall microbial changes over a longer time span. In addition, we sampled bulk tank milk from five farms every 1–2 weeks for up to 7 months to observe short-term changes in microbial composition. We demonstrated that a persistent and farm-specific microbiota is found in bulk tank milk and that changes in composition within the same farm are mostly driven by bacterial genera associated with mastitis (e.g., Staphylococcus and Streptococcus). On a long-term, we detected that major shift in milk microbiota were not correlated with farm settings, such as milking system, number of cows and quality of the milk but other factors, such as weather and feeding, may have had a greater impact on the main shifts in composition of the bulk tank milk microbiota. Our results provide new information regarding the ecology of raw milk microbiota at the farm level.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.lwt.2021.110877</t>
-  </si>
-  <si>
     <t>Shubat (fermented camel milk beverage) and Ayran (yogurt) are popular traditional fermented milk products in Kazakhstan. However, the natural microbial diversity in these fermented dairy products is not well studied. In this study, we paired high-throughput sequencing with the traditional culture-dependent method to evaluate the bacterial diversity in these two fermented milk products. A total of 137 operational taxonomic units were obtained from Shubat and Ayran samples, by using 16S rRNA gene sequencing. The three most abundant operational taxonomic units were of the Lactobacillus and Streptococcus genera. In the 55 bacterial strains isolated through the culture-dependent method, the dominant species belonged to Leuconostoc and Enterococcusgenera. Moreover, probiotic properties, such as acid tolerance, bile salt tolerance, and antibiotic resistance of 26 selected lactic acid bacteria were also tested. Eight strains showed excellent survival rates under acidic pH or bile salt stress and were susceptible to the antibiotics used in the experiment. This is the first systematic study to identify the indigenous strains and natural bacterial diversity in Shubat and Ayran. We expect our results to facilitate the commercial production and quality control of these milk products.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.642789</t>
-  </si>
-  <si>
     <t>Unpasteurized milk is used to produce aged artisanal cheeses, which presents a safety concern due to possible contamination with foodborne pathogens, especially Listeria monocytogenes. The objective of this study was to examine the composition of the bacterial community in unpasteurized milk used to prepare Gouda cheese artificially contaminated with L. monocytogenes (~1 log CFU/ml) and assess the community dynamics and their potential interaction with L. monocytogenes during a 90-day ripening period using targeted 16S rRNA sequencing. The diversity of bacterial taxa in three batches of unpasteurized milk was not significantly different, and the microbiomes were dominated by species of Lactococcus, Streptomyces, Staphylococcus, and Pseudomonas. The highest relative abundances were observed for Pseudomonas fluorescens (31.84–78.80%) and unidentified operational taxonomic units (OTUs) of Pseudomonas (7.56–45.27%). After manufacture, both with and without L. monocytogenes-contaminated unpasteurized milk, Gouda cheese was dominated by starter culture bacteria (including Lactococcus lactis subsp. cremoris, lactis, lactis bv. diacetylactis, and Streptococcus thermophilus), in addition to unassigned members in the taxa L. lactis and Streptococcus. During ripening there was an overall decrease in L. lactis abundance and an increase in the number of taxa with relative abundances &gt;0.1%. After 90-day ripening, a total of 82 and 81 taxa were identified in the Gouda cheese with and without L. monocytogenes, respectively. Of the identified taxa after ripening, 31 (Gouda cheese with L. monocytogenes) and 56 (Gouda cheese without L. monocytogenes) taxa had relative abundances &gt;0.1%; 31 were shared between the two types of Gouda cheese, and 25 were unique to the Gouda cheese without added L. monocytogenes. No unique taxa were identified in the Gouda cheese with the added L. monocytogenes. This study provides information on the dynamics of the bacterial community in Gouda cheese during ripening, both with and without the addition of L. monocytogenes.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/s41598-021-81105-x</t>
-  </si>
-  <si>
     <t>The microbial community during fermented vegetable production has a large impact on the quality of the final products. Lactic acid bacteria have been well-studied in such processes, but knowledge about the roles of non-lactic acid bacteria is limited. This study aimed to provide useful knowledge about the relationships between the microbiota, including non-lactic acid bacteria, and metabolites in commercial pickle production by investigating Japanese pickles fermented in rice-bran. The samples were provided by six manufacturers, divided into two groups depending on the production conditions. The microbiological content of these samples was investigated by high-throughput sequencing, and metabolites were assessed by liquid chromatography-mass spectrometry and enzymatic assay. The data suggest that Halomonas, halophilic Gram-negative bacteria, can increase glutamic acid content during the pickling process under selective conditions for bacterial growth. In contrast, in less selective conditions, the microbiota consumed glutamic acid. Our results indicate that the glutamic acid content in fermented pickle is influenced by the microbiota, rather than by externally added glutamic acid. Our data suggest that both lactic acid bacteria and non-lactic acid bacteria are positive key factors in the mechanism of commercial vegetable fermentation and affect the quality of pickles.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.681185</t>
-  </si>
-  <si>
     <t>Cheese ripening is effected by various microorganisms and results in the characteristic flavors of cheese. Owing to the complexity of the microbiota involved, the relationship between microorganisms and components during ripening remains unclear. In this study, metagenomics and metabolomics were integrated to reveal these relationships in three kinds of surface mold-ripened cheeses and two kinds of bacterial smear-ripened cheeses. The microbiota is broadly divided into two groups to correspond with different cheese types. Furthermore, surface mold-ripened cheese showed similar microbiota regardless of the cheese variety, whereas bacterial smear-ripened cheese showed specific microbiota characterized by marine bacteria (MB) and halophilic and alkaliphilic lactic acid bacteria for each cheese variety. In the metabolite analysis, volatile compounds suggested differences in cheese types, although organic acids and free amino acids could not determine the cheese characteristics. On the other hand, Spearman correlation analysis revealed that the abundance of specific bacteria was related to the formation of specific organic acids, free amino acids, and volatile compounds. In particular, MB was positively correlated with esters and pyrazines, indicating their contribution to cheese quality. These methodologies and results further our understanding of microorganisms and allow us to select useful strains for cheese ripening.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodcont.2021.108160</t>
-  </si>
-  <si>
     <t>Bovine milk is highly nutritious, so it creates an ideal environment for the growth of microorganisms. Contamination of milk with microorganisms contributes to overall bacterial composition and has a great influence on the acidification and deterioration of milk. As dairy production and consumption have increased over the past decade, the microbial composition of milk has gained attention. In Korea, milk and milk products are rapidly gaining popularity, but studies of the bacterial composition in milk from Korean farms are limited. In the present study, we performed metagenomic analysis with high-throughput sequencing of DNA to identify bacteria in raw milk collected from 40 dairy farms in 4 different provinces in Korea: Gyeonggi-do, Chungcheong-do, Jeolla-do, and Gyeongsang-do. Representative milk bacterial communities including Proteobacteria, Firmicutes, Bacteroidetes, and Actinobacteria formed the core milk microbiota at the phylum level, and Pseudomonas was found to have the greatest provincial variation at the genus level. In addition, we determined the prevalence of spore-forming bacteria using two independent methods of culturomic analysis by MALDI-TOF and next generation sequencing of 16S rRNA genes, and Bacillus thermoamylovorans was identified to account for the largest proportion. We further confirmed that B. thermoamylovorans was able to survive in dairy products and potentially toxigenic using lab cheese model study and Caenorhabditis elegans as a simple host model. Our result clearly shows that specific provinces have distinct proportions of bacteria that may cause spoilage, suggesting specified farm environment management practices depending on the region. These findings can help Korean dairy farms produce safe, high-quality dairy products and develop new sanitation procedures as well as processing controls.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.678012</t>
-  </si>
-  <si>
     <t>This study focused on the microbial and bacteriophages identification and characterization in cheese-production facilities that use natural whey starter (NWS) cultures for Trentingrana production. Bacterial and phage screening was carried out on cooked not acidified whey and NWS samples isolated from six dairy factories, for 4 consecutive days in four different months. By means of a combined approach, using plate counts, bacterial isolation, and metataxonomic analysis Lactobacillus helveticus was found occurring as the dominant species in NWS cultures and Levilactobacillus brevis as codominant in the cheese factories where the temperature of NWS production was mainly lower than 40°C, suggesting that the variability in the parameters of the NWS culture preparation could differently modulate the bacterial species in NWS cultures. Using turbidity test approach on 303 bacterial isolates from the NWS cultures, 120 distinct phages were identified. L. helveticus phage contamination of NWS cultures was revealed in most of the analyzed samples, but despite the great recovery of bacteriophage contamination cases, the microbial quality of NWS cultures was high. Our results support the presence of natural bacteriophage resistance mechanisms in L. helveticus. The use of NWS cultures probably creates an ideal environment for the proliferation of different L. helveticus strains balanced with their phages without a clear dominance. It is evident, from this study, that the presence of a high biodiversity of NWS bacterial strains is relevant to avoid phages dominance in NWS cultures and consequently to keep a good acidification ability.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3168/jds.2021-20123</t>
-  </si>
-  <si>
     <t>Époisses is a protected designation of origin smear-ripened cheese from the Burgundy region in France. It has an orange color and a strong flavor, both of which are generated by surface microorganisms. The objective of the present study was to investigate the microbial dynamics at the surface of Époisses cheese during ripening and postmanufacturing storage at low temperatures. Rind samples were analyzed by enumeration on agar plates and by 16S rRNA gene and internal transcribed spacer amplicon sequencing. During most of the ripening process, the counts of yeasts, which corresponded to the species Debaryomyces hansenii and Geotrichum candidum, were higher than those of the aerobic acid-sensitive bacteria. Debaryomyces hansenii reached a level of about 3 × 108 cfu/cm2, and its viability strongly decreased in the late stage of ripening and during storage at 4°C. Two of the inoculated bacterial species, Brevibacterium aurantiacum and Staphylococcus xylosus, did not establish themselves at the cheese surface. At the end of ripening, among the 18 most abundant bacterial species detected by amplicon sequencing, 14 were gram-negative, mainly from genera Psychrobacter, Vibrio, Halomonas, and Mesonia. It was hypothesized that the high moisture level of the Époisses rinds, due the humid atmosphere of the ripening rooms and to the frequent washings of the curds, favored growth of these gram-negative species. These species may be of interest for the development of efficient ripening cultures. In addition, because the orange color of Époisses cheeses could not be attributed to the growth of Brevibacterium, it would be interesting to investigate the type and origin of the pigments that confer color to this cheese.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/1462-2920.15407</t>
-  </si>
-  <si>
     <t>Questionnaires on farming conditions were retrieved from 2129 dairy farms and clustered, resulting in 106 representative raw cow's milk samples analysed in winter and summer. Substantiating the efficiency of our survey, some farming conditions affected the milk physicochemical composition. Culturing identified several species of lactic acid bacteria (LAB) per milk, whose number increased through 16S ribosomal RNA (rRNA) gene sequencing and shotgun metagenome analyses. Season, indoor versus outdoor housing, cow numbers, milk substitutes, ratio cattle/rest area, house care system during lactation, and urea and medium-chain fatty acids correlated with the overall microbiome composition and the LAB diversity within it. Shotgun metagenome detected variations in gene numbers and uniqueness per milk. LAB functional pathways differed among milk samples. Focusing on amino acid metabolisms and matching the retrieved annotated genes versus non-starter lactic acid bacteria (NSLAB) references from KEGG and corresponding to those identified, all samples had the same gene spectrum for each pathway. Conversely, gene redundancy varied among samples and agreed with NSLAB diversity. Milk samples with higher numbers of NSLAB species harboured higher number of copies per pathway, which would enable steady-state towards perturbations. Some farming conditions, which affected the microbiome richness, also correlated with the NSLAB composition and functionality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2021.103754</t>
-  </si>
-  <si>
     <t>The microbial composition of the food production environment plays an important role in food safety and quality. This study employed both 16 S rRNA gene sequencing technology and culture-based techniques to investigate the bacterial microbiota of an egg production facility comprising of both free-range and conventional cage housing systems. The study also aimed to detect the presence of Salmonella enterica and determine whether its presence was positively or negatively associated with other taxa. Our findings revealed that microbiota profiles of free-range and cage houses differ considerably in relation to the relative abundance and diversity with a number of taxa unique to each system and to individual sampling sites within sheds. Core to each housing system were known inhabitants of the poultry gastrointestinal tracts, Romboutsia and Turicibacter, as well as common spoilage bacteria. Generally, free-range samples contained fewer taxa and were dominated by Staphylococcus equorum, differentiating them from the cage samples. Salmonella enterica was significantly associated with the presence of a taxa belonging to the Carnobacteriaceae family. The results of this study demonstrate that the diversity and composition of the microbiota is highly variable across egg layer housing systems, which could have implications for productivity, food safety and spoilage.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.689520</t>
-  </si>
-  <si>
     <t>Oysters are one of the main aquatic products sold in coastal areas worldwide and are popular among consumers because of their delicious taste and nutritional value. However, the microorganisms present in oysters may pose health risks to consumers. In this study, the microbial communities of Pacific oysters (Crassostrea gigas) collected from aquatic product markets in three cities (Guangzhou, Zhuhai, and Jiangmen) of Guangdong Province, China, where raw oysters are popular, were investigated. The plate counts of viable bacteria in oysters collected in the three cities were all approximately 2 log colony-forming units/g. High-throughput sequencing analysis of the V3–V4 region of the 16Sribosomal DNA gene showed a high level of microbial diversity in oysters, as evidenced by both alpha and beta diversity analysis. Proteobacteria, Bacteroidetes, and Firmicutes were the dominant phyla of the microorganisms present in these samples. A variety of pathogenic bacteria, including the fatal foodborne pathogen Vibrio vulnificus, were found, and Vibrio was the dominant genus. Additionally, the relationship between other microbial species and pathogenic microorganisms may be mostly symbiotic in oysters. These data provide insights into the microbial communities of retail oysters in the Guangdong region and indicate a considerable risk related to the consumption of raw oysters.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.621069</t>
-  </si>
-  <si>
     <t>Kefir is a high nutritional fermented dairy beverage associated with a wide range of health benefits. It constitutes a unique symbiotic association, comprising mainly lactic acid bacteria, yeasts, and occasionally acetic acid bacteria, which is strongly influenced by the geographical origin of the grains, the type of milk used, and the manufacture technology applied. Until recently, kefir microbiota has been almost exclusively studied by culture-dependent techniques. However, high-throughput sequencing, alongside omics approaches, has revolutionized the study of food microbial communities. In the present study, the bacterial, and yeast/fungal microbiota of four home-made samples (both grains and drinks), deriving from well spread geographical regions of Greece, and four industrial beverages, was elucidated by culture-dependent and -independent analyses. In all samples, classical microbiological analysis revealed varying populations of LAB and yeasts, ranging from 5.32 to 9.60 log CFU mL–1 or g–1, and 2.49 to 7.80 log CFU mL–1 or g–1, respectively, while in two industrial samples no yeasts were detected. Listeria monocytogenes, Salmonella spp. and Staphylococcus spp. were absent from all the samples analyzed, whereas Enterobacteriaceae were detected in one of them. From a total of 123 isolates, including 91 bacteria and 32 yeasts, Lentilactobacillus kefiri, Leuconostoc mesenteroides, and Lactococcus lactis as well as Kluvyeromyces marxianus and Saccharomyces cerevisiae were the mostly identified bacterial and yeast species, respectively, in the home-made samples. On the contrary, Streptococcus thermophilus, Lactobacillus delbrueckii subsp. bulgaricus, and Lacticaseibacillus rhamnosus along with Debaryomyces hansenii and K. marxianus were the main bacterial and yeast species, respectively, isolated from the industrial beverages. In agreement with the identification results obtained from the culture-dependent approaches, amplicon-based metagenomics analysis revealed that the most abundant bacterial genera in almost all home-made samples (both grains and drinks) were Lactobacillus and Lactococcus, while Saccharomyces, Kazachstania, and Kluvyeromyces were the predominant yeasts/fungi. On the other hand, Streptococcus, Lactobacillus, and Lactococcus as well as Kluvyeromyces and Debaryomyces dominated the bacterial and yeast/fungal microbiota, respectively, in the industrial beverages. This is the first report on the microbiota of kefir produced in Greece by a holistic approach combining classical microbiological, molecular, and amplicon-based metagenomics analyses.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/microorganisms9030561</t>
-  </si>
-  <si>
     <t>Aloreña de Málaga is a table olive especially characterised by its natural freshness and short shelf-life. In this work, we applied a metataxonomic approach to unravel the microbial diversity of bacterial and fungi populations through the shelf-life of traditionally packed Aloreña de Málaga. A significant increase in lactic acid bacteria and mesophilic aerobic populations was observed during shelf-life, reaching the maximum population levels (4–5 log10 CFU) at the end of the study (260 days). On the contrary, a rapid reduction in yeast and mould populations was reported. The use of a metataxonomic analysis based on the amplification of 16S (bacteria) and internal transcribed spacer (ITS) region (fungi) regions revealed a low diversity for both microbial groups. Lactiplantibacillus (65.05 ± 8.65% in brine vs. 58.70 ± 15.70% in fruit), Pediococcus (28.17 ± 7.36% in brine vs. 27.20 ± 15.95% in fruit), and Celerinatantimonas (4.64 ± 1.08% in brine vs. 11.82 ± 18.17% in fruit) were the main genera found among bacteria, and an increase in Lactiplantibacillus and a reduction in Celerinatantimonas populations during the shelf-life were observed. On the other hand, Citeromyces was the dominant fungi genus (54.11 ± 2.00% in brine vs. 50.91 ± 16.14% in fruit), followed by Candida (8.80 ± 2.57% in brine vs. 12.32 ± 8.61% in fruit) and Penicillium (6.48 ± 1.87% vs. 8.48 ± 4.43% in fruit). No food-borne pathogen genera were detected in any of the samples analysed, indicating the high level of food safety found in this ready-to-eat fermented vegetable. Data obtained in this work will help in the design of new strategies for the control of microbial populations during the shelf-life of Aloreña de Málaga.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodcont.2021.108286</t>
-  </si>
-  <si>
     <t>Olives are among the main components of the Mediterranean diet, rich in micronutrients and powerful antioxidants; their unique organoleptic properties and high nutritional value have increased table olive consumption worldwide. The purpose of this work was to study the microbiological and biochemical changes in Greek-style ‘Kalamata’ table olives, throughout different time-points of the shelf life of the product, packaged under modified atmosphere. Results revealed the prevalence of lactic acid bacteria (Lactobacillus spp.) from T0 and after the end of the product's shelf life, with L. parafarraginis being the dominant species, ranging from 37.8% to 49.8%. Concerning the eukaryotic populations, antagonistic interactions were observed among the dominant genera i.e. Pichia, Cladosporium and Saccharomyces. While Candida pseudolambica was the most abundant species up to T6, it was gradually displaced by Brettanomyces custersianus at T12 and T18. The significant decrease of total phenol content and a-tocopherol at T12, reflected the increment of Lactobacillus and yeast populations. The dominance of Lactobacillus spp. And B. custersianus at T18 was also depicted on the significant increase of hydroxytyrosol. The content of some fatty acids was shown to be affected by the yeast populations while the concentration of maslinic and oleanolic acid remained intact throughout storage. The combined approach of amplicon metabarcoding and biochemical analyses of naturally fermented olives packaged under modified atmosphere, enabled us to better understand the microbial competitions and interactions and the biochemical changes that accompany these transitions, hence, defining the quality of the end product offered to the consumer.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1007/s00284-021-02367-2</t>
-  </si>
-  <si>
     <t>Maize meal was allowed to undergo uncontrolled fermentation in the laboratory, in simulation of the traditional method of fermentation as practised in most African households. During the fermentation process, samples were collected daily for 11 days. Physico-chemical analysis of the fermenting slurry and metagenomics analysis of the microbial community using 16S rRNA demonstrated an interrelationship between the changes in the properties of the fermentation environment and the successional interplay of the microbial community. The first 24 h of fermentation at pH of 6.5 was characterised by the proliferation of probiotic Lactobacillus and Bifidobacterium, with their relative abundance being 40.7% and 29.9%, respectively. However, prolonged fermentation and a drop in pH from 5.3 to 3.7 caused a decline and finally an absence of these probiotic bacteria which were replaced by Clostridium spp. with a relative abundance of between 97% and 99% from day 5 to day 11. This study demonstrated that prolonged fermentation of maize meal is not ideally suited for the proliferation of probiotic nutritionally beneficial bacteria.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.644828</t>
-  </si>
-  <si>
     <t>A primary goal of modern cheese manufacturing is consistent product quality. One aspect of product quality that remains poorly understood is the variability of microbial subpopulations due to temporal or facility changes within cheese production environments. Therefore, our aim was to quantify this variability by measuring day-day and facility-facility changes in the cheese facility microbiome. In-process product (i.e., milk and cheese) and food-contact surfaces were sampled over the course of three production days at three cheese manufacturing facilities. Microbial communities were characterized using 16S rRNA metabarcoding and by plating on selective growth media. Each facility produced near-identical Cheddar cheese recipes on near-identical processing equipment during the time of sampling. Each facility also used a common pool of Lactococcus starter cultures which were rotated daily as groups of 4–5 strains and selected independently at each facility. Diversity analysis revealed significant facility-facility and day-day differences at each sample location. Facility differences were greatest on the food contact surfaces (i.e., draining-matting conveyor belts), explaining between 25 and 41% of the variance. Conversely, daily differences within each facility explained a greater proportion of the variance in the milk (20% vs. 12%) and cheese (29% vs. 20%). Further investigation into the sources of these differences revealed the involvement of several industrially relevant bacteria, including lactobacilli, which play a central role in flavor and texture development during Cheddar cheese ripening. Additionally, Streptococcus was found to contribute notably to differences observed in milk samples, whereas Acinetobacter, Streptococcus, Lactococcus, Exiguobacterium, and Enterobacteriaceae contributed notably to differences on the food contact surfaces. Facility differences in the cheese were overwhelmingly attributed to the rotation of Lactococcus starter cultures, thus highlighting circumstances where daily microbial shifts could be misinterpreted and emphasizing the importance of repeated sampling over time. The outcomes of this work highlight the complexity of the cheese facility microbiome and demonstrate daily and facility-facility microbial variations which might impact cheese product quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2021.109322</t>
-  </si>
-  <si>
     <t>During spontaneous meat fermentation, diverse microbial communities develop over time. These communities consist mainly of lactic acid bacteria (LAB) and coagulase-negative staphylococci (CNS), of which the species composition is influenced by the fermentation temperature and the level of acidification. Recent development and application of amplicon-based high-throughput sequencing (HTS) methods have allowed to gain deeper insights into the microbial communities of fermented meats. The aim of the present study was to investigate the effect of different fermentation temperatures and acidification profiles on the CNS communities during spontaneous fermentation, using a previously developed amplicon-based HTS method targeting both the 16S rRNA and tuf genes. Spontaneous fermentations were performed with five different lots of meat to assess inter-lot variability. The process influence was investigated by fermenting the meat batters for seven days at different fermentation temperatures (23 °C, 30 °C, and 37 °C) and in the absence or presence of added glucose to simulate different acidification levels. Additionally, the results were compared with a starter culture-initiated fermentation process. The data revealed that the fermentation temperature was the most influential processing condition in shaping the microbial communities during spontaneous meat fermentation processes, whereas differences in pH were only responsible for minor shifts in the microbial profiles. Furthermore, the CNS communities showed a great level of variability, which depended on the initial microbial communities present and their competitiveness.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.662957</t>
-  </si>
-  <si>
     <t>Cyprus traditional sausages from the Troodos mountainous region of Pitsilia gained the protected geographical indication (PGI) designation from the European Committee (EU 2020/C 203/06). Still, we lack authentication protocols for the distinction of “Pitsilia” from industrially produced Cyprus sausages. Microbial activity is an essential contributor to traditional sausages’ sensorial characteristics, but whether the microbial patterns might be associated with the area of production is unclear. In the present research, we applied high-throughput sequencing (HTS) to provide a linkage between the area of production and Cyprus sausages’ bacterial diversity. To strengthen our findings, we used three different DNA extraction commercial kits: (i) the DNeasy PowerFood Microbial Kit (QIAGEN); (ii) the NucleoSpin Food Kit (MACHEREY-NAGEL); and (iii) the blackPREP Food DNA I Kit (Analytik Jena), in which we applied three different microbial cell wall lysis modifications. The modifications included heat treatment, bead beating, and enzymatic treatment. Results regarding metagenomic sequencing were evaluated in terms of number of reads, alpha diversity indexes, and taxonomic composition. The efficacy of each method of DNA isolation was assessed quantitatively based on the extracted DNA yield and the obtained copy number of (a) the 16S rRNA gene, (b) the internal transcribed spacer (ITS) region, and (c) three Gram-positive bacteria that belong to the genera Latilactobacillus (formerly Lactobacillus), Bacillus, and Enterococcus via absolute quantification using qPCR. Compared with some examined industrial sausages, Pitsilia sausages had significantly higher bacterial alpha diversity (Shannon and Simpson indexes). Principal coordinates analysis separated the total bacterial community composition (beta diversity) of the three Pitsilia sausages from the industrial sausages, with the exception of one industrial sausage produced in Pitsilia, according to the manufacturer. Although the eight sausages shared the abundant bacterial taxa based on 16S rDNA HTS, we observed differences associated with bacterial diversity representation and specific genera. The findings indicate that the microbial communities may be used as an additional tool for identifying of the authenticity of Cypriot sausages.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/microorganisms9061223</t>
-  </si>
-  <si>
     <t>Although refrigeration and modified-atmosphere packaging (MAP) allow for an extended shelf life of cooked charcuterie products, they are still susceptible to bacterial spoilage. To obtain better insights into factors that govern product deterioration, ample information is needed on the associated microbiota. In this study, sliced MAP cooked ham and cooked chicken samples were subjected to culture-dependent and culture-independent microbial analysis. In total, 683 bacterial isolates were obtained and identified from 60 samples collected throughout the storage period. For both charcuterie types, lactic acid bacteria (LAB) constituted the most abundant microbial group. In cooked ham, Brochothrix thermosphacta was highly abundant at the beginning of the shelf-life period, but was later overtaken by Leuconostoc carnosum and Lactococcus piscium. For cooked chicken products, Latilactobacillus sakei was most abundant throughout the entire period. Additionally, 13 cooked ham and 16 cooked chicken samples were analyzed using metabarcoding. Findings obtained with this method were generally in accordance with the results from the culture-dependent approach, yet they additionally demonstrated the presence of Photobacterium at the beginning of the shelf-life period in both product types. The results indicated that combining culture-dependent methods with metabarcoding can give complementary insights into the evolution of microorganisms in perishable foods.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1007/s00248-021-01709-8</t>
-  </si>
-  <si>
     <t>Cantaloupe melons, which have been responsible of an increasing number of foodborne disease outbreaks, may become contaminated with microbial pathogens during production. However, little information is available on the microbial populations in the cantaloupe farm environment. The purpose of this work was to characterize the bacterial communities present on cantaloupe farms. Fruit, soil, and harvester hand rinsates were collected from two Mexican cantaloupe farms, each visited three times. Microbiome analysis was performed by sequencing 16sRNA and analyzed using qiime2 software. Correlations were determined between sample type and microbial populations. The α and β diversity analysis identified 2777 sequences across all samples. The soil samples had the highest number and diversity of unique species (from 130 to 1329 OTUs); cantaloupe (from 112 to 205 OTUs), and hands (from 67 to 151 OTUs) had similar diversity. Collectively, Proteobacteria was the most abundant phyla (from 42 to 95%), followed by Firmicutes (1–47%), Actinobacteria (&lt; 1 to 23%), and Bacteroidetes (&lt; 1 to 4.8%). The most abundant genera were Acinetobacter (20–58%), Pseudomonas (14.5%), Erwinia (13%), and Exiguobacterium (6.3%). Genera with potential to be pathogenic included Bacillus (4%), Salmonella (0.85%), Escherichia-Shigella (0.38%), Staphylococcus (0.32%), Listeria (0.29%), Clostridium (0.28%), and Cronobacter (0.27%), which were found at lower frequencies. This study provides information on the cantaloupe production microbiome, which can inform future research into critical food safety issues such as antimicrobial resistance, virulence, and genomic epidemiology.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1021/acs.jafc.1c01607</t>
-  </si>
-  <si>
     <t>Microbiomes can greatly affect the quality of fermented food and beverages, including tea. In this study, microbial populations were characterized during black and green tea manufacturing, revealing that tea processing steps can drive both the bacterial and fungal community structure. Tea leaves were found to mostly harbor Proteobacteria, Bacteriodetes, Firmicutes, and Actinobacteria among bacteria and Ascomycetes among fungi. During processing, tea microbial populations changed especially between sterilized and unsterilized samples. The surface sterilization of fresh leaves before processing can remove many microbes, especially the bacteria of the genera Sphingomonas and Methylobacteria, indicating that these are mostly phylloplane microbes on tea leaves. The surface sterilization removed most fungi, except the Debaryomyces. We also observed a fluctuation in the content of several tea quality-related metabolites during processing. Caffeine and theanine were found in the same quantities in green tea with or without leaf surface sterilization. However, the sterilization process dramatically decreased the content of total catechins and theanine in black tea, indicating that microbes on the surface of tea leaf may be involved in maintaining the formation of these important metabolites during black tea processing.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/aem.01524-21</t>
-  </si>
-  <si>
     <t>The main goal of this research was to characterize the bacterial diversity of the wooden boards used for aging traditional Sicilian cheeses and to evaluate whether pathogenic bacteria are associated with these surfaces. Eighteen cheese dairy factories producing three traditional cheese typologies (PDO Pecorino Siciliano, PDO Piacentinu Ennese, and Caciocavallo Palermitano) were selected within the region of Sicily. The wooden shelf surfaces were sampled by a destructive method to detach wood splinters as well as by a nondestructive brushing to collect microbial cells. Scanning electron microscopy showed the presence of almost continuous bacterial formations on the majority of the shelves analyzed. Yeasts and fungal hyphae were also visualized, indicating the complexity of the plank communities. The amplicon library of the 16S rRNA gene V3-V4 region was paired-end sequenced using the Illumina MiSeq system, allowing the identification of 14 phyla, 32 classes, 52 orders, 93 families, and 137 genera. Staphylococcus equorum was identified from all wooden surfaces, with a maximum abundance of 64.75%. Among cheese-surface-ripening bacteria, Brevibacterium and Corynebacterium were detected in almost all samples. Several halophilic (Halomonas, Tetragenococcus halophilus, Chromohalobacter, Salimicrobium, Marinococcus, Salegentibacter, Haererehalobacter, Marinobacter, and Idiomarinaceae) and moderately halophilic (Salinicoccus, Psychrobacter, and Salinisphaera) bacteria were frequently identified. Lactic acid bacteria (LAB) were present at low percentages in the genera Leuconostoc, Lactococcus, Lactobacillus, Pediococcus, and Streptococcus. The levels of viable microorganisms on the wooden shelves ranged between 2.4 and 7.8 log CFU/cm2. In some cases, LAB were counted at very high levels (8.2 log CFU/cm2). Members of the Enterobacteriaceae family were detected in a viable state for only six samples. Coagulase-positive staphylococci, Salmonella spp., and Listeria monocytogenes were not detected. Seventy-five strains belonged to the genera Leuconostoc, Lactococcus, Pediococcus, Enterococcus, Lactobacillus, and Weissella. IMPORTANCE This study provides evidence for the lack of pathogenic bacteria on the wooden shelves used to ripen internal bacterially ripened semihard and hard cheeses produced in Sicily. These three cheeses are not inoculated on their surfaces, and surface ripening is not considered to occur or, at least, does not occur at the same extent as surface-inoculated smear cheeses. Several bacterial groups identified from the wooden shelves are typically associated with smear cheeses, strongly suggesting that PDO Pecorino Siciliano, PDO Piacentinu Ennese, and Caciocavallo Palermitano cheese rind contributes to their final organoleptic profiles.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/jfpp.15919</t>
-  </si>
-  <si>
     <t>This study aimed to explore the bacterial diversity of smoked fish and smoked-dried fish. Forty-eight fish samples were collected from various processing sites and markets in Benin. The bacterial diversity was analyzed using high-throughput sequencing of the 16S rRNA gene on the Illumina MiSeq platform. In total, 16 bacterial phyla were identified across all samples, with the majority of sequences belonging to Firmicutes (43.3%) and Proteobacteria (43.6%). Families, Staphylococcaceae, Moraxellaceae, Planococcaceae, Enterobacteriaceae, Vibrionaceae, and Bartonellaceae, were well represented. A total of 384 distinct genera was identified, with the most abundant represented by the Gram-negative, Acinetobacter, Bartonella, Enterobacter, Morganella, and Photobacterium, and the Gram-positive, Aerococcus, Bacillus, Kurthia, Macrococcus, Staphylococcus, and Weissella. OTUs related to pathogenic bacteria, such as Salmonella spp., Staphylococcus aureus, and Listeria monocytogenes, were not detected in these popular foods sold in street markets in Benin. However, the presence of potentially harmful histamine-producing bacteria has been revealed. Practical application In West Africa, fish is mainly preserved by hot smoking, which can be followed by an additional drying step using the heat that emanates from the kiln. Although several studies have investigated the microbiological quality of smoked and smoked-dried fish, their overall microbial diversity has remained so far poorly explored. Therefore, this study has investigated the bacterial diversity of these popular foods. The results of this work provide useful information on bacteria potentially participating in food spoilage or compromising the safety of these popular foods and can be useful for improving their quality and safety.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2021.103878</t>
-  </si>
-  <si>
     <t>Microbes play key roles in animal welfare and food safety but there is little understanding of whether microbiomes associated with livestock vary in space and time. Here we analysed the bacteria associated with the carcasses of the same breed of 28 poultry broiler flocks at different stages of processing across two climatically similar UK regions over two seasons with 16S metabarcode DNA sequencing. Numbers of taxa types did not differ by region, but did by season (P = 1.2 × 10−19), and numbers increased with factory processing, especially in summer. There was also a significant (P &lt; 1 × 10−4) difference in the presences and abundances of taxa types by season, region and factory processing stage, and the signal for seasonal and regional differences remained highly significant on final retail products. This study therefore revealed that both season and region influence the types and abundances of taxa on retail poultry products. That poultry microbiomes differ in space and time should be considered when testing the efficacy of microbial management interventions designed to increase animal welfare and food safety: these may have differential effects on livestock depending on location and timing.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2020.109800</t>
-  </si>
-  <si>
     <t>Black glutinous rice wine (BGRW) is a popular traditional Chinese rice wine; however, the flavors profiles associated with microbiota changes during its fermentation have not yet been evaluated. In this study, we explored the correlations between microbial communities with physicochemical properties and flavor components during BGRW fermentation. High-throughput sequencing was used to identify the microbial community composition of BGRW at different fermentation stages, and physicochemical properties and volatile flavor compounds (VFCs) were identified via fermentation features testing and headspace solid phase microextraction gas chromatography mass spectrometry. First, we revealed Pantoea and Kosakonia predominated bacterial genera the early stage of BGRW fermentation, Leuconostoc, Pediococcus, Bacillus, and Lactobacillus predominated bacterial genera the later stage, while Rhizopus and Saccharomyces were the predominant fungal genera throughout fermentation. Second, total sugars, titratable acids, pH, ethanol, amino acid nitrogen, and 43 VFCs were detected during fermentation. Twenty-three VFCs were differentially produced according to the linear discriminant analysis effect size method. With the increase of the fermentation time, the kinds and contents of esters and alcohols were also increased, while acids decreased. Moreover, 12 microbial genera, Lactococcus, Pediococcus, Leuconostoc, Lactobacillus, Cronobacter, Pantoea, Weissella, Enterococcus, Rhizopus, Myceliophthora, Cystofilobasidium, and Aspergillus were found to be highly correlated (|ρ| &gt; 0.7 and P &lt; 0.05) with physicochemical properties and VFCs, by redundancy analysis (RDA) and two-way orthogonal partial least squares (O2PLS) analysis. Ultimately, based on the results, a metabolic map of dominant genera in BGRW was established. Our findings provided detailed information on the dynamic changes of physicochemical properties and VFCs and selection of beneficial strains to improve the quality of BGRW.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.776862</t>
-  </si>
-  <si>
     <t>Robiola di Roccaverano is a Protected Designation of Origin (PDO) soft cheese produced with raw goat’s milk, in the Roccaverano area of the Piedmont region (North–West Italy) by a consortium of 15 dairies following strict procedural guidelines. During the cheese manufacturing process, raw milk from two subsequent milking sessions (evening and morning) is inoculated with Natural Milk Cultures (NMCs), obtained by back-slopping process in which the previous days’ fermented material is inoculated into the fresh milk to start the production process. Then, the material is also inoculated with animal rennet and left to coagulate for 8–36 h at room temperature. Molding procedure takes place in perforated plastic containers for 24–48 h, where the cheeses are periodically turned over to allow the whey to release and manually dry salted in both sides (Gazzetta Ufficiale della Repubblica Italiana, 2013). Robiola di Roccaverano can be consumed as fresh cheese after 5 days from the beginning of production or ripened for 15 days. During the production of Robiola di Roccaverano, the cheesemakers naturally select the best performing NMC that are well adapted to the dairy environment, able to ensure reproducibility and standardization of the final product without losing its typicality. Therefore, the sensory characteristics of Robiola di Roccaverano are highly influenced by the action of the microorganism deriving from raw milk and NMC (Biolcati et al., 2019, 2020, 2021), as well as by contaminating microorganisms often deriving from sources such as operators, dairy equipment, and environment (Montel et al., 2014). Despite understudied, the fungal composition of the dairy products, commonly referred to as mycobiota, could strongly influence the composition of the final cheese and must be considered for a better characterization of PDO cheese. In this work, the microbiome, both bacterial and fungal composition, of Robiola di Roccaverano has been studied by means of High Throughput Sequencing (HTS) approach. Cheese samples from different cheesemakers have been collected since the bacterial microbiota and the mycobiota may be associated with the geographical area, season, dairy environment, or raw materials used for the production. Nevertheless, due to the strict manufacture guidelines, it might be possible to define a common core microbial population, typical of Robiola di Roccaverano PDO cheese.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/foods10061189</t>
-  </si>
-  <si>
     <t>Lactic acid bacteria (LAB) decisively influence the technological, nutritional, organoleptic and preservation properties of bakery products. Therefore, their use has long been considered an excellent strategy to improve the characteristics of those goods. The aim of this study was the evaluation of microbial diversity in different doughs used for the production of a typical Apulian flatbread, named focaccia. Leavening of the analyzed doughs was obtained with baker’s yeast or by applying an innovative “yeast-free” protocol based on a liquid sourdough obtained by using Leuconostoc citreum strain C2.27 as a starter. The microbial populations of the doughs were studied by both a culture-dependent approach and metagenetic analyses. The flours used for dough preparation were also subjected to the same analyses. The metagenetic analyses were performed by sequencing the V5–V6 hypervariable regions of the 16S rRNA gene and the V9 hypervariable region of the 18S rRNA gene. The results indicate that these hypervariable regions were suitable for studying the microbiota of doughs, highlighting a significant difference between the microbial community of focaccia dough with baker’s yeast and that of the dough inoculated with the bacterial starter. In particular, the dough made with baker’s yeast contained a microbiota with a high abundance of Proteobacteria (82% of the bacterial population), known to be negatively correlated with the biochemical properties of the doughs, while the Proteobacteria in dough produced with the L. citreum starter were about 43.5% lower than those in flour and dough prepared using baker’s yeast. Moreover, the results show that the L. citreum C2.27 starter was able to dominate the microbial environment and also reveal the absence of the genus Saccharomyces in the dough used for the production of the “yeast-free” focaccia. This result is particularly important because it highlights the suitability of the starter strain for obtaining an innovative “yeast-free” product.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1007/s12275-021-0219-4</t>
-  </si>
-  <si>
     <t>The microbial community is one of the most important factors in shaping the characteristics of fermented food. Nuodeng ham, traditionally produced and subjected to 1–4 years of fermentation, is a dry fermented food product with cultural and economic significance to locals in southwestern China. In this study, we aimed to characterize the microbiota and physicochemical profiles of Nuodeng ham across different stages of fermentation. Ham samples from each of the four years were analyzed by sequencing bacterial 16S rRNA gene and fungal internal transcribed spacer sequence, in order to characterize the diversity and composition of their microflora. A total of 2,679,483 bacterial and 2,983,234 fungal sequences of high quality were obtained and assigned to 514 and 57 genera, respectively. Among these microbes, Staphylococcus and Candida were the most abundant genera observed in the ham samples, though samples from different years showed differences in their microbial abundance. Results of physicochemical properties (pH, water, amino acid, NaCl, nitrate and nitrite contents, and the composition of volatile compounds) revealed differences among the ham samples in the composition of volatile compounds, especially in the third year samples, in which no nitrite was detected. These results suggest that the structure and diversity of microbial communities significantly differed across different stages of fermentation. Moreover, the third year hams exhibits a unique and balanced microbial community, which might contribute to the special flavor in the green and safe food products. Thus, our study lends insights into the production of high quality Nuodeng ham.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2021.110668</t>
-  </si>
-  <si>
     <t>Kimchi is a fermented food prepared via spontaneous fermentation by lactic acid bacteria originating from raw ingredients. To investigate the effect of these ingredients on food fermentation, four types of food that differed only in their main raw ingredients (kimchi cabbage, green onion, leaf mustard, and young radish) were evaluated. The major microorganisms were Leuconostoc gelidum, Weissella kandleri, and Lactobacillus sakei groups. The distribution of these species depended on the sample type. All three species were primarily distributed in the food prepared from kimchi cabbage and young radish; however, the Lac. sakei group was hardly found in the food prepared using green onion and leaf mustard. Metabolite analysis results showed that the free sugar, organic acid, ethanol, and amino acid profiles differed with the sample type. This study indicates that the main ingredients could be an important factor in determining the composition of the microbial community and the metabolite composition.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2021.110316</t>
-  </si>
-  <si>
     <t>Sprouts harbor high populations of bacteria and cause numerous foodborne disease outbreaks, yet little is known about their microbial composition. The present study aimed to define the microbiological ecology of sprouts using 16S rRNA microbiome sequencing and culture-dependent methods. Different types (radish, alfalfa, and rapeseed), brands (A, B, and C), and distribution routes (online and offline) of sprouts (n = 70) were considered for microbiome analysis, as well as quantitative (aerobic plate count and coliforms) and qualitative analyses (Escherichia coli O157:H7, Listeria monocytogenes, and Salmonella Typhimurium). The aerobic plate count ranged from 7 to 8 CFU/g, and the coliforms ranged from 6 to 7 log CFU/g. Microbiome analysis revealed that Proteobacteria was the dominant phylum, accounting for 79.0% in alfalfa sprouts, 68.5% in rapeseed sprouts, and 61.9% in radish sprouts. Enterobacteriaceae was the dominant family in alfalfa sprouts (33.9%) and rapeseed sprouts (14.6%), while Moraxellaceae (11.9%) were prevalent on radish sprouts. The majority of the dominant genera were common in the environment, such as soil or water. Alfalfa sprouts yielded the lowest aerobic plate count but the highest relative abundance of Enterobacteriaceae compared to the other sprouts. These results could explain why alfalfa sprouts are a leading cause of sprout-related foodborne disease outbreaks. Alpha-diversity results (Chao1 and Shannon indices) suggested that species richness was greater on radish sprouts than the other sprout types. Beta-diversity results showed samples were clustered by types, indicating dissimilarity in microbial communities. However, the distribution route had a limited influence on microbial composition. The present study provides a comparative examination of the microbial profiles of sprouts. Microbiome analyses contribute to an in-depth understanding of the microbial ecology of sprouts, leading to potential control measures for ensuring food safety.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.726483</t>
-  </si>
-  <si>
     <t>Wine production in Cyprus has strong cultural ties with the island’s tradition, influencing local and foreign consumers’ preferences and contributing significantly to Cyprus’ economy. A key contributor to wine quality and sensorial characteristics development is the microbiota that colonizes grapes and performs alcoholic fermentation. Still, the microbial patterns of wines produced in different geographic regions (terroir) in Cyprus remain unknown. The present study investigated the microbial diversity of five terroirs in Cyprus, two from the PGI Lemesos region [Kyperounta (PDO Pitsilia) and Koilani (PDO Krasochoria)], and three from the PGI Pafos region [Kathikas (PDO Laona Akamas), Panayia, and Statos (PDO Panayia)], of two grape varieties, Xynisteri and Maratheftiko, using high-throughput amplicon sequencing. Through a longitudinal analysis, we examined the evolution of the bacterial and fungal diversity during spontaneous alcoholic fermentation. Both varieties were characterized by a progressive reduction in their fungal alpha diversity (Shannon index) throughout the process of fermentation. Additionally, the study revealed a distinct separation among different terroirs in total fungal community composition (beta-diversity) for the variety Xynisteri. Also, Kyperounta terroir had a distinct total fungal beta-diversity from the other terroirs for Maratheftiko. Similarly, a significant distinction was demonstrated in total bacterial diversity between the PGI Lemesos region and the PGI Pafos terroirs for grape juice of the variety Xynisteri. Pre-fermentation, the fungal diversity for Xynisteri and Maratheftiko was dominated by the genera Hanseniaspora, Aureobasidium, Erysiphe, Aspergillus, Stemphylium, Penicillium, Alternaria, Cladosporium, and Mycosphaerella. During and post-fermentation, the species Hanseniaspora nectarophila, Saccharomyces cerevisiae, Hanseniaspora guilliermondii, and Aureobasidium pullulans, became the predominant in most must samples. Regarding the bacterial diversity, Lactobacillus and Streptococcus were the predominant genera for both grape varieties in all stages of fermentation. During fermentation, an increase was observed in the relative abundance of some bacteria, such as Acetobacter, Gluconobacter, and Oenococcus oeni. Finally, the study revealed microbial biomarkers with statistically significant higher relative representation, associated with each geographic region and each grape variety, during the different stages of fermentation. The present study’s findings provide an additional linkage between the grape microbial community and the wine terroir.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3168/jds.2021-20661</t>
-  </si>
-  <si>
     <t>In this study, we investigated the variation in the microbial community present in bulk tank milk samples and the potential effect of different farm management factors. Bulk tank milk samples were collected repeatedly over one year from 42 farms located in northern Sweden. Total and thermoresistant bacteria counts and 16S rRNA gene-based amplicon sequencing were used to characterize microbial community composition. The microbial community was in general heterogeneous both within and between different farms and the community composition in the bulk tank milk was commonly dominated by Pseudomonas, Acinetobacter, Streptococcus, unclassified Peptostreptococcaceae, and Staphylococcus. Principal component analysis including farm factor variables and microbial taxa data revealed that the microbial community in milk was affected by type of milking system. Milk from farms using an automatic (robot) milking system (AMS) and loose housing showed different microbial community composition compared with milk from tiestall farms. A discriminant analysis model revealed that this difference was dependent on several microbial taxa. Among farms using an automatic milking system, there were further differences in the microbial community composition depending on the brand of the milking robot used. On tiestall farms, routines for teat preparation and cleaning of the milking equipment affected the microbial community composition in milk. Total bacteria count (TBC) in milk differed between the farm types, and TBC were higher on AMS than tiestall farms (log 4.05 vs. log 3.79 TBC/mL for AMS and tiestalls, respectively). Among tiestall farms, milk from farms using a chemical agent in connection to teat preparation and a more frequent use of acid to clean the milking equipment had lower TBC in milk, than milk from farms using water for teat preparation and a less frequent use of acid to clean the milking equipment (log 3.68 vs. 4.02 TBC/mL). There were no significant differences in the number of thermoresistant bacteria between farm types. The evaluated factors explained only a small proportion of total variation in the microbiota data, however, despite this, the study highlights the effect of routines associated with teat preparation and cleaning of the milking equipment on raw milk microbiota, irrespective of type of milking system used.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2022.111075</t>
-  </si>
-  <si>
     <t>Zoning is typically adopted by food manufacturers and classified into three different zones including Zone 1 (food contact surface), Zone 2 (proximity to food and food contact surfaces) and Zone 3 (remote surfaces from processing). In this study, environmental surfaces belonging to these three zones were sampled during food processing in a fresh-cut vegetables (FVs) processing facility located in Beijing, China. Bacterial loads in terms of aerobic plate count and coliform count were evaluated by culture-dependent techniques. The profile and diversity of bacterial community in these three zones were investigated by high-throughput sequencing. Zone 1 showed similar microbiota and predominated by Pseudomonas and Acinetobacter, while the predominant genera on Zone 2 or 3 were quite varied among different processing steps. The SourceTracker analysis showed that most of the bacteria (above 80%) on surfaces were from unknown sources, while sorting and disinfection &amp; cleaning steps contributed equally to the bacterial community of cutting areas. Microbial association network analysis revealed strong positive interactions of Comamonas and Janthinobacterium with Myroides and Serratia, respectively, whereas Pseudomonas showed no significant correlation with other genera. The function of microbial communities was predicted based on BugBase 16S rRNA database, and the results indicated that the proportions of potential biofilm-forming bacteria were above 70% in all samples, and species of Pseudomonas, Comamonas, Chryseobacterium and Janthinobacterium were opportunistic pathogens or spoilage bacteria. This study evaluated the bacteria risks including bacterial load, composition, as well as potential bacterial interaction, function and microbial transfer on food processing surfaces, which will facilitate our better understanding on the cross-contaminations and preventions of harmful microorganism in FVs processing industry.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/s12866-022-02451-y</t>
-  </si>
-  <si>
     <t>Background Next-generation sequencing (NGS) methods and especially 16S rRNA gene amplicon sequencing have become indispensable tools in microbial ecology. While they have opened up new possibilities for studying microbial communities, they also have one drawback, namely providing only relative abundances and thus compositional data. Quantitative PCR (qPCR) has been used for years for the quantification of bacteria. However, this method requires the development of specific primers and has a low throughput. The constraint of low throughput has recently been overcome by the development of high-throughput qPCR (HT-qPCR), which allows for the simultaneous detection of the most prevalent bacteria in moderately complex systems, such as cheese and other fermented dairy foods. In the present study, the performance of the two approaches, NGS and HT-qPCR, was compared by analyzing the same DNA samples from 21 Raclette du Valais protected designation of origin (PDO) cheeses. Based on the results obtained, the differences, accuracy, and usefulness of the two approaches were studied in detail. Results The results obtained using NGS (non-targeted) and HT-qPCR (targeted) show considerable agreement in determining the microbial composition of the cheese DNA samples studied, albeit the fundamentally different nature of these two approaches. A few inconsistencies in species detection were observed, particularly for less abundant ones. The detailed comparison of the results for 15 bacterial species/groups measured by both methods revealed a considerable bias for certain bacterial species in the measurements of the amplicon sequencing approach. We identified as probable origin to this PCR bias due to primer mismatches, variations in the number of copies for the 16S rRNA gene, and bias introduced in the bioinformatics analysis. Conclusion As the normalized microbial composition results of NGS and HT-qPCR agreed for most of the 21 cheese samples analyzed, both methods can be considered as complementary and reliable for studying the microbial composition of cheese. Their combined application proved to be very helpful in identifying potential biases and overcoming methodological limitations in the quantitative analysis of the cheese microbiota.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2022.111063</t>
-  </si>
-  <si>
     <t>In the present study, bacterial and fungal diversity, as well as volatile profiles, of ready-to-eat Portuguese Painho de Porco Preto fermented sausages manufactured by two artisanal producers in the districts of Beja (producer A) and Evora (producer B) were studied. To this end, different selective growth media and a metataxonomic analysis were combined with Headspace Solid-Phase Microextraction-Gas Chromatography/Mass Spectrometry (HS-SPME-GC/MS) analysis. The results of the microbiological viable counts revealed active microbial populations of lactic acid bacteria (up to 8 Log cfu g−1), coagulase negative cocci (up to 6 Log cfu g−1), and eumycetes (up to 6 Log cfu g−1). Bacterial populations were characterized by high relative frequencies of Latilactobacillus sakei (up to 72%), together with Weissella and Staphylococcus equorum. The mycobiota was mainly dominated by Debaryomyces hansenii (up to 55% of the relative frequency) and Kurtzmaniella zeylanoides (up to 24% of the relative frequency). Unexpected species as Wickerhamomyces subpelliculosus and Zygosaccharomyces rouxii were also detected. HS-SPME-GC/MS analysis allowed to identify a complex volatile profile, showing 159 volatile organic compounds (VOCs). VOCs belonged to twelve classes, such as aldehydes, ketones and lactones, esters and acetates, alcohols, terpenoids, sulfur compounds, aliphatic hydrocarbons, aromatic hydrocarbons, nitrogen compounds, acids, furans and pyrans, and phenols. The analysis of VOCs composition provided evidence that samples from the two producers (A and B) were different, as confirmed by the Principal Component Analysis. Hence, it is likely that the raw materials used, as well as variations related with the empirical practice of the butchers, strongly influenced the final product. The results obtained in the present study represent a further advancement in the knowledge on the biodiversity and VOCs composition of Portuguese fermented sausages. To better understand the interactions occurring between the autochthonous microorganisms and the meat batter in the Painho de Porco Preto fermented sausage, microbial and VOCs dynamics must be further deepened throughout the production process.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/msystems.00830-21</t>
-  </si>
-  <si>
     <t>Prior to the advent of milk pasteurization and the use of defined-strain starter cultures, the production and ripening of cheese relied on the introduction and growth of adventitious microbes from the environment. This study characterized microbial community structures throughout a traditional farmstead cheese production continuum and evaluated the role of the environment in microbial transfer. In total, 118 samples (e.g., raw milk, cheese, and environmental surfaces) were collected from milk harvesting through cheese ripening. Microbial communities were characterized based on amplicon sequencing of bacterial 16S rRNA and fungal internal transcribed spacer genes using the Illumina MiSeq platform. Results indicated that the environment in each processing room harbored unique microbial ecosystems and consistently contributed microbes to milk, curd, and cheese. The diverse microbial composition of milk was initially attributed to milker hands and cow teats and then changed substantially following overnight ripening in a wooden vat to one dominated by lactic acid bacteria, including Lactococcus lactis, Lactobacillus, and Leuconostoc, as well as fungi such as Exophiala, Kluyveromyces, and Candida. Additional microbial contributions were attributed to processing tools, but the composition of the cheese paste remained relatively stable over 60 days of ripening. In contrast, rind communities that were largely influenced by direct contact with bamboo aging mats showed a distinct succession pattern compared to the interior sections. Overall, these findings highlight the critical role of traditional tools and practices in shaping the microbial composition of cheese and broaden our understanding of processing environments as important sources of microbes in food. IMPORTANCE Throughout the 20th century, especially in the United States, sanitation practices, pasteurization of milk, and the use of commercial defined-strain starter cultures have enhanced the safety and consistency of cheese. However, these practices can reduce cheese microbial diversity. The rapid growth of the artisanal cheese industry in the United States has renewed interest in recapturing the diversity of dairy products and the microbes involved in their production. Here, we demonstrate the essential role of the environment, including the use of wooden tools and cheesemaking equipment, as sources of dominant microbes that shape the fermentation and ripening processes of a traditional farmstead cheese produced without the addition of starter cultures or direct inoculation of any other bacteria or fungi. These data enrich our understanding of the microbial interactions between products and the environment and identify taxa that contribute to the microbial diversity of cheese and cheese production.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.lwt.2021.112125</t>
-  </si>
-  <si>
     <t>White truffles are highly valuable, but the aroma is susceptible to change with storage. How volatile composition and microbiome of Tuber magnatum evolve by storage time is poorly understood. Changes in bacterial community and volatile compounds of T. magnatum fruiting bodies with storage time at 23 °C were investigated. Truffles (21 fruiting bodies) were collected from different sites in Italy, Hungary, and Croatia. Single fruiting bodies were subsampled at four time points (day (D)0, 3, 6, and 9). Gas chromatography-mass spectrometry and microbiome composition using PCR-high throughput sequencing were used to analyse the volatiles and bacterial communities, respectively. Spoilage compounds atypical of truffles increased with storage time. Likewise, bacterial communities changed with storage time; families belonging to Xanthobacteraceae dominated at D0 and gradually evolved to more Rhizobiaceae and Pseudomonadaceae by D3 and D6, and finally with more prominent Xanthomonadaceae and Burkholderiaceae at D9. Overall, storage time had increased the diversity of bacterial communities. The microbiome and volatile data were correlated using regularised canonical correlation analysis and determined correlations between 2-methylisoborneol and five bacterial OTUs. Potential candidate bacteria and their volatile metabolites can serve as markers for truffle spoilage. The results highlighted the mechanisms by which the degradation of expensive truffles occur.</t>
   </si>
   <si>
-    <t>https://doi.org/10.7717/peerj.12345</t>
-  </si>
-  <si>
     <t>Budu is a Malaysian fermented anchovy sauce produced by immersing small fishes into a brine solution for 6 to 18 months. Microbial enzymes are known to contribute to fermentation; however, not much is known about the microbial community in Budu. Therefore, a better understanding of the Budu microbiome is necessary to improve the quality, consistency, and safety of the Budu products. In this study, we collected 60 samples from 20 bottles of Budu produced by seven manufacturers. We analyzed their microbiota using V3–V4 16S rRNA amplicon sequencing when we first opened the bottle (month 0), as well as 3 and 7 months post-opening (months 3 and 7). Tetragenococcus was the dominant genus in many samples, reaching a maximum proportion of 98.62%, but was found in low abundance, or absent, in other samples. When Budu samples were not dominated by a dominant taxa, we observed a wider genera diversity such as Staphylococcus, Acinetobacter, Halanaerobium and Bacillus. While the taxonomic composition was relatively stable across sampling periods, samples from two brands showed a sudden increase in relative abundance of the genus Chromobacterium at month 7. Based on prediction of metagenome functions, non-Tetragenococcus-dominated samples were predicted to have enriched functional pathways related to amino acid metabolism and purine metabolism compared to Tetragenococcus-dominated samples; these two pathways are fundamental to fermentation quality and health attributes of fish sauce. Among the non-Tetragenococcus-dominated samples, contributions towards amino acid metabolism and purine metabolism were biased towards the dominant taxa when species evenness is low, while in samples with higher species evenness, the contributions towards the two pathways were predicted to be evenly distributed between taxa. Our results demonstrated that the utility of 16S sequencing to assess batch variation in fermented food production. The distinct microbiota was shown to correlate with characteristic metagenome function including functions potentially related to fermented food nutrition and quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2022.103996</t>
-  </si>
-  <si>
     <t>Microorganisms proliferate, consume nutrients, and produce many undesired metabolites, which are the main reason for the spoilage of fresh meat. Screening spoilage markers is of great significance for characterizing the freshness of fresh meat. At present, there are few studies on the volatile spoilage markers (VSMs) of lamb and their relationship with bacteria. In this study, the spoilage evolution of lamb was evaluated by multiple indicators. The changes of bacteria and volatile organic compounds (VOCs) in aerobic-packaged (AP) and vacuum-packaged (VP) lamb were measured by 16S next-generation sequencing (NGS) and headspace solid-phase microextraction (HS-SPME)-gas chromatography-mass spectrometry (GC-MS) respectively. The potential VSMs were also screened. Results showed that the shelf life of AP lamb at 4 °C was less than 10 d and VP lamb was less than 28 d. Pseudomonas was the dominant bacteria in AP lamb, while Latilactobacillus and Lactococcus were the dominant bacteria in VP lamb. Several VOCs could be recommended as potential spoilage markers, including 1-octen-3-ol, 1-hexanol, nonanal, methoxy-phenyloxime, 2,3-octanedione, acetoin and 1-pentanol for AP lamb; acetoin, 1-hexanol, 2,3-octanedione, hexanoic acid, 1-octen-3-ol, nonanal, hexanal and 2,3-octanediol for VP lamb. This study can provide information for characterizing and predicting the freshness of fresh lamb.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/microorganisms10030613</t>
-  </si>
-  <si>
     <t>Bacterial pathogens, such as Listeria monocytogenes, can show resistance to disinfection and persistence on working surfaces, permitting them to survive and contaminate food products. Persistence—a complex phenomenon involving interactions between many bacteria within a biofilm—is modulated by in situ characteristics. This study aimed to describe, in silico, the microbiota identified in a swine slaughterhouse after sanitation procedures to better understand the presence of L. monocytogenes on these surfaces. Molecular tools for characterization of microbial communities were used to assess the relative contribution of different bacteria resulting from this phenomenon, and the 16S rRNA sequencing method was used on samples from meat conveyor belt surfaces collected on four sampling visits to study the co-occurrence between L. monocytogenes and other bacteria. From the background microbiota, a total of six genera were found to be negatively correlated with Listeria spp., suggesting Listeria growth inhibition, competition, or at least an absence of shared habitats. Based on these results, a complete scenario of interactions of Listeria with components of background microbiota was established. This work contributes to identifying avenues that could prevent the growth and persistence of L. monocytogenes on food-processing surfaces.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/spectrum.01751-21</t>
-  </si>
-  <si>
     <t>A low initial contamination level of the meat surface is the sine qua non to extend the subsequent shelf life of ground beef for as long as possible. Therefore, the short- and long-term effects of a pregrinding treatment with electrolyzed water (EW) on the microbiological and physicochemical features of Piedmontese steak tartare were here assessed on site, by following two production runs through storage under vacuum packaging conditions at 4°C. The immersion of muscle meat in EW solution at 100 ppm of free active chlorine for 90 s produced an initial surface decontamination with no side effects or compositional modifications, except for an external color change that was subsequently masked by the grinding step. However, the initially measured decontamination was no longer detectable in ground beef, perhaps due to a quick recovery by bacteria during the grinding step from the transient oxidative stress induced by the EW. We observed different RNA-based metataxonomic profiles and metabolomic biomarkers (volatile organic compounds [VOCs], free amino acids [FAA], and biogenic amines [BA]) between production runs. Interestingly, the potentially active microbiota of the meat from each production run, investigated through operational taxonomic unit (OTU)-, oligotyping-, and amplicon sequence variant (ASV)-based bioinformatic pipelines, differed as soon as the early stages of storage, whereas microbial counts and biomarker dynamics were significantly distinguishable only after the expiration date. Higher diversity, richness, and abundance of Streptococcus organisms were identified as the main indicators of the faster spoilage observed in one of the two production runs, while Lactococcus piscium development was the main marker of shelf life end in both production runs. IMPORTANCE Treatment with EW prior to grinding did not result in an effective intervention to prolong the shelf life of Piedmontese steak tartare. Our RNA-based approach clearly highlighted a microbiota that changed markedly between production runs but little during the first shelf life stages. Under these conditions, an early metataxonomic profiling might provide the best prediction of the microbiological fate of each batch of the product.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/1758-2229.13045</t>
-  </si>
-  <si>
     <t>Mushroom-forming fungi are important sources of food and medicine in many regions of the world, and their development and health are known to depend on various microbes. Recent studies have examined the structure of mushroom-inhabiting bacterial (MIB) communities and their association with local environmental variables, but global-scale diversity and determinants of these communities remain poorly understood. Here we examined the MIB global diversity and community composition in relation to climate, soil and host factors. We found a core global mushroom microbiome, accounting for 30% of sequence reads, while comprising a few bacterial genera such as Halomonas, Serratia, Bacillus, Cutibacterium, Bradyrhizobium and Burkholderia. Our analysis further revealed an important role of host phylogeny in shaping the communities of MIB, whereas the effects of climate and soil factors remained negligible. The results suggest that the communities of MIB and free-living bacteria are structured by contrasting community assembly processes and that fungal–bacterial interactions are an important determinant of MIB community structure.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/microorganisms10020334</t>
-  </si>
-  <si>
     <t>A previous study identified differences in rind aspects between Cantal-type cheeses manufactured from the same skimmed milk, supplemented with cream derived either from pasture-raised cows (P) or from cows fed with maize silage (M). Using an integrated analysis of multiomic data, the present study aimed at investigating potential correlations between cream origin and metagenomic, lipidomic and volatolomic profiles of these Cantal cheeses. Fungal and bacterial communities of cheese cores and rinds were characterized using DNA metabarcoding at different ripening times. Lipidome and volatolome were obtained from the previous study at the end of ripening. Rind microbial communities, especially fungal communities, were influenced by cream origin. Among bacteria, Brachybacterium were more abundant in P-derived cheeses than in M-derived cheeses after 90 and 150 days of ripening. Sporendonema casei, a yeast added as a ripening starter during Cantal manufacture, which contributes to rind typical aspect, had a lower relative abundance in P-derived cheeses after 150 days of ripening. Relative abundance of this fungus was highly negatively correlated with concentrations of C18 polyunsaturated fatty acids and to concentrations of particular volatile organic compounds, including 1-pentanol and 3-methyl-2-pentanol. Overall, these results evidenced original interactions between milk fat composition and the development of fungal communities in cheeses.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2022.111481</t>
-  </si>
-  <si>
     <t>The aim of the present study was to characterize the bacterial and fungal communities naturally occurring in Queijo da Beira Baixa PDO cheese samples produced in Castelo Branco district (Beira Baixa Region, Portugal) through viable counts and metataxonomic analyses. Physico-chemical and morpho-textural analyses were also carried out, together with the analysis of volatile organic compounds (VOCs). In the analyzed samples, pH values ranged between 4.72 ± 0.15 and 5.85 ± 0.02, with values of lactic acid content comprised between 0.64 ± 0.00 and 1.95 ± 0.16 g 100 g−1. Specific volume of cheese ranged from 1.09 ± 0.08 to 1.32 ± 0.02 g mL−1. Texture profile analysis showed hardness ranging between 38.3 ± 9.6 N and 68.55 ± 7.5 N. As for lactic acid bacteria, presumptive lactococci, thermophilic cocci, and lactobacilli counts up to 9 Log cfu g−1. Coagulase-negative cocci showed counts up to 7 Log cfu g−1. Enterococci counts were up to 6 Log cfu g−1. Finally, counts of eumycetes showed values up to 4 Log cfu g−1. The results of metataxonomic analysis of bacteria showed the dominance of Lactococcus lactis in all the samples. Moreover, other taxa were detected, including Lactiplantibacillus plantarum, Loigolactobacillus coryniformis, Lactococcus piscium, Streptococcus thermophilus, and Lacticaseibacillus zeae. Mycobiota was characterized by the presence of Candida sake, Ustilago, Cladosporium variabile, Starmerella, Debaryomyces hansenii, and Pichia kluyveri. In the analyzed Queijo da Beira Baixa PDO cheese samples, carboxylic acids represented the most detected VOCs, followed by esters, carbonyl compounds, and alcohols.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.767770</t>
-  </si>
-  <si>
     <t>Fish skin-associated microbial communities are highly variable among populations and species and can impact host fitness. Still, the sources of variation in microbiome composition, and particularly how they vary among and within host individuals, have rarely been investigated. To tackle this issue, we explored patterns of variation in fish skin microbiomes across different spatial scales. We conducted replicate sampling of dorsal and ventral body sites of perch (Perca fluviatilis) from two populations and characterized the variation of fish skin-associated microbial communities with 16S rRNA gene metabarcoding. Results showed a high similarity of microbiome samples taken from the left and right side of the same fish individuals, suggesting that fish skin microbiomes can be reliably assessed and characterized even using a single sample from a specific body site. The microbiome composition of fish skin differed markedly from the bacterioplankton communities in the surrounding water and was highly variable among individuals. No ASV was present in all samples, and the most prevalent phyla, Actinobacteria, Bacteroidetes, and Proteobacteria, varied in relative abundance among fish hosts. Microbiome composition was both individual- and population specific, with most of the variation explained by individual host. At the individual level, we found no diversification in microbiome composition between dorsal and ventral body sites, but the degree of intra-individual heterogeneity varied among individuals. To identify how genetic and phenotypic characteristics of fish hosts impact the rate and nature of intra-individual temporal dynamics of the skin microbiome, and thereby contribute to the host-specific patterns documented here, remains an important task for future research.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/mec.16630</t>
-  </si>
-  <si>
     <t>Understanding microbial dispersal is critical to understand the dynamics and evolution of microbial communities. However, microbial dispersal is difficult to study because of uncertainty about their vectors of migration. This applies to both microbial communities in natural and human-associated environments. Here, we studied microbial dispersal along the sourdoughs bread-making chain using a participatory research approach. Sourdough is a naturally fermented mixture of flour and water. It hosts a community of bacteria and yeasts whose origins are only partially known. We analysed the potential of wheat grains and flour to serve as an inoculum for sourdough microbial communities using 16S rDNA and ITS1 metabarcoding. First, in an experiment involving farmers, a miller and bakers, we followed the microbiota from grains to newly initiated and propagated sourdoughs. Second, we compared the microbiota of 46 sourdough samples collected everywhere in France, and of the flour used for their back-slopping. The core microbiota detected on the seeds, in the flour and in the sourdough was composed mainly of microbes known to be associated with plants and not living in sourdoughs. No sourdough yeast species were detected on grains and flours. Sourdough lactic acid bacteria were rarely found in flour. When they were, they did not have the same amplicon sequence variant (ASV) as found in the corresponding sourdough. However, the low sequencing depth for bacteria in flour did not allow us to draw definitive conclusion. Thus, our results showed that sourdough yeasts did not come from flour, and suggest that neither do sourdough LAB.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1089/fpd.2022.0014</t>
-  </si>
-  <si>
     <t>Conventional culture-based techniques are largely inadequate in elucidating the microbiota contained in an environment, due to low recovery within a complex bacterial community. This limitation has been mitigated by the use of next-generation sequencing (NGS)-based approaches thereby facilitating the identification and classification of both culturable and uncultivable microorganisms. Amplicon targeted NGS methods, such as 16S ribosomal RNA (16S rRNA) and shotgun metagenomics, are increasingly being applied in various settings such as in food production environments to decipher the microbial consortium therein. Even though multiple food matrices/food production environments have been studied, the low-moisture environment associated with bakery food production remains to be investigated. To address this knowledge gap, in this study, we investigated the microbiome associated with two bakery production sites (designated as A and B) located in Ireland using 16S rRNA-amplicon-based sequencing. Amplicons corresponding to a hypervariable region contained within the 16S rRNA gene were amplified from DNA samples purified from environmental swabs and ingredients collected at both sites at various stages (preparation, production, postproduction, and storage) across the bakery production chain, over three seasons (winter, spring, and summer). These amplicons were sequenced, and data were analyzed using the mothur pipeline and visualized using MicrobiomeAnalyst and a series of R packages. The top seven bacterial phyla identified at both sites were composed of Proteobacteria, Firmicutes, Actinobacteria, Bacteroidetes, Deinococcus-Thermus, Patescibacteria, and Verrucomicrobia. In addition, the phyla Tenericutes (Mycoplasmatota) and Acidobacteria were observed only in samples taken at site B. Different bacterial compositions were identified at each stage of production. These same bacteria were also found to be present in the final processed food suggesting the influence of the environment on the food matrix. This study is the first demonstration of the utility of 16S rRNA amplicon-based sequencing to describe the microbiota associated with bakery processing environments.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/foods11142164</t>
-  </si>
-  <si>
     <t>Fruits and vegetables (F&amp;V) products are recommended for the daily diet due to their low caloric content, high amount of vitamins, minerals and fiber. Furthermore, these foods are a source of various phytochemical compounds, such as polyphenols, flavonoids and sterols, exerting antioxidant activity. Despite the benefits derived from eating raw F&amp;V, the quality and safety of these products may represent a source of concern, since they can be quickly spoiled and have a very short shelf-life. Moreover, they may be a vehicle of pathogenic microorganisms. This study aims to evaluate the bacterial and fungal populations in F&amp;V products (i.e., iceberg lettuces, arugula, spinaches, fennels, tomatoes and pears) by using culture-dependent microbiological analysis and high-throughput sequencing (HTS), in order to decipher the microbial populations that characterize minimally-processed F&amp;V. Our results show that F&amp;V harbor diverse and product-specific bacterial and fungal communities, with vegetables leaf morphology and type of edible fraction of fruits exerting the highest influence. In addition, we observed that several alterative (e.g., Pseudomonas and Aspergillus) and potentially pathogenic taxa (such as Staphylococcus and Cladosporium) are present, thus emphasizing the need for novel product-specific strategies to control the microbial composition of F&amp;V and extend their shelf-life.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2022.110990</t>
-  </si>
-  <si>
     <t>The use of fish flesh to produce fermented sausages is uncommon, especially in European countries where fermented sausages are mainly obtained using mammalian meat. In the present study, the microbiota naturally occurring in novel fermented fish sausages, handcrafted using marine fish species caught in the Mediterranean Sea, was studied. To this end, fish sausages were subjected to physico-chemical analyses (including histamine quantification). Microbiological traits of sausages were studied via viable counting and metataxonomic analysis. Sausages were also subjected to the detection of genes encoding histidine decarboxylase of both Gram-positive (hdcA) and -negative (hdc) bacteria. The results of histamine quantification showed different contents among fish sausage samples. Moreover, the presence of the hdcA gene was below the detection limit in all the samples, whereas the hdc gene was detected only in samples from batch 2, characterized by high levels of Enterobacteriaceae. In the analysed samples, viable lactic acid bacteria, coagulase-negative staphylococci, and eumycetes were detected. Bacterial composition displayed the highest frequency of Latilactobacillus sakei, whereas eumycetic composition displayed the highest frequency of Kurtzmaniella zeylanoides. In order to select potential adjunct cultures for product improvement, 60 lactic acid bacteria (22 isolates of L. sakei and 38 of Latilactobacillus curvatus) were isolated from sausage samples and characterized for: i) the presence of the hdcA gene; ii) the production of exopolysaccharides (EPS); iii) the presence of genes involved in the production of EPS; iv) the production of bacteriocins against Listeria innocua. None of the isolates tested positive for the presence of the hdcA gene. Moreover, 39 out of 60 isolates showed the formation of mucoid colonies, thus attesting the production of EPS. Interestingly, 56 out of 60 isolates were positive for the gene epsD/E, whereas 37 out of 60 isolates were positive for the gene epsA, all these genes encoding the production of heteropolysaccharides. Of note, the EPS production capability and the absence of hdcA gene could represent a starting point for future selection of the isolates as autochthonous adjunct cultures to improve texture, sensory traits and safety of the fermented fish sausages under study. None of the L. sakei or L. curvatus isolates exerted a bactericidal effect against L. innocua.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2022.111019</t>
-  </si>
-  <si>
     <t>The aim of the present study was to obtain information on the occurrence of bacteria and eumycetes in ready-to-eat fermented liver sausages manufactured by 20 artisan producers located in the Marche Region (Italy). To this end, culture-dependent analyses and metataxonomic sequencing were carried out. Physico-chemical parameters and volatilome of the fermented liver sausages were also studied. Finally, the presence of hepatitis E virus (HEV) was also assessed via real-time-RT-(q)PCR assays. Active microbial populations mainly represented by lactic acid bacteria, enterococci, coagulase-negative cocci, and eumycetes were detected. Enterobacteriaceae, Pseudomonadaceae, and sulfite-reducing anaerobes were not detected in most of the samples. Latilactobacillus sakei dominated in all the analyzed samples, reaching abundances up to 80%. Staphylococcus xylosus and Staphylococcus equorum were also detected. Among minority bacterial taxa, Weissella spp., Leuconostoc spp., Macrococcus caseolyticus, Brochothrix thermosphacta, Staphylococcus succinus, Lactobacillus coryniformis, Lactiplantibacillus plantarum, Lactococcus garviae, Psychrobacter spp., and Carnobacterium viridans were detected. The mycobiota was mainly composed by Debaryomyces hansenii that was present in all samples at the highest frequency. Among minority fungal taxa, Aspergillus spp., Penicillium spp., Kurtzmaniella zeylanoides, Candida spp., Yamadazyma spp., Scopulariopsis spp., Yarrowia spp., and Starmerella spp. were detected. Interestingly, associations between some taxa and some physico-chemical parameters were also discovered. The absence of HEV in all the samples attested a high level of safety. Finally, most of the VOCs detected in the analyzed fermented liver sausages belonged to six classes as: terpenoids, aldehydes, ketones, alcohols, esters, and acids. Nitrogen compounds, sulfur compounds, phenols, hydrocarbons, lactones, furans, and aromatic hydrocarbons were also identified. Several significant relationships were observed between mycobiota and VOCs.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijgfs.2022.100509</t>
-  </si>
-  <si>
     <t>The distinct microbial diversity present in fermented foods influencing flavor profile is now commonly referred to as microbial terroir. Understanding how microbial communities develop in fermented food is important because it can explain how different flavor profiles develop and how community stability leads to food preservation. Using a common DNA-sequencing approach to characterize the microbial communities that developed in eight fermented food products, we show that fermentation is primarily influenced by the main ingredient being cooked. Moreover, we found that each fermented food group harbored microbial communities similar to those previously described in traditional cooking styles. Thus, our study not only provides methodologies to characterize the microbial terroir signature of fermented foods in a professional kitchen but also enables us to understand further the value of local fermented food in our culinary journey.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1089/fpd.2021.0116</t>
-  </si>
-  <si>
     <t>Microbial safety is critically important for powdered infant formula (PIF) fed to neonates, with under-developed immune systems. The quality and safety of food products are dictated by those microorganisms found in both raw materials and the built production environment. In this study, a 2-year monitoring program of a production environment was carried out in two PIF factories located in the Republic of Ireland, and the environmental microbiome in different care areas of these sites was studied by using a 16S ribosomal RNA (rRNA)-based sequencing technique. Results highlighted a core microbiome associated with the PIF factory environment containing 24 bacterial genera representing five phyla, with Acinetobacter and Pseudomonas as the predominant genera. In different care areas of the PIF factory, as hygiene standards increased, deciphered changes in microbial community compositions became smaller over time and approached stability, and bacteria dominating the care area became less influenced by the external environment and more by human interactions and raw materials. These observations indicated that the microbial composition can be altered in response to environmental interventions. Genera Cronobacter and Salmonella were observed in trace amounts in the PIF factory environment, and bacterial genera known to be persistent in a stressed environment, such as Acinetobacter, Bacillus, Streptococcus, and Clostridium, were likely to have higher abundances in dry environment-based care areas. To our knowledge, this is the first study to characterize the PIF production environment microbiome using 16S rRNA-based sequencing. This study described the composition and changing trends of the environmental microbial communities in different care areas of the PIF manufacturing facility, and it provided valuable information to support the safer production of PIF in the future.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodcont.2022.109158</t>
-  </si>
-  <si>
     <t>Microbial contamination of the domestic environment can lead to food spoilage, food waste and food-borne illness generating public health concern. The present study was aimed at evaluating: microbiological contamination of domestic refrigerators using both traditional microbiological and metataxonomic methods, linking these results with consumers' characteristics, observed/stated practices in food handling and storage in households. Data were collected by means of an online survey focused on consumer habits and characteristics, and by direct observation of practices, through consumers' kitchens inspections where surface samples from refrigerators (n = 64). Microbiological and metataxononimc analyses on those samples allowed the evaluation of microbial contamination and its composition. Multivariate analysis was applied to the core Amplicon Sequence Variants composition in order to highlight relations between contamination agents and consumer practices. Consumer analysis evaluated correlation among stated/observed practices with respondents' objective knowledge of hygiene practices. Finally, multivariate dimensions derived by genera analysis were used to evaluate the role of consumer characteristics and habits in domestic contamination. The results indicated a low level of contamination. Metataxonomic analysis provided a set of microbial genera, of which, 12 were the main responsible for fridge contaminations. The respondents' objective knowledge of hygiene practices was found to be significantly related to stated practices, whereas there was no significant result in combination with observed ones. Therefore, with limited sample dimension, theoretical knowledge showed a stronger relation to stated practices, whereas it did not always reflect real-life habits. However, the direction of correlations suggests that improving consumer knowledge of good hygiene practices through more practical awareness-raising actions, could reduce food contamination and the risk of food-borne illnesses. Finally, the application of the multivariate analyses allowed the observation of two clusters with different characteristics in terms of genera composition and consumers habits (such as refrigerator's temperature checking and food arrangement in it). Thus, such an innovative approach led to identifying the putative factors which are the most in relation with microbial contamination/general composition of fridges. Nonetheless, the combination of microbiological methods with the social evaluation of consumers could provide useful insights to tackle the causes of food contamination.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2022.850720</t>
-  </si>
-  <si>
     <t>In the United States, due to the limited information about the microbial quality and safety of fresh produce after the labeled open dates, unnecessary discarding of fresh produce in good conditions and food loss have been caused. The aim of this study was to address this knowledge gap and evaluate the microbial quality of commercial chopped Romaine lettuce (RL) on the “Use By” dates (UBD) and 5 days after the “Use By” dates (UBD5). The microbial quality was evaluated using culture-dependent and culture-independent methods. Three brands of RL samples, from early and late harvest seasons, were purchased from local grocery stores and stored at 4°C until 5 days after their UBD. On the UBD and UBD5, bagged lettuce was opened, homogenized, diluted, and plated onto plate count agar and anaerobic agar to obtain total aerobic plate counts (APC) and total anaerobic plate counts (AnPC). For the culture-independent method, DNA was extracted from each sample homogenate and used for 16S rRNA gene sequencing. The culture-dependent results showed that there was no significant change in APC or AnPC between UBD and UBD5 samples. The APC and AnPC ranged from 5.71 ± 0.74 to 7.89 ± 0.10 Log CFU/g and 1.75 ± 0.08 to 7.32 ± 0.61 Log CFU/g, respectively. No significant difference in alpha diversity, based on observed features and Shannon index values, was detected between UBD and UBD5 samples using 16S rRNA sequencing. Similarly, no difference was observed in beta diversity based on the Jaccard distance matrixes and the weighted Unifrac distance matrixes. Taxonomic analysis revealed 128 genera in all RL samples. The top five genera were Pseudomonas (with relative abundance ranging from 16.47 to 92.72%), Serratia (0–52.35%), Weissella (0–42.42%), Pantoea (0.17–21.33%), and Lactococcus (0–24.30%). The differential abundance analysis based on the ANCOM test showed that no bacteria were detected to have significantly differential abundance in RL between UBD and UBD5. In summary, both the culture-dependent and culture-independent results showed that there was no significant difference in the microbial quality of RL before and shortly after the UBD</t>
   </si>
   <si>
-    <t>https://doi.org/10.1128/msystems.00701-22</t>
-  </si>
-  <si>
     <t>Microbiomes are intricately intertwined with human health, geochemical cycles, and food production. While many microbiomes of interest are highly complex and experimentally intractable, cheese rind microbiomes have proven to be powerful model systems for the study of microbial interactions. To provide a more comprehensive view of the genomic potential and temporal dynamics of cheese rind communities, we combined longitudinal, multi-platform metagenomics of three ripening washed-rind cheeses with whole-genome sequencing of community isolates. Sequencing-based approaches revealed a highly reproducible microbial succession in each cheese and the coexistence of closely related Psychrobacter species and enabled the prediction of plasmid and phage diversity and their host associations. In combination with culture-based approaches, we established a genomic catalog and a paired 16-member in vitro washed-rind cheese system. The combination of multi-platform metagenomic time-series data and an in vitro model provides a rich resource for further investigation of cheese rind microbiomes both computationally and experimentally. IMPORTANCE Metagenome sequencing can provide great insights into microbiome composition and function and help researchers develop testable hypotheses. Model microbiomes, such as those composed of cheese rind bacteria and fungi, allow the testing of these hypotheses in a controlled manner. Here, we first generated an extensive longitudinal metagenomic data set. This data set reveals successional dynamics, yields a phyla-spanning bacterial genomic catalog, associates mobile genetic elements with their hosts, and provides insights into functional enrichment of Psychrobacter in the cheese environment. Next, we show that members of the washed-rind cheese microbiome lend themselves to in vitro community reconstruction. This paired metagenomic data and in vitro system can thus be used as a platform for generating and testing hypotheses related to the dynamics within, and the functions associated with, cheese rind microbiomes.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.foodres.2022.112007</t>
-  </si>
-  <si>
     <t>Salame Piemonte is a dry-fermented meat product typical of the Piedmont region in Italy, manufactured using commercial starter cultures. This study aimed to select autochthonous starter cultures (ASCs) that could be used for sausage fermentation in order to strengthen the link with the geographical area of production and improve the sensory properties of the final product. A culture-dependent approach was adopted during three different spontaneous sausage fermentation processes to isolate and characterise the main bacterial resources involved. Dominant lactic acid bacteria (LAB) in each batch were Pediococcus pentosaceus, Latilactobacillus sakei, and Latilactobacillus curvatus; Staphylococcus xylosus was the most dominant coagulase-negative staphylococci (CNS) in all the studied batches. LAB and presumptive CNS isolates were further evaluated for their physiological properties and biotechnological potential. Thereafter, 11 strains were selected and evaluated for safety. Five selected strains (two P. pentosaceus, two L. sakei, and one S. xylosus strain) were used for pilot-scale Salame Piemonte production with seven different strain combinations. Based on the liking test, three ASC combinations led to the highest liking score compared to industrial products. These three ASCs were then used for the second pilot-scale sausage production confirming the high liking score. In summary, the use of P. pentosaceus and S. xylosus ASC significantly improved product sensory properties compared with that obtained using commercial starter cultures.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2022.1101515</t>
-  </si>
-  <si>
     <t>The knowledge about the microbial diversity of different olives varieties from diverse regions in the Mediterranean basin is limited. This work aimed to determine the microbial diversity of three different fermented olive varieties, collected from different regions in Cyprus, via Next Generation Sequencing (NGS) analysis. Olives were spontaneously fermented for 120 days, microbial DNA was extracted from the final products, and subjected to 16S rRNA gene and ITS1 loci metabarcoding analysis for the determination of bacterial and fungal communities, respectively. Results revealed that the bacterial profile of the studied varieties was similar, while no noteworthy differences were observed in olives from different regions. The bacterial profile was dominated by the co-existence of Lactobacillus and Streptococcus, while the genera Lactococcus and Salinivibrio and the family Leuconostocaceae were also present in increased relative abundances. Regarding fungal communities, the analysis indicated discrimination among the different varieties, especially in Kalamata ones. The most abundant fungi were mainly the genera Aspergillus, Botryosphaeria, Meyerozyma, and Zygosaccharomyces for Cypriot olives, the genera Botryosphaeria, Saccharomyces, Geosmithia, and Wickeromyces for Kalamata variety, while the dominant fungi in the Picual variety were mainly members of the genera Candida, Penicillium, Saccharomyces, Hanseniospora and Botryosphaeria. Potential microbial biomarkers that distinguish the three varieties are also proposed. Moreover, interaction networks analysis identified interactions among the key taxa of the communities. Overall, the present work provides useful information and sheds light on an understudied field, such as the comparison of microbiota profiles of different varieties from several regions in Cyprus. The study enriches our knowledge and highlights the similarities and the main differences between those aspects, booming in parallel the need for further works on this frontier, in the attempt to determine potentially olives’ microbial terroir in Cyprus. Our work should be used as a benchmark for future works in this direction.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2023.110111</t>
-  </si>
-  <si>
     <t>The microbial ecologies of fish, such as the olive flounder (Paralichthys olivaceus), one of the most widely consumed fish in East Asia, remain to be elucidated. The microbiome of olive flounder and related environmental samples (i.e., feed, water, workers' aprons and gloves) were collected from six different sources (i.e., a fish farm, a transporting truck, a Wando market and restaurant, and a Seoul market and restaurant). These samples (n = 102) were investigated at various farm-to-distribution stages based on their 16S rRNA sequences. The microbial communities of fish from the farms and trucks were dominated by Photobacterium (&gt;86 %) and showed distinct differences from fish from the Wando and Seoul markets and restaurants. There was also a significant difference in fish microbiomes according to geographical location. The relative abundances of Shewanella, Acinetobacter, Enterobacteriaceae, and Pseudomonas increased as the distribution and consumption stages of the supply chain advanced. The percentages of Shewanella (24.74 %), Acinetobacter (18.32 %), and Enterobacteriaceae (11.24 %) in Wando, and Pseudomonas (42.98 %) in Seoul markets and restaurants implied the importance of sanitation control in these areas. Alpha and beta diversity results corresponded to taxonomic analyses and showed the division of two groups (i.e., fish from the production and transporting stage (farm and truck fish) and fish from the distribution and consumption stages (market and restaurant fish)). The present study provides an in-depth understanding of olive flounder and its environmental microbiomes and suggests control measures to improve food safety.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.ijfoodmicro.2022.109917</t>
-  </si>
-  <si>
     <t>The annual consumption and production of oyster mushrooms (Pleurotus ostreatus) have continued to rise due to its nutritive and health-promoting benefits. Cultivated mushrooms are mostly grown in small to medium-scaled scale production plants that present hygienic challenges which could, in turn, increase associated foodborne pathogenic outbreaks. The present study aimed to investigate the shift in microbial ecologies of oyster mushrooms from pre-distribution (cultivation in bottles or on shelves) to post-distribution at supermarkets and open-air markets. Aerobic plate counts and coliforms were quantified using traditional microbiological techniques, and the microbiome associated with oyster mushrooms (n = 70) was analyzed using 16S rRNA amplicon sequencing for an enhanced level of bacterial microbiota profiling. Overall, coliforms recovered from pre-distribution bottle-cultivated mushrooms were 1.9 log CFU/g higher (p &lt; 0.05) than that of shelf-cultivated mushrooms. The mean aerobic plate counts of oyster mushrooms distributed to open-air markets was 1.2 log CFU/g higher (p &lt; 0.05) than packaged mushrooms from supermarkets while there were no significant differences in coliform counts. The pattern of bacterial composition differed by post-distribution channels, with oyster mushrooms collected from the open-air markets demonstrating the richest microbiome diversity. An increase in the relative abundance of Enterobacteriaceae (55–68 %) and Pseudomonadaceae (27–35 %) was observed in pre- and post-distribution mushrooms, respectively. However, no distinct bacterial microbiota differences were observed for the different cultivation methods or different geographical locations for each market type. The current findings add to our understanding of the effects of cultivation methods and commercial distribution channels regarding the microbiome of oyster mushrooms and may inform potential intervention strategies for future production and distribution processes. Furthermore, the tandem analyses of culture-dependent and culture-independent methods can provide more comprehensive information than that obtained when using each approach independently.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fbio.2022.102077</t>
-  </si>
-  <si>
     <t xml:space="preserve">Table olives (Olea europaea L.) are one of the most important fermented vegetables worldwide, whereas sea fennel (Crithmum maritimum L.) represents an emerging food crop, characterized by interesting nutritional and sensory qualities. Both are characterized by a high concentration of bioactive compounds with health beneficial effects. Thanks to these features, table olives and sea fennel undoubtedly represent two valuable ingredients for the manufacture of innovative vegetable preserves. Given these premises, the present study was aimed at exploring the co-fermentation of green olives and sea fennel to produce laboratory-scale prototypes of innovative high value preserves. To this end, the effects of two recipes, two standard methods for production of table olives, and two fermentation microbiota (resident or inoculated) were assessed. The prototypes were evaluated for their microbial dynamics as well as for key sensory traits by a panel of trained assessors. During the fermentation, all the prototypes showed a progressive pH reduction. Mesophilic lactobacilli, mesophilic lactococci, and yeasts were the main microbial groups at the end of the fermentation, while Enterobacteriaceae decreased during fermentation. Metataxonomic analysis revealed an evolution of the microbiota, with Lactiplantibacillus plantarum dominating in all the prototypes in the late stage of fermentation, irrespective of the recipe, processing method, and starter inoculation. A greater crunchiness and lower fibrousness were perceived in the Greek style prototypes, which were preferred than Spanish style prototypes by trained </t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/foods11182775</t>
-  </si>
-  <si>
     <t>Bacteria are an important part of wine ‘microbial terroir’ and contribute to the formation of wine flavor. Based on high-throughput sequencing and non-targeted metabonomic technology, this study first explored the bacterial composition and its effect on the aroma formation of spontaneously fermented ‘Cabernet Sauvignon’ (CS) wine in the Eastern Foot of Helan Mountain (EFHM), Ningxia. The results showed that there were significant differences in bacterial communities during fermentation of CS grapes harvested from different sub-regions of EFHM, with the earlier-established vineyard obtaining more species. The level of bacterial diversity initially decreased and then increased as the fermentation proceeded. Malolactic fermentation (MLF) was spontaneously initiated during alcohol fermentation (AF). Pantoea, Lactobacillus, Rhodococcus, Fructobacillus, and Komagataeibacter were the core bacterial genera in the fermentation mixture. Lactobacillus contributed to the synthesis of methyl and isobutyl esters and the formation of red and black fruity fragrances of wine. Fructobacillus was closely related to the synthesis of aromatic alcohols and the generation of floral flavors.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2022.104154</t>
-  </si>
-  <si>
     <t>Wooden vats are used in the production of some traditional cheeses as the biofilms on wooden vat surfaces are known to transfer large quantities of microbes to cheese. However, very few studies have investigated the microbial composition of biofilms on newly developed wooden vats and how communities assemble and evolve. In the present study, the microbial communities of biofilms were characterized over the activation process on new wooden vats using amplicon sequencing of bacterial 16s rRNA and fungal internal transcribed spacer genes. Results showed that microbes from the whey effectively developed on wooden vats. Lactococcus was highly dominant throughout the vat activation process with substantial increases in the relative abundance of Acetobacter and Lactobacillus at the end of the vat activation (day 7). This was in contrast with fungal communities that stabilized early (day 1) and were dominated by Kluyveromyces. Predicted functions corresponded with the different stages of biofilm formation whereby functions associated with biofilm initiation were enriched on day 1 and those associated with growth and maturation were enriched on days 4 and 7. Microbial succession on wooden vat surfaces is expected to be reproducible based on the early onset and dominance of the deterministic process.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/microorganisms11030803</t>
-  </si>
-  <si>
     <t>Sourdoughs (SDs) are spontaneously formed microbial ecosystems composed of various species of lactic acid bacteria (LAB) and acid-tolerant yeasts in food matrices of cereal flours mixed with water. To date, more than 90 LAB species have been isolated, significantly impacting the organoleptic characteristics, shelf life, and health properties of bakery products. To learn more about the unique bacterial communities involved in creating regional Bulgarian sourdoughs, we examined the metacommunities of five sourdoughs produced by spontaneous fermentation and maintained by backslopping in bakeries from three geographic locations. The 16S rRNA gene amplicon sequencing showed that the former genus Lactobacillus was predominant in the studied sourdoughs (51.0–78.9%). Weissella (0.9–42.8%), Herbaspirillum (1.6–3.8%), Serratia (0.1–11.7%), Pediococcus (0.2–7.5%), Bacteroides (0.1–1.3%), and Sphingomonas (0.1–0.5%) were also found in all 5 samples. Genera Leuconostoc, Enterococcus, Bacillus, and Asaia were sample-specific. It is interesting to note that the genus Weissella was more abundant in wholegrain samples. The greatest diversity at the species level was found in the former genus Lactobacillus, presented in the sourdough samples with 13 species. The UPGMA cluster analysis clearly demonstrated similarity in species’ relative abundance between samples from the same location. In addition, we can conclude that the presence of two main clusters—one including samples from mountainous places (the cities of Smolyan and Bansko) and the other including samples from the city of Ruse (the banks of the Danube River)—may indicate the impact of climate and geographic location (e.g., terrain, elevation, land use, and nearby water bodies and their streams) on the abundance of microbiome taxa. As the bacterial population is crucial for bread standardization, we expect the local bakery sector to be interested in the relationship between process variables and their effect on bacterial dynamics described in this research study.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2023.104307</t>
-  </si>
-  <si>
     <t>Button mushrooms (Agaricus bisporus), are one of the most widely consumed mushrooms in the world. However, changes within its microbial community as it relates to the use of different raw materials and cultivation methods, as well as potential points of microbial contamination throughout the production process have not been investigated extensively. In the present study, button mushroom cultivation was investigated in each of the four stages (raw materials, composting (phase I, Ⅱ, and Ⅲ), casing, and harvesting), and samples (n = 186) from mushrooms and their related environments were collected from four distinct mushroom-growing farms (A–D) in Korea. Shifts within the bacterial consortium during mushroom production were characterized with 16 S rRNA amplicon sequencing. The succession of bacterial communities on each farm was dependent on the raw material incorporated, aeration, and the farm environment. The dominant phyla of the compost stack at the four farms were Pseudomonadota (56.7%) in farm A, Pseudomonadota (43.3%) in farm B, Bacteroidota (46.0%) in farm C, and Bacillota (62.8%) in farm D. During the Phase Ⅰ, highly heat-resistant microbes, such as those from the phylum Deinococcota (0.6–65.5%) and the families Bacillaceae (1.7–36.3%), Thermaceae (0.1–65.5%), and Limnochordaceae (0.3–30.5%) greatly proliferated. The microbial diversity within compost samples exhibited a marked decline as a result of the proliferation of thermophilic bacteria. In the spawning step, there were considerable increases in Xanthomonadaceae in the pasteurized composts of farms C and D – both of which employed an aeration system. In the harvesting phase, beta diversity correlated strongly between the casing soil layer and pre-harvest mushrooms, as well as between gloves and packaged mushrooms. The results suggest that gloves may be a major source of cross-contamination for packaged mushrooms, highlighting the need for enhanced hygienic practices during the harvesting phase to ensure product safety. These findings contribute to the current understanding of the influence of environmental and adjacent microbiomes on mushroom products to benefit the mushroom industry and relevant stakeholders by ensuring quality production.</t>
   </si>
   <si>
@@ -1444,25 +1447,28 @@
     <t>https://doi.org/10.3390/jof8101034</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.fm.2023.104286</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2022.919047</t>
+  </si>
+  <si>
     <t>Microbial diversity in vineyards and in grapes has generated significant scientific interest. From a biotechnological perspective, vineyard and grape biodiversity has been shown to impact soil, vine, and grape health and to determine the fermentation microbiome and the final character of wine. Thus, an understanding of the drivers that are responsible for the differences in vineyard and grape microbiota is required. The impact of soil and climate, as well as of viticultural practices in geographically delimited areas, have been reported. However, the limited scale makes the identification of generally applicable drivers of microbial biodiversity and of specific microbial fingerprints challenging. The comparison and meta-analysis of different datasets is furthermore complicated by differences in sampling and in methodology. Here we present data from a wide-ranging coordinated approach, using standardized sampling and data generation and analysis, involving four countries with different climates and viticultural traditions. The data confirm the existence of a grape core microbial consortium, but also provide evidence for country-specific microbiota and suggest the existence of a cultivar-specific microbial fingerprint for Cabernet Sauvignon grape. This study puts in evidence new insight of the grape microbial community in two continents and the importance of both location and cultivar for the definition of the grape microbiome.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2023.104286</t>
-  </si>
-  <si>
     <t>Microbial community and volatilome of brines were monitored during the spontaneous fermentations of Spanish-style and Natural-style green table olives from Manzanilla cultivar. Fermentation of olives in the Spanish style was carried out by lactic acid bacteria (LAB) and yeasts, whereas halophilic Gram-negative bacteria and archaea, along with yeasts, drove the fermentation in the Natural style. Clear differences between the two olive fermentations regarding physicochemical and biochemical features were found. Lactobacillus, Pichia, and Saccharomyces were the dominant microbial communities in the Spanish style, whereas Allidiomarina, Halomonas, Saccharomyces, Pichia, and Nakazawaea predominated in the Natural style. Numerous qualitative and quantitative differences in individual volatiles between both fermentations were found. The final products mainly differed in total amounts of volatile acids and carbonyl compounds. In addition, in each olive style, strong positive correlations were found between the dominant microbial communities and various volatile compounds, some of them previously reported as aroma-active compounds in table olives. The findings from this study provide a better understanding of each fermentation process and may help the development of controlled fermentations using starter cultures of bacteria and/or yeasts for the production of high-quality green table olives from Manzanilla cultivar.</t>
   </si>
   <si>
+    <t>Due to changes in climatic conditions in Poland interest in viticulture and wine production has considerably boosted. One of the worldwide trends in winemaking is use of indigenous strains of yeast and lactic acid bacteria (LAB). The aim of the study was to analyse the microbial diversity of Polish red wines and their key properties and combine them for better understanding of the processes responsible for creating the sensory attributes. Metagenetic analysis was used to characterise the bacterial and yeast diversity of wines produced by spontaneous fermentation of grapes of the Regent variety, which came from three vineyards: “Dom Bliskowice” (DB), “Małe Dobre” (MD), and “Winnica Janowiec” (WJ). Among bacteria, Tatumella ptyseos was the most abundant species in DB and WJ wines and Leuconostoc pseudomesenteroides was the most abundant in MD wine. Among yeasts, Saccharomyces cerevisiae was found in DB and WJ wines, Saccharomyces cariocanus in MD wine, and Hanseniaspora uvarum in all samples studied. Studied wines had statistically significantly different antioxidant capacities and distinct glucose, fructose, and lactic acid concentrations. The presence of acetic and lactic acid bacteria was positively related to the concentrations of acetic and lactic acid, respectively, while the lack of malic acid was indicative of malolactic fermentation. This knowledge may be useful in the development of unique local starter cultures for the production of wines with specific characteristics.</t>
+  </si>
+  <si>
+    <t>Flat peaches possess characteristic flavors and are rich in nutrients. The fermentation of flat peaches to produce wine through complex biochemical reactions is an effective method to overcome their seasonal defects. Spontaneously fermented flat peach wine has plentiful and strong flavors, but the microbiota of fermentation are still unknown. In this study, the microbial succession and volatile compound dynamics of spontaneous fermentation in Xinjiang flat peach wine were investigated using high-throughput sequencing (HTS) and headspace solid phase microextraction (HS-SPME) coupled with gas chromatography-mass spectrometry (GC-MS) technology, respectively, to better understand the microbiota involved. Multivariate data analysis was used to predict the relationship between microorganisms and volatile chemicals. The results showed that Kazachstania, Pichia, Aspergillus, Fructobacillus, Leuconostoc, and Lactobacillus were the dominant genera during the spontaneous fermentation of flat peach wine. Furthermore, ethyl hexanoate, 3-hexen-1-yl acetate, ethyl caprate, ethyl caprylate, phenethyl acetate, ethanol, γ-decalactone, decanal, 1-hexanoic acid, and octanoic acid endued flat peach wine with a strong fruity and fatty aroma. The core functional microbiota (primarily consisting of 11 bacterial and 14 fungal taxa) was strongly associated with the production of 27 volatile compounds in the spontaneously fermented flat peach wine, according to multivariate data analysis. Some alcohols and esters were positively linked with the presence of Kazachstania and Pichia. Meanwhile, the presence of Fructobacillus, Leuconostoc, Lactobacillus, and Weissella was significantly correlated with 2-non-anol, ethanol, 3-methyl-1-butanol, octyl formate, isoamyl lactate, and ethyl lactate. This snapshot of microbial succession and volatile compound dynamics provides insights into the microorganisms involved in flat peach wine fermentation and could guide the production of flat peach wine with desirable characteristics.</t>
+  </si>
+  <si>
     <t>https://doi.org/237</t>
   </si>
   <si>
-    <t>Due to changes in climatic conditions in Poland interest in viticulture and wine production has considerably boosted. One of the worldwide trends in winemaking is use of indigenous strains of yeast and lactic acid bacteria (LAB). The aim of the study was to analyse the microbial diversity of Polish red wines and their key properties and combine them for better understanding of the processes responsible for creating the sensory attributes. Metagenetic analysis was used to characterise the bacterial and yeast diversity of wines produced by spontaneous fermentation of grapes of the Regent variety, which came from three vineyards: “Dom Bliskowice” (DB), “Małe Dobre” (MD), and “Winnica Janowiec” (WJ). Among bacteria, Tatumella ptyseos was the most abundant species in DB and WJ wines and Leuconostoc pseudomesenteroides was the most abundant in MD wine. Among yeasts, Saccharomyces cerevisiae was found in DB and WJ wines, Saccharomyces cariocanus in MD wine, and Hanseniaspora uvarum in all samples studied. Studied wines had statistically significantly different antioxidant capacities and distinct glucose, fructose, and lactic acid concentrations. The presence of acetic and lactic acid bacteria was positively related to the concentrations of acetic and lactic acid, respectively, while the lack of malic acid was indicative of malolactic fermentation. This knowledge may be useful in the development of unique local starter cultures for the production of wines with specific characteristics.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fmicb.2022.919047</t>
-  </si>
-  <si>
-    <t>Flat peaches possess characteristic flavors and are rich in nutrients. The fermentation of flat peaches to produce wine through complex biochemical reactions is an effective method to overcome their seasonal defects. Spontaneously fermented flat peach wine has plentiful and strong flavors, but the microbiota of fermentation are still unknown. In this study, the microbial succession and volatile compound dynamics of spontaneous fermentation in Xinjiang flat peach wine were investigated using high-throughput sequencing (HTS) and headspace solid phase microextraction (HS-SPME) coupled with gas chromatography-mass spectrometry (GC-MS) technology, respectively, to better understand the microbiota involved. Multivariate data analysis was used to predict the relationship between microorganisms and volatile chemicals. The results showed that Kazachstania, Pichia, Aspergillus, Fructobacillus, Leuconostoc, and Lactobacillus were the dominant genera during the spontaneous fermentation of flat peach wine. Furthermore, ethyl hexanoate, 3-hexen-1-yl acetate, ethyl caprate, ethyl caprylate, phenethyl acetate, ethanol, γ-decalactone, decanal, 1-hexanoic acid, and octanoic acid endued flat peach wine with a strong fruity and fatty aroma. The core functional microbiota (primarily consisting of 11 bacterial and 14 fungal taxa) was strongly associated with the production of 27 volatile compounds in the spontaneously fermented flat peach wine, according to multivariate data analysis. Some alcohols and esters were positively linked with the presence of Kazachstania and Pichia. Meanwhile, the presence of Fructobacillus, Leuconostoc, Lactobacillus, and Weissella was significantly correlated with 2-non-anol, ethanol, 3-methyl-1-butanol, octyl formate, isoamyl lactate, and ethyl lactate. This snapshot of microbial succession and volatile compound dynamics provides insights into the microorganisms involved in flat peach wine fermentation and could guide the production of flat peach wine with desirable characteristics.</t>
+    <t>Palm wine fermentation is a complex microbial process that evolves with tapping times. The dynamics in microbiota and metabolites throughout palm wine tapping days is still not established, which are critical for the distinctive characteristics of palm wine taste and quality, and thus the mastery of the daily quality fluctuation during tapping. We analyzed the changes in microbial community structure by amplicon sequencing of bacterial 16S rRNA gene and fungal internal transcribed spacer (ITS) region, and metabolite profile changes using mass spectrometry in palm wine collected over 25–30 days tapping of ron (Borassus aethiopum) and oil palms (Elaeis guineensis) from Côte d’Ivoire. The stage-wise collected palm wine samples showed distinct changes in microbial diversity and pH, supporting microbial community dynamics during palm wine tapping. Results highlighted the dominance of Saccharomyces cerevisiae in early stages and the emergence of non-Saccharomyces yeasts, particularly Hanseniaspora spp. in the later stages of oil palm wine tapping, vice versa in the case of ron palm wine tapping, with a unique presence of Saccharomycodes in the later stages (15–30 days). Fructophilic lactic acid bacteria (FLAB), mainly Fructobacillus and Leuconostoc, encountered in both types of palm wine tapping showed a decline at later stages of oil palm wine tapping. In this type of palm wine, acetic acid bacteria with genera Acetobacter and Glucanoacetobacter, by surpassing Lactobacillus in the last stage become dominant, whereas Lactobacillus remained dominant in ron palm wine throughout tapping days. The decline in the relative abundance of gevotroline and essential amino acids during the later stages of palm wine tapping (15–25 days) supports the difference in the health benefits of the palm wine obtained from different days of tapping, indicating that early stages of tapping is more nutritional and healthy than the later stages. The microbial dynamics may be a potential indicator of metabolite changes during palm sap fermentation, thus contributing to establish particular features of palm wines in different stages of tapping. This understanding of microbial ecology and chemical composition changes during palm wine tapping can be used as biomarkers to assess palm wine’s quality and help to design an optimum starter culture.</t>
   </si>
   <si>
     <t>https://doi.org/10.1016/j.foodres.2021.110344</t>
@@ -1471,9 +1477,6 @@
     <t>https://doi.org/10.3389/fmicb.2022.954917</t>
   </si>
   <si>
-    <t>Palm wine fermentation is a complex microbial process that evolves with tapping times. The dynamics in microbiota and metabolites throughout palm wine tapping days is still not established, which are critical for the distinctive characteristics of palm wine taste and quality, and thus the mastery of the daily quality fluctuation during tapping. We analyzed the changes in microbial community structure by amplicon sequencing of bacterial 16S rRNA gene and fungal internal transcribed spacer (ITS) region, and metabolite profile changes using mass spectrometry in palm wine collected over 25–30 days tapping of ron (Borassus aethiopum) and oil palms (Elaeis guineensis) from Côte d’Ivoire. The stage-wise collected palm wine samples showed distinct changes in microbial diversity and pH, supporting microbial community dynamics during palm wine tapping. Results highlighted the dominance of Saccharomyces cerevisiae in early stages and the emergence of non-Saccharomyces yeasts, particularly Hanseniaspora spp. in the later stages of oil palm wine tapping, vice versa in the case of ron palm wine tapping, with a unique presence of Saccharomycodes in the later stages (15–30 days). Fructophilic lactic acid bacteria (FLAB), mainly Fructobacillus and Leuconostoc, encountered in both types of palm wine tapping showed a decline at later stages of oil palm wine tapping. In this type of palm wine, acetic acid bacteria with genera Acetobacter and Glucanoacetobacter, by surpassing Lactobacillus in the last stage become dominant, whereas Lactobacillus remained dominant in ron palm wine throughout tapping days. The decline in the relative abundance of gevotroline and essential amino acids during the later stages of palm wine tapping (15–25 days) supports the difference in the health benefits of the palm wine obtained from different days of tapping, indicating that early stages of tapping is more nutritional and healthy than the later stages. The microbial dynamics may be a potential indicator of metabolite changes during palm sap fermentation, thus contributing to establish particular features of palm wines in different stages of tapping. This understanding of microbial ecology and chemical composition changes during palm wine tapping can be used as biomarkers to assess palm wine’s quality and help to design an optimum starter culture.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.dib.2022.108022</t>
   </si>
   <si>
@@ -1486,36 +1489,36 @@
     <t>Wine grape fungal community composition is influenced by abiotic factors including geography and vintage. Compositional differences may correlate with different wine metabolite composition and sensory profiles, suggesting a microbial role in the shaping of a wine's terroir, or regional character. While grape and wine-associated fungal community composition has been studied extensively at a regional and sub-regional scale, it has not been explored in detail on fine geographical scales over multiple harvests. Over two years, we examined the fungal communities on Vitis Vinifera cv. Pinot noir grape berry surfaces, in crushed grapes, and in lab spontaneous fermentations from three vineyards within a &lt; 1 km radius in Canada's Okanagan Valley wine region. We also evaluated the effect of winery environment exposure on fungal community composition by sampling grapes crushed and fermented in the winery at commercial scale. Spatiotemporal community structure was evident among grape berry surface, crushed grape and fermentation samples, with each vineyard exhibiting a distinct fungal community signature. Crushed grape fungal populations were richer in fermentative yeast species compared to grape berry surface fungal populations. Our study suggests that, as on a regional level, fungal populations may contribute to fine-scale -terroir,’ with significant implications for single-vineyard wines. This article explores wine-associated fungal communities from closely situated (1 km) vineyards, finding that vineyards have their own unique communities that persist during wine fermentations from those vineyards.</t>
   </si>
   <si>
+    <t>In this work, a total of 72 commercial table olive packages obtained from different international markets were analysed to determine their fungal biodiversity. Viable fungal counts ranged from the detection threshold (&lt;1.6 log10 CFU/g in 25% of cases) to a maximum of 5.86 log10 CFU/g. Assignation of fungal taxonomy was carried out through a metataxonomic analysis of the ITS region, which revealed that almost half of the total sequences obtained from all packages corresponded to the Pichia genus (44.08%), followed by Citeromyces (14.45%), Candida (8.07%), and Wickerhamomyces (6.95%). In lower proportions were also detected other genera such as Starmerella (3.60%), Saccharomyces (2.24%), Debaryomyces (2.08%), and Dekkera (2.05%). The statistical analysis allowed to link certain taxa to specific types of elaboration (lye treated, green, and black natural olives), presentation (pitted, whole, or sliced samples), and packaging material/system (glass, PET, plastic bags, and vacuum). Likewise, Zygotorulaspora genus was especially sensitive to the presence of potassium sorbate, while other genera such as Sporobolomyces, Moniliella, and Gibellulopsis were more abundant in packages treated with this preservative. Lastly, potential pathogenic fungal genera such as Alternaria, Kodamaea, Lodderomyces, Malasessia, or Aspergillus were detected in low proportions (&lt;0.3%), although with higher representation in some individual samples. Our results contribute to improving our knowledge of the fungal population associated with this ready-to-eat fermented vegetable, providing us a strong tool to assess the safety, stability, and quality of the final product.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2022.104082</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.lwt.2022.113680</t>
   </si>
   <si>
+    <t>https://doi.org/10.1371/journal.pone.0163135</t>
+  </si>
+  <si>
     <t>Microbial diversity of three typical Qu in China, Jimo wheat Qu from Shandong province (WQJM), Shaoxing wheat Qu from Zhejiang province (WQSX), and Gutian Hong Qu from Fujian province (GTHQ), was compared by Illumina-based sequencing. Then volatile compounds in rice wine were analyzed by FlavourSpec® to illustrate correlation between rice wine flavor and microbes in Qu. Results showed that the microbial diversity was WQJM &gt; WQSX &gt; GTHQ, and the dominant microbiota in each Qu varied greatly. Saccharopolyspora, Staphylococcus and Aspergillus were the main microorganisms in WQSX. Microbes in WQJM distributed relatively even, and Pantoea, Bacillus, Pediococcus, Staphylococcus, Weissella, Aspergillus, Rhizopus, Thermoascus, and Saccharomyces were dominated. In GTHQ, Pantoea, Klebsiella, Burkholderia, and Monascus were major microbial floras. Correlation analysis indicated that Corynebacterium, Klebsiella, Pantoea, Wickerhamomyces, and Mucor in WQSX were mainly correlated with producing esters including ethyl hexanoate, isoamyl acetate, ethyl pyruvate. Brevibacterium, Klebsiella, Brachybacterium, Aspergillus, Penicillium, and Xeromyces in WQJM were strongly related with aldehydes, alcohols and ketones represented by benzaldehyde, ethanol, heptan-2-one. In GTHQ, Burkholderia, Weissella, Aspergillus, Candida, Davidiella, Alternaria and Saccharomyces were closely correlated with butan-1-ol, 2-pentanone, dimethyl sulfide. The different microbiota in Qu caused variation of metabolism during brewing, and lead to the distinguished flavor of rice wine.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1371/journal.pone.0163135</t>
-  </si>
-  <si>
     <t>Nowadays, our knowledge of the fungal biodiversity in fermented vegetables is limited although these microorganisms could have a great influence on the quality and safety of this kind of food. This work uses a metagenetic approach to obtain basic knowledge of the fungal community ecology during the course of fermentation of natural Aloreña de Málaga table olives, from reception of raw material to edible fruits. For this purpose, samples of brines and fruits were collected from two industries in Guadalhorce Valley (Málaga, Spain) at different moments of fermentation (0, 7, 30 and 120 days). The physicochemical and microbial counts performed during fermentation showed the typical evolution of this type of processes, mainly dominated by yeasts in apparent absence of Enterobacteriaceae and Lactobacillaceae. High-throughput barcoded pyrosequencing analysis of ITS1-5.8S-ITS2 region showed a low biodiversity of the fungal community, with the presence at 97% identity of 29 different fungal genera included in 105 operational taxonomic units (OTUs). The most important genera in the raw material at the moment of reception in the industry were Penicillium, Cladosporium, Malassezia, and Candida, whilst after 4 months of fermentation in brines Zygotorulaspora and Pichia were predominant, whereas in fruits were Candida, Penicillium, Debaryomyces and Saccharomyces. The fungal genera Penicillium, Pichia, and Zygotorulaspora were shared among the three types of substrates during all the course of fermentation, representing the core fungal population for this table olive specialty. A phylogenetic analysis of the ITS sequences allowed a more accurate assignment of diverse OTUs to Pichia manshurica, Candida parapsilosis/C. tropicalis, Candida diddensiae, and Citeromyces nyonensis clades. This study highlights the existence of a complex fungal consortium in olive fermentations including phytopathogenic, saprofitic, spoilage and fermentative genera. Insights into the ecology, identification and quantification of fungi species in olive fermentation will facilitate the design of new strategies to improve the quality and safety of this fermented vegetable.</t>
   </si>
   <si>
     <t>This study aimed at investigating the influence of the process environment and raw materials as sources of microorganisms during Nyons black table olive fermentations. Fermented olives and/or brine from spoiled fermentation tanks were analyzed and compared to good quality samples from fermentations collected during 3 consecutive harvest years. Fresh olives, salt and different process environment samples were also analyzed. Microbial diversity of all samples was analyzed using 16S and ITS2 amplicon sequencing and SourceTracker tool was used to investigate links between environment, raw materials and fermentation samples. First, comparison of microbial diversity in control and most spoiled fermentations revealed striking differences in bacterial composition with an overall higher diversity in spoiled fermentations especially for lactic acid bacteria with Lentilactobacillus buchneri, Lentilactobacillus parafarraginis dominating in brine and Pediococcus parvulus, Pediococcus ethanolidurans dominating in olive fruits. Fungal communities were similar in composition although higher abundances of Pichia membranifaciens and Penicillium carneum/roqueforti were observed in spoiled samples. Secondly, process environment samples were characterized by high bacterial and fungal diversity, especially compared to fresh olive fruits. Overall, dominant fungal species in control fermentations were also found in most environmental samples revealing a “house mycobiota”. SourceTracker analysis further highlighted the contribution of brine and water from the optical sorter as a source of fungi. Most interestingly, spoilage fungi and most bacteria were retrieved in brine and environmental samples while others such as P. ethanolidurans were only found in environmental samples indicating that the studied spoilage originated from a fermentation deviation rather than a punctual contamination. Taken altogether, these results highlighted the positive and negative influence of the process environment and emphasized the relevance of studying it to better understand microbial vectors occurring during food fermentations, especially natural ones.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.fm.2022.104082</t>
-  </si>
-  <si>
-    <t>In this work, a total of 72 commercial table olive packages obtained from different international markets were analysed to determine their fungal biodiversity. Viable fungal counts ranged from the detection threshold (&lt;1.6 log10 CFU/g in 25% of cases) to a maximum of 5.86 log10 CFU/g. Assignation of fungal taxonomy was carried out through a metataxonomic analysis of the ITS region, which revealed that almost half of the total sequences obtained from all packages corresponded to the Pichia genus (44.08%), followed by Citeromyces (14.45%), Candida (8.07%), and Wickerhamomyces (6.95%). In lower proportions were also detected other genera such as Starmerella (3.60%), Saccharomyces (2.24%), Debaryomyces (2.08%), and Dekkera (2.05%). The statistical analysis allowed to link certain taxa to specific types of elaboration (lye treated, green, and black natural olives), presentation (pitted, whole, or sliced samples), and packaging material/system (glass, PET, plastic bags, and vacuum). Likewise, Zygotorulaspora genus was especially sensitive to the presence of potassium sorbate, while other genera such as Sporobolomyces, Moniliella, and Gibellulopsis were more abundant in packages treated with this preservative. Lastly, potential pathogenic fungal genera such as Alternaria, Kodamaea, Lodderomyces, Malasessia, or Aspergillus were detected in low proportions (&lt;0.3%), although with higher representation in some individual samples. Our results contribute to improving our knowledge of the fungal population associated with this ready-to-eat fermented vegetable, providing us a strong tool to assess the safety, stability, and quality of the final product.</t>
-  </si>
-  <si>
     <t>Spontaneously fermented Ethiopian honey wine, Tej, is a popular alcoholic beverage in Ethiopia. However, a detailed information which is needed to modernized the production process of this traditional beverage has not yet been conducted. Thus, this paper is aimed to reveal the physicochemical and microbial dynamics occurred during Tej fermentation processes. To address this objective, Tej samples was collected every 48 h from three households located at three different cities of Ethiopia. As fermentation progressed, pH, glucose, and fructose content decreased, whereas, titratable acidity and alcohol content increased. Likewise, antioxidant activity, especially 3-ethylbenzothiazoline-6-sulfonic acid diammonium salt (ABTS) assay, increased as the fermentation progressed to final stages. Moreover, the bacterial communities shifted to Lactobacillus dominancy as the fermentation progress to the end. Furthermore, during the whole fermentation period, fungal communities were practically dominated by Saccharomyces species. Due to these dominances microbial diversity decreased toward the end of fermentation. Besides, quantitative increases in both microbial communities were observed during Tej fermentation periods. However, fungal gene copy numbers were by half higher than bacterial gene copy numbers. In conclusion, Species of Lactobacillus and Saccharomyces could be taken as a potential mixed starter culture candidates for inoculated Tej fermentation systems.</t>
   </si>
   <si>
+    <t>This study uses an “omics” approach to evaluate the bacterial biodiversity changes during fermentation process of natural green cracked Aloreña de Málaga table olives, from raw material to fermented fruit. For this purpose, two industries separated by almost 20km in Guadalhorce Valley (Málaga, Spain) were analysed for obtaining both brines and fruit samples at different moments of fermentation (0, 7, 30 and 120days). Physicochemical and microbial counts during fermentation showed the typical evolution of this type of processes, apparently dominated by yeasts. However, high-throughput barcoded pyrosequencing analysis of V2–V3 hypervariable region of the bacterial 16S rRNA gene showed at 97% identity the presence of 131 bacterial genera included in 357 operational taxonomic units, not detected by the conventional approach. The bacterial biodiversity was clearly higher in the olives at the moment of reception in the industry and during the first days of fermentation, while decreased considerably as elapse the fermentation process. The presence of Enterobacteriaceae and Lactobacillaceae species was scarce during the four months of study. On the contrary, the most important genus at the end of fermentation was Celerinatantimonas in both brine (95.3% of frequency) and fruit (89.4%) samples, while the presence of well-known spoilage microorganisms (Pseudomonas and Propionibacterium) and halophilic bacteria (Modestobacter, Rhodovibrio, Salinibacter) was also common during the course of fermentation. Among the most important bacterial pathogens related to food, only Staphylococcus genus was found at low frequencies (&lt;0.02% of total sequences). Results show the need of this type of studies to enhance our knowledge of the microbiology of table olive fermentations. It is also necessary to determine the role played by these species not previously detected in table olives on the quality and safety of this fermented vegetable.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2016.07.014</t>
   </si>
   <si>
-    <t>This study uses an “omics” approach to evaluate the bacterial biodiversity changes during fermentation process of natural green cracked Aloreña de Málaga table olives, from raw material to fermented fruit. For this purpose, two industries separated by almost 20km in Guadalhorce Valley (Málaga, Spain) were analysed for obtaining both brines and fruit samples at different moments of fermentation (0, 7, 30 and 120days). Physicochemical and microbial counts during fermentation showed the typical evolution of this type of processes, apparently dominated by yeasts. However, high-throughput barcoded pyrosequencing analysis of V2–V3 hypervariable region of the bacterial 16S rRNA gene showed at 97% identity the presence of 131 bacterial genera included in 357 operational taxonomic units, not detected by the conventional approach. The bacterial biodiversity was clearly higher in the olives at the moment of reception in the industry and during the first days of fermentation, while decreased considerably as elapse the fermentation process. The presence of Enterobacteriaceae and Lactobacillaceae species was scarce during the four months of study. On the contrary, the most important genus at the end of fermentation was Celerinatantimonas in both brine (95.3% of frequency) and fruit (89.4%) samples, while the presence of well-known spoilage microorganisms (Pseudomonas and Propionibacterium) and halophilic bacteria (Modestobacter, Rhodovibrio, Salinibacter) was also common during the course of fermentation. Among the most important bacterial pathogens related to food, only Staphylococcus genus was found at low frequencies (&lt;0.02% of total sequences). Results show the need of this type of studies to enhance our knowledge of the microbiology of table olive fermentations. It is also necessary to determine the role played by these species not previously detected in table olives on the quality and safety of this fermented vegetable.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3389/fmicb.2021.771636</t>
   </si>
   <si>
@@ -1525,9 +1528,6 @@
     <t>unpublished</t>
   </si>
   <si>
-    <t>effect of starter culture and brine NaCl on the bacterial and fungal microbiota dynamics in Oliva di Gaeta (cv. Itrana) PDO brines</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3389/fmicb.2017.00457</t>
   </si>
   <si>
@@ -1537,20 +1537,20 @@
     <t>https://doi.org/10.3390/foods12122386</t>
   </si>
   <si>
-    <t>Microbial and biochemical changes in the brine during the spontaneous fermentation of Gordal, Hojiblanca and Manzanilla olive cultivars processed according to the natural style were monitored. The microbial composition was assessed through a metagenomic study. Sugars, ethanol, glycerol, organic acids and phenolic compounds were quantified by standard methods. In addition, the volatile profiles, contents of phenolic compounds in the olives and quality parameters of the final products were compared. Fermentation in Gordal brines was conducted by lactic acid bacteria (mainly Lactobacillus and Pediococcus) and yeasts (mainly Candida boidinii, Candida tropicalis and Wickerhamomyces anomalus). In Hojiblanca and Manzanilla brines, halophilic Gram-negative bacteria (e.g., Halomonas, Allidiomarina and Marinobacter) along with yeasts (mainly, Saccharomyces) were responsible for the fermentation. Higher acidity and lower pH values were reached in Gordal brines compared to Hojiblanca and Manzanilla. After 30 days of fermentation, no sugars were detected in Gordal brine, but residual amounts were found in the brines from Hojiblanca (&lt;0.2 g/L glucose) and Manzanilla (2.9 g/L glucose and 0.2 g/L fructose). Lactic acid was the main acid product in Gordal fermentation, whereas citric acid was the predominant organic acid in the Hojiblanca and Manzanilla brines. Manzanilla brine samples showed a greater concentration of phenolic compounds than Hojiblanca and Gordal brines. After a 6-month fermentation, Gordal olives were superior compared to the Hojiblanca and Manzanilla varieties regarding product safety (lower final pH and absence of Enterobacteriaceae), content of volatile compounds (richer aroma), content of bitter phenolics (lower content of oleuropein, which resulted in less perceived bitterness) and color parameters (more yellow and lighter color, indicating a higher visual appraisal). The results of the present study will contribute to a better understanding of each fermentation process and could help to promote natural-style elaborations using the above-mentioned olive cultivars.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1128/msphere.00534-20</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2021.825756</t>
+  </si>
+  <si>
+    <t>Flor yeast velum is a biofilm formed by certain yeast strains that distinguishesbiologically aged wines such as Sherry wine from southern Spain from others. AlthoughSaccharomyces cerevisiaeis the most common species, 5.8 S-internal transcribedspacer (ITS) restriction fragment length polymorphism analyses have revealed theexistence of non-Saccharomycesspecies. In order to uncover the flor microbiotadiversity at a species level, we used ITS (internal transcribed spacer 1)-metabarcodingand matrix-assisted laser desorption/Ionization time of flight mass spectrometrytechniques. Further, to enhance identification effectiveness, we performed an additionalincubation stage in 1:1 wine:yeast extract peptone dextrose (YPD) before identification.Six species were identified:S. cerevisiae,Pichia manshurica,Pichia membranifaciens,Wickerhamomyces anomalus,Candida guillermondii, andTrichosporon asahii, two ofwhich were discovered for the first time (C. guillermondiiandTrichosporon ashaii) inSherry wines. We analyzed wines where non-Saccharomycesyeasts were present orabsent to see any potential link between the microbiota and the chemical profile. Only2 significant volatile chemicals (out of 13 quantified), ethanol and ethyl lactate, and2 enological parameters (out of 6 quantified), such as pH and titratable acidity, werefound to differ in long-aged wines. Although results show a low impact where the non-Saccharomycesyeasts are present, these yeasts isolated from harsh environments (highethanol and low nutrient availability) could have a potential industrial interest in fields suchas food microbiology and biofuel production</t>
   </si>
   <si>
     <t>The flavors of fermented plant foods and beverages are formed by microorganisms, and in the case of wine, the location and environmental features of the vineyard site also imprint the wine with distinctive aromas and flavors. Microbial growth and metabolism play an integral role in wine production, by influencing grapevine health, wine fermentation, and the flavor, aroma, and quality of finished wines. The contributions by which microbial distribution patterns drive wine metabolites are unclear, and while flavor has been correlated with fungal and bacterial composition for wine, bacterial activity provides fewer sensorially active biochemical conversions than fungi in wine fermentation. Here, we collected samples across six distinct wine-growing areas in southern Australia to investigate regional distribution patterns of fungi and bacteria and the association with wine chemical composition. Results show that both soil and must microbiota distinguish wine-growing regions. We found a relationship between microbial and wine metabolic profiles under different environmental conditions, in particular measures of soil properties and weather. Fungal communities are associated with wine regional distinctiveness. We found that the soil microbiome is a source of grape- and must-associated fungi and suggest that weather and soil could influence wine characteristics via the soil fungal community. Our report describes a comprehensive scenario of wine microbial biogeography where microbial diversity responds to the surrounding environment and correlates with wine composition and regional characteristics. These findings provide perspectives for thoughtful human practices to optimize food composition through understanding fungal activity and abundance.
 IMPORTANCE The composition of soil has long been thought to provide wine with characteristic regional flavors. Here, we show that for vineyards in southern Australia, the soil fungal communities are of primary importance for the aromas found in wines. We propose a mechanism by which fungi can move from the soil through the vine.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2021.825756</t>
-  </si>
-  <si>
-    <t>Flor yeast velum is a biofilm formed by certain yeast strains that distinguishesbiologically aged wines such as Sherry wine from southern Spain from others. AlthoughSaccharomyces cerevisiaeis the most common species, 5.8 S-internal transcribedspacer (ITS) restriction fragment length polymorphism analyses have revealed theexistence of non-Saccharomycesspecies. In order to uncover the flor microbiotadiversity at a species level, we used ITS (internal transcribed spacer 1)-metabarcodingand matrix-assisted laser desorption/Ionization time of flight mass spectrometrytechniques. Further, to enhance identification effectiveness, we performed an additionalincubation stage in 1:1 wine:yeast extract peptone dextrose (YPD) before identification.Six species were identified:S. cerevisiae,Pichia manshurica,Pichia membranifaciens,Wickerhamomyces anomalus,Candida guillermondii, andTrichosporon asahii, two ofwhich were discovered for the first time (C. guillermondiiandTrichosporon ashaii) inSherry wines. We analyzed wines where non-Saccharomycesyeasts were present orabsent to see any potential link between the microbiota and the chemical profile. Only2 significant volatile chemicals (out of 13 quantified), ethanol and ethyl lactate, and2 enological parameters (out of 6 quantified), such as pH and titratable acidity, werefound to differ in long-aged wines. Although results show a low impact where the non-Saccharomycesyeasts are present, these yeasts isolated from harsh environments (highethanol and low nutrient availability) could have a potential industrial interest in fields suchas food microbiology and biofuel production</t>
+    <t>Microbial and biochemical changes in the brine during the spontaneous fermentation of Gordal, Hojiblanca and Manzanilla olive cultivars processed according to the natural style were monitored. The microbial composition was assessed through a metagenomic study. Sugars, ethanol, glycerol, organic acids and phenolic compounds were quantified by standard methods. In addition, the volatile profiles, contents of phenolic compounds in the olives and quality parameters of the final products were compared. Fermentation in Gordal brines was conducted by lactic acid bacteria (mainly Lactobacillus and Pediococcus) and yeasts (mainly Candida boidinii, Candida tropicalis and Wickerhamomyces anomalus). In Hojiblanca and Manzanilla brines, halophilic Gram-negative bacteria (e.g., Halomonas, Allidiomarina and Marinobacter) along with yeasts (mainly, Saccharomyces) were responsible for the fermentation. Higher acidity and lower pH values were reached in Gordal brines compared to Hojiblanca and Manzanilla. After 30 days of fermentation, no sugars were detected in Gordal brine, but residual amounts were found in the brines from Hojiblanca (&lt;0.2 g/L glucose) and Manzanilla (2.9 g/L glucose and 0.2 g/L fructose). Lactic acid was the main acid product in Gordal fermentation, whereas citric acid was the predominant organic acid in the Hojiblanca and Manzanilla brines. Manzanilla brine samples showed a greater concentration of phenolic compounds than Hojiblanca and Gordal brines. After a 6-month fermentation, Gordal olives were superior compared to the Hojiblanca and Manzanilla varieties regarding product safety (lower final pH and absence of Enterobacteriaceae), content of volatile compounds (richer aroma), content of bitter phenolics (lower content of oleuropein, which resulted in less perceived bitterness) and color parameters (more yellow and lighter color, indicating a higher visual appraisal). The results of the present study will contribute to a better understanding of each fermentation process and could help to promote natural-style elaborations using the above-mentioned olive cultivars.</t>
   </si>
   <si>
     <t>https://doi.org/10.1016/j.ijfoodmicro.2022.109956</t>
@@ -1563,15 +1563,15 @@
   </si>
   <si>
     <t>Uninoculated wines are regarded as having improved mouthfeel and texture and more complex flavor profiles when compared to wines inoculated with commercial S. cerevisiae strains. Uninoculated fermentation involves a complex microbial succession of yeasts and bacteria during fermentation. Microbial population dynamics are affected by several factors that can ultimately determine if a particular species or strain contributes to wine aroma and flavor. In this work, we have studied the effect of aeration, a common winemaking practice, on the yeast microbiota during uninoculated Chardonnay wine fermentation. The timing of aeration and then aeration intensity were evaluated across two successive vintages. While the timing of aeration significantly impacted fermentation efficiency across oxygen treatments, different levels of aeration intensity only differed when compared to the non-aerated control ferments. Air addition increased the viable cell population size of yeast from the genera Hanseniaspora, Lachancea, Metschnikowia and Torulaspora in both vintages. While in 2019, a high relative abundance was found for Hanseniaspora species in aerated ferments, in 2020, T. delbrueckii was visibly more abundant than other species in response to aeration. Accompanying the observed differences in yeast community structure, the chemical profile of the finished wines was also different across the various aeration treatments. However, excessive aeration resulted in elevated concentrations of ethyl acetate and acetic acid, which would likely have a detrimental effect on wine quality. This work demonstrates the role of aeration in shaping yeast population dynamics and modulating a volatile profile in uninoculated wines, and highlights the need for careful air addition to avoid a negative sensory impact on wine flavor and aroma.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/fermentation7030134</t>
   </si>
   <si>
     <t>Forastero hybrid cocoa bean fermentations have been carried out in a box (B) and in a heap (H), with or without the inoculation of Saccharomyces cerevisiae and Torulaspora delbrueckii as starter cultures. The bacteria, yeasts, and microbial metabolites (volatile and nonvolatile organic compounds) were monitored during fermentation to assess the connection between microbiota and the release of metabolites during this process. The presence of starter cultures was detected, by means of culture-dependent analysis, during the first 2 days of both fermentations. However, no statistical difference was observed in any of the physicochemical or microbiological analyses. Plate counts revealed the dominance of yeasts at the beginning of both fermentations, and these were followed by acetic acid bacteria (AAB) and lactic acid bacteria (LAB). Hanseniaspora opuntiae, S. cerevisiae, Pichia pijperi, Acetobacter pasteurianus, and Lactobacillus fermentum were the most abundant operational taxonomic units (OTUs) during both fermentation processes (B and H), although different relative abundances were observed. Only the diversity of the fungal species indicated a higher level of complexity in the B fermentations than in the H fermentations (P &lt; 0.05), as well as a statistically significant difference between the initially inoculated starter cultures (P &lt; 0.01). However, the microbial metabolite analysis indicated different distributions of the volatile and nonvolatile compounds between the two procedures, that is, B and H (P &lt; 0.05), rather than between the inoculated and noninoculated fermentations. The box fermentations showed faster carbohydrate metabolism and greater production of organic acid compounds, which boosted the formation of alcohols and esters, than did the heap fermentations. Overall, the microbial dynamics and associations between the bacteria, yeasts, and metabolites were found to depend on the type of fermentation.
 IMPORTANCE In spite of the limited effectiveness of the considered inoculated starter strains, this study provides new information on the microbial development of box and heap cocoa fermentations, under inoculated and noninoculated conditions, as we coupled yeast/bacterial amplicon-based sequencing data with microbial metabolite detection. The information so far available suggests that microbial communities have played an important role in the evolution of aroma compounds. Understanding the pathways that microorganisms follow during the formation of aromas could be used to improve the fermentation processes and to enhance chocolate quality.</t>
   </si>
   <si>
-    <t>https://doi.org/10.3390/fermentation7030134</t>
-  </si>
-  <si>
     <t>Most modern fermented foods and beverages are produced in fit-for-purpose facilities which are designed to ensure not only a reliable product, but also one safe for consumption. Despite careful hygiene, microorganisms can colonise these facilities and establish resident populations that can potentially contribute to the fermentation process. Although some microorganisms may not negatively affect the final product, spoilage microorganisms can be detrimental for quality, generating substantial economic losses. Here, amplicon-based phylotyping was used to map microbial communities within an Australian winery, before, during and after the 2020 vintage. Resident bacterial and yeast populations were shown to change over time, with both relative abundance and location within the winery varying according to sampling date. The bacterial family Micrococcaceae, and the genera Sphingomonas and Brevundimonas were the most abundant bacterial taxonomies, while Naganishia, Pyrenochaeta and Didymella were the most abundant fungal genera. Mapping the spatial distributions of the microbial populations identified the main locations that harboured these resident microorganisms, that include known wine spoilage yeasts and bacteria. Wine spoilage microorganisms, including the genefugura Lactobacillus, Acetobacter, Gluconobacter and Brettanomyces showed very low relative abundance and were found only in a couple of locations within the winery. Microbial populations detected in this facility were also compared to the resident microbiota identified in other fermented food facilities, revealing that microbial population structures may reflect the nature of the product created in each facility.</t>
   </si>
   <si>
@@ -1581,36 +1581,36 @@
     <t>Wine aged in barrels or bottles is susceptible to alteration by microorganisms that affect the final product quality. However, our knowledge of the microbiota during aging and the factors modulating the microbial communities is still quite limited. The present work uses high-throughput sequencing (HTS) techniques to deal with the meta-taxonomic characterization of microbial consortia present in red wines along 12 months aging. The wines obtained from two different grape varieties were aged at two different cellars and compared based on time of wine aging in the barrels, previous usage of the barrels, and differences between wine aging in oak barrels or glass bottles. The aging in barrels did not significantly affect the microbial diversity but changed the structure and composition of fungal and bacterial populations. The main microorganisms driving these changes were the bacterial genera Acetobacter, Oenococcus, Lactobacillus, Gluconobacter, Lactococcus, and Komagataeibacter and the fungal genera Malassezia, Hanseniaspora, and Torulaspora. Our results showed that the oak barrels increased effect on the microbial diversity in comparison with the glass bottles, in which the microbial community was very similar to that of the wine introduced in the barrels at the beginning of the aging. Furthermore, wine in the bottles harbored higher proportion of Lactobacillus but lower proportion of Acetobacter. Finally, it seems that 1 year of previous usage of the barrels was not enough to induce significant changes in the diversity or composition of microbiota through aging compared with new barrels. This is the first meta-taxonomic study on microbial communities during wine aging and shows that the microorganism composition of barrel-aged wines was similar at both cellars. These results hint at the possibility of a common and stable microbiota after aging in the absence of exogenous alterations. Further corroborations on the current outcome would be valuable for the comparison and detection of microbial alterations during aging that could potentially prevent economic losses in the wine industry.</t>
   </si>
   <si>
+    <t>It is profitable to export fresh meat overseas, where it is often regarded as a premium commodity. Meeting this demand for fresh meat, however, necessitates long export times, during which uncontrolled temperature increases can affect the microbiological quality of the meat and thereby, reduce shelf life or compromise food safety. To study the impact of temperature deviations on microbial community composition and diversity, we used 16S rRNA gene sequencing for Listeria monocytogenes and Salmonella spp. detection to describe the surface microbiota of eight batches of vacuum-packed loins stored at −1.5 °C (control) for 56 days and subjected to a 2 °C or 10 °C temperature deviation for a few hours (mimicking problems regularly encountered in the industry) at day 15 or 29. The presence of pathogens was negligible. The applied temperature deviations were not associated with different microbiota. Sequencing analysis showed the presence of Yersinia, an unexpected pathogen, and relative abundance increased in the groups subjected to temperature deviations. Over time, Lactobacillales_unclassified genus became the main constituent of the microbiota of vacuum-packed pork loins. Although the microbiota of the eight batches appeared similar at the beginning of storage, differences were revealed after 56 days, suggesting unequal aging of the microbiota.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3390/foods12081695</t>
   </si>
   <si>
-    <t>It is profitable to export fresh meat overseas, where it is often regarded as a premium commodity. Meeting this demand for fresh meat, however, necessitates long export times, during which uncontrolled temperature increases can affect the microbiological quality of the meat and thereby, reduce shelf life or compromise food safety. To study the impact of temperature deviations on microbial community composition and diversity, we used 16S rRNA gene sequencing for Listeria monocytogenes and Salmonella spp. detection to describe the surface microbiota of eight batches of vacuum-packed loins stored at −1.5 °C (control) for 56 days and subjected to a 2 °C or 10 °C temperature deviation for a few hours (mimicking problems regularly encountered in the industry) at day 15 or 29. The presence of pathogens was negligible. The applied temperature deviations were not associated with different microbiota. Sequencing analysis showed the presence of Yersinia, an unexpected pathogen, and relative abundance increased in the groups subjected to temperature deviations. Over time, Lactobacillales_unclassified genus became the main constituent of the microbiota of vacuum-packed pork loins. Although the microbiota of the eight batches appeared similar at the beginning of storage, differences were revealed after 56 days, suggesting unequal aging of the microbiota.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.foodres.2023.112926</t>
   </si>
   <si>
     <t>In this study, Caciocavallo Podolico Lucano (CPL) cheese was deeply characterized for its bacterial community, chemical composition and sensory aspects. The entire cheese making process (from milk collection to ripened cheese) was performed by strictly applying the traditional protocol for CPL production in four dairy factories (A–D) representative of the production area. The vat made of wood represents the main transformation tool for CPL cheese production and the biofilms hosted onto the internal surfaces of all vats analyzed in this study were dominated by lactic acid bacteria. Total mesophilic microorganisms present in bulk milk (4.7–5.0 log CFU/ml) increased consistently after contact with the wooden vat surfaces (5.4–6.4 log CFU/ml). The application of Illumina sequencing technology identified barely 18 taxonomic groups among processed samples; streptococci and lactobacilli constituted the major groups of the wooden vat biofilms [94.74–99.70 % of relative abundance (RA)], while lactobacilli dominated almost entirely (94.19–100 % of total RA) the bacterial community of ripened cheeses. Except coagulase positive staphylococci, undesirable bacteria were undetectable. Among chemical parameters, significant variations were registered for unsaturated, monounsaturated, polyunsaturated fatty acids and antioxidant properties (significantly lower for CPL cheeses produced in factory B). The cheeses from factories A, C and D were characterized by a higher lactic acid and persistence smell attributes than factory B. This work indicated that the strict application of CPL cheese making protocol harmonized the main microbiological, physicochemical and sensory parameters of the final cheeses produced in the four factories investigated.</t>
   </si>
   <si>
+    <t>Our study investigated the chemical, microbiological, and bioactive peptide profiles of Asiago Protected Designation of Origin (PDO) cheese from two dairies (Dairy I and II) produced over two consecutive days (batches) and analysed during three months of ripening. The effect of different starter cultures was evaluated. The microbiome varied between the dairies and batches, with curds post-salting dominated by the starter culture-associated genera. During ripening, there was an increasing trend in the Lactobacillus genus, especially for Dairy I, which used an industrial starter. Bioactive peptide intensities differed throughout ripening due to the extent of proteolysis, and their intensity or concentration evolved, modifying, and differentiating profiles. The industrial starter used in Dairy I had the highest relative intensity (average value 76.50%) of bioactive peptides after three months of ripening. In contrast, the cheeses made with natural milk starter (Dairy II) had lower total relative intensity (average value 47.75%) but produced ACE-inhibitory peptides through sub-dominant strains and non-starter lactic acid bacteria. The importance of autochthonous strains of each micro-region even within a delimited PDO production area was highlighted.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.foodres.2023.112743</t>
   </si>
   <si>
-    <t>Our study investigated the chemical, microbiological, and bioactive peptide profiles of Asiago Protected Designation of Origin (PDO) cheese from two dairies (Dairy I and II) produced over two consecutive days (batches) and analysed during three months of ripening. The effect of different starter cultures was evaluated. The microbiome varied between the dairies and batches, with curds post-salting dominated by the starter culture-associated genera. During ripening, there was an increasing trend in the Lactobacillus genus, especially for Dairy I, which used an industrial starter. Bioactive peptide intensities differed throughout ripening due to the extent of proteolysis, and their intensity or concentration evolved, modifying, and differentiating profiles. The industrial starter used in Dairy I had the highest relative intensity (average value 76.50%) of bioactive peptides after three months of ripening. In contrast, the cheeses made with natural milk starter (Dairy II) had lower total relative intensity (average value 47.75%) but produced ACE-inhibitory peptides through sub-dominant strains and non-starter lactic acid bacteria. The importance of autochthonous strains of each micro-region even within a delimited PDO production area was highlighted.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3389/fmicb.2023.1154508</t>
   </si>
   <si>
     <t>In cheese production, microorganisms are usually added at the beginning of the process as primary starters to drive curd acidification, while secondary microorganisms, with other pro-technological features important for cheese ripening, are added as selected cultures. This research aimed to investigate the possibilities of influencing and selecting the raw milk microbiota using artisanal traditional methods, providing a simple method to produce a natural supplementary culture. We investigated the production of an enriched raw milk whey culture (eRWC), a natural adjunct microbial culture produced from mixing an enriched raw milk (eRM) with a natural whey culture (NWC). The raw milk was enriched by spontaneous fermentation for 21 d at 10°C. Three milk enrichment protocols were tested: heat treatment before incubation, heat treatment plus salt addition, and no treatment. The eRMs were then co-fermented with NWC (ratio of 1:10) at 38°C for 6 h (young eRWC) and 22 h (old eRWC). Microbial diversity during cultures’ preparation was evaluated through the determination of colony forming units on selective growth media, and next-generation sequencing (16S rRNA gene amplicon sequencing). The enrichment step increased the streptococci and lactobacilli but reduced microbial richness and diversity of the eRMs. Although the lactic acid bacteria viable count was not significantly different between the eRWCs, they harbored higher microbial richness and diversity than NWC. Natural adjunct cultures were then tested in cheese making trials, following the microbial development, and assessing the chemical quality of the 120 d ripened cheeses. The use of eRWCs slowed the curd acidification in the first hours of cheese making but the pH 24 h after production settled to equal values for all the cheeses. Although the use of diverse eRWCs contributed to having a richer and more diverse microbiota in the early stages of cheese making, their effect decreased over time during ripening, showing an inferior effect to the raw milk microbiota. Even if more research is needed, the optimization of such a tool could be an alternative to the practice of isolating, geno-pheno-typing, and formulating mixed-defined-strain adjunct cultures that require knowledge and facilities not always available for artisanal cheese makers.</t>
   </si>
   <si>
+    <t>Mozzarella di Bufala Campana PDO cheese (MBC) is a globally esteemed Italian cheese. The traditional cheesemaking process of MBC relies on natural whey starter culture, water buffalo's milk, and the local agroecosystem. In this study, the microbial ecology of intermediate samples of MBC production, coming from two dairies with slightly different cheesemaking technology (dairy M large producer, and dairy C medium-small), was investigated using 16S rRNA amplicon sequencing. This research aimed to provide insights into the dynamics of microbial consortia involved in various cheesemaking steps. All samples, except for raw buffalo milk, exhibited a core microbiome predominantly composed of Streptococcus spp. and Lactobacillus spp., albeit with different ratios between the two genera across the two MBC producers. Notably, the microbiota of the brine from both dairies, analyzed using 16S amplicon sequencing for the first time, was dominated by the Lactobacillus and Streptococcus genera, while only dairy C showed the presence of minor genera such as Pediococcus and Lentilactobacillus. Intriguingly, the final mozzarella samples from both producers displayed an inversion in the dominance of Lactobacillus spp. over Streptococcus spp. in the microbiota compared to curd samples, possibly attributable to the alleviation of thermal stress following the curd stretching step. In conclusion, the different samples from the two production facilities did not exhibit significant differences in terms of the species involved in MBC cheesemaking. This finding confirms that the key role in the MBC cheesemaking process lies with a small-sized microbiome primarily composed of Streptococcus and Lactobacillus spp.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fmicb.2023.1196879</t>
   </si>
   <si>
-    <t>Mozzarella di Bufala Campana PDO cheese (MBC) is a globally esteemed Italian cheese. The traditional cheesemaking process of MBC relies on natural whey starter culture, water buffalo's milk, and the local agroecosystem. In this study, the microbial ecology of intermediate samples of MBC production, coming from two dairies with slightly different cheesemaking technology (dairy M large producer, and dairy C medium-small), was investigated using 16S rRNA amplicon sequencing. This research aimed to provide insights into the dynamics of microbial consortia involved in various cheesemaking steps. All samples, except for raw buffalo milk, exhibited a core microbiome predominantly composed of Streptococcus spp. and Lactobacillus spp., albeit with different ratios between the two genera across the two MBC producers. Notably, the microbiota of the brine from both dairies, analyzed using 16S amplicon sequencing for the first time, was dominated by the Lactobacillus and Streptococcus genera, while only dairy C showed the presence of minor genera such as Pediococcus and Lentilactobacillus. Intriguingly, the final mozzarella samples from both producers displayed an inversion in the dominance of Lactobacillus spp. over Streptococcus spp. in the microbiota compared to curd samples, possibly attributable to the alleviation of thermal stress following the curd stretching step. In conclusion, the different samples from the two production facilities did not exhibit significant differences in terms of the species involved in MBC cheesemaking. This finding confirms that the key role in the MBC cheesemaking process lies with a small-sized microbiome primarily composed of Streptococcus and Lactobacillus spp.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.fm.2023.104419</t>
   </si>
   <si>
@@ -1621,13 +1621,169 @@
   </si>
   <si>
     <t>As poultry possesses a high risk of contamination by various pathogens and has repeatedly been linked to foodborne outbreaks, ensuring microbiological safety throughout the chicken production chain is essential. In this study, bacterial communities in chickens and associated environments (n = 72), including feces, floors, gloves, and worktables, were trace investigated from the broiler farm, slaughterhouse, meat processing plant, and the market by amplicon sequencing of the V4 region of the 16S rRNA. The bacterial composition in live chickens along the production chain significantly changed across the stages, with distinct microbiota noted at each step. Pseudomonas, Shewanella, Acinetobacter, and Psychrobacter were dominant in the final products. Staphylococcus was abundant in live birds originally (36.83 %) but dramatically decreased after slaughter (3.07 %, 0.06 %, and 0.42 % in slaughtered, processed, and market carcasses, respectively), which may be attributed to defeathering. The proportion of Enterobacteriaceae, Acinetobacter, and Pseudomonas increased from 0.95 %, 0.03 %, and 0.04 % before slaughter to 13.57 %, 34.19 %, and 21.90 %, respectively, after slaughter, highlighting the importance of hygiene management in the succeeding steps. Diversity analysis revealed the possibility of bacterial transmission between samples from the processing plant and the market. Source tracking was performed to identify microbial contamination routes in the chicken microbiome; the major bacterial sources in the final products were the samples from the processing plant (such as processed carcasses, gloves, and worktables), accounting for 93.53 % of the total microbial sources. These results suggest that in-depth knowledge of microbial transmission between chickens and their surroundings can facilitate a precise understanding of microbiological concerns across the poultry production system and help establish safety management measures for the poultry industry.</t>
+  </si>
+  <si>
+    <t>Meju, a fermented soybean brick, is a key component in soybean foods like doenjang and ganjang, harboring a variety of microorganisms, including bacteria and fungi. These microorganisms significantly contribute to the nutritional and sensory characteristics of doenjang and ganjang. Amplicon-based next-generation sequencing was applied to investigate how the microbial communities of meju fermented at low and high temperatures differ and how this variation affects the microbial communities of doenjang, a subsequently fermented soybean food. Our metagenomic data showed distinct patterns depending on the fermentation temperature. The microbial abundance in the bacterial community was increased under both temperatures during the fermentation of meju and doenjang. Weissella was the most abundant genus before the fermentation of meju, however, it was replaced by Bacillus at high temperature-fermented meju and lactic acid bacteria such as Weissella and Latilactobacillus at low temperature-fermented meju. Leuconostoc, Logiolactobacillus, and Tetragenococcus gradually took over the dominant role during the fermentation process of doenjang, replacing the previous dominant microorganisms. Mucor was dominant in the fungal community before and after meju fermentation, whereas Debaryomyces was dominant under both temperatures during doenjang fermentation. The dominant fungal genus of doenjang was not affected regardless of the fermentation temperature of meju. Strong correlations were shown for specific bacteria and fungi linked to specific fermentation temperatures. This study helps our understanding of meju fermentation process at different fermentation temperatures and highlights different bacteria and fungi associated with specific fermentation periods which may influence the nutritional and organoleptic properties of the final fermented soybean foods doenjang.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4014/jmb.2312.12024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2024.1108522</t>
+  </si>
+  <si>
+    <t>This study presents comprehensive insights into the microbiological profile across all concentrated chicken broth processing stages, utilizing a combination of amplicon sequencing based on metataxonomic and culturing techniques. Samples were systematically collected throughout the production chain, with each batch yielding 10 samples per day across eight different dates. These samples underwent thorough analysis, including 16S rRNA and ITS sequencing (n = 30), culture-dependent microbiological tests (n = 40), and physical-chemical characterization (n = 10). Culturing analysis revealed the absence of Listeria monocytogenes and Salmonella spp. at any stage of processing, counts of various microorganisms such as molds, yeasts, Enterobacteria, and others remained below detection limits. Notably, spore counts of selected bacterial groups were observed post-processing, indicating the persistence of certain species, including Bacillus cereus and Clostridium perfringens, albeit in low counts. Furthermore, the study identified a diverse array of bacterial and fungal species throughout the processing chain, with notable occurrence of spore-forming bacteria. The presence of spore-forming bacteria in the final product, despite thermal processing, suggests the need for enhanced strategies to mitigate their introduction and persistence in the processing premises. Thus, this study offers valuable insights into microbial dynamics and diversity through processing concentrated chicken broth.</t>
+  </si>
+  <si>
+    <t>Effect of starter culture and brine NaCl on the bacterial and fungal microbiota dynamics in Oliva di Gaeta (cv. Itrana) PDO brines</t>
+  </si>
+  <si>
+    <t>To compare the species diversity and composition of indigenous yeast communities of hybrid grapes from conventionally and organically cultivated vineyards of an emerging cool-climate wine producing region. Illumina MiSeq sequences from L'Acadie blanc grape musts were processed and filtered to characterize indigenous yeast communities in organic and conventional vineyards of the Annapolis Valley wine region in Nova Scotia, Canada. While cultivation practice was not associated with yeast diversity or species richness, there was a strong effect on yeast community composition, with conventional vineyards characterized by higher proportions of Sporidiobolales and Filobasidium magnum, and organic vineyards supporting Filobasidium species other than F. magnum and higher proportions of Symmetrospora. There was also variation in yeast community composition among individual vineyards, and from year to year. This is the first comprehensive assessment of yeasts associated with hybrid grapes grown using different cultivation practices in a North American cool climate wine region. Communities were dominated by basidiomycete yeasts and species composition of these yeasts differed significantly between vineyards employing organic and conventional cultivation practices. The role of basidiomycete yeasts in winemaking is not well understood, but some species may influence wine characteristics.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/jambio/lxae092</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods13081263</t>
+  </si>
+  <si>
+    <t>Strong-flavor Daqu, as a fermentation agent, plays a significant role in shaping the quality of strong-flavor baijius, and fungal species in Daqu are important factors affecting the quality of Daqu. Therefore, we selected strong-flavor Daqu from seven different origins to study the fungal composition and the effects of the fungal composition on the physicochemical properties and volatile organic compounds (VOCs). It was found that the fungal composition influences the physicochemical properties of Daqu. Specifically, there was a positive link between Rhizomucor, Rhizopus, Thermomyces, and liquefying activity and a positive correlation between Aspergillus and fermenting activity. Furthermore, the relationships between esterifying activity and Thermomyces, Rhizomucor, Aspergillus, Pichia, and Saccharomycopsis were found to be positive. The VOCs in Daqu were affected by Aspergillus, Issatchenkia, Pichia, and Thermoascus. Issatchenkia was significantly positively correlated with benzeneethanol as well as Aspergillus and pentadecanoic acid ethyl ester, ethyl myristate. Pichia and Thermoascus were significantly negatively correlated with benzaldehyde and 2-furaldehyde. This study deepens our understanding of the relationship between VOCs, the physicochemical properties with microbial communities, and reference significance for the production of better-quality strong-flavor Daqu.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.lwt.2023.114699</t>
+  </si>
+  <si>
+    <t>Niandoubao is a famous fermented proso millet food in northeast China. To investigate the composition and drivers of Niandoubao sourdough microbiota, high-throughput sequencing (HTS) combined with culture-dependent method was used to analyze the bacterial and fungal diversity of 28 spontaneous waxy proso millet sourdoughs (WPMSDs). The 537 isolates were identified by plate culture. HTS identified 271 bacterial and 233 fungal species. The 5 genera of Lactobacillales and 6 genera of Saccharomycetales were the dominant fermentation population. Based on beta diversity, the 22 mature sourdoughs were clustered into 5 bacterial clusters or 9 fungal clusters, and each cluster of sourdoughs had unique biomarker. According to ANOSIM and PERMANOVA analyses, microbial interaction exhibited the key driver for community composition (R &gt; 0.91); flour and water played a fundamental role in bacterial composition (R &gt; 0.66); pH, TTA and fermentation time exhibited specific effects on a few species (R &lt; 0.51). Considering the features of growth, antimicrobial and synergistic fermentation, Lactobacillus curvatus, Candida sake and Wickerhamyces anomalus exhibited the best potential as a WPMSD starter. Altogether, the results provide insights into the diversity and drivers of type I WPMSDs microbiota, and important reference for the starter selection and quality improvement of Niandoubao in the future.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/fermentation9040342</t>
+  </si>
+  <si>
+    <t>Pulque is the most-studied traditional Mexican alcoholic beverage prepared by fermentation of the fresh sap (aguamiel, AM) extracted from different Agave species (maguey) cultivated for pulque production. This beverage has been produced mainly in the Central Mexico Plateau since pre-Columbian times. In this contribution, we report the analysis of the bacterial and fungal diversity through 16S rRNA gene V3–V4 fragment amplicon and ITSR1 sequencing associated with the tissue of the walls (metzal) of the cavity or cajete, where the sap accumulates in producing plants for its daily extraction, in AM, and during four fermentation stages for pulque production. The results led to determining which microorganisms detected in the plant tissue are present in AM and maintained during the fermentation process. The results showed that eight bacterial OTUs (Lactobacillus, Leuconostoc, Weisella, Lactococcus, Acetobacter, Gluconobacter, Zymomonas, and Obesumbacterium) and five fungal OTUs (Kazachstania, Kluyveromyces, Saccharomyces, Hanseniaspora, and the OTU O_Saccharomycetales) were present from metzal to AM and during all the stages of the fermentation analyzed. The detected diversity was considered the microbial core for pulque fermentation, comprising up to ~84% of the total bacterial diversity and up to ~99.6% of the fungal diversity detected in the pulque produced from three plants of A. salmiana from the locality of Huitzilac, Morelos, Mexico. This study provides relevant information on the potential microorganisms responsible for pulque fermentation, demonstrating that the core of microorganisms is preserved throughout the elaboration process and their association with the AM and fermented beverage physiochemical profile.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2024.114118</t>
+  </si>
+  <si>
+    <t>Meat dry aging consists in storing unpackaged meat in a cold room, and at a specific and controlled relative humidity (RH), for a period of 1 to 5 weeks or more. This practice has become widespread in recent years due to its positive effect on the tenderness of the meat but also on other organoleptic characteristics and therefore its market value. The objective of this work was to study the bacterial and fungal microbiota of dry-aged beef at the commercial stage by both culture-dependent and -independent approaches. Fifty-eight samples of dry-aged meat from different producer types (meat processing plants, artisanal and supermarket butchers) were studied. The dry-aging conditions (temperature, RH) of the meats, as well as the surface pH and aw , were measured. The main microbial groups were enumerated by culture on various dedicated media. Concerning fungi, isolates of yeasts and molds (n = 257) were identified after dereplication by FTIR spectroscopy and/or sequencing of taxonomically relevant genes (26S rDNA, ITS, β-tubulin, actin). Metagenetic analyzes targeting the V3-V4 regions of 16S rDNA and ITS2 were also performed. Overall, ripening practices were diversified with temperatures and RH between 0.5 and 2.8 °C (median = 2 °C) and 47 and 88 % (median = 70 %), respectively. The aerobic colony count varied between 1.97 and 10.91 log10 CFU/g (median = 8.32 log10 CFU/g) and was similar to that of Pseudomonas spp., indicating that this bacterial group was dominant. Yeast populations varied between </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2022.111917</t>
+  </si>
+  <si>
+    <t>The indigenous vineyard mycobiota contribute both to wine quality and vineyard sanitary status. Wines made from same grape variety but from different geographical locations are appreciated for their diversity. Because no information on indigenous mycobiota of Croatian grapevines is available, the aim of the present study was to start filling this knowledge gap by characterizing the indigenous mycobiota of Maraština variety. The use of metataxonomic approach has enabled the identification of 25 different fungal genera present on Maraština grape berries collected from 11 vineyards located within the Croatian coastal winegrowing region of Dalmatia (Northern Dalmatia, Dalmatian hinterland, Central and Southern Dalmatia). The substantial regional and local scale differences in their distribution were observed. Overall, Aureobasidium was the dominant genus followed by Cladosporium and Metschnikowia. Botrytis and Plenodomus were associated with the vineyards located in Central and Southern Dalmatia, whereas Pichia was associated with Northern Dalmatia vineyards. The largest abundance of Buckleyzyma, Cladosporium, Eremothecium, Fusarium, Papiliotrema, and Rhodotorula was observed in Dalmatian hinterland. Moreover, data suggested that climate conditions and soil type partially influenced the distribution of fungal communities. The local-scale differences emerged also for the physicochemical characteristics of fresh musts. The high malic acid content supported the development of Metschnikowia, and inhibited Fusarium growth, whereas a positive correlation between Erysiphe and pH values was observed. Sporobolomyces and Cystobasidium were negatively associated with high glucose concentration. The revealing of Maraština indigenous mycobiota provided information on the members of fungal community negatively influencing the grapevine sanitary status as well as those which could be employed in disease biocontrol.</t>
+  </si>
+  <si>
+    <t>Flor yeast strains represent a specialized group of Saccharomyces cerevisiae yeasts used for the production of sherry-like wines by biological wine aging. We sequenced the genome of the industrial flor yeast strain I-329 from a collection of microorganisms for winemaking “Magarach” and the metagenomes of two flor velums based on this strain and continuously maintained for several decades. The winery uses two processes for the production of sherry-like wine: batch aging and a continuous process similar to the criaderas–solera system. The 18S rRNA gene profiling and sequencing of metagenomes of flor velums revealed the presence of the yeasts Pichia membranifaciens and Malassezia restricta in minor amounts along with the dominant S. cerevisiae I-329 flor yeast. Bacteria Oenococcus oeni and Lentilactobacillus hilgardii together accounted for approximately 20% of the velum microbiota in the case of a batch process, but less than 1% in the velum used in the continuous process. Collection strain I-329 was triploid for all chromosomes except diploid chromosomes I and III, while the copy numbers of all chromosomes were equal in industrial velums. A comparative analysis of the genome of strain I-329 maintained in the collection and metagenomes of industrial velums revealed only several dozens of single nucleotide polymorphisms, which indicates a long-term genetic stability of this flor yeast strain under the harsh conditions of biological wine aging.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods13111626</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/fermentation9040367</t>
+  </si>
+  <si>
+    <t>The microbial diversity on the carposphere (berry) surface of the grape cultivar Cabernet Sauvignon grown in eight different locations/vineyards of Henan Province was determined by high-throughput sequencing of the bacterial 16S rRNA gene and fungal 18S rRNA gene. The structure of bacterial and fungal communities varied according to the sampling sites, but with some common phyla. Proteobacteria and Ascomycota were dominant/common phyla for bacteria and fungi, respectively. A total of 27 and 20 bacterial and fungal families, respectively, and 39 and 20 bacterial and fungal genera, respectively, with statistically significant differences, were found among different sampling sites. The difference for metabolic pathways of bacteria among the sampling sites existed. In addition, various abundances of enzymes from different sites might indicate that different function patterns exist in microbiota from different sites. The results revealed that locations of grape vineyards might play a significant role in shaping the microbiome, as well as the fact that vineyards can be distinguished based on the abundance of several key bacterial and fungal taxa. Overall, these findings extend our understanding of the similarities and differences in microbial community and their metabolic function on Cabernet Sauvignon grape surfaces from different geographic locations.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2024.115096</t>
+  </si>
+  <si>
+    <t>Oysters (Crassostrea gigas) are one of the most consumed shellfish globally. However, there is a lack of comprehensive microbiome studies that include the processing and distribution stages of oysters. The present study used both culture-based methods and 16S rRNA sequencing to produce comprehensive microbial profiles of oysters in two parts: (1) an oyster processing plant that processes raw and frozen oysters (n = 57) and (2) retail oyster products across two seasons (winter and spring) (n = 112). In the processing plant, shucking increased the aerobic plate count (APC) from 1.86 log CFU/g in freshly harvested oysters to 3.95 log CFU/g in shucked oysters. Controlling the washing process is important, as the APCs decreased after washing and remained level until the final products, raw and frozen oysters (2.54 and 2.34 log CFU/g, respectively). After desalting in the frozen oyster plant, the bacterial community shifted to be dominated by the family Spirochaetaceae, Mycoplasma, and Shigella taxa, indicating a need to control problematic bacteria in the desalting process. SourceTracker analysis revealed that raw materials contributed more to the microbiota of final products than environmental samples. In retail oyster products, APCs were marginally higher in spring (3.58 log CFU/g) than in winter (3.05 log CFU/g) samples. While bacterial count differences were not dramatic, the proportions of taxa in the microbial community differed by season. In winter retail products, Photobacterium (27.91 %) and Aliivibrio (20.42 %) dominated, while spring samples showed a diverse distribution of the family Vibrionaceae (19.90 %), Photobacterium (14.20 %), Psychromonas (11.84 %), and Aliivibrio (7.20 %). These findings contributed to our understanding of oyster microorganisms and identified food safety control points and cross-contamination sources. This in-depth understanding is expected to inform the development of fishery and seafood safety management measures.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2023.1286661</t>
+  </si>
+  <si>
+    <t>The use of omics data for monitoring the microbial flow of fresh meat products along a production line and the development of spoilage prediction tools from these data is a promising but challenging task. In this context, we produced a large multivariate dataset (over 600 samples) obtained on the production lines of two similar types of fresh meat products (poultry and raw pork sausages). We describe a full analysis of this dataset in order to decipher how the spoilage microbial ecology of these two similar products may be shaped differently depending on production parameter characteristics. Our strategy involved a holistic approach to integrate unsupervised and supervised statistical methods on multivariate data (OTU-based microbial diversity; metabolomic data of volatile organic compounds; sensory measurements; growth parameters), and a specific selection of potential uncontrolled (initial microbiota composition) or controlled (packaging type; lactate concentration) drivers. Our results demonstrate that the initial microbiota, which is shown to be very different between poultry and pork sausages, has a major impact on the spoilage scenarios and on the effect that a downstream parameter such as packaging type has on the overall evolution of the microbial community. Depending on the process, we also show that specific actions on the pork meat (such as deboning and defatting) elicit specific food spoilers such as Dellaglioa algida, which becomes dominant during storage. Finally, ecological network reconstruction allowed us to map six different metabolic pathways involved in the production of volatile organic compounds involved in spoilage. We were able connect them to the different bacterial actors and to the influence of packaging type in an overall view. For instance, our results demonstrate a new role of Vibrionaceae in isopropanol production, and of Latilactobacillus fuchuensis and Lactococcus piscium in methanethiol/disylphide production. We also highlight a possible commensal behavior between Leuconostoc carnosum and Latilactobacillus curvatus around 2,3-butanediol metabolism. We conclude that our holistic approach combined with large-scale multi-omic data was a powerful strategy to prioritize the role of production parameters, already known in the literature, that shape the evolution and/or the implementation of different meat spoilage scenarios.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2024.1450682</t>
+  </si>
+  <si>
+    <t>Food spoilage and pathogenic bacteria on food-contact surfaces, especially biofilm-forming strains, can transfer to meats during processing. The objectives of this study were to survey the bacterial communities of beef cuts that transfer onto two commonly used food-contact surfaces, stainless steel (SS) and high-density polyethylene (HDPE) and identify potentially biofilm-forming strains. Top round, flank, chuck, and ground beef were purchased from 3 retail stores. SS and HDPE coupons (approximately 2cm × 5cm) were placed on beef portions (3h, 10°C), after which, the coupons were submerged halfway in PBS (24h, 10°C). Bacteria from the beef cuts and coupon surfaces (n = 3) were collected, plated on tryptic soy agar plates and incubated (5 days, 25°C). Bacterial isolates were identified by 16S rRNA gene amplicon sequencing and assayed for biofilm formation using a crystal violet binding (CV) assay (72h, 10°C). Additionally, beef and coupon samples were collected for bacterial community analysis by 16S rRNA gene amplicon sequencing. Sixty-one of 972 beef isolates, 29 of 204 HDPE isolates, and 30 of 211 SS isolates were strong biofilm-formers (Absorbance&gt;1.000 at 590 nm in the CV assay). Strong-binding isolates identified were of the genera Pseudomonas, Acinetobacter, Psychrobacter, Carnobacterium, and Brochothrix. Coupon bacterial communities among stores and cuts were distinct (p &lt; 0.001, PERMANOVA), but there was no distinction between the communities found on HDPE or SS coupons (p &gt; 0.050, PERMANOVA). The bacterial communities identified on the coupons may help determine the communities capable of transferring and colonizing onto surfaces, which can subsequently cross-contaminate foods.</t>
+  </si>
+  <si>
+    <t>We evaluated a combination of two temperatures and two packaging materials for long-term storage of vacuum-packaged (VP) beef striploins. Microbial populations and microbiome composition were monitored during refrigerated storage (120 days between 0–1.5 °C) and refrigerated-then-frozen storage (28 days between 0–1.5 °C then 92 days at −20 °C) under low-O2 permeability VP and high-O2 permeability VP with an antimicrobial (VPAM). Pseudomonas (PSE) and Enterobacteriaceae (EB) counts in VPAM samples were significantly higher (p &lt; 0.05) than in VP samples at 28, 45, 90, and 120 days of storage. Microbiome data showed that bacteria of the genera Serratia and Brochothrix were more abundant in VPAM samples at 120 days, while lactic acid bacteria (LAB) dominated in VP samples. Frozen temperatures inhibited microbial growth and maintained a relatively stable microbiome. Refrigerated and frozen VPAM samples showed the greatest difference in the predicted metabolic functions at the end of storage driven by the microbiome composition, dominated by PSE and LAB, respectively. Although no signs of visible meat deterioration were observed in any sample, this study suggests that VP meat refrigerated and then frozen achieved better microbiological indicators at the end of the storage period.</t>
+  </si>
+  <si>
+    <t>Pork is a common vehicle for foodborne pathogens, including Salmonella spp. and Yersinia enterocolitica. Cross-contamination can occur at any stage of the pork production chain, from farm to market. In the present study, high-throughput sequencing was used to characterize bacterial profiles and track their changes along the whole supply chain. Tracked meat samples (pig on the farm, carcass in the slaughterhouse, unprocessed carcass and processed meat in the processing plant, and fresh pork at the local retail stores) and their associated environmental samples (e.g., water, floor, feed, feces, and workers' gloves) were collected from sequential stages (n = 96) and subjected to 16S rRNA metataxonomic analyses. At the farm, a total of 652 genera and 146 exclusive genera were identified in animal and environmental samples (pig, drain, floor, fan, and feces). Based on beta diversity analysis, it was demonstrated that the microbial composition of animal samples collected at the same processing step is similar to that of environmental samples (e.g., drain, fan, feces, feed, floor, gloves, knives, tables, and water). All animal and environmental samples from the slaughterhouse were dominated by Acinetobacter (55.37 %). At the processing plant, belly meat and neck meat samples were dominated by Psychrobacter (55.49 %). At the retail level, key bacterial players, which are potential problematic bacteria and important members with a high relative abundance in the samples, included Acinetobacter (8.13 %), Pseudomonas (6.27 %), and Staphylococcus (2.13 %). In addition, the number of confirmed genera varied by more than twice that identified in the processing plant. Source tracking was performed to identify bacterial contamination routes in pork processing. Animal samples, including the processing plant's carcass, the pig from the farm, and the unwashed carcass from the slaughterhouse (77.45 %), along with the processing plant's gloves (5.71 %), were the primary bacterial sources in the final product. The present study provides in-depth knowledge about the bacterial players and contamination points within the pork production chain. Effective control measures are needed to control pathogens and major pollutants at each stage of pork production to improve food safety.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2023.113745</t>
+  </si>
+  <si>
+    <t>The slaughtering environment is crucial for the food hygiene and safety of poultry products. Despite the global dominance of industrial processing, live bird slaughtering in wet markets persists due to cultural, religious, and economic reasons. This study aims to reveal the correlation between hygiene scales in wet markets and bacterial contamination levels on broiler carcasses, with a particular focus on pathobiont transmission risks and microbiome characteristics. Wet markets were categorized based on home-made ratings and the Hygiene and Biosecurity Assessment Tool (HABT). The study assessed total aerobic bacterial (TAB) levels, food spoilage and hygiene indicators (Pseudomonas and E. coli), foodborne pathogen Salmonella, and the microbiome of broiler carcasses, intestinal contents, and slaughtering facilities. Comparative analyses were conducted between market and industrial processing environments. TAB levels on broiler carcasses showed a significant negative correlation with hygiene scores, indicating that both HABT and home-made rating tools effectively assess and improve processing hygiene. Industrial processing consistently reduced bacterial contamination compared to wet markets. Although Salmonella spp. prevalence was lower in market-processed carcasses, the study identified significant cross-transmission of pathobionts and variations in bacterial composition with hygiene improvements. Notably, the microbiome analysis revealed overlaps in amplicon sequence variants (ASVs) between carcasses and contamination vectors, highlighting pathobiont transmission risks. The present study confirmed the scales of hygiene standards among wet markets reflect bacterial contamination on broiler carcasses. Enhancing slaughter practices to meet industrial hygiene standards is essential for reducing the transmission of foodborne pathogens and pathobionts, and improving food safety.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2024.110937</t>
+  </si>
+  <si>
+    <t>The microbiota of bulk tank raw milk is known to be closely related to that of microbial niches of the on-farm environment. Preserved forage types are partof this ecosystem and previous studies have shown variations in their microbial ecology. However, little is known of the microbiota of forage ration combinations and the transfer rates of associated species to milk. We identified raw milk bacteria that may originate from forage rations encompassing either hay (H) or grass/legume silage uninoculated (GL) as the only forage type, or a combination of GL and corn silage uninoculated (GLC), or grass/legume and corn silage both inoculated (GLICI). Forage and milk samples collected in the fall and spring from 24 dairy farms were analyzed using 16S rRNA gene high-throughput sequencing following a treatment with propidium monoazide to account for viable cells. Three community types separating H, GL, and GLICI forage were identified. While the H community was co-dominated by Enterobacteriaceae, Microbacteriaceae, Beijerinckiaceae, and Sphingomonadaceae, the GL and GLICI communities showed high proportions of Leuconostocaceae and Acetobacteraceae, respectively. Most of the GLC and GLICI rations were similar, suggesting that in the mixed forage rations involving grass/legume and corn silage, the addition of inoculant in one or both types of feed does not considerably change the microbiota. Raw milk samples were not grouped in the same way, as the GLC milk was phylogenetically different from that of GLICI across sampling periods. Raw milk communities, including the GLICI group for which cows were fed inoculated forage, were differentiated by Enterobacteriaceae and other Proteobacteria, instead of by lactic acid bacteria. Of the 113 amplicon sequence variants (ASVs) shared between forage rations and corresponding raw milk, bacterial transfer rates were estimated at 18 to 31%. Silage-based forage rations, particularly those including corn, share more ASVs with raw milk produced on corresponding farms compared to that observed in the milk from cows fed hay. These results show the relevance of cow forage rations as sources of bacteria that contaminate milk and serve to advance our knowledge of on-farm raw milk contamination.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2023.1175663</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/fermentation9100911</t>
+  </si>
+  <si>
+    <t>Mozzarella is one of the most popular unripened Apulian cheeses. Knowledge about microbial composition and variability of artisanal mozzarella and its production chain is increasingly growing. In this study, microbial communities from natural whey starters to end products from four renowned Apulian artisanal dairy factories have been explored by means of 16S metagenomics. The chemical properties of mozzarella samples were also detected and analyzed. Lactobacillus is the core acidifying component of the used starters, while some psychrophilic or contaminants bacteria appear in site-specific products. Biodiversity was found to be quite similar between the whey and mozzarella sample pools, while a significant variability among production sites (factories) has been detected. Furthermore, mozzarella microbial diversity seems to be in positive correlation with its lactic acid content. Targeted metagenomics would then be a powerful and relatively quick technique to characterize the microbiological variability of traditional milk-based foods.</t>
+  </si>
+  <si>
+    <t>Meat products are commonly associated with foodborne diseases outbreak. Bacteria have been long used as a hygienic indicator in the food industry. Food-contacted surfaces could be the source of contamination causing foodborne illness, particularly when involving raw meats. Hence, improving knowledge about bacteria that remains on meat-contacted surfaces can be influential in determining appropriate guidelines for food safety. This study aimed firstly to determine bacterial community structure and diversity. Secondly, to determine taxa co-occurrence network and differentially abundant bacteria and finally, to predict the functional profiles of bacterial communities residing on the food-associated surfaces used in industrial food preparation areas, i.e., aluminum tray, following contact with beef, chicken, and pork using 16S rRNA amplicon metagenomics on the Illumina MiSeq system. The most abundant bacteria on meat-contacted surfaces were determined, and Acinetobacter and Pseudomonas were among the dominant bacteria in all meat types. Chicken-contacted trays showed the highest species richness, followed by pork and beef, with a significant difference. The chicken-contacted tray bacterial community was significantly different from other groups. The co-occurrence network was predicted, and hub nodes were determined. Low-abundance bacteria have been proven to have a significant function in networks. Some of the hub nodes were potential human pathogens or antibiotic-resistant. In addition, bacterial markers were determined; some were human pathogens, such as Shewanella in chicken, Staphylococcus in beef, and Klebsiella in pork. Although the predicted metagenomic functions were not significantly different, some were related to human diseases and resistance to antibiotics or disinfectants. In conclusion, bacterial pathogens were found on aluminum trays despite standard storage practices, demonstrating the need for proper hygiene instructions and regular cleaning of food preparation facilities and equipment to prevent cross-contamination. This study detailed bacterial taxa on meat-contacted trays, and the findings are critical to improving foodborne pathogen decontamination and developing safer food handling guidelines and standards. Radiation, heat, and chemical approaches are said to be influential in preventing contamination.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodcont.2023.109698</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/foods12203796</t>
+  </si>
+  <si>
+    <t>The maturation of a traditional Swedish long-ripened cheese has shown increasing variation in recent years and the ripening time is now generally longer than in the past. While the cheese is reliant on non-starter lactic acid bacteria for the development of its characteristic flavour, we hypothesised that the observed changes could be due to variations in the microbiota composition and number of bacteria in the raw milk used for production of the cheese. To evaluate associations between microbiota in the raw milk and the resulting cheese, three clusters of commercial farms were created to increase variation in the microbiota of dairy silo milk used for cheese production. Cheese production was performed in three periods over one year. Within each period, milk from the three farm clusters was collected separately and transported to the cheese production facility. Following pasteurisation, the milk was processed into the granular-eyed cheese and matured at a dedicated cheese-ripening facility. For each cheese batch, farm bulk and dairy silo milk samples, a starter culture, early process samples and cheese samples from different stages of maturation (7–20 months) were collected and their microbiota characterised using 16S rRNA amplicon sequencing. The microbiota in the farm bulk milk differed significantly between periods and clusters. Differences in microbiota in dairy silo milk were observed between periods, but not between farm clusters, while the cheese microbiota differed between periods and clusters. The top 13 amplicon sequence variants were dominant in early process samples and the resulting cheese, making up at least 93.3% of the relative abundance (RA). Lactococcus was the dominant genus in the early process samples and, together with Leuconostoc, also dominated in the cheese samples. Contradicting expectations, the RA of the aroma-producing genus Lactobacillus was low in cheese during ripening and there was an unexpected dominance of starter lactic acid bacteria even at the later stages of cheese ripening. To identify factors behind the recent variations in ripening time of this cheese, future studies should address the effects of process variables and the dairy environment.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2023.113851</t>
+  </si>
+  <si>
+    <t>In the present study, naturally fermented and unpasteurized cucumbers (Cucumis sativus L.) collected from 4 producers located in different regions of Poland were studied. The fermented cucumbers were characterized by significant nutritional features in terms of polyphenols content and antioxidant activity. Microbiological analyses revealed active bacterial populations of lactococci, thermophilic cocci, lactobacilli, and coagulase-negative cocci. The microbiological characterization of cucumber and brine samples through metataxonomic analysis allowed the dominant species to be detected, being Lactococcus and Streptococcus in cucumbers, and Lactiplantibacillus, Leuconostoc, Pediococcus, Secundilactobacillus, and Lentilactobacillus in brine. The isolation activity offered a clear picture of the main active lactic acid bacteria at the end of fermentation, being Pediococcus parvulus and Lactiplantibacillus plantarum group. All the studied isolates showed a good attitude in fermenting a cucumber-based broth, thus suggesting their potential application as starter or adjunct cultures for guided cucumber fermentation. Moreover, for the same isolates, strong aminopeptidase activity (due to leucine arylamidase and valine arylamidase) was observed, with potential effect on the definition of the final sensory traits of the product. Only a few isolates showed the ability to produce exopolysaccharides in synthetic medium. Of note, the presence of the hdcA gene in some Pediococcus ethanolidurans isolates also confirmed the need for a thorough characterization of starter candidates to avoid undesired adverse effects on consumer’s health. No isolate showed the production of bacteriocins against Listeria innocua used as surrogate for Listeria monocytogenes. Based on the results of Headspace Solid-Phase Microextraction-Gas Chromatography/Mass Spectrometry analysis, a rich and complex volatilome, composed by more than 80 VOCs, was recognized and characterized. In more detail, the detected compounds belonged to 9 main classes, being oxygenated terpenes, alcohols, terpenes, ketones, acids, aldehydes, esters, sulfur, and sesquiterpenes.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/fermentation9080719</t>
+  </si>
+  <si>
+    <t>In this study, we used culture-independent analysis based on 16S rRNA gene amplicons and metagenomics to explore in depth the microbial communities and their metabolic capabilities of artisanal brine cheeses made in the North Caucasus. Additionally, analysis of organic acid profiles was carried out for cheese characterization. Twelve cheese samples (designated as 05SR–16SR) from various artisanal producers were taken from five different villages located in Northern Ossetia–Alania (Russia). These cheeses were made using methods based on cultural traditions inherited from previous generations and prepared using a relatively uncontrolled fermentation process. The microbial diversity of Caucasus artisanal cheeses was studied for the first time. The results showed a diverse composition in all cheeses, with Bacillota (synonym Firmicutes) (9.1–99.3%) or Pseudomonadota (synonym Proteobacteria) (0.2–89.2%) prevalence. The microbial communities of the majority of the studied cheeses were dominated by lactic acid bacteria (LAB) genera, like Lactococcus (10.3–77.1% in 07SR, 09SR, 10SR, 11SR, 13SR, 15SR, 16SR), Lactobacillus (54.6% in 09SR), Streptococcus (13.9–93.9% in 11SR, 13SR, 14SR, 15SR), Lactiplantibacillus (13.4–30.6% in 16SR and 07SR) and Lentilactobacillus (5.9–14.2% in 09SR, 10SR and 13SR). Halophilic lactic acid bacteria belonging to the Tetragenococcus genus accounted for 7.9–18.6% in 05SR and 06SR microbiomes. A distinctive feature of Ossetia cheese microbiomes was the large variety of halophilic proteobacteria, and in some cheeses they prevailed, e.g., Chromohalobacter (63–76.5% in 05SR and 06SR), Psychrobacter (10–47.1% in 08SR, 11SR, 12SR), Halomonas (2.9–33.5% in 06SR, 08SR, 11SR and 12SR), Marinobacter (41.9% in 12SR) or Idiomarina (2.9–14.4% in 06SR, 08SR and 11SR samples). Analysis of the genomes assembled from metagenomes of three cheeses with different bacterial composition revealed the presence of genes encoding a variety of enzymes, involved in milk sugar, proteins and lipid metabolism in genomes affiliated with LAB, as well as genes responsible for beneficial bioamine and bacteriocin synthesis. Also, most of the LAB did not contain antibiotic resistance genes, which makes them potential probiotics, so highly demanded nowadays. Analysis of the genomes related to halophilic proteobacteria revealed that they are not involved in milk fermentation; however, the search for “useful” genes responsible for the synthesis of beneficial products/metabolites was partially positive. In addition, it has been shown that some halophiles may be involved in the synthesis of inappropriate bioactive components. The results obtained by culture-independent analyses confirm the importance of using such techniques both to clarify the quality and health-promoting properties of the product, and to look for probiotic strains with specified unique properties. This study has shown that traditional dairy foods may be a source of such beneficial strains.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.lwt.2022.113212</t>
+  </si>
+  <si>
+    <t>The influence of the inoculum on bacterial communities of Spanish-style green table olive brinesis very limited. This work assessed the size and structure of the bacterial communities in olive brines inoculated with Lactiplantibacillus plantarum. Also, a new qPCR assay was developed to determine the specific abundance of this genus. Absolute abundances of total Bacteria and L. plantarum decrease steadily during the fermentation. Similarly, there were differences in both populations according to the container origin. On the other hand, the dominant bacterial genera were (in decreasing abundance): Vibrio, Marinilactibacillus, Lactiplantibacillus, Enterococcus, Secundilactobacillus, Loigolactobacillus, Amphibacillus, Pediococcus, Alkalibacterium, Halolactibacillus, Weissella, Lentilactobacillus and Paucilactobacillus. Colonisation and proliferation of several different genera within the Lactobacillacea family was allowed despite the use of a starter. Bacterial structure presented a broad intra-specific diversity among the different brines. Also, it was revealed that NaCl concentration was modulated the size and structure of the bacterial communities.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fm.2024.104534</t>
+  </si>
+  <si>
+    <t>The enhancement of the quality of northeast sauerkraut can be achieved by inoculation with lactic acid bacteria. However, a comprehensive ecological understanding of the intricate dynamic processes involved is currently lacking, which could yield valuable insights for regulating sauerkraut fermentation. This study compares spontaneously sauerkrauts with the sauerkrauts inoculated with autochthonous Lactiplantibacillus plantarum SC-MDJ and commercial L. plantarum, respectively. We examine their physicochemical properties, quality characteristics, bacterial community dynamics, and ecological network interactions. Inoculation with L. plantarum leads to reduced bacterial community richness and niche breadth, but an increase in robustness, interactions, and assembly processes. Notably, there appears to be a potential correlation between bacterial community structure and quality characteristics. Particularly, sauerkraut inoculated with L. plantarum SC-MDJ may produce a sourness more quickly, possibly attributed to the enhanced ecological role of L. plantarum SC-MDJ. This study establishes a foundation for the targeted regulation of sauerkraut fermentation.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodres.2024.115170</t>
+  </si>
+  <si>
+    <t>Extending the shelf life of fresh beef is essential for meat industry. This study explored the microbial community succession, metabolic profile changes, and their interactions during refrigerated storage of beef under different packaging methods. The results showed that compared with air packaging (AP), vacuum packaging (CV) and vacuum skin packaging (VS) maintained higher microbial diversity over longer periods. Among 1,106 metabolites identified, lipids and lipid-like molecules were most prominent. Unique pathways in VS beef, such as oxidative phosphorylation and calcium signaling pathways, underscored its advantages in maintaining beef flavor and oxidation stability. Moreover, dozens of metabolites were identified as potential biomarkers of the treatment effects of different packaging methods. Correlation analysis presented a significant positive correlation between bacterial genera like Brochothrix, Acinetobacter, Serratia, and metabolites such as lipids, organic acids, and nucleotides. This research offers essential insights for optimizing product safety and extending shelf life in the future meat industry.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2025.111111</t>
+  </si>
+  <si>
+    <t>Agiorgitiko is a major Greek red winegrape variety of high economic importance cultivated almost exclusively in the Nemea PDO zone in Peloponnese, Greece. Here, we describe the microbiota and mycobiota of grape and soil samples collected over three consecutive harvest periods (September 2019, 2020 and 2021). The results revealed a common microbiome composition across the Nemea PDO zone vineyards, despite significant variations in the community structure regarding dominant bacterial and fungal taxa per sampling year, which were associated with weather factors. Grape samples of 2019 were enriched in several plant growth promoting bacteria, including Bradyrhizobium, Streptomyces, Massilia and Sphingomonas, selected by the particular weather conditions. On the other hand, the predominance of Botrytis in the same samples was observed, indicating again the impact of weather conditions on the microbial structure. Understanding these dynamics could improve management practices aimed at vine cultivation and wine quality.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1635,13 +1791,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1653,13 +1842,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1971,14 +2167,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C781AEBC-C641-064D-ACC0-B023AB65836A}">
-  <dimension ref="A1:C272"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0F821E-4D0E-9C48-880F-AED2209EDDE4}">
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C272"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B271" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1992,2560 +2195,2560 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>52</v>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>54</v>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>60</v>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>66</v>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>68</v>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>70</v>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>72</v>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>74</v>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>76</v>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>78</v>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>80</v>
+      <c r="B41" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>82</v>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>84</v>
+      <c r="B43" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>86</v>
+      <c r="B44" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>88</v>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>90</v>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>92</v>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>94</v>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>96</v>
+      <c r="B49" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>98</v>
+      <c r="B50" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>100</v>
+      <c r="B51" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>102</v>
+      <c r="B52" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>104</v>
+      <c r="B53" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>106</v>
+      <c r="B54" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>108</v>
+      <c r="B55" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>110</v>
+      <c r="B56" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>112</v>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>114</v>
+      <c r="B58" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>116</v>
+      <c r="B59" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>118</v>
+      <c r="B60" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>120</v>
+      <c r="B61" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>122</v>
+      <c r="B62" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>124</v>
+      <c r="B63" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>126</v>
+      <c r="B64" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>128</v>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>130</v>
+      <c r="B66" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>132</v>
+      <c r="B67" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>134</v>
+      <c r="B68" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>136</v>
+      <c r="B69" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>138</v>
+      <c r="B70" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>140</v>
+      <c r="B71" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>142</v>
+      <c r="B72" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>144</v>
+      <c r="B73" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>146</v>
+      <c r="B74" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>148</v>
+      <c r="B75" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>150</v>
+      <c r="B76" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>152</v>
+      <c r="B77" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>154</v>
+      <c r="B78" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>156</v>
+      <c r="B79" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>158</v>
+      <c r="B80" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>160</v>
+      <c r="B81" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>162</v>
+      <c r="B82" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>164</v>
+      <c r="B83" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>166</v>
+      <c r="B84" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>168</v>
+      <c r="B85" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>170</v>
+      <c r="B86" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>172</v>
+      <c r="B87" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>174</v>
+      <c r="B88" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>176</v>
+      <c r="B89" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>178</v>
+      <c r="B90" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>180</v>
+      <c r="B91" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>182</v>
+      <c r="B92" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>184</v>
+      <c r="B93" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>186</v>
+      <c r="B94" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>188</v>
+      <c r="B95" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>190</v>
+      <c r="B96" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>192</v>
+      <c r="B97" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>194</v>
+      <c r="B98" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>196</v>
+      <c r="B99" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>198</v>
+      <c r="B100" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>200</v>
+      <c r="B101" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>202</v>
+      <c r="B102" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>204</v>
+      <c r="B103" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>206</v>
+      <c r="B104" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>208</v>
+      <c r="B105" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>210</v>
+      <c r="B106" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>212</v>
+      <c r="B107" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>214</v>
+      <c r="B108" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>216</v>
+      <c r="B109" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>218</v>
+      <c r="B110" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>220</v>
+      <c r="B111" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>222</v>
+      <c r="B112" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>224</v>
+      <c r="B113" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>226</v>
+      <c r="B114" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>228</v>
+      <c r="B115" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>230</v>
+      <c r="B116" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>231</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>232</v>
+      <c r="B117" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>234</v>
+      <c r="B118" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>236</v>
+      <c r="B119" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>238</v>
+      <c r="B120" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>240</v>
+      <c r="B121" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>242</v>
+      <c r="B122" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>244</v>
+      <c r="B123" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
-        <v>246</v>
+      <c r="B124" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
-        <v>246</v>
+      <c r="B125" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
-        <v>248</v>
+      <c r="B126" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
-        <v>250</v>
+      <c r="B127" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
-        <v>252</v>
+      <c r="B128" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
-        <v>254</v>
+      <c r="B129" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
-        <v>256</v>
+      <c r="B130" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
-        <v>258</v>
+      <c r="B131" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
-        <v>260</v>
+      <c r="B132" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>262</v>
+      <c r="B133" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
-        <v>264</v>
+      <c r="B134" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>265</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
-        <v>266</v>
+      <c r="B135" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
-        <v>268</v>
+      <c r="B136" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
-        <v>270</v>
+      <c r="B137" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
-        <v>272</v>
+      <c r="B138" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>273</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
-        <v>274</v>
+      <c r="B139" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
-        <v>276</v>
+      <c r="B140" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
-        <v>278</v>
+      <c r="B141" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
-        <v>280</v>
+      <c r="B142" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
-        <v>282</v>
+      <c r="B143" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
-        <v>284</v>
+      <c r="B144" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>285</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
-        <v>286</v>
+      <c r="B145" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
-        <v>288</v>
+      <c r="B146" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
-        <v>290</v>
+      <c r="B147" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>292</v>
+      <c r="B148" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
-        <v>294</v>
+      <c r="B149" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
-        <v>296</v>
+      <c r="B150" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
-        <v>298</v>
+      <c r="B151" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
-        <v>300</v>
+      <c r="B152" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>302</v>
+      <c r="B153" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
-        <v>304</v>
+      <c r="B154" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
-        <v>306</v>
+      <c r="B155" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
-        <v>308</v>
+      <c r="B156" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>309</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
-        <v>310</v>
+      <c r="B157" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
-        <v>312</v>
+      <c r="B158" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
-        <v>314</v>
+      <c r="B159" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
-        <v>316</v>
+      <c r="B160" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
-        <v>318</v>
+      <c r="B161" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
-        <v>320</v>
+      <c r="B162" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
-        <v>322</v>
+      <c r="B163" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>324</v>
+      <c r="B164" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
-        <v>326</v>
+      <c r="B165" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
-        <v>328</v>
+      <c r="B166" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
-        <v>330</v>
+      <c r="B167" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
-        <v>332</v>
+      <c r="B168" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>334</v>
+      <c r="B169" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>336</v>
+      <c r="B170" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>338</v>
+      <c r="B171" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>340</v>
+      <c r="B172" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>342</v>
+      <c r="B173" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>344</v>
+      <c r="B174" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>346</v>
+      <c r="B175" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
-        <v>348</v>
+      <c r="B176" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>350</v>
+      <c r="B177" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
-        <v>352</v>
+      <c r="B178" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>354</v>
+      <c r="B179" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>356</v>
+      <c r="B180" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>358</v>
+      <c r="B181" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>360</v>
+      <c r="B182" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
-        <v>362</v>
+      <c r="B183" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
-        <v>364</v>
+      <c r="B184" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>366</v>
+      <c r="B185" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
-        <v>368</v>
+      <c r="B186" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
-        <v>370</v>
+      <c r="B187" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
-        <v>372</v>
+      <c r="B188" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>374</v>
+      <c r="B189" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
-        <v>376</v>
+      <c r="B190" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>378</v>
+      <c r="B191" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>380</v>
+      <c r="B192" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>382</v>
+      <c r="B193" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>384</v>
+      <c r="B194" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>386</v>
+      <c r="B195" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
-        <v>388</v>
+      <c r="B196" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
-        <v>390</v>
+      <c r="B197" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
-        <v>392</v>
+      <c r="B198" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
-        <v>394</v>
+      <c r="B199" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
-        <v>396</v>
+      <c r="B200" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
-        <v>398</v>
+      <c r="B201" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
-        <v>400</v>
+      <c r="B202" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
-        <v>402</v>
+      <c r="B203" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>404</v>
+      <c r="B204" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
-        <v>406</v>
+      <c r="B205" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
-        <v>408</v>
+      <c r="B206" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
-        <v>410</v>
+      <c r="B207" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
-        <v>412</v>
+      <c r="B208" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
-        <v>414</v>
+      <c r="B209" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
-        <v>416</v>
+      <c r="B210" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
-        <v>418</v>
+      <c r="B211" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
-        <v>420</v>
+      <c r="B212" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
-        <v>422</v>
+      <c r="B213" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
-        <v>424</v>
+      <c r="B214" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
-        <v>426</v>
+      <c r="B215" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
-        <v>428</v>
+      <c r="B216" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
-        <v>430</v>
+      <c r="B217" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
-        <v>432</v>
+      <c r="B218" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
-        <v>434</v>
+      <c r="B219" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>436</v>
+      <c r="B220" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
-        <v>438</v>
+      <c r="B221" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>440</v>
+      <c r="B222" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>442</v>
+      <c r="B223" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
-        <v>444</v>
+      <c r="B224" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>446</v>
+      <c r="B225" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>448</v>
+      <c r="B226" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
-        <v>450</v>
+      <c r="B227" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C227" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>452</v>
+      <c r="B228" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>454</v>
+      <c r="B229" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
-        <v>456</v>
+      <c r="B230" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C230" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
-        <v>458</v>
+      <c r="B231" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="C231" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
-        <v>460</v>
+      <c r="B232" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
-        <v>462</v>
+      <c r="B233" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C233" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
-        <v>464</v>
+      <c r="B234" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C234" t="s">
         <v>465</v>
@@ -4570,7 +4773,7 @@
         <v>468</v>
       </c>
       <c r="C236" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4578,18 +4781,18 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C237" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>472</v>
+      <c r="B238" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="C238" t="s">
         <v>473</v>
@@ -4600,10 +4803,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>470</v>
+      </c>
+      <c r="C239" t="s">
         <v>474</v>
-      </c>
-      <c r="C239" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4611,10 +4814,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="C240" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4622,10 +4825,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C241" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4633,10 +4836,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C242" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4666,10 +4869,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C245" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -4677,10 +4880,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>386</v>
+        <v>194</v>
       </c>
       <c r="C246" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4688,10 +4891,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C247" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4699,10 +4902,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C248" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4710,10 +4913,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C249" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -4721,10 +4924,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C250" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -4743,10 +4946,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>492</v>
+      </c>
+      <c r="C252" t="s">
         <v>491</v>
-      </c>
-      <c r="C252" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -4768,7 +4971,7 @@
         <v>495</v>
       </c>
       <c r="C254" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4776,10 +4979,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>496</v>
+      </c>
+      <c r="C255" t="s">
         <v>497</v>
-      </c>
-      <c r="C255" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -4787,18 +4990,18 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>498</v>
+      </c>
+      <c r="C256" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="5">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
         <v>499</v>
-      </c>
-      <c r="C256" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257">
-        <v>256</v>
-      </c>
-      <c r="B257" t="s">
-        <v>501</v>
       </c>
       <c r="C257" t="s">
         <v>502</v>
@@ -4809,10 +5012,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C258" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -4820,10 +5023,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>504</v>
+      </c>
+      <c r="C259" t="s">
         <v>505</v>
-      </c>
-      <c r="C259" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -4831,10 +5034,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>506</v>
+      </c>
+      <c r="C260" t="s">
         <v>507</v>
-      </c>
-      <c r="C260" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -4842,7 +5045,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="C261" t="s">
         <v>509</v>
@@ -4853,10 +5056,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>508</v>
+      </c>
+      <c r="C262" t="s">
         <v>510</v>
-      </c>
-      <c r="C262" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -4864,10 +5067,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="C263" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -4875,7 +5078,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C264" t="s">
         <v>502</v>
@@ -4886,10 +5089,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>511</v>
+      </c>
+      <c r="C265" t="s">
         <v>512</v>
-      </c>
-      <c r="C265" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -4900,7 +5103,7 @@
         <v>514</v>
       </c>
       <c r="C266" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -4908,10 +5111,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>515</v>
+      </c>
+      <c r="C267" t="s">
         <v>516</v>
-      </c>
-      <c r="C267" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -4922,7 +5125,7 @@
         <v>518</v>
       </c>
       <c r="C268" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -4930,10 +5133,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>519</v>
+      </c>
+      <c r="C269" t="s">
         <v>520</v>
-      </c>
-      <c r="C269" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -4944,7 +5147,7 @@
         <v>522</v>
       </c>
       <c r="C270" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -4952,10 +5155,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>523</v>
+      </c>
+      <c r="C271" t="s">
         <v>524</v>
-      </c>
-      <c r="C271" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -4963,13 +5166,337 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>525</v>
+      </c>
+      <c r="C272" t="s">
         <v>526</v>
       </c>
-      <c r="C272" t="s">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>528</v>
+      </c>
+      <c r="C273" t="s">
         <v>527</v>
       </c>
     </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>529</v>
+      </c>
+      <c r="C274" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>533</v>
+      </c>
+      <c r="C275" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>534</v>
+      </c>
+      <c r="C276" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>536</v>
+      </c>
+      <c r="C277" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>538</v>
+      </c>
+      <c r="C278" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>540</v>
+      </c>
+      <c r="C279" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>542</v>
+      </c>
+      <c r="C280" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>545</v>
+      </c>
+      <c r="C281" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>546</v>
+      </c>
+      <c r="C282" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>548</v>
+      </c>
+      <c r="C283" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>550</v>
+      </c>
+      <c r="C284" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>552</v>
+      </c>
+      <c r="C285" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>552</v>
+      </c>
+      <c r="C286" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>556</v>
+      </c>
+      <c r="C287" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>529</v>
+      </c>
+      <c r="C288" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>558</v>
+      </c>
+      <c r="C289" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>560</v>
+      </c>
+      <c r="C290" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>561</v>
+      </c>
+      <c r="C291" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>564</v>
+      </c>
+      <c r="C292" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>565</v>
+      </c>
+      <c r="C293" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>567</v>
+      </c>
+      <c r="C294" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>569</v>
+      </c>
+      <c r="C295" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>536</v>
+      </c>
+      <c r="C296" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>571</v>
+      </c>
+      <c r="C297" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>573</v>
+      </c>
+      <c r="C298" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>575</v>
+      </c>
+      <c r="C299" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>528</v>
+      </c>
+      <c r="C300" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>577</v>
+      </c>
+      <c r="C301" t="s">
+        <v>578</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C234" xr:uid="{0F0F821E-4D0E-9C48-880F-AED2209EDDE4}"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1893EEE2-D99C-3E43-9281-0CF063C6C557}"/>
+    <hyperlink ref="B84" r:id="rId2" xr:uid="{43879421-2C75-2643-A42B-3509AED6FBFB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/the_real_thing/FMBN_5/Excel_text_files_v5/Abstracts.xlsx
+++ b/the_real_thing/FMBN_5/Excel_text_files_v5/Abstracts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenioparente/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN_5_1/FMBN5_1_1_060525/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenioparente/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN_5_1_2/FMBN_5_1_2_100925/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F057AC3-9ECA-4547-ABE1-42FD0C3B75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C017EEE6-9D5B-EA45-908E-E9493DD341DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="500" windowWidth="31940" windowHeight="17560" xr2:uid="{EC83DC76-DA63-8B42-8906-4BAF203BC638}"/>
+    <workbookView xWindow="4780" yWindow="500" windowWidth="34080" windowHeight="19200" xr2:uid="{EC83DC76-DA63-8B42-8906-4BAF203BC638}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="582">
   <si>
     <t>study</t>
   </si>
@@ -1777,6 +1777,15 @@
   </si>
   <si>
     <t>Agiorgitiko is a major Greek red winegrape variety of high economic importance cultivated almost exclusively in the Nemea PDO zone in Peloponnese, Greece. Here, we describe the microbiota and mycobiota of grape and soil samples collected over three consecutive harvest periods (September 2019, 2020 and 2021). The results revealed a common microbiome composition across the Nemea PDO zone vineyards, despite significant variations in the community structure regarding dominant bacterial and fungal taxa per sampling year, which were associated with weather factors. Grape samples of 2019 were enriched in several plant growth promoting bacteria, including Bradyrhizobium, Streptomyces, Massilia and Sphingomonas, selected by the particular weather conditions. On the other hand, the predominance of Botrytis in the same samples was observed, indicating again the impact of weather conditions on the microbial structure. Understanding these dynamics could improve management practices aimed at vine cultivation and wine quality.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2025.111332</t>
+  </si>
+  <si>
+    <t>The microbial terroir of Greek olive varieties remains underexplored. In this study, 62 samples of olive fruits, collected across the harvest period 2019–2020, were analyzed by high-throughput sequencing. The samples represented 38 olive varieties collected from geographically well distributed regions of Greece. Analysis of the bacterial composition revealed that the geographical area was a significant factor in discriminating samples. The core microbiota included Erwinia, Pseudomonas, and members of the Enterobacteriaceae family. Furthermore, a notable variation in bacterial taxa abundances associated with the geographic location was observed. The sampling area was a key discriminant factor for the mycobiota, and the core mycobiota comprised Alternaria, Taphrina, Candida, Wickerhamomyces anomalus and Penicillium. Finally, Redundancy Analysis (RDA) revealed a notable association between environmental characteristics and microbial composition. Specifically, tree age was associated with certain bacterial and fungal taxa (Pearson's correlation p-value adj.[FDR] &lt; 0.05).</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -2168,13 +2177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0F821E-4D0E-9C48-880F-AED2209EDDE4}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B271" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D301" sqref="D301"/>
+      <selection pane="bottomRight" activeCell="C303" sqref="A1:C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5491,6 +5500,28 @@
         <v>578</v>
       </c>
     </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>579</v>
+      </c>
+      <c r="C302" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>581</v>
+      </c>
+      <c r="C303" t="s">
+        <v>581</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C234" xr:uid="{0F0F821E-4D0E-9C48-880F-AED2209EDDE4}"/>
   <hyperlinks>
